--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A6997A-DACC-4E09-BABA-A905559A45CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FF706A-A10B-4EA4-8B64-99CB145C580D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,57 +26,9 @@
     <sheet name="SEAI_Bal" sheetId="13" r:id="rId11"/>
     <sheet name="Conversions" sheetId="16" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
-    <externalReference r:id="rId17"/>
-    <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
-  </externalReferences>
   <definedNames>
     <definedName name="aa" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="All_TP">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_US">#REF!,#REF!,#REF!</definedName>
-    <definedName name="Annual_Fuel_Consumption">#REF!</definedName>
-    <definedName name="Beta">#REF!</definedName>
-    <definedName name="body1ea">#REF!</definedName>
-    <definedName name="body1eb">#REF!</definedName>
-    <definedName name="body1fa">#REF!</definedName>
-    <definedName name="body1fb">#REF!</definedName>
-    <definedName name="body1ga">#REF!</definedName>
-    <definedName name="body1gb">#REF!</definedName>
-    <definedName name="body2ea">#REF!</definedName>
-    <definedName name="body2eb">#REF!</definedName>
-    <definedName name="body2f">#REF!</definedName>
-    <definedName name="body2fa">#REF!</definedName>
-    <definedName name="body2fb">#REF!</definedName>
-    <definedName name="body2ga">#REF!</definedName>
-    <definedName name="body2gb">#REF!</definedName>
-    <definedName name="body3ea">#REF!</definedName>
-    <definedName name="body3eb">#REF!</definedName>
-    <definedName name="body3fa">#REF!</definedName>
-    <definedName name="body3fb">#REF!</definedName>
-    <definedName name="body3ga">#REF!</definedName>
-    <definedName name="body3gb">#REF!</definedName>
-    <definedName name="body4ea">#REF!</definedName>
-    <definedName name="body4eb">#REF!</definedName>
-    <definedName name="body4f">#REF!</definedName>
-    <definedName name="body4fa">#REF!</definedName>
-    <definedName name="body4fb">#REF!</definedName>
-    <definedName name="body4ga">#REF!</definedName>
-    <definedName name="body4gb">#REF!</definedName>
-    <definedName name="Cadmium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="ChosenYear">[1]Cover!$G$117</definedName>
-    <definedName name="Chromium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="Copper_Content_ppm_wt">#REF!</definedName>
-    <definedName name="countrye">#REF!</definedName>
-    <definedName name="countryf">#REF!</definedName>
-    <definedName name="countryg">#REF!</definedName>
-    <definedName name="CRF_CountryName">[2]Sheet1!$C$4</definedName>
-    <definedName name="data_range">'[3]CSO data'!#REF!</definedName>
     <definedName name="elec" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
@@ -85,61 +37,10 @@
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="EnergyService">[4]Tertiary!#REF!</definedName>
-    <definedName name="Eng">[1]Cover!$G$111</definedName>
-    <definedName name="Etiket">#REF!</definedName>
-    <definedName name="Euro_GBP" localSheetId="8">#REF!</definedName>
-    <definedName name="Euro_GBP" localSheetId="7">#REF!</definedName>
-    <definedName name="Euro_GBP">#REF!</definedName>
-    <definedName name="Evap_Control_perc">#REF!</definedName>
-    <definedName name="Evap_H_Share_perc">#REF!</definedName>
-    <definedName name="Evap_R_Share_perc">#REF!</definedName>
-    <definedName name="Evap_U_Share_perc">#REF!</definedName>
-    <definedName name="FID_1">[5]AGR_Fuels!$A$2</definedName>
-    <definedName name="Fuel_Injection_perc">#REF!</definedName>
-    <definedName name="Fuel_Specifications">#REF!</definedName>
-    <definedName name="GBP_Euro">#REF!</definedName>
-    <definedName name="H_C_Ratio">#REF!</definedName>
-    <definedName name="H_Share_perc">#REF!</definedName>
-    <definedName name="H_Speed_km_per_h">#REF!</definedName>
-    <definedName name="Improved_Fuel_Specs">#REF!</definedName>
-    <definedName name="Lead_Content_g_per_l">#REF!</definedName>
-    <definedName name="Max_Temperature_oC">#REF!</definedName>
-    <definedName name="Mean_Fleet_Mileage_km">#REF!</definedName>
-    <definedName name="Mileage_km">#REF!</definedName>
-    <definedName name="Mileage_km_per_year">#REF!</definedName>
-    <definedName name="Min_Temperature_oC">#REF!</definedName>
-    <definedName name="Nikel_Content_ppm_wt">#REF!</definedName>
-    <definedName name="O_C_Ratio">#REF!</definedName>
-    <definedName name="Population">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">SEAI_Bal!$A$1:$AM$27</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="10">SEAI_Bal!$A:$B,SEAI_Bal!$1:$1</definedName>
-    <definedName name="qr_Profili_insmart_T20_quartieri">#REF!</definedName>
-    <definedName name="R_Share_perc">#REF!</definedName>
-    <definedName name="R_Speed_km_per_h">#REF!</definedName>
-    <definedName name="RetBE">[6]Macro1!#REF!</definedName>
-    <definedName name="RVP_and_beta">#REF!</definedName>
-    <definedName name="RVP_kPa">[7]RVP_kPa!$A$1:$B$13</definedName>
-    <definedName name="Selenium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="Sulphur_Content_perc_wt">#REF!</definedName>
     <definedName name="table6" localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="Temperatures">#REF!</definedName>
-    <definedName name="tiket">#REF!</definedName>
-    <definedName name="TP.Electricity_and_RES">#REF!</definedName>
-    <definedName name="TP.Petroleum">#REF!</definedName>
-    <definedName name="TP.Solids_and_Gases">#REF!</definedName>
-    <definedName name="U_Share_perc">#REF!</definedName>
-    <definedName name="U_Speed_km_per_h">#REF!</definedName>
-    <definedName name="US.Electricity_and_RES">#REF!</definedName>
-    <definedName name="US.Petroleum">#REF!</definedName>
-    <definedName name="US.Solids_and_Gases">#REF!</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="8" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="yeare">#REF!</definedName>
-    <definedName name="yearf">#REF!</definedName>
-    <definedName name="yearg">#REF!</definedName>
-    <definedName name="Zinc_Content_ppm_wt">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2673,12 +2574,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="180" formatCode="0.000"/>
-    <numFmt numFmtId="181" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
-    <numFmt numFmtId="186" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0;[Red]\-#,##0.0"/>
   </numFmts>
   <fonts count="52">
     <font>
@@ -4825,7 +4726,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4834,13 +4735,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4858,13 +4759,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4964,16 +4865,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4992,10 +4893,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5032,7 +4933,7 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5043,7 +4944,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -5157,22 +5058,22 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5252,7 +5153,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5262,11 +5163,11 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="31" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5335,7 +5236,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5354,39 +5255,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5426,19 +5327,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6028,13 +5929,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6043,7 +5944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6054,7 +5955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6066,7 +5967,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6117,7 +6018,7 @@
     <xf numFmtId="38" fontId="12" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6136,7 +6037,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6164,7 +6065,7 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6186,8 +6087,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6826,574 +6727,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Start"/>
-      <sheetName val="Cover"/>
-      <sheetName val="Menu"/>
-      <sheetName val="Table1"/>
-      <sheetName val="Table2"/>
-      <sheetName val="Table3"/>
-      <sheetName val="Table4"/>
-      <sheetName val="Table5"/>
-      <sheetName val="Table6a"/>
-      <sheetName val="Table6b"/>
-      <sheetName val="Table6c"/>
-      <sheetName val="Table6d"/>
-      <sheetName val="Table7a"/>
-      <sheetName val="Table7b"/>
-      <sheetName val="Table8"/>
-      <sheetName val="TableEU-1"/>
-      <sheetName val="TableEU-2"/>
-      <sheetName val="GELE"/>
-      <sheetName val="GHEAT"/>
-      <sheetName val="NELE"/>
-      <sheetName val="NHEAT"/>
-      <sheetName val="ELET34"/>
-      <sheetName val="HEAT34"/>
-      <sheetName val="TAB5ELE"/>
-      <sheetName val="TAB5CHP"/>
-      <sheetName val="TAB5TOT"/>
-      <sheetName val="TAB5HEAT"/>
-      <sheetName val="TAB5CHPH"/>
-      <sheetName val="TAB5TOTH"/>
-      <sheetName val="TAB6ANTONS"/>
-      <sheetName val="TAB6CCTONS"/>
-      <sheetName val="TAB6OBCTONS"/>
-      <sheetName val="TAB6SCTONS"/>
-      <sheetName val="TAB6LIGTONS"/>
-      <sheetName val="TAB6PEATONS"/>
-      <sheetName val="TAB6PFUELTONS"/>
-      <sheetName val="TAB6COKEOCTONS"/>
-      <sheetName val="TAB6GASCOKETONS"/>
-      <sheetName val="TAB6COALTARTONS"/>
-      <sheetName val="TAB6BKBTONS"/>
-      <sheetName val="TAB6GWGASTJ"/>
-      <sheetName val="TAB6COGTJ"/>
-      <sheetName val="TAB6BFGTJ"/>
-      <sheetName val="TAB6OSGASTJ"/>
-      <sheetName val="TAB6CRUDOILTONS"/>
-      <sheetName val="TAB6NGLTONS"/>
-      <sheetName val="TAB6REFGASTONS"/>
-      <sheetName val="TAB6LPGTONS"/>
-      <sheetName val="TAB6NAPHTHATONS"/>
-      <sheetName val="TAB6KERJETONS"/>
-      <sheetName val="TAB6OTHKEROTONS"/>
-      <sheetName val="TAB6GASDIESTONS"/>
-      <sheetName val="TAB6HFUELTONS"/>
-      <sheetName val="TAB6BITUTONS"/>
-      <sheetName val="TAB6PETCOKETONS"/>
-      <sheetName val="TAB6OTHOILTONS"/>
-      <sheetName val="TAB6NGASTJ"/>
-      <sheetName val="TAB6INDWTJ"/>
-      <sheetName val="TAB6MSWRTJ"/>
-      <sheetName val="TAB6MSWNRTJ"/>
-      <sheetName val="TAB6WOODTJ"/>
-      <sheetName val="TAB6LANDGASTJ"/>
-      <sheetName val="TAB6SEWAGETJ"/>
-      <sheetName val="TAB6OTHBIOTJ"/>
-      <sheetName val="TAB6LIQBIOTONS"/>
-      <sheetName val="TAB6TOTAL"/>
-      <sheetName val="TAB7MAIN"/>
-      <sheetName val="TAB7AUTO"/>
-      <sheetName val="TAB8IMPE"/>
-      <sheetName val="TAB8IMPHC"/>
-      <sheetName val="TAB8EXPE"/>
-      <sheetName val="TAB8EXPHC"/>
-      <sheetName val="Remarks"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="105">
-          <cell r="D105">
-            <v>2010</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="G111">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="G117">
-            <v>2010</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="42">
-          <cell r="AE42" t="str">
-            <v>Menu</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>European Community</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Intro"/>
-      <sheetName val="EB2012"/>
-      <sheetName val="COM_Balance"/>
-      <sheetName val="COM_Commodities"/>
-      <sheetName val="COM_Processes"/>
-      <sheetName val="COM_FuelTechs"/>
-      <sheetName val="COM_EmiCoeffs"/>
-      <sheetName val="COM_CH"/>
-      <sheetName val="COM_CW"/>
-      <sheetName val="COM_CC"/>
-      <sheetName val="COM_COth"/>
-      <sheetName val="COM_PV"/>
-      <sheetName val="Commercial SEAI"/>
-      <sheetName val="Public SEAI"/>
-      <sheetName val="CSO data"/>
-      <sheetName val="Public BOC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7_Buildings managed by municipa"/>
-      <sheetName val="Tertiary"/>
-      <sheetName val="7_Buildings managed by muni (2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IEA Data"/>
-      <sheetName val="E&amp;D Drivers"/>
-      <sheetName val="AGR_Fuels"/>
-      <sheetName val="AGR"/>
-      <sheetName val="RES_Fuels"/>
-      <sheetName val="RH1"/>
-      <sheetName val="RH2"/>
-      <sheetName val="RH3"/>
-      <sheetName val="RH4"/>
-      <sheetName val="RC1"/>
-      <sheetName val="RC2"/>
-      <sheetName val="RC3"/>
-      <sheetName val="RC4"/>
-      <sheetName val="RHW"/>
-      <sheetName val="RRF"/>
-      <sheetName val="RCW"/>
-      <sheetName val="RCD"/>
-      <sheetName val="RK1"/>
-      <sheetName val="RK2"/>
-      <sheetName val="RK3"/>
-      <sheetName val="RK4"/>
-      <sheetName val="RDW"/>
-      <sheetName val="RME"/>
-      <sheetName val="RL1"/>
-      <sheetName val="RL2"/>
-      <sheetName val="RL3"/>
-      <sheetName val="RL4"/>
-      <sheetName val="COM_Fuels"/>
-      <sheetName val="CH1"/>
-      <sheetName val="CH2"/>
-      <sheetName val="CH3"/>
-      <sheetName val="CH4"/>
-      <sheetName val="CC1"/>
-      <sheetName val="CC2"/>
-      <sheetName val="CC3"/>
-      <sheetName val="CC4"/>
-      <sheetName val="CHW"/>
-      <sheetName val="CAA"/>
-      <sheetName val="CLA"/>
-      <sheetName val="ElastPar"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="Intro"/>
-      <sheetName val="TechRep"/>
-      <sheetName val="Other_HYDRO"/>
-      <sheetName val="Other_NUCL"/>
-      <sheetName val="Other_THERM"/>
-      <sheetName val="Other_CHP"/>
-      <sheetName val="Other_RENEW"/>
-      <sheetName val="Other_HEAT"/>
-      <sheetName val="ELC_FUELS"/>
-      <sheetName val="ELC"/>
-      <sheetName val="HEAT"/>
-      <sheetName val="CHP"/>
-      <sheetName val="ELC_EMI"/>
-      <sheetName val="Constant Table"/>
-      <sheetName val="ANS_ITEMS_DEL"/>
-      <sheetName val="ANS_ITEMS"/>
-      <sheetName val="ANS_TIDDATA"/>
-      <sheetName val="ANS_TSDATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Macro1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Population"/>
-      <sheetName val="Mileage_km"/>
-      <sheetName val="Mean_Fleet_Mileage_km"/>
-      <sheetName val="Fuel_Injection_perc"/>
-      <sheetName val="Evap_Control_perc"/>
-      <sheetName val="U_Speed_km_per_h"/>
-      <sheetName val="R_Speed_km_per_h"/>
-      <sheetName val="H_Speed_km_per_h"/>
-      <sheetName val="U_Share_perc"/>
-      <sheetName val="R_Share_perc"/>
-      <sheetName val="H_Share_perc"/>
-      <sheetName val="Evap_U_Share_perc"/>
-      <sheetName val="Evap_R_Share_perc"/>
-      <sheetName val="Evap_H_Share_perc"/>
-      <sheetName val="Min_Temperature_oC"/>
-      <sheetName val="Max_Temperature_oC"/>
-      <sheetName val="Temperatures"/>
-      <sheetName val="RVP_kPa"/>
-      <sheetName val="Beta"/>
-      <sheetName val="Fuel_Specifications"/>
-      <sheetName val="Improved_Fuel_Specs"/>
-      <sheetName val="Annual_Fuel_Consumption"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Month_</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>2005</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>January</v>
-          </cell>
-          <cell r="B2">
-            <v>88.7</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>February</v>
-          </cell>
-          <cell r="B3">
-            <v>87.9</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>March</v>
-          </cell>
-          <cell r="B4">
-            <v>85.7</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>April</v>
-          </cell>
-          <cell r="B5">
-            <v>72.900000000000006</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>May</v>
-          </cell>
-          <cell r="B6">
-            <v>62.8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>June</v>
-          </cell>
-          <cell r="B7">
-            <v>59.6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>July</v>
-          </cell>
-          <cell r="B8">
-            <v>59.8</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>August</v>
-          </cell>
-          <cell r="B9">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>September</v>
-          </cell>
-          <cell r="B10">
-            <v>57.9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>October</v>
-          </cell>
-          <cell r="B11">
-            <v>68.8</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>November</v>
-          </cell>
-          <cell r="B12">
-            <v>81.099999999999994</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>December</v>
-          </cell>
-          <cell r="B13">
-            <v>86.9</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -29985,21 +29318,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -30145,24 +29463,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30178,4 +29494,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3CC13E-7DFF-493E-ABF9-C904A391C10E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1755540-F84A-414E-82AB-5C979D43B516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,56 +30,10 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
-    <externalReference r:id="rId17"/>
-    <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
-    <externalReference r:id="rId21"/>
-    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="aa" localSheetId="10" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="All_TP">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_US">#REF!,#REF!,#REF!</definedName>
-    <definedName name="Annual_Fuel_Consumption">#REF!</definedName>
-    <definedName name="Beta">#REF!</definedName>
-    <definedName name="body1ea">#REF!</definedName>
-    <definedName name="body1eb">#REF!</definedName>
-    <definedName name="body1fa">#REF!</definedName>
-    <definedName name="body1fb">#REF!</definedName>
-    <definedName name="body1ga">#REF!</definedName>
-    <definedName name="body1gb">#REF!</definedName>
-    <definedName name="body2ea">#REF!</definedName>
-    <definedName name="body2eb">#REF!</definedName>
-    <definedName name="body2f">#REF!</definedName>
-    <definedName name="body2fa">#REF!</definedName>
-    <definedName name="body2fb">#REF!</definedName>
-    <definedName name="body2ga">#REF!</definedName>
-    <definedName name="body2gb">#REF!</definedName>
-    <definedName name="body3ea">#REF!</definedName>
-    <definedName name="body3eb">#REF!</definedName>
-    <definedName name="body3fa">#REF!</definedName>
-    <definedName name="body3fb">#REF!</definedName>
-    <definedName name="body3ga">#REF!</definedName>
-    <definedName name="body3gb">#REF!</definedName>
-    <definedName name="body4ea">#REF!</definedName>
-    <definedName name="body4eb">#REF!</definedName>
-    <definedName name="body4f">#REF!</definedName>
-    <definedName name="body4fa">#REF!</definedName>
-    <definedName name="body4fb">#REF!</definedName>
-    <definedName name="body4ga">#REF!</definedName>
-    <definedName name="body4gb">#REF!</definedName>
-    <definedName name="Cadmium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="ChosenYear">[1]Cover!$G$117</definedName>
-    <definedName name="Chromium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="Copper_Content_ppm_wt">#REF!</definedName>
-    <definedName name="countrye">#REF!</definedName>
-    <definedName name="countryf">#REF!</definedName>
-    <definedName name="countryg">#REF!</definedName>
-    <definedName name="CRF_CountryName">[2]Sheet1!$C$4</definedName>
-    <definedName name="data_range">'[3]CSO data'!#REF!</definedName>
     <definedName name="elec" localSheetId="10" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="10" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
@@ -88,61 +42,10 @@
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="10" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="EnergyService">[4]Tertiary!#REF!</definedName>
-    <definedName name="Eng">[1]Cover!$G$111</definedName>
-    <definedName name="Etiket">#REF!</definedName>
-    <definedName name="Euro_GBP" localSheetId="10">#REF!</definedName>
-    <definedName name="Euro_GBP" localSheetId="3">#REF!</definedName>
-    <definedName name="Euro_GBP">#REF!</definedName>
-    <definedName name="Evap_Control_perc">#REF!</definedName>
-    <definedName name="Evap_H_Share_perc">#REF!</definedName>
-    <definedName name="Evap_R_Share_perc">#REF!</definedName>
-    <definedName name="Evap_U_Share_perc">#REF!</definedName>
-    <definedName name="FID_1">[5]AGR_Fuels!$A$2</definedName>
-    <definedName name="Fuel_Injection_perc">#REF!</definedName>
-    <definedName name="Fuel_Specifications">#REF!</definedName>
-    <definedName name="GBP_Euro">#REF!</definedName>
-    <definedName name="H_C_Ratio">#REF!</definedName>
-    <definedName name="H_Share_perc">#REF!</definedName>
-    <definedName name="H_Speed_km_per_h">#REF!</definedName>
-    <definedName name="Improved_Fuel_Specs">#REF!</definedName>
-    <definedName name="Lead_Content_g_per_l">#REF!</definedName>
-    <definedName name="Max_Temperature_oC">#REF!</definedName>
-    <definedName name="Mean_Fleet_Mileage_km">#REF!</definedName>
-    <definedName name="Mileage_km">#REF!</definedName>
-    <definedName name="Mileage_km_per_year">#REF!</definedName>
-    <definedName name="Min_Temperature_oC">#REF!</definedName>
-    <definedName name="Nikel_Content_ppm_wt">#REF!</definedName>
-    <definedName name="O_C_Ratio">#REF!</definedName>
-    <definedName name="Population">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">SEAI_Bal!$A$1:$AM$27</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="12">SEAI_Bal!$A:$B,SEAI_Bal!$1:$1</definedName>
-    <definedName name="qr_Profili_insmart_T20_quartieri">#REF!</definedName>
-    <definedName name="R_Share_perc">#REF!</definedName>
-    <definedName name="R_Speed_km_per_h">#REF!</definedName>
-    <definedName name="RetBE">[6]Macro1!#REF!</definedName>
-    <definedName name="RVP_and_beta">#REF!</definedName>
-    <definedName name="RVP_kPa">[7]RVP_kPa!$A$1:$B$13</definedName>
-    <definedName name="Selenium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="Sulphur_Content_perc_wt">#REF!</definedName>
     <definedName name="table6" localSheetId="10" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="Temperatures">#REF!</definedName>
-    <definedName name="tiket">#REF!</definedName>
-    <definedName name="TP.Electricity_and_RES">#REF!</definedName>
-    <definedName name="TP.Petroleum">#REF!</definedName>
-    <definedName name="TP.Solids_and_Gases">#REF!</definedName>
-    <definedName name="U_Share_perc">#REF!</definedName>
-    <definedName name="U_Speed_km_per_h">#REF!</definedName>
-    <definedName name="US.Electricity_and_RES">#REF!</definedName>
-    <definedName name="US.Petroleum">#REF!</definedName>
-    <definedName name="US.Solids_and_Gases">#REF!</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="10" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="yeare">#REF!</definedName>
-    <definedName name="yearf">#REF!</definedName>
-    <definedName name="yearg">#REF!</definedName>
-    <definedName name="Zinc_Content_ppm_wt">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4129,12 +4032,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="180" formatCode="0.000"/>
-    <numFmt numFmtId="181" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
-    <numFmt numFmtId="186" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0;[Red]\-#,##0.0"/>
   </numFmts>
   <fonts count="56">
     <font>
@@ -6346,7 +6249,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6355,13 +6258,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6379,13 +6282,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6485,16 +6388,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6513,10 +6416,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6553,7 +6456,7 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6564,7 +6467,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -6678,22 +6581,22 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6773,7 +6676,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6783,11 +6686,11 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="31" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6856,7 +6759,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6875,39 +6778,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6947,19 +6850,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7549,19 +7452,19 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7571,7 +7474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7583,7 +7486,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7634,7 +7537,7 @@
     <xf numFmtId="38" fontId="12" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7653,7 +7556,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7700,8 +7603,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7751,12 +7654,12 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8402,574 +8305,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Start"/>
-      <sheetName val="Cover"/>
-      <sheetName val="Menu"/>
-      <sheetName val="Table1"/>
-      <sheetName val="Table2"/>
-      <sheetName val="Table3"/>
-      <sheetName val="Table4"/>
-      <sheetName val="Table5"/>
-      <sheetName val="Table6a"/>
-      <sheetName val="Table6b"/>
-      <sheetName val="Table6c"/>
-      <sheetName val="Table6d"/>
-      <sheetName val="Table7a"/>
-      <sheetName val="Table7b"/>
-      <sheetName val="Table8"/>
-      <sheetName val="TableEU-1"/>
-      <sheetName val="TableEU-2"/>
-      <sheetName val="GELE"/>
-      <sheetName val="GHEAT"/>
-      <sheetName val="NELE"/>
-      <sheetName val="NHEAT"/>
-      <sheetName val="ELET34"/>
-      <sheetName val="HEAT34"/>
-      <sheetName val="TAB5ELE"/>
-      <sheetName val="TAB5CHP"/>
-      <sheetName val="TAB5TOT"/>
-      <sheetName val="TAB5HEAT"/>
-      <sheetName val="TAB5CHPH"/>
-      <sheetName val="TAB5TOTH"/>
-      <sheetName val="TAB6ANTONS"/>
-      <sheetName val="TAB6CCTONS"/>
-      <sheetName val="TAB6OBCTONS"/>
-      <sheetName val="TAB6SCTONS"/>
-      <sheetName val="TAB6LIGTONS"/>
-      <sheetName val="TAB6PEATONS"/>
-      <sheetName val="TAB6PFUELTONS"/>
-      <sheetName val="TAB6COKEOCTONS"/>
-      <sheetName val="TAB6GASCOKETONS"/>
-      <sheetName val="TAB6COALTARTONS"/>
-      <sheetName val="TAB6BKBTONS"/>
-      <sheetName val="TAB6GWGASTJ"/>
-      <sheetName val="TAB6COGTJ"/>
-      <sheetName val="TAB6BFGTJ"/>
-      <sheetName val="TAB6OSGASTJ"/>
-      <sheetName val="TAB6CRUDOILTONS"/>
-      <sheetName val="TAB6NGLTONS"/>
-      <sheetName val="TAB6REFGASTONS"/>
-      <sheetName val="TAB6LPGTONS"/>
-      <sheetName val="TAB6NAPHTHATONS"/>
-      <sheetName val="TAB6KERJETONS"/>
-      <sheetName val="TAB6OTHKEROTONS"/>
-      <sheetName val="TAB6GASDIESTONS"/>
-      <sheetName val="TAB6HFUELTONS"/>
-      <sheetName val="TAB6BITUTONS"/>
-      <sheetName val="TAB6PETCOKETONS"/>
-      <sheetName val="TAB6OTHOILTONS"/>
-      <sheetName val="TAB6NGASTJ"/>
-      <sheetName val="TAB6INDWTJ"/>
-      <sheetName val="TAB6MSWRTJ"/>
-      <sheetName val="TAB6MSWNRTJ"/>
-      <sheetName val="TAB6WOODTJ"/>
-      <sheetName val="TAB6LANDGASTJ"/>
-      <sheetName val="TAB6SEWAGETJ"/>
-      <sheetName val="TAB6OTHBIOTJ"/>
-      <sheetName val="TAB6LIQBIOTONS"/>
-      <sheetName val="TAB6TOTAL"/>
-      <sheetName val="TAB7MAIN"/>
-      <sheetName val="TAB7AUTO"/>
-      <sheetName val="TAB8IMPE"/>
-      <sheetName val="TAB8IMPHC"/>
-      <sheetName val="TAB8EXPE"/>
-      <sheetName val="TAB8EXPHC"/>
-      <sheetName val="Remarks"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="105">
-          <cell r="D105">
-            <v>2010</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="G111">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="G117">
-            <v>2010</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="42">
-          <cell r="AE42" t="str">
-            <v>Menu</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>European Community</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Intro"/>
-      <sheetName val="EB2012"/>
-      <sheetName val="COM_Balance"/>
-      <sheetName val="COM_Commodities"/>
-      <sheetName val="COM_Processes"/>
-      <sheetName val="COM_FuelTechs"/>
-      <sheetName val="COM_EmiCoeffs"/>
-      <sheetName val="COM_CH"/>
-      <sheetName val="COM_CW"/>
-      <sheetName val="COM_CC"/>
-      <sheetName val="COM_COth"/>
-      <sheetName val="COM_PV"/>
-      <sheetName val="Commercial SEAI"/>
-      <sheetName val="Public SEAI"/>
-      <sheetName val="CSO data"/>
-      <sheetName val="Public BOC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7_Buildings managed by municipa"/>
-      <sheetName val="Tertiary"/>
-      <sheetName val="7_Buildings managed by muni (2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IEA Data"/>
-      <sheetName val="E&amp;D Drivers"/>
-      <sheetName val="AGR_Fuels"/>
-      <sheetName val="AGR"/>
-      <sheetName val="RES_Fuels"/>
-      <sheetName val="RH1"/>
-      <sheetName val="RH2"/>
-      <sheetName val="RH3"/>
-      <sheetName val="RH4"/>
-      <sheetName val="RC1"/>
-      <sheetName val="RC2"/>
-      <sheetName val="RC3"/>
-      <sheetName val="RC4"/>
-      <sheetName val="RHW"/>
-      <sheetName val="RRF"/>
-      <sheetName val="RCW"/>
-      <sheetName val="RCD"/>
-      <sheetName val="RK1"/>
-      <sheetName val="RK2"/>
-      <sheetName val="RK3"/>
-      <sheetName val="RK4"/>
-      <sheetName val="RDW"/>
-      <sheetName val="RME"/>
-      <sheetName val="RL1"/>
-      <sheetName val="RL2"/>
-      <sheetName val="RL3"/>
-      <sheetName val="RL4"/>
-      <sheetName val="COM_Fuels"/>
-      <sheetName val="CH1"/>
-      <sheetName val="CH2"/>
-      <sheetName val="CH3"/>
-      <sheetName val="CH4"/>
-      <sheetName val="CC1"/>
-      <sheetName val="CC2"/>
-      <sheetName val="CC3"/>
-      <sheetName val="CC4"/>
-      <sheetName val="CHW"/>
-      <sheetName val="CAA"/>
-      <sheetName val="CLA"/>
-      <sheetName val="ElastPar"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="Intro"/>
-      <sheetName val="TechRep"/>
-      <sheetName val="Other_HYDRO"/>
-      <sheetName val="Other_NUCL"/>
-      <sheetName val="Other_THERM"/>
-      <sheetName val="Other_CHP"/>
-      <sheetName val="Other_RENEW"/>
-      <sheetName val="Other_HEAT"/>
-      <sheetName val="ELC_FUELS"/>
-      <sheetName val="ELC"/>
-      <sheetName val="HEAT"/>
-      <sheetName val="CHP"/>
-      <sheetName val="ELC_EMI"/>
-      <sheetName val="Constant Table"/>
-      <sheetName val="ANS_ITEMS_DEL"/>
-      <sheetName val="ANS_ITEMS"/>
-      <sheetName val="ANS_TIDDATA"/>
-      <sheetName val="ANS_TSDATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Macro1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Population"/>
-      <sheetName val="Mileage_km"/>
-      <sheetName val="Mean_Fleet_Mileage_km"/>
-      <sheetName val="Fuel_Injection_perc"/>
-      <sheetName val="Evap_Control_perc"/>
-      <sheetName val="U_Speed_km_per_h"/>
-      <sheetName val="R_Speed_km_per_h"/>
-      <sheetName val="H_Speed_km_per_h"/>
-      <sheetName val="U_Share_perc"/>
-      <sheetName val="R_Share_perc"/>
-      <sheetName val="H_Share_perc"/>
-      <sheetName val="Evap_U_Share_perc"/>
-      <sheetName val="Evap_R_Share_perc"/>
-      <sheetName val="Evap_H_Share_perc"/>
-      <sheetName val="Min_Temperature_oC"/>
-      <sheetName val="Max_Temperature_oC"/>
-      <sheetName val="Temperatures"/>
-      <sheetName val="RVP_kPa"/>
-      <sheetName val="Beta"/>
-      <sheetName val="Fuel_Specifications"/>
-      <sheetName val="Improved_Fuel_Specs"/>
-      <sheetName val="Annual_Fuel_Consumption"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Month_</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>2005</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>January</v>
-          </cell>
-          <cell r="B2">
-            <v>88.7</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>February</v>
-          </cell>
-          <cell r="B3">
-            <v>87.9</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>March</v>
-          </cell>
-          <cell r="B4">
-            <v>85.7</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>April</v>
-          </cell>
-          <cell r="B5">
-            <v>72.900000000000006</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>May</v>
-          </cell>
-          <cell r="B6">
-            <v>62.8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>June</v>
-          </cell>
-          <cell r="B7">
-            <v>59.6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>July</v>
-          </cell>
-          <cell r="B8">
-            <v>59.8</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>August</v>
-          </cell>
-          <cell r="B9">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>September</v>
-          </cell>
-          <cell r="B10">
-            <v>57.9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>October</v>
-          </cell>
-          <cell r="B11">
-            <v>68.8</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>November</v>
-          </cell>
-          <cell r="B12">
-            <v>81.099999999999994</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>December</v>
-          </cell>
-          <cell r="B13">
-            <v>86.9</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -22326,7 +21661,7 @@
       <c r="AN83" s="431"/>
       <c r="AO83" s="432"/>
     </row>
-    <row r="85" spans="1:41" ht="85.9" thickBot="1">
+    <row r="85" spans="1:41" ht="86.25" thickBot="1">
       <c r="A85" s="273" t="s">
         <v>444</v>
       </c>
@@ -26448,8 +25783,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26883,11 +26218,11 @@
         <v>310</v>
       </c>
       <c r="C27" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D27" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D7&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D7&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Coal Existing</v>
       </c>
       <c r="E27" s="542" t="s">
@@ -26905,11 +26240,11 @@
         <v>310</v>
       </c>
       <c r="C28" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D28" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D8&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D8&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Oil Existing</v>
       </c>
       <c r="E28" s="542" t="s">
@@ -26927,11 +26262,11 @@
         <v>310</v>
       </c>
       <c r="C29" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D29" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D9&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D9&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Natural Gas Existing</v>
       </c>
       <c r="E29" s="542" t="s">
@@ -26949,11 +26284,11 @@
         <v>310</v>
       </c>
       <c r="C30" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D30" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D10&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D10&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Bioliquid Existing</v>
       </c>
       <c r="E30" s="542" t="s">
@@ -26971,11 +26306,11 @@
         <v>310</v>
       </c>
       <c r="C31" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D31" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D11&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D11&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Biomass solid Existing</v>
       </c>
       <c r="E31" s="542" t="s">
@@ -26993,11 +26328,11 @@
         <v>310</v>
       </c>
       <c r="C32" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D32" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D12&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D12&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Biogas Existing</v>
       </c>
       <c r="E32" s="542" t="s">
@@ -27015,11 +26350,11 @@
         <v>310</v>
       </c>
       <c r="C33" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D33" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D13&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D13&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Solar Photovoltaic Existing</v>
       </c>
       <c r="E33" s="542" t="s">
@@ -27037,11 +26372,11 @@
         <v>310</v>
       </c>
       <c r="C34" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D34" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D14&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D14&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Solar Thermal Existing</v>
       </c>
       <c r="E34" s="542" t="s">
@@ -27059,11 +26394,11 @@
         <v>310</v>
       </c>
       <c r="C35" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D35" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D15&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D15&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Geothermal Existing</v>
       </c>
       <c r="E35" s="542" t="s">
@@ -27081,11 +26416,11 @@
         <v>310</v>
       </c>
       <c r="C36" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D36" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D16&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D16&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Wind On-Shore Existing</v>
       </c>
       <c r="E36" s="542" t="s">
@@ -27103,11 +26438,11 @@
         <v>310</v>
       </c>
       <c r="C37" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D37" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D17&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D17&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Wind Off-Shore Existing</v>
       </c>
       <c r="E37" s="542" t="s">
@@ -27125,11 +26460,11 @@
         <v>310</v>
       </c>
       <c r="C38" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D38" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D18&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D18&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Hydro Existing</v>
       </c>
       <c r="E38" s="542" t="s">
@@ -27147,11 +26482,11 @@
         <v>310</v>
       </c>
       <c r="C39" s="552" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D39" s="552" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D19&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D19&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Tide Existing</v>
       </c>
       <c r="E39" s="542" t="s">
@@ -27169,11 +26504,11 @@
         <v>310</v>
       </c>
       <c r="C40" s="555" t="e">
-        <f>[8]Cover!$A$153&amp;#REF!&amp;[8]Cover!$G$153</f>
+        <f>[1]Cover!$A$153&amp;#REF!&amp;[1]Cover!$G$153</f>
         <v>#REF!</v>
       </c>
       <c r="D40" s="555" t="str">
-        <f>[8]Cover!$B$153&amp;" "&amp;[8]Commodities_Processes!D20&amp;" "&amp;[8]Cover!$C$153</f>
+        <f>[1]Cover!$B$153&amp;" "&amp;[1]Commodities_Processes!D20&amp;" "&amp;[1]Cover!$C$153</f>
         <v>Fuel Tech -  Electricity Uranium Existing</v>
       </c>
       <c r="E40" s="544" t="s">
@@ -27200,15 +26535,15 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="551" t="str">
-        <f>[8]Cover!E154</f>
+        <f>[1]Cover!E154</f>
         <v>ELE</v>
       </c>
       <c r="C42" s="552" t="str">
-        <f>[8]Cover!A154</f>
+        <f>[1]Cover!A154</f>
         <v>EELECOA00</v>
       </c>
       <c r="D42" s="552" t="str">
-        <f>[8]Cover!B154</f>
+        <f>[1]Cover!B154</f>
         <v>Electricity Power Plant - COA - Existing</v>
       </c>
       <c r="E42" s="551" t="s">
@@ -27225,15 +26560,15 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="551" t="str">
-        <f>[8]Cover!E155</f>
+        <f>[1]Cover!E155</f>
         <v>ELE</v>
       </c>
       <c r="C43" s="552" t="str">
-        <f>[8]Cover!A155</f>
+        <f>[1]Cover!A155</f>
         <v>EELEOIL00</v>
       </c>
       <c r="D43" s="552" t="str">
-        <f>[8]Cover!B155</f>
+        <f>[1]Cover!B155</f>
         <v>Electricity Power Plant - OIL - Existing</v>
       </c>
       <c r="E43" s="551" t="s">
@@ -27248,15 +26583,15 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="551" t="str">
-        <f>[8]Cover!E156</f>
+        <f>[1]Cover!E156</f>
         <v>ELE</v>
       </c>
       <c r="C44" s="552" t="str">
-        <f>[8]Cover!A156</f>
+        <f>[1]Cover!A156</f>
         <v>EELENGA00</v>
       </c>
       <c r="D44" s="552" t="str">
-        <f>[8]Cover!B156</f>
+        <f>[1]Cover!B156</f>
         <v>Electricity Power Plant - NGA - Existing</v>
       </c>
       <c r="E44" s="551" t="s">
@@ -27271,15 +26606,15 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="551" t="str">
-        <f>[8]Cover!E157</f>
+        <f>[1]Cover!E157</f>
         <v>ELE</v>
       </c>
       <c r="C45" s="552" t="str">
-        <f>[8]Cover!A157</f>
+        <f>[1]Cover!A157</f>
         <v>EELEBLQ00</v>
       </c>
       <c r="D45" s="552" t="str">
-        <f>[8]Cover!B157</f>
+        <f>[1]Cover!B157</f>
         <v>Electricity Power Plant - BLQ - Existing</v>
       </c>
       <c r="E45" s="551" t="s">
@@ -27294,15 +26629,15 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="551" t="str">
-        <f>[8]Cover!E158</f>
+        <f>[1]Cover!E158</f>
         <v>ELE</v>
       </c>
       <c r="C46" s="552" t="str">
-        <f>[8]Cover!A158</f>
+        <f>[1]Cover!A158</f>
         <v>EELEBSL00</v>
       </c>
       <c r="D46" s="552" t="str">
-        <f>[8]Cover!B158</f>
+        <f>[1]Cover!B158</f>
         <v>Electricity Power Plant - BSL - Existing</v>
       </c>
       <c r="E46" s="551" t="s">
@@ -27317,15 +26652,15 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="551" t="str">
-        <f>[8]Cover!E159</f>
+        <f>[1]Cover!E159</f>
         <v>ELE</v>
       </c>
       <c r="C47" s="552" t="str">
-        <f>[8]Cover!A159</f>
+        <f>[1]Cover!A159</f>
         <v>EELEBGA00</v>
       </c>
       <c r="D47" s="552" t="str">
-        <f>[8]Cover!B159</f>
+        <f>[1]Cover!B159</f>
         <v>Electricity Power Plant - BGA - Existing</v>
       </c>
       <c r="E47" s="551" t="s">
@@ -27340,15 +26675,15 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="551" t="str">
-        <f>[8]Cover!E160</f>
+        <f>[1]Cover!E160</f>
         <v>ELE</v>
       </c>
       <c r="C48" s="552" t="str">
-        <f>[8]Cover!A160</f>
+        <f>[1]Cover!A160</f>
         <v>EELENUC00</v>
       </c>
       <c r="D48" s="552" t="str">
-        <f>[8]Cover!B160</f>
+        <f>[1]Cover!B160</f>
         <v>Electricity Power Plant - NUC - Existing</v>
       </c>
       <c r="E48" s="551" t="s">
@@ -27365,15 +26700,15 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="551" t="str">
-        <f>[8]Cover!E161</f>
+        <f>[1]Cover!E161</f>
         <v>CHP</v>
       </c>
       <c r="C49" s="552" t="str">
-        <f>[8]Cover!A161</f>
+        <f>[1]Cover!A161</f>
         <v>ECHPCOA00</v>
       </c>
       <c r="D49" s="552" t="str">
-        <f>[8]Cover!B161</f>
+        <f>[1]Cover!B161</f>
         <v>Combined Heat and Power Plant - COA - Existing</v>
       </c>
       <c r="E49" s="551" t="s">
@@ -27390,15 +26725,15 @@
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="551" t="str">
-        <f>[8]Cover!E162</f>
+        <f>[1]Cover!E162</f>
         <v>CHP</v>
       </c>
       <c r="C50" s="552" t="str">
-        <f>[8]Cover!A162</f>
+        <f>[1]Cover!A162</f>
         <v>ECHPNGA00</v>
       </c>
       <c r="D50" s="552" t="str">
-        <f>[8]Cover!B162</f>
+        <f>[1]Cover!B162</f>
         <v>Combined Heat and Power Plant - NGA - Existing</v>
       </c>
       <c r="E50" s="551" t="s">
@@ -27415,15 +26750,15 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="551" t="str">
-        <f>[8]Cover!E163</f>
+        <f>[1]Cover!E163</f>
         <v>CHP</v>
       </c>
       <c r="C51" s="552" t="str">
-        <f>[8]Cover!A163</f>
+        <f>[1]Cover!A163</f>
         <v>ECHPOIL00</v>
       </c>
       <c r="D51" s="552" t="str">
-        <f>[8]Cover!B163</f>
+        <f>[1]Cover!B163</f>
         <v>Combined Heat and Power Plant - OIL - Existing</v>
       </c>
       <c r="E51" s="551" t="s">
@@ -27440,15 +26775,15 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="551" t="str">
-        <f>[8]Cover!E164</f>
+        <f>[1]Cover!E164</f>
         <v>CHP</v>
       </c>
       <c r="C52" s="552" t="str">
-        <f>[8]Cover!A164</f>
+        <f>[1]Cover!A164</f>
         <v>ECHPBLQ00</v>
       </c>
       <c r="D52" s="552" t="str">
-        <f>[8]Cover!B164</f>
+        <f>[1]Cover!B164</f>
         <v>Combined Heat and Power Plant - BLQ - Existing</v>
       </c>
       <c r="E52" s="551" t="s">
@@ -27465,15 +26800,15 @@
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="551" t="str">
-        <f>[8]Cover!E165</f>
+        <f>[1]Cover!E165</f>
         <v>CHP</v>
       </c>
       <c r="C53" s="552" t="str">
-        <f>[8]Cover!A165</f>
+        <f>[1]Cover!A165</f>
         <v>ECHPBSL00</v>
       </c>
       <c r="D53" s="552" t="str">
-        <f>[8]Cover!B165</f>
+        <f>[1]Cover!B165</f>
         <v>Combined Heat and Power Plant - BSL - Existing</v>
       </c>
       <c r="E53" s="551" t="s">
@@ -27490,15 +26825,15 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="551" t="str">
-        <f>[8]Cover!E166</f>
+        <f>[1]Cover!E166</f>
         <v>CHP</v>
       </c>
       <c r="C54" s="552" t="str">
-        <f>[8]Cover!A166</f>
+        <f>[1]Cover!A166</f>
         <v>ECHPBGA00</v>
       </c>
       <c r="D54" s="552" t="str">
-        <f>[8]Cover!B166</f>
+        <f>[1]Cover!B166</f>
         <v>Combined Heat and Power Plant - BGA - Existing</v>
       </c>
       <c r="E54" s="551" t="s">
@@ -27515,15 +26850,15 @@
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="551" t="str">
-        <f>[8]Cover!E167</f>
+        <f>[1]Cover!E167</f>
         <v>CHP</v>
       </c>
       <c r="C55" s="552" t="str">
-        <f>[8]Cover!A167</f>
+        <f>[1]Cover!A167</f>
         <v>ECHPGEO00</v>
       </c>
       <c r="D55" s="552" t="str">
-        <f>[8]Cover!B167</f>
+        <f>[1]Cover!B167</f>
         <v>Combined Heat and Power Plant - GEO - Existing</v>
       </c>
       <c r="E55" s="551" t="s">
@@ -27540,15 +26875,15 @@
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="551" t="str">
-        <f>[8]Cover!E168</f>
+        <f>[1]Cover!E168</f>
         <v>ELE</v>
       </c>
       <c r="C56" s="552" t="str">
-        <f>[8]Cover!A168</f>
+        <f>[1]Cover!A168</f>
         <v>ERNWHYD00</v>
       </c>
       <c r="D56" s="552" t="str">
-        <f>[8]Cover!B168</f>
+        <f>[1]Cover!B168</f>
         <v>Hydro Plant - HYD - Existing</v>
       </c>
       <c r="E56" s="551" t="s">
@@ -27563,15 +26898,15 @@
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="551" t="str">
-        <f>[8]Cover!E169</f>
+        <f>[1]Cover!E169</f>
         <v>ELE</v>
       </c>
       <c r="C57" s="552" t="str">
-        <f>[8]Cover!A169</f>
+        <f>[1]Cover!A169</f>
         <v>ERNWGEO00</v>
       </c>
       <c r="D57" s="552" t="str">
-        <f>[8]Cover!B169</f>
+        <f>[1]Cover!B169</f>
         <v>Geothermal Plant - GEO - Existing</v>
       </c>
       <c r="E57" s="551" t="s">
@@ -27586,15 +26921,15 @@
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="551" t="str">
-        <f>[8]Cover!E170</f>
+        <f>[1]Cover!E170</f>
         <v>ELE</v>
       </c>
       <c r="C58" s="552" t="str">
-        <f>[8]Cover!A170</f>
+        <f>[1]Cover!A170</f>
         <v>ERNWWON00</v>
       </c>
       <c r="D58" s="552" t="str">
-        <f>[8]Cover!B170</f>
+        <f>[1]Cover!B170</f>
         <v>Wind On-Shore - WON - Existing</v>
       </c>
       <c r="E58" s="551" t="s">
@@ -27609,15 +26944,15 @@
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="551" t="str">
-        <f>[8]Cover!E171</f>
+        <f>[1]Cover!E171</f>
         <v>ELE</v>
       </c>
       <c r="C59" s="552" t="str">
-        <f>[8]Cover!A171</f>
+        <f>[1]Cover!A171</f>
         <v>ERNWWOF00</v>
       </c>
       <c r="D59" s="552" t="str">
-        <f>[8]Cover!B171</f>
+        <f>[1]Cover!B171</f>
         <v>Wind Off-Shore - WOF - Existing</v>
       </c>
       <c r="E59" s="551" t="s">
@@ -27632,15 +26967,15 @@
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="551" t="str">
-        <f>[8]Cover!E172</f>
+        <f>[1]Cover!E172</f>
         <v>ELE</v>
       </c>
       <c r="C60" s="552" t="str">
-        <f>[8]Cover!A172</f>
+        <f>[1]Cover!A172</f>
         <v>ERNWSPV00</v>
       </c>
       <c r="D60" s="552" t="str">
-        <f>[8]Cover!B172</f>
+        <f>[1]Cover!B172</f>
         <v>Solar Photovoltaic - SPV - Existing</v>
       </c>
       <c r="E60" s="551" t="s">
@@ -27655,15 +26990,15 @@
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="551" t="str">
-        <f>[8]Cover!E173</f>
+        <f>[1]Cover!E173</f>
         <v>ELE</v>
       </c>
       <c r="C61" s="552" t="str">
-        <f>[8]Cover!A173</f>
+        <f>[1]Cover!A173</f>
         <v>ERNWSTH00</v>
       </c>
       <c r="D61" s="552" t="str">
-        <f>[8]Cover!B173</f>
+        <f>[1]Cover!B173</f>
         <v>Solar Thermal - STH - Existing</v>
       </c>
       <c r="E61" s="551" t="s">
@@ -27678,15 +27013,15 @@
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="551" t="str">
-        <f>[8]Cover!E174</f>
+        <f>[1]Cover!E174</f>
         <v>ELE</v>
       </c>
       <c r="C62" s="552" t="str">
-        <f>[8]Cover!A174</f>
+        <f>[1]Cover!A174</f>
         <v>ERNWTDL00</v>
       </c>
       <c r="D62" s="552" t="str">
-        <f>[8]Cover!B174</f>
+        <f>[1]Cover!B174</f>
         <v>Wave and Tidal - TDL - Existing</v>
       </c>
       <c r="E62" s="551" t="s">
@@ -27701,15 +27036,15 @@
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="551" t="str">
-        <f>[8]Cover!E175</f>
+        <f>[1]Cover!E175</f>
         <v>HPL</v>
       </c>
       <c r="C63" s="552" t="str">
-        <f>[8]Cover!A175</f>
+        <f>[1]Cover!A175</f>
         <v>EHPLCOA00</v>
       </c>
       <c r="D63" s="552" t="str">
-        <f>[8]Cover!B175</f>
+        <f>[1]Cover!B175</f>
         <v>Heating Plant Only - COA - Existing</v>
       </c>
       <c r="E63" s="551" t="s">
@@ -27726,15 +27061,15 @@
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="551" t="str">
-        <f>[8]Cover!E176</f>
+        <f>[1]Cover!E176</f>
         <v>HPL</v>
       </c>
       <c r="C64" s="552" t="str">
-        <f>[8]Cover!A176</f>
+        <f>[1]Cover!A176</f>
         <v>EHPLOIL00</v>
       </c>
       <c r="D64" s="552" t="str">
-        <f>[8]Cover!B176</f>
+        <f>[1]Cover!B176</f>
         <v>Heating Plant Only - OIL - Existing</v>
       </c>
       <c r="E64" s="551" t="s">
@@ -27751,15 +27086,15 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="551" t="str">
-        <f>[8]Cover!E177</f>
+        <f>[1]Cover!E177</f>
         <v>HPL</v>
       </c>
       <c r="C65" s="552" t="str">
-        <f>[8]Cover!A177</f>
+        <f>[1]Cover!A177</f>
         <v>EHPLNGA00</v>
       </c>
       <c r="D65" s="552" t="str">
-        <f>[8]Cover!B177</f>
+        <f>[1]Cover!B177</f>
         <v>Heating Plant Only - NGA - Existing</v>
       </c>
       <c r="E65" s="551" t="s">
@@ -27776,15 +27111,15 @@
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="551" t="str">
-        <f>[8]Cover!E178</f>
+        <f>[1]Cover!E178</f>
         <v>HPL</v>
       </c>
       <c r="C66" s="552" t="str">
-        <f>[8]Cover!A178</f>
+        <f>[1]Cover!A178</f>
         <v>EHPLBLQ00</v>
       </c>
       <c r="D66" s="552" t="str">
-        <f>[8]Cover!B178</f>
+        <f>[1]Cover!B178</f>
         <v>Heating Plant Only - BLQ - Existing</v>
       </c>
       <c r="E66" s="551" t="s">
@@ -27801,15 +27136,15 @@
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="551" t="str">
-        <f>[8]Cover!E179</f>
+        <f>[1]Cover!E179</f>
         <v>HPL</v>
       </c>
       <c r="C67" s="552" t="str">
-        <f>[8]Cover!A179</f>
+        <f>[1]Cover!A179</f>
         <v>EHPLBSL00</v>
       </c>
       <c r="D67" s="552" t="str">
-        <f>[8]Cover!B179</f>
+        <f>[1]Cover!B179</f>
         <v>Heating Plant Only - BSL - Existing</v>
       </c>
       <c r="E67" s="551" t="s">
@@ -27826,15 +27161,15 @@
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="556" t="str">
-        <f>[8]Cover!E180</f>
+        <f>[1]Cover!E180</f>
         <v>HPL</v>
       </c>
       <c r="C68" s="555" t="str">
-        <f>[8]Cover!A180</f>
+        <f>[1]Cover!A180</f>
         <v>EHPLBGA00</v>
       </c>
       <c r="D68" s="555" t="str">
-        <f>[8]Cover!B180</f>
+        <f>[1]Cover!B180</f>
         <v>Heating Plant Only - BGA - Existing</v>
       </c>
       <c r="E68" s="556" t="s">
@@ -36210,6 +35545,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -36355,22 +35705,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36386,21 +35738,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF1D956-5C0E-4A2B-B624-71EDF0FE1289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7857BC-0B38-42E8-9738-327DE3ACCC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONVENTIONS" sheetId="20" r:id="rId1"/>
@@ -790,7 +790,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="514">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -2413,6 +2413,18 @@
   </si>
   <si>
     <t>I/E rule</t>
+  </si>
+  <si>
+    <t>CYC</t>
+  </si>
+  <si>
+    <t>WLK</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+  </si>
+  <si>
+    <t>Walking</t>
   </si>
 </sst>
 </file>
@@ -5907,6 +5919,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5965,24 +5995,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6844,10 +6856,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E428973-03EE-47B5-B88E-68B51CDC4391}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:T92"/>
+  <dimension ref="B2:T94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7130,11 +7142,11 @@
         <v>IMPCOABIT</v>
       </c>
       <c r="F13" s="294" t="str">
-        <f t="shared" ref="F13:F44" si="1">G13 &amp; " of " &amp; VLOOKUP(H13,$B$13:$C$90,2,FALSE) &amp; IF(J13&lt;&gt;0,IF(VLOOKUP(J13,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J13,$I$4:$J$10,2,FALSE),""),"")</f>
+        <f>G13 &amp; " of " &amp; VLOOKUP(H13,$B$13:$C$91,2,FALSE) &amp; IF(J13&lt;&gt;0,IF(VLOOKUP(J13,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J13,$I$4:$J$10,2,FALSE),""),"")</f>
         <v xml:space="preserve">Import of Bituminous Coal </v>
       </c>
       <c r="G13" s="296" t="str">
-        <f t="shared" ref="G13:G44" si="2">VLOOKUP(I13,$E$4:$F$9,2,FALSE)</f>
+        <f t="shared" ref="G13:G44" si="1">VLOOKUP(I13,$E$4:$F$9,2,FALSE)</f>
         <v>Import</v>
       </c>
       <c r="H13" s="296" t="str">
@@ -7142,7 +7154,7 @@
         <v>COABIT</v>
       </c>
       <c r="I13" s="296" t="str">
-        <f t="shared" ref="I13:I43" si="3">$E$5</f>
+        <f t="shared" ref="I13:I43" si="2">$E$5</f>
         <v>IMP</v>
       </c>
       <c r="J13" s="297"/>
@@ -7168,11 +7180,11 @@
         <v>IMPCOAHAR</v>
       </c>
       <c r="F14" s="294" t="str">
+        <f t="shared" ref="F14:F77" si="3">G14 &amp; " of " &amp; VLOOKUP(H14,$B$13:$C$91,2,FALSE) &amp; IF(J14&lt;&gt;0,IF(VLOOKUP(J14,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J14,$I$4:$J$10,2,FALSE),""),"")</f>
+        <v xml:space="preserve">Import of Hard Coal / Antracite </v>
+      </c>
+      <c r="G14" s="296" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Import of Hard Coal / Antracite </v>
-      </c>
-      <c r="G14" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H14" s="296" t="str">
@@ -7180,7 +7192,7 @@
         <v>COAHAR</v>
       </c>
       <c r="I14" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J14" s="297"/>
@@ -7206,11 +7218,11 @@
         <v>IMPCOACOK</v>
       </c>
       <c r="F15" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Import of Coke Coal </v>
+      </c>
+      <c r="G15" s="296" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Import of Coke Coal </v>
-      </c>
-      <c r="G15" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H15" s="296" t="str">
@@ -7218,7 +7230,7 @@
         <v>COACOK</v>
       </c>
       <c r="I15" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J15" s="297"/>
@@ -7244,11 +7256,11 @@
         <v>IMPCOALIG</v>
       </c>
       <c r="F16" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Import of Lignite /  Brown Coal </v>
+      </c>
+      <c r="G16" s="296" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Import of Lignite /  Brown Coal </v>
-      </c>
-      <c r="G16" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H16" s="296" t="str">
@@ -7256,7 +7268,7 @@
         <v>COALIG</v>
       </c>
       <c r="I16" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J16" s="297"/>
@@ -7286,11 +7298,11 @@
         <v>IMPOILCRD</v>
       </c>
       <c r="F17" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Import of Crude Oil </v>
+      </c>
+      <c r="G17" s="296" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Import of Crude Oil </v>
-      </c>
-      <c r="G17" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H17" s="296" t="str">
@@ -7324,11 +7336,11 @@
         <v>IMPOILKER</v>
       </c>
       <c r="F18" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Import of Kerosene </v>
+      </c>
+      <c r="G18" s="296" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Import of Kerosene </v>
-      </c>
-      <c r="G18" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H18" s="296" t="str">
@@ -7362,11 +7374,11 @@
         <v>IMPOILHFO</v>
       </c>
       <c r="F19" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Import of Heavy Fuel Oil </v>
+      </c>
+      <c r="G19" s="296" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Import of Heavy Fuel Oil </v>
-      </c>
-      <c r="G19" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H19" s="296" t="str">
@@ -7400,11 +7412,11 @@
         <v>IMPOILDST</v>
       </c>
       <c r="F20" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Import of Diesel Oil </v>
+      </c>
+      <c r="G20" s="296" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Import of Diesel Oil </v>
-      </c>
-      <c r="G20" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H20" s="296" t="str">
@@ -7438,11 +7450,11 @@
         <v>IMPOILLPG</v>
       </c>
       <c r="F21" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Import of Liquified Petroleum Gas </v>
+      </c>
+      <c r="G21" s="296" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Import of Liquified Petroleum Gas </v>
-      </c>
-      <c r="G21" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H21" s="296" t="str">
@@ -7476,11 +7488,11 @@
         <v>IMPOILGSL</v>
       </c>
       <c r="F22" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Import of Gasoline </v>
+      </c>
+      <c r="G22" s="296" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Import of Gasoline </v>
-      </c>
-      <c r="G22" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H22" s="296" t="str">
@@ -7514,11 +7526,11 @@
         <v>IMPOILCOK</v>
       </c>
       <c r="F23" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Import of Petroleum Coke </v>
+      </c>
+      <c r="G23" s="296" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Import of Petroleum Coke </v>
-      </c>
-      <c r="G23" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H23" s="296" t="str">
@@ -7547,11 +7559,11 @@
         <v>IMPOILNEU</v>
       </c>
       <c r="F24" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Oil for Non-Energy uses</v>
+      </c>
+      <c r="G24" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Oil for Non-Energy uses</v>
-      </c>
-      <c r="G24" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H24" s="296" t="str">
@@ -7579,11 +7591,11 @@
         <v>IMPGASNAT_UK</v>
       </c>
       <c r="F25" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Natural Gas  - UK</v>
+      </c>
+      <c r="G25" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Natural Gas  - UK</v>
-      </c>
-      <c r="G25" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H25" s="296" t="str">
@@ -7591,7 +7603,7 @@
         <v>GASNAT</v>
       </c>
       <c r="I25" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J25" s="296" t="str">
@@ -7614,11 +7626,11 @@
         <v>IMPGASLNG_GLOBAL</v>
       </c>
       <c r="F26" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Import of Liquified Natural Gas </v>
+      </c>
+      <c r="G26" s="296" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Import of Liquified Natural Gas </v>
-      </c>
-      <c r="G26" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H26" s="296" t="str">
@@ -7626,7 +7638,7 @@
         <v>GASLNG</v>
       </c>
       <c r="I26" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J26" s="296" t="str">
@@ -7649,11 +7661,11 @@
         <v>IMPNUCURM</v>
       </c>
       <c r="F27" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Uranium</v>
+      </c>
+      <c r="G27" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Uranium</v>
-      </c>
-      <c r="G27" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H27" s="296" t="str">
@@ -7661,7 +7673,7 @@
         <v>NUCURM</v>
       </c>
       <c r="I27" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J27" s="296"/>
@@ -7681,11 +7693,11 @@
         <v>IMPBIOETH1G_S1</v>
       </c>
       <c r="F28" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Ethanol 1st generation  - Step 1</v>
+      </c>
+      <c r="G28" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Ethanol 1st generation  - Step 1</v>
-      </c>
-      <c r="G28" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H28" s="296" t="str">
@@ -7693,7 +7705,7 @@
         <v>BIOETH1G</v>
       </c>
       <c r="I28" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J28" s="296" t="str">
@@ -7716,11 +7728,11 @@
         <v>IMPBIOETH1G_S2</v>
       </c>
       <c r="F29" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Ethanol 1st generation  - Step 2</v>
+      </c>
+      <c r="G29" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Ethanol 1st generation  - Step 2</v>
-      </c>
-      <c r="G29" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H29" s="296" t="str">
@@ -7728,7 +7740,7 @@
         <v>BIOETH1G</v>
       </c>
       <c r="I29" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J29" s="296" t="str">
@@ -7751,11 +7763,11 @@
         <v>IMPBIOETH1G_S3</v>
       </c>
       <c r="F30" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Ethanol 1st generation  - Step 3</v>
+      </c>
+      <c r="G30" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Ethanol 1st generation  - Step 3</v>
-      </c>
-      <c r="G30" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H30" s="296" t="str">
@@ -7763,7 +7775,7 @@
         <v>BIOETH1G</v>
       </c>
       <c r="I30" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J30" s="296" t="str">
@@ -7786,11 +7798,11 @@
         <v>IMPBIOETH1G_S4</v>
       </c>
       <c r="F31" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Ethanol 1st generation  - Step 4</v>
+      </c>
+      <c r="G31" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Ethanol 1st generation  - Step 4</v>
-      </c>
-      <c r="G31" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H31" s="296" t="str">
@@ -7798,7 +7810,7 @@
         <v>BIOETH1G</v>
       </c>
       <c r="I31" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J31" s="296" t="str">
@@ -7821,11 +7833,11 @@
         <v>IMPBIODST1G_S1</v>
       </c>
       <c r="F32" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Biodiesel 1st generation  - Step 1</v>
+      </c>
+      <c r="G32" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Biodiesel 1st generation  - Step 1</v>
-      </c>
-      <c r="G32" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H32" s="296" t="str">
@@ -7833,7 +7845,7 @@
         <v>BIODST1G</v>
       </c>
       <c r="I32" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J32" s="296" t="str">
@@ -7856,11 +7868,11 @@
         <v>IMPBIODST1G_S2</v>
       </c>
       <c r="F33" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Biodiesel 1st generation  - Step 2</v>
+      </c>
+      <c r="G33" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Biodiesel 1st generation  - Step 2</v>
-      </c>
-      <c r="G33" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H33" s="296" t="str">
@@ -7868,7 +7880,7 @@
         <v>BIODST1G</v>
       </c>
       <c r="I33" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J33" s="296" t="str">
@@ -7891,11 +7903,11 @@
         <v>IMPBIODST1G_S3</v>
       </c>
       <c r="F34" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Biodiesel 1st generation  - Step 3</v>
+      </c>
+      <c r="G34" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Biodiesel 1st generation  - Step 3</v>
-      </c>
-      <c r="G34" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H34" s="296" t="str">
@@ -7903,7 +7915,7 @@
         <v>BIODST1G</v>
       </c>
       <c r="I34" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J34" s="296" t="str">
@@ -7926,11 +7938,11 @@
         <v>IMPBIODST1G_S4</v>
       </c>
       <c r="F35" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Biodiesel 1st generation  - Step 4</v>
+      </c>
+      <c r="G35" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Biodiesel 1st generation  - Step 4</v>
-      </c>
-      <c r="G35" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H35" s="296" t="str">
@@ -7938,7 +7950,7 @@
         <v>BIODST1G</v>
       </c>
       <c r="I35" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J35" s="296" t="str">
@@ -7961,11 +7973,11 @@
         <v>IMPBIOWPE_S1</v>
       </c>
       <c r="F36" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Wood Pellets  - Step 1</v>
+      </c>
+      <c r="G36" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Wood Pellets  - Step 1</v>
-      </c>
-      <c r="G36" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H36" s="296" t="str">
@@ -7973,7 +7985,7 @@
         <v>BIOWPE</v>
       </c>
       <c r="I36" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J36" s="296" t="str">
@@ -7996,11 +8008,11 @@
         <v>IMPBIOWPE_S2</v>
       </c>
       <c r="F37" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Wood Pellets  - Step 2</v>
+      </c>
+      <c r="G37" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Wood Pellets  - Step 2</v>
-      </c>
-      <c r="G37" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H37" s="296" t="str">
@@ -8008,7 +8020,7 @@
         <v>BIOWPE</v>
       </c>
       <c r="I37" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J37" s="296" t="str">
@@ -8031,11 +8043,11 @@
         <v>IMPBIOWPE_S3</v>
       </c>
       <c r="F38" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Wood Pellets  - Step 3</v>
+      </c>
+      <c r="G38" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Wood Pellets  - Step 3</v>
-      </c>
-      <c r="G38" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H38" s="296" t="str">
@@ -8043,7 +8055,7 @@
         <v>BIOWPE</v>
       </c>
       <c r="I38" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J38" s="296" t="str">
@@ -8066,11 +8078,11 @@
         <v>IMPBIOWPE_S4</v>
       </c>
       <c r="F39" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Wood Pellets  - Step 4</v>
+      </c>
+      <c r="G39" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Wood Pellets  - Step 4</v>
-      </c>
-      <c r="G39" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H39" s="296" t="str">
@@ -8078,7 +8090,7 @@
         <v>BIOWPE</v>
       </c>
       <c r="I39" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J39" s="296" t="str">
@@ -8101,11 +8113,11 @@
         <v>IMPBIOWCH_S1</v>
       </c>
       <c r="F40" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Wood Chip  - Step 1</v>
+      </c>
+      <c r="G40" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Wood Chip  - Step 1</v>
-      </c>
-      <c r="G40" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H40" s="296" t="str">
@@ -8113,7 +8125,7 @@
         <v>BIOWCH</v>
       </c>
       <c r="I40" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J40" s="296" t="str">
@@ -8136,11 +8148,11 @@
         <v>IMPBIOWCH_S2</v>
       </c>
       <c r="F41" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Wood Chip  - Step 2</v>
+      </c>
+      <c r="G41" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Wood Chip  - Step 2</v>
-      </c>
-      <c r="G41" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H41" s="296" t="str">
@@ -8148,7 +8160,7 @@
         <v>BIOWCH</v>
       </c>
       <c r="I41" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J41" s="296" t="str">
@@ -8171,11 +8183,11 @@
         <v>IMPBIOWCH_S3</v>
       </c>
       <c r="F42" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Wood Chip  - Step 3</v>
+      </c>
+      <c r="G42" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Wood Chip  - Step 3</v>
-      </c>
-      <c r="G42" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H42" s="296" t="str">
@@ -8183,7 +8195,7 @@
         <v>BIOWCH</v>
       </c>
       <c r="I42" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J42" s="296" t="str">
@@ -8206,11 +8218,11 @@
         <v>IMPBIOWCH_S4</v>
       </c>
       <c r="F43" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Import of Wood Chip  - Step 4</v>
+      </c>
+      <c r="G43" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Import of Wood Chip  - Step 4</v>
-      </c>
-      <c r="G43" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Import</v>
       </c>
       <c r="H43" s="296" t="str">
@@ -8218,7 +8230,7 @@
         <v>BIOWCH</v>
       </c>
       <c r="I43" s="296" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>IMP</v>
       </c>
       <c r="J43" s="296" t="str">
@@ -8241,11 +8253,11 @@
         <v>MINGASNAT_S1</v>
       </c>
       <c r="F44" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Natural Gas  - Step 1</v>
+      </c>
+      <c r="G44" s="296" t="str">
         <f t="shared" si="1"/>
-        <v>Domestic Potential of Natural Gas  - Step 1</v>
-      </c>
-      <c r="G44" s="296" t="str">
-        <f t="shared" si="2"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H44" s="296" t="str">
@@ -8284,11 +8296,11 @@
         <v>MINGASNAT_S2</v>
       </c>
       <c r="F45" s="294" t="str">
-        <f t="shared" ref="F45:F76" si="11">G45 &amp; " of " &amp; VLOOKUP(H45,$B$13:$C$90,2,FALSE) &amp; IF(J45&lt;&gt;0,IF(VLOOKUP(J45,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J45,$I$4:$J$10,2,FALSE),""),"")</f>
+        <f t="shared" si="3"/>
         <v>Domestic Potential of Natural Gas  - Step 2</v>
       </c>
       <c r="G45" s="296" t="str">
-        <f t="shared" ref="G45:G76" si="12">VLOOKUP(I45,$E$4:$F$9,2,FALSE)</f>
+        <f t="shared" ref="G45:G76" si="11">VLOOKUP(I45,$E$4:$F$9,2,FALSE)</f>
         <v>Domestic Potential</v>
       </c>
       <c r="H45" s="296" t="str">
@@ -8327,11 +8339,11 @@
         <v>MINPEAT_S1</v>
       </c>
       <c r="F46" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Peat  - Step 1</v>
+      </c>
+      <c r="G46" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Peat  - Step 1</v>
-      </c>
-      <c r="G46" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H46" s="296" t="str">
@@ -8339,7 +8351,7 @@
         <v>PEAT</v>
       </c>
       <c r="I46" s="296" t="str">
-        <f t="shared" ref="I46:I83" si="13">$E$4</f>
+        <f t="shared" ref="I46:I85" si="12">$E$4</f>
         <v>MIN</v>
       </c>
       <c r="J46" s="296" t="str">
@@ -8370,11 +8382,11 @@
         <v>MINPEAT_S2</v>
       </c>
       <c r="F47" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Peat  - Step 2</v>
+      </c>
+      <c r="G47" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Peat  - Step 2</v>
-      </c>
-      <c r="G47" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H47" s="296" t="str">
@@ -8382,7 +8394,7 @@
         <v>PEAT</v>
       </c>
       <c r="I47" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J47" s="296" t="str">
@@ -8405,19 +8417,19 @@
         <v>MINRENHYD</v>
       </c>
       <c r="F48" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Domestic Potential of Hydro </v>
+      </c>
+      <c r="G48" s="296" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Domestic Potential of Hydro </v>
-      </c>
-      <c r="G48" s="296" t="str">
+        <v>Domestic Potential</v>
+      </c>
+      <c r="H48" s="296" t="str">
+        <f t="shared" ref="H48:H53" si="13">B64</f>
+        <v>RENHYD</v>
+      </c>
+      <c r="I48" s="296" t="str">
         <f t="shared" si="12"/>
-        <v>Domestic Potential</v>
-      </c>
-      <c r="H48" s="296" t="str">
-        <f t="shared" ref="H48:H53" si="14">B64</f>
-        <v>RENHYD</v>
-      </c>
-      <c r="I48" s="296" t="str">
-        <f t="shared" si="13"/>
         <v>MIN</v>
       </c>
       <c r="J48" s="296"/>
@@ -8433,23 +8445,23 @@
         <v>301</v>
       </c>
       <c r="E49" s="296" t="str">
-        <f t="shared" ref="E49:E54" si="15">I49&amp;H49&amp;J49</f>
+        <f t="shared" ref="E49:E54" si="14">I49&amp;H49&amp;J49</f>
         <v>MINRENWIN</v>
       </c>
       <c r="F49" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Domestic Potential of Wind </v>
+      </c>
+      <c r="G49" s="296" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Domestic Potential of Wind </v>
-      </c>
-      <c r="G49" s="296" t="str">
+        <v>Domestic Potential</v>
+      </c>
+      <c r="H49" s="296" t="str">
+        <f t="shared" si="13"/>
+        <v>RENWIN</v>
+      </c>
+      <c r="I49" s="296" t="str">
         <f t="shared" si="12"/>
-        <v>Domestic Potential</v>
-      </c>
-      <c r="H49" s="296" t="str">
-        <f t="shared" si="14"/>
-        <v>RENWIN</v>
-      </c>
-      <c r="I49" s="296" t="str">
-        <f t="shared" si="13"/>
         <v>MIN</v>
       </c>
       <c r="J49" s="296"/>
@@ -8465,23 +8477,23 @@
         <v>302</v>
       </c>
       <c r="E50" s="296" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>MINRENSOL</v>
       </c>
       <c r="F50" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Domestic Potential of Solar </v>
+      </c>
+      <c r="G50" s="296" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Domestic Potential of Solar </v>
-      </c>
-      <c r="G50" s="296" t="str">
+        <v>Domestic Potential</v>
+      </c>
+      <c r="H50" s="296" t="str">
+        <f t="shared" si="13"/>
+        <v>RENSOL</v>
+      </c>
+      <c r="I50" s="296" t="str">
         <f t="shared" si="12"/>
-        <v>Domestic Potential</v>
-      </c>
-      <c r="H50" s="296" t="str">
-        <f t="shared" si="14"/>
-        <v>RENSOL</v>
-      </c>
-      <c r="I50" s="296" t="str">
-        <f t="shared" si="13"/>
         <v>MIN</v>
       </c>
       <c r="J50" s="296"/>
@@ -8497,23 +8509,23 @@
         <v>303</v>
       </c>
       <c r="E51" s="296" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>MINMSWAS</v>
       </c>
       <c r="F51" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Domestic Potential of Municipal Solid Waste </v>
+      </c>
+      <c r="G51" s="296" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Domestic Potential of Municipal Solid Waste </v>
-      </c>
-      <c r="G51" s="296" t="str">
+        <v>Domestic Potential</v>
+      </c>
+      <c r="H51" s="296" t="str">
+        <f t="shared" si="13"/>
+        <v>MSWAS</v>
+      </c>
+      <c r="I51" s="296" t="str">
         <f t="shared" si="12"/>
-        <v>Domestic Potential</v>
-      </c>
-      <c r="H51" s="296" t="str">
-        <f t="shared" si="14"/>
-        <v>MSWAS</v>
-      </c>
-      <c r="I51" s="296" t="str">
-        <f t="shared" si="13"/>
         <v>MIN</v>
       </c>
       <c r="J51" s="296"/>
@@ -8529,23 +8541,23 @@
         <v>304</v>
       </c>
       <c r="E52" s="296" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>MINRENOCE</v>
       </c>
       <c r="F52" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Domestic Potential of Ocean </v>
+      </c>
+      <c r="G52" s="296" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Domestic Potential of Ocean </v>
-      </c>
-      <c r="G52" s="296" t="str">
+        <v>Domestic Potential</v>
+      </c>
+      <c r="H52" s="296" t="str">
+        <f t="shared" si="13"/>
+        <v>RENOCE</v>
+      </c>
+      <c r="I52" s="296" t="str">
         <f t="shared" si="12"/>
-        <v>Domestic Potential</v>
-      </c>
-      <c r="H52" s="296" t="str">
-        <f t="shared" si="14"/>
-        <v>RENOCE</v>
-      </c>
-      <c r="I52" s="296" t="str">
-        <f t="shared" si="13"/>
         <v>MIN</v>
       </c>
       <c r="J52" s="296"/>
@@ -8561,23 +8573,23 @@
         <v>305</v>
       </c>
       <c r="E53" s="296" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>MINRENGEO</v>
       </c>
       <c r="F53" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Domestic Potential of Geothermal </v>
+      </c>
+      <c r="G53" s="296" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">Domestic Potential of Geothermal </v>
-      </c>
-      <c r="G53" s="296" t="str">
+        <v>Domestic Potential</v>
+      </c>
+      <c r="H53" s="296" t="str">
+        <f t="shared" si="13"/>
+        <v>RENGEO</v>
+      </c>
+      <c r="I53" s="296" t="str">
         <f t="shared" si="12"/>
-        <v>Domestic Potential</v>
-      </c>
-      <c r="H53" s="296" t="str">
-        <f t="shared" si="14"/>
-        <v>RENGEO</v>
-      </c>
-      <c r="I53" s="296" t="str">
-        <f t="shared" si="13"/>
         <v>MIN</v>
       </c>
       <c r="J53" s="296"/>
@@ -8593,15 +8605,15 @@
         <v>306</v>
       </c>
       <c r="E54" s="296" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>MINBIOWOO1_S1</v>
       </c>
       <c r="F54" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Sawmill residues - Step 1</v>
+      </c>
+      <c r="G54" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Sawmill residues - Step 1</v>
-      </c>
-      <c r="G54" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H54" s="296" t="str">
@@ -8609,7 +8621,7 @@
         <v>BIOWOO1</v>
       </c>
       <c r="I54" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J54" s="296" t="str">
@@ -8628,15 +8640,15 @@
         <v>307</v>
       </c>
       <c r="E55" s="296" t="str">
-        <f t="shared" ref="E55:E63" si="16">I55&amp;H55&amp;J55</f>
+        <f t="shared" ref="E55:E63" si="15">I55&amp;H55&amp;J55</f>
         <v>MINBIOWOO1_S2</v>
       </c>
       <c r="F55" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Sawmill residues - Step 2</v>
+      </c>
+      <c r="G55" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Sawmill residues - Step 2</v>
-      </c>
-      <c r="G55" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H55" s="296" t="str">
@@ -8644,7 +8656,7 @@
         <v>BIOWOO1</v>
       </c>
       <c r="I55" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J55" s="296" t="str">
@@ -8663,15 +8675,15 @@
         <v>308</v>
       </c>
       <c r="E56" s="296" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>MINBIOWOO1_S3</v>
       </c>
       <c r="F56" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Sawmill residues - Step 3</v>
+      </c>
+      <c r="G56" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Sawmill residues - Step 3</v>
-      </c>
-      <c r="G56" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H56" s="296" t="str">
@@ -8679,7 +8691,7 @@
         <v>BIOWOO1</v>
       </c>
       <c r="I56" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J56" s="296" t="str">
@@ -8698,15 +8710,15 @@
         <v>309</v>
       </c>
       <c r="E57" s="296" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>MINBIOWOO2_S1</v>
       </c>
       <c r="F57" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Post-Consumer Recycled Wood - Step 1</v>
+      </c>
+      <c r="G57" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Post-Consumer Recycled Wood - Step 1</v>
-      </c>
-      <c r="G57" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H57" s="296" t="str">
@@ -8714,7 +8726,7 @@
         <v>BIOWOO2</v>
       </c>
       <c r="I57" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J57" s="296" t="str">
@@ -8733,15 +8745,15 @@
         <v>310</v>
       </c>
       <c r="E58" s="296" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>MINBIOWOO2_S2</v>
       </c>
       <c r="F58" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Post-Consumer Recycled Wood - Step 2</v>
+      </c>
+      <c r="G58" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Post-Consumer Recycled Wood - Step 2</v>
-      </c>
-      <c r="G58" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H58" s="296" t="str">
@@ -8749,7 +8761,7 @@
         <v>BIOWOO2</v>
       </c>
       <c r="I58" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J58" s="296" t="str">
@@ -8776,15 +8788,15 @@
         <v>311</v>
       </c>
       <c r="E59" s="296" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>MINBIOWOO2_S3</v>
       </c>
       <c r="F59" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Post-Consumer Recycled Wood - Step 3</v>
+      </c>
+      <c r="G59" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Post-Consumer Recycled Wood - Step 3</v>
-      </c>
-      <c r="G59" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H59" s="296" t="str">
@@ -8792,7 +8804,7 @@
         <v>BIOWOO2</v>
       </c>
       <c r="I59" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J59" s="296" t="str">
@@ -8811,15 +8823,15 @@
         <v>342</v>
       </c>
       <c r="E60" s="296" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>MINBIOWOO3_S1</v>
       </c>
       <c r="F60" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Straw - Step 1</v>
+      </c>
+      <c r="G60" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Straw - Step 1</v>
-      </c>
-      <c r="G60" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H60" s="296" t="str">
@@ -8827,7 +8839,7 @@
         <v>BIOWOO3</v>
       </c>
       <c r="I60" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J60" s="296" t="str">
@@ -8846,15 +8858,15 @@
         <v>296</v>
       </c>
       <c r="E61" s="296" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>MINBIOWOO3_S2</v>
       </c>
       <c r="F61" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Straw - Step 2</v>
+      </c>
+      <c r="G61" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Straw - Step 2</v>
-      </c>
-      <c r="G61" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H61" s="296" t="str">
@@ -8862,7 +8874,7 @@
         <v>BIOWOO3</v>
       </c>
       <c r="I61" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J61" s="296" t="str">
@@ -8881,15 +8893,15 @@
         <v>297</v>
       </c>
       <c r="E62" s="296" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>MINBIOWOO3_S3</v>
       </c>
       <c r="F62" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Straw - Step 3</v>
+      </c>
+      <c r="G62" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Straw - Step 3</v>
-      </c>
-      <c r="G62" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H62" s="296" t="str">
@@ -8897,7 +8909,7 @@
         <v>BIOWOO3</v>
       </c>
       <c r="I62" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J62" s="296" t="str">
@@ -8916,15 +8928,15 @@
         <v>333</v>
       </c>
       <c r="E63" s="296" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>MINBIOMSW1_S1</v>
       </c>
       <c r="F63" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Biodegradable Municipal Solid Waste potential - Solid  - Step 1</v>
+      </c>
+      <c r="G63" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Biodegradable Municipal Solid Waste potential - Solid  - Step 1</v>
-      </c>
-      <c r="G63" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H63" s="296" t="str">
@@ -8932,7 +8944,7 @@
         <v>BIOMSW1</v>
       </c>
       <c r="I63" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J63" s="296" t="str">
@@ -8951,15 +8963,15 @@
         <v>312</v>
       </c>
       <c r="E64" s="296" t="str">
-        <f t="shared" ref="E64:E83" si="17">I64&amp;H64&amp;J64</f>
+        <f t="shared" ref="E64:E83" si="16">I64&amp;H64&amp;J64</f>
         <v>MINBIOMSW1_S2</v>
       </c>
       <c r="F64" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Biodegradable Municipal Solid Waste potential - Solid  - Step 2</v>
+      </c>
+      <c r="G64" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Biodegradable Municipal Solid Waste potential - Solid  - Step 2</v>
-      </c>
-      <c r="G64" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H64" s="296" t="str">
@@ -8967,7 +8979,7 @@
         <v>BIOMSW1</v>
       </c>
       <c r="I64" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J64" s="296" t="str">
@@ -8986,15 +8998,15 @@
         <v>313</v>
       </c>
       <c r="E65" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOMSW1_S3</v>
       </c>
       <c r="F65" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Biodegradable Municipal Solid Waste potential - Solid  - Step 3</v>
+      </c>
+      <c r="G65" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Biodegradable Municipal Solid Waste potential - Solid  - Step 3</v>
-      </c>
-      <c r="G65" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H65" s="296" t="str">
@@ -9002,7 +9014,7 @@
         <v>BIOMSW1</v>
       </c>
       <c r="I65" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J65" s="296" t="str">
@@ -9021,15 +9033,15 @@
         <v>314</v>
       </c>
       <c r="E66" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOMSW2_S1</v>
       </c>
       <c r="F66" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Biodegradable Municipal Solid Waste  - Step 1</v>
+      </c>
+      <c r="G66" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Biodegradable Municipal Solid Waste  - Step 1</v>
-      </c>
-      <c r="G66" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H66" s="296" t="str">
@@ -9037,7 +9049,7 @@
         <v>BIOMSW2</v>
       </c>
       <c r="I66" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J66" s="296" t="str">
@@ -9056,15 +9068,15 @@
         <v>315</v>
       </c>
       <c r="E67" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOMSW2_S2</v>
       </c>
       <c r="F67" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Biodegradable Municipal Solid Waste  - Step 2</v>
+      </c>
+      <c r="G67" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Biodegradable Municipal Solid Waste  - Step 2</v>
-      </c>
-      <c r="G67" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H67" s="296" t="str">
@@ -9072,7 +9084,7 @@
         <v>BIOMSW2</v>
       </c>
       <c r="I67" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J67" s="296" t="str">
@@ -9091,15 +9103,15 @@
         <v>316</v>
       </c>
       <c r="E68" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOMSW2_S3</v>
       </c>
       <c r="F68" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Biodegradable Municipal Solid Waste  - Step 3</v>
+      </c>
+      <c r="G68" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Biodegradable Municipal Solid Waste  - Step 3</v>
-      </c>
-      <c r="G68" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H68" s="296" t="str">
@@ -9107,7 +9119,7 @@
         <v>BIOMSW2</v>
       </c>
       <c r="I68" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J68" s="296" t="str">
@@ -9126,15 +9138,15 @@
         <v>317</v>
       </c>
       <c r="E69" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOTLW_S1</v>
       </c>
       <c r="F69" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Tallow  - Step 1</v>
+      </c>
+      <c r="G69" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Tallow  - Step 1</v>
-      </c>
-      <c r="G69" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H69" s="296" t="str">
@@ -9142,7 +9154,7 @@
         <v>BIOTLW</v>
       </c>
       <c r="I69" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J69" s="296" t="str">
@@ -9161,15 +9173,15 @@
         <v>318</v>
       </c>
       <c r="E70" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOTLW_S2</v>
       </c>
       <c r="F70" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Tallow  - Step 2</v>
+      </c>
+      <c r="G70" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Tallow  - Step 2</v>
-      </c>
-      <c r="G70" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H70" s="296" t="str">
@@ -9177,7 +9189,7 @@
         <v>BIOTLW</v>
       </c>
       <c r="I70" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J70" s="296" t="str">
@@ -9196,15 +9208,15 @@
         <v>319</v>
       </c>
       <c r="E71" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOTLW_S3</v>
       </c>
       <c r="F71" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Tallow  - Step 3</v>
+      </c>
+      <c r="G71" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Tallow  - Step 3</v>
-      </c>
-      <c r="G71" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H71" s="296" t="str">
@@ -9212,7 +9224,7 @@
         <v>BIOTLW</v>
       </c>
       <c r="I71" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J71" s="296" t="str">
@@ -9231,15 +9243,15 @@
         <v>320</v>
       </c>
       <c r="E72" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIORVO_S1</v>
       </c>
       <c r="F72" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Recovered Vegetable Oil  - Step 1</v>
+      </c>
+      <c r="G72" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Recovered Vegetable Oil  - Step 1</v>
-      </c>
-      <c r="G72" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H72" s="296" t="str">
@@ -9247,7 +9259,7 @@
         <v>BIORVO</v>
       </c>
       <c r="I72" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J72" s="296" t="str">
@@ -9266,15 +9278,15 @@
         <v>321</v>
       </c>
       <c r="E73" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIORVO_S2</v>
       </c>
       <c r="F73" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Recovered Vegetable Oil  - Step 2</v>
+      </c>
+      <c r="G73" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Recovered Vegetable Oil  - Step 2</v>
-      </c>
-      <c r="G73" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H73" s="296" t="str">
@@ -9282,7 +9294,7 @@
         <v>BIORVO</v>
       </c>
       <c r="I73" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J73" s="296" t="str">
@@ -9301,15 +9313,15 @@
         <v>322</v>
       </c>
       <c r="E74" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIORVO_S3</v>
       </c>
       <c r="F74" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Recovered Vegetable Oil  - Step 3</v>
+      </c>
+      <c r="G74" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Recovered Vegetable Oil  - Step 3</v>
-      </c>
-      <c r="G74" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H74" s="296" t="str">
@@ -9317,7 +9329,7 @@
         <v>BIORVO</v>
       </c>
       <c r="I74" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J74" s="296" t="str">
@@ -9336,15 +9348,15 @@
         <v>323</v>
       </c>
       <c r="E75" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOCATW_S1</v>
       </c>
       <c r="F75" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Cattle Waste  - Step 1</v>
+      </c>
+      <c r="G75" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Cattle Waste  - Step 1</v>
-      </c>
-      <c r="G75" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H75" s="296" t="str">
@@ -9352,7 +9364,7 @@
         <v>BIOCATW</v>
       </c>
       <c r="I75" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J75" s="296" t="str">
@@ -9371,15 +9383,15 @@
         <v>488</v>
       </c>
       <c r="E76" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOCATW_S2</v>
       </c>
       <c r="F76" s="294" t="str">
+        <f t="shared" si="3"/>
+        <v>Domestic Potential of Cattle Waste  - Step 2</v>
+      </c>
+      <c r="G76" s="296" t="str">
         <f t="shared" si="11"/>
-        <v>Domestic Potential of Cattle Waste  - Step 2</v>
-      </c>
-      <c r="G76" s="296" t="str">
-        <f t="shared" si="12"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H76" s="296" t="str">
@@ -9387,7 +9399,7 @@
         <v>BIOCATW</v>
       </c>
       <c r="I76" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J76" s="296" t="str">
@@ -9406,15 +9418,15 @@
         <v>489</v>
       </c>
       <c r="E77" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOCATW_S3</v>
       </c>
       <c r="F77" s="294" t="str">
-        <f t="shared" ref="F77:F83" si="18">G77 &amp; " of " &amp; VLOOKUP(H77,$B$13:$C$90,2,FALSE) &amp; IF(J77&lt;&gt;0,IF(VLOOKUP(J77,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J77,$I$4:$J$10,2,FALSE),""),"")</f>
+        <f t="shared" si="3"/>
         <v>Domestic Potential of Cattle Waste  - Step 3</v>
       </c>
       <c r="G77" s="296" t="str">
-        <f t="shared" ref="G77:G83" si="19">VLOOKUP(I77,$E$4:$F$9,2,FALSE)</f>
+        <f t="shared" ref="G77:G83" si="17">VLOOKUP(I77,$E$4:$F$9,2,FALSE)</f>
         <v>Domestic Potential</v>
       </c>
       <c r="H77" s="296" t="str">
@@ -9422,7 +9434,7 @@
         <v>BIOCATW</v>
       </c>
       <c r="I77" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J77" s="296" t="str">
@@ -9441,15 +9453,15 @@
         <v>490</v>
       </c>
       <c r="E78" s="296" t="str">
+        <f t="shared" si="16"/>
+        <v>MINBIOPIGW_S1</v>
+      </c>
+      <c r="F78" s="294" t="str">
+        <f t="shared" ref="F78:F85" si="18">G78 &amp; " of " &amp; VLOOKUP(H78,$B$13:$C$91,2,FALSE) &amp; IF(J78&lt;&gt;0,IF(VLOOKUP(J78,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J78,$I$4:$J$10,2,FALSE),""),"")</f>
+        <v>Domestic Potential of Pig Waste  - Step 1</v>
+      </c>
+      <c r="G78" s="296" t="str">
         <f t="shared" si="17"/>
-        <v>MINBIOPIGW_S1</v>
-      </c>
-      <c r="F78" s="294" t="str">
-        <f t="shared" si="18"/>
-        <v>Domestic Potential of Pig Waste  - Step 1</v>
-      </c>
-      <c r="G78" s="296" t="str">
-        <f t="shared" si="19"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H78" s="296" t="str">
@@ -9457,7 +9469,7 @@
         <v>BIOPIGW</v>
       </c>
       <c r="I78" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J78" s="296" t="str">
@@ -9476,7 +9488,7 @@
         <v>491</v>
       </c>
       <c r="E79" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOPIGW_S2</v>
       </c>
       <c r="F79" s="294" t="str">
@@ -9484,7 +9496,7 @@
         <v>Domestic Potential of Pig Waste  - Step 2</v>
       </c>
       <c r="G79" s="296" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H79" s="296" t="str">
@@ -9492,7 +9504,7 @@
         <v>BIOPIGW</v>
       </c>
       <c r="I79" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J79" s="296" t="str">
@@ -9511,7 +9523,7 @@
         <v>324</v>
       </c>
       <c r="E80" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOPIGW_S3</v>
       </c>
       <c r="F80" s="294" t="str">
@@ -9519,7 +9531,7 @@
         <v>Domestic Potential of Pig Waste  - Step 3</v>
       </c>
       <c r="G80" s="296" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H80" s="296" t="str">
@@ -9527,7 +9539,7 @@
         <v>BIOPIGW</v>
       </c>
       <c r="I80" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J80" s="296" t="str">
@@ -9546,7 +9558,7 @@
         <v>325</v>
       </c>
       <c r="E81" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOINDF_S1</v>
       </c>
       <c r="F81" s="294" t="str">
@@ -9554,7 +9566,7 @@
         <v>Domestic Potential of Industrial Food Waste  - Step 1</v>
       </c>
       <c r="G81" s="296" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H81" s="296" t="str">
@@ -9562,7 +9574,7 @@
         <v>BIOINDF</v>
       </c>
       <c r="I81" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J81" s="296" t="str">
@@ -9581,7 +9593,7 @@
         <v>326</v>
       </c>
       <c r="E82" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOINDF_S2</v>
       </c>
       <c r="F82" s="294" t="str">
@@ -9589,7 +9601,7 @@
         <v>Domestic Potential of Industrial Food Waste  - Step 2</v>
       </c>
       <c r="G82" s="296" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H82" s="296" t="str">
@@ -9597,7 +9609,7 @@
         <v>BIOINDF</v>
       </c>
       <c r="I82" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J82" s="296" t="str">
@@ -9616,7 +9628,7 @@
         <v>327</v>
       </c>
       <c r="E83" s="296" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>MINBIOINDF_S3</v>
       </c>
       <c r="F83" s="294" t="str">
@@ -9624,7 +9636,7 @@
         <v>Domestic Potential of Industrial Food Waste  - Step 3</v>
       </c>
       <c r="G83" s="296" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H83" s="296" t="str">
@@ -9632,7 +9644,7 @@
         <v>BIOINDF</v>
       </c>
       <c r="I83" s="296" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>MIN</v>
       </c>
       <c r="J83" s="296" t="str">
@@ -9651,31 +9663,28 @@
         <v>328</v>
       </c>
       <c r="E84" s="296" t="str">
-        <f t="shared" ref="E84:E85" si="20">I84&amp;H84&amp;J84</f>
-        <v>IMPELC_UK</v>
+        <f t="shared" ref="E84:E85" si="19">I84&amp;H84&amp;J84</f>
+        <v>MINCYC</v>
       </c>
       <c r="F84" s="294" t="str">
-        <f t="shared" ref="F84:F85" si="21">G84 &amp; " of " &amp; VLOOKUP(H84,$B$13:$C$90,2,FALSE) &amp; IF(J84&lt;&gt;0,IF(VLOOKUP(J84,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J84,$I$4:$J$10,2,FALSE),""),"")</f>
-        <v>Import of Electricity - UK</v>
+        <f t="shared" si="18"/>
+        <v>Domestic Potential of Cycling</v>
       </c>
       <c r="G84" s="296" t="str">
-        <f t="shared" ref="G84:G85" si="22">VLOOKUP(I84,$E$4:$F$9,2,FALSE)</f>
-        <v>Import</v>
+        <f t="shared" ref="G84:G85" si="20">VLOOKUP(I84,$E$4:$F$9,2,FALSE)</f>
+        <v>Domestic Potential</v>
       </c>
       <c r="H84" s="296" t="str">
-        <f>$B$43</f>
-        <v>ELC</v>
+        <f>$B$90</f>
+        <v>CYC</v>
       </c>
       <c r="I84" s="296" t="str">
-        <f>$E$5</f>
-        <v>IMP</v>
-      </c>
-      <c r="J84" s="296" t="str">
-        <f>$I$4</f>
-        <v>_UK</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>MIN</v>
+      </c>
+      <c r="J84" s="296"/>
       <c r="K84" s="296" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L84" s="294"/>
     </row>
@@ -9687,31 +9696,28 @@
         <v>329</v>
       </c>
       <c r="E85" s="296" t="str">
+        <f t="shared" si="19"/>
+        <v>MINWLK</v>
+      </c>
+      <c r="F85" s="294" t="str">
+        <f t="shared" si="18"/>
+        <v>Domestic Potential of Walking</v>
+      </c>
+      <c r="G85" s="296" t="str">
         <f t="shared" si="20"/>
-        <v>EXPELC_UK</v>
-      </c>
-      <c r="F85" s="294" t="str">
-        <f t="shared" si="21"/>
-        <v>Export of Electricity - UK</v>
-      </c>
-      <c r="G85" s="296" t="str">
-        <f t="shared" si="22"/>
-        <v>Export</v>
+        <v>Domestic Potential</v>
       </c>
       <c r="H85" s="296" t="str">
-        <f>$B$43</f>
-        <v>ELC</v>
+        <f>$B$91</f>
+        <v>WLK</v>
       </c>
       <c r="I85" s="296" t="str">
-        <f>$E$6</f>
-        <v>EXP</v>
-      </c>
-      <c r="J85" s="296" t="str">
-        <f>$I$4</f>
-        <v>_UK</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>MIN</v>
+      </c>
+      <c r="J85" s="296"/>
       <c r="K85" s="296" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="L85" s="294"/>
     </row>
@@ -9723,27 +9729,31 @@
         <v>330</v>
       </c>
       <c r="E86" s="296" t="str">
-        <f t="shared" ref="E86" si="23">I86&amp;H86&amp;J86</f>
-        <v>BDNBIOWOO</v>
+        <f t="shared" ref="E86:E87" si="21">I86&amp;H86&amp;J86</f>
+        <v>IMPELC_UK</v>
       </c>
       <c r="F86" s="294" t="str">
-        <f>G86 &amp; " of " &amp; VLOOKUP(H86,$B$13:$C$90,2,FALSE) &amp; IF(J86&lt;&gt;0,IF(VLOOKUP(J86,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J86,$I$4:$J$10,2,FALSE),""),"")</f>
-        <v xml:space="preserve">Blending of Biomass - generic </v>
+        <f>G86 &amp; " of " &amp; VLOOKUP(H86,$B$13:$C$91,2,FALSE) &amp; IF(J86&lt;&gt;0,IF(VLOOKUP(J86,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J86,$I$4:$J$10,2,FALSE),""),"")</f>
+        <v>Import of Electricity - UK</v>
       </c>
       <c r="G86" s="296" t="str">
-        <f>VLOOKUP(I86,$E$4:$F$9,2,FALSE)</f>
-        <v>Blending</v>
+        <f t="shared" ref="G86:G87" si="22">VLOOKUP(I86,$E$4:$F$9,2,FALSE)</f>
+        <v>Import</v>
       </c>
       <c r="H86" s="296" t="str">
-        <f>B76</f>
-        <v>BIOWOO</v>
+        <f>$B$43</f>
+        <v>ELC</v>
       </c>
       <c r="I86" s="296" t="str">
-        <f>$E$9</f>
-        <v>BDN</v>
+        <f>$E$5</f>
+        <v>IMP</v>
+      </c>
+      <c r="J86" s="296" t="str">
+        <f>$I$4</f>
+        <v>_UK</v>
       </c>
       <c r="K86" s="296" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="2:12">
@@ -9754,31 +9764,31 @@
         <v>331</v>
       </c>
       <c r="E87" s="296" t="str">
-        <f>LEFT(B4,1)&amp;I87&amp;H87&amp;J87</f>
-        <v>SREFOILCRD_Whitegate</v>
+        <f t="shared" si="21"/>
+        <v>EXPELC_UK</v>
       </c>
       <c r="F87" s="294" t="str">
-        <f>G87 &amp; " of " &amp; VLOOKUP(H87,$B$13:$C$90,2,FALSE) &amp; IF(J87&lt;&gt;0,IF(VLOOKUP(J87,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J87,$I$4:$J$10,2,FALSE),""),"")</f>
-        <v>Refinery of Crude Oil  - Whitegate</v>
+        <f t="shared" ref="F87:F89" si="23">G87 &amp; " of " &amp; VLOOKUP(H87,$B$13:$C$90,2,FALSE) &amp; IF(J87&lt;&gt;0,IF(VLOOKUP(J87,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J87,$I$4:$J$10,2,FALSE),""),"")</f>
+        <v>Export of Electricity - UK</v>
       </c>
       <c r="G87" s="296" t="str">
-        <f>VLOOKUP(I87,$E$4:$F$9,2,FALSE)</f>
-        <v>Refinery</v>
-      </c>
-      <c r="H87" t="str">
-        <f>B51</f>
-        <v>OILCRD</v>
+        <f t="shared" si="22"/>
+        <v>Export</v>
+      </c>
+      <c r="H87" s="296" t="str">
+        <f>$B$43</f>
+        <v>ELC</v>
       </c>
       <c r="I87" s="296" t="str">
-        <f>$E$7</f>
-        <v>REF</v>
-      </c>
-      <c r="J87" t="str">
-        <f>I6</f>
-        <v>_Whitegate</v>
+        <f>$E$6</f>
+        <v>EXP</v>
+      </c>
+      <c r="J87" s="296" t="str">
+        <f>$I$4</f>
+        <v>_UK</v>
       </c>
       <c r="K87" s="296" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="2:12">
@@ -9789,26 +9799,25 @@
         <v>332</v>
       </c>
       <c r="E88" s="296" t="str">
-        <f>I88&amp;$B$4&amp;H88&amp;J88</f>
-        <v>FT-SUPNGA</v>
+        <f t="shared" ref="E88" si="24">I88&amp;H88&amp;J88</f>
+        <v>BDNBIOWOO</v>
       </c>
       <c r="F88" s="294" t="str">
-        <f>G88 &amp; " - " &amp; VLOOKUP(H88,$B$13:$C$90,2,FALSE) &amp; IF(J88&lt;&gt;0,IF(VLOOKUP(J88,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J88,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
-        <v>Fuel Tech - Natural Gas (SUP)</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">Blending of Biomass - generic </v>
       </c>
       <c r="G88" s="296" t="str">
-        <f t="shared" ref="G88" si="24">VLOOKUP(I88,$E$4:$F$9,2,FALSE)</f>
-        <v>Fuel Tech</v>
-      </c>
-      <c r="H88" s="294" t="str">
-        <f>B20</f>
-        <v>NGA</v>
+        <f>VLOOKUP(I88,$E$4:$F$9,2,FALSE)</f>
+        <v>Blending</v>
+      </c>
+      <c r="H88" s="296" t="str">
+        <f>B76</f>
+        <v>BIOWOO</v>
       </c>
       <c r="I88" s="296" t="str">
-        <f>$E$8</f>
-        <v>FT-</v>
-      </c>
-      <c r="J88" s="294"/>
+        <f>$E$9</f>
+        <v>BDN</v>
+      </c>
       <c r="K88" s="296" t="s">
         <v>186</v>
       </c>
@@ -9821,51 +9830,58 @@
         <v>443</v>
       </c>
       <c r="E89" s="296" t="str">
-        <f t="shared" ref="E89:E92" si="25">I89&amp;$B$4&amp;H89&amp;J89</f>
-        <v>FT-SUPCOA</v>
+        <f>LEFT(B4,1)&amp;I89&amp;H89&amp;J89</f>
+        <v>SREFOILCRD_Whitegate</v>
       </c>
       <c r="F89" s="294" t="str">
-        <f t="shared" ref="F89:F92" si="26">G89 &amp; " - " &amp; VLOOKUP(H89,$B$13:$C$90,2,FALSE) &amp; IF(J89&lt;&gt;0,IF(VLOOKUP(J89,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J89,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
-        <v>Fuel Tech - Coal (SUP)</v>
+        <f t="shared" si="23"/>
+        <v>Refinery of Crude Oil  - Whitegate</v>
       </c>
       <c r="G89" s="296" t="str">
-        <f t="shared" ref="G89:G92" si="27">VLOOKUP(I89,$E$4:$F$9,2,FALSE)</f>
-        <v>Fuel Tech</v>
-      </c>
-      <c r="H89" s="294" t="str">
-        <f>B13</f>
-        <v>COA</v>
+        <f>VLOOKUP(I89,$E$4:$F$9,2,FALSE)</f>
+        <v>Refinery</v>
+      </c>
+      <c r="H89" t="str">
+        <f>B51</f>
+        <v>OILCRD</v>
       </c>
       <c r="I89" s="296" t="str">
-        <f t="shared" ref="I89:I92" si="28">$E$8</f>
-        <v>FT-</v>
-      </c>
-      <c r="J89" s="294"/>
+        <f>$E$7</f>
+        <v>REF</v>
+      </c>
+      <c r="J89" t="str">
+        <f>I6</f>
+        <v>_Whitegate</v>
+      </c>
       <c r="K89" s="296" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="90" spans="2:12">
-      <c r="B90" s="314"/>
-      <c r="C90" s="296"/>
+      <c r="B90" s="314" t="s">
+        <v>510</v>
+      </c>
+      <c r="C90" s="296" t="s">
+        <v>512</v>
+      </c>
       <c r="E90" s="296" t="str">
-        <f t="shared" si="25"/>
-        <v>FT-SUPWAS</v>
+        <f>I90&amp;$B$4&amp;H90&amp;J90</f>
+        <v>FT-SUPNGA</v>
       </c>
       <c r="F90" s="294" t="str">
-        <f t="shared" si="26"/>
-        <v>Fuel Tech - Waste (SUP)</v>
+        <f>G90 &amp; " - " &amp; VLOOKUP(H90,$B$13:$C$91,2,FALSE) &amp; IF(J90&lt;&gt;0,IF(VLOOKUP(J90,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J90,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
+        <v>Fuel Tech - Natural Gas (SUP)</v>
       </c>
       <c r="G90" s="296" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="G90" si="25">VLOOKUP(I90,$E$4:$F$9,2,FALSE)</f>
         <v>Fuel Tech</v>
       </c>
       <c r="H90" s="294" t="str">
-        <f>B45</f>
-        <v>WAS</v>
+        <f>B20</f>
+        <v>NGA</v>
       </c>
       <c r="I90" s="296" t="str">
-        <f t="shared" si="28"/>
+        <f>$E$8</f>
         <v>FT-</v>
       </c>
       <c r="J90" s="294"/>
@@ -9874,24 +9890,30 @@
       </c>
     </row>
     <row r="91" spans="2:12">
+      <c r="B91" s="313" t="s">
+        <v>511</v>
+      </c>
+      <c r="C91" s="296" t="s">
+        <v>513</v>
+      </c>
       <c r="E91" s="296" t="str">
-        <f t="shared" si="25"/>
-        <v>FT-SUPBIO</v>
+        <f t="shared" ref="E91:E94" si="26">I91&amp;$B$4&amp;H91&amp;J91</f>
+        <v>FT-SUPCOA</v>
       </c>
       <c r="F91" s="294" t="str">
-        <f t="shared" si="26"/>
-        <v>Fuel Tech - Biomass (SUP)</v>
+        <f t="shared" ref="F91:F94" si="27">G91 &amp; " - " &amp; VLOOKUP(H91,$B$13:$C$91,2,FALSE) &amp; IF(J91&lt;&gt;0,IF(VLOOKUP(J91,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J91,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
+        <v>Fuel Tech - Coal (SUP)</v>
       </c>
       <c r="G91" s="296" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="G91:G94" si="28">VLOOKUP(I91,$E$4:$F$9,2,FALSE)</f>
         <v>Fuel Tech</v>
       </c>
       <c r="H91" s="294" t="str">
-        <f>B21</f>
-        <v>BIO</v>
+        <f>B13</f>
+        <v>COA</v>
       </c>
       <c r="I91" s="296" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="I91:I94" si="29">$E$8</f>
         <v>FT-</v>
       </c>
       <c r="J91" s="294"/>
@@ -9900,28 +9922,82 @@
       </c>
     </row>
     <row r="92" spans="2:12">
+      <c r="B92" s="313"/>
+      <c r="C92" s="296"/>
       <c r="E92" s="296" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
+        <v>FT-SUPWAS</v>
+      </c>
+      <c r="F92" s="294" t="str">
+        <f t="shared" si="27"/>
+        <v>Fuel Tech - Waste (SUP)</v>
+      </c>
+      <c r="G92" s="296" t="str">
+        <f t="shared" si="28"/>
+        <v>Fuel Tech</v>
+      </c>
+      <c r="H92" s="294" t="str">
+        <f>B45</f>
+        <v>WAS</v>
+      </c>
+      <c r="I92" s="296" t="str">
+        <f t="shared" si="29"/>
+        <v>FT-</v>
+      </c>
+      <c r="J92" s="294"/>
+      <c r="K92" s="296" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12">
+      <c r="E93" s="296" t="str">
+        <f t="shared" si="26"/>
+        <v>FT-SUPBIO</v>
+      </c>
+      <c r="F93" s="294" t="str">
+        <f t="shared" si="27"/>
+        <v>Fuel Tech - Biomass (SUP)</v>
+      </c>
+      <c r="G93" s="296" t="str">
+        <f t="shared" si="28"/>
+        <v>Fuel Tech</v>
+      </c>
+      <c r="H93" s="294" t="str">
+        <f>B21</f>
+        <v>BIO</v>
+      </c>
+      <c r="I93" s="296" t="str">
+        <f t="shared" si="29"/>
+        <v>FT-</v>
+      </c>
+      <c r="J93" s="294"/>
+      <c r="K93" s="296" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="E94" s="296" t="str">
+        <f t="shared" si="26"/>
         <v>FT-SUPELC</v>
       </c>
-      <c r="F92" s="294" t="str">
-        <f t="shared" si="26"/>
+      <c r="F94" s="294" t="str">
+        <f t="shared" si="27"/>
         <v>Fuel Tech - Electricity (SUP)</v>
       </c>
-      <c r="G92" s="296" t="str">
-        <f t="shared" si="27"/>
+      <c r="G94" s="296" t="str">
+        <f t="shared" si="28"/>
         <v>Fuel Tech</v>
       </c>
-      <c r="H92" s="294" t="str">
+      <c r="H94" s="294" t="str">
         <f>B43</f>
         <v>ELC</v>
       </c>
-      <c r="I92" s="296" t="str">
-        <f t="shared" si="28"/>
+      <c r="I94" s="296" t="str">
+        <f t="shared" si="29"/>
         <v>FT-</v>
       </c>
-      <c r="J92" s="294"/>
-      <c r="K92" s="296" t="s">
+      <c r="J94" s="294"/>
+      <c r="K94" s="296" t="s">
         <v>186</v>
       </c>
     </row>
@@ -10056,7 +10132,7 @@
         <v>Import of Electricity - UK</v>
       </c>
       <c r="E5" s="42" t="str">
-        <f>Commodities!C54</f>
+        <f>Commodities!C56</f>
         <v>ELCC</v>
       </c>
       <c r="F5" s="193">
@@ -10105,7 +10181,7 @@
         <v>Export of Electricity - UK</v>
       </c>
       <c r="D6" s="49" t="str">
-        <f>Commodities!C54</f>
+        <f>Commodities!C56</f>
         <v>ELCC</v>
       </c>
       <c r="E6" s="49"/>
@@ -10152,20 +10228,20 @@
       <c r="C7" s="57"/>
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
-      <c r="F7" s="508" t="s">
+      <c r="F7" s="514" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="508"/>
-      <c r="H7" s="508"/>
-      <c r="I7" s="508"/>
-      <c r="J7" s="508"/>
+      <c r="G7" s="514"/>
+      <c r="H7" s="514"/>
+      <c r="I7" s="514"/>
+      <c r="J7" s="514"/>
       <c r="K7" s="491" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="508" t="s">
+      <c r="L7" s="514" t="s">
         <v>286</v>
       </c>
-      <c r="M7" s="508"/>
+      <c r="M7" s="514"/>
       <c r="N7" s="57"/>
     </row>
     <row r="9" spans="2:19">
@@ -10826,15 +10902,15 @@
         <v>16</v>
       </c>
       <c r="C5" s="289" t="str">
-        <f>Commodities!C50</f>
+        <f>Commodities!C52</f>
         <v>SUPNGA</v>
       </c>
       <c r="D5" s="289" t="str">
-        <f>Commodities!C49</f>
+        <f>Commodities!C51</f>
         <v>SUPCOA</v>
       </c>
       <c r="E5" s="289" t="str">
-        <f>Commodities!C53</f>
+        <f>Commodities!C55</f>
         <v>SUPWAS</v>
       </c>
       <c r="F5" s="289" t="s">
@@ -10843,7 +10919,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="276" t="str">
-        <f>Commodities!C64</f>
+        <f>Commodities!C66</f>
         <v>SUPCO2N</v>
       </c>
       <c r="C6" s="148">
@@ -10861,7 +10937,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="276" t="str">
-        <f>Commodities!C60</f>
+        <f>Commodities!C62</f>
         <v>SUPCH4N</v>
       </c>
       <c r="C7" s="148"/>
@@ -10870,7 +10946,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="276" t="str">
-        <f>Commodities!C63</f>
+        <f>Commodities!C65</f>
         <v>SUPSO2N</v>
       </c>
       <c r="C8" s="148"/>
@@ -10879,7 +10955,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="276" t="str">
-        <f>Commodities!C67</f>
+        <f>Commodities!C69</f>
         <v>SUPNOXN</v>
       </c>
       <c r="C9" s="148"/>
@@ -10888,13 +10964,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="275" t="str">
-        <f>Commodities!C68</f>
+        <f>Commodities!C70</f>
         <v>SUPPM10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="275" t="str">
-        <f>Commodities!C69</f>
+        <f>Commodities!C71</f>
         <v>SUPPM25</v>
       </c>
     </row>
@@ -10943,10 +11019,10 @@
       <c r="J1" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="512" t="s">
+      <c r="P1" s="518" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="512"/>
+      <c r="Q1" s="518"/>
     </row>
     <row r="2" spans="1:22">
       <c r="H2" s="142"/>
@@ -14063,7 +14139,7 @@
     <col min="40" max="16384" width="9.140625" style="242"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="86.25" thickBot="1">
+    <row r="1" spans="1:39" ht="87" thickBot="1">
       <c r="A1" s="336" t="s">
         <v>501</v>
       </c>
@@ -16223,10 +16299,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:L94"/>
+  <dimension ref="B2:L96"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -17174,53 +17250,53 @@
       <c r="B49" s="312" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B13</f>
-        <v>SUPCOA</v>
-      </c>
-      <c r="D49" s="309" t="str">
-        <f>CONVENTIONS!C13 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Coal (SUP)</v>
-      </c>
-      <c r="E49" s="303" t="s">
+      <c r="C49" s="318" t="str">
+        <f>CONVENTIONS!B90</f>
+        <v>CYC</v>
+      </c>
+      <c r="D49" s="318" t="str">
+        <f>CONVENTIONS!C90</f>
+        <v>Cycling</v>
+      </c>
+      <c r="E49" s="312" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
-      <c r="I49" s="303"/>
+      <c r="F49" s="312"/>
+      <c r="G49" s="312"/>
+      <c r="H49" s="312"/>
+      <c r="I49" s="312"/>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" s="312" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B20</f>
-        <v>SUPNGA</v>
-      </c>
-      <c r="D50" s="309" t="str">
-        <f>CONVENTIONS!C20 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Natural Gas (SUP)</v>
-      </c>
-      <c r="E50" s="303" t="s">
+      <c r="C50" s="318" t="str">
+        <f>CONVENTIONS!B91</f>
+        <v>WLK</v>
+      </c>
+      <c r="D50" s="318" t="str">
+        <f>CONVENTIONS!C91</f>
+        <v>Walking</v>
+      </c>
+      <c r="E50" s="312" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="303"/>
-      <c r="G50" s="303"/>
-      <c r="H50" s="303"/>
-      <c r="I50" s="303"/>
+      <c r="F50" s="312"/>
+      <c r="G50" s="312"/>
+      <c r="H50" s="312"/>
+      <c r="I50" s="312"/>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" s="312" t="s">
         <v>23</v>
       </c>
       <c r="C51" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B21</f>
-        <v>SUPBIO</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B13</f>
+        <v>SUPCOA</v>
       </c>
       <c r="D51" s="309" t="str">
-        <f>CONVENTIONS!C21 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Biomass (SUP)</v>
+        <f>CONVENTIONS!C13 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Coal (SUP)</v>
       </c>
       <c r="E51" s="303" t="s">
         <v>10</v>
@@ -17235,12 +17311,12 @@
         <v>23</v>
       </c>
       <c r="C52" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B43</f>
-        <v>SUPELC</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B20</f>
+        <v>SUPNGA</v>
       </c>
       <c r="D52" s="309" t="str">
-        <f>CONVENTIONS!C43 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Electricity (SUP)</v>
+        <f>CONVENTIONS!C20 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Natural Gas (SUP)</v>
       </c>
       <c r="E52" s="303" t="s">
         <v>10</v>
@@ -17255,12 +17331,12 @@
         <v>23</v>
       </c>
       <c r="C53" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B45</f>
-        <v>SUPWAS</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B21</f>
+        <v>SUPBIO</v>
       </c>
       <c r="D53" s="309" t="str">
-        <f>CONVENTIONS!C45 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Waste (SUP)</v>
+        <f>CONVENTIONS!C21 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Biomass (SUP)</v>
       </c>
       <c r="E53" s="303" t="s">
         <v>10</v>
@@ -17275,12 +17351,12 @@
         <v>23</v>
       </c>
       <c r="C54" s="309" t="str">
-        <f>CONVENTIONS!$B$43&amp;CONVENTIONS!P4</f>
-        <v>ELCC</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B43</f>
+        <v>SUPELC</v>
       </c>
       <c r="D54" s="309" t="str">
-        <f>CONVENTIONS!$C$43 &amp;  " - " &amp; CONVENTIONS!Q4</f>
-        <v>Electricity - centralised</v>
+        <f>CONVENTIONS!C43 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Electricity (SUP)</v>
       </c>
       <c r="E54" s="303" t="s">
         <v>10</v>
@@ -17295,20 +17371,18 @@
         <v>23</v>
       </c>
       <c r="C55" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$89&amp;CONVENTIONS!M4&amp;CONVENTIONS!P4</f>
-        <v>SUPH2GC</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B45</f>
+        <v>SUPWAS</v>
       </c>
       <c r="D55" s="309" t="str">
-        <f>CONVENTIONS!$C$89 &amp; " " &amp; CONVENTIONS!N4 &amp; " - " &amp; CONVENTIONS!Q4&amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Hydrogen gaseous - centralised (SUP)</v>
+        <f>CONVENTIONS!C45 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Waste (SUP)</v>
       </c>
       <c r="E55" s="303" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="303"/>
-      <c r="G55" s="303" t="s">
-        <v>73</v>
-      </c>
+      <c r="G55" s="303"/>
       <c r="H55" s="303"/>
       <c r="I55" s="303"/>
     </row>
@@ -17317,20 +17391,18 @@
         <v>23</v>
       </c>
       <c r="C56" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$89&amp;CONVENTIONS!M5&amp;CONVENTIONS!P4</f>
-        <v>SUPH2LC</v>
+        <f>CONVENTIONS!$B$43&amp;CONVENTIONS!P4</f>
+        <v>ELCC</v>
       </c>
       <c r="D56" s="309" t="str">
-        <f>CONVENTIONS!$C$89 &amp; " " &amp; CONVENTIONS!N5 &amp; " - " &amp; CONVENTIONS!Q4&amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Hydrogen liquid - centralised (SUP)</v>
+        <f>CONVENTIONS!$C$43 &amp;  " - " &amp; CONVENTIONS!Q4</f>
+        <v>Electricity - centralised</v>
       </c>
       <c r="E56" s="303" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="303"/>
-      <c r="G56" s="303" t="s">
-        <v>73</v>
-      </c>
+      <c r="G56" s="303"/>
       <c r="H56" s="303"/>
       <c r="I56" s="303"/>
     </row>
@@ -17339,12 +17411,12 @@
         <v>23</v>
       </c>
       <c r="C57" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$89&amp;CONVENTIONS!M4&amp;CONVENTIONS!P5</f>
-        <v>SUPH2GD</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$89&amp;CONVENTIONS!M4&amp;CONVENTIONS!P4</f>
+        <v>SUPH2GC</v>
       </c>
       <c r="D57" s="309" t="str">
-        <f>CONVENTIONS!$C$89 &amp; " " &amp; CONVENTIONS!N4 &amp; " - " &amp; CONVENTIONS!Q5 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Hydrogen gaseous - decentralised (SUP)</v>
+        <f>CONVENTIONS!$C$89 &amp; " " &amp; CONVENTIONS!N4 &amp; " - " &amp; CONVENTIONS!Q4&amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Hydrogen gaseous - centralised (SUP)</v>
       </c>
       <c r="E57" s="303" t="s">
         <v>10</v>
@@ -17361,12 +17433,12 @@
         <v>23</v>
       </c>
       <c r="C58" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$89&amp;CONVENTIONS!M5&amp;CONVENTIONS!P5</f>
-        <v>SUPH2LD</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$89&amp;CONVENTIONS!M5&amp;CONVENTIONS!P4</f>
+        <v>SUPH2LC</v>
       </c>
       <c r="D58" s="309" t="str">
-        <f>CONVENTIONS!$C$89 &amp; " " &amp; CONVENTIONS!N5 &amp; " - " &amp; CONVENTIONS!Q5 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Hydrogen liquid - decentralised (SUP)</v>
+        <f>CONVENTIONS!$C$89 &amp; " " &amp; CONVENTIONS!N5 &amp; " - " &amp; CONVENTIONS!Q4&amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Hydrogen liquid - centralised (SUP)</v>
       </c>
       <c r="E58" s="303" t="s">
         <v>10</v>
@@ -17379,68 +17451,72 @@
       <c r="I58" s="303"/>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="319" t="s">
-        <v>417</v>
-      </c>
-      <c r="C59" s="319"/>
-      <c r="D59" s="319"/>
-      <c r="E59" s="319"/>
-      <c r="F59" s="319"/>
-      <c r="G59" s="319"/>
-      <c r="H59" s="319"/>
-      <c r="I59" s="319"/>
+      <c r="B59" s="312" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="309" t="str">
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$89&amp;CONVENTIONS!M4&amp;CONVENTIONS!P5</f>
+        <v>SUPH2GD</v>
+      </c>
+      <c r="D59" s="309" t="str">
+        <f>CONVENTIONS!$C$89 &amp; " " &amp; CONVENTIONS!N4 &amp; " - " &amp; CONVENTIONS!Q5 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Hydrogen gaseous - decentralised (SUP)</v>
+      </c>
+      <c r="E59" s="303" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="303"/>
+      <c r="G59" s="303" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" s="303"/>
+      <c r="I59" s="303"/>
     </row>
     <row r="60" spans="2:12">
       <c r="B60" s="312" t="s">
-        <v>338</v>
+        <v>23</v>
       </c>
       <c r="C60" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M13</f>
-        <v>SUPCH4N</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$89&amp;CONVENTIONS!M5&amp;CONVENTIONS!P5</f>
+        <v>SUPH2LD</v>
       </c>
       <c r="D60" s="309" t="str">
-        <f>CONVENTIONS!N13 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Methane - eNergy Emissions (SUP)</v>
+        <f>CONVENTIONS!$C$89 &amp; " " &amp; CONVENTIONS!N5 &amp; " - " &amp; CONVENTIONS!Q5 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Hydrogen liquid - decentralised (SUP)</v>
       </c>
       <c r="E60" s="303" t="s">
-        <v>339</v>
+        <v>10</v>
       </c>
       <c r="F60" s="303"/>
-      <c r="G60" s="303"/>
+      <c r="G60" s="303" t="s">
+        <v>73</v>
+      </c>
       <c r="H60" s="303"/>
       <c r="I60" s="303"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="312" t="s">
-        <v>338</v>
-      </c>
-      <c r="C61" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M14</f>
-        <v>SUPCH4P</v>
-      </c>
-      <c r="D61" s="309" t="str">
-        <f>CONVENTIONS!N14 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Methane Emissions - Process Emissions (SUP)</v>
-      </c>
-      <c r="E61" s="303" t="s">
-        <v>339</v>
-      </c>
-      <c r="F61" s="303"/>
-      <c r="G61" s="303"/>
-      <c r="H61" s="303"/>
-      <c r="I61" s="303"/>
+      <c r="B61" s="319" t="s">
+        <v>417</v>
+      </c>
+      <c r="C61" s="319"/>
+      <c r="D61" s="319"/>
+      <c r="E61" s="319"/>
+      <c r="F61" s="319"/>
+      <c r="G61" s="319"/>
+      <c r="H61" s="319"/>
+      <c r="I61" s="319"/>
     </row>
     <row r="62" spans="2:12">
       <c r="B62" s="312" t="s">
         <v>338</v>
       </c>
       <c r="C62" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M15</f>
-        <v>SUPN2ON</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M13</f>
+        <v>SUPCH4N</v>
       </c>
       <c r="D62" s="309" t="str">
-        <f>CONVENTIONS!N15 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>N2O Emissions - eNergy Emissions (SUP)</v>
+        <f>CONVENTIONS!N13 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Methane - eNergy Emissions (SUP)</v>
       </c>
       <c r="E62" s="303" t="s">
         <v>339</v>
@@ -17455,12 +17531,12 @@
         <v>338</v>
       </c>
       <c r="C63" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M16</f>
-        <v>SUPSO2N</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M14</f>
+        <v>SUPCH4P</v>
       </c>
       <c r="D63" s="309" t="str">
-        <f>CONVENTIONS!N16 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Sulfur dioxide - eNergy Emissions (SUP)</v>
+        <f>CONVENTIONS!N14 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Methane Emissions - Process Emissions (SUP)</v>
       </c>
       <c r="E63" s="303" t="s">
         <v>339</v>
@@ -17478,12 +17554,12 @@
         <v>338</v>
       </c>
       <c r="C64" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M17</f>
-        <v>SUPCO2N</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M15</f>
+        <v>SUPN2ON</v>
       </c>
       <c r="D64" s="309" t="str">
-        <f>CONVENTIONS!N17 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Carbon Dioxide - eNergy Emissions (SUP)</v>
+        <f>CONVENTIONS!N15 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>N2O Emissions - eNergy Emissions (SUP)</v>
       </c>
       <c r="E64" s="303" t="s">
         <v>339</v>
@@ -17501,12 +17577,12 @@
         <v>338</v>
       </c>
       <c r="C65" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M18</f>
-        <v>SUPCO2P</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M16</f>
+        <v>SUPSO2N</v>
       </c>
       <c r="D65" s="309" t="str">
-        <f>CONVENTIONS!N18 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Carbon Dioxide - Process Emissions (SUP)</v>
+        <f>CONVENTIONS!N16 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Sulfur dioxide - eNergy Emissions (SUP)</v>
       </c>
       <c r="E65" s="303" t="s">
         <v>339</v>
@@ -17524,12 +17600,12 @@
         <v>338</v>
       </c>
       <c r="C66" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M19</f>
-        <v>SUPCO2S</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M17</f>
+        <v>SUPCO2N</v>
       </c>
       <c r="D66" s="309" t="str">
-        <f>CONVENTIONS!N19 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Carbon Dioxide - Sequestered (SUP)</v>
+        <f>CONVENTIONS!N17 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Carbon Dioxide - eNergy Emissions (SUP)</v>
       </c>
       <c r="E66" s="303" t="s">
         <v>339</v>
@@ -17547,12 +17623,12 @@
         <v>338</v>
       </c>
       <c r="C67" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M20</f>
-        <v>SUPNOXN</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M18</f>
+        <v>SUPCO2P</v>
       </c>
       <c r="D67" s="309" t="str">
-        <f>CONVENTIONS!N20 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Nitrogen Oxide  - eNergy Emissions (SUP)</v>
+        <f>CONVENTIONS!N18 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Carbon Dioxide - Process Emissions (SUP)</v>
       </c>
       <c r="E67" s="303" t="s">
         <v>339</v>
@@ -17570,12 +17646,12 @@
         <v>338</v>
       </c>
       <c r="C68" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M21</f>
-        <v>SUPPM10</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M19</f>
+        <v>SUPCO2S</v>
       </c>
       <c r="D68" s="309" t="str">
-        <f>CONVENTIONS!N21 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Particulate Matter &lt;10 µm (SUP)</v>
+        <f>CONVENTIONS!N19 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Carbon Dioxide - Sequestered (SUP)</v>
       </c>
       <c r="E68" s="303" t="s">
         <v>339</v>
@@ -17590,12 +17666,12 @@
         <v>338</v>
       </c>
       <c r="C69" s="309" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M22</f>
-        <v>SUPPM25</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M20</f>
+        <v>SUPNOXN</v>
       </c>
       <c r="D69" s="309" t="str">
-        <f>CONVENTIONS!N22 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Particulate Matter &lt;2.5 µm (SUP)</v>
+        <f>CONVENTIONS!N20 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Nitrogen Oxide  - eNergy Emissions (SUP)</v>
       </c>
       <c r="E69" s="303" t="s">
         <v>339</v>
@@ -17605,25 +17681,45 @@
       <c r="H69" s="303"/>
       <c r="I69" s="303"/>
     </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="312" t="s">
+        <v>338</v>
+      </c>
+      <c r="C70" s="309" t="str">
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M21</f>
+        <v>SUPPM10</v>
+      </c>
+      <c r="D70" s="309" t="str">
+        <f>CONVENTIONS!N21 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Particulate Matter &lt;10 µm (SUP)</v>
+      </c>
+      <c r="E70" s="303" t="s">
+        <v>339</v>
+      </c>
+      <c r="F70" s="303"/>
+      <c r="G70" s="303"/>
+      <c r="H70" s="303"/>
+      <c r="I70" s="303"/>
+    </row>
     <row r="71" spans="2:12">
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-    </row>
-    <row r="72" spans="2:12">
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
+      <c r="B71" s="312" t="s">
+        <v>338</v>
+      </c>
+      <c r="C71" s="309" t="str">
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M22</f>
+        <v>SUPPM25</v>
+      </c>
+      <c r="D71" s="309" t="str">
+        <f>CONVENTIONS!N22 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Particulate Matter &lt;2.5 µm (SUP)</v>
+      </c>
+      <c r="E71" s="303" t="s">
+        <v>339</v>
+      </c>
+      <c r="F71" s="303"/>
+      <c r="G71" s="303"/>
+      <c r="H71" s="303"/>
+      <c r="I71" s="303"/>
     </row>
     <row r="73" spans="2:12">
       <c r="B73"/>
@@ -17844,6 +17940,26 @@
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19819,15 +19935,15 @@
     </row>
     <row r="80" spans="2:9" s="294" customFormat="1">
       <c r="B80" s="309" t="str">
-        <f>CONVENTIONS!K84</f>
+        <f>CONVENTIONS!K86</f>
         <v>IMP</v>
       </c>
       <c r="C80" s="309" t="str">
-        <f>CONVENTIONS!E84</f>
+        <f>CONVENTIONS!E86</f>
         <v>IMPELC_UK</v>
       </c>
       <c r="D80" s="309" t="str">
-        <f>CONVENTIONS!F84</f>
+        <f>CONVENTIONS!F86</f>
         <v>Import of Electricity - UK</v>
       </c>
       <c r="E80" s="323" t="s">
@@ -19844,15 +19960,15 @@
     </row>
     <row r="81" spans="2:9" s="294" customFormat="1">
       <c r="B81" s="309" t="str">
-        <f>CONVENTIONS!K85</f>
+        <f>CONVENTIONS!K87</f>
         <v>EXP</v>
       </c>
       <c r="C81" s="309" t="str">
-        <f>CONVENTIONS!E85</f>
+        <f>CONVENTIONS!E87</f>
         <v>EXPELC_UK</v>
       </c>
       <c r="D81" s="309" t="str">
-        <f>CONVENTIONS!F85</f>
+        <f>CONVENTIONS!F87</f>
         <v>Export of Electricity - UK</v>
       </c>
       <c r="E81" s="323" t="s">
@@ -19869,15 +19985,15 @@
     </row>
     <row r="82" spans="2:9">
       <c r="B82" s="309" t="str">
-        <f>CONVENTIONS!K86</f>
+        <f>CONVENTIONS!K88</f>
         <v>PRE</v>
       </c>
       <c r="C82" s="309" t="str">
-        <f>CONVENTIONS!E86</f>
+        <f>CONVENTIONS!E88</f>
         <v>BDNBIOWOO</v>
       </c>
       <c r="D82" s="309" t="str">
-        <f>CONVENTIONS!F86</f>
+        <f>CONVENTIONS!F88</f>
         <v xml:space="preserve">Blending of Biomass - generic </v>
       </c>
       <c r="E82" s="323" t="s">
@@ -19892,15 +20008,15 @@
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="309" t="str">
-        <f>CONVENTIONS!K87</f>
+        <f>CONVENTIONS!K89</f>
         <v>PRE</v>
       </c>
       <c r="C83" s="309" t="str">
-        <f>CONVENTIONS!E87</f>
+        <f>CONVENTIONS!E89</f>
         <v>SREFOILCRD_Whitegate</v>
       </c>
       <c r="D83" s="309" t="str">
-        <f>CONVENTIONS!F87</f>
+        <f>CONVENTIONS!F89</f>
         <v>Refinery of Crude Oil  - Whitegate</v>
       </c>
       <c r="E83" s="323" t="s">
@@ -19930,15 +20046,15 @@
     </row>
     <row r="85" spans="2:9">
       <c r="B85" s="309" t="str">
-        <f>CONVENTIONS!K88</f>
+        <f>CONVENTIONS!K90</f>
         <v>PRE</v>
       </c>
       <c r="C85" s="309" t="str">
-        <f>CONVENTIONS!E88</f>
+        <f>CONVENTIONS!E90</f>
         <v>FT-SUPNGA</v>
       </c>
       <c r="D85" s="309" t="str">
-        <f>CONVENTIONS!F88</f>
+        <f>CONVENTIONS!F90</f>
         <v>Fuel Tech - Natural Gas (SUP)</v>
       </c>
       <c r="E85" s="284" t="s">
@@ -19955,15 +20071,15 @@
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="309" t="str">
-        <f>CONVENTIONS!K89</f>
+        <f>CONVENTIONS!K91</f>
         <v>PRE</v>
       </c>
       <c r="C86" s="309" t="str">
-        <f>CONVENTIONS!E89</f>
+        <f>CONVENTIONS!E91</f>
         <v>FT-SUPCOA</v>
       </c>
       <c r="D86" s="309" t="str">
-        <f>CONVENTIONS!F89</f>
+        <f>CONVENTIONS!F91</f>
         <v>Fuel Tech - Coal (SUP)</v>
       </c>
       <c r="E86" s="331" t="s">
@@ -19978,15 +20094,15 @@
     </row>
     <row r="87" spans="2:9">
       <c r="B87" s="309" t="str">
-        <f>CONVENTIONS!K90</f>
+        <f>CONVENTIONS!K92</f>
         <v>PRE</v>
       </c>
       <c r="C87" s="309" t="str">
-        <f>CONVENTIONS!E90</f>
+        <f>CONVENTIONS!E92</f>
         <v>FT-SUPWAS</v>
       </c>
       <c r="D87" s="309" t="str">
-        <f>CONVENTIONS!F90</f>
+        <f>CONVENTIONS!F92</f>
         <v>Fuel Tech - Waste (SUP)</v>
       </c>
       <c r="E87" s="331" t="s">
@@ -20001,15 +20117,15 @@
     </row>
     <row r="88" spans="2:9">
       <c r="B88" s="309" t="str">
-        <f>CONVENTIONS!K91</f>
+        <f>CONVENTIONS!K93</f>
         <v>PRE</v>
       </c>
       <c r="C88" s="309" t="str">
-        <f>CONVENTIONS!E91</f>
+        <f>CONVENTIONS!E93</f>
         <v>FT-SUPBIO</v>
       </c>
       <c r="D88" s="309" t="str">
-        <f>CONVENTIONS!F91</f>
+        <f>CONVENTIONS!F93</f>
         <v>Fuel Tech - Biomass (SUP)</v>
       </c>
       <c r="E88" s="331" t="s">
@@ -20024,15 +20140,15 @@
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="309" t="str">
-        <f>CONVENTIONS!K92</f>
+        <f>CONVENTIONS!K94</f>
         <v>PRE</v>
       </c>
       <c r="C89" s="309" t="str">
-        <f>CONVENTIONS!E92</f>
+        <f>CONVENTIONS!E94</f>
         <v>FT-SUPELC</v>
       </c>
       <c r="D89" s="309" t="str">
-        <f>CONVENTIONS!F92</f>
+        <f>CONVENTIONS!F94</f>
         <v>Fuel Tech - Electricity (SUP)</v>
       </c>
       <c r="E89" s="284" t="s">
@@ -20404,7 +20520,7 @@
         <v>GASNAT</v>
       </c>
       <c r="D6" s="275" t="str">
-        <f>Commodities!C50</f>
+        <f>Commodities!C52</f>
         <v>SUPNGA</v>
       </c>
       <c r="E6" s="47">
@@ -20429,7 +20545,7 @@
         <v>COAHAR</v>
       </c>
       <c r="D7" s="275" t="str">
-        <f>Commodities!C49</f>
+        <f>Commodities!C51</f>
         <v>SUPCOA</v>
       </c>
       <c r="E7" s="47">
@@ -20454,7 +20570,7 @@
         <v>MSWAS</v>
       </c>
       <c r="D8" s="275" t="str">
-        <f>Commodities!C53</f>
+        <f>Commodities!C55</f>
         <v>SUPWAS</v>
       </c>
       <c r="E8" s="47">
@@ -20479,7 +20595,7 @@
         <v>BIOWOO, BIOWPE, BIOWCH</v>
       </c>
       <c r="D9" s="275" t="str">
-        <f>Commodities!C51</f>
+        <f>Commodities!C53</f>
         <v>SUPBIO</v>
       </c>
       <c r="E9" s="47">
@@ -20503,7 +20619,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="275" t="str">
-        <f>Commodities!C52</f>
+        <f>Commodities!C54</f>
         <v>SUPELC</v>
       </c>
       <c r="E10" s="47">
@@ -21329,24 +21445,24 @@
       <c r="E23" s="141"/>
       <c r="F23" s="141"/>
       <c r="G23" s="141"/>
-      <c r="H23" s="500" t="s">
+      <c r="H23" s="506" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="501"/>
-      <c r="J23" s="501"/>
-      <c r="K23" s="502"/>
-      <c r="L23" s="503" t="s">
+      <c r="I23" s="507"/>
+      <c r="J23" s="507"/>
+      <c r="K23" s="508"/>
+      <c r="L23" s="509" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="503"/>
-      <c r="N23" s="503"/>
-      <c r="O23" s="504"/>
-      <c r="P23" s="493" t="s">
+      <c r="M23" s="509"/>
+      <c r="N23" s="509"/>
+      <c r="O23" s="510"/>
+      <c r="P23" s="499" t="s">
         <v>91</v>
       </c>
-      <c r="Q23" s="493"/>
-      <c r="R23" s="493"/>
-      <c r="S23" s="494"/>
+      <c r="Q23" s="499"/>
+      <c r="R23" s="499"/>
+      <c r="S23" s="500"/>
       <c r="T23"/>
     </row>
     <row r="24" spans="2:20">
@@ -22596,15 +22712,15 @@
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
-      <c r="H57" s="495" t="s">
+      <c r="H57" s="501" t="s">
         <v>85</v>
       </c>
-      <c r="I57" s="496"/>
+      <c r="I57" s="502"/>
       <c r="J57"/>
-      <c r="K57" s="495" t="s">
+      <c r="K57" s="501" t="s">
         <v>96</v>
       </c>
-      <c r="L57" s="496"/>
+      <c r="L57" s="502"/>
       <c r="M57"/>
       <c r="S57"/>
     </row>
@@ -22636,7 +22752,7 @@
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59"/>
-      <c r="H59" s="497" t="s">
+      <c r="H59" s="503" t="s">
         <v>87</v>
       </c>
       <c r="I59" s="64">
@@ -22660,7 +22776,7 @@
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
-      <c r="H60" s="498"/>
+      <c r="H60" s="504"/>
       <c r="I60" s="65">
         <v>0.13700000000000001</v>
       </c>
@@ -22676,7 +22792,7 @@
       <c r="S60"/>
     </row>
     <row r="61" spans="2:19">
-      <c r="H61" s="499"/>
+      <c r="H61" s="505"/>
       <c r="I61" s="65">
         <v>41.868000000000002</v>
       </c>
@@ -22718,8 +22834,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -23517,7 +23633,7 @@
         <f>SUM($O$25:$P$25)+$Q$25*(Imports_Fossil!O$31/Imports_Fossil!$D$31)</f>
         <v>6.0342803129016236</v>
       </c>
-      <c r="J25" s="505" t="s">
+      <c r="J25" s="511" t="s">
         <v>139</v>
       </c>
       <c r="M25" s="241" t="s">
@@ -23569,7 +23685,7 @@
         <f>SUM($O$25:$P$25)+$Q$25*(Imports_Fossil!O$31/Imports_Fossil!$D$31)</f>
         <v>6.0342803129016236</v>
       </c>
-      <c r="J26" s="506"/>
+      <c r="J26" s="512"/>
       <c r="L26" s="237"/>
       <c r="M26" s="272"/>
       <c r="N26" s="267"/>
@@ -23609,7 +23725,7 @@
         <f>SUM($O$25:$P$25)+$Q$25*(Imports_Fossil!O$31/Imports_Fossil!$D$31)</f>
         <v>6.0342803129016236</v>
       </c>
-      <c r="J27" s="506"/>
+      <c r="J27" s="512"/>
       <c r="L27" s="230"/>
       <c r="M27" s="239"/>
       <c r="N27" s="239"/>
@@ -23650,7 +23766,7 @@
         <f>SUM($O$25:$P$25)+$Q$25*(Imports_Fossil!O$31/Imports_Fossil!$D$31)</f>
         <v>6.0342803129016236</v>
       </c>
-      <c r="J28" s="506"/>
+      <c r="J28" s="512"/>
       <c r="L28" s="178"/>
     </row>
     <row r="29" spans="2:17">
@@ -23686,7 +23802,7 @@
         <f>SUM($O$25:$P$25)+$Q$25*(Imports_Fossil!O$31/Imports_Fossil!$D$31)</f>
         <v>6.0342803129016236</v>
       </c>
-      <c r="J29" s="506"/>
+      <c r="J29" s="512"/>
       <c r="L29" s="178"/>
     </row>
     <row r="30" spans="2:17">
@@ -23722,7 +23838,7 @@
         <f>SUM($O$25:$P$25)+$Q$25*(Imports_Fossil!O$31/Imports_Fossil!$D$31)</f>
         <v>6.0342803129016236</v>
       </c>
-      <c r="J30" s="506"/>
+      <c r="J30" s="512"/>
       <c r="L30" s="178"/>
     </row>
     <row r="31" spans="2:17">
@@ -23758,7 +23874,7 @@
         <f>SUM($O$25:$P$25)+$Q$25*(Imports_Fossil!O$31/Imports_Fossil!$D$31)</f>
         <v>6.0342803129016236</v>
       </c>
-      <c r="J31" s="506"/>
+      <c r="J31" s="512"/>
       <c r="L31" s="178"/>
     </row>
     <row r="32" spans="2:17">
@@ -23794,7 +23910,7 @@
         <f>SUM($O$25:$P$25)+$Q$25*(Imports_Fossil!O$31/Imports_Fossil!$D$31)</f>
         <v>6.0342803129016236</v>
       </c>
-      <c r="J32" s="507"/>
+      <c r="J32" s="513"/>
       <c r="L32" s="178"/>
     </row>
     <row r="33" spans="2:22">
@@ -23865,7 +23981,7 @@
       <c r="L36" s="43">
         <v>2050</v>
       </c>
-      <c r="M36" s="513">
+      <c r="M36" s="493">
         <v>0</v>
       </c>
       <c r="N36" s="180" t="s">
@@ -23965,7 +24081,7 @@
         <f t="shared" si="9"/>
         <v>2.4623085394510844</v>
       </c>
-      <c r="M38" s="514">
+      <c r="M38" s="494">
         <v>5</v>
       </c>
       <c r="N38" s="143" t="s">
@@ -24033,7 +24149,7 @@
         <f t="shared" si="10"/>
         <v>4.9246170789021688</v>
       </c>
-      <c r="M39" s="515">
+      <c r="M39" s="495">
         <v>5</v>
       </c>
       <c r="N39" s="144" t="s">
@@ -24098,7 +24214,7 @@
         <f t="shared" si="10"/>
         <v>9.8492341578043376</v>
       </c>
-      <c r="M40" s="515">
+      <c r="M40" s="495">
         <v>5</v>
       </c>
       <c r="N40" s="144" t="s">
@@ -24156,7 +24272,7 @@
       <c r="L41" s="128">
         <v>27.064417978971818</v>
       </c>
-      <c r="M41" s="516">
+      <c r="M41" s="496">
         <v>5</v>
       </c>
       <c r="N41" s="145" t="s">
@@ -24200,7 +24316,7 @@
         <f t="shared" si="11"/>
         <v>59.810866344000004</v>
       </c>
-      <c r="M42" s="517"/>
+      <c r="M42" s="497"/>
       <c r="N42" s="146" t="s">
         <v>103</v>
       </c>
@@ -24252,7 +24368,7 @@
         <f t="shared" si="12"/>
         <v>2.855752168393686</v>
       </c>
-      <c r="M43" s="514">
+      <c r="M43" s="494">
         <v>5</v>
       </c>
       <c r="N43" s="143" t="s">
@@ -24308,7 +24424,7 @@
         <f t="shared" si="13"/>
         <v>5.7115043367873719</v>
       </c>
-      <c r="M44" s="515">
+      <c r="M44" s="495">
         <v>5</v>
       </c>
       <c r="N44" s="144" t="s">
@@ -24361,7 +24477,7 @@
         <f t="shared" si="13"/>
         <v>11.423008673574744</v>
       </c>
-      <c r="M45" s="515">
+      <c r="M45" s="495">
         <v>5</v>
       </c>
       <c r="N45" s="144" t="s">
@@ -24414,7 +24530,7 @@
         <f t="shared" si="14"/>
         <v>82.768324715808077</v>
       </c>
-      <c r="M46" s="516">
+      <c r="M46" s="496">
         <v>5</v>
       </c>
       <c r="N46" s="145" t="s">
@@ -24458,7 +24574,7 @@
         <f t="shared" si="15"/>
         <v>102.75858989456388</v>
       </c>
-      <c r="M47" s="517"/>
+      <c r="M47" s="497"/>
       <c r="N47" s="146" t="s">
         <v>271</v>
       </c>
@@ -24510,7 +24626,7 @@
         <f t="shared" si="16"/>
         <v>0.89671505307741584</v>
       </c>
-      <c r="M48" s="514">
+      <c r="M48" s="494">
         <v>5</v>
       </c>
       <c r="N48" s="143" t="s">
@@ -24565,7 +24681,7 @@
         <f t="shared" si="17"/>
         <v>1.7934301061548317</v>
       </c>
-      <c r="M49" s="515">
+      <c r="M49" s="495">
         <v>5</v>
       </c>
       <c r="N49" s="144" t="s">
@@ -24618,7 +24734,7 @@
         <f t="shared" si="17"/>
         <v>3.5868602123096633</v>
       </c>
-      <c r="M50" s="515">
+      <c r="M50" s="495">
         <v>5</v>
       </c>
       <c r="N50" s="144" t="s">
@@ -24671,7 +24787,7 @@
         <f t="shared" si="18"/>
         <v>103.86945463245809</v>
       </c>
-      <c r="M51" s="516">
+      <c r="M51" s="496">
         <v>5</v>
       </c>
       <c r="N51" s="145" t="s">
@@ -24715,7 +24831,7 @@
         <f t="shared" si="19"/>
         <v>110.14646000400001</v>
       </c>
-      <c r="M52" s="517"/>
+      <c r="M52" s="497"/>
       <c r="N52" s="146" t="s">
         <v>103</v>
       </c>
@@ -24767,7 +24883,7 @@
         <f t="shared" si="20"/>
         <v>0.38430645131889257</v>
       </c>
-      <c r="M53" s="514">
+      <c r="M53" s="494">
         <v>5</v>
       </c>
       <c r="N53" s="143" t="s">
@@ -24823,7 +24939,7 @@
         <f t="shared" si="21"/>
         <v>0.76861290263778514</v>
       </c>
-      <c r="M54" s="515">
+      <c r="M54" s="495">
         <v>5</v>
       </c>
       <c r="N54" s="144" t="s">
@@ -24876,7 +24992,7 @@
         <f t="shared" si="21"/>
         <v>1.5372258052755703</v>
       </c>
-      <c r="M55" s="515">
+      <c r="M55" s="495">
         <v>5</v>
       </c>
       <c r="N55" s="144" t="s">
@@ -24929,7 +25045,7 @@
         <f t="shared" si="22"/>
         <v>34.025327552767749</v>
       </c>
-      <c r="M56" s="516">
+      <c r="M56" s="496">
         <v>5</v>
       </c>
       <c r="N56" s="145" t="s">
@@ -24973,7 +25089,7 @@
         <f>K57</f>
         <v>36.715472712</v>
       </c>
-      <c r="M57" s="518"/>
+      <c r="M57" s="498"/>
       <c r="N57" s="147" t="s">
         <v>103</v>
       </c>
@@ -25225,11 +25341,11 @@
       </c>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
-      <c r="E9" s="508" t="s">
+      <c r="E9" s="514" t="s">
         <v>289</v>
       </c>
-      <c r="F9" s="508"/>
-      <c r="G9" s="508"/>
+      <c r="F9" s="514"/>
+      <c r="G9" s="514"/>
       <c r="H9" s="490" t="s">
         <v>288</v>
       </c>
@@ -25594,7 +25710,7 @@
       <c r="E5" s="182">
         <v>10</v>
       </c>
-      <c r="F5" s="509" t="s">
+      <c r="F5" s="515" t="s">
         <v>177</v>
       </c>
       <c r="Q5" s="276"/>
@@ -25615,7 +25731,7 @@
       <c r="E6" s="182">
         <v>10</v>
       </c>
-      <c r="F6" s="510"/>
+      <c r="F6" s="516"/>
       <c r="Q6" s="276"/>
     </row>
     <row r="7" spans="2:17" ht="15">
@@ -25634,7 +25750,7 @@
       <c r="E7" s="182">
         <v>10</v>
       </c>
-      <c r="F7" s="510"/>
+      <c r="F7" s="516"/>
       <c r="Q7" s="276"/>
     </row>
     <row r="8" spans="2:17" ht="15">
@@ -25653,7 +25769,7 @@
       <c r="E8" s="182">
         <v>10</v>
       </c>
-      <c r="F8" s="510"/>
+      <c r="F8" s="516"/>
       <c r="Q8" s="276"/>
     </row>
     <row r="9" spans="2:17" ht="15">
@@ -25672,7 +25788,7 @@
       <c r="E9" s="182">
         <v>10</v>
       </c>
-      <c r="F9" s="510"/>
+      <c r="F9" s="516"/>
       <c r="Q9" s="276"/>
     </row>
     <row r="10" spans="2:17" ht="15">
@@ -25691,7 +25807,7 @@
       <c r="E10" s="182">
         <v>10</v>
       </c>
-      <c r="F10" s="510"/>
+      <c r="F10" s="516"/>
       <c r="Q10" s="276"/>
     </row>
     <row r="11" spans="2:17" ht="15">
@@ -25710,7 +25826,7 @@
       <c r="E11" s="182">
         <v>10</v>
       </c>
-      <c r="F11" s="510"/>
+      <c r="F11" s="516"/>
       <c r="Q11" s="276"/>
     </row>
     <row r="12" spans="2:17" ht="15">
@@ -25729,7 +25845,7 @@
       <c r="E12" s="182">
         <v>10</v>
       </c>
-      <c r="F12" s="510"/>
+      <c r="F12" s="516"/>
       <c r="Q12" s="276"/>
     </row>
     <row r="13" spans="2:17" ht="15">
@@ -25748,7 +25864,7 @@
       <c r="E13" s="182">
         <v>10</v>
       </c>
-      <c r="F13" s="510"/>
+      <c r="F13" s="516"/>
       <c r="Q13" s="276"/>
     </row>
     <row r="14" spans="2:17" ht="15">
@@ -25767,7 +25883,7 @@
       <c r="E14" s="128">
         <v>10</v>
       </c>
-      <c r="F14" s="510"/>
+      <c r="F14" s="516"/>
       <c r="Q14" s="276"/>
     </row>
     <row r="15" spans="2:17" ht="15">
@@ -25786,7 +25902,7 @@
       <c r="E15" s="182">
         <v>10</v>
       </c>
-      <c r="F15" s="510"/>
+      <c r="F15" s="516"/>
       <c r="Q15" s="276"/>
     </row>
     <row r="16" spans="2:17" ht="15">
@@ -25805,7 +25921,7 @@
       <c r="E16" s="182">
         <v>10</v>
       </c>
-      <c r="F16" s="510"/>
+      <c r="F16" s="516"/>
       <c r="Q16" s="276"/>
     </row>
     <row r="17" spans="2:17" ht="15">
@@ -25824,7 +25940,7 @@
       <c r="E17" s="182">
         <v>10</v>
       </c>
-      <c r="F17" s="510"/>
+      <c r="F17" s="516"/>
       <c r="Q17" s="276"/>
     </row>
     <row r="18" spans="2:17" ht="15">
@@ -25843,7 +25959,7 @@
       <c r="E18" s="182">
         <v>10</v>
       </c>
-      <c r="F18" s="510"/>
+      <c r="F18" s="516"/>
       <c r="Q18" s="276"/>
     </row>
     <row r="19" spans="2:17" ht="15">
@@ -25862,7 +25978,7 @@
       <c r="E19" s="182">
         <v>10</v>
       </c>
-      <c r="F19" s="510"/>
+      <c r="F19" s="516"/>
       <c r="Q19" s="276"/>
     </row>
     <row r="20" spans="2:17" ht="15">
@@ -25881,7 +25997,7 @@
       <c r="E20" s="182">
         <v>10</v>
       </c>
-      <c r="F20" s="510"/>
+      <c r="F20" s="516"/>
       <c r="Q20" s="276"/>
     </row>
     <row r="21" spans="2:17">
@@ -25900,7 +26016,7 @@
       <c r="E21" s="182">
         <v>10</v>
       </c>
-      <c r="F21" s="510"/>
+      <c r="F21" s="516"/>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="38" t="str">
@@ -25918,7 +26034,7 @@
       <c r="E22" s="182">
         <v>10</v>
       </c>
-      <c r="F22" s="510"/>
+      <c r="F22" s="516"/>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="38" t="str">
@@ -25936,7 +26052,7 @@
       <c r="E23" s="182">
         <v>10</v>
       </c>
-      <c r="F23" s="510"/>
+      <c r="F23" s="516"/>
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="122" t="str">
@@ -25954,7 +26070,7 @@
       <c r="E24" s="128">
         <v>10</v>
       </c>
-      <c r="F24" s="510"/>
+      <c r="F24" s="516"/>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="38" t="str">
@@ -25972,7 +26088,7 @@
       <c r="E25" s="182">
         <v>10</v>
       </c>
-      <c r="F25" s="510"/>
+      <c r="F25" s="516"/>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="38" t="str">
@@ -25990,7 +26106,7 @@
       <c r="E26" s="182">
         <v>10</v>
       </c>
-      <c r="F26" s="510"/>
+      <c r="F26" s="516"/>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="38" t="str">
@@ -26008,7 +26124,7 @@
       <c r="E27" s="182">
         <v>10</v>
       </c>
-      <c r="F27" s="510"/>
+      <c r="F27" s="516"/>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="38" t="str">
@@ -26026,7 +26142,7 @@
       <c r="E28" s="182">
         <v>10</v>
       </c>
-      <c r="F28" s="510"/>
+      <c r="F28" s="516"/>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="38" t="str">
@@ -26044,7 +26160,7 @@
       <c r="E29" s="182">
         <v>10</v>
       </c>
-      <c r="F29" s="510"/>
+      <c r="F29" s="516"/>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="38" t="str">
@@ -26062,7 +26178,7 @@
       <c r="E30" s="182">
         <v>10</v>
       </c>
-      <c r="F30" s="510"/>
+      <c r="F30" s="516"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="38" t="str">
@@ -26080,7 +26196,7 @@
       <c r="E31" s="182">
         <v>10</v>
       </c>
-      <c r="F31" s="510"/>
+      <c r="F31" s="516"/>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="38" t="str">
@@ -26098,7 +26214,7 @@
       <c r="E32" s="182">
         <v>10</v>
       </c>
-      <c r="F32" s="510"/>
+      <c r="F32" s="516"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="38" t="str">
@@ -26116,7 +26232,7 @@
       <c r="E33" s="182">
         <v>10</v>
       </c>
-      <c r="F33" s="510"/>
+      <c r="F33" s="516"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="122" t="str">
@@ -26134,7 +26250,7 @@
       <c r="E34" s="128">
         <v>10</v>
       </c>
-      <c r="F34" s="511"/>
+      <c r="F34" s="517"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="38"/>
@@ -26239,7 +26355,7 @@
   <dimension ref="B1:AC18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7857BC-0B38-42E8-9738-327DE3ACCC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775A9ED1-A716-473A-AF44-F8CC0268B826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONVENTIONS" sheetId="20" r:id="rId1"/>
@@ -790,7 +790,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="514">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -6858,8 +6858,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:T94"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10124,11 +10124,11 @@
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="42" t="str">
-        <f>Processes!C80</f>
+        <f>Processes!C82</f>
         <v>IMPELC_UK</v>
       </c>
       <c r="C5" s="42" t="str">
-        <f>Processes!D80</f>
+        <f>Processes!D82</f>
         <v>Import of Electricity - UK</v>
       </c>
       <c r="E5" s="42" t="str">
@@ -10173,11 +10173,11 @@
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="49" t="str">
-        <f>Processes!C81</f>
+        <f>Processes!C83</f>
         <v>EXPELC_UK</v>
       </c>
       <c r="C6" s="49" t="str">
-        <f>Processes!D81</f>
+        <f>Processes!D83</f>
         <v>Export of Electricity - UK</v>
       </c>
       <c r="D6" s="49" t="str">
@@ -14139,7 +14139,7 @@
     <col min="40" max="16384" width="9.140625" style="242"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="87" thickBot="1">
+    <row r="1" spans="1:39" ht="87.75" thickBot="1">
       <c r="A1" s="336" t="s">
         <v>501</v>
       </c>
@@ -16301,8 +16301,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A26" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -17970,10 +17970,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABBFF4F-A0CF-43AC-AC4F-5B8E72D4ACA3}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:V89"/>
+  <dimension ref="B1:V91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19935,198 +19935,198 @@
     </row>
     <row r="80" spans="2:9" s="294" customFormat="1">
       <c r="B80" s="309" t="str">
+        <f>CONVENTIONS!K84</f>
+        <v>MIN</v>
+      </c>
+      <c r="C80" s="309" t="str">
+        <f>CONVENTIONS!E84</f>
+        <v>MINCYC</v>
+      </c>
+      <c r="D80" s="309" t="str">
+        <f>CONVENTIONS!F84</f>
+        <v>Domestic Potential of Cycling</v>
+      </c>
+      <c r="E80" s="323" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="296" t="s">
+        <v>425</v>
+      </c>
+      <c r="G80" s="296"/>
+      <c r="H80" s="296"/>
+      <c r="I80" s="296"/>
+    </row>
+    <row r="81" spans="2:9" s="294" customFormat="1">
+      <c r="B81" s="309" t="str">
+        <f>CONVENTIONS!K85</f>
+        <v>MIN</v>
+      </c>
+      <c r="C81" s="309" t="str">
+        <f>CONVENTIONS!E85</f>
+        <v>MINWLK</v>
+      </c>
+      <c r="D81" s="309" t="str">
+        <f>CONVENTIONS!F85</f>
+        <v>Domestic Potential of Walking</v>
+      </c>
+      <c r="E81" s="323" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="296" t="s">
+        <v>425</v>
+      </c>
+      <c r="G81" s="296"/>
+      <c r="H81" s="296"/>
+      <c r="I81" s="296"/>
+    </row>
+    <row r="82" spans="2:9" s="294" customFormat="1">
+      <c r="B82" s="309" t="str">
         <f>CONVENTIONS!K86</f>
         <v>IMP</v>
       </c>
-      <c r="C80" s="309" t="str">
+      <c r="C82" s="309" t="str">
         <f>CONVENTIONS!E86</f>
         <v>IMPELC_UK</v>
       </c>
-      <c r="D80" s="309" t="str">
+      <c r="D82" s="309" t="str">
         <f>CONVENTIONS!F86</f>
         <v>Import of Electricity - UK</v>
       </c>
-      <c r="E80" s="323" t="s">
+      <c r="E82" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="296" t="s">
+      <c r="F82" s="296" t="s">
         <v>425</v>
       </c>
-      <c r="G80" s="296" t="s">
+      <c r="G82" s="296" t="s">
         <v>65</v>
       </c>
-      <c r="H80" s="296"/>
-      <c r="I80" s="296"/>
-    </row>
-    <row r="81" spans="2:9" s="294" customFormat="1">
-      <c r="B81" s="309" t="str">
+      <c r="H82" s="296"/>
+      <c r="I82" s="296"/>
+    </row>
+    <row r="83" spans="2:9" s="294" customFormat="1">
+      <c r="B83" s="309" t="str">
         <f>CONVENTIONS!K87</f>
         <v>EXP</v>
       </c>
-      <c r="C81" s="309" t="str">
+      <c r="C83" s="309" t="str">
         <f>CONVENTIONS!E87</f>
         <v>EXPELC_UK</v>
       </c>
-      <c r="D81" s="309" t="str">
+      <c r="D83" s="309" t="str">
         <f>CONVENTIONS!F87</f>
         <v>Export of Electricity - UK</v>
       </c>
-      <c r="E81" s="323" t="s">
+      <c r="E83" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="296" t="s">
+      <c r="F83" s="296" t="s">
         <v>425</v>
       </c>
-      <c r="G81" s="296" t="s">
+      <c r="G83" s="296" t="s">
         <v>65</v>
       </c>
-      <c r="H81" s="296"/>
-      <c r="I81" s="296"/>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="309" t="str">
+      <c r="H83" s="296"/>
+      <c r="I83" s="296"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="309" t="str">
         <f>CONVENTIONS!K88</f>
         <v>PRE</v>
       </c>
-      <c r="C82" s="309" t="str">
+      <c r="C84" s="309" t="str">
         <f>CONVENTIONS!E88</f>
         <v>BDNBIOWOO</v>
       </c>
-      <c r="D82" s="309" t="str">
+      <c r="D84" s="309" t="str">
         <f>CONVENTIONS!F88</f>
         <v xml:space="preserve">Blending of Biomass - generic </v>
       </c>
-      <c r="E82" s="323" t="s">
+      <c r="E84" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="296" t="s">
+      <c r="F84" s="296" t="s">
         <v>425</v>
       </c>
-      <c r="G82" s="296"/>
-      <c r="H82" s="328"/>
-      <c r="I82" s="317"/>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="309" t="str">
+      <c r="G84" s="296"/>
+      <c r="H84" s="328"/>
+      <c r="I84" s="317"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="309" t="str">
         <f>CONVENTIONS!K89</f>
         <v>PRE</v>
       </c>
-      <c r="C83" s="309" t="str">
+      <c r="C85" s="309" t="str">
         <f>CONVENTIONS!E89</f>
         <v>SREFOILCRD_Whitegate</v>
       </c>
-      <c r="D83" s="309" t="str">
+      <c r="D85" s="309" t="str">
         <f>CONVENTIONS!F89</f>
         <v>Refinery of Crude Oil  - Whitegate</v>
       </c>
-      <c r="E83" s="323" t="s">
+      <c r="E85" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="296" t="s">
+      <c r="F85" s="296" t="s">
         <v>425</v>
       </c>
-      <c r="G83" s="317"/>
-      <c r="H83" s="328" t="str">
+      <c r="G85" s="317"/>
+      <c r="H85" s="328" t="str">
         <f>Commodities!C11</f>
         <v>OILCRD</v>
       </c>
-      <c r="I83" s="317"/>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="302" t="s">
+      <c r="I85" s="317"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="302" t="s">
         <v>424</v>
       </c>
-      <c r="C84" s="306"/>
-      <c r="D84" s="307"/>
-      <c r="E84" s="307"/>
-      <c r="F84" s="307"/>
-      <c r="G84" s="308"/>
-      <c r="H84" s="308"/>
-      <c r="I84" s="308"/>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="309" t="str">
+      <c r="C86" s="306"/>
+      <c r="D86" s="307"/>
+      <c r="E86" s="307"/>
+      <c r="F86" s="307"/>
+      <c r="G86" s="308"/>
+      <c r="H86" s="308"/>
+      <c r="I86" s="308"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="309" t="str">
         <f>CONVENTIONS!K90</f>
         <v>PRE</v>
       </c>
-      <c r="C85" s="309" t="str">
+      <c r="C87" s="309" t="str">
         <f>CONVENTIONS!E90</f>
         <v>FT-SUPNGA</v>
       </c>
-      <c r="D85" s="309" t="str">
+      <c r="D87" s="309" t="str">
         <f>CONVENTIONS!F90</f>
         <v>Fuel Tech - Natural Gas (SUP)</v>
       </c>
-      <c r="E85" s="284" t="s">
+      <c r="E87" s="284" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="296" t="s">
+      <c r="F87" s="296" t="s">
         <v>425</v>
       </c>
-      <c r="G85" s="317" t="s">
+      <c r="G87" s="317" t="s">
         <v>73</v>
       </c>
-      <c r="H85" s="328"/>
-      <c r="I85" s="317"/>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="309" t="str">
+      <c r="H87" s="328"/>
+      <c r="I87" s="317"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="309" t="str">
         <f>CONVENTIONS!K91</f>
         <v>PRE</v>
       </c>
-      <c r="C86" s="309" t="str">
+      <c r="C88" s="309" t="str">
         <f>CONVENTIONS!E91</f>
         <v>FT-SUPCOA</v>
       </c>
-      <c r="D86" s="309" t="str">
+      <c r="D88" s="309" t="str">
         <f>CONVENTIONS!F91</f>
         <v>Fuel Tech - Coal (SUP)</v>
-      </c>
-      <c r="E86" s="331" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="296" t="s">
-        <v>425</v>
-      </c>
-      <c r="G86" s="310"/>
-      <c r="H86" s="310"/>
-      <c r="I86" s="310"/>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="309" t="str">
-        <f>CONVENTIONS!K92</f>
-        <v>PRE</v>
-      </c>
-      <c r="C87" s="309" t="str">
-        <f>CONVENTIONS!E92</f>
-        <v>FT-SUPWAS</v>
-      </c>
-      <c r="D87" s="309" t="str">
-        <f>CONVENTIONS!F92</f>
-        <v>Fuel Tech - Waste (SUP)</v>
-      </c>
-      <c r="E87" s="331" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="296" t="s">
-        <v>425</v>
-      </c>
-      <c r="G87" s="310"/>
-      <c r="H87" s="310"/>
-      <c r="I87" s="310"/>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="309" t="str">
-        <f>CONVENTIONS!K93</f>
-        <v>PRE</v>
-      </c>
-      <c r="C88" s="309" t="str">
-        <f>CONVENTIONS!E93</f>
-        <v>FT-SUPBIO</v>
-      </c>
-      <c r="D88" s="309" t="str">
-        <f>CONVENTIONS!F93</f>
-        <v>Fuel Tech - Biomass (SUP)</v>
       </c>
       <c r="E88" s="331" t="s">
         <v>10</v>
@@ -20140,28 +20140,74 @@
     </row>
     <row r="89" spans="2:9">
       <c r="B89" s="309" t="str">
+        <f>CONVENTIONS!K92</f>
+        <v>PRE</v>
+      </c>
+      <c r="C89" s="309" t="str">
+        <f>CONVENTIONS!E92</f>
+        <v>FT-SUPWAS</v>
+      </c>
+      <c r="D89" s="309" t="str">
+        <f>CONVENTIONS!F92</f>
+        <v>Fuel Tech - Waste (SUP)</v>
+      </c>
+      <c r="E89" s="331" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="296" t="s">
+        <v>425</v>
+      </c>
+      <c r="G89" s="310"/>
+      <c r="H89" s="310"/>
+      <c r="I89" s="310"/>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="309" t="str">
+        <f>CONVENTIONS!K93</f>
+        <v>PRE</v>
+      </c>
+      <c r="C90" s="309" t="str">
+        <f>CONVENTIONS!E93</f>
+        <v>FT-SUPBIO</v>
+      </c>
+      <c r="D90" s="309" t="str">
+        <f>CONVENTIONS!F93</f>
+        <v>Fuel Tech - Biomass (SUP)</v>
+      </c>
+      <c r="E90" s="331" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="296" t="s">
+        <v>425</v>
+      </c>
+      <c r="G90" s="310"/>
+      <c r="H90" s="310"/>
+      <c r="I90" s="310"/>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="309" t="str">
         <f>CONVENTIONS!K94</f>
         <v>PRE</v>
       </c>
-      <c r="C89" s="309" t="str">
+      <c r="C91" s="309" t="str">
         <f>CONVENTIONS!E94</f>
         <v>FT-SUPELC</v>
       </c>
-      <c r="D89" s="309" t="str">
+      <c r="D91" s="309" t="str">
         <f>CONVENTIONS!F94</f>
         <v>Fuel Tech - Electricity (SUP)</v>
       </c>
-      <c r="E89" s="284" t="s">
+      <c r="E91" s="284" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="296" t="s">
+      <c r="F91" s="296" t="s">
         <v>425</v>
       </c>
-      <c r="G89" s="310" t="s">
+      <c r="G91" s="310" t="s">
         <v>65</v>
       </c>
-      <c r="H89" s="310"/>
-      <c r="I89" s="310"/>
+      <c r="H91" s="310"/>
+      <c r="I91" s="310"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20175,7 +20221,7 @@
   <dimension ref="B1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20512,7 +20558,7 @@
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="275" t="str">
-        <f>Processes!C85</f>
+        <f>Processes!C87</f>
         <v>FT-SUPNGA</v>
       </c>
       <c r="C6" s="275" t="str">
@@ -20537,7 +20583,7 @@
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="275" t="str">
-        <f>Processes!C86</f>
+        <f>Processes!C88</f>
         <v>FT-SUPCOA</v>
       </c>
       <c r="C7" s="275" t="str">
@@ -20562,7 +20608,7 @@
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="275" t="str">
-        <f>Processes!C87</f>
+        <f>Processes!C89</f>
         <v>FT-SUPWAS</v>
       </c>
       <c r="C8" s="275" t="str">
@@ -20587,7 +20633,7 @@
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="275" t="str">
-        <f>Processes!C88</f>
+        <f>Processes!C90</f>
         <v>FT-SUPBIO</v>
       </c>
       <c r="C9" s="275" t="str">
@@ -20612,7 +20658,7 @@
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="275" t="str">
-        <f>Processes!C89</f>
+        <f>Processes!C91</f>
         <v>FT-SUPELC</v>
       </c>
       <c r="C10" s="275" t="s">
@@ -25109,8 +25155,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -25602,9 +25648,18 @@
       <c r="N21" s="204"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="25" t="str">
+        <f>Processes!C80</f>
+        <v>MINCYC</v>
+      </c>
+      <c r="C22" s="25" t="str">
+        <f>Processes!D80</f>
+        <v>Domestic Potential of Cycling</v>
+      </c>
+      <c r="D22" s="25" t="str">
+        <f>Commodities!C49</f>
+        <v>CYC</v>
+      </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -25617,6 +25672,18 @@
       <c r="N22" s="204"/>
     </row>
     <row r="23" spans="2:14">
+      <c r="B23" s="25" t="str">
+        <f>Processes!C81</f>
+        <v>MINWLK</v>
+      </c>
+      <c r="C23" s="25" t="str">
+        <f>Processes!D81</f>
+        <v>Domestic Potential of Walking</v>
+      </c>
+      <c r="D23" s="25" t="str">
+        <f>Commodities!C50</f>
+        <v>WLK</v>
+      </c>
       <c r="N23" s="204"/>
     </row>
   </sheetData>
@@ -25634,8 +25701,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -26309,11 +26376,11 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="38" t="str">
-        <f>Processes!C82</f>
+        <f>Processes!C84</f>
         <v>BDNBIOWOO</v>
       </c>
       <c r="C40" s="38" t="str">
-        <f>Processes!D82</f>
+        <f>Processes!D84</f>
         <v xml:space="preserve">Blending of Biomass - generic </v>
       </c>
       <c r="D40" s="38" t="str">
@@ -26485,11 +26552,11 @@
     </row>
     <row r="5" spans="2:25">
       <c r="B5" s="213" t="str">
-        <f>Processes!C83</f>
+        <f>Processes!C85</f>
         <v>SREFOILCRD_Whitegate</v>
       </c>
       <c r="C5" s="213" t="str">
-        <f>Processes!D83</f>
+        <f>Processes!D85</f>
         <v>Refinery of Crude Oil  - Whitegate</v>
       </c>
       <c r="D5" s="214" t="str">
@@ -26949,12 +27016,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -27100,6 +27161,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
   <ds:schemaRefs>
@@ -27109,15 +27176,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27133,4 +27191,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775A9ED1-A716-473A-AF44-F8CC0268B826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694F7B87-79C1-4535-895F-D76C95D3A117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2431,8 +2431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
@@ -2441,7 +2440,7 @@
     <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
     <numFmt numFmtId="170" formatCode="#,##0.0;[Red]\-#,##0.0"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2832,25 +2831,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -4585,19 +4565,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="43" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5440,476 +5413,476 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="36" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="46" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="97" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="49" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="46" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="40" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="79" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="89" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="96" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="118" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="96" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="58" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="84" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="98" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="47" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="25" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="33" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="34" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="42" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="51" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="52" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="53" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="59" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="60" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="74" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="75" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="76" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="83" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="85" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="86" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="93" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="99" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="100" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="114" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="115" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="122" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="99" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="65" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="35" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="36" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="37" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="45" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="46" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="49" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="54" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="55" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="61" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="72" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="77" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="78" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="80" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="87" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="88" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="90" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="94" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="95" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="97" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="116" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="117" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="119" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="101" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="102" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="79" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="103" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="104" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="39" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="37" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="48" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="56" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="54" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="62" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="81" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="91" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="120" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="75" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="52" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="120" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="33" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="41" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="50" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="52" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="57" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="75" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="82" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="85" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="92" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="114" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="121" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="98" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="39" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="48" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="56" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="81" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="91" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="95" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="64" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="66" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="67" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="68" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="69" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="71" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="47" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="69" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="26" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="28" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="29" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="31" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="105" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="70" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="48" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="25" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="24" borderId="49" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="24" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="24" borderId="40" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="24" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="24" borderId="79" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="24" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="24" borderId="89" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="24" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="24" borderId="96" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="24" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="24" borderId="37" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="24" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="24" borderId="54" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="24" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="24" borderId="67" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="24" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="24" borderId="96" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="24" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="24" borderId="118" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="24" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="24" borderId="58" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="110" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="40" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="106" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="107" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="113" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="108" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="106" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="63" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="109" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="112" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="111" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="73" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="24" borderId="110" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="24" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5998,17 +5971,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="2x indented GHG Textfiels" xfId="6" xr:uid="{62DF39A4-5259-42AD-AB56-64506ECF3F8B}"/>
+  <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="7" xr:uid="{3413AF66-1238-4383-9973-A6D2D0A271FD}"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5" xr:uid="{FAC75F69-6E12-4E79-B285-BDFD9F5D41A1}"/>
-    <cellStyle name="Normal_2000balx" xfId="8" xr:uid="{53314068-810C-4816-8E44-8C82815150BA}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="9" xr:uid="{E13D03EA-ACFB-475C-A45D-61923F355559}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -27016,6 +26984,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -27161,12 +27135,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
   <ds:schemaRefs>
@@ -27176,6 +27144,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32A5943-069C-47E6-B7B1-1C4E8CC11B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27191,13 +27168,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FAFBF8-7533-4E88-83A2-D2571516DB7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBB22F2-A18C-4C35-A904-5EC7AFA048E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="22" r:id="rId1"/>
@@ -2700,8 +2700,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
@@ -2711,7 +2710,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.0;[Red]\-#,##0.0"/>
     <numFmt numFmtId="171" formatCode="#,##0.000;[Red]\-#,##0.000"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3105,21 +3104,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4896,19 +4881,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="43" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="531">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5788,457 +5766,457 @@
     <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="29" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="28" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="25" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="46" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="26" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="36" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="46" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="54" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="63" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="78" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="46" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="88" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="95" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="117" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="60" fillId="0" borderId="102" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="57" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="103" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="105" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="109" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="82" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="50" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="92" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="98" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="31" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="32" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="33" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="34" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="35" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="37" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="38" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="39" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="36" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="37" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="63" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="40" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="33" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="41" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="39" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="42" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="45" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="47" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="47" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="48" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="49" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="48" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="51" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="49" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="52" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="53" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="55" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="56" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="54" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="52" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="57" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="58" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="56" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="59" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="60" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="61" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="40" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="62" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="64" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="65" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="66" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="24" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="67" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="68" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="69" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="69" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="70" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="71" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="72" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="73" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="74" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="75" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="76" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="77" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="79" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="80" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="81" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="75" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="81" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="83" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="84" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="85" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="86" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="87" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="89" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="90" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="91" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="85" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="91" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="93" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="25" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="94" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="96" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="97" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="99" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="100" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="48" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="114" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="115" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="116" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="118" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="119" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="120" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="114" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="121" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="98" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="120" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="122" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="101" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="79" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="75" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="97" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="96" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="16" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="95" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="99" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="104" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="52" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="106" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="107" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="108" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="110" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="111" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="106" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="112" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="113" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="126" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="13" borderId="28" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="13" borderId="29" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="13" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="47" fillId="24" borderId="28" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="47" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -6252,19 +6230,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="9" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6326,17 +6304,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="2x indented GHG Textfiels" xfId="6" xr:uid="{F367AD60-CF4F-4F65-8FE0-7AC1E326128F}"/>
+  <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="7" xr:uid="{4ED46089-709F-4F1F-8F33-B1403B0430BD}"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5" xr:uid="{896CABAA-5062-453C-94CB-476FC98296E2}"/>
-    <cellStyle name="Normal_2000balx" xfId="8" xr:uid="{58615571-6739-40F3-BCE5-17ED47C9D01D}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="9" xr:uid="{7A495003-52CA-4B03-BC70-B685A811E5EF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7264,13 +7237,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FF3EF7-2BA1-4958-B9C1-EB66FD6DB01F}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A3:AD37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="503" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="503" customWidth="1"/>
@@ -7302,7 +7276,7 @@
     <col min="31" max="16384" width="9" style="503"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15">
+    <row r="3" spans="1:30">
       <c r="C3" s="504" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -7421,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15">
+    <row r="5" spans="1:30">
       <c r="A5" s="503" t="s">
         <v>511</v>
       </c>
@@ -7536,7 +7510,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15">
+    <row r="6" spans="1:30">
       <c r="A6" s="503" t="s">
         <v>514</v>
       </c>
@@ -7653,7 +7627,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15">
+    <row r="7" spans="1:30">
       <c r="A7" s="503" t="s">
         <v>515</v>
       </c>
@@ -7986,7 +7960,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:2">
       <c r="A37" s="509" t="s">
         <v>569</v>
       </c>
@@ -18830,7 +18804,7 @@
   <dimension ref="B2:L97"/>
   <sheetViews>
     <sheetView topLeftCell="A36" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -20539,8 +20513,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28418,8 +28392,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:O24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -28970,10 +28944,7 @@
       <c r="O21" s="204"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="25">
-        <f>Processes!C82</f>
-        <v>0</v>
-      </c>
+      <c r="B22" s="25"/>
       <c r="C22" s="25" t="str">
         <f>Processes!D82</f>
         <v>MINCYC</v>
@@ -28998,10 +28969,7 @@
       <c r="O22" s="204"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="25">
-        <f>Processes!C83</f>
-        <v>0</v>
-      </c>
+      <c r="B23" s="25"/>
       <c r="C23" s="25" t="str">
         <f>Processes!D83</f>
         <v>MINWLK</v>

--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3CDBB4-4123-4AE6-951D-AE9203DF5C76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA7CACF-7F2F-4BDE-8CE6-EA36BC623440}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="22" r:id="rId1"/>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="596">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -2666,6 +2666,27 @@
   </si>
   <si>
     <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Coal prices</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/energyexplained/coal/prices-and-outlook.php</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>USD2019/short ton</t>
+  </si>
+  <si>
+    <t>Bituminous</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>anthracite</t>
   </si>
 </sst>
 </file>
@@ -6119,6 +6140,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6157,9 +6181,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7829,8 +7850,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7917,7 +7938,7 @@
       <c r="F5" s="128">
         <v>10</v>
       </c>
-      <c r="G5" s="503" t="s">
+      <c r="G5" s="504" t="s">
         <v>150</v>
       </c>
       <c r="R5" s="220"/>
@@ -7942,7 +7963,7 @@
       <c r="F6" s="128">
         <v>10</v>
       </c>
-      <c r="G6" s="504"/>
+      <c r="G6" s="505"/>
       <c r="R6" s="220"/>
     </row>
     <row r="7" spans="2:18" ht="15">
@@ -7965,7 +7986,7 @@
       <c r="F7" s="128">
         <v>10</v>
       </c>
-      <c r="G7" s="504"/>
+      <c r="G7" s="505"/>
       <c r="R7" s="220"/>
     </row>
     <row r="8" spans="2:18" ht="15">
@@ -7988,7 +8009,7 @@
       <c r="F8" s="128">
         <v>10</v>
       </c>
-      <c r="G8" s="504"/>
+      <c r="G8" s="505"/>
       <c r="R8" s="220"/>
     </row>
     <row r="9" spans="2:18" ht="15">
@@ -8011,7 +8032,7 @@
       <c r="F9" s="128">
         <v>10</v>
       </c>
-      <c r="G9" s="504"/>
+      <c r="G9" s="505"/>
       <c r="R9" s="220"/>
     </row>
     <row r="10" spans="2:18" ht="15">
@@ -8034,7 +8055,7 @@
       <c r="F10" s="128">
         <v>10</v>
       </c>
-      <c r="G10" s="504"/>
+      <c r="G10" s="505"/>
       <c r="R10" s="220"/>
     </row>
     <row r="11" spans="2:18" ht="15">
@@ -8057,7 +8078,7 @@
       <c r="F11" s="128">
         <v>10</v>
       </c>
-      <c r="G11" s="504"/>
+      <c r="G11" s="505"/>
       <c r="R11" s="220"/>
     </row>
     <row r="12" spans="2:18" ht="15">
@@ -8080,7 +8101,7 @@
       <c r="F12" s="128">
         <v>10</v>
       </c>
-      <c r="G12" s="504"/>
+      <c r="G12" s="505"/>
       <c r="R12" s="220"/>
     </row>
     <row r="13" spans="2:18" ht="15">
@@ -8103,7 +8124,7 @@
       <c r="F13" s="128">
         <v>10</v>
       </c>
-      <c r="G13" s="504"/>
+      <c r="G13" s="505"/>
       <c r="R13" s="220"/>
     </row>
     <row r="14" spans="2:18" ht="15">
@@ -8126,7 +8147,7 @@
       <c r="F14" s="77">
         <v>10</v>
       </c>
-      <c r="G14" s="504"/>
+      <c r="G14" s="505"/>
       <c r="R14" s="220"/>
     </row>
     <row r="15" spans="2:18" ht="15">
@@ -8149,7 +8170,7 @@
       <c r="F15" s="128">
         <v>10</v>
       </c>
-      <c r="G15" s="504"/>
+      <c r="G15" s="505"/>
       <c r="R15" s="220"/>
     </row>
     <row r="16" spans="2:18" ht="15">
@@ -8172,7 +8193,7 @@
       <c r="F16" s="128">
         <v>10</v>
       </c>
-      <c r="G16" s="504"/>
+      <c r="G16" s="505"/>
       <c r="R16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15">
@@ -8195,7 +8216,7 @@
       <c r="F17" s="128">
         <v>10</v>
       </c>
-      <c r="G17" s="504"/>
+      <c r="G17" s="505"/>
       <c r="R17" s="220"/>
     </row>
     <row r="18" spans="2:18" ht="15">
@@ -8218,7 +8239,7 @@
       <c r="F18" s="128">
         <v>10</v>
       </c>
-      <c r="G18" s="504"/>
+      <c r="G18" s="505"/>
       <c r="R18" s="220"/>
     </row>
     <row r="19" spans="2:18" ht="15">
@@ -8241,7 +8262,7 @@
       <c r="F19" s="128">
         <v>10</v>
       </c>
-      <c r="G19" s="504"/>
+      <c r="G19" s="505"/>
       <c r="R19" s="220"/>
     </row>
     <row r="20" spans="2:18" ht="15">
@@ -8264,7 +8285,7 @@
       <c r="F20" s="128">
         <v>10</v>
       </c>
-      <c r="G20" s="504"/>
+      <c r="G20" s="505"/>
       <c r="R20" s="220"/>
     </row>
     <row r="21" spans="2:18">
@@ -8287,7 +8308,7 @@
       <c r="F21" s="128">
         <v>10</v>
       </c>
-      <c r="G21" s="504"/>
+      <c r="G21" s="505"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="33" t="str">
@@ -8309,7 +8330,7 @@
       <c r="F22" s="128">
         <v>10</v>
       </c>
-      <c r="G22" s="504"/>
+      <c r="G22" s="505"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="33" t="str">
@@ -8331,7 +8352,7 @@
       <c r="F23" s="128">
         <v>10</v>
       </c>
-      <c r="G23" s="504"/>
+      <c r="G23" s="505"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="71" t="str">
@@ -8353,7 +8374,7 @@
       <c r="F24" s="77">
         <v>10</v>
       </c>
-      <c r="G24" s="504"/>
+      <c r="G24" s="505"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="33" t="str">
@@ -8375,7 +8396,7 @@
       <c r="F25" s="128">
         <v>10</v>
       </c>
-      <c r="G25" s="504"/>
+      <c r="G25" s="505"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="33" t="str">
@@ -8397,7 +8418,7 @@
       <c r="F26" s="128">
         <v>10</v>
       </c>
-      <c r="G26" s="504"/>
+      <c r="G26" s="505"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="33" t="str">
@@ -8419,7 +8440,7 @@
       <c r="F27" s="128">
         <v>10</v>
       </c>
-      <c r="G27" s="504"/>
+      <c r="G27" s="505"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="33" t="str">
@@ -8441,7 +8462,7 @@
       <c r="F28" s="128">
         <v>10</v>
       </c>
-      <c r="G28" s="504"/>
+      <c r="G28" s="505"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="33" t="str">
@@ -8463,7 +8484,7 @@
       <c r="F29" s="128">
         <v>10</v>
       </c>
-      <c r="G29" s="504"/>
+      <c r="G29" s="505"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="33" t="str">
@@ -8485,7 +8506,7 @@
       <c r="F30" s="128">
         <v>10</v>
       </c>
-      <c r="G30" s="504"/>
+      <c r="G30" s="505"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="33" t="str">
@@ -8507,7 +8528,7 @@
       <c r="F31" s="128">
         <v>10</v>
       </c>
-      <c r="G31" s="504"/>
+      <c r="G31" s="505"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="33" t="str">
@@ -8529,7 +8550,7 @@
       <c r="F32" s="128">
         <v>10</v>
       </c>
-      <c r="G32" s="504"/>
+      <c r="G32" s="505"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="33" t="str">
@@ -8551,7 +8572,7 @@
       <c r="F33" s="128">
         <v>10</v>
       </c>
-      <c r="G33" s="504"/>
+      <c r="G33" s="505"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="71" t="str">
@@ -8573,7 +8594,7 @@
       <c r="F34" s="77">
         <v>10</v>
       </c>
-      <c r="G34" s="505"/>
+      <c r="G34" s="506"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="33"/>
@@ -8691,7 +8712,7 @@
   <dimension ref="B1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9696,20 +9717,20 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="G7" s="502" t="s">
+      <c r="G7" s="503" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="502"/>
-      <c r="I7" s="502"/>
-      <c r="J7" s="502"/>
-      <c r="K7" s="502"/>
+      <c r="H7" s="503"/>
+      <c r="I7" s="503"/>
+      <c r="J7" s="503"/>
+      <c r="K7" s="503"/>
       <c r="L7" s="275" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="502" t="s">
+      <c r="M7" s="503" t="s">
         <v>236</v>
       </c>
-      <c r="N7" s="502"/>
+      <c r="N7" s="503"/>
       <c r="O7" s="52"/>
     </row>
     <row r="9" spans="2:20">
@@ -10458,10 +10479,10 @@
   </sheetPr>
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D3" sqref="D3"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <selection pane="topRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10487,10 +10508,10 @@
       <c r="J1" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="506" t="s">
+      <c r="P1" s="507" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="506"/>
+      <c r="Q1" s="507"/>
     </row>
     <row r="2" spans="1:22">
       <c r="H2" s="88"/>
@@ -13562,7 +13583,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13687,7 +13708,7 @@
       <selection activeCell="A65" sqref="A65:XFD65"/>
       <selection pane="topRight" activeCell="A65" sqref="A65:XFD65"/>
       <selection pane="bottomLeft" activeCell="A65" sqref="A65:XFD65"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="AE43" sqref="AE43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16296,16 +16317,10 @@
       </c>
     </row>
     <row r="39" spans="14:16">
-      <c r="P39" s="443">
-        <f>('EB2018'!P$20-'EB2018'!P$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
-        <v>0.20874581836826736</v>
-      </c>
+      <c r="P39" s="443"/>
     </row>
     <row r="40" spans="14:16">
-      <c r="N40" s="442">
-        <f>(SUM('EB2018'!O20:Z20)-SUM('EB2018'!O25:Z25))/'EB2018'!M14</f>
-        <v>0.9923342574100722</v>
-      </c>
+      <c r="N40" s="442"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -16324,7 +16339,7 @@
   <dimension ref="B2:T97"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19571,8 +19586,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -21282,7 +21297,7 @@
   <dimension ref="B1:W94"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24480,8 +24495,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -24507,15 +24522,15 @@
     <col min="26" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="18.75">
+    <row r="1" spans="2:20" ht="18.75">
       <c r="B1" s="11" t="s">
         <v>567</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:18" s="219" customFormat="1"/>
-    <row r="3" spans="2:18" ht="18.75">
+    <row r="2" spans="2:20" s="219" customFormat="1"/>
+    <row r="3" spans="2:20" ht="18.75">
       <c r="G3" s="479" t="s">
         <v>586</v>
       </c>
@@ -24531,7 +24546,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:20">
       <c r="C4" s="17" t="s">
         <v>536</v>
       </c>
@@ -24569,7 +24584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="26.25" thickBot="1">
+    <row r="5" spans="2:20" ht="26.25" thickBot="1">
       <c r="C5" s="10" t="s">
         <v>538</v>
       </c>
@@ -24603,7 +24618,7 @@
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:20">
       <c r="C6" s="481" t="str">
         <f>Processes!C11</f>
         <v>IE,National</v>
@@ -24651,7 +24666,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:20">
       <c r="C7" s="481" t="str">
         <f>Processes!C19</f>
         <v>IE,National</v>
@@ -24698,8 +24713,14 @@
       <c r="N7" s="218" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="R7" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="T7" s="219" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
       <c r="C8" s="485" t="str">
         <f>Processes!C8</f>
         <v>IE,National</v>
@@ -24747,7 +24768,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:20">
       <c r="C9" s="481" t="str">
         <f>Processes!C7</f>
         <v>IE,National</v>
@@ -24768,34 +24789,40 @@
         <v>COABIT</v>
       </c>
       <c r="H9" s="483">
-        <f>H$8*$N$9</f>
+        <f t="shared" ref="H9:M9" si="0">H$8*$N$9</f>
         <v>1.7676490662378885</v>
       </c>
       <c r="I9" s="483">
-        <f>I$8*$N$9</f>
+        <f t="shared" si="0"/>
         <v>1.2363943607780541</v>
       </c>
       <c r="J9" s="483">
-        <f>J$8*$N$9</f>
+        <f t="shared" si="0"/>
         <v>1.3174694008290742</v>
       </c>
       <c r="K9" s="483">
-        <f>K$8*$N$9</f>
+        <f t="shared" si="0"/>
         <v>1.6215008010203991</v>
       </c>
       <c r="L9" s="483">
-        <f>L$8*$N$9</f>
+        <f t="shared" si="0"/>
         <v>1.7836508811224392</v>
       </c>
       <c r="M9" s="483">
-        <f>M$8*$N$9</f>
+        <f t="shared" si="0"/>
         <v>1.962015969234683</v>
       </c>
       <c r="N9" s="487">
         <v>0.95000000000000495</v>
       </c>
-    </row>
-    <row r="10" spans="2:18">
+      <c r="R9" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="S9" s="37" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
       <c r="C10" s="481" t="str">
         <f>Processes!C9</f>
         <v>IE,National</v>
@@ -24816,34 +24843,40 @@
         <v>COACOK</v>
       </c>
       <c r="H10" s="483">
-        <f>H$8*$N10</f>
+        <f t="shared" ref="H10:M11" si="1">H$8*$N10</f>
         <v>2.3630676990759136</v>
       </c>
       <c r="I10" s="483">
-        <f>I$8*$N10</f>
+        <f t="shared" si="1"/>
         <v>1.6528640401980297</v>
       </c>
       <c r="J10" s="483">
-        <f>J$8*$N10</f>
+        <f t="shared" si="1"/>
         <v>1.7612485674241301</v>
       </c>
       <c r="K10" s="483">
-        <f>K$8*$N10</f>
+        <f t="shared" si="1"/>
         <v>2.1676905445220065</v>
       </c>
       <c r="L10" s="483">
-        <f>L$8*$N10</f>
+        <f t="shared" si="1"/>
         <v>2.3844595989742072</v>
       </c>
       <c r="M10" s="483">
-        <f>M$8*$N10</f>
+        <f t="shared" si="1"/>
         <v>2.6229055588716279</v>
       </c>
       <c r="N10" s="488">
         <v>1.2700000000000062</v>
       </c>
-    </row>
-    <row r="11" spans="2:18">
+      <c r="R10" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="S10" s="37">
+        <v>58.93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
       <c r="C11" s="481" t="str">
         <f>Processes!C10</f>
         <v>IE,National</v>
@@ -24864,34 +24897,40 @@
         <v>COALIG</v>
       </c>
       <c r="H11" s="483">
-        <f>H$8*$N11</f>
+        <f t="shared" si="1"/>
         <v>1.6291696463022047</v>
       </c>
       <c r="I11" s="483">
-        <f>I$8*$N11</f>
+        <f t="shared" si="1"/>
         <v>1.1395339730673333</v>
       </c>
       <c r="J11" s="483">
-        <f>J$8*$N11</f>
+        <f t="shared" si="1"/>
         <v>1.2142575122848633</v>
       </c>
       <c r="K11" s="483">
-        <f>K$8*$N11</f>
+        <f t="shared" si="1"/>
         <v>1.4944707843506013</v>
       </c>
       <c r="L11" s="483">
-        <f>L$8*$N11</f>
+        <f t="shared" si="1"/>
         <v>1.6439178627856614</v>
       </c>
       <c r="M11" s="483">
-        <f>M$8*$N11</f>
+        <f t="shared" si="1"/>
         <v>1.8083096490642274</v>
       </c>
       <c r="N11" s="488">
         <v>0.87557603686636576</v>
       </c>
-    </row>
-    <row r="12" spans="2:18">
+      <c r="R11" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="S11" s="37">
+        <v>19.86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
       <c r="C12" s="481" t="str">
         <f>Processes!C20</f>
         <v>IE,National</v>
@@ -24912,34 +24951,40 @@
         <v>GASLNG</v>
       </c>
       <c r="H12" s="483">
-        <f>H$7*$N12</f>
+        <f t="shared" ref="H12:M12" si="2">H$7*$N12</f>
         <v>6.5078020231419309</v>
       </c>
       <c r="I12" s="483">
-        <f>I$7*$N12</f>
+        <f t="shared" si="2"/>
         <v>6.0522171624172225</v>
       </c>
       <c r="J12" s="483">
-        <f>J$7*$N12</f>
+        <f t="shared" si="2"/>
         <v>6.5942067590516009</v>
       </c>
       <c r="K12" s="483">
-        <f>K$7*$N12</f>
+        <f t="shared" si="2"/>
         <v>10.026807537735994</v>
       </c>
       <c r="L12" s="483">
-        <f>L$7*$N12</f>
+        <f t="shared" si="2"/>
         <v>11.743107927078192</v>
       </c>
       <c r="M12" s="483">
-        <f>M$7*$N12</f>
+        <f t="shared" si="2"/>
         <v>13.753189464145629</v>
       </c>
       <c r="N12" s="488">
         <v>1.0669585115925122</v>
       </c>
-    </row>
-    <row r="13" spans="2:18">
+      <c r="R12" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="S12" s="37">
+        <v>102.22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
       <c r="C13" s="481" t="str">
         <f>Processes!C14</f>
         <v>IE,National</v>
@@ -24960,34 +25005,34 @@
         <v>OILDST</v>
       </c>
       <c r="H13" s="483">
-        <f>H$6*$N13</f>
+        <f t="shared" ref="H13:M18" si="3">H$6*$N13</f>
         <v>15.417783022591095</v>
       </c>
       <c r="I13" s="483">
-        <f>I$6*$N13</f>
+        <f t="shared" si="3"/>
         <v>15.068586863377233</v>
       </c>
       <c r="J13" s="483">
-        <f>J$6*$N13</f>
+        <f t="shared" si="3"/>
         <v>16.982058211107677</v>
       </c>
       <c r="K13" s="483">
-        <f>K$6*$N13</f>
+        <f t="shared" si="3"/>
         <v>18.177977803439202</v>
       </c>
       <c r="L13" s="483">
-        <f>L$6*$N13</f>
+        <f t="shared" si="3"/>
         <v>19.373897395770726</v>
       </c>
       <c r="M13" s="483">
-        <f>M$6*$N13</f>
+        <f t="shared" si="3"/>
         <v>20.330633069635947</v>
       </c>
       <c r="N13" s="488">
         <v>1.5294117647058842</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:20">
       <c r="C14" s="481" t="str">
         <f>Processes!C16</f>
         <v>IE,National</v>
@@ -25008,34 +25053,34 @@
         <v>OILGSL</v>
       </c>
       <c r="H14" s="483">
-        <f>H$6*$N14</f>
+        <f t="shared" si="3"/>
         <v>16.603766332021141</v>
       </c>
       <c r="I14" s="483">
-        <f>I$6*$N14</f>
+        <f t="shared" si="3"/>
         <v>16.227708929790829</v>
       </c>
       <c r="J14" s="483">
-        <f>J$6*$N14</f>
+        <f t="shared" si="3"/>
         <v>18.288370381192841</v>
       </c>
       <c r="K14" s="483">
-        <f>K$6*$N14</f>
+        <f t="shared" si="3"/>
         <v>19.576283788319095</v>
       </c>
       <c r="L14" s="483">
-        <f>L$6*$N14</f>
+        <f t="shared" si="3"/>
         <v>20.864197195445353</v>
       </c>
       <c r="M14" s="483">
-        <f>M$6*$N14</f>
+        <f t="shared" si="3"/>
         <v>21.894527921146356</v>
       </c>
       <c r="N14" s="488">
         <v>1.6470588235294101</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:20">
       <c r="C15" s="481" t="str">
         <f>Processes!C13</f>
         <v>IE,National</v>
@@ -25056,34 +25101,34 @@
         <v>OILHFO</v>
       </c>
       <c r="H15" s="483">
-        <f>H$6*$N15</f>
+        <f t="shared" si="3"/>
         <v>8.165495085426107</v>
       </c>
       <c r="I15" s="483">
-        <f>I$6*$N15</f>
+        <f t="shared" si="3"/>
         <v>7.9805554272578423</v>
       </c>
       <c r="J15" s="483">
-        <f>J$6*$N15</f>
+        <f t="shared" si="3"/>
         <v>8.9939592910366173</v>
       </c>
       <c r="K15" s="483">
-        <f>K$6*$N15</f>
+        <f t="shared" si="3"/>
         <v>9.6273367058983492</v>
       </c>
       <c r="L15" s="483">
-        <f>L$6*$N15</f>
+        <f t="shared" si="3"/>
         <v>10.260714120760083</v>
       </c>
       <c r="M15" s="483">
-        <f>M$6*$N15</f>
+        <f t="shared" si="3"/>
         <v>10.76741605264947</v>
       </c>
       <c r="N15" s="488">
         <v>0.80999999999999872</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:20">
       <c r="C16" s="481" t="str">
         <f>Processes!C12</f>
         <v>IE,National</v>
@@ -25104,27 +25149,27 @@
         <v>OILKER</v>
       </c>
       <c r="H16" s="483">
-        <f>H$6*$N16</f>
+        <f t="shared" si="3"/>
         <v>16.603766332021141</v>
       </c>
       <c r="I16" s="483">
-        <f>I$6*$N16</f>
+        <f t="shared" si="3"/>
         <v>16.227708929790829</v>
       </c>
       <c r="J16" s="483">
-        <f>J$6*$N16</f>
+        <f t="shared" si="3"/>
         <v>18.288370381192841</v>
       </c>
       <c r="K16" s="483">
-        <f>K$6*$N16</f>
+        <f t="shared" si="3"/>
         <v>19.576283788319095</v>
       </c>
       <c r="L16" s="483">
-        <f>L$6*$N16</f>
+        <f t="shared" si="3"/>
         <v>20.864197195445353</v>
       </c>
       <c r="M16" s="483">
-        <f>M$6*$N16</f>
+        <f t="shared" si="3"/>
         <v>21.894527921146356</v>
       </c>
       <c r="N16" s="488">
@@ -25152,27 +25197,27 @@
         <v>OILLPG</v>
       </c>
       <c r="H17" s="484">
-        <f>H$6*$N17</f>
+        <f t="shared" si="3"/>
         <v>13.045816403730882</v>
       </c>
       <c r="I17" s="484">
-        <f>I$6*$N17</f>
+        <f t="shared" si="3"/>
         <v>12.750342730549923</v>
       </c>
       <c r="J17" s="484">
-        <f>J$6*$N17</f>
+        <f t="shared" si="3"/>
         <v>14.369433870937215</v>
       </c>
       <c r="K17" s="484">
-        <f>K$6*$N17</f>
+        <f t="shared" si="3"/>
         <v>15.381365833679272</v>
       </c>
       <c r="L17" s="484">
-        <f>L$6*$N17</f>
+        <f t="shared" si="3"/>
         <v>16.393297796421329</v>
       </c>
       <c r="M17" s="484">
-        <f>M$6*$N17</f>
+        <f t="shared" si="3"/>
         <v>17.202843366614974</v>
       </c>
       <c r="N17" s="488">
@@ -25200,27 +25245,27 @@
         <v>OILCOK</v>
       </c>
       <c r="H18" s="483">
-        <f>H$6*$N18</f>
+        <f t="shared" si="3"/>
         <v>16.603766332021141</v>
       </c>
       <c r="I18" s="483">
-        <f>I$6*$N18</f>
+        <f t="shared" si="3"/>
         <v>16.227708929790829</v>
       </c>
       <c r="J18" s="483">
-        <f>J$6*$N18</f>
+        <f t="shared" si="3"/>
         <v>18.288370381192841</v>
       </c>
       <c r="K18" s="483">
-        <f>K$6*$N18</f>
+        <f t="shared" si="3"/>
         <v>19.576283788319095</v>
       </c>
       <c r="L18" s="483">
-        <f>L$6*$N18</f>
+        <f t="shared" si="3"/>
         <v>20.864197195445353</v>
       </c>
       <c r="M18" s="483">
-        <f>M$6*$N18</f>
+        <f t="shared" si="3"/>
         <v>21.894527921146356</v>
       </c>
       <c r="N18" s="489">
@@ -25240,7 +25285,7 @@
         <f>Processes!E21</f>
         <v>Import of Uranium</v>
       </c>
-      <c r="F19" s="507" t="s">
+      <c r="F19" s="494" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="490" t="str">
@@ -25268,7 +25313,7 @@
         <f>Processes!E18</f>
         <v>Import of Oil for Non-Energy uses</v>
       </c>
-      <c r="F20" s="507" t="s">
+      <c r="F20" s="494" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="493" t="str">
@@ -25276,27 +25321,27 @@
         <v>OILNEU</v>
       </c>
       <c r="H20" s="491">
-        <f t="shared" ref="H20" si="0">H6</f>
+        <f t="shared" ref="H20" si="4">H6</f>
         <v>10.080858130155704</v>
       </c>
       <c r="I20" s="491">
-        <f t="shared" ref="I20:M20" si="1">I6</f>
+        <f t="shared" ref="I20:M20" si="5">I6</f>
         <v>9.8525375645158704</v>
       </c>
       <c r="J20" s="491">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11.103653445724236</v>
       </c>
       <c r="K20" s="491">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11.885600871479463</v>
       </c>
       <c r="L20" s="491">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12.66754829723469</v>
       </c>
       <c r="M20" s="491">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13.293106237838872</v>
       </c>
       <c r="N20" s="493"/>
@@ -25367,20 +25412,20 @@
       <c r="D24" s="468"/>
       <c r="E24" s="468"/>
       <c r="F24" s="469"/>
-      <c r="G24" s="494" t="s">
+      <c r="G24" s="495" t="s">
         <v>550</v>
       </c>
-      <c r="H24" s="494"/>
-      <c r="I24" s="494"/>
-      <c r="J24" s="495"/>
-      <c r="K24" s="496" t="s">
+      <c r="H24" s="495"/>
+      <c r="I24" s="495"/>
+      <c r="J24" s="496"/>
+      <c r="K24" s="497" t="s">
         <v>551</v>
       </c>
-      <c r="L24" s="497"/>
-      <c r="M24" s="498" t="s">
+      <c r="L24" s="498"/>
+      <c r="M24" s="499" t="s">
         <v>552</v>
       </c>
-      <c r="N24" s="497"/>
+      <c r="N24" s="498"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
@@ -25583,39 +25628,39 @@
         <v>2010</v>
       </c>
       <c r="F31" s="480">
-        <f t="shared" ref="F31:N31" si="2">F25</f>
+        <f t="shared" ref="F31:N31" si="6">F25</f>
         <v>2019</v>
       </c>
       <c r="G31" s="480">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2025</v>
       </c>
       <c r="H31" s="480">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2030</v>
       </c>
       <c r="I31" s="480">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2035</v>
       </c>
       <c r="J31" s="480">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2040</v>
       </c>
       <c r="K31" s="480">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2025</v>
       </c>
       <c r="L31" s="480">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2040</v>
       </c>
       <c r="M31" s="480">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2025</v>
       </c>
       <c r="N31" s="480">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2040</v>
       </c>
       <c r="O31" s="58"/>
@@ -25795,39 +25840,39 @@
         <v>2010</v>
       </c>
       <c r="F36" s="480">
-        <f t="shared" ref="F36:N36" si="3">F25</f>
+        <f t="shared" ref="F36:N36" si="7">F25</f>
         <v>2019</v>
       </c>
       <c r="G36" s="480">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2025</v>
       </c>
       <c r="H36" s="480">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2030</v>
       </c>
       <c r="I36" s="480">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2035</v>
       </c>
       <c r="J36" s="480">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2040</v>
       </c>
       <c r="K36" s="480">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2025</v>
       </c>
       <c r="L36" s="480">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2040</v>
       </c>
       <c r="M36" s="480">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2025</v>
       </c>
       <c r="N36" s="480">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2040</v>
       </c>
       <c r="O36" s="59"/>
@@ -26023,20 +26068,20 @@
       <c r="D42" s="468"/>
       <c r="E42" s="468"/>
       <c r="F42" s="469"/>
-      <c r="G42" s="494" t="s">
+      <c r="G42" s="495" t="s">
         <v>550</v>
       </c>
-      <c r="H42" s="494"/>
-      <c r="I42" s="494"/>
-      <c r="J42" s="495"/>
-      <c r="K42" s="496" t="s">
+      <c r="H42" s="495"/>
+      <c r="I42" s="495"/>
+      <c r="J42" s="496"/>
+      <c r="K42" s="497" t="s">
         <v>551</v>
       </c>
-      <c r="L42" s="497"/>
-      <c r="M42" s="498" t="s">
+      <c r="L42" s="498"/>
+      <c r="M42" s="499" t="s">
         <v>584</v>
       </c>
-      <c r="N42" s="497"/>
+      <c r="N42" s="498"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
@@ -26247,39 +26292,39 @@
         <v>2010</v>
       </c>
       <c r="F49" s="480">
-        <f t="shared" ref="F49:N49" si="4">F43</f>
+        <f t="shared" ref="F49:N49" si="8">F43</f>
         <v>2018</v>
       </c>
       <c r="G49" s="480">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2025</v>
       </c>
       <c r="H49" s="480">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2030</v>
       </c>
       <c r="I49" s="480">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2035</v>
       </c>
       <c r="J49" s="480">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2040</v>
       </c>
       <c r="K49" s="480">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2025</v>
       </c>
       <c r="L49" s="480">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2040</v>
       </c>
       <c r="M49" s="480">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2025</v>
       </c>
       <c r="N49" s="480">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2040</v>
       </c>
       <c r="O49"/>
@@ -26469,39 +26514,39 @@
         <v>2010</v>
       </c>
       <c r="F54" s="480">
-        <f t="shared" ref="F54:N54" si="5">F43</f>
+        <f t="shared" ref="F54:N54" si="9">F43</f>
         <v>2018</v>
       </c>
       <c r="G54" s="480">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2025</v>
       </c>
       <c r="H54" s="480">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2030</v>
       </c>
       <c r="I54" s="480">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2035</v>
       </c>
       <c r="J54" s="480">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2040</v>
       </c>
       <c r="K54" s="480">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2025</v>
       </c>
       <c r="L54" s="480">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2040</v>
       </c>
       <c r="M54" s="480">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2025</v>
       </c>
       <c r="N54" s="480">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2040</v>
       </c>
       <c r="O54"/>
@@ -26855,7 +26900,7 @@
   <dimension ref="B2:W58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -27774,7 +27819,7 @@
         <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K26" s="499" t="s">
+      <c r="K26" s="500" t="s">
         <v>122</v>
       </c>
       <c r="N26" s="187" t="s">
@@ -27830,7 +27875,7 @@
         <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K27" s="500"/>
+      <c r="K27" s="501"/>
       <c r="M27" s="183"/>
       <c r="N27" s="216"/>
       <c r="O27" s="212"/>
@@ -27874,7 +27919,7 @@
         <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K28" s="500"/>
+      <c r="K28" s="501"/>
       <c r="M28" s="176"/>
       <c r="N28" s="185"/>
       <c r="O28" s="185"/>
@@ -27919,7 +27964,7 @@
         <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K29" s="500"/>
+      <c r="K29" s="501"/>
       <c r="M29" s="124"/>
     </row>
     <row r="30" spans="2:18">
@@ -27959,7 +28004,7 @@
         <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K30" s="500"/>
+      <c r="K30" s="501"/>
       <c r="M30" s="124"/>
     </row>
     <row r="31" spans="2:18">
@@ -27999,7 +28044,7 @@
         <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K31" s="500"/>
+      <c r="K31" s="501"/>
       <c r="M31" s="124"/>
     </row>
     <row r="32" spans="2:18">
@@ -28039,7 +28084,7 @@
         <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K32" s="500"/>
+      <c r="K32" s="501"/>
       <c r="M32" s="124"/>
     </row>
     <row r="33" spans="2:23">
@@ -28079,7 +28124,7 @@
         <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K33" s="501"/>
+      <c r="K33" s="502"/>
       <c r="M33" s="124"/>
     </row>
     <row r="34" spans="2:23">
@@ -29354,7 +29399,7 @@
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -29610,11 +29655,11 @@
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
-      <c r="F9" s="502" t="s">
+      <c r="F9" s="503" t="s">
         <v>239</v>
       </c>
-      <c r="G9" s="502"/>
-      <c r="H9" s="502"/>
+      <c r="G9" s="503"/>
+      <c r="H9" s="503"/>
       <c r="I9" s="274" t="s">
         <v>238</v>
       </c>
@@ -29977,9 +30022,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30129,26 +30177,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30172,9 +30209,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8149A3BC-04D7-461D-B0CA-68560E127D3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85F3D9E-8AA2-4950-9189-F7996A8BE915}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="22" r:id="rId1"/>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="595">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -2678,6 +2678,12 @@
   </si>
   <si>
     <t>anthracite</t>
+  </si>
+  <si>
+    <t>assumed 60% higher than kerosene</t>
+  </si>
+  <si>
+    <t>Import/Export</t>
   </si>
 </sst>
 </file>
@@ -4821,7 +4827,7 @@
     <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="507">
+  <cellXfs count="508">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6130,6 +6136,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7926,7 +7935,7 @@
       <c r="F5" s="128">
         <v>10</v>
       </c>
-      <c r="G5" s="503" t="s">
+      <c r="G5" s="504" t="s">
         <v>150</v>
       </c>
       <c r="R5" s="220"/>
@@ -7951,7 +7960,7 @@
       <c r="F6" s="128">
         <v>10</v>
       </c>
-      <c r="G6" s="504"/>
+      <c r="G6" s="505"/>
       <c r="R6" s="220"/>
     </row>
     <row r="7" spans="2:18" ht="15">
@@ -7974,7 +7983,7 @@
       <c r="F7" s="128">
         <v>10</v>
       </c>
-      <c r="G7" s="504"/>
+      <c r="G7" s="505"/>
       <c r="R7" s="220"/>
     </row>
     <row r="8" spans="2:18" ht="15">
@@ -7997,7 +8006,7 @@
       <c r="F8" s="128">
         <v>10</v>
       </c>
-      <c r="G8" s="504"/>
+      <c r="G8" s="505"/>
       <c r="R8" s="220"/>
     </row>
     <row r="9" spans="2:18" ht="15">
@@ -8020,7 +8029,7 @@
       <c r="F9" s="128">
         <v>10</v>
       </c>
-      <c r="G9" s="504"/>
+      <c r="G9" s="505"/>
       <c r="R9" s="220"/>
     </row>
     <row r="10" spans="2:18" ht="15">
@@ -8043,7 +8052,7 @@
       <c r="F10" s="128">
         <v>10</v>
       </c>
-      <c r="G10" s="504"/>
+      <c r="G10" s="505"/>
       <c r="R10" s="220"/>
     </row>
     <row r="11" spans="2:18" ht="15">
@@ -8066,7 +8075,7 @@
       <c r="F11" s="128">
         <v>10</v>
       </c>
-      <c r="G11" s="504"/>
+      <c r="G11" s="505"/>
       <c r="R11" s="220"/>
     </row>
     <row r="12" spans="2:18" ht="15">
@@ -8089,7 +8098,7 @@
       <c r="F12" s="128">
         <v>10</v>
       </c>
-      <c r="G12" s="504"/>
+      <c r="G12" s="505"/>
       <c r="R12" s="220"/>
     </row>
     <row r="13" spans="2:18" ht="15">
@@ -8112,7 +8121,7 @@
       <c r="F13" s="128">
         <v>10</v>
       </c>
-      <c r="G13" s="504"/>
+      <c r="G13" s="505"/>
       <c r="R13" s="220"/>
     </row>
     <row r="14" spans="2:18" ht="15">
@@ -8135,7 +8144,7 @@
       <c r="F14" s="77">
         <v>10</v>
       </c>
-      <c r="G14" s="504"/>
+      <c r="G14" s="505"/>
       <c r="R14" s="220"/>
     </row>
     <row r="15" spans="2:18" ht="15">
@@ -8158,7 +8167,7 @@
       <c r="F15" s="128">
         <v>10</v>
       </c>
-      <c r="G15" s="504"/>
+      <c r="G15" s="505"/>
       <c r="R15" s="220"/>
     </row>
     <row r="16" spans="2:18" ht="15">
@@ -8181,7 +8190,7 @@
       <c r="F16" s="128">
         <v>10</v>
       </c>
-      <c r="G16" s="504"/>
+      <c r="G16" s="505"/>
       <c r="R16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15">
@@ -8204,7 +8213,7 @@
       <c r="F17" s="128">
         <v>10</v>
       </c>
-      <c r="G17" s="504"/>
+      <c r="G17" s="505"/>
       <c r="R17" s="220"/>
     </row>
     <row r="18" spans="2:18" ht="15">
@@ -8227,7 +8236,7 @@
       <c r="F18" s="128">
         <v>10</v>
       </c>
-      <c r="G18" s="504"/>
+      <c r="G18" s="505"/>
       <c r="R18" s="220"/>
     </row>
     <row r="19" spans="2:18" ht="15">
@@ -8250,7 +8259,7 @@
       <c r="F19" s="128">
         <v>10</v>
       </c>
-      <c r="G19" s="504"/>
+      <c r="G19" s="505"/>
       <c r="R19" s="220"/>
     </row>
     <row r="20" spans="2:18" ht="15">
@@ -8273,7 +8282,7 @@
       <c r="F20" s="128">
         <v>10</v>
       </c>
-      <c r="G20" s="504"/>
+      <c r="G20" s="505"/>
       <c r="R20" s="220"/>
     </row>
     <row r="21" spans="2:18">
@@ -8296,7 +8305,7 @@
       <c r="F21" s="128">
         <v>10</v>
       </c>
-      <c r="G21" s="504"/>
+      <c r="G21" s="505"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="33" t="str">
@@ -8318,7 +8327,7 @@
       <c r="F22" s="128">
         <v>10</v>
       </c>
-      <c r="G22" s="504"/>
+      <c r="G22" s="505"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="33" t="str">
@@ -8340,7 +8349,7 @@
       <c r="F23" s="128">
         <v>10</v>
       </c>
-      <c r="G23" s="504"/>
+      <c r="G23" s="505"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="71" t="str">
@@ -8362,7 +8371,7 @@
       <c r="F24" s="77">
         <v>10</v>
       </c>
-      <c r="G24" s="504"/>
+      <c r="G24" s="505"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="33" t="str">
@@ -8384,7 +8393,7 @@
       <c r="F25" s="128">
         <v>10</v>
       </c>
-      <c r="G25" s="504"/>
+      <c r="G25" s="505"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="33" t="str">
@@ -8406,7 +8415,7 @@
       <c r="F26" s="128">
         <v>10</v>
       </c>
-      <c r="G26" s="504"/>
+      <c r="G26" s="505"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="33" t="str">
@@ -8428,7 +8437,7 @@
       <c r="F27" s="128">
         <v>10</v>
       </c>
-      <c r="G27" s="504"/>
+      <c r="G27" s="505"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="33" t="str">
@@ -8450,7 +8459,7 @@
       <c r="F28" s="128">
         <v>10</v>
       </c>
-      <c r="G28" s="504"/>
+      <c r="G28" s="505"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="33" t="str">
@@ -8472,7 +8481,7 @@
       <c r="F29" s="128">
         <v>10</v>
       </c>
-      <c r="G29" s="504"/>
+      <c r="G29" s="505"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="33" t="str">
@@ -8494,7 +8503,7 @@
       <c r="F30" s="128">
         <v>10</v>
       </c>
-      <c r="G30" s="504"/>
+      <c r="G30" s="505"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="33" t="str">
@@ -8516,7 +8525,7 @@
       <c r="F31" s="128">
         <v>10</v>
       </c>
-      <c r="G31" s="504"/>
+      <c r="G31" s="505"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="33" t="str">
@@ -8538,7 +8547,7 @@
       <c r="F32" s="128">
         <v>10</v>
       </c>
-      <c r="G32" s="504"/>
+      <c r="G32" s="505"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="33" t="str">
@@ -8560,7 +8569,7 @@
       <c r="F33" s="128">
         <v>10</v>
       </c>
-      <c r="G33" s="504"/>
+      <c r="G33" s="505"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="71" t="str">
@@ -8582,7 +8591,7 @@
       <c r="F34" s="77">
         <v>10</v>
       </c>
-      <c r="G34" s="505"/>
+      <c r="G34" s="506"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="33"/>
@@ -9668,20 +9677,20 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="G7" s="502" t="s">
+      <c r="G7" s="503" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="502"/>
-      <c r="I7" s="502"/>
-      <c r="J7" s="502"/>
-      <c r="K7" s="502"/>
+      <c r="H7" s="503"/>
+      <c r="I7" s="503"/>
+      <c r="J7" s="503"/>
+      <c r="K7" s="503"/>
       <c r="L7" s="274" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="502" t="s">
+      <c r="M7" s="503" t="s">
         <v>236</v>
       </c>
-      <c r="N7" s="502"/>
+      <c r="N7" s="503"/>
       <c r="O7" s="52"/>
     </row>
     <row r="9" spans="2:20">
@@ -10459,10 +10468,10 @@
       <c r="J1" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="506" t="s">
+      <c r="P1" s="507" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="506"/>
+      <c r="Q1" s="507"/>
     </row>
     <row r="2" spans="1:22">
       <c r="H2" s="88"/>
@@ -21218,7 +21227,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:W93"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
@@ -25307,20 +25316,20 @@
       <c r="D24" s="467"/>
       <c r="E24" s="467"/>
       <c r="F24" s="468"/>
-      <c r="G24" s="494" t="s">
+      <c r="G24" s="495" t="s">
         <v>547</v>
       </c>
-      <c r="H24" s="494"/>
-      <c r="I24" s="494"/>
-      <c r="J24" s="495"/>
-      <c r="K24" s="496" t="s">
+      <c r="H24" s="495"/>
+      <c r="I24" s="495"/>
+      <c r="J24" s="496"/>
+      <c r="K24" s="497" t="s">
         <v>548</v>
       </c>
-      <c r="L24" s="497"/>
-      <c r="M24" s="498" t="s">
+      <c r="L24" s="498"/>
+      <c r="M24" s="499" t="s">
         <v>549</v>
       </c>
-      <c r="N24" s="497"/>
+      <c r="N24" s="498"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
@@ -25963,20 +25972,20 @@
       <c r="D42" s="467"/>
       <c r="E42" s="467"/>
       <c r="F42" s="468"/>
-      <c r="G42" s="494" t="s">
+      <c r="G42" s="495" t="s">
         <v>547</v>
       </c>
-      <c r="H42" s="494"/>
-      <c r="I42" s="494"/>
-      <c r="J42" s="495"/>
-      <c r="K42" s="496" t="s">
+      <c r="H42" s="495"/>
+      <c r="I42" s="495"/>
+      <c r="J42" s="496"/>
+      <c r="K42" s="497" t="s">
         <v>548</v>
       </c>
-      <c r="L42" s="497"/>
-      <c r="M42" s="498" t="s">
+      <c r="L42" s="498"/>
+      <c r="M42" s="499" t="s">
         <v>581</v>
       </c>
-      <c r="N42" s="497"/>
+      <c r="N42" s="498"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
@@ -26792,10 +26801,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B2:W58"/>
+  <dimension ref="B2:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -26840,7 +26849,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>3</v>
+        <v>565</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>40</v>
@@ -27529,765 +27538,656 @@
       <c r="L20" s="65"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="288" t="str">
-        <f>Processes!C31</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C21" s="288" t="str">
-        <f>Processes!D31</f>
-        <v>IMPBIOJKR_S1</v>
-      </c>
-      <c r="D21" s="288" t="str">
-        <f>Processes!E31</f>
-        <v>Import of Bio Jet Kerosene - Step 1</v>
-      </c>
-      <c r="E21" s="288" t="str">
-        <f>Commodities!C36</f>
-        <v>BIOJKR</v>
-      </c>
-      <c r="F21" s="289">
-        <f>Imports_Fossil!H18*1.6</f>
-        <v>26.566026131233826</v>
-      </c>
-      <c r="G21" s="289">
-        <f>Imports_Fossil!I16*1.6</f>
-        <v>25.964334287665327</v>
-      </c>
-      <c r="H21" s="289">
-        <f>Imports_Fossil!J16*1.6</f>
-        <v>29.261392609908548</v>
-      </c>
-      <c r="I21" s="289">
-        <f>Imports_Fossil!K16*1.6</f>
-        <v>31.322054061310553</v>
-      </c>
-      <c r="J21" s="289">
-        <f>Imports_Fossil!L16*1.6</f>
-        <v>33.382715512712565</v>
-      </c>
-      <c r="K21" s="289">
-        <f>Imports_Fossil!M16*1.6</f>
-        <v>35.031244673834173</v>
-      </c>
-      <c r="L21" s="289"/>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="35"/>
+    </row>
+    <row r="22" spans="2:18" ht="18.75">
+      <c r="B22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="F22" s="13" t="str">
+        <f>Imports_Fossil!G3</f>
+        <v>~FI_T: IRE_PRICE</v>
+      </c>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
       <c r="I22" s="124"/>
       <c r="J22" s="124"/>
       <c r="K22" s="124"/>
       <c r="L22" s="124"/>
       <c r="M22" s="124"/>
     </row>
-    <row r="23" spans="2:18" ht="26.25">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="2:18" ht="30.75" customHeight="1">
+      <c r="B23" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="38" t="str">
+        <f>Imports_Fossil!H4</f>
+        <v>2018~EUR18</v>
+      </c>
+      <c r="H23" s="38" t="str">
+        <f>Imports_Fossil!I4</f>
+        <v>2019~EUR19</v>
+      </c>
+      <c r="I23" s="38" t="str">
+        <f>Imports_Fossil!J4</f>
+        <v>2025~EUR19</v>
+      </c>
+      <c r="J23" s="38" t="str">
+        <f>Imports_Fossil!K4</f>
+        <v>2030~EUR19</v>
+      </c>
+      <c r="K23" s="38" t="str">
+        <f>Imports_Fossil!L4</f>
+        <v>2035~EUR19</v>
+      </c>
+      <c r="L23" s="38" t="str">
+        <f>Imports_Fossil!M4</f>
+        <v>2040~EUR19</v>
+      </c>
+      <c r="M23" s="126" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="26.25" thickBot="1">
+      <c r="B24" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="127"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="288" t="str">
+        <f>Processes!C31</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C25" s="288" t="str">
+        <f>Processes!D31</f>
+        <v>IMPBIOJKR_S1</v>
+      </c>
+      <c r="D25" s="288" t="str">
+        <f>Processes!E31</f>
+        <v>Import of Bio Jet Kerosene - Step 1</v>
+      </c>
+      <c r="E25" s="288" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="288" t="str">
+        <f>Commodities!C36</f>
+        <v>BIOJKR</v>
+      </c>
+      <c r="G25" s="289">
+        <f>Imports_Fossil!H18*1.6</f>
+        <v>26.566026131233826</v>
+      </c>
+      <c r="H25" s="289">
+        <f>Imports_Fossil!I16*1.6</f>
+        <v>25.964334287665327</v>
+      </c>
+      <c r="I25" s="289">
+        <f>Imports_Fossil!J16*1.6</f>
+        <v>29.261392609908548</v>
+      </c>
+      <c r="J25" s="289">
+        <f>Imports_Fossil!K16*1.6</f>
+        <v>31.322054061310553</v>
+      </c>
+      <c r="K25" s="289">
+        <f>Imports_Fossil!L16*1.6</f>
+        <v>33.382715512712565</v>
+      </c>
+      <c r="L25" s="289">
+        <f>Imports_Fossil!M16*1.6</f>
+        <v>35.031244673834173</v>
+      </c>
+      <c r="M25" s="494" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
+    </row>
+    <row r="27" spans="2:18" ht="26.25">
+      <c r="B27" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="13" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="N23" s="179" t="s">
+      <c r="F27" s="68"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="N27" s="179" t="s">
         <v>161</v>
       </c>
-      <c r="O23" s="177"/>
-      <c r="P23" s="177"/>
-      <c r="Q23" s="177"/>
-      <c r="R23" s="177"/>
-    </row>
-    <row r="24" spans="2:18">
-      <c r="B24" s="17" t="s">
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="177"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="17" t="s">
+      <c r="D28" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F28" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G28" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H28" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I28" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J28" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="126" t="s">
+      <c r="K28" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="219" t="s">
+      <c r="N28" s="219" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B25" s="10" t="s">
+    <row r="29" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B29" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F29" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I29" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J29" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="127"/>
-      <c r="N25" s="178"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="217" t="s">
+      <c r="K29" s="127"/>
+      <c r="N29" s="178"/>
+      <c r="O29" s="178"/>
+      <c r="P29" s="217" t="s">
         <v>163</v>
       </c>
-      <c r="Q25" s="217"/>
-      <c r="R25" s="217" t="s">
+      <c r="Q29" s="217"/>
+      <c r="R29" s="217" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B26" s="69" t="str">
-        <f t="shared" ref="B26" si="0">B13</f>
+    <row r="30" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B30" s="69" t="str">
+        <f t="shared" ref="B30" si="0">B13</f>
         <v>IE,National</v>
       </c>
-      <c r="C26" s="69" t="str">
-        <f t="shared" ref="C26:D26" si="1">C13</f>
+      <c r="C30" s="69" t="str">
+        <f t="shared" ref="C30:D30" si="1">C13</f>
         <v>IMPBIOWPE_S1</v>
       </c>
-      <c r="D26" s="69" t="str">
+      <c r="D30" s="69" t="str">
         <f t="shared" si="1"/>
         <v>Import of Wood Pellets  - Step 1</v>
       </c>
-      <c r="E26" s="34" t="str">
+      <c r="E30" s="34" t="str">
         <f>Commodities!$C$41</f>
         <v>BIOWPE</v>
       </c>
-      <c r="F26" s="129">
-        <f t="shared" ref="F26:F33" si="2">SUM($P$26:$R$26)</f>
+      <c r="F30" s="129">
+        <f t="shared" ref="F30:F37" si="2">SUM($P$30:$R$30)</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="G26" s="129">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+      <c r="G30" s="129">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
         <v>4.3203296703296701</v>
       </c>
-      <c r="H26" s="129">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+      <c r="H30" s="129">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
         <v>4.4527472527472529</v>
       </c>
-      <c r="I26" s="129">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+      <c r="I30" s="129">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
         <v>4.5851648351648358</v>
       </c>
-      <c r="J26" s="129">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+      <c r="J30" s="129">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K26" s="499" t="s">
+      <c r="K30" s="500" t="s">
         <v>122</v>
       </c>
-      <c r="N26" s="187" t="s">
+      <c r="N30" s="187" t="s">
         <v>165</v>
       </c>
-      <c r="O26" s="215" t="s">
+      <c r="O30" s="215" t="s">
         <v>166</v>
       </c>
-      <c r="P26" s="207">
+      <c r="P30" s="207">
         <v>0.53</v>
       </c>
-      <c r="Q26" s="207">
+      <c r="Q30" s="207">
         <v>1.91</v>
       </c>
-      <c r="R26" s="207">
+      <c r="R30" s="207">
         <v>2.41</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
-      <c r="B27" s="33" t="str">
-        <f t="shared" ref="B27" si="3">B14</f>
+    <row r="31" spans="2:18">
+      <c r="B31" s="33" t="str">
+        <f t="shared" ref="B31" si="3">B14</f>
         <v>IE,National</v>
       </c>
-      <c r="C27" s="33" t="str">
-        <f t="shared" ref="C27:D27" si="4">C14</f>
+      <c r="C31" s="33" t="str">
+        <f t="shared" ref="C31:D31" si="4">C14</f>
         <v>IMPBIOWPE_S2</v>
       </c>
-      <c r="D27" s="33" t="str">
+      <c r="D31" s="33" t="str">
         <f t="shared" si="4"/>
         <v>Import of Wood Pellets  - Step 2</v>
       </c>
-      <c r="E27" s="34" t="str">
+      <c r="E31" s="34" t="str">
         <f>Commodities!$C$41</f>
         <v>BIOWPE</v>
-      </c>
-      <c r="F27" s="181">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G27" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H27" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I27" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J27" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K27" s="500"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="216"/>
-      <c r="O27" s="212"/>
-      <c r="P27" s="212"/>
-      <c r="Q27" s="212"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28" s="33" t="str">
-        <f t="shared" ref="B28" si="5">B15</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C28" s="33" t="str">
-        <f t="shared" ref="C28:D28" si="6">C15</f>
-        <v>IMPBIOWPE_S3</v>
-      </c>
-      <c r="D28" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v>Import of Wood Pellets  - Step 3</v>
-      </c>
-      <c r="E28" s="34" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F28" s="181">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G28" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H28" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I28" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J28" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K28" s="500"/>
-      <c r="M28" s="176"/>
-      <c r="N28" s="185"/>
-      <c r="O28" s="185"/>
-      <c r="P28" s="185"/>
-      <c r="Q28" s="185"/>
-      <c r="R28" s="185"/>
-    </row>
-    <row r="29" spans="2:18">
-      <c r="B29" s="71" t="str">
-        <f t="shared" ref="B29" si="7">B16</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C29" s="71" t="str">
-        <f t="shared" ref="C29:D29" si="8">C16</f>
-        <v>IMPBIOWPE_S4</v>
-      </c>
-      <c r="D29" s="71" t="str">
-        <f t="shared" si="8"/>
-        <v>Import of Wood Pellets  - Step 4</v>
-      </c>
-      <c r="E29" s="65" t="str">
-        <f>Commodities!$C$41</f>
-        <v>BIOWPE</v>
-      </c>
-      <c r="F29" s="182">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G29" s="182">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H29" s="182">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I29" s="182">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J29" s="182">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K29" s="500"/>
-      <c r="M29" s="124"/>
-    </row>
-    <row r="30" spans="2:18">
-      <c r="B30" s="130" t="str">
-        <f t="shared" ref="B30" si="9">B17</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C30" s="130" t="str">
-        <f t="shared" ref="C30:D30" si="10">C17</f>
-        <v>IMPBIOWCH_S1</v>
-      </c>
-      <c r="D30" s="130" t="str">
-        <f t="shared" si="10"/>
-        <v>Import of Wood Chip  - Step 1</v>
-      </c>
-      <c r="E30" s="34" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
-      </c>
-      <c r="F30" s="131">
-        <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G30" s="131">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
-        <v>4.3203296703296701</v>
-      </c>
-      <c r="H30" s="131">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
-        <v>4.4527472527472529</v>
-      </c>
-      <c r="I30" s="131">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
-        <v>4.5851648351648358</v>
-      </c>
-      <c r="J30" s="131">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
-        <v>4.6910989010989006</v>
-      </c>
-      <c r="K30" s="500"/>
-      <c r="M30" s="124"/>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="B31" s="33" t="str">
-        <f t="shared" ref="B31" si="11">B18</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C31" s="33" t="str">
-        <f t="shared" ref="C31:D31" si="12">C18</f>
-        <v>IMPBIOWCH_S2</v>
-      </c>
-      <c r="D31" s="33" t="str">
-        <f t="shared" si="12"/>
-        <v>Import of Wood Chip  - Step 2</v>
-      </c>
-      <c r="E31" s="34" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
       </c>
       <c r="F31" s="181">
         <f t="shared" si="2"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="G31" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
         <v>4.3203296703296701</v>
       </c>
       <c r="H31" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
         <v>4.4527472527472529</v>
       </c>
       <c r="I31" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
         <v>4.5851648351648358</v>
       </c>
       <c r="J31" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K31" s="500"/>
-      <c r="M31" s="124"/>
+      <c r="K31" s="501"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="216"/>
+      <c r="O31" s="212"/>
+      <c r="P31" s="212"/>
+      <c r="Q31" s="212"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="33" t="str">
-        <f t="shared" ref="B32" si="13">B19</f>
+        <f t="shared" ref="B32" si="5">B15</f>
         <v>IE,National</v>
       </c>
       <c r="C32" s="33" t="str">
-        <f t="shared" ref="C32:D32" si="14">C19</f>
-        <v>IMPBIOWCH_S3</v>
+        <f t="shared" ref="C32:D32" si="6">C15</f>
+        <v>IMPBIOWPE_S3</v>
       </c>
       <c r="D32" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>Import of Wood Chip  - Step 3</v>
+        <f t="shared" si="6"/>
+        <v>Import of Wood Pellets  - Step 3</v>
       </c>
       <c r="E32" s="34" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
       </c>
       <c r="F32" s="181">
         <f t="shared" si="2"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="G32" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
         <v>4.3203296703296701</v>
       </c>
       <c r="H32" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
         <v>4.4527472527472529</v>
       </c>
       <c r="I32" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
         <v>4.5851648351648358</v>
       </c>
       <c r="J32" s="181">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K32" s="500"/>
-      <c r="M32" s="124"/>
+      <c r="K32" s="501"/>
+      <c r="M32" s="176"/>
+      <c r="N32" s="185"/>
+      <c r="O32" s="185"/>
+      <c r="P32" s="185"/>
+      <c r="Q32" s="185"/>
+      <c r="R32" s="185"/>
     </row>
     <row r="33" spans="2:23">
       <c r="B33" s="71" t="str">
-        <f t="shared" ref="B33" si="15">B20</f>
+        <f t="shared" ref="B33" si="7">B16</f>
         <v>IE,National</v>
       </c>
       <c r="C33" s="71" t="str">
-        <f t="shared" ref="C33:D33" si="16">C20</f>
-        <v>IMPBIOWCH_S4</v>
+        <f t="shared" ref="C33:D33" si="8">C16</f>
+        <v>IMPBIOWPE_S4</v>
       </c>
       <c r="D33" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v>Import of Wood Chip  - Step 4</v>
+        <f t="shared" si="8"/>
+        <v>Import of Wood Pellets  - Step 4</v>
       </c>
       <c r="E33" s="65" t="str">
-        <f>Commodities!$C$42</f>
-        <v>BIOWCH</v>
+        <f>Commodities!$C$41</f>
+        <v>BIOWPE</v>
       </c>
       <c r="F33" s="182">
         <f t="shared" si="2"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="G33" s="182">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
         <v>4.3203296703296701</v>
       </c>
       <c r="H33" s="182">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
         <v>4.4527472527472529</v>
       </c>
       <c r="I33" s="182">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
         <v>4.5851648351648358</v>
       </c>
       <c r="J33" s="182">
-        <f>SUM($P$26:$Q$26)+$R$26*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
       <c r="K33" s="501"/>
       <c r="M33" s="124"/>
     </row>
     <row r="34" spans="2:23">
-      <c r="B34" s="124"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
+      <c r="B34" s="130" t="str">
+        <f t="shared" ref="B34" si="9">B17</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C34" s="130" t="str">
+        <f t="shared" ref="C34:D34" si="10">C17</f>
+        <v>IMPBIOWCH_S1</v>
+      </c>
+      <c r="D34" s="130" t="str">
+        <f t="shared" si="10"/>
+        <v>Import of Wood Chip  - Step 1</v>
+      </c>
+      <c r="E34" s="34" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F34" s="131">
+        <f t="shared" si="2"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G34" s="131">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H34" s="131">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I34" s="131">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J34" s="131">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K34" s="501"/>
       <c r="M34" s="124"/>
     </row>
     <row r="35" spans="2:23">
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="186"/>
-    </row>
-    <row r="36" spans="2:23" ht="18.75">
-      <c r="B36" s="11" t="s">
+      <c r="B35" s="33" t="str">
+        <f t="shared" ref="B35" si="11">B18</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C35" s="33" t="str">
+        <f t="shared" ref="C35:D35" si="12">C18</f>
+        <v>IMPBIOWCH_S2</v>
+      </c>
+      <c r="D35" s="33" t="str">
+        <f t="shared" si="12"/>
+        <v>Import of Wood Chip  - Step 2</v>
+      </c>
+      <c r="E35" s="34" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F35" s="181">
+        <f t="shared" si="2"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G35" s="181">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H35" s="181">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I35" s="181">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J35" s="181">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K35" s="501"/>
+      <c r="M35" s="124"/>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="B36" s="33" t="str">
+        <f t="shared" ref="B36" si="13">B19</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C36" s="33" t="str">
+        <f t="shared" ref="C36:D36" si="14">C19</f>
+        <v>IMPBIOWCH_S3</v>
+      </c>
+      <c r="D36" s="33" t="str">
+        <f t="shared" si="14"/>
+        <v>Import of Wood Chip  - Step 3</v>
+      </c>
+      <c r="E36" s="34" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F36" s="181">
+        <f t="shared" si="2"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G36" s="181">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H36" s="181">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I36" s="181">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J36" s="181">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K36" s="501"/>
+      <c r="M36" s="124"/>
+    </row>
+    <row r="37" spans="2:23">
+      <c r="B37" s="71" t="str">
+        <f t="shared" ref="B37" si="15">B20</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C37" s="71" t="str">
+        <f t="shared" ref="C37:D37" si="16">C20</f>
+        <v>IMPBIOWCH_S4</v>
+      </c>
+      <c r="D37" s="71" t="str">
+        <f t="shared" si="16"/>
+        <v>Import of Wood Chip  - Step 4</v>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f>Commodities!$C$42</f>
+        <v>BIOWCH</v>
+      </c>
+      <c r="F37" s="182">
+        <f t="shared" si="2"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G37" s="182">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!G$37/Imports_Fossil!$E$37)</f>
+        <v>4.3203296703296701</v>
+      </c>
+      <c r="H37" s="182">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!H$37/Imports_Fossil!$E$37)</f>
+        <v>4.4527472527472529</v>
+      </c>
+      <c r="I37" s="182">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!I$37/Imports_Fossil!$E$37)</f>
+        <v>4.5851648351648358</v>
+      </c>
+      <c r="J37" s="182">
+        <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
+        <v>4.6910989010989006</v>
+      </c>
+      <c r="K37" s="502"/>
+      <c r="M37" s="124"/>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="B38" s="124"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="124"/>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="186"/>
+    </row>
+    <row r="40" spans="2:23" ht="18.75">
+      <c r="B40" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="13" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="186"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-    </row>
-    <row r="37" spans="2:23">
-      <c r="B37" s="17" t="s">
-        <v>533</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="38">
-        <v>2018</v>
-      </c>
-      <c r="G37" s="38">
-        <v>2020</v>
-      </c>
-      <c r="H37" s="38">
-        <v>2025</v>
-      </c>
-      <c r="I37" s="38">
-        <v>2030</v>
-      </c>
-      <c r="J37" s="38">
-        <v>2035</v>
-      </c>
-      <c r="K37" s="38">
-        <v>2040</v>
-      </c>
-      <c r="L37" s="38">
-        <v>2045</v>
-      </c>
-      <c r="M37" s="38">
-        <v>2050</v>
-      </c>
-      <c r="N37" s="276">
-        <v>0</v>
-      </c>
-      <c r="O37" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="P37" s="38"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-    </row>
-    <row r="38" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B38" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-    </row>
-    <row r="39" spans="2:23">
-      <c r="B39" s="69" t="str">
-        <f>Imports_Bio!B5</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C39" s="69" t="str">
-        <f>Imports_Bio!C5</f>
-        <v>IMPBIOETH1G_S1</v>
-      </c>
-      <c r="D39" s="69" t="str">
-        <f>Imports_Bio!D5</f>
-        <v>Import of Ethanol 1st generation  - Step 1</v>
-      </c>
-      <c r="E39" s="70" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F39" s="209">
-        <f>'EB2018'!AJ3*Conversions!$C$2</f>
-        <v>0.95668374631852515</v>
-      </c>
-      <c r="G39" s="78">
-        <f>F39</f>
-        <v>0.95668374631852515</v>
-      </c>
-      <c r="H39" s="78">
-        <f t="shared" ref="H39:M39" si="17">G39</f>
-        <v>0.95668374631852515</v>
-      </c>
-      <c r="I39" s="78">
-        <f t="shared" si="17"/>
-        <v>0.95668374631852515</v>
-      </c>
-      <c r="J39" s="78">
-        <f t="shared" si="17"/>
-        <v>0.95668374631852515</v>
-      </c>
-      <c r="K39" s="78">
-        <f t="shared" si="17"/>
-        <v>0.95668374631852515</v>
-      </c>
-      <c r="L39" s="78">
-        <f t="shared" si="17"/>
-        <v>0.95668374631852515</v>
-      </c>
-      <c r="M39" s="78">
-        <f t="shared" si="17"/>
-        <v>0.95668374631852515</v>
-      </c>
-      <c r="N39" s="277">
-        <v>5</v>
-      </c>
-      <c r="O39" s="89" t="s">
-        <v>471</v>
-      </c>
-      <c r="P39" s="78"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-    </row>
-    <row r="40" spans="2:23">
-      <c r="B40" s="33" t="str">
-        <f>Imports_Bio!B6</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C40" s="33" t="str">
-        <f>Imports_Bio!C6</f>
-        <v>IMPBIOETH1G_S2</v>
-      </c>
-      <c r="D40" s="33" t="str">
-        <f>Imports_Bio!D6</f>
-        <v>Import of Ethanol 1st generation  - Step 2</v>
-      </c>
-      <c r="E40" s="35" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F40" s="211">
-        <v>0</v>
-      </c>
-      <c r="G40" s="76">
-        <f>G39*2</f>
-        <v>1.9133674926370503</v>
-      </c>
-      <c r="H40" s="76">
-        <f t="shared" ref="H40:M41" si="18">H39*2</f>
-        <v>1.9133674926370503</v>
-      </c>
-      <c r="I40" s="76">
-        <f t="shared" si="18"/>
-        <v>1.9133674926370503</v>
-      </c>
-      <c r="J40" s="76">
-        <f t="shared" si="18"/>
-        <v>1.9133674926370503</v>
-      </c>
-      <c r="K40" s="76">
-        <f t="shared" si="18"/>
-        <v>1.9133674926370503</v>
-      </c>
-      <c r="L40" s="76">
-        <f t="shared" si="18"/>
-        <v>1.9133674926370503</v>
-      </c>
-      <c r="M40" s="76">
-        <f t="shared" si="18"/>
-        <v>1.9133674926370503</v>
-      </c>
-      <c r="N40" s="278">
-        <v>5</v>
-      </c>
-      <c r="O40" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="P40" s="76"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="186"/>
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
@@ -28296,60 +28196,49 @@
       <c r="W40"/>
     </row>
     <row r="41" spans="2:23">
-      <c r="B41" s="33" t="str">
-        <f>Imports_Bio!B7</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C41" s="33" t="str">
-        <f>Imports_Bio!C7</f>
-        <v>IMPBIOETH1G_S3</v>
-      </c>
-      <c r="D41" s="33" t="str">
-        <f>Imports_Bio!D7</f>
-        <v>Import of Ethanol 1st generation  - Step 3</v>
-      </c>
-      <c r="E41" s="35" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F41" s="211">
+      <c r="B41" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="38">
+        <v>2018</v>
+      </c>
+      <c r="G41" s="38">
+        <v>2020</v>
+      </c>
+      <c r="H41" s="38">
+        <v>2025</v>
+      </c>
+      <c r="I41" s="38">
+        <v>2030</v>
+      </c>
+      <c r="J41" s="38">
+        <v>2035</v>
+      </c>
+      <c r="K41" s="38">
+        <v>2040</v>
+      </c>
+      <c r="L41" s="38">
+        <v>2045</v>
+      </c>
+      <c r="M41" s="38">
+        <v>2050</v>
+      </c>
+      <c r="N41" s="276">
         <v>0</v>
       </c>
-      <c r="G41" s="76">
-        <f>G40*2</f>
-        <v>3.8267349852741006</v>
-      </c>
-      <c r="H41" s="76">
-        <f t="shared" si="18"/>
-        <v>3.8267349852741006</v>
-      </c>
-      <c r="I41" s="76">
-        <f t="shared" si="18"/>
-        <v>3.8267349852741006</v>
-      </c>
-      <c r="J41" s="76">
-        <f t="shared" si="18"/>
-        <v>3.8267349852741006</v>
-      </c>
-      <c r="K41" s="76">
-        <f t="shared" si="18"/>
-        <v>3.8267349852741006</v>
-      </c>
-      <c r="L41" s="76">
-        <f t="shared" si="18"/>
-        <v>3.8267349852741006</v>
-      </c>
-      <c r="M41" s="76">
-        <f t="shared" si="18"/>
-        <v>3.8267349852741006</v>
-      </c>
-      <c r="N41" s="278">
-        <v>5</v>
-      </c>
-      <c r="O41" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="P41" s="76"/>
+      <c r="O41" s="126" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" s="38"/>
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
@@ -28357,54 +28246,48 @@
       <c r="V41"/>
       <c r="W41"/>
     </row>
-    <row r="42" spans="2:23">
-      <c r="B42" s="71" t="str">
-        <f>"*"&amp;Imports_Bio!B8</f>
-        <v>*IE,National</v>
-      </c>
-      <c r="C42" s="71" t="str">
-        <f>"*"&amp;Imports_Bio!C8</f>
-        <v>*IMPBIOETH1G_S4</v>
-      </c>
-      <c r="D42" s="71" t="str">
-        <f>Imports_Bio!D8</f>
-        <v>Import of Ethanol 1st generation  - Step 4</v>
-      </c>
-      <c r="E42" s="65" t="str">
-        <f>Commodities!$C$30</f>
-        <v>BIOETH1G</v>
-      </c>
-      <c r="F42" s="213">
-        <v>0</v>
-      </c>
-      <c r="G42" s="77">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="H42" s="77">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="I42" s="77">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="J42" s="77">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="K42" s="77">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="L42" s="77">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="M42" s="77">
-        <v>27.064417978971818</v>
-      </c>
-      <c r="N42" s="279">
-        <v>5</v>
-      </c>
-      <c r="O42" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="P42" s="77"/>
+    <row r="42" spans="2:23" ht="15.75" thickBot="1">
+      <c r="B42" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
@@ -28412,47 +28295,62 @@
       <c r="V42"/>
       <c r="W42"/>
     </row>
-    <row r="43" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B43" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79">
-        <f>H43</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="H43" s="79">
-        <f>I43</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="I43" s="79">
-        <f>'SEAI-AEA_BioData'!G54*Conversions!$C$2/1000</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="J43" s="79">
-        <f>I43</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="K43" s="79">
-        <f t="shared" ref="K43:M43" si="19">J43</f>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="L43" s="79">
-        <f t="shared" si="19"/>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="M43" s="79">
-        <f t="shared" si="19"/>
-        <v>59.810866344000004</v>
-      </c>
-      <c r="N43" s="280"/>
-      <c r="O43" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="P43" s="79"/>
+    <row r="43" spans="2:23">
+      <c r="B43" s="69" t="str">
+        <f>Imports_Bio!B5</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C43" s="69" t="str">
+        <f>Imports_Bio!C5</f>
+        <v>IMPBIOETH1G_S1</v>
+      </c>
+      <c r="D43" s="69" t="str">
+        <f>Imports_Bio!D5</f>
+        <v>Import of Ethanol 1st generation  - Step 1</v>
+      </c>
+      <c r="E43" s="70" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F43" s="209">
+        <f>'EB2018'!AJ3*Conversions!$C$2</f>
+        <v>0.95668374631852515</v>
+      </c>
+      <c r="G43" s="78">
+        <f>F43</f>
+        <v>0.95668374631852515</v>
+      </c>
+      <c r="H43" s="78">
+        <f t="shared" ref="H43:M43" si="17">G43</f>
+        <v>0.95668374631852515</v>
+      </c>
+      <c r="I43" s="78">
+        <f t="shared" si="17"/>
+        <v>0.95668374631852515</v>
+      </c>
+      <c r="J43" s="78">
+        <f t="shared" si="17"/>
+        <v>0.95668374631852515</v>
+      </c>
+      <c r="K43" s="78">
+        <f t="shared" si="17"/>
+        <v>0.95668374631852515</v>
+      </c>
+      <c r="L43" s="78">
+        <f t="shared" si="17"/>
+        <v>0.95668374631852515</v>
+      </c>
+      <c r="M43" s="78">
+        <f t="shared" si="17"/>
+        <v>0.95668374631852515</v>
+      </c>
+      <c r="N43" s="277">
+        <v>5</v>
+      </c>
+      <c r="O43" s="89" t="s">
+        <v>471</v>
+      </c>
+      <c r="P43" s="78"/>
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
@@ -28461,61 +28359,60 @@
       <c r="W43"/>
     </row>
     <row r="44" spans="2:23">
-      <c r="B44" s="69" t="str">
-        <f>Imports_Bio!B9</f>
+      <c r="B44" s="33" t="str">
+        <f>Imports_Bio!B6</f>
         <v>IE,National</v>
       </c>
-      <c r="C44" s="69" t="str">
-        <f>Imports_Bio!C9</f>
-        <v>IMPBIODST1G_S1</v>
-      </c>
-      <c r="D44" s="69" t="str">
-        <f>Imports_Bio!D9</f>
-        <v>Import of Biodiesel 1st generation  - Step 1</v>
-      </c>
-      <c r="E44" s="70" t="str">
-        <f>Commodities!$C$32</f>
-        <v>BIODST1G</v>
-      </c>
-      <c r="F44" s="209">
-        <f>'EB2018'!AI3*Conversions!$C$2</f>
-        <v>4.3613769615262452</v>
-      </c>
-      <c r="G44" s="78">
-        <f>F44</f>
-        <v>4.3613769615262452</v>
-      </c>
-      <c r="H44" s="78">
-        <f t="shared" ref="H44:M44" si="20">G44</f>
-        <v>4.3613769615262452</v>
-      </c>
-      <c r="I44" s="78">
-        <f t="shared" si="20"/>
-        <v>4.3613769615262452</v>
-      </c>
-      <c r="J44" s="78">
-        <f t="shared" si="20"/>
-        <v>4.3613769615262452</v>
-      </c>
-      <c r="K44" s="78">
-        <f t="shared" si="20"/>
-        <v>4.3613769615262452</v>
-      </c>
-      <c r="L44" s="78">
-        <f t="shared" si="20"/>
-        <v>4.3613769615262452</v>
-      </c>
-      <c r="M44" s="78">
-        <f t="shared" si="20"/>
-        <v>4.3613769615262452</v>
-      </c>
-      <c r="N44" s="277">
+      <c r="C44" s="33" t="str">
+        <f>Imports_Bio!C6</f>
+        <v>IMPBIOETH1G_S2</v>
+      </c>
+      <c r="D44" s="33" t="str">
+        <f>Imports_Bio!D6</f>
+        <v>Import of Ethanol 1st generation  - Step 2</v>
+      </c>
+      <c r="E44" s="35" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F44" s="211">
+        <v>0</v>
+      </c>
+      <c r="G44" s="76">
+        <f>G43*2</f>
+        <v>1.9133674926370503</v>
+      </c>
+      <c r="H44" s="76">
+        <f t="shared" ref="H44:M45" si="18">H43*2</f>
+        <v>1.9133674926370503</v>
+      </c>
+      <c r="I44" s="76">
+        <f t="shared" si="18"/>
+        <v>1.9133674926370503</v>
+      </c>
+      <c r="J44" s="76">
+        <f t="shared" si="18"/>
+        <v>1.9133674926370503</v>
+      </c>
+      <c r="K44" s="76">
+        <f t="shared" si="18"/>
+        <v>1.9133674926370503</v>
+      </c>
+      <c r="L44" s="76">
+        <f t="shared" si="18"/>
+        <v>1.9133674926370503</v>
+      </c>
+      <c r="M44" s="76">
+        <f t="shared" si="18"/>
+        <v>1.9133674926370503</v>
+      </c>
+      <c r="N44" s="278">
         <v>5</v>
       </c>
-      <c r="O44" s="89" t="s">
-        <v>471</v>
-      </c>
-      <c r="P44" s="78"/>
+      <c r="O44" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="P44" s="76"/>
       <c r="R44"/>
       <c r="S44"/>
       <c r="T44"/>
@@ -28525,770 +28422,998 @@
     </row>
     <row r="45" spans="2:23">
       <c r="B45" s="33" t="str">
+        <f>Imports_Bio!B7</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C45" s="33" t="str">
+        <f>Imports_Bio!C7</f>
+        <v>IMPBIOETH1G_S3</v>
+      </c>
+      <c r="D45" s="33" t="str">
+        <f>Imports_Bio!D7</f>
+        <v>Import of Ethanol 1st generation  - Step 3</v>
+      </c>
+      <c r="E45" s="35" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F45" s="211">
+        <v>0</v>
+      </c>
+      <c r="G45" s="76">
+        <f>G44*2</f>
+        <v>3.8267349852741006</v>
+      </c>
+      <c r="H45" s="76">
+        <f t="shared" si="18"/>
+        <v>3.8267349852741006</v>
+      </c>
+      <c r="I45" s="76">
+        <f t="shared" si="18"/>
+        <v>3.8267349852741006</v>
+      </c>
+      <c r="J45" s="76">
+        <f t="shared" si="18"/>
+        <v>3.8267349852741006</v>
+      </c>
+      <c r="K45" s="76">
+        <f t="shared" si="18"/>
+        <v>3.8267349852741006</v>
+      </c>
+      <c r="L45" s="76">
+        <f t="shared" si="18"/>
+        <v>3.8267349852741006</v>
+      </c>
+      <c r="M45" s="76">
+        <f t="shared" si="18"/>
+        <v>3.8267349852741006</v>
+      </c>
+      <c r="N45" s="278">
+        <v>5</v>
+      </c>
+      <c r="O45" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="P45" s="76"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="B46" s="71" t="str">
+        <f>"*"&amp;Imports_Bio!B8</f>
+        <v>*IE,National</v>
+      </c>
+      <c r="C46" s="71" t="str">
+        <f>"*"&amp;Imports_Bio!C8</f>
+        <v>*IMPBIOETH1G_S4</v>
+      </c>
+      <c r="D46" s="71" t="str">
+        <f>Imports_Bio!D8</f>
+        <v>Import of Ethanol 1st generation  - Step 4</v>
+      </c>
+      <c r="E46" s="65" t="str">
+        <f>Commodities!$C$30</f>
+        <v>BIOETH1G</v>
+      </c>
+      <c r="F46" s="213">
+        <v>0</v>
+      </c>
+      <c r="G46" s="77">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="H46" s="77">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="I46" s="77">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="J46" s="77">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="K46" s="77">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="L46" s="77">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="M46" s="77">
+        <v>27.064417978971818</v>
+      </c>
+      <c r="N46" s="279">
+        <v>5</v>
+      </c>
+      <c r="O46" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="P46" s="77"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+    </row>
+    <row r="47" spans="2:23" ht="15.75" thickBot="1">
+      <c r="B47" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79">
+        <f>H47</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="H47" s="79">
+        <f>I47</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="I47" s="79">
+        <f>'SEAI-AEA_BioData'!G54*Conversions!$C$2/1000</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="J47" s="79">
+        <f>I47</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="K47" s="79">
+        <f t="shared" ref="K47:M47" si="19">J47</f>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="L47" s="79">
+        <f t="shared" si="19"/>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="M47" s="79">
+        <f t="shared" si="19"/>
+        <v>59.810866344000004</v>
+      </c>
+      <c r="N47" s="280"/>
+      <c r="O47" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="P47" s="79"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="B48" s="69" t="str">
+        <f>Imports_Bio!B9</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C48" s="69" t="str">
+        <f>Imports_Bio!C9</f>
+        <v>IMPBIODST1G_S1</v>
+      </c>
+      <c r="D48" s="69" t="str">
+        <f>Imports_Bio!D9</f>
+        <v>Import of Biodiesel 1st generation  - Step 1</v>
+      </c>
+      <c r="E48" s="70" t="str">
+        <f>Commodities!$C$32</f>
+        <v>BIODST1G</v>
+      </c>
+      <c r="F48" s="209">
+        <f>'EB2018'!AI3*Conversions!$C$2</f>
+        <v>4.3613769615262452</v>
+      </c>
+      <c r="G48" s="78">
+        <f>F48</f>
+        <v>4.3613769615262452</v>
+      </c>
+      <c r="H48" s="78">
+        <f t="shared" ref="H48:M48" si="20">G48</f>
+        <v>4.3613769615262452</v>
+      </c>
+      <c r="I48" s="78">
+        <f t="shared" si="20"/>
+        <v>4.3613769615262452</v>
+      </c>
+      <c r="J48" s="78">
+        <f t="shared" si="20"/>
+        <v>4.3613769615262452</v>
+      </c>
+      <c r="K48" s="78">
+        <f t="shared" si="20"/>
+        <v>4.3613769615262452</v>
+      </c>
+      <c r="L48" s="78">
+        <f t="shared" si="20"/>
+        <v>4.3613769615262452</v>
+      </c>
+      <c r="M48" s="78">
+        <f t="shared" si="20"/>
+        <v>4.3613769615262452</v>
+      </c>
+      <c r="N48" s="277">
+        <v>5</v>
+      </c>
+      <c r="O48" s="89" t="s">
+        <v>471</v>
+      </c>
+      <c r="P48" s="78"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+    </row>
+    <row r="49" spans="2:18">
+      <c r="B49" s="33" t="str">
         <f>Imports_Bio!B10</f>
         <v>IE,National</v>
       </c>
-      <c r="C45" s="33" t="str">
+      <c r="C49" s="33" t="str">
         <f>Imports_Bio!C10</f>
         <v>IMPBIODST1G_S2</v>
       </c>
-      <c r="D45" s="33" t="str">
+      <c r="D49" s="33" t="str">
         <f>Imports_Bio!D10</f>
         <v>Import of Biodiesel 1st generation  - Step 2</v>
       </c>
-      <c r="E45" s="35" t="str">
+      <c r="E49" s="35" t="str">
         <f>Commodities!$C$32</f>
         <v>BIODST1G</v>
       </c>
-      <c r="F45" s="211">
+      <c r="F49" s="211">
         <v>0</v>
       </c>
-      <c r="G45" s="76">
-        <f>G44*2</f>
+      <c r="G49" s="76">
+        <f>G48*2</f>
         <v>8.7227539230524904</v>
       </c>
-      <c r="H45" s="76">
-        <f t="shared" ref="H45:M46" si="21">H44*2</f>
+      <c r="H49" s="76">
+        <f t="shared" ref="H49:M50" si="21">H48*2</f>
         <v>8.7227539230524904</v>
       </c>
-      <c r="I45" s="76">
+      <c r="I49" s="76">
         <f t="shared" si="21"/>
         <v>8.7227539230524904</v>
       </c>
-      <c r="J45" s="76">
+      <c r="J49" s="76">
         <f t="shared" si="21"/>
         <v>8.7227539230524904</v>
       </c>
-      <c r="K45" s="76">
+      <c r="K49" s="76">
         <f t="shared" si="21"/>
         <v>8.7227539230524904</v>
       </c>
-      <c r="L45" s="76">
+      <c r="L49" s="76">
         <f t="shared" si="21"/>
         <v>8.7227539230524904</v>
       </c>
-      <c r="M45" s="76">
+      <c r="M49" s="76">
         <f t="shared" si="21"/>
         <v>8.7227539230524904</v>
       </c>
-      <c r="N45" s="278">
+      <c r="N49" s="278">
         <v>5</v>
       </c>
-      <c r="O45" s="90" t="s">
+      <c r="O49" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="P45" s="76"/>
-      <c r="R45" s="42"/>
-    </row>
-    <row r="46" spans="2:23">
-      <c r="B46" s="33" t="str">
+      <c r="P49" s="76"/>
+      <c r="R49" s="42"/>
+    </row>
+    <row r="50" spans="2:18">
+      <c r="B50" s="33" t="str">
         <f>Imports_Bio!B11</f>
         <v>IE,National</v>
       </c>
-      <c r="C46" s="33" t="str">
+      <c r="C50" s="33" t="str">
         <f>Imports_Bio!C11</f>
         <v>IMPBIODST1G_S3</v>
       </c>
-      <c r="D46" s="33" t="str">
+      <c r="D50" s="33" t="str">
         <f>Imports_Bio!D11</f>
         <v>Import of Biodiesel 1st generation  - Step 3</v>
       </c>
-      <c r="E46" s="35" t="str">
+      <c r="E50" s="35" t="str">
         <f>Commodities!$C$32</f>
         <v>BIODST1G</v>
       </c>
-      <c r="F46" s="211">
+      <c r="F50" s="211">
         <v>0</v>
       </c>
-      <c r="G46" s="76">
-        <f>G45*2</f>
+      <c r="G50" s="76">
+        <f>G49*2</f>
         <v>17.445507846104981</v>
       </c>
-      <c r="H46" s="76">
+      <c r="H50" s="76">
         <f t="shared" si="21"/>
         <v>17.445507846104981</v>
       </c>
-      <c r="I46" s="76">
+      <c r="I50" s="76">
         <f t="shared" si="21"/>
         <v>17.445507846104981</v>
       </c>
-      <c r="J46" s="76">
+      <c r="J50" s="76">
         <f t="shared" si="21"/>
         <v>17.445507846104981</v>
       </c>
-      <c r="K46" s="76">
+      <c r="K50" s="76">
         <f t="shared" si="21"/>
         <v>17.445507846104981</v>
       </c>
-      <c r="L46" s="76">
+      <c r="L50" s="76">
         <f t="shared" si="21"/>
         <v>17.445507846104981</v>
       </c>
-      <c r="M46" s="76">
+      <c r="M50" s="76">
         <f t="shared" si="21"/>
         <v>17.445507846104981</v>
       </c>
-      <c r="N46" s="278">
+      <c r="N50" s="278">
         <v>5</v>
       </c>
-      <c r="O46" s="90" t="s">
+      <c r="O50" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="P46" s="76"/>
-      <c r="R46" s="42"/>
-    </row>
-    <row r="47" spans="2:23">
-      <c r="B47" s="71" t="str">
+      <c r="P50" s="76"/>
+      <c r="R50" s="42"/>
+    </row>
+    <row r="51" spans="2:18">
+      <c r="B51" s="71" t="str">
         <f>"*"&amp;Imports_Bio!B12</f>
         <v>*IE,National</v>
       </c>
-      <c r="C47" s="71" t="str">
+      <c r="C51" s="71" t="str">
         <f>"*"&amp;Imports_Bio!C12</f>
         <v>*IMPBIODST1G_S4</v>
       </c>
-      <c r="D47" s="71" t="str">
+      <c r="D51" s="71" t="str">
         <f>Imports_Bio!D12</f>
         <v>Import of Biodiesel 1st generation  - Step 4</v>
       </c>
-      <c r="E47" s="65" t="str">
+      <c r="E51" s="65" t="str">
         <f>Commodities!$C$32</f>
         <v>BIODST1G</v>
       </c>
-      <c r="F47" s="213">
+      <c r="F51" s="213">
         <v>0</v>
       </c>
-      <c r="G47" s="77">
-        <f>G48-SUM(G44:G46)</f>
+      <c r="G51" s="77">
+        <f>G52-SUM(G48:G50)</f>
         <v>72.228951163880168</v>
       </c>
-      <c r="H47" s="77">
-        <f t="shared" ref="H47:M47" si="22">H48-SUM(H44:H46)</f>
+      <c r="H51" s="77">
+        <f t="shared" ref="H51:M51" si="22">H52-SUM(H48:H50)</f>
         <v>72.228951163880168</v>
       </c>
-      <c r="I47" s="77">
+      <c r="I51" s="77">
         <f t="shared" si="22"/>
         <v>72.228951163880168</v>
       </c>
-      <c r="J47" s="77">
+      <c r="J51" s="77">
         <f t="shared" si="22"/>
         <v>72.228951163880168</v>
       </c>
-      <c r="K47" s="77">
+      <c r="K51" s="77">
         <f t="shared" si="22"/>
         <v>72.228951163880168</v>
       </c>
-      <c r="L47" s="77">
+      <c r="L51" s="77">
         <f t="shared" si="22"/>
         <v>72.228951163880168</v>
       </c>
-      <c r="M47" s="77">
+      <c r="M51" s="77">
         <f t="shared" si="22"/>
         <v>72.228951163880168</v>
       </c>
-      <c r="N47" s="279">
+      <c r="N51" s="279">
         <v>5</v>
       </c>
-      <c r="O47" s="91" t="s">
+      <c r="O51" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="P47" s="77"/>
-      <c r="R47" s="42"/>
-    </row>
-    <row r="48" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B48" s="72" t="s">
+      <c r="P51" s="77"/>
+      <c r="R51" s="42"/>
+    </row>
+    <row r="52" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B52" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79">
-        <f>H48</f>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79">
+        <f>H52</f>
         <v>102.75858989456388</v>
       </c>
-      <c r="H48" s="79">
-        <f>I48</f>
+      <c r="H52" s="79">
+        <f>I52</f>
         <v>102.75858989456388</v>
       </c>
-      <c r="I48" s="79">
+      <c r="I52" s="79">
         <f>2727.05194883825*Conversions!$C$2*0.9</f>
         <v>102.75858989456388</v>
       </c>
-      <c r="J48" s="79">
-        <f>I48</f>
+      <c r="J52" s="79">
+        <f>I52</f>
         <v>102.75858989456388</v>
       </c>
-      <c r="K48" s="79">
-        <f t="shared" ref="K48:M48" si="23">J48</f>
+      <c r="K52" s="79">
+        <f t="shared" ref="K52:M52" si="23">J52</f>
         <v>102.75858989456388</v>
       </c>
-      <c r="L48" s="79">
+      <c r="L52" s="79">
         <f t="shared" si="23"/>
         <v>102.75858989456388</v>
       </c>
-      <c r="M48" s="79">
+      <c r="M52" s="79">
         <f t="shared" si="23"/>
         <v>102.75858989456388</v>
       </c>
-      <c r="N48" s="280"/>
-      <c r="O48" s="92" t="s">
+      <c r="N52" s="280"/>
+      <c r="O52" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="P48" s="79"/>
-      <c r="R48" s="42"/>
-    </row>
-    <row r="49" spans="2:18">
-      <c r="B49" s="69" t="str">
+      <c r="P52" s="79"/>
+      <c r="R52" s="42"/>
+    </row>
+    <row r="53" spans="2:18">
+      <c r="B53" s="69" t="str">
         <f>Imports_Bio!B13</f>
         <v>IE,National</v>
       </c>
-      <c r="C49" s="69" t="str">
+      <c r="C53" s="69" t="str">
         <f>Imports_Bio!C13</f>
         <v>IMPBIOWPE_S1</v>
       </c>
-      <c r="D49" s="69" t="str">
+      <c r="D53" s="69" t="str">
         <f>Imports_Bio!D13</f>
         <v>Import of Wood Pellets  - Step 1</v>
       </c>
-      <c r="E49" s="34" t="str">
+      <c r="E53" s="34" t="str">
         <f>Commodities!$C$41</f>
         <v>BIOWPE</v>
       </c>
-      <c r="F49" s="209">
-        <f>'EB2018'!AE3*Conversions!$C$2*Imports_Bio!$R$49</f>
+      <c r="F53" s="209">
+        <f>'EB2018'!AE3*Conversions!$C$2*Imports_Bio!$R$53</f>
         <v>0.67902889168989577</v>
       </c>
-      <c r="G49" s="78">
-        <f>MAX(F49:F49)</f>
+      <c r="G53" s="78">
+        <f>MAX(F53:F53)</f>
         <v>0.67902889168989577</v>
       </c>
-      <c r="H49" s="78">
-        <f>G49</f>
+      <c r="H53" s="78">
+        <f>G53</f>
         <v>0.67902889168989577</v>
       </c>
-      <c r="I49" s="78">
-        <f t="shared" ref="I49:M49" si="24">H49</f>
+      <c r="I53" s="78">
+        <f t="shared" ref="I53:M53" si="24">H53</f>
         <v>0.67902889168989577</v>
       </c>
-      <c r="J49" s="78">
+      <c r="J53" s="78">
         <f t="shared" si="24"/>
         <v>0.67902889168989577</v>
       </c>
-      <c r="K49" s="78">
+      <c r="K53" s="78">
         <f t="shared" si="24"/>
         <v>0.67902889168989577</v>
       </c>
-      <c r="L49" s="78">
+      <c r="L53" s="78">
         <f t="shared" si="24"/>
         <v>0.67902889168989577</v>
       </c>
-      <c r="M49" s="78">
+      <c r="M53" s="78">
         <f t="shared" si="24"/>
         <v>0.67902889168989577</v>
       </c>
-      <c r="N49" s="277">
+      <c r="N53" s="277">
         <v>5</v>
       </c>
-      <c r="O49" s="89" t="s">
+      <c r="O53" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="P49" s="78"/>
-      <c r="R49" s="210">
+      <c r="P53" s="78"/>
+      <c r="R53" s="210">
         <v>0.7</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
-      <c r="B50" s="33" t="str">
+    <row r="54" spans="2:18">
+      <c r="B54" s="33" t="str">
         <f>Imports_Bio!B14</f>
         <v>IE,National</v>
       </c>
-      <c r="C50" s="33" t="str">
+      <c r="C54" s="33" t="str">
         <f>Imports_Bio!C14</f>
         <v>IMPBIOWPE_S2</v>
       </c>
-      <c r="D50" s="33" t="str">
+      <c r="D54" s="33" t="str">
         <f>Imports_Bio!D14</f>
         <v>Import of Wood Pellets  - Step 2</v>
       </c>
-      <c r="E50" s="34" t="str">
+      <c r="E54" s="34" t="str">
         <f>Commodities!$C$41</f>
         <v>BIOWPE</v>
       </c>
-      <c r="F50" s="211">
+      <c r="F54" s="211">
         <v>0</v>
       </c>
-      <c r="G50" s="76">
-        <f>G49*2</f>
+      <c r="G54" s="76">
+        <f>G53*2</f>
         <v>1.3580577833797915</v>
       </c>
-      <c r="H50" s="76">
-        <f t="shared" ref="H50:M51" si="25">H49*2</f>
+      <c r="H54" s="76">
+        <f t="shared" ref="H54:M55" si="25">H53*2</f>
         <v>1.3580577833797915</v>
       </c>
-      <c r="I50" s="76">
+      <c r="I54" s="76">
         <f t="shared" si="25"/>
         <v>1.3580577833797915</v>
       </c>
-      <c r="J50" s="76">
+      <c r="J54" s="76">
         <f t="shared" si="25"/>
         <v>1.3580577833797915</v>
       </c>
-      <c r="K50" s="76">
+      <c r="K54" s="76">
         <f t="shared" si="25"/>
         <v>1.3580577833797915</v>
       </c>
-      <c r="L50" s="76">
+      <c r="L54" s="76">
         <f t="shared" si="25"/>
         <v>1.3580577833797915</v>
       </c>
-      <c r="M50" s="76">
+      <c r="M54" s="76">
         <f t="shared" si="25"/>
         <v>1.3580577833797915</v>
       </c>
-      <c r="N50" s="278">
+      <c r="N54" s="278">
         <v>5</v>
       </c>
-      <c r="O50" s="90" t="s">
+      <c r="O54" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="P50" s="76"/>
-      <c r="R50" s="42"/>
-    </row>
-    <row r="51" spans="2:18">
-      <c r="B51" s="33" t="str">
+      <c r="P54" s="76"/>
+      <c r="R54" s="42"/>
+    </row>
+    <row r="55" spans="2:18">
+      <c r="B55" s="33" t="str">
         <f>Imports_Bio!B15</f>
         <v>IE,National</v>
       </c>
-      <c r="C51" s="33" t="str">
+      <c r="C55" s="33" t="str">
         <f>Imports_Bio!C15</f>
         <v>IMPBIOWPE_S3</v>
       </c>
-      <c r="D51" s="33" t="str">
+      <c r="D55" s="33" t="str">
         <f>Imports_Bio!D15</f>
         <v>Import of Wood Pellets  - Step 3</v>
       </c>
-      <c r="E51" s="34" t="str">
+      <c r="E55" s="34" t="str">
         <f>Commodities!$C$41</f>
         <v>BIOWPE</v>
       </c>
-      <c r="F51" s="211">
+      <c r="F55" s="211">
         <v>0</v>
       </c>
-      <c r="G51" s="76">
-        <f>G50*2</f>
+      <c r="G55" s="76">
+        <f>G54*2</f>
         <v>2.7161155667595831</v>
       </c>
-      <c r="H51" s="76">
+      <c r="H55" s="76">
         <f t="shared" si="25"/>
         <v>2.7161155667595831</v>
       </c>
-      <c r="I51" s="76">
+      <c r="I55" s="76">
         <f t="shared" si="25"/>
         <v>2.7161155667595831</v>
       </c>
-      <c r="J51" s="76">
+      <c r="J55" s="76">
         <f t="shared" si="25"/>
         <v>2.7161155667595831</v>
       </c>
-      <c r="K51" s="76">
+      <c r="K55" s="76">
         <f t="shared" si="25"/>
         <v>2.7161155667595831</v>
       </c>
-      <c r="L51" s="76">
+      <c r="L55" s="76">
         <f t="shared" si="25"/>
         <v>2.7161155667595831</v>
       </c>
-      <c r="M51" s="76">
+      <c r="M55" s="76">
         <f t="shared" si="25"/>
         <v>2.7161155667595831</v>
       </c>
-      <c r="N51" s="278">
+      <c r="N55" s="278">
         <v>5</v>
       </c>
-      <c r="O51" s="90" t="s">
+      <c r="O55" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="P51" s="76"/>
-      <c r="R51" s="42"/>
-    </row>
-    <row r="52" spans="2:18">
-      <c r="B52" s="71" t="str">
+      <c r="P55" s="76"/>
+      <c r="R55" s="42"/>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="B56" s="71" t="str">
         <f>"*"&amp;Imports_Bio!B16</f>
         <v>*IE,National</v>
       </c>
-      <c r="C52" s="71" t="str">
+      <c r="C56" s="71" t="str">
         <f>"*"&amp;Imports_Bio!C16</f>
         <v>*IMPBIOWPE_S4</v>
       </c>
-      <c r="D52" s="71" t="str">
+      <c r="D56" s="71" t="str">
         <f>Imports_Bio!D16</f>
         <v>Import of Wood Pellets  - Step 4</v>
       </c>
-      <c r="E52" s="65" t="str">
+      <c r="E56" s="65" t="str">
         <f>Commodities!$C$41</f>
         <v>BIOWPE</v>
       </c>
-      <c r="F52" s="213">
+      <c r="F56" s="213">
         <v>0</v>
       </c>
-      <c r="G52" s="77">
-        <f>G53-SUM(G49:G51)</f>
+      <c r="G56" s="77">
+        <f>G57-SUM(G53:G55)</f>
         <v>105.39325776217073</v>
       </c>
-      <c r="H52" s="77">
-        <f t="shared" ref="H52:M52" si="26">H53-SUM(H49:H51)</f>
+      <c r="H56" s="77">
+        <f t="shared" ref="H56:M56" si="26">H57-SUM(H53:H55)</f>
         <v>105.39325776217073</v>
       </c>
-      <c r="I52" s="77">
+      <c r="I56" s="77">
         <f t="shared" si="26"/>
         <v>105.39325776217073</v>
       </c>
-      <c r="J52" s="77">
+      <c r="J56" s="77">
         <f t="shared" si="26"/>
         <v>105.39325776217073</v>
       </c>
-      <c r="K52" s="77">
+      <c r="K56" s="77">
         <f t="shared" si="26"/>
         <v>105.39325776217073</v>
       </c>
-      <c r="L52" s="77">
+      <c r="L56" s="77">
         <f t="shared" si="26"/>
         <v>105.39325776217073</v>
       </c>
-      <c r="M52" s="77">
+      <c r="M56" s="77">
         <f t="shared" si="26"/>
         <v>105.39325776217073</v>
       </c>
-      <c r="N52" s="279">
+      <c r="N56" s="279">
         <v>5</v>
       </c>
-      <c r="O52" s="91" t="s">
+      <c r="O56" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="P52" s="77"/>
-      <c r="R52" s="42"/>
-    </row>
-    <row r="53" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B53" s="72" t="s">
+      <c r="P56" s="77"/>
+      <c r="R56" s="42"/>
+    </row>
+    <row r="57" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B57" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79">
-        <f>H53</f>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79">
+        <f>H57</f>
         <v>110.14646000400001</v>
       </c>
-      <c r="H53" s="79">
-        <f>I53</f>
+      <c r="H57" s="79">
+        <f>I57</f>
         <v>110.14646000400001</v>
       </c>
-      <c r="I53" s="79">
+      <c r="I57" s="79">
         <f>'SEAI-AEA_BioData'!G52*Conversions!$C$2/1000</f>
         <v>110.14646000400001</v>
       </c>
-      <c r="J53" s="79">
-        <f>I53</f>
+      <c r="J57" s="79">
+        <f>I57</f>
         <v>110.14646000400001</v>
       </c>
-      <c r="K53" s="79">
-        <f t="shared" ref="K53:M53" si="27">J53</f>
+      <c r="K57" s="79">
+        <f t="shared" ref="K57:M57" si="27">J57</f>
         <v>110.14646000400001</v>
       </c>
-      <c r="L53" s="79">
+      <c r="L57" s="79">
         <f t="shared" si="27"/>
         <v>110.14646000400001</v>
       </c>
-      <c r="M53" s="79">
+      <c r="M57" s="79">
         <f t="shared" si="27"/>
         <v>110.14646000400001</v>
       </c>
-      <c r="N53" s="280"/>
-      <c r="O53" s="92" t="s">
+      <c r="N57" s="280"/>
+      <c r="O57" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="P53" s="79"/>
-      <c r="R53" s="42"/>
-    </row>
-    <row r="54" spans="2:18">
-      <c r="B54" s="69" t="str">
+      <c r="P57" s="79"/>
+      <c r="R57" s="42"/>
+    </row>
+    <row r="58" spans="2:18">
+      <c r="B58" s="69" t="str">
         <f>Imports_Bio!B17</f>
         <v>IE,National</v>
       </c>
-      <c r="C54" s="69" t="str">
+      <c r="C58" s="69" t="str">
         <f>Imports_Bio!C17</f>
         <v>IMPBIOWCH_S1</v>
       </c>
-      <c r="D54" s="69" t="str">
+      <c r="D58" s="69" t="str">
         <f>Imports_Bio!D17</f>
         <v>Import of Wood Chip  - Step 1</v>
       </c>
-      <c r="E54" s="70" t="str">
+      <c r="E58" s="70" t="str">
         <f>Commodities!$C$42</f>
         <v>BIOWCH</v>
       </c>
-      <c r="F54" s="209">
-        <f>'EB2018'!AE3*Conversions!$C$2*Imports_Bio!$R$54</f>
+      <c r="F58" s="209">
+        <f>'EB2018'!AE3*Conversions!$C$2*Imports_Bio!$R$58</f>
         <v>0.29101238215281255</v>
       </c>
-      <c r="G54" s="78">
-        <f>MAX(F54:F54)</f>
+      <c r="G58" s="78">
+        <f>MAX(F58:F58)</f>
         <v>0.29101238215281255</v>
       </c>
-      <c r="H54" s="78">
-        <f>G54</f>
+      <c r="H58" s="78">
+        <f>G58</f>
         <v>0.29101238215281255</v>
       </c>
-      <c r="I54" s="78">
-        <f t="shared" ref="I54:M54" si="28">H54</f>
+      <c r="I58" s="78">
+        <f t="shared" ref="I58:M58" si="28">H58</f>
         <v>0.29101238215281255</v>
       </c>
-      <c r="J54" s="78">
+      <c r="J58" s="78">
         <f t="shared" si="28"/>
         <v>0.29101238215281255</v>
       </c>
-      <c r="K54" s="78">
+      <c r="K58" s="78">
         <f t="shared" si="28"/>
         <v>0.29101238215281255</v>
       </c>
-      <c r="L54" s="78">
+      <c r="L58" s="78">
         <f t="shared" si="28"/>
         <v>0.29101238215281255</v>
       </c>
-      <c r="M54" s="78">
+      <c r="M58" s="78">
         <f t="shared" si="28"/>
         <v>0.29101238215281255</v>
       </c>
-      <c r="N54" s="277">
+      <c r="N58" s="277">
         <v>5</v>
       </c>
-      <c r="O54" s="89" t="s">
+      <c r="O58" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="P54" s="78"/>
-      <c r="R54" s="208">
-        <f>1-R49</f>
+      <c r="P58" s="78"/>
+      <c r="R58" s="208">
+        <f>1-R53</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
-      <c r="B55" s="33" t="str">
+    <row r="59" spans="2:18">
+      <c r="B59" s="33" t="str">
         <f>Imports_Bio!B18</f>
         <v>IE,National</v>
       </c>
-      <c r="C55" s="33" t="str">
+      <c r="C59" s="33" t="str">
         <f>Imports_Bio!C18</f>
         <v>IMPBIOWCH_S2</v>
       </c>
-      <c r="D55" s="33" t="str">
+      <c r="D59" s="33" t="str">
         <f>Imports_Bio!D18</f>
         <v>Import of Wood Chip  - Step 2</v>
       </c>
-      <c r="E55" s="35" t="str">
+      <c r="E59" s="35" t="str">
         <f>Commodities!$C$42</f>
         <v>BIOWCH</v>
       </c>
-      <c r="F55" s="211">
+      <c r="F59" s="211">
         <v>0</v>
       </c>
-      <c r="G55" s="76">
-        <f>G54*2</f>
+      <c r="G59" s="76">
+        <f>G58*2</f>
         <v>0.58202476430562511</v>
       </c>
-      <c r="H55" s="76">
-        <f t="shared" ref="H55:M56" si="29">H54*2</f>
+      <c r="H59" s="76">
+        <f t="shared" ref="H59:M60" si="29">H58*2</f>
         <v>0.58202476430562511</v>
       </c>
-      <c r="I55" s="76">
+      <c r="I59" s="76">
         <f t="shared" si="29"/>
         <v>0.58202476430562511</v>
       </c>
-      <c r="J55" s="76">
+      <c r="J59" s="76">
         <f t="shared" si="29"/>
         <v>0.58202476430562511</v>
       </c>
-      <c r="K55" s="76">
+      <c r="K59" s="76">
         <f t="shared" si="29"/>
         <v>0.58202476430562511</v>
       </c>
-      <c r="L55" s="76">
+      <c r="L59" s="76">
         <f t="shared" si="29"/>
         <v>0.58202476430562511</v>
       </c>
-      <c r="M55" s="76">
+      <c r="M59" s="76">
         <f t="shared" si="29"/>
         <v>0.58202476430562511</v>
       </c>
-      <c r="N55" s="278">
+      <c r="N59" s="278">
         <v>5</v>
       </c>
-      <c r="O55" s="90" t="s">
+      <c r="O59" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="P55" s="76"/>
-      <c r="R55" s="42"/>
-    </row>
-    <row r="56" spans="2:18">
-      <c r="B56" s="33" t="str">
+      <c r="P59" s="76"/>
+      <c r="R59" s="42"/>
+    </row>
+    <row r="60" spans="2:18">
+      <c r="B60" s="33" t="str">
         <f>Imports_Bio!B19</f>
         <v>IE,National</v>
       </c>
-      <c r="C56" s="33" t="str">
+      <c r="C60" s="33" t="str">
         <f>Imports_Bio!C19</f>
         <v>IMPBIOWCH_S3</v>
       </c>
-      <c r="D56" s="33" t="str">
+      <c r="D60" s="33" t="str">
         <f>Imports_Bio!D19</f>
         <v>Import of Wood Chip  - Step 3</v>
       </c>
-      <c r="E56" s="35" t="str">
+      <c r="E60" s="35" t="str">
         <f>Commodities!$C$42</f>
         <v>BIOWCH</v>
       </c>
-      <c r="F56" s="211">
+      <c r="F60" s="211">
         <v>0</v>
       </c>
-      <c r="G56" s="76">
-        <f>G55*2</f>
+      <c r="G60" s="76">
+        <f>G59*2</f>
         <v>1.1640495286112502</v>
       </c>
-      <c r="H56" s="76">
+      <c r="H60" s="76">
         <f t="shared" si="29"/>
         <v>1.1640495286112502</v>
       </c>
-      <c r="I56" s="76">
+      <c r="I60" s="76">
         <f t="shared" si="29"/>
         <v>1.1640495286112502</v>
       </c>
-      <c r="J56" s="76">
+      <c r="J60" s="76">
         <f t="shared" si="29"/>
         <v>1.1640495286112502</v>
       </c>
-      <c r="K56" s="76">
+      <c r="K60" s="76">
         <f t="shared" si="29"/>
         <v>1.1640495286112502</v>
       </c>
-      <c r="L56" s="76">
+      <c r="L60" s="76">
         <f t="shared" si="29"/>
         <v>1.1640495286112502</v>
       </c>
-      <c r="M56" s="76">
+      <c r="M60" s="76">
         <f t="shared" si="29"/>
         <v>1.1640495286112502</v>
       </c>
-      <c r="N56" s="278">
+      <c r="N60" s="278">
         <v>5</v>
       </c>
-      <c r="O56" s="90" t="s">
+      <c r="O60" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="P56" s="76"/>
-      <c r="R56" s="42"/>
-    </row>
-    <row r="57" spans="2:18">
-      <c r="B57" s="71" t="str">
+      <c r="P60" s="76"/>
+      <c r="R60" s="42"/>
+    </row>
+    <row r="61" spans="2:18">
+      <c r="B61" s="71" t="str">
         <f>"*"&amp;Imports_Bio!B20</f>
         <v>*IE,National</v>
       </c>
-      <c r="C57" s="71" t="str">
+      <c r="C61" s="71" t="str">
         <f>"*"&amp;Imports_Bio!C20</f>
         <v>*IMPBIOWCH_S4</v>
       </c>
-      <c r="D57" s="71" t="str">
+      <c r="D61" s="71" t="str">
         <f>Imports_Bio!D20</f>
         <v>Import of Wood Chip  - Step 4</v>
       </c>
-      <c r="E57" s="65" t="str">
+      <c r="E61" s="65" t="str">
         <f>Commodities!$C$42</f>
         <v>BIOWCH</v>
       </c>
-      <c r="F57" s="213">
+      <c r="F61" s="213">
         <v>0</v>
       </c>
-      <c r="G57" s="77">
-        <f>G58-SUM(G54:G56)</f>
+      <c r="G61" s="77">
+        <f>G62-SUM(G58:G60)</f>
         <v>34.678386036930313</v>
       </c>
-      <c r="H57" s="77">
-        <f t="shared" ref="H57:M57" si="30">H58-SUM(H54:H56)</f>
+      <c r="H61" s="77">
+        <f t="shared" ref="H61:M61" si="30">H62-SUM(H58:H60)</f>
         <v>34.678386036930313</v>
       </c>
-      <c r="I57" s="77">
+      <c r="I61" s="77">
         <f t="shared" si="30"/>
         <v>34.678386036930313</v>
       </c>
-      <c r="J57" s="77">
+      <c r="J61" s="77">
         <f t="shared" si="30"/>
         <v>34.678386036930313</v>
       </c>
-      <c r="K57" s="77">
+      <c r="K61" s="77">
         <f t="shared" si="30"/>
         <v>34.678386036930313</v>
       </c>
-      <c r="L57" s="77">
+      <c r="L61" s="77">
         <f t="shared" si="30"/>
         <v>34.678386036930313</v>
       </c>
-      <c r="M57" s="77">
+      <c r="M61" s="77">
         <f t="shared" si="30"/>
         <v>34.678386036930313</v>
       </c>
-      <c r="N57" s="279">
+      <c r="N61" s="279">
         <v>5</v>
       </c>
-      <c r="O57" s="91" t="s">
+      <c r="O61" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="P57" s="77"/>
-      <c r="R57" s="42"/>
-    </row>
-    <row r="58" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B58" s="74" t="s">
+      <c r="P61" s="77"/>
+      <c r="R61" s="42"/>
+    </row>
+    <row r="62" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B62" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80">
-        <f>H58</f>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="80">
+        <f>H62</f>
         <v>36.715472712</v>
       </c>
-      <c r="H58" s="80">
-        <f>I58</f>
+      <c r="H62" s="80">
+        <f>I62</f>
         <v>36.715472712</v>
       </c>
-      <c r="I58" s="80">
+      <c r="I62" s="80">
         <f>'SEAI-AEA_BioData'!G50*Conversions!$C$2/1000</f>
         <v>36.715472712</v>
       </c>
-      <c r="J58" s="80">
-        <f>I58</f>
+      <c r="J62" s="80">
+        <f>I62</f>
         <v>36.715472712</v>
       </c>
-      <c r="K58" s="80">
-        <f>J58</f>
+      <c r="K62" s="80">
+        <f>J62</f>
         <v>36.715472712</v>
       </c>
-      <c r="L58" s="80">
-        <f>K58</f>
+      <c r="L62" s="80">
+        <f>K62</f>
         <v>36.715472712</v>
       </c>
-      <c r="M58" s="80">
-        <f>L58</f>
+      <c r="M62" s="80">
+        <f>L62</f>
         <v>36.715472712</v>
       </c>
-      <c r="N58" s="281"/>
-      <c r="O58" s="93" t="s">
+      <c r="N62" s="281"/>
+      <c r="O62" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="P58" s="80"/>
-      <c r="R58" s="42"/>
+      <c r="P62" s="80"/>
+      <c r="R62" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K26:K33"/>
+    <mergeCell ref="K30:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29556,11 +29681,11 @@
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
-      <c r="F9" s="502" t="s">
+      <c r="F9" s="503" t="s">
         <v>239</v>
       </c>
-      <c r="G9" s="502"/>
-      <c r="H9" s="502"/>
+      <c r="G9" s="503"/>
+      <c r="H9" s="503"/>
       <c r="I9" s="273" t="s">
         <v>238</v>
       </c>

--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85F3D9E-8AA2-4950-9189-F7996A8BE915}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7D4F80-F0FC-4D44-901F-668AB52E414B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="22" r:id="rId1"/>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="595">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -4827,7 +4827,7 @@
     <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="508">
+  <cellXfs count="507">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5579,9 +5579,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7087,722 +7084,722 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="446" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="446" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="446" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="446" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="446" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="446" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="446" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="446" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="446" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="446" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="446" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="446" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="446" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="446" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="446" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="446" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" style="446" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="446" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="446" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="446" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="446" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5" style="446" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="446" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="446" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="6" style="446" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="446" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="446" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="446"/>
+    <col min="1" max="1" width="12.140625" style="445" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="445" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="445" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="445" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="445" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="445" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="445" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="445" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="445" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" style="445" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="445" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="445" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="445" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="445" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="445" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="445" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" style="445" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" style="445" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="445" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="445" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="445" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" style="445" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="445" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="445" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="6" style="445" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" style="445" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" style="445" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="445"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:30">
-      <c r="C3" s="447" t="str" cm="1">
+      <c r="C3" s="446" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
       </c>
-      <c r="D3" s="447" t="str" cm="1">
+      <c r="D3" s="446" t="str" cm="1">
         <f t="array" ref="D3">INDEX(D5:D7,$A$4)</f>
         <v>National</v>
       </c>
-      <c r="E3" s="447" t="str" cm="1">
+      <c r="E3" s="446" t="str" cm="1">
         <f t="array" ref="E3">INDEX(E5:E7,$A$4)</f>
         <v>IE-CW</v>
       </c>
-      <c r="F3" s="447" t="str" cm="1">
+      <c r="F3" s="446" t="str" cm="1">
         <f t="array" ref="F3">INDEX(F5:F7,$A$4)</f>
         <v>IE-D</v>
       </c>
-      <c r="G3" s="447" t="str" cm="1">
+      <c r="G3" s="446" t="str" cm="1">
         <f t="array" ref="G3">INDEX(G5:G7,$A$4)</f>
         <v>IE-KE</v>
       </c>
-      <c r="H3" s="447" t="str" cm="1">
+      <c r="H3" s="446" t="str" cm="1">
         <f t="array" ref="H3">INDEX(H5:H7,$A$4)</f>
         <v>IE-KK</v>
       </c>
-      <c r="I3" s="447" t="str" cm="1">
+      <c r="I3" s="446" t="str" cm="1">
         <f t="array" ref="I3">INDEX(I5:I7,$A$4)</f>
         <v>IE-LS</v>
       </c>
-      <c r="J3" s="447" t="str" cm="1">
+      <c r="J3" s="446" t="str" cm="1">
         <f t="array" ref="J3">INDEX(J5:J7,$A$4)</f>
         <v>IE-LD</v>
       </c>
-      <c r="K3" s="447" t="str" cm="1">
+      <c r="K3" s="446" t="str" cm="1">
         <f t="array" ref="K3">INDEX(K5:K7,$A$4)</f>
         <v>IE-LH</v>
       </c>
-      <c r="L3" s="447" t="str" cm="1">
+      <c r="L3" s="446" t="str" cm="1">
         <f t="array" ref="L3">INDEX(L5:L7,$A$4)</f>
         <v>IE-MH</v>
       </c>
-      <c r="M3" s="447" t="str" cm="1">
+      <c r="M3" s="446" t="str" cm="1">
         <f t="array" ref="M3">INDEX(M5:M7,$A$4)</f>
         <v>IE-OY</v>
       </c>
-      <c r="N3" s="447" t="str" cm="1">
+      <c r="N3" s="446" t="str" cm="1">
         <f t="array" ref="N3">INDEX(N5:N7,$A$4)</f>
         <v>IE-WH</v>
       </c>
-      <c r="O3" s="447" t="str" cm="1">
+      <c r="O3" s="446" t="str" cm="1">
         <f t="array" ref="O3">INDEX(O5:O7,$A$4)</f>
         <v>IE-WX</v>
       </c>
-      <c r="P3" s="447" t="str" cm="1">
+      <c r="P3" s="446" t="str" cm="1">
         <f t="array" ref="P3">INDEX(P5:P7,$A$4)</f>
         <v>IE-WW</v>
       </c>
-      <c r="Q3" s="447" t="str" cm="1">
+      <c r="Q3" s="446" t="str" cm="1">
         <f t="array" ref="Q3">INDEX(Q5:Q7,$A$4)</f>
         <v>IE-CE</v>
       </c>
-      <c r="R3" s="447" t="str" cm="1">
+      <c r="R3" s="446" t="str" cm="1">
         <f t="array" ref="R3">INDEX(R5:R7,$A$4)</f>
         <v>IE-CO</v>
       </c>
-      <c r="S3" s="447" t="str" cm="1">
+      <c r="S3" s="446" t="str" cm="1">
         <f t="array" ref="S3">INDEX(S5:S7,$A$4)</f>
         <v>IE-KY</v>
       </c>
-      <c r="T3" s="447" t="str" cm="1">
+      <c r="T3" s="446" t="str" cm="1">
         <f t="array" ref="T3">INDEX(T5:T7,$A$4)</f>
         <v>IE-LK</v>
       </c>
-      <c r="U3" s="447" t="str" cm="1">
+      <c r="U3" s="446" t="str" cm="1">
         <f t="array" ref="U3">INDEX(U5:U7,$A$4)</f>
         <v>IE-TA</v>
       </c>
-      <c r="V3" s="447" t="str" cm="1">
+      <c r="V3" s="446" t="str" cm="1">
         <f t="array" ref="V3">INDEX(V5:V7,$A$4)</f>
         <v>IE-WD</v>
       </c>
-      <c r="W3" s="447" t="str" cm="1">
+      <c r="W3" s="446" t="str" cm="1">
         <f t="array" ref="W3">INDEX(W5:W7,$A$4)</f>
         <v>IE-G</v>
       </c>
-      <c r="X3" s="447" t="str" cm="1">
+      <c r="X3" s="446" t="str" cm="1">
         <f t="array" ref="X3">INDEX(X5:X7,$A$4)</f>
         <v>IE-LM</v>
       </c>
-      <c r="Y3" s="447" t="str" cm="1">
+      <c r="Y3" s="446" t="str" cm="1">
         <f t="array" ref="Y3">INDEX(Y5:Y7,$A$4)</f>
         <v>IE-MO</v>
       </c>
-      <c r="Z3" s="447" t="str" cm="1">
+      <c r="Z3" s="446" t="str" cm="1">
         <f t="array" ref="Z3">INDEX(Z5:Z7,$A$4)</f>
         <v>IE-RN</v>
       </c>
-      <c r="AA3" s="447" t="str" cm="1">
+      <c r="AA3" s="446" t="str" cm="1">
         <f t="array" ref="AA3">INDEX(AA5:AA7,$A$4)</f>
         <v>IE-SO</v>
       </c>
-      <c r="AB3" s="447" t="str" cm="1">
+      <c r="AB3" s="446" t="str" cm="1">
         <f t="array" ref="AB3">INDEX(AB5:AB7,$A$4)</f>
         <v>IE-CN</v>
       </c>
-      <c r="AC3" s="447" t="str" cm="1">
+      <c r="AC3" s="446" t="str" cm="1">
         <f t="array" ref="AC3">INDEX(AC5:AC7,$A$4)</f>
         <v>IE-DL</v>
       </c>
-      <c r="AD3" s="447" t="str" cm="1">
+      <c r="AD3" s="446" t="str" cm="1">
         <f t="array" ref="AD3">INDEX(AD5:AD7,$A$4)</f>
         <v>IE-MN</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="446">
+      <c r="A4" s="445">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="446" t="s">
+      <c r="A5" s="445" t="s">
         <v>474</v>
       </c>
-      <c r="C5" s="448" t="s">
+      <c r="C5" s="447" t="s">
         <v>475</v>
       </c>
-      <c r="D5" s="448" t="s">
+      <c r="D5" s="447" t="s">
         <v>476</v>
       </c>
-      <c r="E5" s="447" t="str">
+      <c r="E5" s="446" t="str">
         <f>A11</f>
         <v>IE-CW</v>
       </c>
-      <c r="F5" s="447" t="str">
+      <c r="F5" s="446" t="str">
         <f>A16</f>
         <v>IE-D</v>
       </c>
-      <c r="G5" s="447" t="str">
+      <c r="G5" s="446" t="str">
         <f>A19</f>
         <v>IE-KE</v>
       </c>
-      <c r="H5" s="447" t="str">
+      <c r="H5" s="446" t="str">
         <f>A20</f>
         <v>IE-KK</v>
       </c>
-      <c r="I5" s="447" t="str">
+      <c r="I5" s="446" t="str">
         <f>A21</f>
         <v>IE-LS</v>
       </c>
-      <c r="J5" s="447" t="str">
+      <c r="J5" s="446" t="str">
         <f>A24</f>
         <v>IE-LD</v>
       </c>
-      <c r="K5" s="447" t="str">
+      <c r="K5" s="446" t="str">
         <f>A25</f>
         <v>IE-LH</v>
       </c>
-      <c r="L5" s="447" t="str">
+      <c r="L5" s="446" t="str">
         <f>A27</f>
         <v>IE-MH</v>
       </c>
-      <c r="M5" s="447" t="str">
+      <c r="M5" s="446" t="str">
         <f>A29</f>
         <v>IE-OY</v>
       </c>
-      <c r="N5" s="447" t="str">
+      <c r="N5" s="446" t="str">
         <f>A34</f>
         <v>IE-WH</v>
       </c>
-      <c r="O5" s="447" t="str">
+      <c r="O5" s="446" t="str">
         <f>A35</f>
         <v>IE-WX</v>
       </c>
-      <c r="P5" s="447" t="str">
+      <c r="P5" s="446" t="str">
         <f>A36</f>
         <v>IE-WW</v>
       </c>
-      <c r="Q5" s="447" t="str">
+      <c r="Q5" s="446" t="str">
         <f>A13</f>
         <v>IE-CE</v>
       </c>
-      <c r="R5" s="447" t="str">
+      <c r="R5" s="446" t="str">
         <f>A14</f>
         <v>IE-CO</v>
       </c>
-      <c r="S5" s="447" t="str">
+      <c r="S5" s="446" t="str">
         <f>A18</f>
         <v>IE-KY</v>
       </c>
-      <c r="T5" s="447" t="str">
+      <c r="T5" s="446" t="str">
         <f>A23</f>
         <v>IE-LK</v>
       </c>
-      <c r="U5" s="447" t="str">
+      <c r="U5" s="446" t="str">
         <f>A32</f>
         <v>IE-TA</v>
       </c>
-      <c r="V5" s="447" t="str">
+      <c r="V5" s="446" t="str">
         <f>A33</f>
         <v>IE-WD</v>
       </c>
-      <c r="W5" s="447" t="str">
+      <c r="W5" s="446" t="str">
         <f>A17</f>
         <v>IE-G</v>
       </c>
-      <c r="X5" s="447" t="str">
+      <c r="X5" s="446" t="str">
         <f>A22</f>
         <v>IE-LM</v>
       </c>
-      <c r="Y5" s="447" t="str">
+      <c r="Y5" s="446" t="str">
         <f>A26</f>
         <v>IE-MO</v>
       </c>
-      <c r="Z5" s="447" t="str">
+      <c r="Z5" s="446" t="str">
         <f>A30</f>
         <v>IE-RN</v>
       </c>
-      <c r="AA5" s="447" t="str">
+      <c r="AA5" s="446" t="str">
         <f>A31</f>
         <v>IE-SO</v>
       </c>
-      <c r="AB5" s="447" t="str">
+      <c r="AB5" s="446" t="str">
         <f>A12</f>
         <v>IE-CN</v>
       </c>
-      <c r="AC5" s="447" t="str">
+      <c r="AC5" s="446" t="str">
         <f>A15</f>
         <v>IE-DL</v>
       </c>
-      <c r="AD5" s="447" t="str">
+      <c r="AD5" s="446" t="str">
         <f>A28</f>
         <v>IE-MN</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="446" t="s">
+      <c r="A6" s="445" t="s">
         <v>477</v>
       </c>
-      <c r="C6" s="447" t="str">
+      <c r="C6" s="446" t="str">
         <f>C5</f>
         <v>IE</v>
       </c>
-      <c r="D6" s="447" t="str">
+      <c r="D6" s="446" t="str">
         <f>"*"&amp;D5</f>
         <v>*National</v>
       </c>
-      <c r="E6" s="447" t="str">
+      <c r="E6" s="446" t="str">
         <f>"*"&amp;E5</f>
         <v>*IE-CW</v>
       </c>
-      <c r="F6" s="447" t="str">
+      <c r="F6" s="446" t="str">
         <f t="shared" ref="F6:AD6" si="0">"*"&amp;F5</f>
         <v>*IE-D</v>
       </c>
-      <c r="G6" s="447" t="str">
+      <c r="G6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-KE</v>
       </c>
-      <c r="H6" s="447" t="str">
+      <c r="H6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-KK</v>
       </c>
-      <c r="I6" s="447" t="str">
+      <c r="I6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LS</v>
       </c>
-      <c r="J6" s="447" t="str">
+      <c r="J6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LD</v>
       </c>
-      <c r="K6" s="447" t="str">
+      <c r="K6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LH</v>
       </c>
-      <c r="L6" s="447" t="str">
+      <c r="L6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-MH</v>
       </c>
-      <c r="M6" s="447" t="str">
+      <c r="M6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-OY</v>
       </c>
-      <c r="N6" s="447" t="str">
+      <c r="N6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WH</v>
       </c>
-      <c r="O6" s="447" t="str">
+      <c r="O6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WX</v>
       </c>
-      <c r="P6" s="447" t="str">
+      <c r="P6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WW</v>
       </c>
-      <c r="Q6" s="447" t="str">
+      <c r="Q6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-CE</v>
       </c>
-      <c r="R6" s="447" t="str">
+      <c r="R6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-CO</v>
       </c>
-      <c r="S6" s="447" t="str">
+      <c r="S6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-KY</v>
       </c>
-      <c r="T6" s="447" t="str">
+      <c r="T6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LK</v>
       </c>
-      <c r="U6" s="447" t="str">
+      <c r="U6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-TA</v>
       </c>
-      <c r="V6" s="447" t="str">
+      <c r="V6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WD</v>
       </c>
-      <c r="W6" s="447" t="str">
+      <c r="W6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-G</v>
       </c>
-      <c r="X6" s="447" t="str">
+      <c r="X6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LM</v>
       </c>
-      <c r="Y6" s="447" t="str">
+      <c r="Y6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-MO</v>
       </c>
-      <c r="Z6" s="447" t="str">
+      <c r="Z6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-RN</v>
       </c>
-      <c r="AA6" s="447" t="str">
+      <c r="AA6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-SO</v>
       </c>
-      <c r="AB6" s="447" t="str">
+      <c r="AB6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-CN</v>
       </c>
-      <c r="AC6" s="447" t="str">
+      <c r="AC6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-DL</v>
       </c>
-      <c r="AD6" s="447" t="str">
+      <c r="AD6" s="446" t="str">
         <f t="shared" si="0"/>
         <v>*IE-MN</v>
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="446" t="s">
+      <c r="A7" s="445" t="s">
         <v>478</v>
       </c>
-      <c r="C7" s="447" t="str">
+      <c r="C7" s="446" t="str">
         <f>"*"&amp;C5</f>
         <v>*IE</v>
       </c>
-      <c r="D7" s="447" t="str">
+      <c r="D7" s="446" t="str">
         <f>D5</f>
         <v>National</v>
       </c>
-      <c r="E7" s="447" t="str">
+      <c r="E7" s="446" t="str">
         <f t="shared" ref="E7:AD7" si="1">E5</f>
         <v>IE-CW</v>
       </c>
-      <c r="F7" s="447" t="str">
+      <c r="F7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-D</v>
       </c>
-      <c r="G7" s="447" t="str">
+      <c r="G7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-KE</v>
       </c>
-      <c r="H7" s="447" t="str">
+      <c r="H7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-KK</v>
       </c>
-      <c r="I7" s="447" t="str">
+      <c r="I7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-LS</v>
       </c>
-      <c r="J7" s="447" t="str">
+      <c r="J7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-LD</v>
       </c>
-      <c r="K7" s="447" t="str">
+      <c r="K7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-LH</v>
       </c>
-      <c r="L7" s="447" t="str">
+      <c r="L7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-MH</v>
       </c>
-      <c r="M7" s="447" t="str">
+      <c r="M7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-OY</v>
       </c>
-      <c r="N7" s="447" t="str">
+      <c r="N7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-WH</v>
       </c>
-      <c r="O7" s="447" t="str">
+      <c r="O7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-WX</v>
       </c>
-      <c r="P7" s="447" t="str">
+      <c r="P7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-WW</v>
       </c>
-      <c r="Q7" s="447" t="str">
+      <c r="Q7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-CE</v>
       </c>
-      <c r="R7" s="447" t="str">
+      <c r="R7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-CO</v>
       </c>
-      <c r="S7" s="447" t="str">
+      <c r="S7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-KY</v>
       </c>
-      <c r="T7" s="447" t="str">
+      <c r="T7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-LK</v>
       </c>
-      <c r="U7" s="447" t="str">
+      <c r="U7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-TA</v>
       </c>
-      <c r="V7" s="447" t="str">
+      <c r="V7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-WD</v>
       </c>
-      <c r="W7" s="447" t="str">
+      <c r="W7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-G</v>
       </c>
-      <c r="X7" s="447" t="str">
+      <c r="X7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-LM</v>
       </c>
-      <c r="Y7" s="447" t="str">
+      <c r="Y7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-MO</v>
       </c>
-      <c r="Z7" s="447" t="str">
+      <c r="Z7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-RN</v>
       </c>
-      <c r="AA7" s="447" t="str">
+      <c r="AA7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-SO</v>
       </c>
-      <c r="AB7" s="447" t="str">
+      <c r="AB7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-CN</v>
       </c>
-      <c r="AC7" s="447" t="str">
+      <c r="AC7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-DL</v>
       </c>
-      <c r="AD7" s="447" t="str">
+      <c r="AD7" s="446" t="str">
         <f t="shared" si="1"/>
         <v>IE-MN</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15.75" thickBot="1">
-      <c r="A10" s="449" t="s">
+      <c r="A10" s="448" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="449" t="s">
+      <c r="B10" s="448" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="450" t="s">
+      <c r="A11" s="449" t="s">
         <v>480</v>
       </c>
-      <c r="B11" s="450" t="s">
+      <c r="B11" s="449" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="451" t="s">
+      <c r="A12" s="450" t="s">
         <v>482</v>
       </c>
-      <c r="B12" s="451" t="s">
+      <c r="B12" s="450" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="451" t="s">
+      <c r="A13" s="450" t="s">
         <v>484</v>
       </c>
-      <c r="B13" s="451" t="s">
+      <c r="B13" s="450" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="451" t="s">
+      <c r="A14" s="450" t="s">
         <v>486</v>
       </c>
-      <c r="B14" s="451" t="s">
+      <c r="B14" s="450" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="451" t="s">
+      <c r="A15" s="450" t="s">
         <v>488</v>
       </c>
-      <c r="B15" s="451" t="s">
+      <c r="B15" s="450" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="451" t="s">
+      <c r="A16" s="450" t="s">
         <v>490</v>
       </c>
-      <c r="B16" s="451" t="s">
+      <c r="B16" s="450" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="451" t="s">
+      <c r="A17" s="450" t="s">
         <v>492</v>
       </c>
-      <c r="B17" s="451" t="s">
+      <c r="B17" s="450" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="451" t="s">
+      <c r="A18" s="450" t="s">
         <v>494</v>
       </c>
-      <c r="B18" s="451" t="s">
+      <c r="B18" s="450" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="451" t="s">
+      <c r="A19" s="450" t="s">
         <v>496</v>
       </c>
-      <c r="B19" s="451" t="s">
+      <c r="B19" s="450" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="451" t="s">
+      <c r="A20" s="450" t="s">
         <v>498</v>
       </c>
-      <c r="B20" s="451" t="s">
+      <c r="B20" s="450" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="451" t="s">
+      <c r="A21" s="450" t="s">
         <v>500</v>
       </c>
-      <c r="B21" s="451" t="s">
+      <c r="B21" s="450" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="451" t="s">
+      <c r="A22" s="450" t="s">
         <v>502</v>
       </c>
-      <c r="B22" s="451" t="s">
+      <c r="B22" s="450" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="451" t="s">
+      <c r="A23" s="450" t="s">
         <v>504</v>
       </c>
-      <c r="B23" s="451" t="s">
+      <c r="B23" s="450" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="451" t="s">
+      <c r="A24" s="450" t="s">
         <v>506</v>
       </c>
-      <c r="B24" s="451" t="s">
+      <c r="B24" s="450" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="451" t="s">
+      <c r="A25" s="450" t="s">
         <v>508</v>
       </c>
-      <c r="B25" s="451" t="s">
+      <c r="B25" s="450" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="451" t="s">
+      <c r="A26" s="450" t="s">
         <v>510</v>
       </c>
-      <c r="B26" s="451" t="s">
+      <c r="B26" s="450" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="451" t="s">
+      <c r="A27" s="450" t="s">
         <v>512</v>
       </c>
-      <c r="B27" s="451" t="s">
+      <c r="B27" s="450" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="451" t="s">
+      <c r="A28" s="450" t="s">
         <v>514</v>
       </c>
-      <c r="B28" s="451" t="s">
+      <c r="B28" s="450" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="451" t="s">
+      <c r="A29" s="450" t="s">
         <v>516</v>
       </c>
-      <c r="B29" s="451" t="s">
+      <c r="B29" s="450" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="451" t="s">
+      <c r="A30" s="450" t="s">
         <v>518</v>
       </c>
-      <c r="B30" s="451" t="s">
+      <c r="B30" s="450" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="451" t="s">
+      <c r="A31" s="450" t="s">
         <v>520</v>
       </c>
-      <c r="B31" s="451" t="s">
+      <c r="B31" s="450" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="451" t="s">
+      <c r="A32" s="450" t="s">
         <v>522</v>
       </c>
-      <c r="B32" s="451" t="s">
+      <c r="B32" s="450" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="451" t="s">
+      <c r="A33" s="450" t="s">
         <v>524</v>
       </c>
-      <c r="B33" s="451" t="s">
+      <c r="B33" s="450" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="451" t="s">
+      <c r="A34" s="450" t="s">
         <v>526</v>
       </c>
-      <c r="B34" s="451" t="s">
+      <c r="B34" s="450" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="451" t="s">
+      <c r="A35" s="450" t="s">
         <v>528</v>
       </c>
-      <c r="B35" s="451" t="s">
+      <c r="B35" s="450" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="451" t="s">
+      <c r="A36" s="450" t="s">
         <v>530</v>
       </c>
-      <c r="B36" s="451" t="s">
+      <c r="B36" s="450" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="452" t="s">
+      <c r="A37" s="451" t="s">
         <v>532</v>
       </c>
     </row>
@@ -7935,7 +7932,7 @@
       <c r="F5" s="128">
         <v>10</v>
       </c>
-      <c r="G5" s="504" t="s">
+      <c r="G5" s="503" t="s">
         <v>150</v>
       </c>
       <c r="R5" s="220"/>
@@ -7960,7 +7957,7 @@
       <c r="F6" s="128">
         <v>10</v>
       </c>
-      <c r="G6" s="505"/>
+      <c r="G6" s="504"/>
       <c r="R6" s="220"/>
     </row>
     <row r="7" spans="2:18" ht="15">
@@ -7983,7 +7980,7 @@
       <c r="F7" s="128">
         <v>10</v>
       </c>
-      <c r="G7" s="505"/>
+      <c r="G7" s="504"/>
       <c r="R7" s="220"/>
     </row>
     <row r="8" spans="2:18" ht="15">
@@ -8006,7 +8003,7 @@
       <c r="F8" s="128">
         <v>10</v>
       </c>
-      <c r="G8" s="505"/>
+      <c r="G8" s="504"/>
       <c r="R8" s="220"/>
     </row>
     <row r="9" spans="2:18" ht="15">
@@ -8029,7 +8026,7 @@
       <c r="F9" s="128">
         <v>10</v>
       </c>
-      <c r="G9" s="505"/>
+      <c r="G9" s="504"/>
       <c r="R9" s="220"/>
     </row>
     <row r="10" spans="2:18" ht="15">
@@ -8052,20 +8049,20 @@
       <c r="F10" s="128">
         <v>10</v>
       </c>
-      <c r="G10" s="505"/>
+      <c r="G10" s="504"/>
       <c r="R10" s="220"/>
     </row>
     <row r="11" spans="2:18" ht="15">
       <c r="B11" s="33" t="str">
-        <f>Processes!C73</f>
+        <f>Processes!C72</f>
         <v>IE,National</v>
       </c>
       <c r="C11" s="33" t="str">
-        <f>Processes!D73</f>
+        <f>Processes!D72</f>
         <v>MINBIOCATW_S1</v>
       </c>
       <c r="D11" s="34" t="str">
-        <f>Processes!E73</f>
+        <f>Processes!E72</f>
         <v>Domestic Potential of Cattle Waste  - Step 1</v>
       </c>
       <c r="E11" s="34" t="str">
@@ -8075,20 +8072,20 @@
       <c r="F11" s="128">
         <v>10</v>
       </c>
-      <c r="G11" s="505"/>
+      <c r="G11" s="504"/>
       <c r="R11" s="220"/>
     </row>
     <row r="12" spans="2:18" ht="15">
       <c r="B12" s="33" t="str">
-        <f>Processes!C76</f>
+        <f>Processes!C75</f>
         <v>IE,National</v>
       </c>
       <c r="C12" s="33" t="str">
-        <f>Processes!D76</f>
+        <f>Processes!D75</f>
         <v>MINBIOPIGW_S1</v>
       </c>
       <c r="D12" s="34" t="str">
-        <f>Processes!E76</f>
+        <f>Processes!E75</f>
         <v>Domestic Potential of Pig Waste  - Step 1</v>
       </c>
       <c r="E12" s="34" t="str">
@@ -8098,7 +8095,7 @@
       <c r="F12" s="128">
         <v>10</v>
       </c>
-      <c r="G12" s="505"/>
+      <c r="G12" s="504"/>
       <c r="R12" s="220"/>
     </row>
     <row r="13" spans="2:18" ht="15">
@@ -8121,20 +8118,20 @@
       <c r="F13" s="128">
         <v>10</v>
       </c>
-      <c r="G13" s="505"/>
+      <c r="G13" s="504"/>
       <c r="R13" s="220"/>
     </row>
     <row r="14" spans="2:18" ht="15">
       <c r="B14" s="71" t="str">
-        <f>Processes!C79</f>
+        <f>Processes!C78</f>
         <v>IE,National</v>
       </c>
       <c r="C14" s="71" t="str">
-        <f>Processes!D79</f>
+        <f>Processes!D78</f>
         <v>MINBIOINDF_S1</v>
       </c>
       <c r="D14" s="65" t="str">
-        <f>Processes!E79</f>
+        <f>Processes!E78</f>
         <v>Domestic Potential of Industrial Food Waste  - Step 1</v>
       </c>
       <c r="E14" s="65" t="str">
@@ -8144,7 +8141,7 @@
       <c r="F14" s="77">
         <v>10</v>
       </c>
-      <c r="G14" s="505"/>
+      <c r="G14" s="504"/>
       <c r="R14" s="220"/>
     </row>
     <row r="15" spans="2:18" ht="15">
@@ -8167,7 +8164,7 @@
       <c r="F15" s="128">
         <v>10</v>
       </c>
-      <c r="G15" s="505"/>
+      <c r="G15" s="504"/>
       <c r="R15" s="220"/>
     </row>
     <row r="16" spans="2:18" ht="15">
@@ -8190,7 +8187,7 @@
       <c r="F16" s="128">
         <v>10</v>
       </c>
-      <c r="G16" s="505"/>
+      <c r="G16" s="504"/>
       <c r="R16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15">
@@ -8213,7 +8210,7 @@
       <c r="F17" s="128">
         <v>10</v>
       </c>
-      <c r="G17" s="505"/>
+      <c r="G17" s="504"/>
       <c r="R17" s="220"/>
     </row>
     <row r="18" spans="2:18" ht="15">
@@ -8236,7 +8233,7 @@
       <c r="F18" s="128">
         <v>10</v>
       </c>
-      <c r="G18" s="505"/>
+      <c r="G18" s="504"/>
       <c r="R18" s="220"/>
     </row>
     <row r="19" spans="2:18" ht="15">
@@ -8259,7 +8256,7 @@
       <c r="F19" s="128">
         <v>10</v>
       </c>
-      <c r="G19" s="505"/>
+      <c r="G19" s="504"/>
       <c r="R19" s="220"/>
     </row>
     <row r="20" spans="2:18" ht="15">
@@ -8282,20 +8279,20 @@
       <c r="F20" s="128">
         <v>10</v>
       </c>
-      <c r="G20" s="505"/>
+      <c r="G20" s="504"/>
       <c r="R20" s="220"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="33" t="str">
-        <f>Processes!C74</f>
+        <f>Processes!C73</f>
         <v>IE,National</v>
       </c>
       <c r="C21" s="33" t="str">
-        <f>Processes!D74</f>
+        <f>Processes!D73</f>
         <v>MINBIOCATW_S2</v>
       </c>
       <c r="D21" s="34" t="str">
-        <f>Processes!E74</f>
+        <f>Processes!E73</f>
         <v>Domestic Potential of Cattle Waste  - Step 2</v>
       </c>
       <c r="E21" s="34" t="str">
@@ -8305,19 +8302,19 @@
       <c r="F21" s="128">
         <v>10</v>
       </c>
-      <c r="G21" s="505"/>
+      <c r="G21" s="504"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="33" t="str">
-        <f>Processes!C77</f>
+        <f>Processes!C76</f>
         <v>IE,National</v>
       </c>
       <c r="C22" s="33" t="str">
-        <f>Processes!D77</f>
+        <f>Processes!D76</f>
         <v>MINBIOPIGW_S2</v>
       </c>
       <c r="D22" s="34" t="str">
-        <f>Processes!E77</f>
+        <f>Processes!E76</f>
         <v>Domestic Potential of Pig Waste  - Step 2</v>
       </c>
       <c r="E22" s="34" t="str">
@@ -8327,7 +8324,7 @@
       <c r="F22" s="128">
         <v>10</v>
       </c>
-      <c r="G22" s="505"/>
+      <c r="G22" s="504"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="33" t="str">
@@ -8349,19 +8346,19 @@
       <c r="F23" s="128">
         <v>10</v>
       </c>
-      <c r="G23" s="505"/>
+      <c r="G23" s="504"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="71" t="str">
-        <f>Processes!C80</f>
+        <f>Processes!C79</f>
         <v>IE,National</v>
       </c>
       <c r="C24" s="71" t="str">
-        <f>Processes!D80</f>
+        <f>Processes!D79</f>
         <v>MINBIOINDF_S2</v>
       </c>
       <c r="D24" s="65" t="str">
-        <f>Processes!E80</f>
+        <f>Processes!E79</f>
         <v>Domestic Potential of Industrial Food Waste  - Step 2</v>
       </c>
       <c r="E24" s="65" t="str">
@@ -8371,7 +8368,7 @@
       <c r="F24" s="77">
         <v>10</v>
       </c>
-      <c r="G24" s="505"/>
+      <c r="G24" s="504"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="33" t="str">
@@ -8393,7 +8390,7 @@
       <c r="F25" s="128">
         <v>10</v>
       </c>
-      <c r="G25" s="505"/>
+      <c r="G25" s="504"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="33" t="str">
@@ -8415,7 +8412,7 @@
       <c r="F26" s="128">
         <v>10</v>
       </c>
-      <c r="G26" s="505"/>
+      <c r="G26" s="504"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="33" t="str">
@@ -8437,7 +8434,7 @@
       <c r="F27" s="128">
         <v>10</v>
       </c>
-      <c r="G27" s="505"/>
+      <c r="G27" s="504"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="33" t="str">
@@ -8459,7 +8456,7 @@
       <c r="F28" s="128">
         <v>10</v>
       </c>
-      <c r="G28" s="505"/>
+      <c r="G28" s="504"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="33" t="str">
@@ -8481,7 +8478,7 @@
       <c r="F29" s="128">
         <v>10</v>
       </c>
-      <c r="G29" s="505"/>
+      <c r="G29" s="504"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="33" t="str">
@@ -8503,19 +8500,19 @@
       <c r="F30" s="128">
         <v>10</v>
       </c>
-      <c r="G30" s="505"/>
+      <c r="G30" s="504"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="33" t="str">
-        <f>Processes!C75</f>
+        <f>Processes!C74</f>
         <v>IE,National</v>
       </c>
       <c r="C31" s="33" t="str">
-        <f>Processes!D75</f>
+        <f>Processes!D74</f>
         <v>MINBIOCATW_S3</v>
       </c>
       <c r="D31" s="34" t="str">
-        <f>Processes!E75</f>
+        <f>Processes!E74</f>
         <v>Domestic Potential of Cattle Waste  - Step 3</v>
       </c>
       <c r="E31" s="34" t="str">
@@ -8525,19 +8522,19 @@
       <c r="F31" s="128">
         <v>10</v>
       </c>
-      <c r="G31" s="505"/>
+      <c r="G31" s="504"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="33" t="str">
-        <f>Processes!C78</f>
+        <f>Processes!C77</f>
         <v>IE,National</v>
       </c>
       <c r="C32" s="33" t="str">
-        <f>Processes!D78</f>
+        <f>Processes!D77</f>
         <v>MINBIOPIGW_S3</v>
       </c>
       <c r="D32" s="34" t="str">
-        <f>Processes!E78</f>
+        <f>Processes!E77</f>
         <v>Domestic Potential of Pig Waste  - Step 3</v>
       </c>
       <c r="E32" s="34" t="str">
@@ -8547,7 +8544,7 @@
       <c r="F32" s="128">
         <v>10</v>
       </c>
-      <c r="G32" s="505"/>
+      <c r="G32" s="504"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="33" t="str">
@@ -8569,19 +8566,19 @@
       <c r="F33" s="128">
         <v>10</v>
       </c>
-      <c r="G33" s="505"/>
+      <c r="G33" s="504"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="71" t="str">
-        <f>Processes!C81</f>
+        <f>Processes!C80</f>
         <v>IE,National</v>
       </c>
       <c r="C34" s="71" t="str">
-        <f>Processes!D81</f>
+        <f>Processes!D80</f>
         <v>MINBIOINDF_S3</v>
       </c>
       <c r="D34" s="65" t="str">
-        <f>Processes!E81</f>
+        <f>Processes!E80</f>
         <v>Domestic Potential of Industrial Food Waste  - Step 3</v>
       </c>
       <c r="E34" s="65" t="str">
@@ -8591,7 +8588,7 @@
       <c r="F34" s="77">
         <v>10</v>
       </c>
-      <c r="G34" s="506"/>
+      <c r="G34" s="505"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="33"/>
@@ -8808,15 +8805,15 @@
     </row>
     <row r="5" spans="2:26">
       <c r="B5" s="159" t="str">
-        <f>Processes!C87</f>
+        <f>Processes!C86</f>
         <v>IE,National</v>
       </c>
       <c r="C5" s="159" t="str">
-        <f>Processes!D87</f>
+        <f>Processes!D86</f>
         <v>SREFOILCRD_Whitegate</v>
       </c>
       <c r="D5" s="159" t="str">
-        <f>Processes!E87</f>
+        <f>Processes!E86</f>
         <v>Refinery of Crude Oil  - Whitegate</v>
       </c>
       <c r="E5" s="160" t="str">
@@ -8862,7 +8859,7 @@
         <f>Commodities!C12</f>
         <v>OILRFG</v>
       </c>
-      <c r="G6" s="445">
+      <c r="G6" s="444">
         <f>ROUNDUP(E24*$D$22,4)</f>
         <v>0</v>
       </c>
@@ -8894,7 +8891,7 @@
       <c r="F7" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="445">
+      <c r="G7" s="444">
         <f t="shared" ref="G7:G17" si="0">ROUNDUP(E25*$D$22,4)</f>
         <v>0.2084</v>
       </c>
@@ -8929,7 +8926,7 @@
         <f>Commodities!C13</f>
         <v>OILKER</v>
       </c>
-      <c r="G8" s="445">
+      <c r="G8" s="444">
         <f t="shared" si="0"/>
         <v>7.3800000000000004E-2</v>
       </c>
@@ -8965,7 +8962,7 @@
       <c r="F9" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="G9" s="445">
+      <c r="G9" s="444">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8995,7 +8992,7 @@
         <f>Commodities!C14</f>
         <v>OILHFO</v>
       </c>
-      <c r="G10" s="445">
+      <c r="G10" s="444">
         <f t="shared" si="0"/>
         <v>0.31269999999999998</v>
       </c>
@@ -9030,7 +9027,7 @@
         <f>Commodities!C16</f>
         <v>OILLPG</v>
       </c>
-      <c r="G11" s="445">
+      <c r="G11" s="444">
         <f t="shared" si="0"/>
         <v>2.1100000000000001E-2</v>
       </c>
@@ -9062,7 +9059,7 @@
         <f>Commodities!C15</f>
         <v>OILDST</v>
       </c>
-      <c r="G12" s="445">
+      <c r="G12" s="444">
         <f t="shared" si="0"/>
         <v>0.37219999999999998</v>
       </c>
@@ -9097,7 +9094,7 @@
         <f>Commodities!C18</f>
         <v>OILCOK</v>
       </c>
-      <c r="G13" s="445">
+      <c r="G13" s="444">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9127,7 +9124,7 @@
         <f>Commodities!C19</f>
         <v>OILNAP</v>
       </c>
-      <c r="G14" s="445">
+      <c r="G14" s="444">
         <f t="shared" si="0"/>
         <v>1.2E-2</v>
       </c>
@@ -9160,7 +9157,7 @@
       <c r="F15" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="G15" s="445">
+      <c r="G15" s="444">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9191,7 +9188,7 @@
       <c r="F16" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="G16" s="445">
+      <c r="G16" s="444">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9225,7 +9222,7 @@
       <c r="F17" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="445">
+      <c r="G17" s="444">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9264,7 +9261,7 @@
       <c r="C22" s="184" t="s">
         <v>473</v>
       </c>
-      <c r="D22" s="443">
+      <c r="D22" s="442">
         <f>1/SUM(E24:E35)</f>
         <v>0.99828981063720079</v>
       </c>
@@ -9278,7 +9275,7 @@
         <f>('EB2018'!O$20-'EB2018'!O$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
         <v>-1.7131191208968866E-3</v>
       </c>
-      <c r="E24" s="444">
+      <c r="E24" s="443">
         <f>IF(D24&lt;0,0,D24)</f>
         <v>0</v>
       </c>
@@ -9291,7 +9288,7 @@
         <f>('EB2018'!P$20-'EB2018'!P$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
         <v>0.20874581836826736</v>
       </c>
-      <c r="E25" s="444">
+      <c r="E25" s="443">
         <f t="shared" ref="E25:E35" si="1">IF(D25&lt;0,0,D25)</f>
         <v>0.20874581836826736</v>
       </c>
@@ -9305,7 +9302,7 @@
         <f>('EB2018'!Q$20-'EB2018'!Q$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
         <v>7.3904025265425846E-2</v>
       </c>
-      <c r="E26" s="444">
+      <c r="E26" s="443">
         <f t="shared" si="1"/>
         <v>7.3904025265425846E-2</v>
       </c>
@@ -9318,7 +9315,7 @@
         <f>('EB2018'!R$20-'EB2018'!R$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
         <v>0</v>
       </c>
-      <c r="E27" s="444">
+      <c r="E27" s="443">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9332,7 +9329,7 @@
         <f>('EB2018'!S$20-'EB2018'!S$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
         <v>0.31316597681323771</v>
       </c>
-      <c r="E28" s="444">
+      <c r="E28" s="443">
         <f t="shared" si="1"/>
         <v>0.31316597681323771</v>
       </c>
@@ -9346,7 +9343,7 @@
         <f>('EB2018'!T$20-'EB2018'!T$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
         <v>2.1115616096741348E-2</v>
       </c>
-      <c r="E29" s="444">
+      <c r="E29" s="443">
         <f t="shared" si="1"/>
         <v>2.1115616096741348E-2</v>
       </c>
@@ -9360,7 +9357,7 @@
         <f>('EB2018'!U$20-'EB2018'!U$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
         <v>0.37280233462444617</v>
       </c>
-      <c r="E30" s="444">
+      <c r="E30" s="443">
         <f t="shared" si="1"/>
         <v>0.37280233462444617</v>
       </c>
@@ -9374,7 +9371,7 @@
         <f>('EB2018'!V$20-'EB2018'!V$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
         <v>0</v>
       </c>
-      <c r="E31" s="444">
+      <c r="E31" s="443">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9388,7 +9385,7 @@
         <f>('EB2018'!W$20-'EB2018'!W$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
         <v>1.1979347952778552E-2</v>
       </c>
-      <c r="E32" s="444">
+      <c r="E32" s="443">
         <f t="shared" si="1"/>
         <v>1.1979347952778552E-2</v>
       </c>
@@ -9401,7 +9398,7 @@
         <f>('EB2018'!X$20-'EB2018'!X$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
         <v>0</v>
       </c>
-      <c r="E33" s="444">
+      <c r="E33" s="443">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9414,7 +9411,7 @@
         <f>('EB2018'!Y$20-'EB2018'!Y$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
         <v>0</v>
       </c>
-      <c r="E34" s="444">
+      <c r="E34" s="443">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9427,7 +9424,7 @@
         <f>('EB2018'!Z$20-'EB2018'!Z$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
         <v>0</v>
       </c>
-      <c r="E35" s="444">
+      <c r="E35" s="443">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9564,15 +9561,15 @@
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="219" t="str">
-        <f>Processes!C85</f>
+        <f>Processes!C84</f>
         <v>IE,National</v>
       </c>
       <c r="C5" s="37" t="str">
-        <f>Processes!D85</f>
+        <f>Processes!D84</f>
         <v>IMPELC_UK</v>
       </c>
       <c r="D5" s="37" t="str">
-        <f>Processes!E85</f>
+        <f>Processes!E84</f>
         <v>Import of Electricity - UK</v>
       </c>
       <c r="F5" s="37" t="str">
@@ -9617,15 +9614,15 @@
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="44" t="str">
-        <f>Processes!C86</f>
+        <f>Processes!C85</f>
         <v>IE,National</v>
       </c>
       <c r="C6" s="44" t="str">
-        <f>Processes!D86</f>
+        <f>Processes!D85</f>
         <v>EXPELC_UK</v>
       </c>
       <c r="D6" s="44" t="str">
-        <f>Processes!E86</f>
+        <f>Processes!E85</f>
         <v>Export of Electricity - UK</v>
       </c>
       <c r="E6" s="44" t="str">
@@ -9677,20 +9674,20 @@
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
-      <c r="G7" s="503" t="s">
+      <c r="G7" s="502" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="503"/>
-      <c r="I7" s="503"/>
-      <c r="J7" s="503"/>
-      <c r="K7" s="503"/>
+      <c r="H7" s="502"/>
+      <c r="I7" s="502"/>
+      <c r="J7" s="502"/>
+      <c r="K7" s="502"/>
       <c r="L7" s="274" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="503" t="s">
+      <c r="M7" s="502" t="s">
         <v>236</v>
       </c>
-      <c r="N7" s="503"/>
+      <c r="N7" s="502"/>
       <c r="O7" s="52"/>
     </row>
     <row r="9" spans="2:20">
@@ -10468,10 +10465,10 @@
       <c r="J1" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="507" t="s">
+      <c r="P1" s="506" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="507"/>
+      <c r="Q1" s="506"/>
     </row>
     <row r="2" spans="1:22">
       <c r="H2" s="88"/>
@@ -13600,7 +13597,7 @@
       <c r="D4" s="180" t="s">
         <v>555</v>
       </c>
-      <c r="E4" s="476"/>
+      <c r="E4" s="475"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="180" t="s">
@@ -13711,2576 +13708,2576 @@
     <col min="44" max="16384" width="9.140625" style="188"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="87.75" thickBot="1">
-      <c r="A1" s="294" t="s">
+    <row r="1" spans="1:43" ht="87" thickBot="1">
+      <c r="A1" s="293" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="293" t="s">
+      <c r="B1" s="292" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="295" t="s">
+      <c r="C1" s="294" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="298" t="s">
+      <c r="D1" s="297" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="291" t="s">
+      <c r="E1" s="290" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="290" t="s">
+      <c r="F1" s="289" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="290" t="s">
+      <c r="G1" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="292" t="s">
+      <c r="H1" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="298" t="s">
+      <c r="I1" s="297" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="291" t="s">
+      <c r="J1" s="290" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="291" t="s">
+      <c r="K1" s="290" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="292" t="s">
+      <c r="L1" s="291" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="298" t="s">
+      <c r="M1" s="297" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="439" t="s">
+      <c r="N1" s="438" t="s">
         <v>463</v>
       </c>
-      <c r="O1" s="291" t="s">
+      <c r="O1" s="290" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="291" t="s">
+      <c r="P1" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="291" t="s">
+      <c r="Q1" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="R1" s="291" t="s">
+      <c r="R1" s="290" t="s">
         <v>182</v>
       </c>
-      <c r="S1" s="291" t="s">
+      <c r="S1" s="290" t="s">
         <v>183</v>
       </c>
-      <c r="T1" s="291" t="s">
+      <c r="T1" s="290" t="s">
         <v>184</v>
       </c>
-      <c r="U1" s="291" t="s">
+      <c r="U1" s="290" t="s">
         <v>185</v>
       </c>
-      <c r="V1" s="291" t="s">
+      <c r="V1" s="290" t="s">
         <v>186</v>
       </c>
-      <c r="W1" s="290" t="s">
+      <c r="W1" s="289" t="s">
         <v>187</v>
       </c>
-      <c r="X1" s="290" t="s">
+      <c r="X1" s="289" t="s">
         <v>188</v>
       </c>
-      <c r="Y1" s="290" t="s">
+      <c r="Y1" s="289" t="s">
         <v>189</v>
       </c>
-      <c r="Z1" s="291" t="s">
+      <c r="Z1" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="AA1" s="292" t="s">
+      <c r="AA1" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="AB1" s="318" t="s">
+      <c r="AB1" s="317" t="s">
         <v>192</v>
       </c>
-      <c r="AC1" s="319" t="s">
+      <c r="AC1" s="318" t="s">
         <v>193</v>
       </c>
-      <c r="AD1" s="291" t="s">
+      <c r="AD1" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="AE1" s="440" t="s">
+      <c r="AE1" s="439" t="s">
         <v>464</v>
       </c>
-      <c r="AF1" s="437" t="s">
+      <c r="AF1" s="436" t="s">
         <v>465</v>
       </c>
-      <c r="AG1" s="291" t="s">
+      <c r="AG1" s="290" t="s">
         <v>195</v>
       </c>
-      <c r="AH1" s="291" t="s">
+      <c r="AH1" s="290" t="s">
         <v>196</v>
       </c>
-      <c r="AI1" s="440" t="s">
+      <c r="AI1" s="439" t="s">
         <v>466</v>
       </c>
-      <c r="AJ1" s="437" t="s">
+      <c r="AJ1" s="436" t="s">
         <v>467</v>
       </c>
-      <c r="AK1" s="440" t="s">
+      <c r="AK1" s="439" t="s">
         <v>468</v>
       </c>
-      <c r="AL1" s="437" t="s">
+      <c r="AL1" s="436" t="s">
         <v>469</v>
       </c>
-      <c r="AM1" s="438" t="s">
+      <c r="AM1" s="437" t="s">
         <v>470</v>
       </c>
-      <c r="AN1" s="292" t="s">
+      <c r="AN1" s="291" t="s">
         <v>197</v>
       </c>
-      <c r="AO1" s="292" t="s">
+      <c r="AO1" s="291" t="s">
         <v>198</v>
       </c>
-      <c r="AP1" s="318" t="s">
+      <c r="AP1" s="317" t="s">
         <v>199</v>
       </c>
-      <c r="AQ1" s="320" t="s">
+      <c r="AQ1" s="319" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="320" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="323">
+      <c r="B2" s="321"/>
+      <c r="C2" s="322">
         <f>SUM(D2:G2)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="299">
+      <c r="D2" s="298">
         <v>0</v>
       </c>
-      <c r="E2" s="324"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="325"/>
-      <c r="H2" s="326">
+      <c r="E2" s="323"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="325">
         <f>SUM(I2:K2)</f>
         <v>815.92434898628403</v>
       </c>
-      <c r="I2" s="327">
+      <c r="I2" s="326">
         <v>688.22034898628408</v>
       </c>
-      <c r="J2" s="328">
+      <c r="J2" s="327">
         <v>127.70399999999999</v>
       </c>
-      <c r="K2" s="328"/>
-      <c r="L2" s="326">
+      <c r="K2" s="327"/>
+      <c r="L2" s="325">
         <f>SUM(M2:Z2)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="327"/>
-      <c r="N2" s="329"/>
-      <c r="O2" s="330"/>
-      <c r="P2" s="330"/>
-      <c r="Q2" s="330"/>
-      <c r="R2" s="330"/>
-      <c r="S2" s="330"/>
-      <c r="T2" s="330"/>
-      <c r="U2" s="330"/>
-      <c r="V2" s="330"/>
-      <c r="W2" s="325"/>
-      <c r="X2" s="325"/>
-      <c r="Y2" s="325"/>
-      <c r="Z2" s="328"/>
-      <c r="AA2" s="326">
+      <c r="M2" s="326"/>
+      <c r="N2" s="328"/>
+      <c r="O2" s="329"/>
+      <c r="P2" s="329"/>
+      <c r="Q2" s="329"/>
+      <c r="R2" s="329"/>
+      <c r="S2" s="329"/>
+      <c r="T2" s="329"/>
+      <c r="U2" s="329"/>
+      <c r="V2" s="329"/>
+      <c r="W2" s="324"/>
+      <c r="X2" s="324"/>
+      <c r="Y2" s="324"/>
+      <c r="Z2" s="327"/>
+      <c r="AA2" s="325">
         <v>2751.9191872187112</v>
       </c>
-      <c r="AB2" s="331">
+      <c r="AB2" s="330">
         <f>SUM(AC2:AM2)</f>
         <v>1331.2863828445347</v>
       </c>
-      <c r="AC2" s="332">
+      <c r="AC2" s="331">
         <v>59.691708987970003</v>
       </c>
-      <c r="AD2" s="328">
+      <c r="AD2" s="327">
         <v>743.01992281532614</v>
       </c>
-      <c r="AE2" s="328">
+      <c r="AE2" s="327">
         <v>249.68174480509879</v>
       </c>
-      <c r="AF2" s="328">
+      <c r="AF2" s="327">
         <v>139.99992739520798</v>
       </c>
-      <c r="AG2" s="328">
+      <c r="AG2" s="327">
         <v>33.531818868055431</v>
       </c>
-      <c r="AH2" s="328">
+      <c r="AH2" s="327">
         <v>16.813132576534866</v>
       </c>
-      <c r="AI2" s="328">
+      <c r="AI2" s="327">
         <v>27.095124147648001</v>
       </c>
-      <c r="AJ2" s="328">
+      <c r="AJ2" s="327">
         <v>2.6691993220799999</v>
       </c>
-      <c r="AK2" s="327">
+      <c r="AK2" s="326">
         <v>1.4323955643044282</v>
       </c>
-      <c r="AL2" s="327">
+      <c r="AL2" s="326">
         <v>13.54608560366562</v>
       </c>
-      <c r="AM2" s="325">
+      <c r="AM2" s="324">
         <v>43.805322758643676</v>
       </c>
-      <c r="AN2" s="333">
+      <c r="AN2" s="332">
         <v>145.43710297949829</v>
       </c>
-      <c r="AO2" s="333"/>
-      <c r="AP2" s="331"/>
-      <c r="AQ2" s="334">
+      <c r="AO2" s="332"/>
+      <c r="AP2" s="330"/>
+      <c r="AQ2" s="333">
         <f>C2+H2+L2+AA2+AB2+AN2+AO2+AP2</f>
         <v>5044.5670220290285</v>
       </c>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="334" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="336"/>
-      <c r="C3" s="337">
+      <c r="B3" s="335"/>
+      <c r="C3" s="336">
         <f>SUM(D3:G3)</f>
         <v>935.78934491090115</v>
       </c>
-      <c r="D3" s="300">
+      <c r="D3" s="299">
         <v>802.24865041659757</v>
       </c>
-      <c r="E3" s="338">
+      <c r="E3" s="337">
         <v>125.38500136039437</v>
       </c>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339">
+      <c r="F3" s="338"/>
+      <c r="G3" s="338">
         <v>8.1556931339092724</v>
       </c>
-      <c r="H3" s="340">
+      <c r="H3" s="339">
         <f>SUM(I3:K3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="306"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="340">
+      <c r="I3" s="305"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="340"/>
+      <c r="L3" s="339">
         <f>SUM(M3:Z3)</f>
         <v>9146.774069288922</v>
       </c>
-      <c r="M3" s="306">
+      <c r="M3" s="305">
         <v>3053.4742963851995</v>
       </c>
-      <c r="N3" s="306">
+      <c r="N3" s="305">
         <v>16.633377499200002</v>
       </c>
-      <c r="O3" s="341">
+      <c r="O3" s="340">
         <v>0</v>
       </c>
-      <c r="P3" s="341">
+      <c r="P3" s="340">
         <v>564.2282843555555</v>
       </c>
-      <c r="Q3" s="341">
+      <c r="Q3" s="340">
         <v>369.55541863968</v>
       </c>
-      <c r="R3" s="341">
+      <c r="R3" s="340">
         <v>1543.1782335883197</v>
       </c>
-      <c r="S3" s="341">
+      <c r="S3" s="340">
         <v>82.827948630790956</v>
       </c>
-      <c r="T3" s="341">
+      <c r="T3" s="340">
         <v>157.5463640726893</v>
       </c>
-      <c r="U3" s="341">
+      <c r="U3" s="340">
         <v>2941.4703035056637</v>
       </c>
-      <c r="V3" s="341">
+      <c r="V3" s="340">
         <v>164.48328641762765</v>
       </c>
-      <c r="W3" s="339">
+      <c r="W3" s="338">
         <v>7.5616539426795564</v>
       </c>
-      <c r="X3" s="339">
+      <c r="X3" s="338">
         <v>200.83222211696253</v>
       </c>
-      <c r="Y3" s="339">
+      <c r="Y3" s="338">
         <v>1.2281470084248403</v>
       </c>
-      <c r="Z3" s="341">
+      <c r="Z3" s="340">
         <v>43.754533126130625</v>
       </c>
-      <c r="AA3" s="340">
+      <c r="AA3" s="339">
         <v>1728.338063506957</v>
       </c>
-      <c r="AB3" s="342">
+      <c r="AB3" s="341">
         <f>SUM(AC3:AM3)</f>
         <v>150.18873559012798</v>
       </c>
-      <c r="AC3" s="315"/>
-      <c r="AD3" s="341"/>
-      <c r="AE3" s="341">
+      <c r="AC3" s="314"/>
+      <c r="AD3" s="340"/>
+      <c r="AE3" s="340">
         <v>23.169037781663999</v>
       </c>
-      <c r="AF3" s="341"/>
-      <c r="AG3" s="341"/>
-      <c r="AH3" s="341"/>
-      <c r="AI3" s="341">
+      <c r="AF3" s="340"/>
+      <c r="AG3" s="340"/>
+      <c r="AH3" s="340"/>
+      <c r="AI3" s="340">
         <v>104.16969909062398</v>
       </c>
-      <c r="AJ3" s="341">
+      <c r="AJ3" s="340">
         <v>22.849998717839998</v>
       </c>
-      <c r="AK3" s="306"/>
-      <c r="AL3" s="306"/>
-      <c r="AM3" s="339"/>
-      <c r="AN3" s="343"/>
-      <c r="AO3" s="343">
+      <c r="AK3" s="305"/>
+      <c r="AL3" s="305"/>
+      <c r="AM3" s="338"/>
+      <c r="AN3" s="342"/>
+      <c r="AO3" s="342">
         <v>139.45061680000001</v>
       </c>
-      <c r="AP3" s="342"/>
-      <c r="AQ3" s="344">
+      <c r="AP3" s="341"/>
+      <c r="AQ3" s="343">
         <f t="shared" ref="AQ3:AQ20" si="0">C3+H3+L3+AA3+AB3+AN3+AO3+AP3</f>
         <v>12100.540830096908</v>
       </c>
     </row>
     <row r="4" spans="1:43">
-      <c r="A4" s="335" t="s">
+      <c r="A4" s="334" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="336"/>
-      <c r="C4" s="337">
+      <c r="B4" s="335"/>
+      <c r="C4" s="336">
         <f>SUM(D4:G4)</f>
         <v>15.186580890896002</v>
       </c>
-      <c r="D4" s="300">
+      <c r="D4" s="299">
         <v>0</v>
       </c>
-      <c r="E4" s="345">
+      <c r="E4" s="344">
         <v>14.097722162000002</v>
       </c>
-      <c r="F4" s="339"/>
-      <c r="G4" s="339">
+      <c r="F4" s="338"/>
+      <c r="G4" s="338">
         <v>1.0888587288959999</v>
       </c>
-      <c r="H4" s="340">
+      <c r="H4" s="339">
         <f>SUM(I4:K4)</f>
         <v>7.0330680000000001</v>
       </c>
-      <c r="I4" s="306"/>
-      <c r="J4" s="341"/>
-      <c r="K4" s="341">
+      <c r="I4" s="305"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340">
         <v>7.0330680000000001</v>
       </c>
-      <c r="L4" s="340">
+      <c r="L4" s="339">
         <f>SUM(M4:Z4)</f>
         <v>1717.0624747879344</v>
       </c>
-      <c r="M4" s="306">
+      <c r="M4" s="305">
         <v>0</v>
       </c>
-      <c r="N4" s="306">
+      <c r="N4" s="305">
         <v>0</v>
       </c>
-      <c r="O4" s="341"/>
-      <c r="P4" s="341">
+      <c r="O4" s="340"/>
+      <c r="P4" s="340">
         <v>364.52221864444448</v>
       </c>
-      <c r="Q4" s="341">
+      <c r="Q4" s="340">
         <v>21.672508399360005</v>
       </c>
-      <c r="R4" s="341">
+      <c r="R4" s="340">
         <v>156.29379915984001</v>
       </c>
-      <c r="S4" s="341">
+      <c r="S4" s="340">
         <v>986.60611760112999</v>
       </c>
-      <c r="T4" s="341">
+      <c r="T4" s="340">
         <v>35.289733288720633</v>
       </c>
-      <c r="U4" s="341">
+      <c r="U4" s="340">
         <v>102.14625414775992</v>
       </c>
-      <c r="V4" s="341">
+      <c r="V4" s="340">
         <v>2.9088437938490893E-3</v>
       </c>
-      <c r="W4" s="339">
+      <c r="W4" s="338">
         <v>36.297317128453038</v>
       </c>
-      <c r="X4" s="339">
+      <c r="X4" s="338">
         <v>5.4694689952000006</v>
       </c>
-      <c r="Y4" s="339">
+      <c r="Y4" s="338">
         <v>1.8500297569930473E-2</v>
       </c>
-      <c r="Z4" s="341">
+      <c r="Z4" s="340">
         <v>8.7436482816626366</v>
       </c>
-      <c r="AA4" s="340">
+      <c r="AA4" s="339">
         <v>0</v>
       </c>
-      <c r="AB4" s="342">
+      <c r="AB4" s="341">
         <f>SUM(AC4:AM4)</f>
         <v>9.4476585178560004</v>
       </c>
-      <c r="AC4" s="315"/>
-      <c r="AD4" s="341"/>
-      <c r="AE4" s="341">
+      <c r="AC4" s="314"/>
+      <c r="AD4" s="340"/>
+      <c r="AE4" s="340">
         <v>0.41264639999999991</v>
       </c>
-      <c r="AF4" s="341"/>
-      <c r="AG4" s="341"/>
-      <c r="AH4" s="341"/>
-      <c r="AI4" s="341">
+      <c r="AF4" s="340"/>
+      <c r="AG4" s="340"/>
+      <c r="AH4" s="340"/>
+      <c r="AI4" s="340">
         <v>9.0350121178560006</v>
       </c>
-      <c r="AJ4" s="341">
+      <c r="AJ4" s="340">
         <v>0</v>
       </c>
-      <c r="AK4" s="306"/>
-      <c r="AL4" s="306"/>
-      <c r="AM4" s="339"/>
-      <c r="AN4" s="343"/>
-      <c r="AO4" s="343">
+      <c r="AK4" s="305"/>
+      <c r="AL4" s="305"/>
+      <c r="AM4" s="338"/>
+      <c r="AN4" s="342"/>
+      <c r="AO4" s="342">
         <v>141.83539077999998</v>
       </c>
-      <c r="AP4" s="342"/>
-      <c r="AQ4" s="344">
+      <c r="AP4" s="341"/>
+      <c r="AQ4" s="343">
         <f t="shared" si="0"/>
         <v>1890.5651729766864</v>
       </c>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="335" t="s">
+      <c r="A5" s="334" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="336"/>
-      <c r="C5" s="337">
+      <c r="B5" s="335"/>
+      <c r="C5" s="336">
         <f>SUM(D5:G5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="345"/>
-      <c r="F5" s="339"/>
-      <c r="G5" s="339"/>
-      <c r="H5" s="340">
+      <c r="D5" s="299"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="338"/>
+      <c r="G5" s="338"/>
+      <c r="H5" s="339">
         <f>SUM(I5:K5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="306"/>
-      <c r="J5" s="341"/>
-      <c r="K5" s="341"/>
-      <c r="L5" s="340">
+      <c r="I5" s="305"/>
+      <c r="J5" s="340"/>
+      <c r="K5" s="340"/>
+      <c r="L5" s="339">
         <f>SUM(M5:Z5)</f>
         <v>162.14899063248015</v>
       </c>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306"/>
-      <c r="O5" s="341"/>
-      <c r="P5" s="341"/>
-      <c r="Q5" s="341"/>
-      <c r="R5" s="341"/>
-      <c r="S5" s="341">
+      <c r="M5" s="305"/>
+      <c r="N5" s="305"/>
+      <c r="O5" s="340"/>
+      <c r="P5" s="340"/>
+      <c r="Q5" s="340"/>
+      <c r="R5" s="340"/>
+      <c r="S5" s="340">
         <v>15.730078096892656</v>
       </c>
-      <c r="T5" s="341"/>
-      <c r="U5" s="341">
+      <c r="T5" s="340"/>
+      <c r="U5" s="340">
         <v>146.41891253558748</v>
       </c>
-      <c r="V5" s="341"/>
-      <c r="W5" s="339"/>
-      <c r="X5" s="339"/>
-      <c r="Y5" s="339"/>
-      <c r="Z5" s="341"/>
-      <c r="AA5" s="340"/>
-      <c r="AB5" s="342">
+      <c r="V5" s="340"/>
+      <c r="W5" s="338"/>
+      <c r="X5" s="338"/>
+      <c r="Y5" s="338"/>
+      <c r="Z5" s="340"/>
+      <c r="AA5" s="339"/>
+      <c r="AB5" s="341">
         <f>SUM(AC5:AM5)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="315"/>
-      <c r="AD5" s="341"/>
-      <c r="AE5" s="341"/>
-      <c r="AF5" s="341"/>
-      <c r="AG5" s="341"/>
-      <c r="AH5" s="341"/>
-      <c r="AI5" s="341"/>
-      <c r="AJ5" s="341"/>
-      <c r="AK5" s="306"/>
-      <c r="AL5" s="306"/>
-      <c r="AM5" s="339"/>
-      <c r="AN5" s="343"/>
-      <c r="AO5" s="343"/>
-      <c r="AP5" s="342"/>
-      <c r="AQ5" s="344">
+      <c r="AC5" s="314"/>
+      <c r="AD5" s="340"/>
+      <c r="AE5" s="340"/>
+      <c r="AF5" s="340"/>
+      <c r="AG5" s="340"/>
+      <c r="AH5" s="340"/>
+      <c r="AI5" s="340"/>
+      <c r="AJ5" s="340"/>
+      <c r="AK5" s="305"/>
+      <c r="AL5" s="305"/>
+      <c r="AM5" s="338"/>
+      <c r="AN5" s="342"/>
+      <c r="AO5" s="342"/>
+      <c r="AP5" s="341"/>
+      <c r="AQ5" s="343">
         <f t="shared" si="0"/>
         <v>162.14899063248015</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="13.5" thickBot="1">
-      <c r="A6" s="346" t="s">
+      <c r="A6" s="345" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="347"/>
-      <c r="C6" s="337">
+      <c r="B6" s="346"/>
+      <c r="C6" s="336">
         <f>SUM(D6:G6)</f>
         <v>-105.50045932171129</v>
       </c>
-      <c r="D6" s="301">
+      <c r="D6" s="300">
         <v>-106.11399866466098</v>
       </c>
-      <c r="E6" s="339">
+      <c r="E6" s="338">
         <v>-0.8079766727235479</v>
       </c>
-      <c r="F6" s="348"/>
-      <c r="G6" s="348">
+      <c r="F6" s="347"/>
+      <c r="G6" s="347">
         <v>1.4215160156732278</v>
       </c>
-      <c r="H6" s="349">
+      <c r="H6" s="348">
         <f>SUM(I6:K6)</f>
         <v>-122.93905189963694</v>
       </c>
-      <c r="I6" s="350">
+      <c r="I6" s="349">
         <v>-136.53826589963694</v>
       </c>
-      <c r="J6" s="350">
+      <c r="J6" s="349">
         <v>0</v>
       </c>
-      <c r="K6" s="350">
+      <c r="K6" s="349">
         <v>13.599214000000003</v>
       </c>
-      <c r="L6" s="349">
+      <c r="L6" s="348">
         <f>SUM(M6:Z6)</f>
         <v>151.33981188504902</v>
       </c>
-      <c r="M6" s="306">
+      <c r="M6" s="305">
         <v>38.730964773999993</v>
       </c>
-      <c r="N6" s="306">
+      <c r="N6" s="305">
         <v>-8.8751519999999999</v>
       </c>
-      <c r="O6" s="341"/>
-      <c r="P6" s="341">
+      <c r="O6" s="340"/>
+      <c r="P6" s="340">
         <v>-9.6980083333333713</v>
       </c>
-      <c r="Q6" s="341">
+      <c r="Q6" s="340">
         <v>12.883201938880001</v>
       </c>
-      <c r="R6" s="341">
+      <c r="R6" s="340">
         <v>82.12024884504001</v>
       </c>
-      <c r="S6" s="341">
+      <c r="S6" s="340">
         <v>23.637599999999999</v>
       </c>
-      <c r="T6" s="341">
+      <c r="T6" s="340">
         <v>1.4659197380156652</v>
       </c>
-      <c r="U6" s="341">
+      <c r="U6" s="340">
         <v>8.3874136006762399</v>
       </c>
-      <c r="V6" s="341">
+      <c r="V6" s="340">
         <v>3.2040911090633046</v>
       </c>
-      <c r="W6" s="348">
+      <c r="W6" s="347">
         <v>-0.51646778729281662</v>
       </c>
-      <c r="X6" s="348">
+      <c r="X6" s="347">
         <v>0</v>
       </c>
-      <c r="Y6" s="348">
+      <c r="Y6" s="347">
         <v>0</v>
       </c>
-      <c r="Z6" s="350">
+      <c r="Z6" s="349">
         <v>0</v>
       </c>
-      <c r="AA6" s="349">
+      <c r="AA6" s="348">
         <v>0</v>
       </c>
-      <c r="AB6" s="351">
+      <c r="AB6" s="350">
         <f>SUM(AC6:AM6)</f>
         <v>4.4601014379600006</v>
       </c>
-      <c r="AC6" s="352"/>
-      <c r="AD6" s="353"/>
-      <c r="AE6" s="353">
+      <c r="AC6" s="351"/>
+      <c r="AD6" s="352"/>
+      <c r="AE6" s="352">
         <v>0.26707427819999968</v>
       </c>
-      <c r="AF6" s="353"/>
-      <c r="AG6" s="353"/>
-      <c r="AH6" s="353"/>
-      <c r="AI6" s="353">
+      <c r="AF6" s="352"/>
+      <c r="AG6" s="352"/>
+      <c r="AH6" s="352"/>
+      <c r="AI6" s="352">
         <v>1.7828522013120007</v>
       </c>
-      <c r="AJ6" s="353">
+      <c r="AJ6" s="352">
         <v>2.4101749584479997</v>
       </c>
-      <c r="AK6" s="350"/>
-      <c r="AL6" s="350"/>
-      <c r="AM6" s="348"/>
-      <c r="AN6" s="354"/>
-      <c r="AO6" s="354"/>
-      <c r="AP6" s="351"/>
-      <c r="AQ6" s="355">
+      <c r="AK6" s="349"/>
+      <c r="AL6" s="349"/>
+      <c r="AM6" s="347"/>
+      <c r="AN6" s="353"/>
+      <c r="AO6" s="353"/>
+      <c r="AP6" s="350"/>
+      <c r="AQ6" s="354">
         <f t="shared" si="0"/>
         <v>-72.639597898339204</v>
       </c>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="356" t="s">
+      <c r="A7" s="355" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="357"/>
-      <c r="C7" s="358">
+      <c r="B7" s="356"/>
+      <c r="C7" s="357">
         <f t="shared" ref="C7:AP7" si="1">C2+C3-C4-C5+C6</f>
         <v>815.10230469829378</v>
       </c>
-      <c r="D7" s="302">
+      <c r="D7" s="301">
         <f t="shared" si="1"/>
         <v>696.13465175193664</v>
       </c>
-      <c r="E7" s="359">
+      <c r="E7" s="358">
         <f t="shared" si="1"/>
         <v>110.47930252567083</v>
       </c>
-      <c r="F7" s="359">
+      <c r="F7" s="358">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="359">
+      <c r="G7" s="358">
         <f t="shared" si="1"/>
         <v>8.4883504206865013</v>
       </c>
-      <c r="H7" s="360">
+      <c r="H7" s="359">
         <f t="shared" si="1"/>
         <v>685.95222908664709</v>
       </c>
-      <c r="I7" s="302">
+      <c r="I7" s="301">
         <f t="shared" si="1"/>
         <v>551.68208308664714</v>
       </c>
-      <c r="J7" s="359">
+      <c r="J7" s="358">
         <f t="shared" si="1"/>
         <v>127.70399999999999</v>
       </c>
-      <c r="K7" s="359">
+      <c r="K7" s="358">
         <f t="shared" si="1"/>
         <v>6.5661460000000034</v>
       </c>
-      <c r="L7" s="360">
+      <c r="L7" s="359">
         <f t="shared" si="1"/>
         <v>7418.9024157535559</v>
       </c>
-      <c r="M7" s="302">
+      <c r="M7" s="301">
         <f t="shared" si="1"/>
         <v>3092.2052611591994</v>
       </c>
-      <c r="N7" s="302">
+      <c r="N7" s="301">
         <f t="shared" si="1"/>
         <v>7.7582254992000017</v>
       </c>
-      <c r="O7" s="359">
+      <c r="O7" s="358">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="359">
+      <c r="P7" s="358">
         <f t="shared" si="1"/>
         <v>190.00805737777765</v>
       </c>
-      <c r="Q7" s="359">
+      <c r="Q7" s="358">
         <f t="shared" si="1"/>
         <v>360.76611217919998</v>
       </c>
-      <c r="R7" s="359">
+      <c r="R7" s="358">
         <f t="shared" si="1"/>
         <v>1469.0046832735197</v>
       </c>
-      <c r="S7" s="359">
+      <c r="S7" s="358">
         <f t="shared" si="1"/>
         <v>-895.87064706723163</v>
       </c>
-      <c r="T7" s="359">
+      <c r="T7" s="358">
         <f t="shared" si="1"/>
         <v>123.72255052198433</v>
       </c>
-      <c r="U7" s="359">
+      <c r="U7" s="358">
         <f t="shared" si="1"/>
         <v>2701.2925504229925</v>
       </c>
-      <c r="V7" s="359">
+      <c r="V7" s="358">
         <f t="shared" si="1"/>
         <v>167.68446868289712</v>
       </c>
-      <c r="W7" s="359">
+      <c r="W7" s="358">
         <f t="shared" si="1"/>
         <v>-29.252130973066301</v>
       </c>
-      <c r="X7" s="359">
+      <c r="X7" s="358">
         <f t="shared" si="1"/>
         <v>195.36275312176252</v>
       </c>
-      <c r="Y7" s="359">
+      <c r="Y7" s="358">
         <f t="shared" si="1"/>
         <v>1.2096467108549098</v>
       </c>
-      <c r="Z7" s="359">
+      <c r="Z7" s="358">
         <f t="shared" si="1"/>
         <v>35.010884844467988</v>
       </c>
-      <c r="AA7" s="360">
+      <c r="AA7" s="359">
         <f t="shared" si="1"/>
         <v>4480.2572507256682</v>
       </c>
-      <c r="AB7" s="360">
+      <c r="AB7" s="359">
         <f t="shared" si="1"/>
         <v>1476.4875613547667</v>
       </c>
-      <c r="AC7" s="302">
+      <c r="AC7" s="301">
         <f t="shared" si="1"/>
         <v>59.691708987970003</v>
       </c>
-      <c r="AD7" s="359">
+      <c r="AD7" s="358">
         <f t="shared" si="1"/>
         <v>743.01992281532614</v>
       </c>
-      <c r="AE7" s="359">
+      <c r="AE7" s="358">
         <f t="shared" si="1"/>
         <v>272.70521046496276</v>
       </c>
-      <c r="AF7" s="359">
+      <c r="AF7" s="358">
         <f t="shared" si="1"/>
         <v>139.99992739520798</v>
       </c>
-      <c r="AG7" s="359">
+      <c r="AG7" s="358">
         <f t="shared" si="1"/>
         <v>33.531818868055431</v>
       </c>
-      <c r="AH7" s="359">
+      <c r="AH7" s="358">
         <f t="shared" si="1"/>
         <v>16.813132576534866</v>
       </c>
-      <c r="AI7" s="359">
+      <c r="AI7" s="358">
         <f t="shared" si="1"/>
         <v>124.01266332172798</v>
       </c>
-      <c r="AJ7" s="359">
+      <c r="AJ7" s="358">
         <f t="shared" si="1"/>
         <v>27.929372998367999</v>
       </c>
-      <c r="AK7" s="304">
+      <c r="AK7" s="303">
         <f t="shared" si="1"/>
         <v>1.4323955643044282</v>
       </c>
-      <c r="AL7" s="304">
+      <c r="AL7" s="303">
         <f t="shared" si="1"/>
         <v>13.54608560366562</v>
       </c>
-      <c r="AM7" s="302">
+      <c r="AM7" s="301">
         <f t="shared" si="1"/>
         <v>43.805322758643676</v>
       </c>
-      <c r="AN7" s="360">
+      <c r="AN7" s="359">
         <f t="shared" si="1"/>
         <v>145.43710297949829</v>
       </c>
-      <c r="AO7" s="360">
+      <c r="AO7" s="359">
         <f t="shared" si="1"/>
         <v>-2.3847739799999772</v>
       </c>
-      <c r="AP7" s="361">
+      <c r="AP7" s="360">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ7" s="362">
+      <c r="AQ7" s="361">
         <f t="shared" si="0"/>
         <v>15019.754090618429</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="13.5" thickBot="1">
-      <c r="A8" s="363" t="s">
+      <c r="A8" s="362" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="364"/>
-      <c r="C8" s="365">
+      <c r="B8" s="363"/>
+      <c r="C8" s="364">
         <f t="shared" ref="C8:AP8" si="2">C7-C27</f>
         <v>815.10230469829378</v>
       </c>
-      <c r="D8" s="303">
+      <c r="D8" s="302">
         <f t="shared" si="2"/>
         <v>696.13465175193664</v>
       </c>
-      <c r="E8" s="366">
+      <c r="E8" s="365">
         <f t="shared" si="2"/>
         <v>110.47930252567083</v>
       </c>
-      <c r="F8" s="367">
+      <c r="F8" s="366">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="367">
+      <c r="G8" s="366">
         <f t="shared" si="2"/>
         <v>8.4883504206865013</v>
       </c>
-      <c r="H8" s="368">
+      <c r="H8" s="367">
         <f t="shared" si="2"/>
         <v>685.95222908664709</v>
       </c>
-      <c r="I8" s="303">
+      <c r="I8" s="302">
         <f t="shared" si="2"/>
         <v>551.68208308664714</v>
       </c>
-      <c r="J8" s="366">
+      <c r="J8" s="365">
         <f t="shared" si="2"/>
         <v>127.70399999999999</v>
       </c>
-      <c r="K8" s="366">
+      <c r="K8" s="365">
         <f t="shared" si="2"/>
         <v>6.5661460000000034</v>
       </c>
-      <c r="L8" s="368">
+      <c r="L8" s="367">
         <f t="shared" si="2"/>
         <v>7418.9024157535559</v>
       </c>
-      <c r="M8" s="303">
+      <c r="M8" s="302">
         <f t="shared" si="2"/>
         <v>3092.2052611591994</v>
       </c>
-      <c r="N8" s="303">
+      <c r="N8" s="302">
         <f t="shared" si="2"/>
         <v>7.7582254992000017</v>
       </c>
-      <c r="O8" s="366">
+      <c r="O8" s="365">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="366">
+      <c r="P8" s="365">
         <f t="shared" si="2"/>
         <v>190.00805737777765</v>
       </c>
-      <c r="Q8" s="366">
+      <c r="Q8" s="365">
         <f t="shared" si="2"/>
         <v>360.76611217919998</v>
       </c>
-      <c r="R8" s="366">
+      <c r="R8" s="365">
         <f t="shared" si="2"/>
         <v>1469.0046832735197</v>
       </c>
-      <c r="S8" s="366">
+      <c r="S8" s="365">
         <f t="shared" si="2"/>
         <v>-895.87064706723163</v>
       </c>
-      <c r="T8" s="366">
+      <c r="T8" s="365">
         <f t="shared" si="2"/>
         <v>123.72255052198433</v>
       </c>
-      <c r="U8" s="366">
+      <c r="U8" s="365">
         <f t="shared" si="2"/>
         <v>2701.2925504229925</v>
       </c>
-      <c r="V8" s="366">
+      <c r="V8" s="365">
         <f t="shared" si="2"/>
         <v>167.68446868289712</v>
       </c>
-      <c r="W8" s="367">
+      <c r="W8" s="366">
         <f t="shared" si="2"/>
         <v>-29.252130973066301</v>
       </c>
-      <c r="X8" s="367">
+      <c r="X8" s="366">
         <f t="shared" si="2"/>
         <v>195.36275312176252</v>
       </c>
-      <c r="Y8" s="367">
+      <c r="Y8" s="366">
         <f t="shared" si="2"/>
         <v>1.2096467108549098</v>
       </c>
-      <c r="Z8" s="366">
+      <c r="Z8" s="365">
         <f t="shared" si="2"/>
         <v>35.010884844467988</v>
       </c>
-      <c r="AA8" s="368">
+      <c r="AA8" s="367">
         <f t="shared" si="2"/>
         <v>4480.2572507256682</v>
       </c>
-      <c r="AB8" s="369">
+      <c r="AB8" s="368">
         <f t="shared" si="2"/>
         <v>1476.4875613547667</v>
       </c>
-      <c r="AC8" s="303">
+      <c r="AC8" s="302">
         <f t="shared" si="2"/>
         <v>59.691708987970003</v>
       </c>
-      <c r="AD8" s="366">
+      <c r="AD8" s="365">
         <f t="shared" si="2"/>
         <v>743.01992281532614</v>
       </c>
-      <c r="AE8" s="366">
+      <c r="AE8" s="365">
         <f t="shared" si="2"/>
         <v>272.70521046496276</v>
       </c>
-      <c r="AF8" s="366">
+      <c r="AF8" s="365">
         <f t="shared" si="2"/>
         <v>139.99992739520798</v>
       </c>
-      <c r="AG8" s="366">
+      <c r="AG8" s="365">
         <f t="shared" si="2"/>
         <v>33.531818868055431</v>
       </c>
-      <c r="AH8" s="366">
+      <c r="AH8" s="365">
         <f t="shared" si="2"/>
         <v>16.813132576534866</v>
       </c>
-      <c r="AI8" s="366">
+      <c r="AI8" s="365">
         <f t="shared" si="2"/>
         <v>124.01266332172798</v>
       </c>
-      <c r="AJ8" s="366">
+      <c r="AJ8" s="365">
         <f t="shared" si="2"/>
         <v>27.929372998367999</v>
       </c>
-      <c r="AK8" s="370">
+      <c r="AK8" s="369">
         <f t="shared" si="2"/>
         <v>1.4323955643044282</v>
       </c>
-      <c r="AL8" s="370">
+      <c r="AL8" s="369">
         <f t="shared" si="2"/>
         <v>13.54608560366562</v>
       </c>
-      <c r="AM8" s="303">
+      <c r="AM8" s="302">
         <f t="shared" si="2"/>
         <v>43.805322758643676</v>
       </c>
-      <c r="AN8" s="368">
+      <c r="AN8" s="367">
         <f t="shared" si="2"/>
         <v>145.43710297949829</v>
       </c>
-      <c r="AO8" s="368">
+      <c r="AO8" s="367">
         <f t="shared" si="2"/>
         <v>-2.3847739799999772</v>
       </c>
-      <c r="AP8" s="303">
+      <c r="AP8" s="302">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ8" s="371">
+      <c r="AQ8" s="370">
         <f t="shared" si="0"/>
         <v>15019.754090618429</v>
       </c>
     </row>
     <row r="9" spans="1:43">
-      <c r="A9" s="356" t="s">
+      <c r="A9" s="355" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="357"/>
-      <c r="C9" s="358">
+      <c r="B9" s="356"/>
+      <c r="C9" s="357">
         <f t="shared" ref="C9:AP9" si="3">SUM(C10:C14)</f>
         <v>488.64939432989598</v>
       </c>
-      <c r="D9" s="304">
+      <c r="D9" s="303">
         <f t="shared" si="3"/>
         <v>488.64939432989598</v>
       </c>
-      <c r="E9" s="359">
+      <c r="E9" s="358">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F9" s="372">
+      <c r="F9" s="371">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G9" s="372">
+      <c r="G9" s="371">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="360">
+      <c r="H9" s="359">
         <f t="shared" si="3"/>
         <v>541.02658367795425</v>
       </c>
-      <c r="I9" s="304">
+      <c r="I9" s="303">
         <f t="shared" si="3"/>
         <v>541.02658367795425</v>
       </c>
-      <c r="J9" s="359">
+      <c r="J9" s="358">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="359">
+      <c r="K9" s="358">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="360">
+      <c r="L9" s="359">
         <f t="shared" si="3"/>
         <v>3165.7216476484605</v>
       </c>
-      <c r="M9" s="359">
+      <c r="M9" s="358">
         <f t="shared" si="3"/>
         <v>3092.2052611591994</v>
       </c>
-      <c r="N9" s="359">
+      <c r="N9" s="358">
         <f t="shared" ref="N9" si="4">SUM(N10:N14)</f>
         <v>38.786602361842682</v>
       </c>
-      <c r="O9" s="359">
+      <c r="O9" s="358">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P9" s="359">
+      <c r="P9" s="358">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="359">
+      <c r="Q9" s="358">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R9" s="359">
+      <c r="R9" s="358">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S9" s="359">
+      <c r="S9" s="358">
         <f t="shared" si="3"/>
         <v>25.868327226603597</v>
       </c>
-      <c r="T9" s="359">
+      <c r="T9" s="358">
         <f t="shared" si="3"/>
         <v>0.63499472294399995</v>
       </c>
-      <c r="U9" s="359">
+      <c r="U9" s="358">
         <f t="shared" si="3"/>
         <v>8.2264621778709284</v>
       </c>
-      <c r="V9" s="359">
+      <c r="V9" s="358">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W9" s="372">
+      <c r="W9" s="371">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X9" s="372">
+      <c r="X9" s="371">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="372">
+      <c r="Y9" s="371">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="359">
+      <c r="Z9" s="358">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="360">
+      <c r="AA9" s="359">
         <f t="shared" si="3"/>
         <v>2501.2994242635782</v>
       </c>
-      <c r="AB9" s="302">
+      <c r="AB9" s="301">
         <f t="shared" si="3"/>
         <v>215.90352917717644</v>
       </c>
-      <c r="AC9" s="373">
+      <c r="AC9" s="372">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="359">
+      <c r="AD9" s="358">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="359">
+      <c r="AE9" s="358">
         <f t="shared" si="3"/>
         <v>76.028615684916531</v>
       </c>
-      <c r="AF9" s="359">
+      <c r="AF9" s="358">
         <f t="shared" ref="AF9" si="5">SUM(AF10:AF14)</f>
         <v>99.30702317107577</v>
       </c>
-      <c r="AG9" s="359">
+      <c r="AG9" s="358">
         <f t="shared" si="3"/>
         <v>33.531818868055431</v>
       </c>
-      <c r="AH9" s="359">
+      <c r="AH9" s="358">
         <f t="shared" si="3"/>
         <v>7.0360714531287174</v>
       </c>
-      <c r="AI9" s="359">
+      <c r="AI9" s="358">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="359">
+      <c r="AJ9" s="358">
         <f t="shared" ref="AJ9" si="6">SUM(AJ10:AJ14)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="304">
+      <c r="AK9" s="303">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="304">
+      <c r="AL9" s="303">
         <f t="shared" ref="AL9" si="7">SUM(AL10:AL14)</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="372">
+      <c r="AM9" s="371">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN9" s="360">
+      <c r="AN9" s="359">
         <f t="shared" si="3"/>
         <v>90.714163374524205</v>
       </c>
-      <c r="AO9" s="360">
+      <c r="AO9" s="359">
         <f t="shared" si="3"/>
         <v>54.38453208</v>
       </c>
-      <c r="AP9" s="302">
+      <c r="AP9" s="301">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AQ9" s="374">
+      <c r="AQ9" s="373">
         <f t="shared" si="0"/>
         <v>7057.699274551589</v>
       </c>
     </row>
     <row r="10" spans="1:43">
-      <c r="A10" s="375" t="s">
+      <c r="A10" s="374" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="376"/>
-      <c r="C10" s="377">
+      <c r="B10" s="375"/>
+      <c r="C10" s="376">
         <f>SUM(D10:G10)</f>
         <v>488.64939432989598</v>
       </c>
-      <c r="D10" s="305">
+      <c r="D10" s="304">
         <v>488.64939432989598</v>
       </c>
-      <c r="E10" s="378"/>
-      <c r="F10" s="379"/>
-      <c r="G10" s="379"/>
-      <c r="H10" s="380">
+      <c r="E10" s="377"/>
+      <c r="F10" s="378"/>
+      <c r="G10" s="378"/>
+      <c r="H10" s="379">
         <f>SUM(I10:K10)</f>
         <v>467.10845991760607</v>
       </c>
-      <c r="I10" s="305">
+      <c r="I10" s="304">
         <v>467.10845991760607</v>
       </c>
-      <c r="J10" s="378">
+      <c r="J10" s="377">
         <v>0</v>
       </c>
-      <c r="K10" s="378"/>
-      <c r="L10" s="380">
+      <c r="K10" s="377"/>
+      <c r="L10" s="379">
         <f>SUM(M10:Z10)</f>
         <v>34.094789404474525</v>
       </c>
-      <c r="M10" s="378"/>
-      <c r="N10" s="378"/>
-      <c r="O10" s="378"/>
-      <c r="P10" s="378"/>
-      <c r="Q10" s="378"/>
-      <c r="R10" s="378"/>
-      <c r="S10" s="378">
+      <c r="M10" s="377"/>
+      <c r="N10" s="377"/>
+      <c r="O10" s="377"/>
+      <c r="P10" s="377"/>
+      <c r="Q10" s="377"/>
+      <c r="R10" s="377"/>
+      <c r="S10" s="377">
         <v>25.868327226603597</v>
       </c>
-      <c r="T10" s="378"/>
-      <c r="U10" s="378">
+      <c r="T10" s="377"/>
+      <c r="U10" s="377">
         <v>8.2264621778709284</v>
       </c>
-      <c r="V10" s="378"/>
-      <c r="W10" s="379"/>
-      <c r="X10" s="379"/>
-      <c r="Y10" s="379"/>
-      <c r="Z10" s="378"/>
-      <c r="AA10" s="380">
+      <c r="V10" s="377"/>
+      <c r="W10" s="378"/>
+      <c r="X10" s="378"/>
+      <c r="Y10" s="378"/>
+      <c r="Z10" s="377"/>
+      <c r="AA10" s="379">
         <v>2187.6033883210698</v>
       </c>
-      <c r="AB10" s="381">
+      <c r="AB10" s="380">
         <f>SUM(AC10:AM10)</f>
         <v>205.30590173319058</v>
       </c>
-      <c r="AC10" s="314"/>
-      <c r="AD10" s="378"/>
-      <c r="AE10" s="378">
+      <c r="AC10" s="313"/>
+      <c r="AD10" s="377"/>
+      <c r="AE10" s="377">
         <v>72.467059694059387</v>
       </c>
-      <c r="AF10" s="378">
+      <c r="AF10" s="377">
         <v>99.30702317107577</v>
       </c>
-      <c r="AG10" s="378">
+      <c r="AG10" s="377">
         <v>33.531818868055431</v>
       </c>
-      <c r="AH10" s="378"/>
-      <c r="AI10" s="378"/>
-      <c r="AJ10" s="378"/>
-      <c r="AK10" s="305"/>
-      <c r="AL10" s="305"/>
-      <c r="AM10" s="379"/>
-      <c r="AN10" s="382">
+      <c r="AH10" s="377"/>
+      <c r="AI10" s="377"/>
+      <c r="AJ10" s="377"/>
+      <c r="AK10" s="304"/>
+      <c r="AL10" s="304"/>
+      <c r="AM10" s="378"/>
+      <c r="AN10" s="381">
         <v>90.714163374524205</v>
       </c>
-      <c r="AO10" s="380"/>
-      <c r="AP10" s="381"/>
-      <c r="AQ10" s="383">
+      <c r="AO10" s="379"/>
+      <c r="AP10" s="380"/>
+      <c r="AQ10" s="382">
         <f t="shared" si="0"/>
         <v>3473.4760970807611</v>
       </c>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="335" t="s">
+      <c r="A11" s="334" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="336"/>
-      <c r="C11" s="337">
+      <c r="B11" s="335"/>
+      <c r="C11" s="336">
         <f>SUM(D11:G11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="306">
+      <c r="D11" s="305">
         <v>0</v>
       </c>
-      <c r="E11" s="341"/>
-      <c r="F11" s="339"/>
-      <c r="G11" s="339"/>
-      <c r="H11" s="340">
+      <c r="E11" s="340"/>
+      <c r="F11" s="338"/>
+      <c r="G11" s="338"/>
+      <c r="H11" s="339">
         <f>SUM(I11:K11)</f>
         <v>5.8425469182429177</v>
       </c>
-      <c r="I11" s="306">
+      <c r="I11" s="305">
         <v>5.8425469182429177</v>
       </c>
-      <c r="J11" s="341"/>
-      <c r="K11" s="341"/>
-      <c r="L11" s="340">
+      <c r="J11" s="340"/>
+      <c r="K11" s="340"/>
+      <c r="L11" s="339">
         <f>SUM(M11:Z11)</f>
         <v>0.63499472294399995</v>
       </c>
-      <c r="M11" s="341"/>
-      <c r="N11" s="384"/>
-      <c r="O11" s="384">
+      <c r="M11" s="340"/>
+      <c r="N11" s="383"/>
+      <c r="O11" s="383">
         <v>0</v>
       </c>
-      <c r="P11" s="341"/>
-      <c r="Q11" s="341"/>
-      <c r="R11" s="341"/>
-      <c r="S11" s="341">
+      <c r="P11" s="340"/>
+      <c r="Q11" s="340"/>
+      <c r="R11" s="340"/>
+      <c r="S11" s="340">
         <v>0</v>
       </c>
-      <c r="T11" s="341">
+      <c r="T11" s="340">
         <v>0.63499472294399995</v>
       </c>
-      <c r="U11" s="341">
+      <c r="U11" s="340">
         <v>0</v>
       </c>
-      <c r="V11" s="341"/>
-      <c r="W11" s="339"/>
-      <c r="X11" s="339"/>
-      <c r="Y11" s="339"/>
-      <c r="Z11" s="341"/>
-      <c r="AA11" s="340">
+      <c r="V11" s="340"/>
+      <c r="W11" s="338"/>
+      <c r="X11" s="338"/>
+      <c r="Y11" s="338"/>
+      <c r="Z11" s="340"/>
+      <c r="AA11" s="339">
         <v>272.96145103491432</v>
       </c>
-      <c r="AB11" s="342">
+      <c r="AB11" s="341">
         <f>SUM(AC11:AM11)</f>
         <v>10.597627443985861</v>
       </c>
-      <c r="AC11" s="315"/>
-      <c r="AD11" s="341"/>
-      <c r="AE11" s="341">
+      <c r="AC11" s="314"/>
+      <c r="AD11" s="340"/>
+      <c r="AE11" s="340">
         <v>3.5615559908571428</v>
       </c>
-      <c r="AF11" s="341"/>
-      <c r="AG11" s="341"/>
-      <c r="AH11" s="341">
+      <c r="AF11" s="340"/>
+      <c r="AG11" s="340"/>
+      <c r="AH11" s="340">
         <v>7.0360714531287174</v>
       </c>
-      <c r="AI11" s="341"/>
-      <c r="AJ11" s="341"/>
-      <c r="AK11" s="306"/>
-      <c r="AL11" s="306"/>
-      <c r="AM11" s="339"/>
-      <c r="AN11" s="343"/>
-      <c r="AO11" s="343"/>
-      <c r="AP11" s="342"/>
-      <c r="AQ11" s="344">
+      <c r="AI11" s="340"/>
+      <c r="AJ11" s="340"/>
+      <c r="AK11" s="305"/>
+      <c r="AL11" s="305"/>
+      <c r="AM11" s="338"/>
+      <c r="AN11" s="342"/>
+      <c r="AO11" s="342"/>
+      <c r="AP11" s="341"/>
+      <c r="AQ11" s="343">
         <f t="shared" si="0"/>
         <v>290.03662012008709</v>
       </c>
     </row>
     <row r="12" spans="1:43">
-      <c r="A12" s="335" t="s">
+      <c r="A12" s="334" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="336"/>
-      <c r="C12" s="337"/>
-      <c r="D12" s="306"/>
-      <c r="E12" s="341"/>
-      <c r="F12" s="339"/>
-      <c r="G12" s="339"/>
-      <c r="H12" s="340"/>
-      <c r="I12" s="306"/>
-      <c r="J12" s="341"/>
-      <c r="K12" s="341"/>
-      <c r="L12" s="340"/>
-      <c r="M12" s="341"/>
-      <c r="N12" s="384"/>
-      <c r="O12" s="384"/>
-      <c r="P12" s="341"/>
-      <c r="Q12" s="341"/>
-      <c r="R12" s="341"/>
-      <c r="S12" s="341"/>
-      <c r="T12" s="341"/>
-      <c r="U12" s="341"/>
-      <c r="V12" s="341"/>
-      <c r="W12" s="339"/>
-      <c r="X12" s="339"/>
-      <c r="Y12" s="339"/>
-      <c r="Z12" s="341"/>
-      <c r="AA12" s="340"/>
-      <c r="AB12" s="342"/>
-      <c r="AC12" s="315"/>
-      <c r="AD12" s="341"/>
-      <c r="AE12" s="341"/>
-      <c r="AF12" s="341"/>
-      <c r="AG12" s="341"/>
-      <c r="AH12" s="341"/>
-      <c r="AI12" s="341"/>
-      <c r="AJ12" s="341"/>
-      <c r="AK12" s="306"/>
-      <c r="AL12" s="306"/>
-      <c r="AM12" s="339"/>
-      <c r="AN12" s="343"/>
-      <c r="AO12" s="343">
+      <c r="B12" s="335"/>
+      <c r="C12" s="336"/>
+      <c r="D12" s="305"/>
+      <c r="E12" s="340"/>
+      <c r="F12" s="338"/>
+      <c r="G12" s="338"/>
+      <c r="H12" s="339"/>
+      <c r="I12" s="305"/>
+      <c r="J12" s="340"/>
+      <c r="K12" s="340"/>
+      <c r="L12" s="339"/>
+      <c r="M12" s="340"/>
+      <c r="N12" s="383"/>
+      <c r="O12" s="383"/>
+      <c r="P12" s="340"/>
+      <c r="Q12" s="340"/>
+      <c r="R12" s="340"/>
+      <c r="S12" s="340"/>
+      <c r="T12" s="340"/>
+      <c r="U12" s="340"/>
+      <c r="V12" s="340"/>
+      <c r="W12" s="338"/>
+      <c r="X12" s="338"/>
+      <c r="Y12" s="338"/>
+      <c r="Z12" s="340"/>
+      <c r="AA12" s="339"/>
+      <c r="AB12" s="341"/>
+      <c r="AC12" s="314"/>
+      <c r="AD12" s="340"/>
+      <c r="AE12" s="340"/>
+      <c r="AF12" s="340"/>
+      <c r="AG12" s="340"/>
+      <c r="AH12" s="340"/>
+      <c r="AI12" s="340"/>
+      <c r="AJ12" s="340"/>
+      <c r="AK12" s="305"/>
+      <c r="AL12" s="305"/>
+      <c r="AM12" s="338"/>
+      <c r="AN12" s="342"/>
+      <c r="AO12" s="342">
         <v>42.942060079999997</v>
       </c>
-      <c r="AP12" s="342"/>
-      <c r="AQ12" s="344">
+      <c r="AP12" s="341"/>
+      <c r="AQ12" s="343">
         <f t="shared" si="0"/>
         <v>42.942060079999997</v>
       </c>
     </row>
     <row r="13" spans="1:43">
-      <c r="A13" s="335" t="s">
+      <c r="A13" s="334" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="336"/>
-      <c r="C13" s="337">
+      <c r="B13" s="335"/>
+      <c r="C13" s="336">
         <f>SUM(D13:G13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="306"/>
-      <c r="E13" s="339"/>
-      <c r="F13" s="339"/>
-      <c r="G13" s="339"/>
-      <c r="H13" s="340">
+      <c r="D13" s="305"/>
+      <c r="E13" s="338"/>
+      <c r="F13" s="338"/>
+      <c r="G13" s="338"/>
+      <c r="H13" s="339">
         <f>SUM(I13:K13)</f>
         <v>68.075576842105264</v>
       </c>
-      <c r="I13" s="306">
+      <c r="I13" s="305">
         <v>68.075576842105264</v>
       </c>
-      <c r="J13" s="341"/>
-      <c r="K13" s="341"/>
-      <c r="L13" s="340">
+      <c r="J13" s="340"/>
+      <c r="K13" s="340"/>
+      <c r="L13" s="339">
         <f>SUM(M13:Z13)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="341"/>
-      <c r="N13" s="341"/>
-      <c r="O13" s="341"/>
-      <c r="P13" s="341"/>
-      <c r="Q13" s="341"/>
-      <c r="R13" s="341"/>
-      <c r="S13" s="341"/>
-      <c r="T13" s="341"/>
-      <c r="U13" s="341"/>
-      <c r="V13" s="341"/>
-      <c r="W13" s="339"/>
-      <c r="X13" s="339"/>
-      <c r="Y13" s="339"/>
-      <c r="Z13" s="341"/>
-      <c r="AA13" s="340"/>
-      <c r="AB13" s="342">
+      <c r="M13" s="340"/>
+      <c r="N13" s="340"/>
+      <c r="O13" s="340"/>
+      <c r="P13" s="340"/>
+      <c r="Q13" s="340"/>
+      <c r="R13" s="340"/>
+      <c r="S13" s="340"/>
+      <c r="T13" s="340"/>
+      <c r="U13" s="340"/>
+      <c r="V13" s="340"/>
+      <c r="W13" s="338"/>
+      <c r="X13" s="338"/>
+      <c r="Y13" s="338"/>
+      <c r="Z13" s="340"/>
+      <c r="AA13" s="339"/>
+      <c r="AB13" s="341">
         <f>SUM(AC13:AM13)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="315"/>
-      <c r="AD13" s="341"/>
-      <c r="AE13" s="341"/>
-      <c r="AF13" s="341"/>
-      <c r="AG13" s="341"/>
-      <c r="AH13" s="341"/>
-      <c r="AI13" s="341"/>
-      <c r="AJ13" s="341"/>
-      <c r="AK13" s="306"/>
-      <c r="AL13" s="306"/>
-      <c r="AM13" s="339"/>
-      <c r="AN13" s="343"/>
-      <c r="AO13" s="343"/>
-      <c r="AP13" s="342"/>
-      <c r="AQ13" s="344">
+      <c r="AC13" s="314"/>
+      <c r="AD13" s="340"/>
+      <c r="AE13" s="340"/>
+      <c r="AF13" s="340"/>
+      <c r="AG13" s="340"/>
+      <c r="AH13" s="340"/>
+      <c r="AI13" s="340"/>
+      <c r="AJ13" s="340"/>
+      <c r="AK13" s="305"/>
+      <c r="AL13" s="305"/>
+      <c r="AM13" s="338"/>
+      <c r="AN13" s="342"/>
+      <c r="AO13" s="342"/>
+      <c r="AP13" s="341"/>
+      <c r="AQ13" s="343">
         <f t="shared" si="0"/>
         <v>68.075576842105264</v>
       </c>
     </row>
     <row r="14" spans="1:43">
-      <c r="A14" s="385" t="s">
+      <c r="A14" s="384" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="386"/>
-      <c r="C14" s="387">
+      <c r="B14" s="385"/>
+      <c r="C14" s="386">
         <f>SUM(D14:G14)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="307"/>
-      <c r="E14" s="388"/>
-      <c r="F14" s="389"/>
-      <c r="G14" s="389"/>
-      <c r="H14" s="390">
+      <c r="D14" s="306"/>
+      <c r="E14" s="387"/>
+      <c r="F14" s="388"/>
+      <c r="G14" s="388"/>
+      <c r="H14" s="389">
         <f>SUM(I14:K14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="307"/>
-      <c r="J14" s="388"/>
-      <c r="K14" s="388"/>
-      <c r="L14" s="390">
+      <c r="I14" s="306"/>
+      <c r="J14" s="387"/>
+      <c r="K14" s="387"/>
+      <c r="L14" s="389">
         <f>SUM(M14:Z14)</f>
         <v>3130.991863521042</v>
       </c>
-      <c r="M14" s="388">
+      <c r="M14" s="387">
         <v>3092.2052611591994</v>
       </c>
-      <c r="N14" s="388">
+      <c r="N14" s="387">
         <v>38.786602361842682</v>
       </c>
-      <c r="O14" s="388"/>
-      <c r="P14" s="388"/>
-      <c r="Q14" s="388"/>
-      <c r="R14" s="388"/>
-      <c r="S14" s="388"/>
-      <c r="T14" s="388"/>
-      <c r="U14" s="388"/>
-      <c r="V14" s="388"/>
-      <c r="W14" s="389"/>
-      <c r="X14" s="389"/>
-      <c r="Y14" s="389"/>
-      <c r="Z14" s="388"/>
-      <c r="AA14" s="390">
+      <c r="O14" s="387"/>
+      <c r="P14" s="387"/>
+      <c r="Q14" s="387"/>
+      <c r="R14" s="387"/>
+      <c r="S14" s="387"/>
+      <c r="T14" s="387"/>
+      <c r="U14" s="387"/>
+      <c r="V14" s="387"/>
+      <c r="W14" s="388"/>
+      <c r="X14" s="388"/>
+      <c r="Y14" s="388"/>
+      <c r="Z14" s="387"/>
+      <c r="AA14" s="389">
         <v>40.734584907594211</v>
       </c>
-      <c r="AB14" s="391">
+      <c r="AB14" s="390">
         <f>SUM(AC14:AM14)</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="316"/>
-      <c r="AD14" s="388"/>
-      <c r="AE14" s="388"/>
-      <c r="AF14" s="388"/>
-      <c r="AG14" s="388"/>
-      <c r="AH14" s="388"/>
-      <c r="AI14" s="388"/>
-      <c r="AJ14" s="388"/>
-      <c r="AK14" s="307"/>
-      <c r="AL14" s="307"/>
-      <c r="AM14" s="389"/>
-      <c r="AN14" s="392"/>
-      <c r="AO14" s="392">
+      <c r="AC14" s="315"/>
+      <c r="AD14" s="387"/>
+      <c r="AE14" s="387"/>
+      <c r="AF14" s="387"/>
+      <c r="AG14" s="387"/>
+      <c r="AH14" s="387"/>
+      <c r="AI14" s="387"/>
+      <c r="AJ14" s="387"/>
+      <c r="AK14" s="306"/>
+      <c r="AL14" s="306"/>
+      <c r="AM14" s="388"/>
+      <c r="AN14" s="391"/>
+      <c r="AO14" s="391">
         <v>11.442471999999999</v>
       </c>
-      <c r="AP14" s="391"/>
-      <c r="AQ14" s="393">
+      <c r="AP14" s="390"/>
+      <c r="AQ14" s="392">
         <f t="shared" si="0"/>
         <v>3183.1689204286363</v>
       </c>
     </row>
     <row r="15" spans="1:43">
-      <c r="A15" s="394" t="s">
+      <c r="A15" s="393" t="s">
         <v>214</v>
       </c>
-      <c r="B15" s="395"/>
-      <c r="C15" s="396">
+      <c r="B15" s="394"/>
+      <c r="C15" s="395">
         <f t="shared" ref="C15:AP15" si="8">SUM(C16:C20)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="308">
+      <c r="D15" s="307">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E15" s="397">
+      <c r="E15" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F15" s="398">
+      <c r="F15" s="397">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G15" s="398">
+      <c r="G15" s="397">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H15" s="399">
+      <c r="H15" s="398">
         <f t="shared" si="8"/>
         <v>64.671797999999995</v>
       </c>
-      <c r="I15" s="308">
+      <c r="I15" s="307">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J15" s="397">
+      <c r="J15" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K15" s="397">
+      <c r="K15" s="396">
         <f t="shared" si="8"/>
         <v>64.671797999999995</v>
       </c>
-      <c r="L15" s="399">
+      <c r="L15" s="398">
         <f t="shared" si="8"/>
         <v>3166.7858692089685</v>
       </c>
-      <c r="M15" s="397">
+      <c r="M15" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N15" s="397">
+      <c r="N15" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O15" s="397">
+      <c r="O15" s="396">
         <f t="shared" si="8"/>
         <v>90.017983923640699</v>
       </c>
-      <c r="P15" s="397">
+      <c r="P15" s="396">
         <f t="shared" si="8"/>
         <v>640.53679657777786</v>
       </c>
-      <c r="Q15" s="397">
+      <c r="Q15" s="396">
         <f t="shared" si="8"/>
         <v>226.77459106847999</v>
       </c>
-      <c r="R15" s="397">
+      <c r="R15" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S15" s="397">
+      <c r="S15" s="396">
         <f t="shared" si="8"/>
         <v>960.95017928079096</v>
       </c>
-      <c r="T15" s="397">
+      <c r="T15" s="396">
         <f t="shared" si="8"/>
         <v>64.797462901984332</v>
       </c>
-      <c r="U15" s="397">
+      <c r="U15" s="396">
         <f t="shared" si="8"/>
         <v>1146.9502117491124</v>
       </c>
-      <c r="V15" s="397">
+      <c r="V15" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W15" s="398">
+      <c r="W15" s="397">
         <f t="shared" si="8"/>
         <v>36.758643707182323</v>
       </c>
-      <c r="X15" s="398">
+      <c r="X15" s="397">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="398">
+      <c r="Y15" s="397">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="397">
+      <c r="Z15" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="399">
+      <c r="AA15" s="398">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="296">
+      <c r="AB15" s="295">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="400">
+      <c r="AC15" s="399">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="397">
+      <c r="AD15" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="397">
+      <c r="AE15" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="397">
+      <c r="AF15" s="396">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="317">
+      <c r="AG15" s="316">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="317">
+      <c r="AH15" s="316">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="317">
+      <c r="AI15" s="316">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="317">
+      <c r="AJ15" s="316">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="308">
+      <c r="AK15" s="307">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="308">
+      <c r="AL15" s="307">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="398">
+      <c r="AM15" s="397">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="399">
+      <c r="AN15" s="398">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="399">
+      <c r="AO15" s="398">
         <f t="shared" si="8"/>
         <v>1873.361490524092</v>
       </c>
-      <c r="AP15" s="296">
+      <c r="AP15" s="295">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="401">
+      <c r="AQ15" s="400">
         <f t="shared" si="0"/>
         <v>5104.8191577330599</v>
       </c>
     </row>
     <row r="16" spans="1:43">
-      <c r="A16" s="375" t="s">
+      <c r="A16" s="374" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="376"/>
-      <c r="C16" s="377">
+      <c r="B16" s="375"/>
+      <c r="C16" s="376">
         <f>SUM(D16:G16)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="305"/>
-      <c r="E16" s="378"/>
-      <c r="F16" s="379"/>
-      <c r="G16" s="379"/>
-      <c r="H16" s="380">
+      <c r="D16" s="304"/>
+      <c r="E16" s="377"/>
+      <c r="F16" s="378"/>
+      <c r="G16" s="378"/>
+      <c r="H16" s="379">
         <f>SUM(I16:K16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="305"/>
-      <c r="J16" s="378"/>
-      <c r="K16" s="378"/>
-      <c r="L16" s="380">
+      <c r="I16" s="304"/>
+      <c r="J16" s="377"/>
+      <c r="K16" s="377"/>
+      <c r="L16" s="379">
         <f>SUM(M16:Z16)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="378"/>
-      <c r="N16" s="378"/>
-      <c r="O16" s="378"/>
-      <c r="P16" s="378"/>
-      <c r="Q16" s="378"/>
-      <c r="R16" s="378"/>
-      <c r="S16" s="378"/>
-      <c r="T16" s="378"/>
-      <c r="U16" s="378"/>
-      <c r="V16" s="378"/>
-      <c r="W16" s="379"/>
-      <c r="X16" s="379"/>
-      <c r="Y16" s="379"/>
-      <c r="Z16" s="378"/>
-      <c r="AA16" s="380"/>
-      <c r="AB16" s="381">
+      <c r="M16" s="377"/>
+      <c r="N16" s="377"/>
+      <c r="O16" s="377"/>
+      <c r="P16" s="377"/>
+      <c r="Q16" s="377"/>
+      <c r="R16" s="377"/>
+      <c r="S16" s="377"/>
+      <c r="T16" s="377"/>
+      <c r="U16" s="377"/>
+      <c r="V16" s="377"/>
+      <c r="W16" s="378"/>
+      <c r="X16" s="378"/>
+      <c r="Y16" s="378"/>
+      <c r="Z16" s="377"/>
+      <c r="AA16" s="379"/>
+      <c r="AB16" s="380">
         <f>SUM(AC16:AL16)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="314"/>
-      <c r="AD16" s="378"/>
-      <c r="AE16" s="378"/>
-      <c r="AF16" s="378"/>
-      <c r="AG16" s="384"/>
-      <c r="AH16" s="384"/>
-      <c r="AI16" s="384"/>
-      <c r="AJ16" s="384"/>
-      <c r="AK16" s="305"/>
-      <c r="AL16" s="305"/>
-      <c r="AM16" s="379"/>
-      <c r="AN16" s="382"/>
-      <c r="AO16" s="382">
+      <c r="AC16" s="313"/>
+      <c r="AD16" s="377"/>
+      <c r="AE16" s="377"/>
+      <c r="AF16" s="377"/>
+      <c r="AG16" s="383"/>
+      <c r="AH16" s="383"/>
+      <c r="AI16" s="383"/>
+      <c r="AJ16" s="383"/>
+      <c r="AK16" s="304"/>
+      <c r="AL16" s="304"/>
+      <c r="AM16" s="378"/>
+      <c r="AN16" s="381"/>
+      <c r="AO16" s="381">
         <v>1667.7865923774164</v>
       </c>
-      <c r="AP16" s="381"/>
-      <c r="AQ16" s="402">
+      <c r="AP16" s="380"/>
+      <c r="AQ16" s="401">
         <f>C16+H16+L16+AA16+AO16+AP16</f>
         <v>1667.7865923774164</v>
       </c>
     </row>
     <row r="17" spans="1:43">
-      <c r="A17" s="335" t="s">
+      <c r="A17" s="334" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="336"/>
-      <c r="C17" s="337">
+      <c r="B17" s="335"/>
+      <c r="C17" s="336">
         <f>SUM(D17:G17)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="306"/>
-      <c r="E17" s="341"/>
-      <c r="F17" s="339"/>
-      <c r="G17" s="339"/>
-      <c r="H17" s="340">
+      <c r="D17" s="305"/>
+      <c r="E17" s="340"/>
+      <c r="F17" s="338"/>
+      <c r="G17" s="338"/>
+      <c r="H17" s="339">
         <f>SUM(I17:K17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="306"/>
-      <c r="J17" s="341"/>
-      <c r="K17" s="341"/>
-      <c r="L17" s="340">
+      <c r="I17" s="305"/>
+      <c r="J17" s="340"/>
+      <c r="K17" s="340"/>
+      <c r="L17" s="339">
         <f>SUM(M17:Z17)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="341"/>
-      <c r="N17" s="341"/>
-      <c r="O17" s="341"/>
-      <c r="P17" s="341"/>
-      <c r="Q17" s="341"/>
-      <c r="R17" s="341"/>
-      <c r="S17" s="341"/>
-      <c r="T17" s="341"/>
-      <c r="U17" s="341"/>
-      <c r="V17" s="341"/>
-      <c r="W17" s="339"/>
-      <c r="X17" s="339"/>
-      <c r="Y17" s="339"/>
-      <c r="Z17" s="341"/>
-      <c r="AA17" s="340"/>
-      <c r="AB17" s="342">
+      <c r="M17" s="340"/>
+      <c r="N17" s="340"/>
+      <c r="O17" s="340"/>
+      <c r="P17" s="340"/>
+      <c r="Q17" s="340"/>
+      <c r="R17" s="340"/>
+      <c r="S17" s="340"/>
+      <c r="T17" s="340"/>
+      <c r="U17" s="340"/>
+      <c r="V17" s="340"/>
+      <c r="W17" s="338"/>
+      <c r="X17" s="338"/>
+      <c r="Y17" s="338"/>
+      <c r="Z17" s="340"/>
+      <c r="AA17" s="339"/>
+      <c r="AB17" s="341">
         <f>SUM(AC17:AL17)</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="315"/>
-      <c r="AD17" s="341"/>
-      <c r="AE17" s="341"/>
-      <c r="AF17" s="341"/>
-      <c r="AG17" s="341"/>
-      <c r="AH17" s="341"/>
-      <c r="AI17" s="341"/>
-      <c r="AJ17" s="341"/>
-      <c r="AK17" s="306"/>
-      <c r="AL17" s="306"/>
-      <c r="AM17" s="339"/>
-      <c r="AN17" s="343"/>
-      <c r="AO17" s="403">
+      <c r="AC17" s="314"/>
+      <c r="AD17" s="340"/>
+      <c r="AE17" s="340"/>
+      <c r="AF17" s="340"/>
+      <c r="AG17" s="340"/>
+      <c r="AH17" s="340"/>
+      <c r="AI17" s="340"/>
+      <c r="AJ17" s="340"/>
+      <c r="AK17" s="305"/>
+      <c r="AL17" s="305"/>
+      <c r="AM17" s="338"/>
+      <c r="AN17" s="342"/>
+      <c r="AO17" s="402">
         <v>185.14395873624346</v>
       </c>
-      <c r="AP17" s="342"/>
-      <c r="AQ17" s="344">
+      <c r="AP17" s="341"/>
+      <c r="AQ17" s="343">
         <f>C17+H17+L17+AA17+AO17+AP17</f>
         <v>185.14395873624346</v>
       </c>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="335" t="s">
+      <c r="A18" s="334" t="s">
         <v>215</v>
       </c>
-      <c r="B18" s="336"/>
-      <c r="C18" s="337"/>
-      <c r="D18" s="306"/>
-      <c r="E18" s="341"/>
-      <c r="F18" s="339"/>
-      <c r="G18" s="339"/>
-      <c r="H18" s="340"/>
-      <c r="I18" s="306"/>
-      <c r="J18" s="341"/>
-      <c r="K18" s="341"/>
-      <c r="L18" s="340"/>
-      <c r="M18" s="341"/>
-      <c r="N18" s="341"/>
-      <c r="O18" s="341"/>
-      <c r="P18" s="341"/>
-      <c r="Q18" s="341"/>
-      <c r="R18" s="341"/>
-      <c r="S18" s="341"/>
-      <c r="T18" s="341"/>
-      <c r="U18" s="341"/>
-      <c r="V18" s="341"/>
-      <c r="W18" s="339"/>
-      <c r="X18" s="339"/>
-      <c r="Y18" s="339"/>
-      <c r="Z18" s="341"/>
-      <c r="AA18" s="340"/>
-      <c r="AB18" s="342"/>
-      <c r="AC18" s="315"/>
-      <c r="AD18" s="341"/>
-      <c r="AE18" s="341"/>
-      <c r="AF18" s="341"/>
-      <c r="AG18" s="341"/>
-      <c r="AH18" s="341"/>
-      <c r="AI18" s="341"/>
-      <c r="AJ18" s="341"/>
-      <c r="AK18" s="306"/>
-      <c r="AL18" s="306"/>
-      <c r="AM18" s="339"/>
-      <c r="AN18" s="343"/>
-      <c r="AO18" s="343">
+      <c r="B18" s="335"/>
+      <c r="C18" s="336"/>
+      <c r="D18" s="305"/>
+      <c r="E18" s="340"/>
+      <c r="F18" s="338"/>
+      <c r="G18" s="338"/>
+      <c r="H18" s="339"/>
+      <c r="I18" s="305"/>
+      <c r="J18" s="340"/>
+      <c r="K18" s="340"/>
+      <c r="L18" s="339"/>
+      <c r="M18" s="340"/>
+      <c r="N18" s="340"/>
+      <c r="O18" s="340"/>
+      <c r="P18" s="340"/>
+      <c r="Q18" s="340"/>
+      <c r="R18" s="340"/>
+      <c r="S18" s="340"/>
+      <c r="T18" s="340"/>
+      <c r="U18" s="340"/>
+      <c r="V18" s="340"/>
+      <c r="W18" s="338"/>
+      <c r="X18" s="338"/>
+      <c r="Y18" s="338"/>
+      <c r="Z18" s="340"/>
+      <c r="AA18" s="339"/>
+      <c r="AB18" s="341"/>
+      <c r="AC18" s="314"/>
+      <c r="AD18" s="340"/>
+      <c r="AE18" s="340"/>
+      <c r="AF18" s="340"/>
+      <c r="AG18" s="340"/>
+      <c r="AH18" s="340"/>
+      <c r="AI18" s="340"/>
+      <c r="AJ18" s="340"/>
+      <c r="AK18" s="305"/>
+      <c r="AL18" s="305"/>
+      <c r="AM18" s="338"/>
+      <c r="AN18" s="342"/>
+      <c r="AO18" s="342">
         <v>20.430939410432</v>
       </c>
-      <c r="AP18" s="342"/>
-      <c r="AQ18" s="344">
+      <c r="AP18" s="341"/>
+      <c r="AQ18" s="343">
         <f t="shared" si="0"/>
         <v>20.430939410432</v>
       </c>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" s="335" t="s">
+      <c r="A19" s="334" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="336"/>
-      <c r="C19" s="337"/>
+      <c r="B19" s="335"/>
+      <c r="C19" s="336"/>
       <c r="D19" s="188"/>
-      <c r="E19" s="341"/>
-      <c r="F19" s="339"/>
-      <c r="G19" s="339"/>
-      <c r="H19" s="340">
+      <c r="E19" s="340"/>
+      <c r="F19" s="338"/>
+      <c r="G19" s="338"/>
+      <c r="H19" s="339">
         <f>SUM(I19:K19)</f>
         <v>64.671797999999995</v>
       </c>
-      <c r="I19" s="306"/>
-      <c r="J19" s="341"/>
-      <c r="K19" s="341">
+      <c r="I19" s="305"/>
+      <c r="J19" s="340"/>
+      <c r="K19" s="340">
         <v>64.671797999999995</v>
       </c>
-      <c r="L19" s="340">
+      <c r="L19" s="339">
         <f>SUM(M19:Z19)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="341"/>
-      <c r="N19" s="341"/>
-      <c r="O19" s="341"/>
-      <c r="P19" s="341"/>
-      <c r="Q19" s="341"/>
-      <c r="R19" s="341"/>
-      <c r="S19" s="341"/>
-      <c r="T19" s="341"/>
-      <c r="U19" s="341"/>
-      <c r="V19" s="341"/>
-      <c r="W19" s="339"/>
-      <c r="X19" s="339"/>
-      <c r="Y19" s="339"/>
-      <c r="Z19" s="341"/>
-      <c r="AA19" s="340"/>
-      <c r="AB19" s="342">
+      <c r="M19" s="340"/>
+      <c r="N19" s="340"/>
+      <c r="O19" s="340"/>
+      <c r="P19" s="340"/>
+      <c r="Q19" s="340"/>
+      <c r="R19" s="340"/>
+      <c r="S19" s="340"/>
+      <c r="T19" s="340"/>
+      <c r="U19" s="340"/>
+      <c r="V19" s="340"/>
+      <c r="W19" s="338"/>
+      <c r="X19" s="338"/>
+      <c r="Y19" s="338"/>
+      <c r="Z19" s="340"/>
+      <c r="AA19" s="339"/>
+      <c r="AB19" s="341">
         <f>SUM(AC19:AL19)</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="315"/>
-      <c r="AD19" s="341"/>
-      <c r="AE19" s="341"/>
-      <c r="AF19" s="341"/>
-      <c r="AG19" s="341"/>
-      <c r="AH19" s="341"/>
-      <c r="AI19" s="341"/>
-      <c r="AJ19" s="341"/>
-      <c r="AK19" s="306"/>
-      <c r="AL19" s="306"/>
-      <c r="AM19" s="339"/>
-      <c r="AN19" s="343"/>
-      <c r="AO19" s="343"/>
-      <c r="AP19" s="342"/>
-      <c r="AQ19" s="344">
+      <c r="AC19" s="314"/>
+      <c r="AD19" s="340"/>
+      <c r="AE19" s="340"/>
+      <c r="AF19" s="340"/>
+      <c r="AG19" s="340"/>
+      <c r="AH19" s="340"/>
+      <c r="AI19" s="340"/>
+      <c r="AJ19" s="340"/>
+      <c r="AK19" s="305"/>
+      <c r="AL19" s="305"/>
+      <c r="AM19" s="338"/>
+      <c r="AN19" s="342"/>
+      <c r="AO19" s="342"/>
+      <c r="AP19" s="341"/>
+      <c r="AQ19" s="343">
         <f t="shared" si="0"/>
         <v>64.671797999999995</v>
       </c>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="385" t="s">
+      <c r="A20" s="384" t="s">
         <v>216</v>
       </c>
-      <c r="B20" s="386"/>
-      <c r="C20" s="387"/>
-      <c r="D20" s="307"/>
-      <c r="E20" s="388"/>
-      <c r="F20" s="389"/>
-      <c r="G20" s="389"/>
-      <c r="H20" s="390">
+      <c r="B20" s="385"/>
+      <c r="C20" s="386"/>
+      <c r="D20" s="306"/>
+      <c r="E20" s="387"/>
+      <c r="F20" s="388"/>
+      <c r="G20" s="388"/>
+      <c r="H20" s="389">
         <f>SUM(I20:K20)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="307"/>
-      <c r="J20" s="388"/>
-      <c r="K20" s="388"/>
-      <c r="L20" s="390">
+      <c r="I20" s="306"/>
+      <c r="J20" s="387"/>
+      <c r="K20" s="387"/>
+      <c r="L20" s="389">
         <f>SUM(M20:Z20)</f>
         <v>3166.7858692089685</v>
       </c>
-      <c r="M20" s="388"/>
-      <c r="N20" s="388"/>
-      <c r="O20" s="388">
+      <c r="M20" s="387"/>
+      <c r="N20" s="387"/>
+      <c r="O20" s="387">
         <v>90.017983923640699</v>
       </c>
-      <c r="P20" s="388">
+      <c r="P20" s="387">
         <v>640.53679657777786</v>
       </c>
-      <c r="Q20" s="388">
+      <c r="Q20" s="387">
         <v>226.77459106847999</v>
       </c>
-      <c r="R20" s="388">
+      <c r="R20" s="387">
         <v>0</v>
       </c>
-      <c r="S20" s="388">
+      <c r="S20" s="387">
         <v>960.95017928079096</v>
       </c>
-      <c r="T20" s="388">
+      <c r="T20" s="387">
         <v>64.797462901984332</v>
       </c>
-      <c r="U20" s="388">
+      <c r="U20" s="387">
         <v>1146.9502117491124</v>
       </c>
-      <c r="V20" s="388"/>
-      <c r="W20" s="389">
+      <c r="V20" s="387"/>
+      <c r="W20" s="388">
         <v>36.758643707182323</v>
       </c>
-      <c r="X20" s="389"/>
-      <c r="Y20" s="389"/>
-      <c r="Z20" s="388"/>
-      <c r="AA20" s="390"/>
-      <c r="AB20" s="391">
+      <c r="X20" s="388"/>
+      <c r="Y20" s="388"/>
+      <c r="Z20" s="387"/>
+      <c r="AA20" s="389"/>
+      <c r="AB20" s="390">
         <f>SUM(AC20:AL20)</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="316"/>
-      <c r="AD20" s="388"/>
-      <c r="AE20" s="388"/>
-      <c r="AF20" s="388"/>
-      <c r="AG20" s="388"/>
-      <c r="AH20" s="388"/>
-      <c r="AI20" s="388"/>
-      <c r="AJ20" s="388"/>
-      <c r="AK20" s="307"/>
-      <c r="AL20" s="307"/>
-      <c r="AM20" s="389"/>
-      <c r="AN20" s="392"/>
-      <c r="AO20" s="392"/>
-      <c r="AP20" s="391"/>
-      <c r="AQ20" s="393">
+      <c r="AC20" s="315"/>
+      <c r="AD20" s="387"/>
+      <c r="AE20" s="387"/>
+      <c r="AF20" s="387"/>
+      <c r="AG20" s="387"/>
+      <c r="AH20" s="387"/>
+      <c r="AI20" s="387"/>
+      <c r="AJ20" s="387"/>
+      <c r="AK20" s="306"/>
+      <c r="AL20" s="306"/>
+      <c r="AM20" s="388"/>
+      <c r="AN20" s="391"/>
+      <c r="AO20" s="391"/>
+      <c r="AP20" s="390"/>
+      <c r="AQ20" s="392">
         <f t="shared" si="0"/>
         <v>3166.7858692089685</v>
       </c>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" s="404" t="s">
+      <c r="A21" s="403" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="405"/>
-      <c r="C21" s="406">
+      <c r="B21" s="404"/>
+      <c r="C21" s="405">
         <f>SUM(C22:C24)</f>
         <v>22.240061570656763</v>
       </c>
-      <c r="D21" s="309">
+      <c r="D21" s="308">
         <f>SUM(D22:D24)</f>
         <v>-17.141361188350004</v>
       </c>
-      <c r="E21" s="407">
+      <c r="E21" s="406">
         <f>SUM(E22:E24)</f>
         <v>39.381422759006767</v>
       </c>
-      <c r="F21" s="408">
+      <c r="F21" s="407">
         <f>SUM(F22:F24)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="408">
+      <c r="G21" s="407">
         <f>SUM(G22:G24)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="409">
+      <c r="H21" s="408">
         <f>SUM(I21:K21)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="309">
+      <c r="I21" s="308">
         <f>SUM(I22:I24)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="407">
+      <c r="J21" s="406">
         <f>SUM(J22:J24)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="407">
+      <c r="K21" s="406">
         <f>SUM(K22:K24)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="409">
+      <c r="L21" s="408">
         <f>SUM(M21:Z21)</f>
         <v>-24.953759699422424</v>
       </c>
-      <c r="M21" s="407">
+      <c r="M21" s="406">
         <f t="shared" ref="M21:AQ21" si="9">SUM(M22:M24)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="407">
+      <c r="N21" s="406">
         <f t="shared" si="9"/>
         <v>30.880435114089789</v>
       </c>
-      <c r="O21" s="407">
+      <c r="O21" s="406">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P21" s="407">
+      <c r="P21" s="406">
         <f t="shared" si="9"/>
         <v>-31.080771455555681</v>
       </c>
-      <c r="Q21" s="407">
+      <c r="Q21" s="406">
         <f t="shared" si="9"/>
         <v>374.46366644960005</v>
       </c>
-      <c r="R21" s="407">
+      <c r="R21" s="406">
         <f t="shared" si="9"/>
         <v>-373.64776418279996</v>
       </c>
-      <c r="S21" s="407">
+      <c r="S21" s="406">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T21" s="407">
+      <c r="T21" s="406">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U21" s="407">
+      <c r="U21" s="406">
         <f t="shared" si="9"/>
         <v>-3.3292640540998377</v>
       </c>
-      <c r="V21" s="407">
+      <c r="V21" s="406">
         <f t="shared" si="9"/>
         <v>-22.240061570656767</v>
       </c>
-      <c r="W21" s="408">
+      <c r="W21" s="407">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X21" s="408">
+      <c r="X21" s="407">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="408">
+      <c r="Y21" s="407">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="407">
+      <c r="Z21" s="406">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="409">
+      <c r="AA21" s="408">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="410">
+      <c r="AB21" s="409">
         <f t="shared" si="9"/>
         <v>-804.14402736760053</v>
       </c>
-      <c r="AC21" s="411">
+      <c r="AC21" s="410">
         <f t="shared" si="9"/>
         <v>-59.691708987970003</v>
       </c>
-      <c r="AD21" s="407">
+      <c r="AD21" s="406">
         <f t="shared" si="9"/>
         <v>-743.01992281532614</v>
       </c>
-      <c r="AE21" s="407">
+      <c r="AE21" s="406">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="407">
+      <c r="AF21" s="406">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="412">
+      <c r="AG21" s="411">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AH21" s="412">
+      <c r="AH21" s="411">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI21" s="412">
+      <c r="AI21" s="411">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="412">
+      <c r="AJ21" s="411">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="309">
+      <c r="AK21" s="308">
         <f t="shared" si="9"/>
         <v>-1.4323955643044282</v>
       </c>
-      <c r="AL21" s="412">
+      <c r="AL21" s="411">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AM21" s="408">
+      <c r="AM21" s="407">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="413">
+      <c r="AN21" s="412">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="409">
+      <c r="AO21" s="408">
         <f t="shared" si="9"/>
         <v>804.14402736760053</v>
       </c>
-      <c r="AP21" s="410">
+      <c r="AP21" s="409">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ21" s="414">
+      <c r="AQ21" s="413">
         <f t="shared" si="9"/>
         <v>-2.7136981287656603</v>
       </c>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="375" t="s">
+      <c r="A22" s="374" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="376"/>
-      <c r="C22" s="415"/>
-      <c r="D22" s="310"/>
-      <c r="E22" s="416"/>
-      <c r="F22" s="379"/>
-      <c r="G22" s="379"/>
-      <c r="H22" s="380"/>
-      <c r="I22" s="417"/>
-      <c r="J22" s="378"/>
-      <c r="K22" s="378"/>
-      <c r="L22" s="380"/>
-      <c r="M22" s="378"/>
-      <c r="N22" s="378"/>
-      <c r="O22" s="378"/>
-      <c r="P22" s="378"/>
-      <c r="Q22" s="378"/>
-      <c r="R22" s="378"/>
-      <c r="S22" s="378"/>
-      <c r="T22" s="378"/>
-      <c r="U22" s="378"/>
-      <c r="V22" s="378"/>
-      <c r="W22" s="379"/>
-      <c r="X22" s="379"/>
-      <c r="Y22" s="379"/>
-      <c r="Z22" s="378"/>
-      <c r="AA22" s="380"/>
-      <c r="AB22" s="381">
+      <c r="B22" s="375"/>
+      <c r="C22" s="414"/>
+      <c r="D22" s="309"/>
+      <c r="E22" s="415"/>
+      <c r="F22" s="378"/>
+      <c r="G22" s="378"/>
+      <c r="H22" s="379"/>
+      <c r="I22" s="416"/>
+      <c r="J22" s="377"/>
+      <c r="K22" s="377"/>
+      <c r="L22" s="379"/>
+      <c r="M22" s="377"/>
+      <c r="N22" s="377"/>
+      <c r="O22" s="377"/>
+      <c r="P22" s="377"/>
+      <c r="Q22" s="377"/>
+      <c r="R22" s="377"/>
+      <c r="S22" s="377"/>
+      <c r="T22" s="377"/>
+      <c r="U22" s="377"/>
+      <c r="V22" s="377"/>
+      <c r="W22" s="378"/>
+      <c r="X22" s="378"/>
+      <c r="Y22" s="378"/>
+      <c r="Z22" s="377"/>
+      <c r="AA22" s="379"/>
+      <c r="AB22" s="380">
         <f>SUM(AC22:AM22)</f>
         <v>-804.14402736760053</v>
       </c>
-      <c r="AC22" s="314">
+      <c r="AC22" s="313">
         <f>-AC2</f>
         <v>-59.691708987970003</v>
       </c>
-      <c r="AD22" s="378">
+      <c r="AD22" s="377">
         <f>-AD2</f>
         <v>-743.01992281532614</v>
       </c>
-      <c r="AE22" s="378"/>
-      <c r="AF22" s="378"/>
-      <c r="AG22" s="384"/>
-      <c r="AH22" s="384"/>
-      <c r="AI22" s="384"/>
-      <c r="AJ22" s="384"/>
-      <c r="AK22" s="305">
+      <c r="AE22" s="377"/>
+      <c r="AF22" s="377"/>
+      <c r="AG22" s="383"/>
+      <c r="AH22" s="383"/>
+      <c r="AI22" s="383"/>
+      <c r="AJ22" s="383"/>
+      <c r="AK22" s="304">
         <v>-1.4323955643044282</v>
       </c>
-      <c r="AL22" s="384"/>
-      <c r="AM22" s="379"/>
-      <c r="AN22" s="382"/>
-      <c r="AO22" s="380">
+      <c r="AL22" s="383"/>
+      <c r="AM22" s="378"/>
+      <c r="AN22" s="381"/>
+      <c r="AO22" s="379">
         <f>-(C22+H22+L22+AA22+AB22)</f>
         <v>804.14402736760053</v>
       </c>
-      <c r="AP22" s="381"/>
-      <c r="AQ22" s="402">
+      <c r="AP22" s="380"/>
+      <c r="AQ22" s="401">
         <f>C22+H22+L22+AA22+AB22+AN22+AO22+AP22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="418" t="s">
+      <c r="A23" s="417" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="395"/>
-      <c r="C23" s="419"/>
-      <c r="D23" s="311"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="420"/>
-      <c r="G23" s="420"/>
-      <c r="H23" s="399"/>
-      <c r="I23" s="297"/>
-      <c r="J23" s="421"/>
-      <c r="K23" s="421"/>
-      <c r="L23" s="399"/>
-      <c r="M23" s="421"/>
-      <c r="N23" s="421"/>
-      <c r="O23" s="421"/>
-      <c r="P23" s="421"/>
-      <c r="Q23" s="421"/>
-      <c r="R23" s="421"/>
-      <c r="S23" s="421"/>
-      <c r="T23" s="421"/>
-      <c r="U23" s="421"/>
-      <c r="V23" s="421"/>
-      <c r="W23" s="420"/>
-      <c r="X23" s="420"/>
-      <c r="Y23" s="420"/>
-      <c r="Z23" s="421"/>
-      <c r="AA23" s="399"/>
-      <c r="AB23" s="296"/>
-      <c r="AC23" s="422"/>
-      <c r="AD23" s="421"/>
-      <c r="AE23" s="421"/>
-      <c r="AF23" s="421"/>
-      <c r="AG23" s="421"/>
-      <c r="AH23" s="421"/>
-      <c r="AI23" s="421"/>
-      <c r="AJ23" s="421"/>
-      <c r="AK23" s="423"/>
-      <c r="AL23" s="423"/>
-      <c r="AM23" s="420"/>
-      <c r="AN23" s="424"/>
-      <c r="AO23" s="399"/>
-      <c r="AP23" s="296"/>
-      <c r="AQ23" s="425">
+      <c r="B23" s="394"/>
+      <c r="C23" s="418"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="396"/>
+      <c r="F23" s="419"/>
+      <c r="G23" s="419"/>
+      <c r="H23" s="398"/>
+      <c r="I23" s="296"/>
+      <c r="J23" s="420"/>
+      <c r="K23" s="420"/>
+      <c r="L23" s="398"/>
+      <c r="M23" s="420"/>
+      <c r="N23" s="420"/>
+      <c r="O23" s="420"/>
+      <c r="P23" s="420"/>
+      <c r="Q23" s="420"/>
+      <c r="R23" s="420"/>
+      <c r="S23" s="420"/>
+      <c r="T23" s="420"/>
+      <c r="U23" s="420"/>
+      <c r="V23" s="420"/>
+      <c r="W23" s="419"/>
+      <c r="X23" s="419"/>
+      <c r="Y23" s="419"/>
+      <c r="Z23" s="420"/>
+      <c r="AA23" s="398"/>
+      <c r="AB23" s="295"/>
+      <c r="AC23" s="421"/>
+      <c r="AD23" s="420"/>
+      <c r="AE23" s="420"/>
+      <c r="AF23" s="420"/>
+      <c r="AG23" s="420"/>
+      <c r="AH23" s="420"/>
+      <c r="AI23" s="420"/>
+      <c r="AJ23" s="420"/>
+      <c r="AK23" s="422"/>
+      <c r="AL23" s="422"/>
+      <c r="AM23" s="419"/>
+      <c r="AN23" s="423"/>
+      <c r="AO23" s="398"/>
+      <c r="AP23" s="295"/>
+      <c r="AQ23" s="424">
         <f>C23+H23+L23+AA23+AB23+AN23+AO23+AP23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:43" ht="13.5" thickBot="1">
-      <c r="A24" s="346" t="s">
+      <c r="A24" s="345" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="347"/>
-      <c r="C24" s="426">
+      <c r="B24" s="346"/>
+      <c r="C24" s="425">
         <f>SUM(D24:G24)</f>
         <v>22.240061570656763</v>
       </c>
-      <c r="D24" s="312">
+      <c r="D24" s="311">
         <v>-17.141361188350004</v>
       </c>
-      <c r="E24" s="353">
+      <c r="E24" s="352">
         <f>-D24-V24</f>
         <v>39.381422759006767</v>
       </c>
-      <c r="F24" s="348"/>
-      <c r="G24" s="348"/>
-      <c r="H24" s="349"/>
-      <c r="I24" s="427"/>
-      <c r="J24" s="353"/>
-      <c r="K24" s="353"/>
-      <c r="L24" s="349">
+      <c r="F24" s="347"/>
+      <c r="G24" s="347"/>
+      <c r="H24" s="348"/>
+      <c r="I24" s="426"/>
+      <c r="J24" s="352"/>
+      <c r="K24" s="352"/>
+      <c r="L24" s="348">
         <f>SUM(N24:Z24)</f>
         <v>-24.953759699422424</v>
       </c>
-      <c r="M24" s="353"/>
-      <c r="N24" s="353">
+      <c r="M24" s="352"/>
+      <c r="N24" s="352">
         <v>30.880435114089789</v>
       </c>
-      <c r="O24" s="353"/>
-      <c r="P24" s="353">
+      <c r="O24" s="352"/>
+      <c r="P24" s="352">
         <v>-31.080771455555681</v>
       </c>
-      <c r="Q24" s="353">
+      <c r="Q24" s="352">
         <v>374.46366644960005</v>
       </c>
-      <c r="R24" s="353">
+      <c r="R24" s="352">
         <v>-373.64776418279996</v>
       </c>
-      <c r="S24" s="353">
+      <c r="S24" s="352">
         <v>0</v>
       </c>
-      <c r="T24" s="353"/>
-      <c r="U24" s="353">
+      <c r="T24" s="352"/>
+      <c r="U24" s="352">
         <v>-3.3292640540998377</v>
       </c>
-      <c r="V24" s="348">
+      <c r="V24" s="347">
         <v>-22.240061570656767</v>
       </c>
-      <c r="W24" s="348">
+      <c r="W24" s="347">
         <v>0</v>
       </c>
-      <c r="X24" s="348"/>
-      <c r="Y24" s="348"/>
-      <c r="Z24" s="353"/>
-      <c r="AA24" s="349"/>
-      <c r="AB24" s="349">
+      <c r="X24" s="347"/>
+      <c r="Y24" s="347"/>
+      <c r="Z24" s="352"/>
+      <c r="AA24" s="348"/>
+      <c r="AB24" s="348">
         <f>SUM(AC24:AM24)</f>
         <v>0</v>
       </c>
-      <c r="AC24" s="352"/>
-      <c r="AD24" s="353"/>
-      <c r="AE24" s="353"/>
-      <c r="AF24" s="353"/>
-      <c r="AG24" s="353"/>
-      <c r="AH24" s="353"/>
-      <c r="AI24" s="353"/>
-      <c r="AJ24" s="353"/>
-      <c r="AK24" s="350"/>
-      <c r="AL24" s="350"/>
-      <c r="AM24" s="348"/>
-      <c r="AN24" s="354"/>
-      <c r="AO24" s="349"/>
-      <c r="AP24" s="351"/>
-      <c r="AQ24" s="355">
+      <c r="AC24" s="351"/>
+      <c r="AD24" s="352"/>
+      <c r="AE24" s="352"/>
+      <c r="AF24" s="352"/>
+      <c r="AG24" s="352"/>
+      <c r="AH24" s="352"/>
+      <c r="AI24" s="352"/>
+      <c r="AJ24" s="352"/>
+      <c r="AK24" s="349"/>
+      <c r="AL24" s="349"/>
+      <c r="AM24" s="347"/>
+      <c r="AN24" s="353"/>
+      <c r="AO24" s="348"/>
+      <c r="AP24" s="350"/>
+      <c r="AQ24" s="354">
         <f>C24+H24+L24+AA24+AB24+AN24+AO24+AP24</f>
         <v>-2.7136981287656603</v>
       </c>
     </row>
     <row r="25" spans="1:43" ht="13.5" thickBot="1">
-      <c r="A25" s="394" t="s">
+      <c r="A25" s="393" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="395"/>
-      <c r="C25" s="396">
+      <c r="B25" s="394"/>
+      <c r="C25" s="395">
         <f>SUM(D25:G25)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="308"/>
-      <c r="E25" s="397"/>
-      <c r="F25" s="420"/>
-      <c r="G25" s="420"/>
-      <c r="H25" s="399">
+      <c r="D25" s="307"/>
+      <c r="E25" s="396"/>
+      <c r="F25" s="419"/>
+      <c r="G25" s="419"/>
+      <c r="H25" s="398">
         <f>SUM(I25:K25)</f>
         <v>10.28324833984202</v>
       </c>
-      <c r="I25" s="420">
+      <c r="I25" s="419">
         <v>10.28324833984202</v>
       </c>
-      <c r="J25" s="421"/>
-      <c r="K25" s="421"/>
-      <c r="L25" s="399">
+      <c r="J25" s="420"/>
+      <c r="K25" s="420"/>
+      <c r="L25" s="398">
         <f>SUM(O25:Z25)</f>
         <v>98.284657617035819</v>
       </c>
-      <c r="M25" s="421"/>
-      <c r="N25" s="421"/>
-      <c r="O25" s="421">
+      <c r="M25" s="420"/>
+      <c r="N25" s="420"/>
+      <c r="O25" s="420">
         <v>95.274692021714102</v>
       </c>
-      <c r="P25" s="421"/>
-      <c r="Q25" s="421"/>
-      <c r="R25" s="421"/>
-      <c r="S25" s="421">
+      <c r="P25" s="420"/>
+      <c r="Q25" s="420"/>
+      <c r="R25" s="420"/>
+      <c r="S25" s="420">
         <v>0</v>
       </c>
-      <c r="T25" s="421">
+      <c r="T25" s="420">
         <v>4.1693256233877908E-3</v>
       </c>
-      <c r="U25" s="421">
+      <c r="U25" s="420">
         <v>3.0057962696983291</v>
       </c>
-      <c r="V25" s="421"/>
-      <c r="W25" s="420"/>
-      <c r="X25" s="420"/>
-      <c r="Y25" s="420"/>
-      <c r="Z25" s="421"/>
-      <c r="AA25" s="399">
+      <c r="V25" s="420"/>
+      <c r="W25" s="419"/>
+      <c r="X25" s="419"/>
+      <c r="Y25" s="419"/>
+      <c r="Z25" s="420"/>
+      <c r="AA25" s="398">
         <v>57.528599543766255</v>
       </c>
-      <c r="AB25" s="296">
+      <c r="AB25" s="295">
         <f>SUM(AC25:AI25)</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="400"/>
-      <c r="AD25" s="421"/>
-      <c r="AE25" s="421"/>
-      <c r="AF25" s="421"/>
-      <c r="AG25" s="421"/>
-      <c r="AH25" s="421"/>
-      <c r="AI25" s="421"/>
-      <c r="AJ25" s="421"/>
-      <c r="AK25" s="423"/>
-      <c r="AL25" s="423"/>
-      <c r="AM25" s="420"/>
-      <c r="AN25" s="424"/>
-      <c r="AO25" s="399">
+      <c r="AC25" s="399"/>
+      <c r="AD25" s="420"/>
+      <c r="AE25" s="420"/>
+      <c r="AF25" s="420"/>
+      <c r="AG25" s="420"/>
+      <c r="AH25" s="420"/>
+      <c r="AI25" s="420"/>
+      <c r="AJ25" s="420"/>
+      <c r="AK25" s="422"/>
+      <c r="AL25" s="422"/>
+      <c r="AM25" s="419"/>
+      <c r="AN25" s="423"/>
+      <c r="AO25" s="398">
         <v>259.46681438260055</v>
       </c>
-      <c r="AP25" s="296"/>
-      <c r="AQ25" s="425">
+      <c r="AP25" s="295"/>
+      <c r="AQ25" s="424">
         <f>C25+H25+L25+AA25+AB25+AN25+AO25+AP25</f>
         <v>425.56331988324462</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="13.5" thickBot="1">
-      <c r="A26" s="428" t="s">
+      <c r="A26" s="427" t="s">
         <v>222</v>
       </c>
-      <c r="B26" s="429"/>
-      <c r="C26" s="430">
+      <c r="B26" s="428"/>
+      <c r="C26" s="429">
         <f t="shared" ref="C26:AP26" si="10">C7-C9+C15+C21-C25</f>
         <v>348.69297193905459</v>
       </c>
-      <c r="D26" s="313">
+      <c r="D26" s="312">
         <f t="shared" si="10"/>
         <v>190.34389623369066</v>
       </c>
-      <c r="E26" s="431">
+      <c r="E26" s="430">
         <f t="shared" si="10"/>
         <v>149.86072528467759</v>
       </c>
-      <c r="F26" s="431">
+      <c r="F26" s="430">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G26" s="431">
+      <c r="G26" s="430">
         <f t="shared" si="10"/>
         <v>8.4883504206865013</v>
       </c>
-      <c r="H26" s="432">
+      <c r="H26" s="431">
         <f t="shared" si="10"/>
         <v>199.31419506885081</v>
       </c>
-      <c r="I26" s="313">
+      <c r="I26" s="312">
         <f t="shared" si="10"/>
         <v>0.37225106885087023</v>
       </c>
-      <c r="J26" s="431">
+      <c r="J26" s="430">
         <f t="shared" si="10"/>
         <v>127.70399999999999</v>
       </c>
-      <c r="K26" s="431">
+      <c r="K26" s="430">
         <f t="shared" si="10"/>
         <v>71.237943999999999</v>
       </c>
-      <c r="L26" s="432">
+      <c r="L26" s="431">
         <f t="shared" si="10"/>
         <v>7296.7282199976062</v>
       </c>
-      <c r="M26" s="431">
+      <c r="M26" s="430">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N26" s="431">
+      <c r="N26" s="430">
         <f t="shared" si="10"/>
         <v>-0.14794174855289199</v>
       </c>
-      <c r="O26" s="431">
+      <c r="O26" s="430">
         <f t="shared" si="10"/>
         <v>-5.2567080980734033</v>
       </c>
-      <c r="P26" s="431">
+      <c r="P26" s="430">
         <f t="shared" si="10"/>
         <v>799.46408249999979</v>
       </c>
-      <c r="Q26" s="431">
+      <c r="Q26" s="430">
         <f t="shared" si="10"/>
         <v>962.00436969728003</v>
       </c>
-      <c r="R26" s="431">
+      <c r="R26" s="430">
         <f t="shared" si="10"/>
         <v>1095.3569190907197</v>
       </c>
-      <c r="S26" s="431">
+      <c r="S26" s="430">
         <f t="shared" si="10"/>
         <v>39.21120498695575</v>
       </c>
-      <c r="T26" s="431">
+      <c r="T26" s="430">
         <f t="shared" si="10"/>
         <v>187.88084937540125</v>
       </c>
-      <c r="U26" s="431">
+      <c r="U26" s="430">
         <f t="shared" si="10"/>
         <v>3833.6812396704358</v>
       </c>
-      <c r="V26" s="431">
+      <c r="V26" s="430">
         <f t="shared" si="10"/>
         <v>145.44440711224036</v>
       </c>
-      <c r="W26" s="431">
+      <c r="W26" s="430">
         <f t="shared" si="10"/>
         <v>7.506512734116022</v>
       </c>
-      <c r="X26" s="431">
+      <c r="X26" s="430">
         <f t="shared" si="10"/>
         <v>195.36275312176252</v>
       </c>
-      <c r="Y26" s="431">
+      <c r="Y26" s="430">
         <f t="shared" si="10"/>
         <v>1.2096467108549098</v>
       </c>
-      <c r="Z26" s="431">
+      <c r="Z26" s="430">
         <f t="shared" si="10"/>
         <v>35.010884844467988</v>
       </c>
-      <c r="AA26" s="432">
+      <c r="AA26" s="431">
         <f t="shared" si="10"/>
         <v>1921.4292269183238</v>
       </c>
-      <c r="AB26" s="433">
+      <c r="AB26" s="432">
         <f t="shared" si="10"/>
         <v>456.44000480998989</v>
       </c>
-      <c r="AC26" s="436">
+      <c r="AC26" s="435">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="431">
+      <c r="AD26" s="430">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="431">
+      <c r="AE26" s="430">
         <f t="shared" si="10"/>
         <v>196.67659478004623</v>
       </c>
-      <c r="AF26" s="431">
+      <c r="AF26" s="430">
         <f t="shared" si="10"/>
         <v>40.692904224132207</v>
       </c>
-      <c r="AG26" s="431">
+      <c r="AG26" s="430">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH26" s="431">
+      <c r="AH26" s="430">
         <f t="shared" si="10"/>
         <v>9.7770611234061491</v>
       </c>
-      <c r="AI26" s="431">
+      <c r="AI26" s="430">
         <f t="shared" si="10"/>
         <v>124.01266332172798</v>
       </c>
-      <c r="AJ26" s="431">
+      <c r="AJ26" s="430">
         <f t="shared" si="10"/>
         <v>27.929372998367999</v>
       </c>
-      <c r="AK26" s="313">
+      <c r="AK26" s="312">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="313">
+      <c r="AL26" s="312">
         <f t="shared" si="10"/>
         <v>13.54608560366562</v>
       </c>
-      <c r="AM26" s="434">
+      <c r="AM26" s="433">
         <f t="shared" si="10"/>
         <v>43.805322758643676</v>
       </c>
-      <c r="AN26" s="432">
+      <c r="AN26" s="431">
         <f t="shared" si="10"/>
         <v>54.722939604974087</v>
       </c>
-      <c r="AO26" s="432">
+      <c r="AO26" s="431">
         <f t="shared" si="10"/>
         <v>2361.2693974490917</v>
       </c>
-      <c r="AP26" s="433">
+      <c r="AP26" s="432">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ26" s="435">
+      <c r="AQ26" s="434">
         <f>C26+H26+L26+AA26+AB26+AN26+AO26+AP26</f>
         <v>12638.596955787891</v>
       </c>
     </row>
     <row r="39" spans="14:16">
-      <c r="P39" s="442"/>
+      <c r="P39" s="441"/>
     </row>
     <row r="40" spans="14:16">
-      <c r="N40" s="441"/>
+      <c r="N40" s="440"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -16296,10 +16293,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E428973-03EE-47B5-B88E-68B51CDC4391}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:T96"/>
+  <dimension ref="B2:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17732,7 +17729,7 @@
         <v>MINGASNAT_S1</v>
       </c>
       <c r="F45" s="237" t="str">
-        <f t="shared" ref="F45:F76" si="12">G45 &amp; " of " &amp; VLOOKUP(H45,$B$13:$C$92,2,FALSE) &amp; IF(J45&lt;&gt;0,IF(VLOOKUP(J45,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J45,$I$4:$J$10,2,FALSE),""),"")</f>
+        <f t="shared" ref="F45:F75" si="12">G45 &amp; " of " &amp; VLOOKUP(H45,$B$13:$C$92,2,FALSE) &amp; IF(J45&lt;&gt;0,IF(VLOOKUP(J45,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J45,$I$4:$J$10,2,FALSE),""),"")</f>
         <v>Domestic Potential of Natural Gas  - Step 1</v>
       </c>
       <c r="G45" s="239" t="str">
@@ -17830,7 +17827,7 @@
         <v>PEAT</v>
       </c>
       <c r="I47" s="239" t="str">
-        <f t="shared" ref="I47:I88" si="14">$E$4</f>
+        <f t="shared" ref="I47:I87" si="14">$E$4</f>
         <v>MIN</v>
       </c>
       <c r="J47" s="239" t="str">
@@ -18818,27 +18815,27 @@
       <c r="C76" s="283" t="s">
         <v>459</v>
       </c>
-      <c r="E76" s="283" t="str">
-        <f t="shared" ref="E76:E85" si="19">I76&amp;H76&amp;J76</f>
-        <v>MINBIOJKR_S1</v>
-      </c>
-      <c r="F76" s="283" t="str">
-        <f t="shared" si="12"/>
-        <v>Domestic Potential of Bio Jet Kerosene - Step 1</v>
-      </c>
-      <c r="G76" s="283" t="str">
+      <c r="E76" s="239" t="str">
+        <f t="shared" ref="E76:E84" si="19">I76&amp;H76&amp;J76</f>
+        <v>MINBIOCATW_S1</v>
+      </c>
+      <c r="F76" s="237" t="str">
+        <f t="shared" ref="F76:F88" si="20">G76 &amp; " of " &amp; VLOOKUP(H76,$B$13:$C$92,2,FALSE) &amp; IF(J76&lt;&gt;0,IF(VLOOKUP(J76,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J76,$I$4:$J$10,2,FALSE),""),"")</f>
+        <v>Domestic Potential of Cattle Waste  - Step 1</v>
+      </c>
+      <c r="G76" s="239" t="str">
         <f>VLOOKUP(I76,$E$4:$F$9,2,FALSE)</f>
         <v>Domestic Potential</v>
       </c>
-      <c r="H76" s="283" t="str">
-        <f>$B$76</f>
-        <v>BIOJKR</v>
-      </c>
-      <c r="I76" s="283" t="str">
+      <c r="H76" s="239" t="str">
+        <f>$B$87</f>
+        <v>BIOCATW</v>
+      </c>
+      <c r="I76" s="239" t="str">
         <f t="shared" si="14"/>
         <v>MIN</v>
       </c>
-      <c r="J76" s="283" t="str">
+      <c r="J76" s="239" t="str">
         <f>$I$7</f>
         <v>_S1</v>
       </c>
@@ -18855,11 +18852,11 @@
       </c>
       <c r="E77" s="239" t="str">
         <f t="shared" si="19"/>
-        <v>MINBIOCATW_S1</v>
+        <v>MINBIOCATW_S2</v>
       </c>
       <c r="F77" s="237" t="str">
-        <f t="shared" ref="F77:F89" si="20">G77 &amp; " of " &amp; VLOOKUP(H77,$B$13:$C$92,2,FALSE) &amp; IF(J77&lt;&gt;0,IF(VLOOKUP(J77,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J77,$I$4:$J$10,2,FALSE),""),"")</f>
-        <v>Domestic Potential of Cattle Waste  - Step 1</v>
+        <f t="shared" si="20"/>
+        <v>Domestic Potential of Cattle Waste  - Step 2</v>
       </c>
       <c r="G77" s="239" t="str">
         <f>VLOOKUP(I77,$E$4:$F$9,2,FALSE)</f>
@@ -18874,8 +18871,8 @@
         <v>MIN</v>
       </c>
       <c r="J77" s="239" t="str">
-        <f>$I$7</f>
-        <v>_S1</v>
+        <f>$I$8</f>
+        <v>_S2</v>
       </c>
       <c r="K77" s="239" t="s">
         <v>9</v>
@@ -18890,14 +18887,14 @@
       </c>
       <c r="E78" s="239" t="str">
         <f t="shared" si="19"/>
-        <v>MINBIOCATW_S2</v>
+        <v>MINBIOCATW_S3</v>
       </c>
       <c r="F78" s="237" t="str">
         <f t="shared" si="20"/>
-        <v>Domestic Potential of Cattle Waste  - Step 2</v>
+        <v>Domestic Potential of Cattle Waste  - Step 3</v>
       </c>
       <c r="G78" s="239" t="str">
-        <f>VLOOKUP(I78,$E$4:$F$9,2,FALSE)</f>
+        <f t="shared" ref="G78:G84" si="21">VLOOKUP(I78,$E$4:$F$9,2,FALSE)</f>
         <v>Domestic Potential</v>
       </c>
       <c r="H78" s="239" t="str">
@@ -18909,8 +18906,8 @@
         <v>MIN</v>
       </c>
       <c r="J78" s="239" t="str">
-        <f>$I$8</f>
-        <v>_S2</v>
+        <f>$I$9</f>
+        <v>_S3</v>
       </c>
       <c r="K78" s="239" t="s">
         <v>9</v>
@@ -18925,27 +18922,27 @@
       </c>
       <c r="E79" s="239" t="str">
         <f t="shared" si="19"/>
-        <v>MINBIOCATW_S3</v>
+        <v>MINBIOPIGW_S1</v>
       </c>
       <c r="F79" s="237" t="str">
         <f t="shared" si="20"/>
-        <v>Domestic Potential of Cattle Waste  - Step 3</v>
+        <v>Domestic Potential of Pig Waste  - Step 1</v>
       </c>
       <c r="G79" s="239" t="str">
-        <f t="shared" ref="G79:G85" si="21">VLOOKUP(I79,$E$4:$F$9,2,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H79" s="239" t="str">
-        <f>$B$87</f>
-        <v>BIOCATW</v>
+        <f>$B$88</f>
+        <v>BIOPIGW</v>
       </c>
       <c r="I79" s="239" t="str">
         <f t="shared" si="14"/>
         <v>MIN</v>
       </c>
       <c r="J79" s="239" t="str">
-        <f>$I$9</f>
-        <v>_S3</v>
+        <f>$I$7</f>
+        <v>_S1</v>
       </c>
       <c r="K79" s="239" t="s">
         <v>9</v>
@@ -18960,11 +18957,11 @@
       </c>
       <c r="E80" s="239" t="str">
         <f t="shared" si="19"/>
-        <v>MINBIOPIGW_S1</v>
+        <v>MINBIOPIGW_S2</v>
       </c>
       <c r="F80" s="237" t="str">
         <f t="shared" si="20"/>
-        <v>Domestic Potential of Pig Waste  - Step 1</v>
+        <v>Domestic Potential of Pig Waste  - Step 2</v>
       </c>
       <c r="G80" s="239" t="str">
         <f t="shared" si="21"/>
@@ -18979,8 +18976,8 @@
         <v>MIN</v>
       </c>
       <c r="J80" s="239" t="str">
-        <f>$I$7</f>
-        <v>_S1</v>
+        <f>$I$8</f>
+        <v>_S2</v>
       </c>
       <c r="K80" s="239" t="s">
         <v>9</v>
@@ -18995,11 +18992,11 @@
       </c>
       <c r="E81" s="239" t="str">
         <f t="shared" si="19"/>
-        <v>MINBIOPIGW_S2</v>
+        <v>MINBIOPIGW_S3</v>
       </c>
       <c r="F81" s="237" t="str">
         <f t="shared" si="20"/>
-        <v>Domestic Potential of Pig Waste  - Step 2</v>
+        <v>Domestic Potential of Pig Waste  - Step 3</v>
       </c>
       <c r="G81" s="239" t="str">
         <f t="shared" si="21"/>
@@ -19014,8 +19011,8 @@
         <v>MIN</v>
       </c>
       <c r="J81" s="239" t="str">
-        <f>$I$8</f>
-        <v>_S2</v>
+        <f>$I$9</f>
+        <v>_S3</v>
       </c>
       <c r="K81" s="239" t="s">
         <v>9</v>
@@ -19030,27 +19027,27 @@
       </c>
       <c r="E82" s="239" t="str">
         <f t="shared" si="19"/>
-        <v>MINBIOPIGW_S3</v>
+        <v>MINBIOINDF_S1</v>
       </c>
       <c r="F82" s="237" t="str">
         <f t="shared" si="20"/>
-        <v>Domestic Potential of Pig Waste  - Step 3</v>
+        <v>Domestic Potential of Industrial Food Waste  - Step 1</v>
       </c>
       <c r="G82" s="239" t="str">
         <f t="shared" si="21"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H82" s="239" t="str">
-        <f>$B$88</f>
-        <v>BIOPIGW</v>
+        <f>$B$89</f>
+        <v>BIOINDF</v>
       </c>
       <c r="I82" s="239" t="str">
         <f t="shared" si="14"/>
         <v>MIN</v>
       </c>
       <c r="J82" s="239" t="str">
-        <f>$I$9</f>
-        <v>_S3</v>
+        <f>$I$7</f>
+        <v>_S1</v>
       </c>
       <c r="K82" s="239" t="s">
         <v>9</v>
@@ -19065,11 +19062,11 @@
       </c>
       <c r="E83" s="239" t="str">
         <f t="shared" si="19"/>
-        <v>MINBIOINDF_S1</v>
+        <v>MINBIOINDF_S2</v>
       </c>
       <c r="F83" s="237" t="str">
         <f t="shared" si="20"/>
-        <v>Domestic Potential of Industrial Food Waste  - Step 1</v>
+        <v>Domestic Potential of Industrial Food Waste  - Step 2</v>
       </c>
       <c r="G83" s="239" t="str">
         <f t="shared" si="21"/>
@@ -19084,8 +19081,8 @@
         <v>MIN</v>
       </c>
       <c r="J83" s="239" t="str">
-        <f>$I$7</f>
-        <v>_S1</v>
+        <f>$I$8</f>
+        <v>_S2</v>
       </c>
       <c r="K83" s="239" t="s">
         <v>9</v>
@@ -19100,11 +19097,11 @@
       </c>
       <c r="E84" s="239" t="str">
         <f t="shared" si="19"/>
-        <v>MINBIOINDF_S2</v>
+        <v>MINBIOINDF_S3</v>
       </c>
       <c r="F84" s="237" t="str">
         <f t="shared" si="20"/>
-        <v>Domestic Potential of Industrial Food Waste  - Step 2</v>
+        <v>Domestic Potential of Industrial Food Waste  - Step 3</v>
       </c>
       <c r="G84" s="239" t="str">
         <f t="shared" si="21"/>
@@ -19119,8 +19116,8 @@
         <v>MIN</v>
       </c>
       <c r="J84" s="239" t="str">
-        <f>$I$8</f>
-        <v>_S2</v>
+        <f>$I$9</f>
+        <v>_S3</v>
       </c>
       <c r="K84" s="239" t="s">
         <v>9</v>
@@ -19135,29 +19132,26 @@
         <v>277</v>
       </c>
       <c r="E85" s="239" t="str">
-        <f t="shared" si="19"/>
-        <v>MINBIOINDF_S3</v>
+        <f t="shared" ref="E85:E86" si="22">I85&amp;H85&amp;J85</f>
+        <v>MINCYC</v>
       </c>
       <c r="F85" s="237" t="str">
         <f t="shared" si="20"/>
-        <v>Domestic Potential of Industrial Food Waste  - Step 3</v>
+        <v>Domestic Potential of Cycling</v>
       </c>
       <c r="G85" s="239" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="G85:G86" si="23">VLOOKUP(I85,$E$4:$F$9,2,FALSE)</f>
         <v>Domestic Potential</v>
       </c>
       <c r="H85" s="239" t="str">
-        <f>$B$89</f>
-        <v>BIOINDF</v>
+        <f>$B$91</f>
+        <v>CYC</v>
       </c>
       <c r="I85" s="239" t="str">
         <f t="shared" si="14"/>
         <v>MIN</v>
       </c>
-      <c r="J85" s="239" t="str">
-        <f>$I$9</f>
-        <v>_S3</v>
-      </c>
+      <c r="J85" s="239"/>
       <c r="K85" s="239" t="s">
         <v>9</v>
       </c>
@@ -19171,20 +19165,20 @@
         <v>278</v>
       </c>
       <c r="E86" s="239" t="str">
-        <f t="shared" ref="E86:E87" si="22">I86&amp;H86&amp;J86</f>
-        <v>MINCYC</v>
+        <f t="shared" si="22"/>
+        <v>MINWLK</v>
       </c>
       <c r="F86" s="237" t="str">
         <f t="shared" si="20"/>
-        <v>Domestic Potential of Cycling</v>
+        <v>Domestic Potential of Walking</v>
       </c>
       <c r="G86" s="239" t="str">
-        <f t="shared" ref="G86:G87" si="23">VLOOKUP(I86,$E$4:$F$9,2,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>Domestic Potential</v>
       </c>
       <c r="H86" s="239" t="str">
-        <f>$B$91</f>
-        <v>CYC</v>
+        <f>$B$92</f>
+        <v>WLK</v>
       </c>
       <c r="I86" s="239" t="str">
         <f t="shared" si="14"/>
@@ -19203,20 +19197,20 @@
         <v>279</v>
       </c>
       <c r="E87" s="239" t="str">
-        <f t="shared" si="22"/>
-        <v>MINWLK</v>
+        <f t="shared" ref="E87" si="24">I87&amp;H87&amp;J87</f>
+        <v>MINAMBHET</v>
       </c>
       <c r="F87" s="237" t="str">
-        <f t="shared" si="20"/>
-        <v>Domestic Potential of Walking</v>
+        <f>G87 &amp; " of " &amp; VLOOKUP(H87,$B$13:$C$93,2,FALSE) &amp; IF(J87&lt;&gt;0,IF(VLOOKUP(J87,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J87,$I$4:$J$10,2,FALSE),""),"")</f>
+        <v>Domestic Potential of Ambient Heat</v>
       </c>
       <c r="G87" s="239" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="G87" si="25">VLOOKUP(I87,$E$4:$F$9,2,FALSE)</f>
         <v>Domestic Potential</v>
       </c>
       <c r="H87" s="239" t="str">
-        <f>$B$92</f>
-        <v>WLK</v>
+        <f>$B$93</f>
+        <v>AMBHET</v>
       </c>
       <c r="I87" s="239" t="str">
         <f t="shared" si="14"/>
@@ -19235,28 +19229,31 @@
         <v>280</v>
       </c>
       <c r="E88" s="239" t="str">
-        <f t="shared" ref="E88" si="24">I88&amp;H88&amp;J88</f>
-        <v>MINAMBHET</v>
+        <f t="shared" ref="E88:E89" si="26">I88&amp;H88&amp;J88</f>
+        <v>IMPELC_UK</v>
       </c>
       <c r="F88" s="237" t="str">
-        <f>G88 &amp; " of " &amp; VLOOKUP(H88,$B$13:$C$93,2,FALSE) &amp; IF(J88&lt;&gt;0,IF(VLOOKUP(J88,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J88,$I$4:$J$10,2,FALSE),""),"")</f>
-        <v>Domestic Potential of Ambient Heat</v>
+        <f t="shared" si="20"/>
+        <v>Import of Electricity - UK</v>
       </c>
       <c r="G88" s="239" t="str">
-        <f t="shared" ref="G88" si="25">VLOOKUP(I88,$E$4:$F$9,2,FALSE)</f>
-        <v>Domestic Potential</v>
+        <f t="shared" ref="G88:G89" si="27">VLOOKUP(I88,$E$4:$F$9,2,FALSE)</f>
+        <v>Import</v>
       </c>
       <c r="H88" s="239" t="str">
-        <f>$B$93</f>
-        <v>AMBHET</v>
+        <f>$B$43</f>
+        <v>ELC</v>
       </c>
       <c r="I88" s="239" t="str">
-        <f t="shared" si="14"/>
-        <v>MIN</v>
-      </c>
-      <c r="J88" s="239"/>
+        <f>$E$5</f>
+        <v>IMP</v>
+      </c>
+      <c r="J88" s="239" t="str">
+        <f>$I$4</f>
+        <v>_UK</v>
+      </c>
       <c r="K88" s="239" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="2:12">
@@ -19267,31 +19264,31 @@
         <v>281</v>
       </c>
       <c r="E89" s="239" t="str">
-        <f t="shared" ref="E89:E90" si="26">I89&amp;H89&amp;J89</f>
-        <v>IMPELC_UK</v>
+        <f t="shared" si="26"/>
+        <v>EXPELC_UK</v>
       </c>
       <c r="F89" s="237" t="str">
-        <f t="shared" si="20"/>
-        <v>Import of Electricity - UK</v>
+        <f>G89 &amp; " of " &amp; VLOOKUP(H89,$B$13:$C$91,2,FALSE) &amp; IF(J89&lt;&gt;0,IF(VLOOKUP(J89,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J89,$I$4:$J$10,2,FALSE),""),"")</f>
+        <v>Export of Electricity - UK</v>
       </c>
       <c r="G89" s="239" t="str">
-        <f t="shared" ref="G89:G90" si="27">VLOOKUP(I89,$E$4:$F$9,2,FALSE)</f>
-        <v>Import</v>
+        <f t="shared" si="27"/>
+        <v>Export</v>
       </c>
       <c r="H89" s="239" t="str">
         <f>$B$43</f>
         <v>ELC</v>
       </c>
       <c r="I89" s="239" t="str">
-        <f>$E$5</f>
-        <v>IMP</v>
+        <f>$E$6</f>
+        <v>EXP</v>
       </c>
       <c r="J89" s="239" t="str">
         <f>$I$4</f>
         <v>_UK</v>
       </c>
       <c r="K89" s="239" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="2:12">
@@ -19302,31 +19299,31 @@
         <v>392</v>
       </c>
       <c r="E90" s="239" t="str">
-        <f t="shared" si="26"/>
-        <v>EXPELC_UK</v>
+        <f>LEFT(B4,1)&amp;I90&amp;H90&amp;J90</f>
+        <v>SREFOILCRD_Whitegate</v>
       </c>
       <c r="F90" s="237" t="str">
         <f>G90 &amp; " of " &amp; VLOOKUP(H90,$B$13:$C$91,2,FALSE) &amp; IF(J90&lt;&gt;0,IF(VLOOKUP(J90,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J90,$I$4:$J$10,2,FALSE),""),"")</f>
-        <v>Export of Electricity - UK</v>
+        <v>Refinery of Crude Oil  - Whitegate</v>
       </c>
       <c r="G90" s="239" t="str">
-        <f t="shared" si="27"/>
-        <v>Export</v>
-      </c>
-      <c r="H90" s="239" t="str">
-        <f>$B$43</f>
-        <v>ELC</v>
+        <f>VLOOKUP(I90,$E$4:$F$9,2,FALSE)</f>
+        <v>Refinery</v>
+      </c>
+      <c r="H90" t="str">
+        <f>B51</f>
+        <v>OILCRD</v>
       </c>
       <c r="I90" s="239" t="str">
-        <f>$E$6</f>
-        <v>EXP</v>
-      </c>
-      <c r="J90" s="239" t="str">
-        <f>$I$4</f>
-        <v>_UK</v>
+        <f>$E$7</f>
+        <v>REF</v>
+      </c>
+      <c r="J90" t="str">
+        <f>I6</f>
+        <v>_Whitegate</v>
       </c>
       <c r="K90" s="239" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="2:12">
@@ -19337,29 +19334,26 @@
         <v>457</v>
       </c>
       <c r="E91" s="239" t="str">
-        <f>LEFT(B4,1)&amp;I91&amp;H91&amp;J91</f>
-        <v>SREFOILCRD_Whitegate</v>
+        <f>I91&amp;$B$4&amp;H91&amp;J91</f>
+        <v>FT-SUPNGA</v>
       </c>
       <c r="F91" s="237" t="str">
-        <f>G91 &amp; " of " &amp; VLOOKUP(H91,$B$13:$C$91,2,FALSE) &amp; IF(J91&lt;&gt;0,IF(VLOOKUP(J91,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J91,$I$4:$J$10,2,FALSE),""),"")</f>
-        <v>Refinery of Crude Oil  - Whitegate</v>
+        <f>G91 &amp; " - " &amp; VLOOKUP(H91,$B$13:$C$92,2,FALSE) &amp; IF(J91&lt;&gt;0,IF(VLOOKUP(J91,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J91,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
+        <v>Fuel Tech - Natural Gas (SUP)</v>
       </c>
       <c r="G91" s="239" t="str">
-        <f>VLOOKUP(I91,$E$4:$F$9,2,FALSE)</f>
-        <v>Refinery</v>
-      </c>
-      <c r="H91" t="str">
-        <f>B51</f>
-        <v>OILCRD</v>
+        <f t="shared" ref="G91" si="28">VLOOKUP(I91,$E$4:$F$9,2,FALSE)</f>
+        <v>Fuel Tech</v>
+      </c>
+      <c r="H91" s="237" t="str">
+        <f>B20</f>
+        <v>NGA</v>
       </c>
       <c r="I91" s="239" t="str">
-        <f>$E$7</f>
-        <v>REF</v>
-      </c>
-      <c r="J91" t="str">
-        <f>I6</f>
-        <v>_Whitegate</v>
-      </c>
+        <f>$E$8</f>
+        <v>FT-</v>
+      </c>
+      <c r="J91" s="237"/>
       <c r="K91" s="239" t="s">
         <v>159</v>
       </c>
@@ -19372,23 +19366,23 @@
         <v>458</v>
       </c>
       <c r="E92" s="239" t="str">
-        <f>I92&amp;$B$4&amp;H92&amp;J92</f>
-        <v>FT-SUPNGA</v>
+        <f t="shared" ref="E92:E95" si="29">I92&amp;$B$4&amp;H92&amp;J92</f>
+        <v>FT-SUPCOA</v>
       </c>
       <c r="F92" s="237" t="str">
         <f>G92 &amp; " - " &amp; VLOOKUP(H92,$B$13:$C$92,2,FALSE) &amp; IF(J92&lt;&gt;0,IF(VLOOKUP(J92,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J92,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
-        <v>Fuel Tech - Natural Gas (SUP)</v>
+        <v>Fuel Tech - Coal (SUP)</v>
       </c>
       <c r="G92" s="239" t="str">
-        <f t="shared" ref="G92" si="28">VLOOKUP(I92,$E$4:$F$9,2,FALSE)</f>
+        <f t="shared" ref="G92:G95" si="30">VLOOKUP(I92,$E$4:$F$9,2,FALSE)</f>
         <v>Fuel Tech</v>
       </c>
       <c r="H92" s="237" t="str">
-        <f>B20</f>
-        <v>NGA</v>
+        <f>B13</f>
+        <v>COA</v>
       </c>
       <c r="I92" s="239" t="str">
-        <f>$E$8</f>
+        <f t="shared" ref="I92:I95" si="31">$E$8</f>
         <v>FT-</v>
       </c>
       <c r="J92" s="237"/>
@@ -19404,23 +19398,23 @@
         <v>462</v>
       </c>
       <c r="E93" s="239" t="str">
-        <f t="shared" ref="E93:E96" si="29">I93&amp;$B$4&amp;H93&amp;J93</f>
-        <v>FT-SUPCOA</v>
+        <f t="shared" si="29"/>
+        <v>FT-SUPWAS</v>
       </c>
       <c r="F93" s="237" t="str">
         <f>G93 &amp; " - " &amp; VLOOKUP(H93,$B$13:$C$92,2,FALSE) &amp; IF(J93&lt;&gt;0,IF(VLOOKUP(J93,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J93,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
-        <v>Fuel Tech - Coal (SUP)</v>
+        <v>Fuel Tech - Waste (SUP)</v>
       </c>
       <c r="G93" s="239" t="str">
-        <f t="shared" ref="G93:G96" si="30">VLOOKUP(I93,$E$4:$F$9,2,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>Fuel Tech</v>
       </c>
       <c r="H93" s="237" t="str">
-        <f>B13</f>
-        <v>COA</v>
+        <f>B45</f>
+        <v>WAS</v>
       </c>
       <c r="I93" s="239" t="str">
-        <f t="shared" ref="I93:I96" si="31">$E$8</f>
+        <f t="shared" si="31"/>
         <v>FT-</v>
       </c>
       <c r="J93" s="237"/>
@@ -19431,19 +19425,19 @@
     <row r="94" spans="2:12">
       <c r="E94" s="239" t="str">
         <f t="shared" si="29"/>
-        <v>FT-SUPWAS</v>
+        <v>FT-SUPBIO</v>
       </c>
       <c r="F94" s="237" t="str">
         <f>G94 &amp; " - " &amp; VLOOKUP(H94,$B$13:$C$92,2,FALSE) &amp; IF(J94&lt;&gt;0,IF(VLOOKUP(J94,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J94,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
-        <v>Fuel Tech - Waste (SUP)</v>
+        <v>Fuel Tech - Biomass (SUP)</v>
       </c>
       <c r="G94" s="239" t="str">
         <f t="shared" si="30"/>
         <v>Fuel Tech</v>
       </c>
       <c r="H94" s="237" t="str">
-        <f>B45</f>
-        <v>WAS</v>
+        <f>B21</f>
+        <v>BIO</v>
       </c>
       <c r="I94" s="239" t="str">
         <f t="shared" si="31"/>
@@ -19457,19 +19451,19 @@
     <row r="95" spans="2:12">
       <c r="E95" s="239" t="str">
         <f t="shared" si="29"/>
-        <v>FT-SUPBIO</v>
+        <v>FT-SUPELC</v>
       </c>
       <c r="F95" s="237" t="str">
         <f>G95 &amp; " - " &amp; VLOOKUP(H95,$B$13:$C$92,2,FALSE) &amp; IF(J95&lt;&gt;0,IF(VLOOKUP(J95,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J95,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
-        <v>Fuel Tech - Biomass (SUP)</v>
+        <v>Fuel Tech - Electricity (SUP)</v>
       </c>
       <c r="G95" s="239" t="str">
         <f t="shared" si="30"/>
         <v>Fuel Tech</v>
       </c>
       <c r="H95" s="237" t="str">
-        <f>B21</f>
-        <v>BIO</v>
+        <f>B43</f>
+        <v>ELC</v>
       </c>
       <c r="I95" s="239" t="str">
         <f t="shared" si="31"/>
@@ -19477,32 +19471,6 @@
       </c>
       <c r="J95" s="237"/>
       <c r="K95" s="239" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12">
-      <c r="E96" s="239" t="str">
-        <f t="shared" si="29"/>
-        <v>FT-SUPELC</v>
-      </c>
-      <c r="F96" s="237" t="str">
-        <f>G96 &amp; " - " &amp; VLOOKUP(H96,$B$13:$C$92,2,FALSE) &amp; IF(J96&lt;&gt;0,IF(VLOOKUP(J96,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J96,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
-        <v>Fuel Tech - Electricity (SUP)</v>
-      </c>
-      <c r="G96" s="239" t="str">
-        <f t="shared" si="30"/>
-        <v>Fuel Tech</v>
-      </c>
-      <c r="H96" s="237" t="str">
-        <f>B43</f>
-        <v>ELC</v>
-      </c>
-      <c r="I96" s="239" t="str">
-        <f t="shared" si="31"/>
-        <v>FT-</v>
-      </c>
-      <c r="J96" s="237"/>
-      <c r="K96" s="239" t="s">
         <v>159</v>
       </c>
     </row>
@@ -21225,10 +21193,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABBFF4F-A0CF-43AC-AC4F-5B8E72D4ACA3}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:W93"/>
+  <dimension ref="B1:W92"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21367,7 +21335,7 @@
         <f>CONVENTIONS!K13</f>
         <v>IMP</v>
       </c>
-      <c r="C7" s="453" t="str">
+      <c r="C7" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21394,7 +21362,7 @@
         <f>CONVENTIONS!K14</f>
         <v>IMP</v>
       </c>
-      <c r="C8" s="453" t="str">
+      <c r="C8" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21421,7 +21389,7 @@
         <f>CONVENTIONS!K15</f>
         <v>IMP</v>
       </c>
-      <c r="C9" s="453" t="str">
+      <c r="C9" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21448,7 +21416,7 @@
         <f>CONVENTIONS!K16</f>
         <v>IMP</v>
       </c>
-      <c r="C10" s="453" t="str">
+      <c r="C10" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21475,7 +21443,7 @@
         <f>CONVENTIONS!K17</f>
         <v>IMP</v>
       </c>
-      <c r="C11" s="453" t="str">
+      <c r="C11" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21502,7 +21470,7 @@
         <f>CONVENTIONS!K18</f>
         <v>IMP</v>
       </c>
-      <c r="C12" s="453" t="str">
+      <c r="C12" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21529,7 +21497,7 @@
         <f>CONVENTIONS!K19</f>
         <v>IMP</v>
       </c>
-      <c r="C13" s="453" t="str">
+      <c r="C13" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21556,7 +21524,7 @@
         <f>CONVENTIONS!K20</f>
         <v>IMP</v>
       </c>
-      <c r="C14" s="453" t="str">
+      <c r="C14" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21583,7 +21551,7 @@
         <f>CONVENTIONS!K21</f>
         <v>IMP</v>
       </c>
-      <c r="C15" s="453" t="str">
+      <c r="C15" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21610,7 +21578,7 @@
         <f>CONVENTIONS!K22</f>
         <v>IMP</v>
       </c>
-      <c r="C16" s="453" t="str">
+      <c r="C16" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21637,7 +21605,7 @@
         <f>CONVENTIONS!K23</f>
         <v>IMP</v>
       </c>
-      <c r="C17" s="453" t="str">
+      <c r="C17" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21664,7 +21632,7 @@
         <f>CONVENTIONS!K24</f>
         <v>IMP</v>
       </c>
-      <c r="C18" s="453" t="str">
+      <c r="C18" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21691,7 +21659,7 @@
         <f>CONVENTIONS!K25</f>
         <v>IMP</v>
       </c>
-      <c r="C19" s="453" t="str">
+      <c r="C19" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21720,7 +21688,7 @@
         <f>CONVENTIONS!K26</f>
         <v>IMP</v>
       </c>
-      <c r="C20" s="453" t="str">
+      <c r="C20" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21749,7 +21717,7 @@
         <f>CONVENTIONS!K27</f>
         <v>IMP</v>
       </c>
-      <c r="C21" s="453" t="str">
+      <c r="C21" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21790,7 +21758,7 @@
         <f>CONVENTIONS!K28</f>
         <v>IMP</v>
       </c>
-      <c r="C23" s="453" t="str">
+      <c r="C23" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21817,7 +21785,7 @@
         <f>CONVENTIONS!K29</f>
         <v>IMP</v>
       </c>
-      <c r="C24" s="453" t="str">
+      <c r="C24" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21844,7 +21812,7 @@
         <f>CONVENTIONS!K30</f>
         <v>IMP</v>
       </c>
-      <c r="C25" s="453" t="str">
+      <c r="C25" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21871,7 +21839,7 @@
         <f>CONVENTIONS!K31</f>
         <v>IMP</v>
       </c>
-      <c r="C26" s="453" t="str">
+      <c r="C26" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21898,7 +21866,7 @@
         <f>CONVENTIONS!K32</f>
         <v>IMP</v>
       </c>
-      <c r="C27" s="453" t="str">
+      <c r="C27" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21925,7 +21893,7 @@
         <f>CONVENTIONS!K33</f>
         <v>IMP</v>
       </c>
-      <c r="C28" s="453" t="str">
+      <c r="C28" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21952,7 +21920,7 @@
         <f>CONVENTIONS!K34</f>
         <v>IMP</v>
       </c>
-      <c r="C29" s="453" t="str">
+      <c r="C29" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -21979,7 +21947,7 @@
         <f>CONVENTIONS!K35</f>
         <v>IMP</v>
       </c>
-      <c r="C30" s="453" t="str">
+      <c r="C30" s="452" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
@@ -23080,7 +23048,7 @@
       <c r="I64" s="239"/>
       <c r="J64" s="239"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:11">
       <c r="B65" s="251" t="str">
         <f>CONVENTIONS!K69</f>
         <v>MIN</v>
@@ -23107,7 +23075,7 @@
       <c r="I65" s="239"/>
       <c r="J65" s="239"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:11">
       <c r="B66" s="251" t="str">
         <f>CONVENTIONS!K70</f>
         <v>MIN</v>
@@ -23134,7 +23102,7 @@
       <c r="I66" s="239"/>
       <c r="J66" s="239"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:11">
       <c r="B67" s="251" t="str">
         <f>CONVENTIONS!K71</f>
         <v>MIN</v>
@@ -23161,7 +23129,7 @@
       <c r="I67" s="239"/>
       <c r="J67" s="239"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:11">
       <c r="B68" s="251" t="str">
         <f>CONVENTIONS!K72</f>
         <v>MIN</v>
@@ -23188,7 +23156,7 @@
       <c r="I68" s="239"/>
       <c r="J68" s="239"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:11">
       <c r="B69" s="251" t="str">
         <f>CONVENTIONS!K73</f>
         <v>MIN</v>
@@ -23215,7 +23183,7 @@
       <c r="I69" s="239"/>
       <c r="J69" s="239"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:11">
       <c r="B70" s="251" t="str">
         <f>CONVENTIONS!K74</f>
         <v>MIN</v>
@@ -23242,7 +23210,7 @@
       <c r="I70" s="239"/>
       <c r="J70" s="239"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:11">
       <c r="B71" s="251" t="str">
         <f>CONVENTIONS!K75</f>
         <v>MIN</v>
@@ -23269,34 +23237,34 @@
       <c r="I71" s="239"/>
       <c r="J71" s="239"/>
     </row>
-    <row r="72" spans="2:10" s="237" customFormat="1">
-      <c r="B72" s="285" t="str">
+    <row r="72" spans="2:11">
+      <c r="B72" s="251" t="str">
         <f>CONVENTIONS!K76</f>
         <v>MIN</v>
       </c>
-      <c r="C72" s="285" t="str">
+      <c r="C72" s="251" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D72" s="285" t="str">
+      <c r="D72" s="251" t="str">
         <f>CONVENTIONS!E76</f>
-        <v>MINBIOJKR_S1</v>
-      </c>
-      <c r="E72" s="285" t="str">
+        <v>MINBIOCATW_S1</v>
+      </c>
+      <c r="E72" s="251" t="str">
         <f>CONVENTIONS!F76</f>
-        <v>Domestic Potential of Bio Jet Kerosene - Step 1</v>
-      </c>
-      <c r="F72" s="287" t="s">
+        <v>Domestic Potential of Cattle Waste  - Step 1</v>
+      </c>
+      <c r="F72" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="283" t="s">
+      <c r="G72" s="239" t="s">
         <v>374</v>
       </c>
       <c r="H72" s="239"/>
       <c r="I72" s="239"/>
       <c r="J72" s="239"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:11">
       <c r="B73" s="251" t="str">
         <f>CONVENTIONS!K77</f>
         <v>MIN</v>
@@ -23307,11 +23275,11 @@
       </c>
       <c r="D73" s="251" t="str">
         <f>CONVENTIONS!E77</f>
-        <v>MINBIOCATW_S1</v>
+        <v>MINBIOCATW_S2</v>
       </c>
       <c r="E73" s="251" t="str">
         <f>CONVENTIONS!F77</f>
-        <v>Domestic Potential of Cattle Waste  - Step 1</v>
+        <v>Domestic Potential of Cattle Waste  - Step 2</v>
       </c>
       <c r="F73" s="265" t="s">
         <v>10</v>
@@ -23323,7 +23291,7 @@
       <c r="I73" s="239"/>
       <c r="J73" s="239"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:11">
       <c r="B74" s="251" t="str">
         <f>CONVENTIONS!K78</f>
         <v>MIN</v>
@@ -23334,11 +23302,11 @@
       </c>
       <c r="D74" s="251" t="str">
         <f>CONVENTIONS!E78</f>
-        <v>MINBIOCATW_S2</v>
+        <v>MINBIOCATW_S3</v>
       </c>
       <c r="E74" s="251" t="str">
         <f>CONVENTIONS!F78</f>
-        <v>Domestic Potential of Cattle Waste  - Step 2</v>
+        <v>Domestic Potential of Cattle Waste  - Step 3</v>
       </c>
       <c r="F74" s="265" t="s">
         <v>10</v>
@@ -23350,7 +23318,7 @@
       <c r="I74" s="239"/>
       <c r="J74" s="239"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:11">
       <c r="B75" s="251" t="str">
         <f>CONVENTIONS!K79</f>
         <v>MIN</v>
@@ -23361,11 +23329,11 @@
       </c>
       <c r="D75" s="251" t="str">
         <f>CONVENTIONS!E79</f>
-        <v>MINBIOCATW_S3</v>
+        <v>MINBIOPIGW_S1</v>
       </c>
       <c r="E75" s="251" t="str">
         <f>CONVENTIONS!F79</f>
-        <v>Domestic Potential of Cattle Waste  - Step 3</v>
+        <v>Domestic Potential of Pig Waste  - Step 1</v>
       </c>
       <c r="F75" s="265" t="s">
         <v>10</v>
@@ -23377,7 +23345,7 @@
       <c r="I75" s="239"/>
       <c r="J75" s="239"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:11">
       <c r="B76" s="251" t="str">
         <f>CONVENTIONS!K80</f>
         <v>MIN</v>
@@ -23388,11 +23356,11 @@
       </c>
       <c r="D76" s="251" t="str">
         <f>CONVENTIONS!E80</f>
-        <v>MINBIOPIGW_S1</v>
+        <v>MINBIOPIGW_S2</v>
       </c>
       <c r="E76" s="251" t="str">
         <f>CONVENTIONS!F80</f>
-        <v>Domestic Potential of Pig Waste  - Step 1</v>
+        <v>Domestic Potential of Pig Waste  - Step 2</v>
       </c>
       <c r="F76" s="265" t="s">
         <v>10</v>
@@ -23404,7 +23372,7 @@
       <c r="I76" s="239"/>
       <c r="J76" s="239"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:11">
       <c r="B77" s="251" t="str">
         <f>CONVENTIONS!K81</f>
         <v>MIN</v>
@@ -23415,11 +23383,11 @@
       </c>
       <c r="D77" s="251" t="str">
         <f>CONVENTIONS!E81</f>
-        <v>MINBIOPIGW_S2</v>
+        <v>MINBIOPIGW_S3</v>
       </c>
       <c r="E77" s="251" t="str">
         <f>CONVENTIONS!F81</f>
-        <v>Domestic Potential of Pig Waste  - Step 2</v>
+        <v>Domestic Potential of Pig Waste  - Step 3</v>
       </c>
       <c r="F77" s="265" t="s">
         <v>10</v>
@@ -23431,7 +23399,7 @@
       <c r="I77" s="239"/>
       <c r="J77" s="239"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:11">
       <c r="B78" s="251" t="str">
         <f>CONVENTIONS!K82</f>
         <v>MIN</v>
@@ -23442,11 +23410,11 @@
       </c>
       <c r="D78" s="251" t="str">
         <f>CONVENTIONS!E82</f>
-        <v>MINBIOPIGW_S3</v>
+        <v>MINBIOINDF_S1</v>
       </c>
       <c r="E78" s="251" t="str">
         <f>CONVENTIONS!F82</f>
-        <v>Domestic Potential of Pig Waste  - Step 3</v>
+        <v>Domestic Potential of Industrial Food Waste  - Step 1</v>
       </c>
       <c r="F78" s="265" t="s">
         <v>10</v>
@@ -23458,7 +23426,7 @@
       <c r="I78" s="239"/>
       <c r="J78" s="239"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:11">
       <c r="B79" s="251" t="str">
         <f>CONVENTIONS!K83</f>
         <v>MIN</v>
@@ -23469,11 +23437,11 @@
       </c>
       <c r="D79" s="251" t="str">
         <f>CONVENTIONS!E83</f>
-        <v>MINBIOINDF_S1</v>
+        <v>MINBIOINDF_S2</v>
       </c>
       <c r="E79" s="251" t="str">
         <f>CONVENTIONS!F83</f>
-        <v>Domestic Potential of Industrial Food Waste  - Step 1</v>
+        <v>Domestic Potential of Industrial Food Waste  - Step 2</v>
       </c>
       <c r="F79" s="265" t="s">
         <v>10</v>
@@ -23485,7 +23453,7 @@
       <c r="I79" s="239"/>
       <c r="J79" s="239"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:11" s="237" customFormat="1">
       <c r="B80" s="251" t="str">
         <f>CONVENTIONS!K84</f>
         <v>MIN</v>
@@ -23496,11 +23464,11 @@
       </c>
       <c r="D80" s="251" t="str">
         <f>CONVENTIONS!E84</f>
-        <v>MINBIOINDF_S2</v>
+        <v>MINBIOINDF_S3</v>
       </c>
       <c r="E80" s="251" t="str">
         <f>CONVENTIONS!F84</f>
-        <v>Domestic Potential of Industrial Food Waste  - Step 2</v>
+        <v>Domestic Potential of Industrial Food Waste  - Step 3</v>
       </c>
       <c r="F80" s="265" t="s">
         <v>10</v>
@@ -23511,23 +23479,21 @@
       <c r="H80" s="239"/>
       <c r="I80" s="239"/>
       <c r="J80" s="239"/>
+      <c r="K80"/>
     </row>
     <row r="81" spans="2:11" s="237" customFormat="1">
       <c r="B81" s="251" t="str">
         <f>CONVENTIONS!K85</f>
         <v>MIN</v>
       </c>
-      <c r="C81" s="251" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
+      <c r="C81" s="251"/>
       <c r="D81" s="251" t="str">
         <f>CONVENTIONS!E85</f>
-        <v>MINBIOINDF_S3</v>
+        <v>MINCYC</v>
       </c>
       <c r="E81" s="251" t="str">
         <f>CONVENTIONS!F85</f>
-        <v>Domestic Potential of Industrial Food Waste  - Step 3</v>
+        <v>Domestic Potential of Cycling</v>
       </c>
       <c r="F81" s="265" t="s">
         <v>10</v>
@@ -23538,7 +23504,6 @@
       <c r="H81" s="239"/>
       <c r="I81" s="239"/>
       <c r="J81" s="239"/>
-      <c r="K81"/>
     </row>
     <row r="82" spans="2:11" s="237" customFormat="1">
       <c r="B82" s="251" t="str">
@@ -23548,11 +23513,11 @@
       <c r="C82" s="251"/>
       <c r="D82" s="251" t="str">
         <f>CONVENTIONS!E86</f>
-        <v>MINCYC</v>
+        <v>MINWLK</v>
       </c>
       <c r="E82" s="251" t="str">
         <f>CONVENTIONS!F86</f>
-        <v>Domestic Potential of Cycling</v>
+        <v>Domestic Potential of Walking</v>
       </c>
       <c r="F82" s="265" t="s">
         <v>10</v>
@@ -23569,14 +23534,17 @@
         <f>CONVENTIONS!K87</f>
         <v>MIN</v>
       </c>
-      <c r="C83" s="251"/>
+      <c r="C83" s="251" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
       <c r="D83" s="251" t="str">
         <f>CONVENTIONS!E87</f>
-        <v>MINWLK</v>
+        <v>MINAMBHET</v>
       </c>
       <c r="E83" s="251" t="str">
         <f>CONVENTIONS!F87</f>
-        <v>Domestic Potential of Walking</v>
+        <v>Domestic Potential of Ambient Heat</v>
       </c>
       <c r="F83" s="265" t="s">
         <v>10</v>
@@ -23588,10 +23556,10 @@
       <c r="I83" s="239"/>
       <c r="J83" s="239"/>
     </row>
-    <row r="84" spans="2:11" s="237" customFormat="1">
+    <row r="84" spans="2:11">
       <c r="B84" s="251" t="str">
         <f>CONVENTIONS!K88</f>
-        <v>MIN</v>
+        <v>IMP</v>
       </c>
       <c r="C84" s="251" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -23599,11 +23567,11 @@
       </c>
       <c r="D84" s="251" t="str">
         <f>CONVENTIONS!E88</f>
-        <v>MINAMBHET</v>
+        <v>IMPELC_UK</v>
       </c>
       <c r="E84" s="251" t="str">
         <f>CONVENTIONS!F88</f>
-        <v>Domestic Potential of Ambient Heat</v>
+        <v>Import of Electricity - UK</v>
       </c>
       <c r="F84" s="265" t="s">
         <v>10</v>
@@ -23611,14 +23579,17 @@
       <c r="G84" s="239" t="s">
         <v>374</v>
       </c>
-      <c r="H84" s="239"/>
+      <c r="H84" s="239" t="s">
+        <v>65</v>
+      </c>
       <c r="I84" s="239"/>
       <c r="J84" s="239"/>
+      <c r="K84" s="237"/>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="251" t="str">
         <f>CONVENTIONS!K89</f>
-        <v>IMP</v>
+        <v>EXP</v>
       </c>
       <c r="C85" s="251" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -23626,11 +23597,11 @@
       </c>
       <c r="D85" s="251" t="str">
         <f>CONVENTIONS!E89</f>
-        <v>IMPELC_UK</v>
+        <v>EXPELC_UK</v>
       </c>
       <c r="E85" s="251" t="str">
         <f>CONVENTIONS!F89</f>
-        <v>Import of Electricity - UK</v>
+        <v>Export of Electricity - UK</v>
       </c>
       <c r="F85" s="265" t="s">
         <v>10</v>
@@ -23643,12 +23614,11 @@
       </c>
       <c r="I85" s="239"/>
       <c r="J85" s="239"/>
-      <c r="K85" s="237"/>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="251" t="str">
         <f>CONVENTIONS!K90</f>
-        <v>EXP</v>
+        <v>PRE</v>
       </c>
       <c r="C86" s="251" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -23656,11 +23626,11 @@
       </c>
       <c r="D86" s="251" t="str">
         <f>CONVENTIONS!E90</f>
-        <v>EXPELC_UK</v>
+        <v>SREFOILCRD_Whitegate</v>
       </c>
       <c r="E86" s="251" t="str">
         <f>CONVENTIONS!F90</f>
-        <v>Export of Electricity - UK</v>
+        <v>Refinery of Crude Oil  - Whitegate</v>
       </c>
       <c r="F86" s="265" t="s">
         <v>10</v>
@@ -23668,54 +23638,54 @@
       <c r="G86" s="239" t="s">
         <v>374</v>
       </c>
-      <c r="H86" s="239" t="s">
-        <v>65</v>
-      </c>
-      <c r="I86" s="239"/>
-      <c r="J86" s="239"/>
+      <c r="H86" s="259"/>
+      <c r="I86" s="270" t="str">
+        <f>Commodities!C11</f>
+        <v>OILCRD</v>
+      </c>
+      <c r="J86" s="259"/>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="251" t="str">
+      <c r="B87" s="249" t="s">
+        <v>373</v>
+      </c>
+      <c r="C87" s="249"/>
+      <c r="D87" s="249"/>
+      <c r="E87" s="250"/>
+      <c r="F87" s="250"/>
+      <c r="G87" s="250"/>
+      <c r="H87" s="250"/>
+      <c r="I87" s="250"/>
+      <c r="J87" s="250"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="251" t="str">
         <f>CONVENTIONS!K91</f>
         <v>PRE</v>
       </c>
-      <c r="C87" s="251" t="str">
+      <c r="C88" s="251" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D87" s="251" t="str">
+      <c r="D88" s="251" t="str">
         <f>CONVENTIONS!E91</f>
-        <v>SREFOILCRD_Whitegate</v>
-      </c>
-      <c r="E87" s="251" t="str">
+        <v>FT-SUPNGA</v>
+      </c>
+      <c r="E88" s="251" t="str">
         <f>CONVENTIONS!F91</f>
-        <v>Refinery of Crude Oil  - Whitegate</v>
-      </c>
-      <c r="F87" s="265" t="s">
+        <v>Fuel Tech - Natural Gas (SUP)</v>
+      </c>
+      <c r="F88" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="239" t="s">
+      <c r="G88" s="239" t="s">
         <v>374</v>
       </c>
-      <c r="H87" s="259"/>
-      <c r="I87" s="270" t="str">
-        <f>Commodities!C11</f>
-        <v>OILCRD</v>
-      </c>
-      <c r="J87" s="259"/>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88" s="249" t="s">
-        <v>373</v>
-      </c>
-      <c r="C88" s="249"/>
-      <c r="D88" s="249"/>
-      <c r="E88" s="250"/>
-      <c r="F88" s="250"/>
-      <c r="G88" s="250"/>
-      <c r="H88" s="250"/>
-      <c r="I88" s="250"/>
-      <c r="J88" s="250"/>
+      <c r="H88" s="259" t="s">
+        <v>73</v>
+      </c>
+      <c r="I88" s="270"/>
+      <c r="J88" s="259"/>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" s="251" t="str">
@@ -23728,23 +23698,21 @@
       </c>
       <c r="D89" s="251" t="str">
         <f>CONVENTIONS!E92</f>
-        <v>FT-SUPNGA</v>
+        <v>FT-SUPCOA</v>
       </c>
       <c r="E89" s="251" t="str">
         <f>CONVENTIONS!F92</f>
-        <v>Fuel Tech - Natural Gas (SUP)</v>
-      </c>
-      <c r="F89" s="228" t="s">
+        <v>Fuel Tech - Coal (SUP)</v>
+      </c>
+      <c r="F89" s="272" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="239" t="s">
         <v>374</v>
       </c>
-      <c r="H89" s="259" t="s">
-        <v>73</v>
-      </c>
-      <c r="I89" s="270"/>
-      <c r="J89" s="259"/>
+      <c r="H89" s="252"/>
+      <c r="I89" s="252"/>
+      <c r="J89" s="252"/>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" s="251" t="str">
@@ -23757,11 +23725,11 @@
       </c>
       <c r="D90" s="251" t="str">
         <f>CONVENTIONS!E93</f>
-        <v>FT-SUPCOA</v>
+        <v>FT-SUPWAS</v>
       </c>
       <c r="E90" s="251" t="str">
         <f>CONVENTIONS!F93</f>
-        <v>Fuel Tech - Coal (SUP)</v>
+        <v>Fuel Tech - Waste (SUP)</v>
       </c>
       <c r="F90" s="272" t="s">
         <v>10</v>
@@ -23784,11 +23752,11 @@
       </c>
       <c r="D91" s="251" t="str">
         <f>CONVENTIONS!E94</f>
-        <v>FT-SUPWAS</v>
+        <v>FT-SUPBIO</v>
       </c>
       <c r="E91" s="251" t="str">
         <f>CONVENTIONS!F94</f>
-        <v>Fuel Tech - Waste (SUP)</v>
+        <v>Fuel Tech - Biomass (SUP)</v>
       </c>
       <c r="F91" s="272" t="s">
         <v>10</v>
@@ -23811,50 +23779,23 @@
       </c>
       <c r="D92" s="251" t="str">
         <f>CONVENTIONS!E95</f>
-        <v>FT-SUPBIO</v>
+        <v>FT-SUPELC</v>
       </c>
       <c r="E92" s="251" t="str">
         <f>CONVENTIONS!F95</f>
-        <v>Fuel Tech - Biomass (SUP)</v>
-      </c>
-      <c r="F92" s="272" t="s">
+        <v>Fuel Tech - Electricity (SUP)</v>
+      </c>
+      <c r="F92" s="228" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="239" t="s">
         <v>374</v>
       </c>
-      <c r="H92" s="252"/>
+      <c r="H92" s="252" t="s">
+        <v>65</v>
+      </c>
       <c r="I92" s="252"/>
       <c r="J92" s="252"/>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="251" t="str">
-        <f>CONVENTIONS!K96</f>
-        <v>PRE</v>
-      </c>
-      <c r="C93" s="251" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D93" s="251" t="str">
-        <f>CONVENTIONS!E96</f>
-        <v>FT-SUPELC</v>
-      </c>
-      <c r="E93" s="251" t="str">
-        <f>CONVENTIONS!F96</f>
-        <v>Fuel Tech - Electricity (SUP)</v>
-      </c>
-      <c r="F93" s="228" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="239" t="s">
-        <v>374</v>
-      </c>
-      <c r="H93" s="252" t="s">
-        <v>65</v>
-      </c>
-      <c r="I93" s="252"/>
-      <c r="J93" s="252"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24211,11 +24152,11 @@
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="219" t="str">
-        <f>Processes!C89</f>
+        <f>Processes!C88</f>
         <v>IE,National</v>
       </c>
       <c r="C6" s="219" t="str">
-        <f>Processes!D89</f>
+        <f>Processes!D88</f>
         <v>FT-SUPNGA</v>
       </c>
       <c r="D6" s="219" t="str">
@@ -24236,11 +24177,11 @@
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="219" t="str">
-        <f>Processes!C90</f>
+        <f>Processes!C89</f>
         <v>IE,National</v>
       </c>
       <c r="C7" s="219" t="str">
-        <f>Processes!D90</f>
+        <f>Processes!D89</f>
         <v>FT-SUPCOA</v>
       </c>
       <c r="D7" s="219" t="str">
@@ -24261,11 +24202,11 @@
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="219" t="str">
-        <f>Processes!C91</f>
+        <f>Processes!C90</f>
         <v>IE,National</v>
       </c>
       <c r="C8" s="219" t="str">
-        <f>Processes!D91</f>
+        <f>Processes!D90</f>
         <v>FT-SUPWAS</v>
       </c>
       <c r="D8" s="219" t="str">
@@ -24286,11 +24227,11 @@
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="219" t="str">
-        <f>Processes!C92</f>
+        <f>Processes!C91</f>
         <v>IE,National</v>
       </c>
       <c r="C9" s="219" t="str">
-        <f>Processes!D92</f>
+        <f>Processes!D91</f>
         <v>FT-SUPBIO</v>
       </c>
       <c r="D9" s="219" t="str">
@@ -24311,11 +24252,11 @@
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="219" t="str">
-        <f>Processes!C93</f>
+        <f>Processes!C92</f>
         <v>IE,National</v>
       </c>
       <c r="C10" s="219" t="str">
-        <f>Processes!D93</f>
+        <f>Processes!D92</f>
         <v>FT-SUPELC</v>
       </c>
       <c r="D10" s="219" t="s">
@@ -24435,7 +24376,7 @@
     </row>
     <row r="2" spans="2:20" s="219" customFormat="1"/>
     <row r="3" spans="2:20" ht="18.75">
-      <c r="G3" s="478" t="s">
+      <c r="G3" s="477" t="s">
         <v>583</v>
       </c>
       <c r="H3" s="1"/>
@@ -24523,46 +24464,46 @@
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="C6" s="480" t="str">
+      <c r="C6" s="479" t="str">
         <f>Processes!C11</f>
         <v>IE,National</v>
       </c>
-      <c r="D6" s="480" t="str">
+      <c r="D6" s="479" t="str">
         <f>Processes!D11</f>
         <v>IMPOILCRD</v>
       </c>
-      <c r="E6" s="481" t="str">
+      <c r="E6" s="480" t="str">
         <f>Processes!E11</f>
         <v xml:space="preserve">Import of Crude Oil </v>
       </c>
       <c r="F6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="481" t="str">
+      <c r="G6" s="480" t="str">
         <f>Commodities!C11</f>
         <v>OILCRD</v>
       </c>
-      <c r="H6" s="482">
+      <c r="H6" s="481">
         <f>F55</f>
         <v>10.080858130155704</v>
       </c>
-      <c r="I6" s="482">
+      <c r="I6" s="481">
         <f>Imports_Fossil!F37</f>
         <v>9.8525375645158704</v>
       </c>
-      <c r="J6" s="482">
+      <c r="J6" s="481">
         <f>Imports_Fossil!G37</f>
         <v>11.103653445724236</v>
       </c>
-      <c r="K6" s="482">
+      <c r="K6" s="481">
         <f>Imports_Fossil!H37</f>
         <v>11.885600871479463</v>
       </c>
-      <c r="L6" s="482">
+      <c r="L6" s="481">
         <f>Imports_Fossil!I37</f>
         <v>12.66754829723469</v>
       </c>
-      <c r="M6" s="482">
+      <c r="M6" s="481">
         <f>Imports_Fossil!J37</f>
         <v>13.293106237838872</v>
       </c>
@@ -24571,46 +24512,46 @@
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="C7" s="480" t="str">
+      <c r="C7" s="479" t="str">
         <f>Processes!C19</f>
         <v>IE,National</v>
       </c>
-      <c r="D7" s="480" t="str">
+      <c r="D7" s="479" t="str">
         <f>Processes!D19</f>
         <v>IMPGASNAT_UK</v>
       </c>
-      <c r="E7" s="480" t="str">
+      <c r="E7" s="479" t="str">
         <f>Processes!E19</f>
         <v>Import of Natural Gas  - UK</v>
       </c>
       <c r="F7" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="480" t="str">
+      <c r="G7" s="479" t="str">
         <f>Commodities!C21</f>
         <v>GASNAT</v>
       </c>
-      <c r="H7" s="483">
+      <c r="H7" s="482">
         <f>F56</f>
         <v>6.0993955738996535</v>
       </c>
-      <c r="I7" s="482">
+      <c r="I7" s="481">
         <f>Imports_Fossil!F38</f>
         <v>5.672401594494854</v>
       </c>
-      <c r="J7" s="482">
+      <c r="J7" s="481">
         <f>Imports_Fossil!G38</f>
         <v>6.1803778566884233</v>
       </c>
-      <c r="K7" s="482">
+      <c r="K7" s="481">
         <f>Imports_Fossil!H38</f>
         <v>9.3975608505810264</v>
       </c>
-      <c r="L7" s="482">
+      <c r="L7" s="481">
         <f>Imports_Fossil!I38</f>
         <v>11.006152347527328</v>
       </c>
-      <c r="M7" s="482">
+      <c r="M7" s="481">
         <f>Imports_Fossil!J38</f>
         <v>12.890088334941915</v>
       </c>
@@ -24625,46 +24566,46 @@
       </c>
     </row>
     <row r="8" spans="2:20">
-      <c r="C8" s="484" t="str">
+      <c r="C8" s="483" t="str">
         <f>Processes!C8</f>
         <v>IE,National</v>
       </c>
-      <c r="D8" s="484" t="str">
+      <c r="D8" s="483" t="str">
         <f>Processes!D8</f>
         <v>IMPCOAHAR</v>
       </c>
-      <c r="E8" s="484" t="str">
+      <c r="E8" s="483" t="str">
         <f>Processes!E8</f>
         <v xml:space="preserve">Import of Hard Coal / Antracite </v>
       </c>
       <c r="F8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="484" t="str">
+      <c r="G8" s="483" t="str">
         <f>Commodities!C7</f>
         <v>COAHAR</v>
       </c>
-      <c r="H8" s="485">
+      <c r="H8" s="484">
         <f>F57</f>
         <v>1.8606832276188203</v>
       </c>
-      <c r="I8" s="485">
+      <c r="I8" s="484">
         <f>Imports_Fossil!F39</f>
         <v>1.3014677481874186</v>
       </c>
-      <c r="J8" s="485">
+      <c r="J8" s="484">
         <f>Imports_Fossil!G39</f>
         <v>1.3868098956095445</v>
       </c>
-      <c r="K8" s="485">
+      <c r="K8" s="484">
         <f>Imports_Fossil!H39</f>
         <v>1.7068429484425165</v>
       </c>
-      <c r="L8" s="485">
+      <c r="L8" s="484">
         <f>Imports_Fossil!I39</f>
         <v>1.8775272432867682</v>
       </c>
-      <c r="M8" s="485">
+      <c r="M8" s="484">
         <f>Imports_Fossil!J39</f>
         <v>2.065279967615445</v>
       </c>
@@ -24673,50 +24614,50 @@
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="C9" s="480" t="str">
+      <c r="C9" s="479" t="str">
         <f>Processes!C7</f>
         <v>IE,National</v>
       </c>
-      <c r="D9" s="480" t="str">
+      <c r="D9" s="479" t="str">
         <f>Processes!D7</f>
         <v>IMPCOABIT</v>
       </c>
-      <c r="E9" s="481" t="str">
+      <c r="E9" s="480" t="str">
         <f>Processes!E7</f>
         <v xml:space="preserve">Import of Bituminous Coal </v>
       </c>
       <c r="F9" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="481" t="str">
+      <c r="G9" s="480" t="str">
         <f>Commodities!C6</f>
         <v>COABIT</v>
       </c>
-      <c r="H9" s="482">
+      <c r="H9" s="481">
         <f t="shared" ref="H9:M9" si="0">H$8*$N$9</f>
         <v>1.7676490662378885</v>
       </c>
-      <c r="I9" s="482">
+      <c r="I9" s="481">
         <f t="shared" si="0"/>
         <v>1.2363943607780541</v>
       </c>
-      <c r="J9" s="482">
+      <c r="J9" s="481">
         <f t="shared" si="0"/>
         <v>1.3174694008290742</v>
       </c>
-      <c r="K9" s="482">
+      <c r="K9" s="481">
         <f t="shared" si="0"/>
         <v>1.6215008010203991</v>
       </c>
-      <c r="L9" s="482">
+      <c r="L9" s="481">
         <f t="shared" si="0"/>
         <v>1.7836508811224392</v>
       </c>
-      <c r="M9" s="482">
+      <c r="M9" s="481">
         <f t="shared" si="0"/>
         <v>1.962015969234683</v>
       </c>
-      <c r="N9" s="486">
+      <c r="N9" s="485">
         <v>0.95000000000000495</v>
       </c>
       <c r="R9" s="37" t="s">
@@ -24727,50 +24668,50 @@
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="C10" s="480" t="str">
+      <c r="C10" s="479" t="str">
         <f>Processes!C9</f>
         <v>IE,National</v>
       </c>
-      <c r="D10" s="480" t="str">
+      <c r="D10" s="479" t="str">
         <f>Processes!D9</f>
         <v>IMPCOACOK</v>
       </c>
-      <c r="E10" s="481" t="str">
+      <c r="E10" s="480" t="str">
         <f>Processes!E9</f>
         <v xml:space="preserve">Import of Coke Coal </v>
       </c>
       <c r="F10" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="481" t="str">
+      <c r="G10" s="480" t="str">
         <f>Commodities!C8</f>
         <v>COACOK</v>
       </c>
-      <c r="H10" s="482">
+      <c r="H10" s="481">
         <f t="shared" ref="H10:M11" si="1">H$8*$N10</f>
         <v>2.3630676990759136</v>
       </c>
-      <c r="I10" s="482">
+      <c r="I10" s="481">
         <f t="shared" si="1"/>
         <v>1.6528640401980297</v>
       </c>
-      <c r="J10" s="482">
+      <c r="J10" s="481">
         <f t="shared" si="1"/>
         <v>1.7612485674241301</v>
       </c>
-      <c r="K10" s="482">
+      <c r="K10" s="481">
         <f t="shared" si="1"/>
         <v>2.1676905445220065</v>
       </c>
-      <c r="L10" s="482">
+      <c r="L10" s="481">
         <f t="shared" si="1"/>
         <v>2.3844595989742072</v>
       </c>
-      <c r="M10" s="482">
+      <c r="M10" s="481">
         <f t="shared" si="1"/>
         <v>2.6229055588716279</v>
       </c>
-      <c r="N10" s="487">
+      <c r="N10" s="486">
         <v>1.2700000000000062</v>
       </c>
       <c r="R10" s="37" t="s">
@@ -24781,50 +24722,50 @@
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="C11" s="480" t="str">
+      <c r="C11" s="479" t="str">
         <f>Processes!C10</f>
         <v>IE,National</v>
       </c>
-      <c r="D11" s="480" t="str">
+      <c r="D11" s="479" t="str">
         <f>Processes!D10</f>
         <v>IMPCOALIG</v>
       </c>
-      <c r="E11" s="481" t="str">
+      <c r="E11" s="480" t="str">
         <f>Processes!E10</f>
         <v xml:space="preserve">Import of Lignite /  Brown Coal </v>
       </c>
       <c r="F11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="481" t="str">
+      <c r="G11" s="480" t="str">
         <f>Commodities!C9</f>
         <v>COALIG</v>
       </c>
-      <c r="H11" s="482">
+      <c r="H11" s="481">
         <f t="shared" si="1"/>
         <v>1.6291696463022047</v>
       </c>
-      <c r="I11" s="482">
+      <c r="I11" s="481">
         <f t="shared" si="1"/>
         <v>1.1395339730673333</v>
       </c>
-      <c r="J11" s="482">
+      <c r="J11" s="481">
         <f t="shared" si="1"/>
         <v>1.2142575122848633</v>
       </c>
-      <c r="K11" s="482">
+      <c r="K11" s="481">
         <f t="shared" si="1"/>
         <v>1.4944707843506013</v>
       </c>
-      <c r="L11" s="482">
+      <c r="L11" s="481">
         <f t="shared" si="1"/>
         <v>1.6439178627856614</v>
       </c>
-      <c r="M11" s="482">
+      <c r="M11" s="481">
         <f t="shared" si="1"/>
         <v>1.8083096490642274</v>
       </c>
-      <c r="N11" s="487">
+      <c r="N11" s="486">
         <v>0.87557603686636576</v>
       </c>
       <c r="R11" s="37" t="s">
@@ -24835,50 +24776,50 @@
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="C12" s="480" t="str">
+      <c r="C12" s="479" t="str">
         <f>Processes!C20</f>
         <v>IE,National</v>
       </c>
-      <c r="D12" s="480" t="str">
+      <c r="D12" s="479" t="str">
         <f>Processes!D20</f>
         <v>IMPGASLNG_GLOBAL</v>
       </c>
-      <c r="E12" s="481" t="str">
+      <c r="E12" s="480" t="str">
         <f>Processes!E20</f>
         <v xml:space="preserve">Import of Liquified Natural Gas </v>
       </c>
       <c r="F12" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="481" t="str">
+      <c r="G12" s="480" t="str">
         <f>Commodities!C22</f>
         <v>GASLNG</v>
       </c>
-      <c r="H12" s="482">
+      <c r="H12" s="481">
         <f t="shared" ref="H12:M12" si="2">H$7*$N12</f>
         <v>6.5078020231419309</v>
       </c>
-      <c r="I12" s="482">
+      <c r="I12" s="481">
         <f t="shared" si="2"/>
         <v>6.0522171624172225</v>
       </c>
-      <c r="J12" s="482">
+      <c r="J12" s="481">
         <f t="shared" si="2"/>
         <v>6.5942067590516009</v>
       </c>
-      <c r="K12" s="482">
+      <c r="K12" s="481">
         <f t="shared" si="2"/>
         <v>10.026807537735994</v>
       </c>
-      <c r="L12" s="482">
+      <c r="L12" s="481">
         <f t="shared" si="2"/>
         <v>11.743107927078192</v>
       </c>
-      <c r="M12" s="482">
+      <c r="M12" s="481">
         <f t="shared" si="2"/>
         <v>13.753189464145629</v>
       </c>
-      <c r="N12" s="487">
+      <c r="N12" s="486">
         <v>1.0669585115925122</v>
       </c>
       <c r="R12" s="37" t="s">
@@ -24889,366 +24830,366 @@
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="C13" s="480" t="str">
+      <c r="C13" s="479" t="str">
         <f>Processes!C14</f>
         <v>IE,National</v>
       </c>
-      <c r="D13" s="480" t="str">
+      <c r="D13" s="479" t="str">
         <f>Processes!D14</f>
         <v>IMPOILDST</v>
       </c>
-      <c r="E13" s="481" t="str">
+      <c r="E13" s="480" t="str">
         <f>Processes!E14</f>
         <v xml:space="preserve">Import of Diesel Oil </v>
       </c>
       <c r="F13" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="481" t="str">
+      <c r="G13" s="480" t="str">
         <f>Commodities!C15</f>
         <v>OILDST</v>
       </c>
-      <c r="H13" s="482">
+      <c r="H13" s="481">
         <f t="shared" ref="H13:M18" si="3">H$6*$N13</f>
         <v>15.417783022591095</v>
       </c>
-      <c r="I13" s="482">
+      <c r="I13" s="481">
         <f t="shared" si="3"/>
         <v>15.068586863377233</v>
       </c>
-      <c r="J13" s="482">
+      <c r="J13" s="481">
         <f t="shared" si="3"/>
         <v>16.982058211107677</v>
       </c>
-      <c r="K13" s="482">
+      <c r="K13" s="481">
         <f t="shared" si="3"/>
         <v>18.177977803439202</v>
       </c>
-      <c r="L13" s="482">
+      <c r="L13" s="481">
         <f t="shared" si="3"/>
         <v>19.373897395770726</v>
       </c>
-      <c r="M13" s="482">
+      <c r="M13" s="481">
         <f t="shared" si="3"/>
         <v>20.330633069635947</v>
       </c>
-      <c r="N13" s="487">
+      <c r="N13" s="486">
         <v>1.5294117647058842</v>
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="C14" s="480" t="str">
+      <c r="C14" s="479" t="str">
         <f>Processes!C16</f>
         <v>IE,National</v>
       </c>
-      <c r="D14" s="480" t="str">
+      <c r="D14" s="479" t="str">
         <f>Processes!D16</f>
         <v>IMPOILGSL</v>
       </c>
-      <c r="E14" s="481" t="str">
+      <c r="E14" s="480" t="str">
         <f>Processes!E16</f>
         <v xml:space="preserve">Import of Gasoline </v>
       </c>
       <c r="F14" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="481" t="str">
+      <c r="G14" s="480" t="str">
         <f>Commodities!C17</f>
         <v>OILGSL</v>
       </c>
-      <c r="H14" s="482">
+      <c r="H14" s="481">
         <f t="shared" si="3"/>
         <v>16.603766332021141</v>
       </c>
-      <c r="I14" s="482">
+      <c r="I14" s="481">
         <f t="shared" si="3"/>
         <v>16.227708929790829</v>
       </c>
-      <c r="J14" s="482">
+      <c r="J14" s="481">
         <f t="shared" si="3"/>
         <v>18.288370381192841</v>
       </c>
-      <c r="K14" s="482">
+      <c r="K14" s="481">
         <f t="shared" si="3"/>
         <v>19.576283788319095</v>
       </c>
-      <c r="L14" s="482">
+      <c r="L14" s="481">
         <f t="shared" si="3"/>
         <v>20.864197195445353</v>
       </c>
-      <c r="M14" s="482">
+      <c r="M14" s="481">
         <f t="shared" si="3"/>
         <v>21.894527921146356</v>
       </c>
-      <c r="N14" s="487">
+      <c r="N14" s="486">
         <v>1.6470588235294101</v>
       </c>
     </row>
     <row r="15" spans="2:20">
-      <c r="C15" s="480" t="str">
+      <c r="C15" s="479" t="str">
         <f>Processes!C13</f>
         <v>IE,National</v>
       </c>
-      <c r="D15" s="480" t="str">
+      <c r="D15" s="479" t="str">
         <f>Processes!D13</f>
         <v>IMPOILHFO</v>
       </c>
-      <c r="E15" s="481" t="str">
+      <c r="E15" s="480" t="str">
         <f>Processes!E13</f>
         <v xml:space="preserve">Import of Heavy Fuel Oil </v>
       </c>
       <c r="F15" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="481" t="str">
+      <c r="G15" s="480" t="str">
         <f>Commodities!C14</f>
         <v>OILHFO</v>
       </c>
-      <c r="H15" s="482">
+      <c r="H15" s="481">
         <f t="shared" si="3"/>
         <v>8.165495085426107</v>
       </c>
-      <c r="I15" s="482">
+      <c r="I15" s="481">
         <f t="shared" si="3"/>
         <v>7.9805554272578423</v>
       </c>
-      <c r="J15" s="482">
+      <c r="J15" s="481">
         <f t="shared" si="3"/>
         <v>8.9939592910366173</v>
       </c>
-      <c r="K15" s="482">
+      <c r="K15" s="481">
         <f t="shared" si="3"/>
         <v>9.6273367058983492</v>
       </c>
-      <c r="L15" s="482">
+      <c r="L15" s="481">
         <f t="shared" si="3"/>
         <v>10.260714120760083</v>
       </c>
-      <c r="M15" s="482">
+      <c r="M15" s="481">
         <f t="shared" si="3"/>
         <v>10.76741605264947</v>
       </c>
-      <c r="N15" s="487">
+      <c r="N15" s="486">
         <v>0.80999999999999872</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="C16" s="480" t="str">
+      <c r="C16" s="479" t="str">
         <f>Processes!C12</f>
         <v>IE,National</v>
       </c>
-      <c r="D16" s="480" t="str">
+      <c r="D16" s="479" t="str">
         <f>Processes!D12</f>
         <v>IMPOILKER</v>
       </c>
-      <c r="E16" s="481" t="str">
+      <c r="E16" s="480" t="str">
         <f>Processes!E12</f>
         <v xml:space="preserve">Import of Kerosene </v>
       </c>
       <c r="F16" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="481" t="str">
+      <c r="G16" s="480" t="str">
         <f>Commodities!C13</f>
         <v>OILKER</v>
       </c>
-      <c r="H16" s="482">
+      <c r="H16" s="481">
         <f t="shared" si="3"/>
         <v>16.603766332021141</v>
       </c>
-      <c r="I16" s="482">
+      <c r="I16" s="481">
         <f t="shared" si="3"/>
         <v>16.227708929790829</v>
       </c>
-      <c r="J16" s="482">
+      <c r="J16" s="481">
         <f t="shared" si="3"/>
         <v>18.288370381192841</v>
       </c>
-      <c r="K16" s="482">
+      <c r="K16" s="481">
         <f t="shared" si="3"/>
         <v>19.576283788319095</v>
       </c>
-      <c r="L16" s="482">
+      <c r="L16" s="481">
         <f t="shared" si="3"/>
         <v>20.864197195445353</v>
       </c>
-      <c r="M16" s="482">
+      <c r="M16" s="481">
         <f t="shared" si="3"/>
         <v>21.894527921146356</v>
       </c>
-      <c r="N16" s="487">
+      <c r="N16" s="486">
         <v>1.6470588235294101</v>
       </c>
     </row>
     <row r="17" spans="3:21" s="41" customFormat="1">
-      <c r="C17" s="480" t="str">
+      <c r="C17" s="479" t="str">
         <f>Processes!C15</f>
         <v>IE,National</v>
       </c>
-      <c r="D17" s="480" t="str">
+      <c r="D17" s="479" t="str">
         <f>Processes!D15</f>
         <v>IMPOILLPG</v>
       </c>
-      <c r="E17" s="480" t="str">
+      <c r="E17" s="479" t="str">
         <f>Processes!E15</f>
         <v xml:space="preserve">Import of Liquified Petroleum Gas </v>
       </c>
       <c r="F17" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="480" t="str">
+      <c r="G17" s="479" t="str">
         <f>Commodities!C16</f>
         <v>OILLPG</v>
       </c>
-      <c r="H17" s="483">
+      <c r="H17" s="482">
         <f t="shared" si="3"/>
         <v>13.045816403730882</v>
       </c>
-      <c r="I17" s="483">
+      <c r="I17" s="482">
         <f t="shared" si="3"/>
         <v>12.750342730549923</v>
       </c>
-      <c r="J17" s="483">
+      <c r="J17" s="482">
         <f t="shared" si="3"/>
         <v>14.369433870937215</v>
       </c>
-      <c r="K17" s="483">
+      <c r="K17" s="482">
         <f t="shared" si="3"/>
         <v>15.381365833679272</v>
       </c>
-      <c r="L17" s="483">
+      <c r="L17" s="482">
         <f t="shared" si="3"/>
         <v>16.393297796421329</v>
       </c>
-      <c r="M17" s="483">
+      <c r="M17" s="482">
         <f t="shared" si="3"/>
         <v>17.202843366614974</v>
       </c>
-      <c r="N17" s="487">
+      <c r="N17" s="486">
         <v>1.2941176470588207</v>
       </c>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="480" t="str">
+      <c r="C18" s="479" t="str">
         <f>Processes!C17</f>
         <v>IE,National</v>
       </c>
-      <c r="D18" s="480" t="str">
+      <c r="D18" s="479" t="str">
         <f>Processes!D17</f>
         <v>IMPOILCOK</v>
       </c>
-      <c r="E18" s="480" t="str">
+      <c r="E18" s="479" t="str">
         <f>Processes!E17</f>
         <v xml:space="preserve">Import of Petroleum Coke </v>
       </c>
       <c r="F18" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="480" t="str">
+      <c r="G18" s="479" t="str">
         <f>Commodities!C18</f>
         <v>OILCOK</v>
       </c>
-      <c r="H18" s="482">
+      <c r="H18" s="481">
         <f t="shared" si="3"/>
         <v>16.603766332021141</v>
       </c>
-      <c r="I18" s="482">
+      <c r="I18" s="481">
         <f t="shared" si="3"/>
         <v>16.227708929790829</v>
       </c>
-      <c r="J18" s="482">
+      <c r="J18" s="481">
         <f t="shared" si="3"/>
         <v>18.288370381192841</v>
       </c>
-      <c r="K18" s="482">
+      <c r="K18" s="481">
         <f t="shared" si="3"/>
         <v>19.576283788319095</v>
       </c>
-      <c r="L18" s="482">
+      <c r="L18" s="481">
         <f t="shared" si="3"/>
         <v>20.864197195445353</v>
       </c>
-      <c r="M18" s="482">
+      <c r="M18" s="481">
         <f t="shared" si="3"/>
         <v>21.894527921146356</v>
       </c>
-      <c r="N18" s="488">
+      <c r="N18" s="487">
         <v>1.6470588235294101</v>
       </c>
     </row>
     <row r="19" spans="3:21">
-      <c r="C19" s="489" t="str">
+      <c r="C19" s="488" t="str">
         <f>Processes!C21</f>
         <v>IE,National</v>
       </c>
-      <c r="D19" s="489" t="str">
+      <c r="D19" s="488" t="str">
         <f>Processes!D21</f>
         <v>IMPNUCURM</v>
       </c>
-      <c r="E19" s="489" t="str">
+      <c r="E19" s="488" t="str">
         <f>Processes!E21</f>
         <v>Import of Uranium</v>
       </c>
-      <c r="F19" s="493" t="s">
+      <c r="F19" s="492" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="489" t="str">
+      <c r="G19" s="488" t="str">
         <f>Commodities!C23</f>
         <v>NUCURM</v>
       </c>
-      <c r="H19" s="490"/>
-      <c r="I19" s="490"/>
-      <c r="J19" s="491"/>
-      <c r="K19" s="491"/>
-      <c r="L19" s="491"/>
-      <c r="M19" s="491"/>
+      <c r="H19" s="489"/>
+      <c r="I19" s="489"/>
+      <c r="J19" s="490"/>
+      <c r="K19" s="490"/>
+      <c r="L19" s="490"/>
+      <c r="M19" s="490"/>
       <c r="N19" s="218"/>
     </row>
     <row r="20" spans="3:21">
-      <c r="C20" s="489" t="str">
+      <c r="C20" s="488" t="str">
         <f>Processes!C18</f>
         <v>IE,National</v>
       </c>
-      <c r="D20" s="489" t="str">
+      <c r="D20" s="488" t="str">
         <f>Processes!D18</f>
         <v>IMPOILNEU</v>
       </c>
-      <c r="E20" s="489" t="str">
+      <c r="E20" s="488" t="str">
         <f>Processes!E18</f>
         <v>Import of Oil for Non-Energy uses</v>
       </c>
-      <c r="F20" s="493" t="s">
+      <c r="F20" s="492" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="492" t="str">
+      <c r="G20" s="491" t="str">
         <f>Commodities!C20</f>
         <v>OILNEU</v>
       </c>
-      <c r="H20" s="490">
+      <c r="H20" s="489">
         <f t="shared" ref="H20" si="4">H6</f>
         <v>10.080858130155704</v>
       </c>
-      <c r="I20" s="490">
+      <c r="I20" s="489">
         <f t="shared" ref="I20:M20" si="5">I6</f>
         <v>9.8525375645158704</v>
       </c>
-      <c r="J20" s="490">
+      <c r="J20" s="489">
         <f t="shared" si="5"/>
         <v>11.103653445724236</v>
       </c>
-      <c r="K20" s="490">
+      <c r="K20" s="489">
         <f t="shared" si="5"/>
         <v>11.885600871479463</v>
       </c>
-      <c r="L20" s="490">
+      <c r="L20" s="489">
         <f t="shared" si="5"/>
         <v>12.66754829723469</v>
       </c>
-      <c r="M20" s="490">
+      <c r="M20" s="489">
         <f t="shared" si="5"/>
         <v>13.293106237838872</v>
       </c>
-      <c r="N20" s="492"/>
+      <c r="N20" s="491"/>
     </row>
     <row r="21" spans="3:21">
       <c r="C21"/>
@@ -25310,182 +25251,182 @@
       <c r="T23"/>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="466" t="s">
+      <c r="C24" s="465" t="s">
         <v>551</v>
       </c>
-      <c r="D24" s="467"/>
-      <c r="E24" s="467"/>
-      <c r="F24" s="468"/>
-      <c r="G24" s="495" t="s">
+      <c r="D24" s="466"/>
+      <c r="E24" s="466"/>
+      <c r="F24" s="467"/>
+      <c r="G24" s="494" t="s">
         <v>547</v>
       </c>
-      <c r="H24" s="495"/>
-      <c r="I24" s="495"/>
-      <c r="J24" s="496"/>
-      <c r="K24" s="497" t="s">
+      <c r="H24" s="494"/>
+      <c r="I24" s="494"/>
+      <c r="J24" s="495"/>
+      <c r="K24" s="496" t="s">
         <v>548</v>
       </c>
-      <c r="L24" s="498"/>
-      <c r="M24" s="499" t="s">
+      <c r="L24" s="497"/>
+      <c r="M24" s="498" t="s">
         <v>549</v>
       </c>
-      <c r="N24" s="498"/>
+      <c r="N24" s="497"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
-      <c r="C25" s="462" t="s">
+      <c r="C25" s="461" t="s">
         <v>550</v>
       </c>
-      <c r="D25" s="462" t="s">
+      <c r="D25" s="461" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="464">
+      <c r="E25" s="463">
         <v>2010</v>
       </c>
-      <c r="F25" s="464">
+      <c r="F25" s="463">
         <v>2019</v>
       </c>
-      <c r="G25" s="463">
+      <c r="G25" s="462">
         <v>2025</v>
       </c>
-      <c r="H25" s="464">
+      <c r="H25" s="463">
         <v>2030</v>
       </c>
-      <c r="I25" s="464">
+      <c r="I25" s="463">
         <v>2035</v>
       </c>
-      <c r="J25" s="465">
+      <c r="J25" s="464">
         <v>2040</v>
       </c>
-      <c r="K25" s="463">
+      <c r="K25" s="462">
         <v>2025</v>
       </c>
-      <c r="L25" s="465">
+      <c r="L25" s="464">
         <v>2040</v>
       </c>
-      <c r="M25" s="464">
+      <c r="M25" s="463">
         <v>2025</v>
       </c>
-      <c r="N25" s="465">
+      <c r="N25" s="464">
         <v>2040</v>
       </c>
       <c r="O25" s="57"/>
     </row>
     <row r="26" spans="3:21">
-      <c r="C26" s="454" t="s">
+      <c r="C26" s="453" t="s">
         <v>537</v>
       </c>
-      <c r="D26" s="454" t="s">
+      <c r="D26" s="453" t="s">
         <v>536</v>
       </c>
-      <c r="E26" s="456">
+      <c r="E26" s="455">
         <v>91</v>
       </c>
-      <c r="F26" s="457">
+      <c r="F26" s="456">
         <v>63</v>
       </c>
-      <c r="G26" s="456">
+      <c r="G26" s="455">
         <v>71</v>
       </c>
-      <c r="H26" s="456">
+      <c r="H26" s="455">
         <v>76</v>
       </c>
-      <c r="I26" s="456">
+      <c r="I26" s="455">
         <v>81</v>
       </c>
-      <c r="J26" s="457">
+      <c r="J26" s="456">
         <v>85</v>
       </c>
-      <c r="K26" s="456">
+      <c r="K26" s="455">
         <v>57</v>
       </c>
-      <c r="L26" s="457">
+      <c r="L26" s="456">
         <v>53</v>
       </c>
-      <c r="M26" s="456">
+      <c r="M26" s="455">
         <v>59</v>
       </c>
-      <c r="N26" s="457">
+      <c r="N26" s="456">
         <v>71</v>
       </c>
       <c r="O26" s="57"/>
     </row>
     <row r="27" spans="3:21">
-      <c r="C27" s="454" t="s">
+      <c r="C27" s="453" t="s">
         <v>539</v>
       </c>
-      <c r="D27" s="454" t="s">
+      <c r="D27" s="453" t="s">
         <v>541</v>
       </c>
-      <c r="E27" s="456">
+      <c r="E27" s="455">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F27" s="457">
+      <c r="F27" s="456">
         <v>6.7</v>
       </c>
-      <c r="G27" s="456">
+      <c r="G27" s="455">
         <v>7.3</v>
       </c>
-      <c r="H27" s="456">
+      <c r="H27" s="455">
         <v>11.1</v>
       </c>
-      <c r="I27" s="456">
+      <c r="I27" s="455">
         <v>13</v>
       </c>
-      <c r="J27" s="457">
+      <c r="J27" s="456">
         <f>I27*(1+(I27/H27-1))</f>
         <v>15.225225225225225</v>
       </c>
-      <c r="K27" s="456">
+      <c r="K27" s="455">
         <v>4.8</v>
       </c>
-      <c r="L27" s="457">
+      <c r="L27" s="456">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M27" s="456">
+      <c r="M27" s="455">
         <v>6.3</v>
       </c>
-      <c r="N27" s="457">
+      <c r="N27" s="456">
         <v>7.6</v>
       </c>
       <c r="O27" s="57"/>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="458" t="s">
+      <c r="C28" s="457" t="s">
         <v>538</v>
       </c>
-      <c r="D28" s="458" t="s">
+      <c r="D28" s="457" t="s">
         <v>542</v>
       </c>
-      <c r="E28" s="460">
+      <c r="E28" s="459">
         <v>108</v>
       </c>
-      <c r="F28" s="461">
+      <c r="F28" s="460">
         <v>61</v>
       </c>
-      <c r="G28" s="460">
+      <c r="G28" s="459">
         <v>65</v>
       </c>
-      <c r="H28" s="460">
+      <c r="H28" s="459">
         <v>80</v>
       </c>
-      <c r="I28" s="460">
+      <c r="I28" s="459">
         <v>88</v>
       </c>
-      <c r="J28" s="461">
+      <c r="J28" s="460">
         <f>I28*(1+(I28/H28-1))</f>
         <v>96.800000000000011</v>
       </c>
-      <c r="K28" s="460">
+      <c r="K28" s="459">
         <v>57</v>
       </c>
-      <c r="L28" s="461">
+      <c r="L28" s="460">
         <v>55</v>
       </c>
-      <c r="M28" s="460">
+      <c r="M28" s="459">
         <v>60</v>
       </c>
-      <c r="N28" s="461">
+      <c r="N28" s="460">
         <v>64</v>
       </c>
       <c r="O28" s="58"/>
@@ -25510,210 +25451,210 @@
     <row r="30" spans="3:21" s="219" customFormat="1">
       <c r="C30" s="54"/>
       <c r="D30" s="60"/>
-      <c r="E30" s="446"/>
-      <c r="F30" s="446"/>
-      <c r="G30" s="446"/>
-      <c r="H30" s="446"/>
-      <c r="I30" s="446"/>
-      <c r="J30" s="446"/>
-      <c r="K30" s="446"/>
-      <c r="L30" s="446"/>
-      <c r="M30" s="446"/>
-      <c r="N30" s="446"/>
+      <c r="E30" s="445"/>
+      <c r="F30" s="445"/>
+      <c r="G30" s="445"/>
+      <c r="H30" s="445"/>
+      <c r="I30" s="445"/>
+      <c r="J30" s="445"/>
+      <c r="K30" s="445"/>
+      <c r="L30" s="445"/>
+      <c r="M30" s="445"/>
+      <c r="N30" s="445"/>
       <c r="O30" s="58"/>
     </row>
     <row r="31" spans="3:21" s="219" customFormat="1">
-      <c r="C31" s="475" t="s">
+      <c r="C31" s="474" t="s">
         <v>552</v>
       </c>
-      <c r="D31" s="475"/>
-      <c r="E31" s="479">
+      <c r="D31" s="474"/>
+      <c r="E31" s="478">
         <f>E25</f>
         <v>2010</v>
       </c>
-      <c r="F31" s="479">
+      <c r="F31" s="478">
         <f t="shared" ref="F31:N31" si="6">F25</f>
         <v>2019</v>
       </c>
-      <c r="G31" s="479">
+      <c r="G31" s="478">
         <f t="shared" si="6"/>
         <v>2025</v>
       </c>
-      <c r="H31" s="479">
+      <c r="H31" s="478">
         <f t="shared" si="6"/>
         <v>2030</v>
       </c>
-      <c r="I31" s="479">
+      <c r="I31" s="478">
         <f t="shared" si="6"/>
         <v>2035</v>
       </c>
-      <c r="J31" s="479">
+      <c r="J31" s="478">
         <f t="shared" si="6"/>
         <v>2040</v>
       </c>
-      <c r="K31" s="479">
+      <c r="K31" s="478">
         <f t="shared" si="6"/>
         <v>2025</v>
       </c>
-      <c r="L31" s="479">
+      <c r="L31" s="478">
         <f t="shared" si="6"/>
         <v>2040</v>
       </c>
-      <c r="M31" s="479">
+      <c r="M31" s="478">
         <f t="shared" si="6"/>
         <v>2025</v>
       </c>
-      <c r="N31" s="479">
+      <c r="N31" s="478">
         <f t="shared" si="6"/>
         <v>2040</v>
       </c>
       <c r="O31" s="58"/>
     </row>
     <row r="32" spans="3:21" s="219" customFormat="1">
-      <c r="C32" s="470" t="str">
+      <c r="C32" s="469" t="str">
         <f>C26</f>
         <v xml:space="preserve">IEA crude oil </v>
       </c>
-      <c r="D32" s="477" t="s">
+      <c r="D32" s="476" t="s">
         <v>543</v>
       </c>
-      <c r="E32" s="472">
+      <c r="E32" s="471">
         <f>E26/Conversions!$C$10</f>
         <v>81.288139393132582</v>
       </c>
-      <c r="F32" s="471">
+      <c r="F32" s="470">
         <f>F26/Conversions!$C$10</f>
         <v>56.276404195245632</v>
       </c>
-      <c r="G32" s="472">
+      <c r="G32" s="471">
         <f>G26/Conversions!$C$10</f>
         <v>63.422614251784765</v>
       </c>
-      <c r="H32" s="471">
+      <c r="H32" s="470">
         <f>H26/Conversions!$C$10</f>
         <v>67.888995537121716</v>
       </c>
-      <c r="I32" s="471">
+      <c r="I32" s="470">
         <f>I26/Conversions!$C$10</f>
         <v>72.355376822458666</v>
       </c>
-      <c r="J32" s="473">
+      <c r="J32" s="472">
         <f>J26/Conversions!$C$10</f>
         <v>75.928481850728232</v>
       </c>
-      <c r="K32" s="472">
+      <c r="K32" s="471">
         <f>K26/Conversions!$C$10</f>
         <v>50.91674665284129</v>
       </c>
-      <c r="L32" s="473">
+      <c r="L32" s="472">
         <f>L26/Conversions!$C$10</f>
         <v>47.343641624571724</v>
       </c>
-      <c r="M32" s="471">
+      <c r="M32" s="470">
         <f>M26/Conversions!$C$10</f>
         <v>52.703299166976066</v>
       </c>
-      <c r="N32" s="473">
+      <c r="N32" s="472">
         <f>N26/Conversions!$C$10</f>
         <v>63.422614251784765</v>
       </c>
       <c r="O32" s="58"/>
     </row>
     <row r="33" spans="3:20">
-      <c r="C33" s="454" t="str">
+      <c r="C33" s="453" t="str">
         <f>C27</f>
         <v>Natural Gas - EU</v>
       </c>
-      <c r="D33" s="455" t="s">
+      <c r="D33" s="454" t="s">
         <v>544</v>
       </c>
-      <c r="E33" s="469">
+      <c r="E33" s="468">
         <f>E27/Conversions!$C$10</f>
         <v>7.7715034364863014</v>
       </c>
-      <c r="F33" s="456">
+      <c r="F33" s="455">
         <f>F27/Conversions!$C$10</f>
         <v>5.98495092235152</v>
       </c>
-      <c r="G33" s="469">
+      <c r="G33" s="468">
         <f>G27/Conversions!$C$10</f>
         <v>6.5209166765919546</v>
       </c>
-      <c r="H33" s="456">
+      <c r="H33" s="455">
         <f>H27/Conversions!$C$10</f>
         <v>9.9153664534480406</v>
       </c>
-      <c r="I33" s="456">
+      <c r="I33" s="455">
         <f>I27/Conversions!$C$10</f>
         <v>11.612591341876083</v>
       </c>
-      <c r="J33" s="457">
+      <c r="J33" s="456">
         <f>J27/Conversions!$C$10</f>
         <v>13.600332202197214</v>
       </c>
-      <c r="K33" s="469">
+      <c r="K33" s="468">
         <f>K27/Conversions!$C$10</f>
         <v>4.2877260339234766</v>
       </c>
-      <c r="L33" s="457">
+      <c r="L33" s="456">
         <f>L27/Conversions!$C$10</f>
         <v>4.3770536596302163</v>
       </c>
-      <c r="M33" s="456">
+      <c r="M33" s="455">
         <f>M27/Conversions!$C$10</f>
         <v>5.6276404195245631</v>
       </c>
-      <c r="N33" s="457">
+      <c r="N33" s="456">
         <f>N27/Conversions!$C$10</f>
         <v>6.788899553712171</v>
       </c>
       <c r="O33" s="58"/>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="458" t="str">
+      <c r="C34" s="457" t="str">
         <f>C28</f>
         <v>Steam coal - EU</v>
       </c>
-      <c r="D34" s="459" t="s">
+      <c r="D34" s="458" t="s">
         <v>545</v>
       </c>
-      <c r="E34" s="474">
+      <c r="E34" s="473">
         <f>E28/Conversions!$C$10</f>
         <v>96.473835763278231</v>
       </c>
-      <c r="F34" s="460">
+      <c r="F34" s="459">
         <f>F28/Conversions!$C$10</f>
         <v>54.489851681110849</v>
       </c>
-      <c r="G34" s="474">
+      <c r="G34" s="473">
         <f>G28/Conversions!$C$10</f>
         <v>58.062956709380416</v>
       </c>
-      <c r="H34" s="460">
+      <c r="H34" s="459">
         <f>H28/Conversions!$C$10</f>
         <v>71.462100565391282</v>
       </c>
-      <c r="I34" s="460">
+      <c r="I34" s="459">
         <f>I28/Conversions!$C$10</f>
         <v>78.608310621930414</v>
       </c>
-      <c r="J34" s="461">
+      <c r="J34" s="460">
         <f>J28/Conversions!$C$10</f>
         <v>86.469141684123457</v>
       </c>
-      <c r="K34" s="474">
+      <c r="K34" s="473">
         <f>K28/Conversions!$C$10</f>
         <v>50.91674665284129</v>
       </c>
-      <c r="L34" s="461">
+      <c r="L34" s="460">
         <f>L28/Conversions!$C$10</f>
         <v>49.130194138706507</v>
       </c>
-      <c r="M34" s="460">
+      <c r="M34" s="459">
         <f>M28/Conversions!$C$10</f>
         <v>53.596575424043458</v>
       </c>
-      <c r="N34" s="461">
+      <c r="N34" s="460">
         <f>N28/Conversions!$C$10</f>
         <v>57.169680452313024</v>
       </c>
@@ -25722,210 +25663,210 @@
     <row r="35" spans="3:20" s="219" customFormat="1">
       <c r="C35" s="254"/>
       <c r="D35" s="254"/>
-      <c r="E35" s="456"/>
-      <c r="F35" s="456"/>
-      <c r="G35" s="456"/>
-      <c r="H35" s="456"/>
-      <c r="I35" s="456"/>
-      <c r="J35" s="456"/>
-      <c r="K35" s="456"/>
-      <c r="L35" s="456"/>
-      <c r="M35" s="456"/>
-      <c r="N35" s="456"/>
+      <c r="E35" s="455"/>
+      <c r="F35" s="455"/>
+      <c r="G35" s="455"/>
+      <c r="H35" s="455"/>
+      <c r="I35" s="455"/>
+      <c r="J35" s="455"/>
+      <c r="K35" s="455"/>
+      <c r="L35" s="455"/>
+      <c r="M35" s="455"/>
+      <c r="N35" s="455"/>
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="3:20">
-      <c r="C36" s="475" t="s">
+      <c r="C36" s="474" t="s">
         <v>553</v>
       </c>
-      <c r="D36" s="475"/>
-      <c r="E36" s="479">
+      <c r="D36" s="474"/>
+      <c r="E36" s="478">
         <f>E25</f>
         <v>2010</v>
       </c>
-      <c r="F36" s="479">
+      <c r="F36" s="478">
         <f t="shared" ref="F36:N36" si="7">F25</f>
         <v>2019</v>
       </c>
-      <c r="G36" s="479">
+      <c r="G36" s="478">
         <f t="shared" si="7"/>
         <v>2025</v>
       </c>
-      <c r="H36" s="479">
+      <c r="H36" s="478">
         <f t="shared" si="7"/>
         <v>2030</v>
       </c>
-      <c r="I36" s="479">
+      <c r="I36" s="478">
         <f t="shared" si="7"/>
         <v>2035</v>
       </c>
-      <c r="J36" s="479">
+      <c r="J36" s="478">
         <f t="shared" si="7"/>
         <v>2040</v>
       </c>
-      <c r="K36" s="479">
+      <c r="K36" s="478">
         <f t="shared" si="7"/>
         <v>2025</v>
       </c>
-      <c r="L36" s="479">
+      <c r="L36" s="478">
         <f t="shared" si="7"/>
         <v>2040</v>
       </c>
-      <c r="M36" s="479">
+      <c r="M36" s="478">
         <f t="shared" si="7"/>
         <v>2025</v>
       </c>
-      <c r="N36" s="479">
+      <c r="N36" s="478">
         <f t="shared" si="7"/>
         <v>2040</v>
       </c>
       <c r="O36" s="59"/>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="470" t="str">
+      <c r="C37" s="469" t="str">
         <f>C26</f>
         <v xml:space="preserve">IEA crude oil </v>
       </c>
-      <c r="D37" s="477" t="s">
+      <c r="D37" s="476" t="s">
         <v>546</v>
       </c>
-      <c r="E37" s="472">
+      <c r="E37" s="471">
         <f>E32/Conversions!$C$5</f>
         <v>14.231443148745146</v>
       </c>
-      <c r="F37" s="471">
+      <c r="F37" s="470">
         <f>F32/Conversions!$C$5</f>
         <v>9.8525375645158704</v>
       </c>
-      <c r="G37" s="472">
+      <c r="G37" s="471">
         <f>G32/Conversions!$C$5</f>
         <v>11.103653445724236</v>
       </c>
-      <c r="H37" s="471">
+      <c r="H37" s="470">
         <f>H32/Conversions!$C$5</f>
         <v>11.885600871479463</v>
       </c>
-      <c r="I37" s="471">
+      <c r="I37" s="470">
         <f>I32/Conversions!$C$5</f>
         <v>12.66754829723469</v>
       </c>
-      <c r="J37" s="473">
+      <c r="J37" s="472">
         <f>J32/Conversions!$C$5</f>
         <v>13.293106237838872</v>
       </c>
-      <c r="K37" s="472">
+      <c r="K37" s="471">
         <f>K32/Conversions!$C$5</f>
         <v>8.9142006536095977</v>
       </c>
-      <c r="L37" s="473">
+      <c r="L37" s="472">
         <f>L32/Conversions!$C$5</f>
         <v>8.2886427130054141</v>
       </c>
-      <c r="M37" s="471">
+      <c r="M37" s="470">
         <f>M32/Conversions!$C$5</f>
         <v>9.2269796239116868</v>
       </c>
-      <c r="N37" s="473">
+      <c r="N37" s="472">
         <f>N32/Conversions!$C$5</f>
         <v>11.103653445724236</v>
       </c>
       <c r="O37" s="59"/>
     </row>
     <row r="38" spans="3:20">
-      <c r="C38" s="454" t="str">
+      <c r="C38" s="453" t="str">
         <f>C27</f>
         <v>Natural Gas - EU</v>
       </c>
-      <c r="D38" s="455" t="s">
+      <c r="D38" s="454" t="s">
         <v>546</v>
       </c>
-      <c r="E38" s="469">
+      <c r="E38" s="468">
         <f>E33/Conversions!$C$3</f>
         <v>7.3656558018067502</v>
       </c>
-      <c r="F38" s="456">
+      <c r="F38" s="455">
         <f>F33/Conversions!$C$3</f>
         <v>5.672401594494854</v>
       </c>
-      <c r="G38" s="469">
+      <c r="G38" s="468">
         <f>G33/Conversions!$C$3</f>
         <v>6.1803778566884233</v>
       </c>
-      <c r="H38" s="456">
+      <c r="H38" s="455">
         <f>H33/Conversions!$C$3</f>
         <v>9.3975608505810264</v>
       </c>
-      <c r="I38" s="456">
+      <c r="I38" s="455">
         <f>I33/Conversions!$C$3</f>
         <v>11.006152347527328</v>
       </c>
-      <c r="J38" s="457">
+      <c r="J38" s="456">
         <f>J33/Conversions!$C$3</f>
         <v>12.890088334941915</v>
       </c>
-      <c r="K38" s="469">
+      <c r="K38" s="468">
         <f>K33/Conversions!$C$3</f>
         <v>4.0638100975485516</v>
       </c>
-      <c r="L38" s="457">
+      <c r="L38" s="456">
         <f>L33/Conversions!$C$3</f>
         <v>4.1484728079141471</v>
       </c>
-      <c r="M38" s="456">
+      <c r="M38" s="455">
         <f>M33/Conversions!$C$3</f>
         <v>5.3337507530324739</v>
       </c>
-      <c r="N38" s="457">
+      <c r="N38" s="456">
         <f>N33/Conversions!$C$3</f>
         <v>6.4343659877852062</v>
       </c>
       <c r="O38" s="57"/>
     </row>
     <row r="39" spans="3:20">
-      <c r="C39" s="458" t="str">
+      <c r="C39" s="457" t="str">
         <f>C28</f>
         <v>Steam coal - EU</v>
       </c>
-      <c r="D39" s="459" t="s">
+      <c r="D39" s="458" t="s">
         <v>546</v>
       </c>
-      <c r="E39" s="474">
+      <c r="E39" s="473">
         <f>E34/(Conversions!$C$2*1000)</f>
         <v>2.3042379803973971</v>
       </c>
-      <c r="F39" s="460">
+      <c r="F39" s="459">
         <f>F34/(Conversions!$C$2*1000)</f>
         <v>1.3014677481874186</v>
       </c>
-      <c r="G39" s="474">
+      <c r="G39" s="473">
         <f>G34/(Conversions!$C$2*1000)</f>
         <v>1.3868098956095445</v>
       </c>
-      <c r="H39" s="460">
+      <c r="H39" s="459">
         <f>H34/(Conversions!$C$2*1000)</f>
         <v>1.7068429484425165</v>
       </c>
-      <c r="I39" s="460">
+      <c r="I39" s="459">
         <f>I34/(Conversions!$C$2*1000)</f>
         <v>1.8775272432867682</v>
       </c>
-      <c r="J39" s="461">
+      <c r="J39" s="460">
         <f>J34/(Conversions!$C$2*1000)</f>
         <v>2.065279967615445</v>
       </c>
-      <c r="K39" s="474">
+      <c r="K39" s="473">
         <f>K34/(Conversions!$C$2*1000)</f>
         <v>1.216125600765293</v>
       </c>
-      <c r="L39" s="461">
+      <c r="L39" s="460">
         <f>L34/(Conversions!$C$2*1000)</f>
         <v>1.17345452705423</v>
       </c>
-      <c r="M39" s="460">
+      <c r="M39" s="459">
         <f>M34/(Conversions!$C$2*1000)</f>
         <v>1.2801322113318871</v>
       </c>
-      <c r="N39" s="461">
+      <c r="N39" s="460">
         <f>N34/(Conversions!$C$2*1000)</f>
         <v>1.365474358754013</v>
       </c>
@@ -25966,102 +25907,102 @@
       <c r="P41"/>
     </row>
     <row r="42" spans="3:20">
-      <c r="C42" s="466" t="s">
+      <c r="C42" s="465" t="s">
         <v>551</v>
       </c>
-      <c r="D42" s="467"/>
-      <c r="E42" s="467"/>
-      <c r="F42" s="468"/>
-      <c r="G42" s="495" t="s">
+      <c r="D42" s="466"/>
+      <c r="E42" s="466"/>
+      <c r="F42" s="467"/>
+      <c r="G42" s="494" t="s">
         <v>547</v>
       </c>
-      <c r="H42" s="495"/>
-      <c r="I42" s="495"/>
-      <c r="J42" s="496"/>
-      <c r="K42" s="497" t="s">
+      <c r="H42" s="494"/>
+      <c r="I42" s="494"/>
+      <c r="J42" s="495"/>
+      <c r="K42" s="496" t="s">
         <v>548</v>
       </c>
-      <c r="L42" s="498"/>
-      <c r="M42" s="499" t="s">
+      <c r="L42" s="497"/>
+      <c r="M42" s="498" t="s">
         <v>581</v>
       </c>
-      <c r="N42" s="498"/>
+      <c r="N42" s="497"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
-      <c r="C43" s="462" t="s">
+      <c r="C43" s="461" t="s">
         <v>573</v>
       </c>
-      <c r="D43" s="462" t="s">
+      <c r="D43" s="461" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="464">
+      <c r="E43" s="463">
         <v>2010</v>
       </c>
-      <c r="F43" s="464">
+      <c r="F43" s="463">
         <v>2018</v>
       </c>
-      <c r="G43" s="463">
+      <c r="G43" s="462">
         <v>2025</v>
       </c>
-      <c r="H43" s="464">
+      <c r="H43" s="463">
         <v>2030</v>
       </c>
-      <c r="I43" s="464">
+      <c r="I43" s="463">
         <v>2035</v>
       </c>
-      <c r="J43" s="465">
+      <c r="J43" s="464">
         <v>2040</v>
       </c>
-      <c r="K43" s="463">
+      <c r="K43" s="462">
         <v>2025</v>
       </c>
-      <c r="L43" s="465">
+      <c r="L43" s="464">
         <v>2040</v>
       </c>
-      <c r="M43" s="464">
+      <c r="M43" s="463">
         <v>2025</v>
       </c>
-      <c r="N43" s="465">
+      <c r="N43" s="464">
         <v>2040</v>
       </c>
       <c r="O43"/>
     </row>
     <row r="44" spans="3:20">
-      <c r="C44" s="454" t="s">
+      <c r="C44" s="453" t="s">
         <v>537</v>
       </c>
-      <c r="D44" s="454" t="s">
+      <c r="D44" s="453" t="s">
         <v>574</v>
       </c>
-      <c r="E44" s="456">
+      <c r="E44" s="455">
         <v>90</v>
       </c>
-      <c r="F44" s="457">
+      <c r="F44" s="456">
         <v>68</v>
       </c>
-      <c r="G44" s="456">
+      <c r="G44" s="455">
         <v>81</v>
       </c>
-      <c r="H44" s="456">
+      <c r="H44" s="455">
         <v>88</v>
       </c>
-      <c r="I44" s="456">
+      <c r="I44" s="455">
         <v>96</v>
       </c>
-      <c r="J44" s="457">
+      <c r="J44" s="456">
         <v>103</v>
       </c>
-      <c r="K44" s="456">
+      <c r="K44" s="455">
         <v>62</v>
       </c>
-      <c r="L44" s="457">
+      <c r="L44" s="456">
         <v>59</v>
       </c>
-      <c r="M44" s="456">
+      <c r="M44" s="455">
         <v>111</v>
       </c>
-      <c r="N44" s="457">
+      <c r="N44" s="456">
         <v>134</v>
       </c>
       <c r="O44"/>
@@ -26069,40 +26010,40 @@
       <c r="Q44"/>
     </row>
     <row r="45" spans="3:20">
-      <c r="C45" s="454" t="s">
+      <c r="C45" s="453" t="s">
         <v>539</v>
       </c>
-      <c r="D45" s="454" t="s">
+      <c r="D45" s="453" t="s">
         <v>575</v>
       </c>
-      <c r="E45" s="456">
+      <c r="E45" s="455">
         <v>8.6</v>
       </c>
-      <c r="F45" s="457">
+      <c r="F45" s="456">
         <v>7.6</v>
       </c>
-      <c r="G45" s="456">
+      <c r="G45" s="455">
         <v>8</v>
       </c>
-      <c r="H45" s="456">
+      <c r="H45" s="455">
         <v>8</v>
       </c>
-      <c r="I45" s="456">
+      <c r="I45" s="455">
         <v>8.4</v>
       </c>
-      <c r="J45" s="457">
+      <c r="J45" s="456">
         <v>8.9</v>
       </c>
-      <c r="K45" s="456">
+      <c r="K45" s="455">
         <v>7.5</v>
       </c>
-      <c r="L45" s="457">
+      <c r="L45" s="456">
         <v>7.5</v>
       </c>
-      <c r="M45" s="456">
+      <c r="M45" s="455">
         <v>8.9</v>
       </c>
-      <c r="N45" s="457">
+      <c r="N45" s="456">
         <v>9.9</v>
       </c>
       <c r="O45"/>
@@ -26110,40 +26051,40 @@
       <c r="Q45"/>
     </row>
     <row r="46" spans="3:20">
-      <c r="C46" s="458" t="s">
+      <c r="C46" s="457" t="s">
         <v>538</v>
       </c>
-      <c r="D46" s="458" t="s">
+      <c r="D46" s="457" t="s">
         <v>576</v>
       </c>
-      <c r="E46" s="460">
+      <c r="E46" s="459">
         <v>106</v>
       </c>
-      <c r="F46" s="461">
+      <c r="F46" s="460">
         <v>92</v>
       </c>
-      <c r="G46" s="460">
+      <c r="G46" s="459">
         <v>75</v>
       </c>
-      <c r="H46" s="460">
+      <c r="H46" s="459">
         <v>76</v>
       </c>
-      <c r="I46" s="460">
+      <c r="I46" s="459">
         <v>78</v>
       </c>
-      <c r="J46" s="461">
+      <c r="J46" s="460">
         <v>78</v>
       </c>
-      <c r="K46" s="460">
+      <c r="K46" s="459">
         <v>58</v>
       </c>
-      <c r="L46" s="461">
+      <c r="L46" s="460">
         <v>60</v>
       </c>
-      <c r="M46" s="460">
+      <c r="M46" s="459">
         <v>83</v>
       </c>
-      <c r="N46" s="461">
+      <c r="N46" s="460">
         <v>90</v>
       </c>
       <c r="O46"/>
@@ -26155,16 +26096,16 @@
         <v>572</v>
       </c>
       <c r="D47" s="60"/>
-      <c r="E47" s="446"/>
-      <c r="F47" s="446"/>
-      <c r="G47" s="446"/>
-      <c r="H47" s="446"/>
-      <c r="I47" s="446"/>
-      <c r="J47" s="446"/>
-      <c r="K47" s="446"/>
-      <c r="L47" s="446"/>
-      <c r="M47" s="446"/>
-      <c r="N47" s="446"/>
+      <c r="E47" s="445"/>
+      <c r="F47" s="445"/>
+      <c r="G47" s="445"/>
+      <c r="H47" s="445"/>
+      <c r="I47" s="445"/>
+      <c r="J47" s="445"/>
+      <c r="K47" s="445"/>
+      <c r="L47" s="445"/>
+      <c r="M47" s="445"/>
+      <c r="N47" s="445"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
@@ -26172,62 +26113,62 @@
     <row r="48" spans="3:20">
       <c r="C48" s="54"/>
       <c r="D48" s="60"/>
-      <c r="E48" s="446"/>
-      <c r="F48" s="446"/>
-      <c r="G48" s="446"/>
-      <c r="H48" s="446"/>
-      <c r="I48" s="446"/>
-      <c r="J48" s="446"/>
-      <c r="K48" s="446"/>
-      <c r="L48" s="446"/>
-      <c r="M48" s="446"/>
-      <c r="N48" s="446"/>
+      <c r="E48" s="445"/>
+      <c r="F48" s="445"/>
+      <c r="G48" s="445"/>
+      <c r="H48" s="445"/>
+      <c r="I48" s="445"/>
+      <c r="J48" s="445"/>
+      <c r="K48" s="445"/>
+      <c r="L48" s="445"/>
+      <c r="M48" s="445"/>
+      <c r="N48" s="445"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
     </row>
     <row r="49" spans="3:20">
-      <c r="C49" s="475" t="s">
+      <c r="C49" s="474" t="s">
         <v>552</v>
       </c>
-      <c r="D49" s="475"/>
-      <c r="E49" s="479">
+      <c r="D49" s="474"/>
+      <c r="E49" s="478">
         <f>E43</f>
         <v>2010</v>
       </c>
-      <c r="F49" s="479">
+      <c r="F49" s="478">
         <f t="shared" ref="F49:N49" si="8">F43</f>
         <v>2018</v>
       </c>
-      <c r="G49" s="479">
+      <c r="G49" s="478">
         <f t="shared" si="8"/>
         <v>2025</v>
       </c>
-      <c r="H49" s="479">
+      <c r="H49" s="478">
         <f t="shared" si="8"/>
         <v>2030</v>
       </c>
-      <c r="I49" s="479">
+      <c r="I49" s="478">
         <f t="shared" si="8"/>
         <v>2035</v>
       </c>
-      <c r="J49" s="479">
+      <c r="J49" s="478">
         <f t="shared" si="8"/>
         <v>2040</v>
       </c>
-      <c r="K49" s="479">
+      <c r="K49" s="478">
         <f t="shared" si="8"/>
         <v>2025</v>
       </c>
-      <c r="L49" s="479">
+      <c r="L49" s="478">
         <f t="shared" si="8"/>
         <v>2040</v>
       </c>
-      <c r="M49" s="479">
+      <c r="M49" s="478">
         <f t="shared" si="8"/>
         <v>2025</v>
       </c>
-      <c r="N49" s="479">
+      <c r="N49" s="478">
         <f t="shared" si="8"/>
         <v>2040</v>
       </c>
@@ -26236,50 +26177,50 @@
       <c r="Q49"/>
     </row>
     <row r="50" spans="3:20">
-      <c r="C50" s="470" t="str">
+      <c r="C50" s="469" t="str">
         <f>C44</f>
         <v xml:space="preserve">IEA crude oil </v>
       </c>
-      <c r="D50" s="477" t="s">
+      <c r="D50" s="476" t="s">
         <v>577</v>
       </c>
-      <c r="E50" s="472">
+      <c r="E50" s="471">
         <f>E44/Conversions!$C$11</f>
         <v>76.20954003972858</v>
       </c>
-      <c r="F50" s="471">
+      <c r="F50" s="470">
         <f>F44/Conversions!$C$11</f>
         <v>57.580541363350484</v>
       </c>
-      <c r="G50" s="472">
+      <c r="G50" s="471">
         <f>G44/Conversions!$C$11</f>
         <v>68.588586035755725</v>
       </c>
-      <c r="H50" s="471">
+      <c r="H50" s="470">
         <f>H44/Conversions!$C$11</f>
         <v>74.515994705512384</v>
       </c>
-      <c r="I50" s="471">
+      <c r="I50" s="470">
         <f>I44/Conversions!$C$11</f>
         <v>81.290176042377155</v>
       </c>
-      <c r="J50" s="473">
+      <c r="J50" s="472">
         <f>J44/Conversions!$C$11</f>
         <v>87.217584712133814</v>
       </c>
-      <c r="K50" s="472">
+      <c r="K50" s="471">
         <f>K44/Conversions!$C$11</f>
         <v>52.499905360701909</v>
       </c>
-      <c r="L50" s="473">
+      <c r="L50" s="472">
         <f>L44/Conversions!$C$11</f>
         <v>49.959587359377622</v>
       </c>
-      <c r="M50" s="471">
+      <c r="M50" s="470">
         <f>M44/Conversions!$C$11</f>
         <v>93.991766048998585</v>
       </c>
-      <c r="N50" s="473">
+      <c r="N50" s="472">
         <f>N44/Conversions!$C$11</f>
         <v>113.46753739248477</v>
       </c>
@@ -26288,50 +26229,50 @@
       <c r="Q50"/>
     </row>
     <row r="51" spans="3:20">
-      <c r="C51" s="454" t="str">
+      <c r="C51" s="453" t="str">
         <f>C45</f>
         <v>Natural Gas - EU</v>
       </c>
-      <c r="D51" s="455" t="s">
+      <c r="D51" s="454" t="s">
         <v>578</v>
       </c>
-      <c r="E51" s="469">
+      <c r="E51" s="468">
         <f>E45/Conversions!$C$11</f>
         <v>7.2822449371296196</v>
       </c>
-      <c r="F51" s="456">
+      <c r="F51" s="455">
         <f>F45/Conversions!$C$11</f>
         <v>6.4354722700215241</v>
       </c>
-      <c r="G51" s="469">
+      <c r="G51" s="468">
         <f>G45/Conversions!$C$11</f>
         <v>6.7741813368647623</v>
       </c>
-      <c r="H51" s="456">
+      <c r="H51" s="455">
         <f>H45/Conversions!$C$11</f>
         <v>6.7741813368647623</v>
       </c>
-      <c r="I51" s="456">
+      <c r="I51" s="455">
         <f>I45/Conversions!$C$11</f>
         <v>7.1128904037080014</v>
       </c>
-      <c r="J51" s="457">
+      <c r="J51" s="456">
         <f>J45/Conversions!$C$11</f>
         <v>7.5362767372620487</v>
       </c>
-      <c r="K51" s="469">
+      <c r="K51" s="468">
         <f>K45/Conversions!$C$11</f>
         <v>6.350795003310715</v>
       </c>
-      <c r="L51" s="457">
+      <c r="L51" s="456">
         <f>L45/Conversions!$C$11</f>
         <v>6.350795003310715</v>
       </c>
-      <c r="M51" s="456">
+      <c r="M51" s="455">
         <f>M45/Conversions!$C$11</f>
         <v>7.5362767372620487</v>
       </c>
-      <c r="N51" s="457">
+      <c r="N51" s="456">
         <f>N45/Conversions!$C$11</f>
         <v>8.3830494043701442</v>
       </c>
@@ -26340,50 +26281,50 @@
       <c r="Q51"/>
     </row>
     <row r="52" spans="3:20">
-      <c r="C52" s="458" t="str">
+      <c r="C52" s="457" t="str">
         <f>C46</f>
         <v>Steam coal - EU</v>
       </c>
-      <c r="D52" s="459" t="s">
+      <c r="D52" s="458" t="s">
         <v>579</v>
       </c>
-      <c r="E52" s="474">
+      <c r="E52" s="473">
         <f>E46/Conversions!$C$11</f>
         <v>89.757902713458108</v>
       </c>
-      <c r="F52" s="460">
+      <c r="F52" s="459">
         <f>F46/Conversions!$C$11</f>
         <v>77.903085373944776</v>
       </c>
-      <c r="G52" s="474">
+      <c r="G52" s="473">
         <f>G46/Conversions!$C$11</f>
         <v>63.50795003310715</v>
       </c>
-      <c r="H52" s="460">
+      <c r="H52" s="459">
         <f>H46/Conversions!$C$11</f>
         <v>64.354722700215248</v>
       </c>
-      <c r="I52" s="460">
+      <c r="I52" s="459">
         <f>I46/Conversions!$C$11</f>
         <v>66.04826803443143</v>
       </c>
-      <c r="J52" s="461">
+      <c r="J52" s="460">
         <f>J46/Conversions!$C$11</f>
         <v>66.04826803443143</v>
       </c>
-      <c r="K52" s="474">
+      <c r="K52" s="473">
         <f>K46/Conversions!$C$11</f>
         <v>49.112814692269531</v>
       </c>
-      <c r="L52" s="461">
+      <c r="L52" s="460">
         <f>L46/Conversions!$C$11</f>
         <v>50.80636002648572</v>
       </c>
-      <c r="M52" s="460">
+      <c r="M52" s="459">
         <f>M46/Conversions!$C$11</f>
         <v>70.282131369971907</v>
       </c>
-      <c r="N52" s="461">
+      <c r="N52" s="460">
         <f>N46/Conversions!$C$11</f>
         <v>76.20954003972858</v>
       </c>
@@ -26395,61 +26336,61 @@
     <row r="53" spans="3:20">
       <c r="C53" s="254"/>
       <c r="D53" s="254"/>
-      <c r="E53" s="456"/>
-      <c r="F53" s="456"/>
-      <c r="G53" s="456"/>
-      <c r="H53" s="456"/>
-      <c r="I53" s="456"/>
-      <c r="J53" s="456"/>
-      <c r="K53" s="456"/>
-      <c r="L53" s="456"/>
-      <c r="M53" s="456"/>
-      <c r="N53" s="456"/>
+      <c r="E53" s="455"/>
+      <c r="F53" s="455"/>
+      <c r="G53" s="455"/>
+      <c r="H53" s="455"/>
+      <c r="I53" s="455"/>
+      <c r="J53" s="455"/>
+      <c r="K53" s="455"/>
+      <c r="L53" s="455"/>
+      <c r="M53" s="455"/>
+      <c r="N53" s="455"/>
       <c r="O53"/>
       <c r="T53" s="62"/>
     </row>
     <row r="54" spans="3:20">
-      <c r="C54" s="475" t="s">
+      <c r="C54" s="474" t="s">
         <v>553</v>
       </c>
-      <c r="D54" s="475"/>
-      <c r="E54" s="479">
+      <c r="D54" s="474"/>
+      <c r="E54" s="478">
         <f>E43</f>
         <v>2010</v>
       </c>
-      <c r="F54" s="479">
+      <c r="F54" s="478">
         <f t="shared" ref="F54:N54" si="9">F43</f>
         <v>2018</v>
       </c>
-      <c r="G54" s="479">
+      <c r="G54" s="478">
         <f t="shared" si="9"/>
         <v>2025</v>
       </c>
-      <c r="H54" s="479">
+      <c r="H54" s="478">
         <f t="shared" si="9"/>
         <v>2030</v>
       </c>
-      <c r="I54" s="479">
+      <c r="I54" s="478">
         <f t="shared" si="9"/>
         <v>2035</v>
       </c>
-      <c r="J54" s="479">
+      <c r="J54" s="478">
         <f t="shared" si="9"/>
         <v>2040</v>
       </c>
-      <c r="K54" s="479">
+      <c r="K54" s="478">
         <f t="shared" si="9"/>
         <v>2025</v>
       </c>
-      <c r="L54" s="479">
+      <c r="L54" s="478">
         <f t="shared" si="9"/>
         <v>2040</v>
       </c>
-      <c r="M54" s="479">
+      <c r="M54" s="478">
         <f t="shared" si="9"/>
         <v>2025</v>
       </c>
-      <c r="N54" s="479">
+      <c r="N54" s="478">
         <f t="shared" si="9"/>
         <v>2040</v>
       </c>
@@ -26457,50 +26398,50 @@
       <c r="T54" s="62"/>
     </row>
     <row r="55" spans="3:20">
-      <c r="C55" s="470" t="str">
+      <c r="C55" s="469" t="str">
         <f>C44</f>
         <v xml:space="preserve">IEA crude oil </v>
       </c>
-      <c r="D55" s="477" t="s">
+      <c r="D55" s="476" t="s">
         <v>580</v>
       </c>
-      <c r="E55" s="472">
+      <c r="E55" s="471">
         <f>E50/Conversions!$C$5</f>
         <v>13.342312231088432</v>
       </c>
-      <c r="F55" s="471">
+      <c r="F55" s="470">
         <f>F50/Conversions!$C$5</f>
         <v>10.080858130155704</v>
       </c>
-      <c r="G55" s="472">
+      <c r="G55" s="471">
         <f>G50/Conversions!$C$5</f>
         <v>12.008081007979589</v>
       </c>
-      <c r="H55" s="471">
+      <c r="H55" s="470">
         <f>H50/Conversions!$C$5</f>
         <v>13.04581640373091</v>
       </c>
-      <c r="I55" s="471">
+      <c r="I55" s="470">
         <f>I50/Conversions!$C$5</f>
         <v>14.231799713160994</v>
       </c>
-      <c r="J55" s="473">
+      <c r="J55" s="472">
         <f>J50/Conversions!$C$5</f>
         <v>15.269535108912315</v>
       </c>
-      <c r="K55" s="472">
+      <c r="K55" s="471">
         <f>K50/Conversions!$C$5</f>
         <v>9.1913706480831419</v>
       </c>
-      <c r="L55" s="473">
+      <c r="L55" s="472">
         <f>L50/Conversions!$C$5</f>
         <v>8.7466269070468599</v>
       </c>
-      <c r="M55" s="471">
+      <c r="M55" s="470">
         <f>M50/Conversions!$C$5</f>
         <v>16.4555184183424</v>
       </c>
-      <c r="N55" s="473">
+      <c r="N55" s="472">
         <f>N50/Conversions!$C$5</f>
         <v>19.865220432953887</v>
       </c>
@@ -26508,50 +26449,50 @@
       <c r="T55" s="62"/>
     </row>
     <row r="56" spans="3:20">
-      <c r="C56" s="454" t="str">
+      <c r="C56" s="453" t="str">
         <f>C45</f>
         <v>Natural Gas - EU</v>
       </c>
-      <c r="D56" s="455" t="s">
+      <c r="D56" s="454" t="s">
         <v>580</v>
       </c>
-      <c r="E56" s="469">
+      <c r="E56" s="468">
         <f>E51/Conversions!$C$3</f>
         <v>6.9019476230969765</v>
       </c>
-      <c r="F56" s="456">
+      <c r="F56" s="455">
         <f>F51/Conversions!$C$3</f>
         <v>6.0993955738996535</v>
       </c>
-      <c r="G56" s="469">
+      <c r="G56" s="468">
         <f>G51/Conversions!$C$3</f>
         <v>6.4204163935785825</v>
       </c>
-      <c r="H56" s="456">
+      <c r="H56" s="455">
         <f>H51/Conversions!$C$3</f>
         <v>6.4204163935785825</v>
       </c>
-      <c r="I56" s="456">
+      <c r="I56" s="455">
         <f>I51/Conversions!$C$3</f>
         <v>6.7414372132575133</v>
       </c>
-      <c r="J56" s="457">
+      <c r="J56" s="456">
         <f>J51/Conversions!$C$3</f>
         <v>7.1427132378561744</v>
       </c>
-      <c r="K56" s="469">
+      <c r="K56" s="468">
         <f>K51/Conversions!$C$3</f>
         <v>6.0191403689799214</v>
       </c>
-      <c r="L56" s="457">
+      <c r="L56" s="456">
         <f>L51/Conversions!$C$3</f>
         <v>6.0191403689799214</v>
       </c>
-      <c r="M56" s="456">
+      <c r="M56" s="455">
         <f>M51/Conversions!$C$3</f>
         <v>7.1427132378561744</v>
       </c>
-      <c r="N56" s="457">
+      <c r="N56" s="456">
         <f>N51/Conversions!$C$3</f>
         <v>7.9452652870534974</v>
       </c>
@@ -26559,50 +26500,50 @@
       <c r="T56" s="62"/>
     </row>
     <row r="57" spans="3:20">
-      <c r="C57" s="458" t="str">
+      <c r="C57" s="457" t="str">
         <f>C46</f>
         <v>Steam coal - EU</v>
       </c>
-      <c r="D57" s="459" t="s">
+      <c r="D57" s="458" t="s">
         <v>580</v>
       </c>
-      <c r="E57" s="474">
+      <c r="E57" s="473">
         <f>E52/(Conversions!$C$2*1000)</f>
         <v>2.1438306752999452</v>
       </c>
-      <c r="F57" s="460">
+      <c r="F57" s="459">
         <f>F52/(Conversions!$C$2*1000)</f>
         <v>1.8606832276188203</v>
       </c>
-      <c r="G57" s="474">
+      <c r="G57" s="473">
         <f>G52/(Conversions!$C$2*1000)</f>
         <v>1.5168613268631688</v>
       </c>
-      <c r="H57" s="460">
+      <c r="H57" s="459">
         <f>H52/(Conversions!$C$2*1000)</f>
         <v>1.5370861445546777</v>
       </c>
-      <c r="I57" s="460">
+      <c r="I57" s="459">
         <f>I52/(Conversions!$C$2*1000)</f>
         <v>1.5775357799376952</v>
       </c>
-      <c r="J57" s="461">
+      <c r="J57" s="460">
         <f>J52/(Conversions!$C$2*1000)</f>
         <v>1.5775357799376952</v>
       </c>
-      <c r="K57" s="474">
+      <c r="K57" s="473">
         <f>K52/(Conversions!$C$2*1000)</f>
         <v>1.1730394261075172</v>
       </c>
-      <c r="L57" s="461">
+      <c r="L57" s="460">
         <f>L52/(Conversions!$C$2*1000)</f>
         <v>1.2134890614905349</v>
       </c>
-      <c r="M57" s="460">
+      <c r="M57" s="459">
         <f>M52/(Conversions!$C$2*1000)</f>
         <v>1.6786598683952398</v>
       </c>
-      <c r="N57" s="461">
+      <c r="N57" s="460">
         <f>N52/(Conversions!$C$2*1000)</f>
         <v>1.8202335922358024</v>
       </c>
@@ -26803,8 +26744,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -27649,50 +27590,50 @@
       <c r="M24" s="127"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="288" t="str">
+      <c r="B25" s="287" t="str">
         <f>Processes!C31</f>
         <v>IE,National</v>
       </c>
-      <c r="C25" s="288" t="str">
+      <c r="C25" s="287" t="str">
         <f>Processes!D31</f>
         <v>IMPBIOJKR_S1</v>
       </c>
-      <c r="D25" s="288" t="str">
+      <c r="D25" s="287" t="str">
         <f>Processes!E31</f>
         <v>Import of Bio Jet Kerosene - Step 1</v>
       </c>
-      <c r="E25" s="288" t="s">
+      <c r="E25" s="287" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="288" t="str">
+      <c r="F25" s="287" t="str">
         <f>Commodities!C36</f>
         <v>BIOJKR</v>
       </c>
-      <c r="G25" s="289">
+      <c r="G25" s="288">
         <f>Imports_Fossil!H18*1.6</f>
         <v>26.566026131233826</v>
       </c>
-      <c r="H25" s="289">
+      <c r="H25" s="288">
         <f>Imports_Fossil!I16*1.6</f>
         <v>25.964334287665327</v>
       </c>
-      <c r="I25" s="289">
+      <c r="I25" s="288">
         <f>Imports_Fossil!J16*1.6</f>
         <v>29.261392609908548</v>
       </c>
-      <c r="J25" s="289">
+      <c r="J25" s="288">
         <f>Imports_Fossil!K16*1.6</f>
         <v>31.322054061310553</v>
       </c>
-      <c r="K25" s="289">
+      <c r="K25" s="288">
         <f>Imports_Fossil!L16*1.6</f>
         <v>33.382715512712565</v>
       </c>
-      <c r="L25" s="289">
+      <c r="L25" s="288">
         <f>Imports_Fossil!M16*1.6</f>
         <v>35.031244673834173</v>
       </c>
-      <c r="M25" s="494" t="s">
+      <c r="M25" s="493" t="s">
         <v>593</v>
       </c>
     </row>
@@ -27845,7 +27786,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K30" s="500" t="s">
+      <c r="K30" s="499" t="s">
         <v>122</v>
       </c>
       <c r="N30" s="187" t="s">
@@ -27901,7 +27842,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K31" s="501"/>
+      <c r="K31" s="500"/>
       <c r="M31" s="183"/>
       <c r="N31" s="216"/>
       <c r="O31" s="212"/>
@@ -27945,7 +27886,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K32" s="501"/>
+      <c r="K32" s="500"/>
       <c r="M32" s="176"/>
       <c r="N32" s="185"/>
       <c r="O32" s="185"/>
@@ -27990,7 +27931,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K33" s="501"/>
+      <c r="K33" s="500"/>
       <c r="M33" s="124"/>
     </row>
     <row r="34" spans="2:23">
@@ -28030,7 +27971,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K34" s="501"/>
+      <c r="K34" s="500"/>
       <c r="M34" s="124"/>
     </row>
     <row r="35" spans="2:23">
@@ -28070,7 +28011,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K35" s="501"/>
+      <c r="K35" s="500"/>
       <c r="M35" s="124"/>
     </row>
     <row r="36" spans="2:23">
@@ -28110,7 +28051,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K36" s="501"/>
+      <c r="K36" s="500"/>
       <c r="M36" s="124"/>
     </row>
     <row r="37" spans="2:23">
@@ -28150,7 +28091,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K37" s="502"/>
+      <c r="K37" s="501"/>
       <c r="M37" s="124"/>
     </row>
     <row r="38" spans="2:23">
@@ -29425,7 +29366,7 @@
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -29681,11 +29622,11 @@
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
-      <c r="F9" s="503" t="s">
+      <c r="F9" s="502" t="s">
         <v>239</v>
       </c>
-      <c r="G9" s="503"/>
-      <c r="H9" s="503"/>
+      <c r="G9" s="502"/>
+      <c r="H9" s="502"/>
       <c r="I9" s="273" t="s">
         <v>238</v>
       </c>
@@ -29978,11 +29919,11 @@
     <row r="22" spans="2:15">
       <c r="B22" s="20"/>
       <c r="C22" s="20" t="str">
-        <f>Processes!D82</f>
+        <f>Processes!D81</f>
         <v>MINCYC</v>
       </c>
       <c r="D22" s="20" t="str">
-        <f>Processes!E82</f>
+        <f>Processes!E81</f>
         <v>Domestic Potential of Cycling</v>
       </c>
       <c r="E22" s="20" t="str">
@@ -30003,11 +29944,11 @@
     <row r="23" spans="2:15">
       <c r="B23" s="20"/>
       <c r="C23" s="20" t="str">
-        <f>Processes!D83</f>
+        <f>Processes!D82</f>
         <v>MINWLK</v>
       </c>
       <c r="D23" s="20" t="str">
-        <f>Processes!E83</f>
+        <f>Processes!E82</f>
         <v>Domestic Potential of Walking</v>
       </c>
       <c r="E23" s="20" t="str">
@@ -30018,15 +29959,15 @@
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="20" t="str">
-        <f>Processes!C84</f>
+        <f>Processes!C83</f>
         <v>IE,National</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f>Processes!D84</f>
+        <f>Processes!D83</f>
         <v>MINAMBHET</v>
       </c>
       <c r="D24" s="20" t="str">
-        <f>Processes!E84</f>
+        <f>Processes!E83</f>
         <v>Domestic Potential of Ambient Heat</v>
       </c>
       <c r="E24" s="20" t="str">
@@ -30048,9 +29989,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30200,26 +30144,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30243,9 +30176,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D4F79-942D-4AD2-8352-3311C75A32F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D36C169-E040-4E1B-9BF4-F07DF931009D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="22" r:id="rId1"/>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="604">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -6669,7 +6669,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7118,35 +7118,35 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="442" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="442" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" style="442" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="442" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="442" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="442" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="442" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="442" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="442" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="442" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="442" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="442" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="442" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="442" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6640625" style="442" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" style="442" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="442" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="442" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="442" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" style="442" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="442" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="442" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="442" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" style="442" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.109375" style="442" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="442" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="442" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="442" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="442" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="442" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" style="442" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.88671875" style="442" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" style="442" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" style="442" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="442" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" style="442" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="442" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="442" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="442" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" style="442" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5546875" style="442" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" style="442" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="442" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="442" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="6" style="442" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6640625" style="442" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="442" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" style="442" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" style="442" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="442"/>
   </cols>
   <sheetData>
@@ -7618,7 +7618,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="445" t="s">
         <v>296</v>
       </c>
@@ -7860,7 +7860,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7884,21 +7884,21 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="32"/>
-    <col min="2" max="2" width="12.88671875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="69.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="32" customWidth="1"/>
-    <col min="7" max="9" width="9.109375" style="32"/>
-    <col min="10" max="10" width="14.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="32"/>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="12.85546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="32" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="32"/>
+    <col min="10" max="10" width="14.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18">
+    <row r="2" spans="2:18" ht="18.75">
       <c r="B2" s="11" t="s">
         <v>139</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="28.2" thickBot="1">
+    <row r="4" spans="2:18" ht="13.5" thickBot="1">
       <c r="B4" s="9" t="s">
         <v>534</v>
       </c>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="2:18" ht="14.4">
+    <row r="5" spans="2:18" ht="15">
       <c r="B5" s="31" t="str">
         <f>Processes!C51</f>
         <v>IE,National</v>
@@ -7973,7 +7973,7 @@
       </c>
       <c r="R5" s="217"/>
     </row>
-    <row r="6" spans="2:18" ht="14.4">
+    <row r="6" spans="2:18" ht="15">
       <c r="B6" s="31" t="str">
         <f>Processes!C54</f>
         <v>IE,National</v>
@@ -7996,7 +7996,7 @@
       <c r="G6" s="507"/>
       <c r="R6" s="217"/>
     </row>
-    <row r="7" spans="2:18" ht="14.4">
+    <row r="7" spans="2:18" ht="15">
       <c r="B7" s="31" t="str">
         <f>Processes!C60</f>
         <v>IE,National</v>
@@ -8019,7 +8019,7 @@
       <c r="G7" s="507"/>
       <c r="R7" s="217"/>
     </row>
-    <row r="8" spans="2:18" ht="14.4">
+    <row r="8" spans="2:18" ht="15">
       <c r="B8" s="31" t="str">
         <f>Processes!C66</f>
         <v>IE,National</v>
@@ -8042,7 +8042,7 @@
       <c r="G8" s="507"/>
       <c r="R8" s="217"/>
     </row>
-    <row r="9" spans="2:18" ht="14.4">
+    <row r="9" spans="2:18" ht="15">
       <c r="B9" s="31" t="str">
         <f>Processes!C69</f>
         <v>IE,National</v>
@@ -8065,7 +8065,7 @@
       <c r="G9" s="507"/>
       <c r="R9" s="217"/>
     </row>
-    <row r="10" spans="2:18" ht="14.4">
+    <row r="10" spans="2:18" ht="15">
       <c r="B10" s="31" t="str">
         <f>Processes!C57</f>
         <v>IE,National</v>
@@ -8088,7 +8088,7 @@
       <c r="G10" s="507"/>
       <c r="R10" s="217"/>
     </row>
-    <row r="11" spans="2:18" ht="14.4">
+    <row r="11" spans="2:18" ht="15">
       <c r="B11" s="31" t="str">
         <f>Processes!C72</f>
         <v>IE,National</v>
@@ -8111,7 +8111,7 @@
       <c r="G11" s="507"/>
       <c r="R11" s="217"/>
     </row>
-    <row r="12" spans="2:18" ht="14.4">
+    <row r="12" spans="2:18" ht="15">
       <c r="B12" s="31" t="str">
         <f>Processes!C75</f>
         <v>IE,National</v>
@@ -8134,7 +8134,7 @@
       <c r="G12" s="507"/>
       <c r="R12" s="217"/>
     </row>
-    <row r="13" spans="2:18" ht="14.4">
+    <row r="13" spans="2:18" ht="15">
       <c r="B13" s="31" t="str">
         <f>Processes!C63</f>
         <v>IE,National</v>
@@ -8157,7 +8157,7 @@
       <c r="G13" s="507"/>
       <c r="R13" s="217"/>
     </row>
-    <row r="14" spans="2:18" ht="14.4">
+    <row r="14" spans="2:18" ht="15">
       <c r="B14" s="69" t="str">
         <f>Processes!C78</f>
         <v>IE,National</v>
@@ -8180,7 +8180,7 @@
       <c r="G14" s="507"/>
       <c r="R14" s="217"/>
     </row>
-    <row r="15" spans="2:18" ht="14.4">
+    <row r="15" spans="2:18" ht="15">
       <c r="B15" s="31" t="str">
         <f>Processes!C52</f>
         <v>IE,National</v>
@@ -8203,7 +8203,7 @@
       <c r="G15" s="507"/>
       <c r="R15" s="217"/>
     </row>
-    <row r="16" spans="2:18" ht="14.4">
+    <row r="16" spans="2:18" ht="15">
       <c r="B16" s="31" t="str">
         <f>Processes!C55</f>
         <v>IE,National</v>
@@ -8226,7 +8226,7 @@
       <c r="G16" s="507"/>
       <c r="R16" s="217"/>
     </row>
-    <row r="17" spans="2:18" ht="14.4">
+    <row r="17" spans="2:18" ht="15">
       <c r="B17" s="31" t="str">
         <f>Processes!C61</f>
         <v>IE,National</v>
@@ -8249,7 +8249,7 @@
       <c r="G17" s="507"/>
       <c r="R17" s="217"/>
     </row>
-    <row r="18" spans="2:18" ht="14.4">
+    <row r="18" spans="2:18" ht="15">
       <c r="B18" s="31" t="str">
         <f>Processes!C67</f>
         <v>IE,National</v>
@@ -8272,7 +8272,7 @@
       <c r="G18" s="507"/>
       <c r="R18" s="217"/>
     </row>
-    <row r="19" spans="2:18" ht="14.4">
+    <row r="19" spans="2:18" ht="15">
       <c r="B19" s="31" t="str">
         <f>Processes!C70</f>
         <v>IE,National</v>
@@ -8295,7 +8295,7 @@
       <c r="G19" s="507"/>
       <c r="R19" s="217"/>
     </row>
-    <row r="20" spans="2:18" ht="14.4">
+    <row r="20" spans="2:18" ht="15">
       <c r="B20" s="31" t="str">
         <f>Processes!C58</f>
         <v>IE,National</v>
@@ -8642,7 +8642,7 @@
       <c r="F36" s="74"/>
       <c r="G36" s="268"/>
     </row>
-    <row r="37" spans="2:7" ht="14.4">
+    <row r="37" spans="2:7" ht="15">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -8650,7 +8650,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" ht="14.4">
+    <row r="38" spans="2:7" ht="15">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -8658,7 +8658,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" ht="14.4">
+    <row r="39" spans="2:7" ht="15">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -8666,7 +8666,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" ht="14.4">
+    <row r="40" spans="2:7" ht="15">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -8674,7 +8674,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="2:7" ht="14.4">
+    <row r="41" spans="2:7" ht="15">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -8682,7 +8682,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="2:7" ht="14.4">
+    <row r="42" spans="2:7" ht="15">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -8708,21 +8708,21 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="182"/>
-    <col min="2" max="2" width="9.6640625" style="216" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="182" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="182"/>
+    <col min="2" max="2" width="9.7109375" style="216" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="182" customWidth="1"/>
     <col min="4" max="4" width="17" style="182" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="182" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="182"/>
-    <col min="7" max="20" width="9.44140625" style="40" customWidth="1"/>
-    <col min="21" max="23" width="9.44140625" style="182" customWidth="1"/>
-    <col min="24" max="24" width="28.5546875" style="182" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.109375" style="182"/>
-    <col min="26" max="26" width="13.5546875" style="182" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="182" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="182"/>
+    <col min="7" max="20" width="9.42578125" style="40" customWidth="1"/>
+    <col min="21" max="23" width="9.42578125" style="182" customWidth="1"/>
+    <col min="24" max="24" width="28.5703125" style="182" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="182"/>
+    <col min="26" max="26" width="13.5703125" style="182" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" style="182" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="182"/>
+    <col min="28" max="16384" width="9.140625" style="182"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
@@ -8730,7 +8730,7 @@
       <c r="S1" s="182"/>
       <c r="T1" s="182"/>
     </row>
-    <row r="2" spans="2:26" ht="18">
+    <row r="2" spans="2:26" ht="18.75">
       <c r="B2" s="153" t="s">
         <v>153</v>
       </c>
@@ -8755,7 +8755,7 @@
       <c r="S2" s="169"/>
       <c r="T2" s="182"/>
     </row>
-    <row r="3" spans="2:26" ht="27.6">
+    <row r="3" spans="2:26" ht="25.5">
       <c r="B3" s="151" t="s">
         <v>533</v>
       </c>
@@ -9481,23 +9481,23 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="35"/>
-    <col min="2" max="2" width="13.44140625" style="216" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="35" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="10.109375" style="35" customWidth="1"/>
-    <col min="16" max="21" width="10.33203125" style="35" customWidth="1"/>
-    <col min="22" max="22" width="9.109375" style="35"/>
+    <col min="1" max="1" width="9.140625" style="35"/>
+    <col min="2" max="2" width="13.42578125" style="216" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="10.140625" style="35" customWidth="1"/>
+    <col min="16" max="21" width="10.28515625" style="35" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="35"/>
     <col min="23" max="23" width="12" style="35" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="35"/>
+    <col min="24" max="24" width="26.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18">
+    <row r="2" spans="2:20" ht="18.75">
       <c r="B2" s="11" t="s">
         <v>59</v>
       </c>
@@ -9513,7 +9513,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="2:20" ht="27.6">
+    <row r="3" spans="2:20" ht="25.5">
       <c r="B3" s="16" t="s">
         <v>533</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="15" thickBot="1">
+    <row r="4" spans="2:20" ht="15.75" thickBot="1">
       <c r="B4" s="21" t="s">
         <v>535</v>
       </c>
@@ -10358,11 +10358,11 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="217"/>
-    <col min="2" max="2" width="18.88671875" style="217" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="217"/>
+    <col min="1" max="1" width="9.140625" style="217"/>
+    <col min="2" max="2" width="18.85546875" style="217" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="217"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -10379,7 +10379,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="B5" s="229" t="s">
         <v>16</v>
       </c>
@@ -10478,9 +10478,9 @@
       <selection pane="topRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10525,7 +10525,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" s="96" t="s">
         <v>98</v>
       </c>
@@ -10562,7 +10562,7 @@
       </c>
       <c r="Q4" s="86"/>
     </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1">
       <c r="A5" s="102" t="s">
         <v>102</v>
       </c>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="J5" s="86"/>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1">
       <c r="A6" s="104"/>
       <c r="B6" s="105" t="s">
         <v>18</v>
@@ -10615,7 +10615,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1">
       <c r="A7" s="107" t="s">
         <v>104</v>
       </c>
@@ -10668,7 +10668,7 @@
       <c r="R7" s="111"/>
       <c r="S7" s="111"/>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1">
       <c r="A8" s="107" t="s">
         <v>104</v>
       </c>
@@ -10721,7 +10721,7 @@
       <c r="R8" s="111"/>
       <c r="S8" s="111"/>
     </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1">
       <c r="A9" s="107" t="s">
         <v>109</v>
       </c>
@@ -10774,7 +10774,7 @@
       <c r="R9" s="111"/>
       <c r="S9" s="111"/>
     </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1">
       <c r="A10" s="107" t="s">
         <v>109</v>
       </c>
@@ -10827,7 +10827,7 @@
       <c r="R10" s="111"/>
       <c r="S10" s="111"/>
     </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1">
       <c r="A11" s="107" t="s">
         <v>89</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>5.4816516360000005</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1">
       <c r="A12" s="107" t="s">
         <v>89</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>13.781408235406515</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1">
       <c r="A13" s="107" t="s">
         <v>90</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1">
       <c r="A14" s="107" t="s">
         <v>90</v>
       </c>
@@ -11021,7 +11021,7 @@
       <c r="I15" s="86"/>
       <c r="J15" s="86"/>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1">
       <c r="A16" s="114" t="s">
         <v>106</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" thickBot="1">
+    <row r="17" spans="1:26" ht="15.75" thickBot="1">
       <c r="A17" s="104"/>
       <c r="B17" s="105" t="s">
         <v>18</v>
@@ -11113,7 +11113,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" thickBot="1">
+    <row r="18" spans="1:26" ht="15.75" thickBot="1">
       <c r="A18" s="107" t="s">
         <v>104</v>
       </c>
@@ -11162,7 +11162,7 @@
       <c r="O18" s="86"/>
       <c r="P18" s="116"/>
     </row>
-    <row r="19" spans="1:26" ht="15" thickBot="1">
+    <row r="19" spans="1:26" ht="15.75" thickBot="1">
       <c r="A19" s="107" t="s">
         <v>104</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>2.6576562288177672</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1">
+    <row r="20" spans="1:26" ht="15.75" thickBot="1">
       <c r="A20" s="107" t="s">
         <v>109</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>144.52992698400001</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" thickBot="1">
+    <row r="21" spans="1:26" ht="15.75" thickBot="1">
       <c r="A21" s="107" t="s">
         <v>109</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>5.4463236801828891</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1">
+    <row r="22" spans="1:26" ht="15.75" thickBot="1">
       <c r="A22" s="107" t="s">
         <v>89</v>
       </c>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="P22" s="116"/>
     </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1">
       <c r="A23" s="107" t="s">
         <v>89</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>12.446066141998699</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" thickBot="1">
+    <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="107" t="s">
         <v>90</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>3.8660492520000003</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" thickBot="1">
+    <row r="25" spans="1:26" ht="15.75" thickBot="1">
       <c r="A25" s="107" t="s">
         <v>90</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>24.555246283161342</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" thickBot="1">
+    <row r="26" spans="1:26" ht="15.75" thickBot="1">
       <c r="A26" s="102" t="s">
         <v>108</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" thickBot="1">
+    <row r="27" spans="1:26" ht="15.75" thickBot="1">
       <c r="A27" s="119"/>
       <c r="B27" s="105" t="s">
         <v>18</v>
@@ -11739,7 +11739,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" thickBot="1">
+    <row r="28" spans="1:26" ht="15.75" thickBot="1">
       <c r="A28" s="107" t="s">
         <v>104</v>
       </c>
@@ -11787,7 +11787,7 @@
       </c>
       <c r="P28" s="116"/>
     </row>
-    <row r="29" spans="1:26" ht="15" thickBot="1">
+    <row r="29" spans="1:26" ht="15.75" thickBot="1">
       <c r="A29" s="107" t="s">
         <v>104</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>3.425007675166559</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1">
+    <row r="30" spans="1:26" ht="15.75" thickBot="1">
       <c r="A30" s="107" t="s">
         <v>109</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>236.79263826000002</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" thickBot="1">
+    <row r="31" spans="1:26" ht="15.75" thickBot="1">
       <c r="A31" s="107" t="s">
         <v>109</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>6.8687312392684552</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" thickBot="1">
+    <row r="32" spans="1:26" ht="15.75" thickBot="1">
       <c r="A32" s="107" t="s">
         <v>89</v>
       </c>
@@ -12056,7 +12056,7 @@
       </c>
       <c r="P32" s="116"/>
     </row>
-    <row r="33" spans="1:26" ht="15" thickBot="1">
+    <row r="33" spans="1:26" ht="15.75" thickBot="1">
       <c r="A33" s="107" t="s">
         <v>89</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>14.991427037204447</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" thickBot="1">
+    <row r="34" spans="1:26" ht="15.75" thickBot="1">
       <c r="A34" s="107" t="s">
         <v>90</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>4.3794765360000003</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15" thickBot="1">
+    <row r="35" spans="1:26" ht="15.75" thickBot="1">
       <c r="A35" s="107" t="s">
         <v>90</v>
       </c>
@@ -12287,7 +12287,7 @@
       <c r="M36" s="82"/>
       <c r="N36" s="82"/>
     </row>
-    <row r="37" spans="1:26" ht="15" thickBot="1">
+    <row r="37" spans="1:26" ht="15.75" thickBot="1">
       <c r="A37" s="114" t="s">
         <v>110</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15" thickBot="1">
+    <row r="38" spans="1:26" ht="15.75" thickBot="1">
       <c r="A38" s="104"/>
       <c r="B38" s="105" t="s">
         <v>18</v>
@@ -12383,7 +12383,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15" thickBot="1">
+    <row r="39" spans="1:26" ht="15.75" thickBot="1">
       <c r="A39" s="107" t="s">
         <v>104</v>
       </c>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="P39" s="116"/>
     </row>
-    <row r="40" spans="1:26" ht="15" thickBot="1">
+    <row r="40" spans="1:26" ht="15.75" thickBot="1">
       <c r="A40" s="107" t="s">
         <v>104</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>3.0319740075244952</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15" thickBot="1">
+    <row r="41" spans="1:26" ht="15.75" thickBot="1">
       <c r="A41" s="107" t="s">
         <v>109</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>17.883748728000004</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15" thickBot="1">
+    <row r="42" spans="1:26" ht="15.75" thickBot="1">
       <c r="A42" s="107" t="s">
         <v>109</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>6.1949592375963451</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15" thickBot="1">
+    <row r="43" spans="1:26" ht="15.75" thickBot="1">
       <c r="A43" s="107" t="s">
         <v>89</v>
       </c>
@@ -12700,7 +12700,7 @@
       </c>
       <c r="P43" s="116"/>
     </row>
-    <row r="44" spans="1:26" ht="15" thickBot="1">
+    <row r="44" spans="1:26" ht="15.75" thickBot="1">
       <c r="A44" s="107" t="s">
         <v>89</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>18.45386649024168</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15" thickBot="1">
+    <row r="45" spans="1:26" ht="15.75" thickBot="1">
       <c r="A45" s="107" t="s">
         <v>90</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>4.602800448</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15" thickBot="1">
+    <row r="46" spans="1:26" ht="15.75" thickBot="1">
       <c r="A46" s="107" t="s">
         <v>90</v>
       </c>
@@ -12931,7 +12931,7 @@
       <c r="M47" s="82"/>
       <c r="N47" s="82"/>
     </row>
-    <row r="48" spans="1:26" ht="15" thickBot="1">
+    <row r="48" spans="1:26" ht="15.75" thickBot="1">
       <c r="A48" s="102" t="s">
         <v>111</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15" thickBot="1">
+    <row r="49" spans="1:26" ht="15.75" thickBot="1">
       <c r="A49" s="104"/>
       <c r="B49" s="105" t="s">
         <v>18</v>
@@ -13021,7 +13021,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15" thickBot="1">
+    <row r="50" spans="1:26" ht="15.75" thickBot="1">
       <c r="A50" s="107" t="s">
         <v>104</v>
       </c>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="P50" s="116"/>
     </row>
-    <row r="51" spans="1:26" ht="15" thickBot="1">
+    <row r="51" spans="1:26" ht="15.75" thickBot="1">
       <c r="A51" s="107" t="s">
         <v>104</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>3.949052565355978</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15" thickBot="1">
+    <row r="52" spans="1:26" ht="15.75" thickBot="1">
       <c r="A52" s="107" t="s">
         <v>109</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>110.14646000400001</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15" thickBot="1">
+    <row r="53" spans="1:26" ht="15.75" thickBot="1">
       <c r="A53" s="107" t="s">
         <v>109</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>7.8793892417766198</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15" thickBot="1">
+    <row r="54" spans="1:26" ht="15.75" thickBot="1">
       <c r="A54" s="107" t="s">
         <v>89</v>
       </c>
@@ -13338,7 +13338,7 @@
       </c>
       <c r="P54" s="116"/>
     </row>
-    <row r="55" spans="1:26" ht="15" thickBot="1">
+    <row r="55" spans="1:26" ht="15.75" thickBot="1">
       <c r="A55" s="107" t="s">
         <v>89</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>22.533930278145014</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="15" thickBot="1">
+    <row r="56" spans="1:26" ht="15.75" thickBot="1">
       <c r="A56" s="107" t="s">
         <v>90</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>5.1162277320000005</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15" thickBot="1">
+    <row r="57" spans="1:26" ht="15.75" thickBot="1">
       <c r="A57" s="107" t="s">
         <v>90</v>
       </c>
@@ -13579,11 +13579,11 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="178"/>
-    <col min="2" max="2" width="9.109375" style="217"/>
-    <col min="3" max="16384" width="9.109375" style="178"/>
+    <col min="1" max="1" width="9.140625" style="178"/>
+    <col min="2" max="2" width="9.140625" style="217"/>
+    <col min="3" max="16384" width="9.140625" style="178"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13704,47 +13704,47 @@
       <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="38.109375" style="190" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="190" customWidth="1"/>
     <col min="2" max="2" width="13" style="186" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5546875" style="191" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="191"/>
-    <col min="6" max="6" width="6.109375" style="192" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" style="192" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" style="191" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="192" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="191" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="191"/>
+    <col min="6" max="6" width="6.140625" style="192" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="192" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="191" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="192" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="192" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" style="192" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="188" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="187" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" style="187" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" style="187" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" style="187" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" style="187" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" style="187" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.33203125" style="187" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" style="187" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.44140625" style="187" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.88671875" style="187" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="5.44140625" style="187" customWidth="1"/>
-    <col min="26" max="26" width="5.44140625" style="192" customWidth="1"/>
-    <col min="27" max="27" width="8.109375" style="189" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.6640625" style="188" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="5.5546875" style="187" customWidth="1"/>
-    <col min="31" max="31" width="8.6640625" style="187" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.6640625" style="187" customWidth="1"/>
-    <col min="33" max="33" width="5.5546875" style="187" customWidth="1"/>
-    <col min="34" max="34" width="5.88671875" style="187" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="192" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="188" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="187" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="187" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" style="187" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="187" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="187" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="187" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" style="187" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" style="187" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" style="187" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" style="187" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="5.42578125" style="187" customWidth="1"/>
+    <col min="26" max="26" width="5.42578125" style="192" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="189" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="188" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.5703125" style="187" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="187" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" style="187" customWidth="1"/>
+    <col min="33" max="33" width="5.5703125" style="187" customWidth="1"/>
+    <col min="34" max="34" width="5.85546875" style="187" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="7" style="187" customWidth="1"/>
-    <col min="37" max="40" width="5.5546875" style="187" customWidth="1"/>
-    <col min="41" max="41" width="8.6640625" style="189" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.44140625" style="193" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.33203125" style="187" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.109375" style="186"/>
+    <col min="37" max="40" width="5.5703125" style="187" customWidth="1"/>
+    <col min="41" max="41" width="8.7109375" style="189" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.42578125" style="193" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.28515625" style="187" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="186"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="119.4" thickBot="1">
+    <row r="1" spans="1:43" ht="111" thickBot="1">
       <c r="A1" s="290" t="s">
         <v>446</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>162.14899063248015</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="13.8" thickBot="1">
+    <row r="6" spans="1:43" ht="13.5" thickBot="1">
       <c r="A6" s="342" t="s">
         <v>205</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>15019.754090618429</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="13.8" thickBot="1">
+    <row r="8" spans="1:43" ht="13.5" thickBot="1">
       <c r="A8" s="359" t="s">
         <v>207</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="13.8" thickBot="1">
+    <row r="24" spans="1:43" ht="13.5" thickBot="1">
       <c r="A24" s="342" t="s">
         <v>220</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>-2.7136981287656603</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="13.8" thickBot="1">
+    <row r="25" spans="1:43" ht="13.5" thickBot="1">
       <c r="A25" s="390" t="s">
         <v>221</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>425.56331988324462</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="13.8" thickBot="1">
+    <row r="26" spans="1:43" ht="13.5" thickBot="1">
       <c r="A26" s="424" t="s">
         <v>222</v>
       </c>
@@ -16335,26 +16335,26 @@
       <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="85.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="85.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18">
+    <row r="2" spans="2:18" ht="18.75">
       <c r="B2" s="233" t="s">
         <v>295</v>
       </c>
@@ -16376,7 +16376,7 @@
       </c>
       <c r="Q2" s="234"/>
     </row>
-    <row r="3" spans="2:18" ht="15" thickBot="1">
+    <row r="3" spans="2:18" ht="15.75" thickBot="1">
       <c r="B3" s="235" t="s">
         <v>296</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="18">
+    <row r="11" spans="2:18" ht="18.75">
       <c r="B11" s="233" t="s">
         <v>299</v>
       </c>
@@ -16564,7 +16564,7 @@
       </c>
       <c r="N11" s="234"/>
     </row>
-    <row r="12" spans="2:18" ht="15" thickBot="1">
+    <row r="12" spans="2:18" ht="15.75" thickBot="1">
       <c r="B12" s="235" t="s">
         <v>296</v>
       </c>
@@ -19521,17 +19521,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="142"/>
+    <col min="1" max="1" width="9.140625" style="142"/>
     <col min="2" max="2" width="19" style="142" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="142" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.88671875" style="142" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="142"/>
+    <col min="3" max="3" width="18.28515625" style="142" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="142" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="142"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -19546,7 +19546,7 @@
       <c r="H2" s="239"/>
       <c r="I2" s="239"/>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1">
       <c r="B3" s="235" t="s">
         <v>15</v>
       </c>
@@ -20621,7 +20621,9 @@
         <v>10</v>
       </c>
       <c r="F56" s="243"/>
-      <c r="G56" s="243"/>
+      <c r="G56" s="243" t="s">
+        <v>65</v>
+      </c>
       <c r="H56" s="243"/>
       <c r="I56" s="243"/>
     </row>
@@ -20661,9 +20663,13 @@
         <v>10</v>
       </c>
       <c r="F58" s="243"/>
-      <c r="G58" s="243"/>
+      <c r="G58" s="243" t="s">
+        <v>65</v>
+      </c>
       <c r="H58" s="243"/>
-      <c r="I58" s="243"/>
+      <c r="I58" s="243" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="59" spans="2:12">
       <c r="B59" s="251" t="s">
@@ -21235,23 +21241,23 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="234" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="234" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.44140625" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.109375" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="25.8">
+    <row r="1" spans="2:21" ht="26.25">
       <c r="B1" s="244" t="s">
         <v>367</v>
       </c>
@@ -21277,7 +21283,7 @@
       <c r="I3" s="239"/>
       <c r="J3" s="239"/>
     </row>
-    <row r="4" spans="2:21" ht="15" thickBot="1">
+    <row r="4" spans="2:21" ht="15.75" thickBot="1">
       <c r="B4" s="235" t="s">
         <v>1</v>
       </c>
@@ -23848,278 +23854,278 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="216"/>
-    <col min="2" max="2" width="11.5546875" style="216" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="216"/>
+    <col min="2" max="2" width="11.5703125" style="216" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="216" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="216" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.109375" style="216"/>
-    <col min="9" max="9" width="10.33203125" style="216" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="201" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="216" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="216"/>
-    <col min="13" max="13" width="11.33203125" style="216" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="216" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="216"/>
+    <col min="9" max="9" width="10.28515625" style="216" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="201" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="216" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="216"/>
+    <col min="13" max="13" width="11.28515625" style="216" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="216" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" style="216" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.88671875" style="216" customWidth="1"/>
-    <col min="18" max="262" width="9.109375" style="216"/>
-    <col min="263" max="263" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="266" max="518" width="9.109375" style="216"/>
-    <col min="519" max="519" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="522" max="774" width="9.109375" style="216"/>
-    <col min="775" max="775" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="778" max="1030" width="9.109375" style="216"/>
-    <col min="1031" max="1031" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1286" width="9.109375" style="216"/>
-    <col min="1287" max="1287" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1542" width="9.109375" style="216"/>
-    <col min="1543" max="1543" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1798" width="9.109375" style="216"/>
-    <col min="1799" max="1799" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2054" width="9.109375" style="216"/>
-    <col min="2055" max="2055" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2310" width="9.109375" style="216"/>
-    <col min="2311" max="2311" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2566" width="9.109375" style="216"/>
-    <col min="2567" max="2567" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2822" width="9.109375" style="216"/>
-    <col min="2823" max="2823" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3078" width="9.109375" style="216"/>
-    <col min="3079" max="3079" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3334" width="9.109375" style="216"/>
-    <col min="3335" max="3335" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3590" width="9.109375" style="216"/>
-    <col min="3591" max="3591" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3846" width="9.109375" style="216"/>
-    <col min="3847" max="3847" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4102" width="9.109375" style="216"/>
-    <col min="4103" max="4103" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4358" width="9.109375" style="216"/>
-    <col min="4359" max="4359" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4614" width="9.109375" style="216"/>
-    <col min="4615" max="4615" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4870" width="9.109375" style="216"/>
-    <col min="4871" max="4871" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5126" width="9.109375" style="216"/>
-    <col min="5127" max="5127" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5382" width="9.109375" style="216"/>
-    <col min="5383" max="5383" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5638" width="9.109375" style="216"/>
-    <col min="5639" max="5639" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5894" width="9.109375" style="216"/>
-    <col min="5895" max="5895" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6150" width="9.109375" style="216"/>
-    <col min="6151" max="6151" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6406" width="9.109375" style="216"/>
-    <col min="6407" max="6407" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6662" width="9.109375" style="216"/>
-    <col min="6663" max="6663" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6918" width="9.109375" style="216"/>
-    <col min="6919" max="6919" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7174" width="9.109375" style="216"/>
-    <col min="7175" max="7175" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7430" width="9.109375" style="216"/>
-    <col min="7431" max="7431" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7686" width="9.109375" style="216"/>
-    <col min="7687" max="7687" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7942" width="9.109375" style="216"/>
-    <col min="7943" max="7943" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8198" width="9.109375" style="216"/>
-    <col min="8199" max="8199" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8454" width="9.109375" style="216"/>
-    <col min="8455" max="8455" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8710" width="9.109375" style="216"/>
-    <col min="8711" max="8711" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8966" width="9.109375" style="216"/>
-    <col min="8967" max="8967" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9222" width="9.109375" style="216"/>
-    <col min="9223" max="9223" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9478" width="9.109375" style="216"/>
-    <col min="9479" max="9479" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9734" width="9.109375" style="216"/>
-    <col min="9735" max="9735" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9990" width="9.109375" style="216"/>
-    <col min="9991" max="9991" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10246" width="9.109375" style="216"/>
-    <col min="10247" max="10247" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10502" width="9.109375" style="216"/>
-    <col min="10503" max="10503" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10758" width="9.109375" style="216"/>
-    <col min="10759" max="10759" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11014" width="9.109375" style="216"/>
-    <col min="11015" max="11015" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11270" width="9.109375" style="216"/>
-    <col min="11271" max="11271" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11526" width="9.109375" style="216"/>
-    <col min="11527" max="11527" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11782" width="9.109375" style="216"/>
-    <col min="11783" max="11783" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12038" width="9.109375" style="216"/>
-    <col min="12039" max="12039" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12294" width="9.109375" style="216"/>
-    <col min="12295" max="12295" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12550" width="9.109375" style="216"/>
-    <col min="12551" max="12551" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12806" width="9.109375" style="216"/>
-    <col min="12807" max="12807" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13062" width="9.109375" style="216"/>
-    <col min="13063" max="13063" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13318" width="9.109375" style="216"/>
-    <col min="13319" max="13319" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13574" width="9.109375" style="216"/>
-    <col min="13575" max="13575" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13830" width="9.109375" style="216"/>
-    <col min="13831" max="13831" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14086" width="9.109375" style="216"/>
-    <col min="14087" max="14087" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14342" width="9.109375" style="216"/>
-    <col min="14343" max="14343" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14598" width="9.109375" style="216"/>
-    <col min="14599" max="14599" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14854" width="9.109375" style="216"/>
-    <col min="14855" max="14855" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15110" width="9.109375" style="216"/>
-    <col min="15111" max="15111" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15366" width="9.109375" style="216"/>
-    <col min="15367" max="15367" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15622" width="9.109375" style="216"/>
-    <col min="15623" max="15623" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15878" width="9.109375" style="216"/>
-    <col min="15879" max="15879" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16134" width="9.109375" style="216"/>
-    <col min="16135" max="16135" width="10.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="14.88671875" style="216" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="11.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="9.109375" style="216"/>
+    <col min="16" max="17" width="9.85546875" style="216" customWidth="1"/>
+    <col min="18" max="262" width="9.140625" style="216"/>
+    <col min="263" max="263" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="266" max="518" width="9.140625" style="216"/>
+    <col min="519" max="519" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="522" max="774" width="9.140625" style="216"/>
+    <col min="775" max="775" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="778" max="1030" width="9.140625" style="216"/>
+    <col min="1031" max="1031" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1286" width="9.140625" style="216"/>
+    <col min="1287" max="1287" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1542" width="9.140625" style="216"/>
+    <col min="1543" max="1543" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1798" width="9.140625" style="216"/>
+    <col min="1799" max="1799" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2054" width="9.140625" style="216"/>
+    <col min="2055" max="2055" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2310" width="9.140625" style="216"/>
+    <col min="2311" max="2311" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2566" width="9.140625" style="216"/>
+    <col min="2567" max="2567" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2822" width="9.140625" style="216"/>
+    <col min="2823" max="2823" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3078" width="9.140625" style="216"/>
+    <col min="3079" max="3079" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3334" width="9.140625" style="216"/>
+    <col min="3335" max="3335" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3590" width="9.140625" style="216"/>
+    <col min="3591" max="3591" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3846" width="9.140625" style="216"/>
+    <col min="3847" max="3847" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4102" width="9.140625" style="216"/>
+    <col min="4103" max="4103" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4358" width="9.140625" style="216"/>
+    <col min="4359" max="4359" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4614" width="9.140625" style="216"/>
+    <col min="4615" max="4615" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4870" width="9.140625" style="216"/>
+    <col min="4871" max="4871" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5126" width="9.140625" style="216"/>
+    <col min="5127" max="5127" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5382" width="9.140625" style="216"/>
+    <col min="5383" max="5383" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5638" width="9.140625" style="216"/>
+    <col min="5639" max="5639" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5894" width="9.140625" style="216"/>
+    <col min="5895" max="5895" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6150" width="9.140625" style="216"/>
+    <col min="6151" max="6151" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6406" width="9.140625" style="216"/>
+    <col min="6407" max="6407" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6662" width="9.140625" style="216"/>
+    <col min="6663" max="6663" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6918" width="9.140625" style="216"/>
+    <col min="6919" max="6919" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7174" width="9.140625" style="216"/>
+    <col min="7175" max="7175" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7430" width="9.140625" style="216"/>
+    <col min="7431" max="7431" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7686" width="9.140625" style="216"/>
+    <col min="7687" max="7687" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7942" width="9.140625" style="216"/>
+    <col min="7943" max="7943" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8198" width="9.140625" style="216"/>
+    <col min="8199" max="8199" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8454" width="9.140625" style="216"/>
+    <col min="8455" max="8455" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8710" width="9.140625" style="216"/>
+    <col min="8711" max="8711" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8966" width="9.140625" style="216"/>
+    <col min="8967" max="8967" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9222" width="9.140625" style="216"/>
+    <col min="9223" max="9223" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9478" width="9.140625" style="216"/>
+    <col min="9479" max="9479" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9734" width="9.140625" style="216"/>
+    <col min="9735" max="9735" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9990" width="9.140625" style="216"/>
+    <col min="9991" max="9991" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10246" width="9.140625" style="216"/>
+    <col min="10247" max="10247" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10502" width="9.140625" style="216"/>
+    <col min="10503" max="10503" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10758" width="9.140625" style="216"/>
+    <col min="10759" max="10759" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11014" width="9.140625" style="216"/>
+    <col min="11015" max="11015" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11270" width="9.140625" style="216"/>
+    <col min="11271" max="11271" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11526" width="9.140625" style="216"/>
+    <col min="11527" max="11527" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11782" width="9.140625" style="216"/>
+    <col min="11783" max="11783" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12038" width="9.140625" style="216"/>
+    <col min="12039" max="12039" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12294" width="9.140625" style="216"/>
+    <col min="12295" max="12295" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12550" width="9.140625" style="216"/>
+    <col min="12551" max="12551" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12806" width="9.140625" style="216"/>
+    <col min="12807" max="12807" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13062" width="9.140625" style="216"/>
+    <col min="13063" max="13063" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13318" width="9.140625" style="216"/>
+    <col min="13319" max="13319" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13574" width="9.140625" style="216"/>
+    <col min="13575" max="13575" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13830" width="9.140625" style="216"/>
+    <col min="13831" max="13831" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14086" width="9.140625" style="216"/>
+    <col min="14087" max="14087" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14342" width="9.140625" style="216"/>
+    <col min="14343" max="14343" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14598" width="9.140625" style="216"/>
+    <col min="14599" max="14599" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14854" width="9.140625" style="216"/>
+    <col min="14855" max="14855" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15110" width="9.140625" style="216"/>
+    <col min="15111" max="15111" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15366" width="9.140625" style="216"/>
+    <col min="15367" max="15367" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15622" width="9.140625" style="216"/>
+    <col min="15623" max="15623" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15878" width="9.140625" style="216"/>
+    <col min="15879" max="15879" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16134" width="9.140625" style="216"/>
+    <col min="16135" max="16135" width="10.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="14.85546875" style="216" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="11.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="9.140625" style="216"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="18">
+    <row r="1" spans="2:19" ht="18.75">
       <c r="B1" s="218" t="s">
         <v>240</v>
       </c>
@@ -24166,7 +24172,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1">
+    <row r="5" spans="2:19" ht="15.75" thickBot="1">
       <c r="B5" s="224" t="s">
         <v>227</v>
       </c>
@@ -24380,30 +24386,30 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="35"/>
-    <col min="2" max="2" width="12.5546875" style="216" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="35" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="35" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" style="35" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="35" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" style="35" customWidth="1"/>
-    <col min="16" max="22" width="9.109375" style="35"/>
+    <col min="1" max="1" width="9.140625" style="35"/>
+    <col min="2" max="2" width="12.5703125" style="216" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="35" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="35" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="35" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="35" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="35" customWidth="1"/>
+    <col min="16" max="22" width="9.140625" style="35"/>
     <col min="23" max="23" width="16" style="35" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.44140625" style="35" customWidth="1"/>
-    <col min="25" max="25" width="38.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="35"/>
+    <col min="24" max="24" width="19.42578125" style="35" customWidth="1"/>
+    <col min="25" max="25" width="38.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="18">
+    <row r="1" spans="2:20" ht="18.75">
       <c r="B1" s="11" t="s">
         <v>564</v>
       </c>
@@ -24411,7 +24417,7 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="2:20" s="216" customFormat="1"/>
-    <row r="3" spans="2:20" ht="18">
+    <row r="3" spans="2:20" ht="18.75">
       <c r="G3" s="474" t="s">
         <v>583</v>
       </c>
@@ -24465,7 +24471,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="28.2" thickBot="1">
+    <row r="5" spans="2:20" ht="26.25" thickBot="1">
       <c r="C5" s="10" t="s">
         <v>535</v>
       </c>
@@ -26784,24 +26790,24 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="216"/>
-    <col min="2" max="2" width="14.33203125" style="216" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="216" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="216" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="216" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="12.88671875" style="216" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="216"/>
+    <col min="2" max="2" width="14.28515625" style="216" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="216" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="216" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="216" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="12.85546875" style="216" customWidth="1"/>
     <col min="15" max="16" width="13" style="216" customWidth="1"/>
-    <col min="17" max="17" width="21.88671875" style="216" customWidth="1"/>
-    <col min="18" max="18" width="29.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.109375" style="216"/>
-    <col min="23" max="23" width="14.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.5546875" style="216" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="216"/>
+    <col min="17" max="17" width="21.85546875" style="216" customWidth="1"/>
+    <col min="18" max="18" width="29.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" style="216"/>
+    <col min="23" max="23" width="14.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.5703125" style="216" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="216"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18">
+    <row r="2" spans="2:12" ht="18.75">
       <c r="B2" s="11" t="s">
         <v>87</v>
       </c>
@@ -26853,7 +26859,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="32.4" customHeight="1" thickBot="1">
+    <row r="4" spans="2:12" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>534</v>
       </c>
@@ -27527,7 +27533,7 @@
       <c r="K21" s="74"/>
       <c r="L21" s="33"/>
     </row>
-    <row r="22" spans="2:18" ht="18">
+    <row r="22" spans="2:18" ht="18.75">
       <c r="B22" s="11" t="s">
         <v>87</v>
       </c>
@@ -27589,7 +27595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="28.2" thickBot="1">
+    <row r="24" spans="2:18" ht="26.25" thickBot="1">
       <c r="B24" s="10" t="s">
         <v>534</v>
       </c>
@@ -27687,7 +27693,7 @@
       <c r="L26" s="122"/>
       <c r="M26" s="122"/>
     </row>
-    <row r="27" spans="2:18" ht="25.8">
+    <row r="27" spans="2:18" ht="26.25">
       <c r="B27" s="11" t="s">
         <v>117</v>
       </c>
@@ -27746,7 +27752,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="15" thickBot="1">
+    <row r="29" spans="2:18" ht="15.75" thickBot="1">
       <c r="B29" s="10" t="s">
         <v>534</v>
       </c>
@@ -27785,7 +27791,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="15" thickBot="1">
+    <row r="30" spans="2:18" ht="15.75" thickBot="1">
       <c r="B30" s="67" t="str">
         <f t="shared" ref="B30" si="0">B13</f>
         <v>IE,National</v>
@@ -28151,7 +28157,7 @@
       <c r="J39" s="38"/>
       <c r="K39" s="184"/>
     </row>
-    <row r="40" spans="2:23" ht="18">
+    <row r="40" spans="2:23" ht="18.75">
       <c r="B40" s="11" t="s">
         <v>88</v>
       </c>
@@ -28223,7 +28229,7 @@
       <c r="V41"/>
       <c r="W41"/>
     </row>
-    <row r="42" spans="2:23" ht="15" thickBot="1">
+    <row r="42" spans="2:23" ht="15.75" thickBot="1">
       <c r="B42" s="9" t="s">
         <v>534</v>
       </c>
@@ -28514,7 +28520,7 @@
       <c r="V46"/>
       <c r="W46"/>
     </row>
-    <row r="47" spans="2:23" ht="15" thickBot="1">
+    <row r="47" spans="2:23" ht="15.75" thickBot="1">
       <c r="B47" s="70" t="s">
         <v>85</v>
       </c>
@@ -28796,7 +28802,7 @@
       <c r="P51" s="75"/>
       <c r="R51" s="40"/>
     </row>
-    <row r="52" spans="2:18" ht="15" thickBot="1">
+    <row r="52" spans="2:18" ht="15.75" thickBot="1">
       <c r="B52" s="70" t="s">
         <v>85</v>
       </c>
@@ -29070,7 +29076,7 @@
       <c r="P56" s="75"/>
       <c r="R56" s="40"/>
     </row>
-    <row r="57" spans="2:18" ht="15" thickBot="1">
+    <row r="57" spans="2:18" ht="15.75" thickBot="1">
       <c r="B57" s="70" t="s">
         <v>85</v>
       </c>
@@ -29345,7 +29351,7 @@
       <c r="P61" s="75"/>
       <c r="R61" s="40"/>
     </row>
-    <row r="62" spans="2:18" ht="15" thickBot="1">
+    <row r="62" spans="2:18" ht="15.75" thickBot="1">
       <c r="B62" s="72" t="s">
         <v>85</v>
       </c>
@@ -29401,30 +29407,30 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="142"/>
-    <col min="2" max="2" width="12.5546875" style="215" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="142" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" style="142" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="142" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="142"/>
+    <col min="2" max="2" width="12.5703125" style="215" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="142" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="142" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="142" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11" style="142" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="142" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="142" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="142" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="142" customWidth="1"/>
     <col min="11" max="11" width="17" style="142" customWidth="1"/>
     <col min="12" max="12" width="14" style="215" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="142" customWidth="1"/>
-    <col min="14" max="16" width="9.109375" style="142"/>
-    <col min="17" max="17" width="12.6640625" style="142" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.88671875" style="142" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="142"/>
+    <col min="13" max="13" width="10.5703125" style="142" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="142"/>
+    <col min="17" max="17" width="12.7109375" style="142" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" style="142" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="142"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18">
+    <row r="2" spans="2:15" ht="18.75">
       <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
@@ -29481,7 +29487,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1">
+    <row r="4" spans="2:15" ht="15.75" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>535</v>
       </c>
@@ -29751,7 +29757,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="2:15" ht="18">
+    <row r="13" spans="2:15" ht="18.75">
       <c r="B13" s="11" t="s">
         <v>57</v>
       </c>
@@ -29771,7 +29777,7 @@
       <c r="N13" s="29"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="2:15" ht="27.6">
+    <row r="14" spans="2:15" ht="25.5">
       <c r="B14" s="16" t="s">
         <v>533</v>
       </c>
@@ -29801,7 +29807,7 @@
       <c r="N14" s="20"/>
       <c r="O14" s="144"/>
     </row>
-    <row r="15" spans="2:15" ht="15" thickBot="1">
+    <row r="15" spans="2:15" ht="15.75" thickBot="1">
       <c r="B15" s="9" t="s">
         <v>535</v>
       </c>

--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D36C169-E040-4E1B-9BF4-F07DF931009D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F27186-4EC4-43D1-A11E-CD3565FA8AAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="22" r:id="rId1"/>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="603">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -915,9 +915,6 @@
   </si>
   <si>
     <t>RENOCE</t>
-  </si>
-  <si>
-    <t>RENGEO</t>
   </si>
   <si>
     <t>~FI_T: EUR00</t>
@@ -1633,9 +1630,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ocean </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geothermal </t>
   </si>
   <si>
     <t xml:space="preserve">Ethanol 1st generation </t>
@@ -2711,6 +2705,9 @@
   </si>
   <si>
     <t>Energy Security Report</t>
+  </si>
+  <si>
+    <t>RENAHT</t>
   </si>
 </sst>
 </file>
@@ -7271,13 +7268,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="442" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="444" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="444" t="s">
         <v>474</v>
-      </c>
-      <c r="C5" s="444" t="s">
-        <v>475</v>
-      </c>
-      <c r="D5" s="444" t="s">
-        <v>476</v>
       </c>
       <c r="E5" s="443" t="str">
         <f>A11</f>
@@ -7386,7 +7383,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="442" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C6" s="443" t="str">
         <f>C5</f>
@@ -7503,7 +7500,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="442" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C7" s="443" t="str">
         <f>"*"&amp;C5</f>
@@ -7620,223 +7617,223 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="445" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B10" s="445" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="446" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B11" s="446" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="447" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B12" s="447" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="447" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B13" s="447" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="447" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B14" s="447" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="447" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B15" s="447" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="447" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B16" s="447" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="447" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B17" s="447" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="447" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B18" s="447" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="447" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B19" s="447" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="447" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B20" s="447" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="447" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B21" s="447" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="447" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B22" s="447" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="447" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B23" s="447" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="447" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B24" s="447" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="447" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B25" s="447" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="447" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B26" s="447" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="447" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B27" s="447" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="447" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B28" s="447" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="447" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B29" s="447" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="447" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B30" s="447" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="447" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B31" s="447" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="447" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B32" s="447" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="447" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B33" s="447" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="447" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B34" s="447" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="447" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B35" s="447" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="447" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B36" s="447" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="448" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -7900,19 +7897,19 @@
   <sheetData>
     <row r="2" spans="2:18" ht="18.75">
       <c r="B2" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="138"/>
       <c r="G2" s="138"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>2</v>
@@ -7921,30 +7918,30 @@
         <v>3</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G3" s="124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="13.5" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -7969,7 +7966,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="506" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R5" s="217"/>
     </row>
@@ -8732,13 +8729,13 @@
     </row>
     <row r="2" spans="2:26" ht="18.75">
       <c r="B2" s="153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="154"/>
       <c r="D2" s="154"/>
       <c r="E2" s="155"/>
       <c r="F2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="165"/>
       <c r="H2" s="166"/>
@@ -8757,7 +8754,7 @@
     </row>
     <row r="3" spans="2:26" ht="25.5">
       <c r="B3" s="151" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C3" s="151" t="s">
         <v>2</v>
@@ -8766,43 +8763,43 @@
         <v>3</v>
       </c>
       <c r="E3" s="151" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="150" t="s">
+        <v>448</v>
+      </c>
+      <c r="H3" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="150" t="s">
+        <v>451</v>
+      </c>
+      <c r="J3" s="150" t="s">
+        <v>449</v>
+      </c>
+      <c r="K3" s="149" t="s">
         <v>450</v>
       </c>
-      <c r="H3" s="150" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" s="150" t="s">
-        <v>453</v>
-      </c>
-      <c r="J3" s="150" t="s">
-        <v>451</v>
-      </c>
-      <c r="K3" s="149" t="s">
-        <v>452</v>
-      </c>
       <c r="L3" s="149" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" s="149" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="149" t="s">
-        <v>224</v>
-      </c>
       <c r="N3" s="149" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="O3" s="149" t="s">
-        <v>155</v>
-      </c>
       <c r="P3" s="149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q3" s="152" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R3" s="182"/>
       <c r="S3" s="182"/>
@@ -8810,14 +8807,14 @@
     </row>
     <row r="4" spans="2:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="B4" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="195" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -8826,13 +8823,13 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="P4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="182"/>
@@ -8881,7 +8878,7 @@
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="199" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R5" s="182"/>
       <c r="S5" s="182"/>
@@ -8914,7 +8911,7 @@
       <c r="O6" s="32"/>
       <c r="P6" s="197"/>
       <c r="Q6" s="158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R6" s="182"/>
       <c r="S6" s="182"/>
@@ -8948,7 +8945,7 @@
         <v>1.7</v>
       </c>
       <c r="Q7" s="158" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R7" s="182"/>
       <c r="S7" s="182"/>
@@ -8983,7 +8980,7 @@
         <v>1.7</v>
       </c>
       <c r="Q8" s="158" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R8" s="182"/>
       <c r="S8" s="182"/>
@@ -8991,12 +8988,12 @@
     </row>
     <row r="9" spans="2:26">
       <c r="C9" s="163" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="162"/>
       <c r="E9" s="161"/>
       <c r="F9" s="158" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G9" s="441">
         <f t="shared" si="0"/>
@@ -9014,7 +9011,7 @@
       <c r="O9" s="32"/>
       <c r="P9" s="198"/>
       <c r="Q9" s="158" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R9" s="182"/>
       <c r="S9" s="182"/>
@@ -9049,7 +9046,7 @@
         <v>0.83603571428571199</v>
       </c>
       <c r="Q10" s="158" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R10" s="182"/>
       <c r="S10" s="182"/>
@@ -9081,7 +9078,7 @@
         <v>1.3357142857142801</v>
       </c>
       <c r="Q11" s="158" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R11" s="182"/>
       <c r="S11" s="182"/>
@@ -9116,7 +9113,7 @@
         <v>1.5785714285714201</v>
       </c>
       <c r="Q12" s="158" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R12" s="182"/>
       <c r="S12" s="182"/>
@@ -9146,7 +9143,7 @@
       <c r="O13" s="32"/>
       <c r="P13" s="198"/>
       <c r="Q13" s="158" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R13" s="182"/>
       <c r="S13" s="182"/>
@@ -9178,7 +9175,7 @@
         <v>1.21428571428571</v>
       </c>
       <c r="Q14" s="158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R14" s="182"/>
       <c r="S14" s="182"/>
@@ -9186,12 +9183,12 @@
     </row>
     <row r="15" spans="2:26">
       <c r="C15" s="163" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15" s="162"/>
       <c r="E15" s="161"/>
       <c r="F15" s="158" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G15" s="441">
         <f t="shared" si="0"/>
@@ -9209,7 +9206,7 @@
       <c r="O15" s="32"/>
       <c r="P15" s="198"/>
       <c r="Q15" s="158" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R15" s="182"/>
       <c r="S15" s="182"/>
@@ -9217,12 +9214,12 @@
     </row>
     <row r="16" spans="2:26">
       <c r="C16" s="163" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="158" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G16" s="441">
         <f t="shared" si="0"/>
@@ -9240,7 +9237,7 @@
       <c r="O16" s="32"/>
       <c r="P16" s="198"/>
       <c r="Q16" s="158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R16" s="182"/>
       <c r="S16" s="182"/>
@@ -9251,12 +9248,12 @@
     </row>
     <row r="17" spans="3:30">
       <c r="C17" s="163" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="158" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G17" s="441">
         <f t="shared" si="0"/>
@@ -9274,7 +9271,7 @@
       <c r="O17" s="139"/>
       <c r="P17" s="198"/>
       <c r="Q17" s="158" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R17" s="182"/>
       <c r="S17" s="182"/>
@@ -9295,7 +9292,7 @@
     </row>
     <row r="22" spans="3:30">
       <c r="C22" s="182" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D22" s="439">
         <f>1/SUM(E24:E35)</f>
@@ -9345,7 +9342,7 @@
     </row>
     <row r="27" spans="3:30">
       <c r="C27" s="158" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27" s="202">
         <f>('EB2018'!R$20-'EB2018'!R$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
@@ -9428,7 +9425,7 @@
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="158" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D33" s="202">
         <f>('EB2018'!X$20-'EB2018'!X$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
@@ -9441,7 +9438,7 @@
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="158" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D34" s="202">
         <f>('EB2018'!Y$20-'EB2018'!Y$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
@@ -9454,7 +9451,7 @@
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="158" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" s="202">
         <f>('EB2018'!Z$20-'EB2018'!Z$25)/(SUM('EB2018'!$O$20:$Z$20)-SUM('EB2018'!$O$25:$Z$25))</f>
@@ -9499,12 +9496,12 @@
   <sheetData>
     <row r="2" spans="2:20" ht="18.75">
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="F2" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="158"/>
       <c r="H2" s="14"/>
@@ -9515,7 +9512,7 @@
     </row>
     <row r="3" spans="2:20" ht="25.5">
       <c r="B3" s="16" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -9524,65 +9521,65 @@
         <v>3</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="I3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="L3" s="19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="79" t="s">
         <v>67</v>
-      </c>
-      <c r="O3" s="79" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1">
       <c r="B4" s="21" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>10</v>
@@ -9704,24 +9701,24 @@
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="505" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H7" s="505"/>
       <c r="I7" s="505"/>
       <c r="J7" s="505"/>
       <c r="K7" s="505"/>
       <c r="L7" s="271" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M7" s="505" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N7" s="505"/>
       <c r="O7" s="50"/>
@@ -9754,11 +9751,11 @@
     <row r="12" spans="2:20">
       <c r="C12"/>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -9776,7 +9773,7 @@
     <row r="13" spans="2:20">
       <c r="C13"/>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="234">
@@ -9802,7 +9799,7 @@
     </row>
     <row r="14" spans="2:20">
       <c r="C14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14">
         <v>1800</v>
@@ -9822,7 +9819,7 @@
     </row>
     <row r="15" spans="2:20">
       <c r="C15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15">
         <v>0.47499999999999998</v>
@@ -9851,7 +9848,7 @@
         <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
@@ -9873,7 +9870,7 @@
     </row>
     <row r="17" spans="3:20">
       <c r="C17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -9932,7 +9929,7 @@
       </c>
       <c r="L18"/>
       <c r="M18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
@@ -9940,7 +9937,7 @@
     </row>
     <row r="19" spans="3:20">
       <c r="C19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19">
         <v>900</v>
@@ -9971,14 +9968,14 @@
         <v>10</v>
       </c>
       <c r="N19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -10006,10 +10003,10 @@
       </c>
       <c r="L20"/>
       <c r="M20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
@@ -10057,14 +10054,14 @@
       </c>
       <c r="L22"/>
       <c r="M22" s="130" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O22"/>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="3:20">
@@ -10367,7 +10364,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="227" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B1" s="227"/>
       <c r="C1" s="228"/>
@@ -10376,7 +10373,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
@@ -10396,7 +10393,7 @@
         <v>SUPWAS</v>
       </c>
       <c r="F5" s="230" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10414,7 +10411,7 @@
         <v>75.3</v>
       </c>
       <c r="F6" s="92" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10486,10 +10483,10 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="86" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>92</v>
       </c>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
@@ -10499,10 +10496,10 @@
       <c r="H1" s="86"/>
       <c r="I1" s="86"/>
       <c r="J1" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="509" t="s">
         <v>93</v>
-      </c>
-      <c r="P1" s="509" t="s">
-        <v>94</v>
       </c>
       <c r="Q1" s="509"/>
     </row>
@@ -10510,16 +10507,16 @@
       <c r="H2" s="86"/>
       <c r="I2" s="86"/>
       <c r="J2" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2" s="54">
         <v>41.868000000000002</v>
       </c>
       <c r="L2" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="94" t="s">
         <v>96</v>
-      </c>
-      <c r="P2" s="94" t="s">
-        <v>97</v>
       </c>
       <c r="Q2" s="95">
         <v>2010</v>
@@ -10527,13 +10524,13 @@
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1">
       <c r="A3" s="96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="108"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3" s="97">
         <v>4.1868000000000002E-2</v>
@@ -10550,7 +10547,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="86"/>
       <c r="I4" s="86"/>
@@ -10558,17 +10555,17 @@
       <c r="K4" s="101"/>
       <c r="L4" s="34"/>
       <c r="P4" s="86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="86"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1">
       <c r="A5" s="102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" s="86"/>
       <c r="I5" s="103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J5" s="86"/>
     </row>
@@ -10612,15 +10609,15 @@
         <v>2030</v>
       </c>
       <c r="P6" s="102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1">
       <c r="A7" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="108" t="s">
         <v>104</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>105</v>
       </c>
       <c r="C7" s="109">
         <v>9358</v>
@@ -10662,7 +10659,7 @@
         <v>19.683151632000001</v>
       </c>
       <c r="P7" s="110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="111"/>
       <c r="R7" s="111"/>
@@ -10670,10 +10667,10 @@
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1">
       <c r="A8" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="108">
         <v>288</v>
@@ -10692,7 +10689,7 @@
       </c>
       <c r="H8" s="86"/>
       <c r="I8" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="65">
         <f>C8/$K$2</f>
@@ -10715,7 +10712,7 @@
         <v>2.3406897869494601</v>
       </c>
       <c r="P8" s="112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="111"/>
       <c r="R8" s="111"/>
@@ -10723,10 +10720,10 @@
     </row>
     <row r="9" spans="1:22" ht="15.75" thickBot="1">
       <c r="A9" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="109">
         <v>28075</v>
@@ -10768,7 +10765,7 @@
         <v>59.049413028000004</v>
       </c>
       <c r="P9" s="110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q9" s="111"/>
       <c r="R9" s="111"/>
@@ -10776,10 +10773,10 @@
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1">
       <c r="A10" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="108">
         <v>590</v>
@@ -10798,7 +10795,7 @@
       </c>
       <c r="H10" s="86"/>
       <c r="I10" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="65">
         <f>C10/$K$2</f>
@@ -10821,7 +10818,7 @@
         <v>5.5412248017579051</v>
       </c>
       <c r="P10" s="112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="111"/>
       <c r="R10" s="111"/>
@@ -10829,10 +10826,10 @@
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
       <c r="A11" s="107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="109">
         <v>535616</v>
@@ -10876,10 +10873,10 @@
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
       <c r="A12" s="107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="108">
         <v>779</v>
@@ -10898,7 +10895,7 @@
       </c>
       <c r="H12" s="86"/>
       <c r="I12" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="65">
         <f>C12/$K$2</f>
@@ -10923,10 +10920,10 @@
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1">
       <c r="A13" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="109">
         <v>106129</v>
@@ -10970,10 +10967,10 @@
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
       <c r="A14" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="109">
         <v>1209</v>
@@ -10992,7 +10989,7 @@
       </c>
       <c r="H14" s="86"/>
       <c r="I14" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="65">
         <f>C14/$K$2</f>
@@ -11023,7 +11020,7 @@
     </row>
     <row r="16" spans="1:22" ht="15.75" thickBot="1">
       <c r="A16" s="114" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -11033,14 +11030,14 @@
       <c r="G16" s="55"/>
       <c r="H16" s="86"/>
       <c r="I16" s="103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J16" s="86"/>
       <c r="P16" t="s">
+        <v>111</v>
+      </c>
+      <c r="V16" s="103" t="s">
         <v>112</v>
-      </c>
-      <c r="V16" s="103" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1">
@@ -11115,10 +11112,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1">
       <c r="A18" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="108" t="s">
         <v>104</v>
-      </c>
-      <c r="B18" s="108" t="s">
-        <v>105</v>
       </c>
       <c r="C18" s="109">
         <v>7640</v>
@@ -11164,10 +11161,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1">
       <c r="A19" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="108">
         <v>288</v>
@@ -11186,7 +11183,7 @@
       </c>
       <c r="H19" s="86"/>
       <c r="I19" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19" s="65">
         <f>C19/$K$2</f>
@@ -11251,10 +11248,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1">
       <c r="A20" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="109">
         <v>22921</v>
@@ -11298,10 +11295,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1">
       <c r="A21" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="108">
         <v>590</v>
@@ -11320,7 +11317,7 @@
       </c>
       <c r="H21" s="86"/>
       <c r="I21" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21" s="65">
         <f>C21/$K$2</f>
@@ -11385,10 +11382,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" thickBot="1">
       <c r="A22" s="107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="109">
         <v>781304</v>
@@ -11433,10 +11430,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" thickBot="1">
       <c r="A23" s="107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="108">
         <v>779</v>
@@ -11455,7 +11452,7 @@
       </c>
       <c r="H23" s="86"/>
       <c r="I23" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" s="65">
         <f>C23/$K$2</f>
@@ -11520,10 +11517,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="109">
         <v>101544</v>
@@ -11567,10 +11564,10 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" thickBot="1">
       <c r="A25" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="109">
         <v>1209</v>
@@ -11589,7 +11586,7 @@
       </c>
       <c r="H25" s="86"/>
       <c r="I25" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J25" s="65">
         <f>C25/$K$2</f>
@@ -11654,11 +11651,11 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" thickBot="1">
       <c r="A26" s="102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="86"/>
       <c r="I26" s="103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J26" s="92"/>
       <c r="K26" s="82"/>
@@ -11666,7 +11663,7 @@
       <c r="M26" s="82"/>
       <c r="N26" s="82"/>
       <c r="P26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1">
@@ -11741,10 +11738,10 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1">
       <c r="A28" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="108" t="s">
         <v>104</v>
-      </c>
-      <c r="B28" s="108" t="s">
-        <v>105</v>
       </c>
       <c r="C28" s="109">
         <v>6382</v>
@@ -11789,10 +11786,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" thickBot="1">
       <c r="A29" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="108">
         <v>288</v>
@@ -11811,7 +11808,7 @@
       </c>
       <c r="H29" s="86"/>
       <c r="I29" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J29" s="65">
         <f>C29/$K$2</f>
@@ -11876,13 +11873,13 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" thickBot="1">
       <c r="A30" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" s="109">
         <v>87968</v>
@@ -11923,10 +11920,10 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1">
       <c r="A31" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="108">
         <v>590</v>
@@ -11945,7 +11942,7 @@
       </c>
       <c r="H31" s="86"/>
       <c r="I31" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J31" s="65">
         <f>C31/$K$2</f>
@@ -12010,10 +12007,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" thickBot="1">
       <c r="A32" s="107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="109">
         <v>779549</v>
@@ -12058,10 +12055,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" thickBot="1">
       <c r="A33" s="107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="108">
         <v>779</v>
@@ -12080,7 +12077,7 @@
       </c>
       <c r="H33" s="86"/>
       <c r="I33" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J33" s="65">
         <f>C33/$K$2</f>
@@ -12145,10 +12142,10 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1">
       <c r="A34" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="109">
         <v>101448</v>
@@ -12192,10 +12189,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" thickBot="1">
       <c r="A35" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="109">
         <v>1209</v>
@@ -12214,7 +12211,7 @@
       </c>
       <c r="H35" s="86"/>
       <c r="I35" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J35" s="65">
         <f>C35/$K$2</f>
@@ -12289,7 +12286,7 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" thickBot="1">
       <c r="A37" s="114" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -12299,7 +12296,7 @@
       <c r="G37" s="55"/>
       <c r="H37" s="86"/>
       <c r="I37" s="103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J37" s="92"/>
       <c r="K37" s="82"/>
@@ -12307,10 +12304,10 @@
       <c r="M37" s="82"/>
       <c r="N37" s="82"/>
       <c r="P37" t="s">
+        <v>111</v>
+      </c>
+      <c r="V37" s="103" t="s">
         <v>112</v>
-      </c>
-      <c r="V37" s="103" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15.75" thickBot="1">
@@ -12385,10 +12382,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" thickBot="1">
       <c r="A39" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="108" t="s">
         <v>104</v>
-      </c>
-      <c r="B39" s="108" t="s">
-        <v>105</v>
       </c>
       <c r="C39" s="109">
         <v>7640</v>
@@ -12433,10 +12430,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" thickBot="1">
       <c r="A40" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="108">
         <v>288</v>
@@ -12455,7 +12452,7 @@
       </c>
       <c r="H40" s="86"/>
       <c r="I40" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J40" s="65">
         <f>C40/$K$2</f>
@@ -12520,10 +12517,10 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" thickBot="1">
       <c r="A41" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="109">
         <v>22921</v>
@@ -12567,10 +12564,10 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" thickBot="1">
       <c r="A42" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="108">
         <v>590</v>
@@ -12589,7 +12586,7 @@
       </c>
       <c r="H42" s="86"/>
       <c r="I42" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J42" s="65">
         <f>C42/$K$2</f>
@@ -12654,10 +12651,10 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" thickBot="1">
       <c r="A43" s="107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="109">
         <v>781304</v>
@@ -12702,10 +12699,10 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" thickBot="1">
       <c r="A44" s="107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="108">
         <v>779</v>
@@ -12724,7 +12721,7 @@
       </c>
       <c r="H44" s="86"/>
       <c r="I44" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J44" s="65">
         <f>C44/$K$2</f>
@@ -12789,10 +12786,10 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" thickBot="1">
       <c r="A45" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="109">
         <v>101544</v>
@@ -12836,10 +12833,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" thickBot="1">
       <c r="A46" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="109">
         <v>1209</v>
@@ -12858,7 +12855,7 @@
       </c>
       <c r="H46" s="86"/>
       <c r="I46" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J46" s="65">
         <f>C46/$K$2</f>
@@ -12933,11 +12930,11 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" thickBot="1">
       <c r="A48" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H48" s="86"/>
       <c r="I48" s="103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J48" s="92"/>
       <c r="K48" s="82"/>
@@ -12945,10 +12942,10 @@
       <c r="M48" s="82"/>
       <c r="N48" s="82"/>
       <c r="P48" t="s">
+        <v>111</v>
+      </c>
+      <c r="V48" s="103" t="s">
         <v>112</v>
-      </c>
-      <c r="V48" s="103" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="15.75" thickBot="1">
@@ -13023,10 +13020,10 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" thickBot="1">
       <c r="A50" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="108" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" s="108" t="s">
-        <v>105</v>
       </c>
       <c r="C50" s="109">
         <v>6382</v>
@@ -13071,10 +13068,10 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" thickBot="1">
       <c r="A51" s="107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="108">
         <v>288</v>
@@ -13093,7 +13090,7 @@
       </c>
       <c r="H51" s="86"/>
       <c r="I51" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J51" s="65">
         <f>C51/$K$2</f>
@@ -13158,10 +13155,10 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" thickBot="1">
       <c r="A52" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="109">
         <v>191470</v>
@@ -13205,10 +13202,10 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" thickBot="1">
       <c r="A53" s="107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="108">
         <v>590</v>
@@ -13227,7 +13224,7 @@
       </c>
       <c r="H53" s="86"/>
       <c r="I53" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J53" s="65">
         <f>C53/$K$2</f>
@@ -13292,10 +13289,10 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" thickBot="1">
       <c r="A54" s="107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="109">
         <v>779549</v>
@@ -13340,10 +13337,10 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" thickBot="1">
       <c r="A55" s="107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="108">
         <v>779</v>
@@ -13362,7 +13359,7 @@
       </c>
       <c r="H55" s="86"/>
       <c r="I55" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J55" s="65">
         <f>C55/$K$2</f>
@@ -13427,10 +13424,10 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" thickBot="1">
       <c r="A56" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C56" s="109">
         <v>101448</v>
@@ -13474,10 +13471,10 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" thickBot="1">
       <c r="A57" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="109">
         <v>1209</v>
@@ -13496,7 +13493,7 @@
       </c>
       <c r="H57" s="86"/>
       <c r="I57" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J57" s="65">
         <f>C57/$K$2</f>
@@ -13588,16 +13585,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="93" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B1" s="93"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="178" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C2" s="178">
         <v>4.1868000000000002E-2</v>
@@ -13608,79 +13605,79 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="178" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C3" s="178">
         <v>1.0550999999999999</v>
       </c>
       <c r="D3" s="178" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="178" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C4" s="178">
         <v>7.33</v>
       </c>
       <c r="D4" s="178" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E4" s="472"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="178" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C5" s="178">
         <f>C2/C4*1000</f>
         <v>5.7118690313778995</v>
       </c>
       <c r="D5" s="178" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="93" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="178" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C10" s="178">
         <v>1.1194745098039223</v>
       </c>
       <c r="D10" s="178" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="217" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C11" s="217">
         <v>1.1809545098039216</v>
       </c>
       <c r="D11" s="217" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -13746,138 +13743,138 @@
   <sheetData>
     <row r="1" spans="1:43" ht="111" thickBot="1">
       <c r="A1" s="290" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B1" s="289" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C1" s="291" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="294" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="294" t="s">
+      <c r="E1" s="287" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="287" t="s">
+      <c r="F1" s="286" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="286" t="s">
+      <c r="G1" s="286" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="286" t="s">
+      <c r="H1" s="288" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="288" t="s">
+      <c r="I1" s="294" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="294" t="s">
+      <c r="J1" s="287" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="287" t="s">
+      <c r="K1" s="287" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="287" t="s">
+      <c r="L1" s="288" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="288" t="s">
+      <c r="M1" s="294" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="294" t="s">
+      <c r="N1" s="435" t="s">
+        <v>461</v>
+      </c>
+      <c r="O1" s="287" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="435" t="s">
+      <c r="P1" s="287" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q1" s="287" t="s">
+        <v>180</v>
+      </c>
+      <c r="R1" s="287" t="s">
+        <v>181</v>
+      </c>
+      <c r="S1" s="287" t="s">
+        <v>182</v>
+      </c>
+      <c r="T1" s="287" t="s">
+        <v>183</v>
+      </c>
+      <c r="U1" s="287" t="s">
+        <v>184</v>
+      </c>
+      <c r="V1" s="287" t="s">
+        <v>185</v>
+      </c>
+      <c r="W1" s="286" t="s">
+        <v>186</v>
+      </c>
+      <c r="X1" s="286" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y1" s="286" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z1" s="287" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA1" s="288" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB1" s="314" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC1" s="315" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD1" s="287" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE1" s="436" t="s">
+        <v>462</v>
+      </c>
+      <c r="AF1" s="433" t="s">
         <v>463</v>
       </c>
-      <c r="O1" s="287" t="s">
-        <v>179</v>
-      </c>
-      <c r="P1" s="287" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q1" s="287" t="s">
-        <v>181</v>
-      </c>
-      <c r="R1" s="287" t="s">
-        <v>182</v>
-      </c>
-      <c r="S1" s="287" t="s">
-        <v>183</v>
-      </c>
-      <c r="T1" s="287" t="s">
-        <v>184</v>
-      </c>
-      <c r="U1" s="287" t="s">
-        <v>185</v>
-      </c>
-      <c r="V1" s="287" t="s">
-        <v>186</v>
-      </c>
-      <c r="W1" s="286" t="s">
-        <v>187</v>
-      </c>
-      <c r="X1" s="286" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y1" s="286" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z1" s="287" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA1" s="288" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB1" s="314" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC1" s="315" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD1" s="287" t="s">
+      <c r="AG1" s="287" t="s">
         <v>194</v>
       </c>
-      <c r="AE1" s="436" t="s">
+      <c r="AH1" s="287" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI1" s="436" t="s">
         <v>464</v>
       </c>
-      <c r="AF1" s="433" t="s">
+      <c r="AJ1" s="433" t="s">
         <v>465</v>
       </c>
-      <c r="AG1" s="287" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH1" s="287" t="s">
+      <c r="AK1" s="436" t="s">
+        <v>466</v>
+      </c>
+      <c r="AL1" s="433" t="s">
+        <v>467</v>
+      </c>
+      <c r="AM1" s="434" t="s">
+        <v>468</v>
+      </c>
+      <c r="AN1" s="288" t="s">
         <v>196</v>
       </c>
-      <c r="AI1" s="436" t="s">
-        <v>466</v>
-      </c>
-      <c r="AJ1" s="433" t="s">
-        <v>467</v>
-      </c>
-      <c r="AK1" s="436" t="s">
-        <v>468</v>
-      </c>
-      <c r="AL1" s="433" t="s">
-        <v>469</v>
-      </c>
-      <c r="AM1" s="434" t="s">
-        <v>470</v>
-      </c>
-      <c r="AN1" s="288" t="s">
+      <c r="AO1" s="288" t="s">
         <v>197</v>
       </c>
-      <c r="AO1" s="288" t="s">
+      <c r="AP1" s="314" t="s">
         <v>198</v>
       </c>
-      <c r="AP1" s="314" t="s">
+      <c r="AQ1" s="316" t="s">
         <v>199</v>
-      </c>
-      <c r="AQ1" s="316" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:43">
       <c r="A2" s="317" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="318"/>
       <c r="C2" s="319">
@@ -13971,7 +13968,7 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="331" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="332"/>
       <c r="C3" s="333">
@@ -14077,7 +14074,7 @@
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="331" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="332"/>
       <c r="C4" s="333">
@@ -14183,7 +14180,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="331" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="332"/>
       <c r="C5" s="333">
@@ -14249,7 +14246,7 @@
     </row>
     <row r="6" spans="1:43" ht="13.5" thickBot="1">
       <c r="A6" s="342" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" s="343"/>
       <c r="C6" s="333">
@@ -14357,7 +14354,7 @@
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="352" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" s="353"/>
       <c r="C7" s="354">
@@ -14527,7 +14524,7 @@
     </row>
     <row r="8" spans="1:43" ht="13.5" thickBot="1">
       <c r="A8" s="359" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" s="360"/>
       <c r="C8" s="361">
@@ -14697,7 +14694,7 @@
     </row>
     <row r="9" spans="1:43">
       <c r="A9" s="352" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" s="353"/>
       <c r="C9" s="354">
@@ -14867,7 +14864,7 @@
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="371" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="372"/>
       <c r="C10" s="373">
@@ -14949,7 +14946,7 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="331" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="332"/>
       <c r="C11" s="333">
@@ -15029,7 +15026,7 @@
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="331" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="332"/>
       <c r="C12" s="333"/>
@@ -15081,7 +15078,7 @@
     </row>
     <row r="13" spans="1:43">
       <c r="A13" s="331" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="332"/>
       <c r="C13" s="333">
@@ -15145,7 +15142,7 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14" s="381" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" s="382"/>
       <c r="C14" s="383">
@@ -15215,7 +15212,7 @@
     </row>
     <row r="15" spans="1:43">
       <c r="A15" s="390" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" s="391"/>
       <c r="C15" s="392">
@@ -15385,7 +15382,7 @@
     </row>
     <row r="16" spans="1:43">
       <c r="A16" s="371" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B16" s="372"/>
       <c r="C16" s="373">
@@ -15449,7 +15446,7 @@
     </row>
     <row r="17" spans="1:43">
       <c r="A17" s="331" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="332"/>
       <c r="C17" s="333">
@@ -15513,7 +15510,7 @@
     </row>
     <row r="18" spans="1:43">
       <c r="A18" s="331" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="332"/>
       <c r="C18" s="333"/>
@@ -15565,7 +15562,7 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" s="331" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="332"/>
       <c r="C19" s="333"/>
@@ -15626,7 +15623,7 @@
     </row>
     <row r="20" spans="1:43">
       <c r="A20" s="381" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="382"/>
       <c r="C20" s="383"/>
@@ -15701,7 +15698,7 @@
     </row>
     <row r="21" spans="1:43">
       <c r="A21" s="400" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="401"/>
       <c r="C21" s="402">
@@ -15871,7 +15868,7 @@
     </row>
     <row r="22" spans="1:43">
       <c r="A22" s="371" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="372"/>
       <c r="C22" s="411"/>
@@ -15935,7 +15932,7 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" s="414" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B23" s="391"/>
       <c r="C23" s="415"/>
@@ -15985,7 +15982,7 @@
     </row>
     <row r="24" spans="1:43" ht="13.5" thickBot="1">
       <c r="A24" s="342" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="343"/>
       <c r="C24" s="422">
@@ -16065,7 +16062,7 @@
     </row>
     <row r="25" spans="1:43" ht="13.5" thickBot="1">
       <c r="A25" s="390" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" s="391"/>
       <c r="C25" s="392">
@@ -16141,7 +16138,7 @@
     </row>
     <row r="26" spans="1:43" ht="13.5" thickBot="1">
       <c r="A26" s="424" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" s="425"/>
       <c r="C26" s="426">
@@ -16331,8 +16328,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16356,134 +16353,134 @@
   <sheetData>
     <row r="2" spans="2:18" ht="18.75">
       <c r="B2" s="233" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" s="234"/>
       <c r="E2" s="233" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F2" s="234"/>
       <c r="I2" s="233" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J2" s="234"/>
       <c r="M2" s="233" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N2" s="234"/>
       <c r="P2" s="233" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q2" s="234"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1">
       <c r="B3" s="235" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C3" s="235" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E3" s="235" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F3" s="235" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I3" s="235" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J3" s="235" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M3" s="235" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N3" s="235" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P3" s="235" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q3" s="235" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="236" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C4" s="236" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E4" s="236" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="236" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I4" s="236" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J4" s="236" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M4" s="236" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N4" s="236" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P4" s="236" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q4" s="236" t="s">
         <v>406</v>
-      </c>
-      <c r="Q4" s="236" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="236" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C5" s="236" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="236" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="236" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I5" s="236" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J5" s="236"/>
       <c r="M5" s="236" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N5" s="236" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P5" s="236" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q5" s="236" t="s">
         <v>407</v>
-      </c>
-      <c r="Q5" s="236" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="231" customFormat="1">
       <c r="B6" s="236"/>
       <c r="C6" s="236"/>
       <c r="E6" s="236" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="236" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I6" s="231" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J6" s="231" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M6" s="236"/>
       <c r="N6" s="236"/>
@@ -16494,16 +16491,16 @@
       <c r="B7" s="236"/>
       <c r="C7" s="236"/>
       <c r="E7" s="236" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F7" s="236" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I7" s="236" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J7" s="236" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P7" s="234"/>
       <c r="Q7" s="234"/>
@@ -16512,43 +16509,43 @@
       <c r="B8" s="234"/>
       <c r="C8" s="234"/>
       <c r="E8" s="236" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F8" s="236" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I8" s="236" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J8" s="236" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="234" customFormat="1">
       <c r="E9" s="236"/>
       <c r="F9" s="236"/>
       <c r="I9" s="234" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J9" s="236" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="234" customFormat="1">
       <c r="I10" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J10" s="236" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="18.75">
       <c r="B11" s="233" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C11" s="234"/>
       <c r="E11" s="233" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F11" s="234"/>
       <c r="G11" s="234"/>
@@ -16557,54 +16554,54 @@
       <c r="J11" s="234"/>
       <c r="K11" s="234"/>
       <c r="L11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M11" s="233" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N11" s="234"/>
     </row>
     <row r="12" spans="2:18" ht="15.75" thickBot="1">
       <c r="B12" s="235" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C12" s="235" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E12" s="235" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F12" s="235" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G12" s="235" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="235" t="s">
+        <v>358</v>
+      </c>
+      <c r="I12" s="235" t="s">
+        <v>360</v>
+      </c>
+      <c r="J12" s="235" t="s">
+        <v>395</v>
+      </c>
+      <c r="K12" s="235" t="s">
         <v>359</v>
       </c>
-      <c r="H12" s="235" t="s">
-        <v>360</v>
-      </c>
-      <c r="I12" s="235" t="s">
-        <v>362</v>
-      </c>
-      <c r="J12" s="235" t="s">
-        <v>397</v>
-      </c>
-      <c r="K12" s="235" t="s">
-        <v>361</v>
-      </c>
       <c r="M12" s="235" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N12" s="235" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="236" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C13" s="236" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="236" t="str">
         <f t="shared" ref="E13" si="0">I13&amp;H13&amp;J13</f>
@@ -16631,18 +16628,18 @@
         <v>13</v>
       </c>
       <c r="M13" s="236" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N13" s="236" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="236" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C14" s="236" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E14" s="236" t="str">
         <f>I14&amp;H14&amp;J14</f>
@@ -16669,18 +16666,18 @@
         <v>13</v>
       </c>
       <c r="M14" s="236" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N14" s="236" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="236" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C15" s="236" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E15" s="236" t="str">
         <f t="shared" ref="E15:E16" si="4">I15&amp;H15&amp;J15</f>
@@ -16707,18 +16704,18 @@
         <v>13</v>
       </c>
       <c r="M15" s="236" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N15" s="236" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="236" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C16" s="236" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E16" s="236" t="str">
         <f t="shared" si="4"/>
@@ -16745,10 +16742,10 @@
         <v>13</v>
       </c>
       <c r="M16" s="236" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N16" s="215" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O16" s="234"/>
       <c r="P16" s="234"/>
@@ -16757,10 +16754,10 @@
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="236" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C17" s="236" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E17" s="236" t="str">
         <f>I17&amp;H17&amp;J17</f>
@@ -16787,18 +16784,18 @@
         <v>13</v>
       </c>
       <c r="M17" s="236" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N17" s="250" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="236" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C18" s="236" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E18" s="236" t="str">
         <f>I18&amp;H18&amp;J18</f>
@@ -16825,18 +16822,18 @@
         <v>13</v>
       </c>
       <c r="M18" s="236" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N18" s="250" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="236" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C19" s="236" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="236" t="str">
         <f>I19&amp;H19&amp;J19</f>
@@ -16863,18 +16860,18 @@
         <v>13</v>
       </c>
       <c r="M19" s="236" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N19" s="250" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="236" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C20" s="236" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E20" s="236" t="str">
         <f>I20&amp;H20&amp;J20</f>
@@ -16901,18 +16898,18 @@
         <v>13</v>
       </c>
       <c r="M20" s="236" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N20" s="215" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="236" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C21" s="236" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E21" s="236" t="str">
         <f t="shared" ref="E21:E22" si="7">I21&amp;H21&amp;J21</f>
@@ -16939,18 +16936,18 @@
         <v>13</v>
       </c>
       <c r="M21" s="236" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N21" s="231" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="236" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C22" s="234" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E22" s="236" t="str">
         <f t="shared" si="7"/>
@@ -16977,18 +16974,18 @@
         <v>13</v>
       </c>
       <c r="M22" s="236" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N22" s="231" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="236" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C23" s="236" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E23" s="236" t="str">
         <f t="shared" ref="E23" si="8">I23&amp;H23&amp;J23</f>
@@ -17018,10 +17015,10 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="236" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C24" s="236" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E24" s="236" t="str">
         <f>I24&amp;H24&amp;J24</f>
@@ -17050,10 +17047,10 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="236" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C25" s="236" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E25" s="236" t="str">
         <f>I25&amp;H25&amp;J25</f>
@@ -17085,10 +17082,10 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="236" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C26" s="236" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E26" s="236" t="str">
         <f>I26&amp;H26&amp;J26</f>
@@ -17120,10 +17117,10 @@
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="236" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C27" s="236" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E27" s="236" t="str">
         <f>I27&amp;H27&amp;J27</f>
@@ -17152,10 +17149,10 @@
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="236" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C28" s="236" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E28" s="236" t="str">
         <f>I28&amp;H28&amp;J28</f>
@@ -17187,10 +17184,10 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="236" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C29" s="236" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E29" s="236" t="str">
         <f t="shared" ref="E29:E36" si="9">I29&amp;H29&amp;J29</f>
@@ -17222,10 +17219,10 @@
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="236" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C30" s="236" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E30" s="236" t="str">
         <f t="shared" si="9"/>
@@ -17257,10 +17254,10 @@
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="236" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C31" s="236" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E31" s="236" t="str">
         <f t="shared" si="9"/>
@@ -17292,10 +17289,10 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="236" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C32" s="236" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E32" s="236" t="str">
         <f t="shared" si="9"/>
@@ -17327,10 +17324,10 @@
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="252" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C33" s="254" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E33" s="236" t="str">
         <f t="shared" si="9"/>
@@ -17362,10 +17359,10 @@
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="252" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C34" s="254" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E34" s="236" t="str">
         <f t="shared" si="9"/>
@@ -17397,10 +17394,10 @@
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="252" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C35" s="252" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E35" s="236" t="str">
         <f t="shared" si="9"/>
@@ -17432,10 +17429,10 @@
     </row>
     <row r="36" spans="2:20">
       <c r="B36" s="252" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C36" s="252" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E36" s="280" t="str">
         <f t="shared" si="9"/>
@@ -17467,10 +17464,10 @@
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="252" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C37" s="254" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E37" s="236" t="str">
         <f t="shared" ref="E37:E49" si="11">I37&amp;H37&amp;J37</f>
@@ -17502,10 +17499,10 @@
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="252" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C38" s="254" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E38" s="236" t="str">
         <f t="shared" si="11"/>
@@ -17537,10 +17534,10 @@
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="252" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C39" s="236" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E39" s="236" t="str">
         <f t="shared" si="11"/>
@@ -17572,10 +17569,10 @@
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="252" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C40" s="236" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E40" s="236" t="str">
         <f t="shared" si="11"/>
@@ -17607,10 +17604,10 @@
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="252" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C41" s="236" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E41" s="236" t="str">
         <f t="shared" si="11"/>
@@ -17642,10 +17639,10 @@
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="252" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C42" s="236" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E42" s="236" t="str">
         <f t="shared" si="11"/>
@@ -17677,10 +17674,10 @@
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="252" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C43" s="236" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E43" s="236" t="str">
         <f t="shared" si="11"/>
@@ -17712,10 +17709,10 @@
     </row>
     <row r="44" spans="2:20" s="231" customFormat="1">
       <c r="B44" s="252" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C44" s="236" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E44" s="236" t="str">
         <f t="shared" si="11"/>
@@ -17755,10 +17752,10 @@
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="253" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C45" s="236" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E45" s="236" t="str">
         <f t="shared" si="11"/>
@@ -17801,7 +17798,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="236" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E46" s="236" t="str">
         <f t="shared" si="11"/>
@@ -17844,7 +17841,7 @@
         <v>26</v>
       </c>
       <c r="C47" s="236" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E47" s="236" t="str">
         <f t="shared" si="11"/>
@@ -17879,7 +17876,7 @@
         <v>25</v>
       </c>
       <c r="C48" s="236" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E48" s="236" t="str">
         <f t="shared" si="11"/>
@@ -17911,10 +17908,10 @@
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="252" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C49" s="236" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E49" s="236" t="str">
         <f t="shared" si="11"/>
@@ -17946,7 +17943,7 @@
         <v>12</v>
       </c>
       <c r="C50" s="236" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E50" s="236" t="str">
         <f t="shared" ref="E50:E55" si="16">I50&amp;H50&amp;J50</f>
@@ -17978,7 +17975,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="236" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E51" s="236" t="str">
         <f t="shared" si="16"/>
@@ -18007,10 +18004,10 @@
     </row>
     <row r="52" spans="2:20">
       <c r="B52" s="253" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C52" s="236" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E52" s="236" t="str">
         <f t="shared" si="16"/>
@@ -18042,7 +18039,7 @@
         <v>32</v>
       </c>
       <c r="C53" s="236" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E53" s="236" t="str">
         <f t="shared" si="16"/>
@@ -18074,15 +18071,15 @@
         <v>31</v>
       </c>
       <c r="C54" s="236" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E54" s="236" t="str">
         <f t="shared" si="16"/>
-        <v>MINRENGEO</v>
+        <v>MINRENAHT</v>
       </c>
       <c r="F54" s="234" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Domestic Potential of Geothermal </v>
+        <v>Domestic Potential of Ambient Heat</v>
       </c>
       <c r="G54" s="236" t="str">
         <f t="shared" si="13"/>
@@ -18090,7 +18087,7 @@
       </c>
       <c r="H54" s="236" t="str">
         <f t="shared" si="15"/>
-        <v>RENGEO</v>
+        <v>RENAHT</v>
       </c>
       <c r="I54" s="236" t="str">
         <f t="shared" si="14"/>
@@ -18106,7 +18103,7 @@
         <v>29</v>
       </c>
       <c r="C55" s="236" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E55" s="236" t="str">
         <f t="shared" si="16"/>
@@ -18141,7 +18138,7 @@
         <v>33</v>
       </c>
       <c r="C56" s="236" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E56" s="236" t="str">
         <f t="shared" ref="E56:E64" si="17">I56&amp;H56&amp;J56</f>
@@ -18176,7 +18173,7 @@
         <v>30</v>
       </c>
       <c r="C57" s="236" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E57" s="236" t="str">
         <f t="shared" si="17"/>
@@ -18208,10 +18205,10 @@
     </row>
     <row r="58" spans="2:20">
       <c r="B58" s="252" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="236" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E58" s="236" t="str">
         <f t="shared" si="17"/>
@@ -18251,10 +18248,10 @@
     </row>
     <row r="59" spans="2:20">
       <c r="B59" s="253" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C59" s="236" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E59" s="236" t="str">
         <f t="shared" si="17"/>
@@ -18286,10 +18283,10 @@
     </row>
     <row r="60" spans="2:20">
       <c r="B60" s="252" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C60" s="236" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E60" s="236" t="str">
         <f t="shared" si="17"/>
@@ -18324,7 +18321,7 @@
         <v>11</v>
       </c>
       <c r="C61" s="236" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E61" s="236" t="str">
         <f t="shared" si="17"/>
@@ -18359,7 +18356,7 @@
         <v>27</v>
       </c>
       <c r="C62" s="236" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E62" s="236" t="str">
         <f t="shared" si="17"/>
@@ -18391,10 +18388,10 @@
     </row>
     <row r="63" spans="2:20">
       <c r="B63" s="252" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C63" s="236" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E63" s="236" t="str">
         <f t="shared" si="17"/>
@@ -18429,7 +18426,7 @@
         <v>34</v>
       </c>
       <c r="C64" s="236" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E64" s="236" t="str">
         <f t="shared" si="17"/>
@@ -18464,7 +18461,7 @@
         <v>35</v>
       </c>
       <c r="C65" s="236" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E65" s="236" t="str">
         <f t="shared" ref="E65:E75" si="18">I65&amp;H65&amp;J65</f>
@@ -18499,7 +18496,7 @@
         <v>36</v>
       </c>
       <c r="C66" s="236" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E66" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18531,10 +18528,10 @@
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="252" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" s="236" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E67" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18569,7 +18566,7 @@
         <v>37</v>
       </c>
       <c r="C68" s="236" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E68" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18601,10 +18598,10 @@
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="252" t="s">
-        <v>38</v>
+        <v>602</v>
       </c>
       <c r="C69" s="236" t="s">
-        <v>267</v>
+        <v>460</v>
       </c>
       <c r="E69" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18636,10 +18633,10 @@
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="252" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="236" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E70" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18671,10 +18668,10 @@
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="252" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="236" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E71" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18706,10 +18703,10 @@
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="252" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="236" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E72" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18741,10 +18738,10 @@
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="253" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" s="236" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E73" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18776,10 +18773,10 @@
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="252" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C74" s="236" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E74" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18811,10 +18808,10 @@
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="252" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C75" s="236" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E75" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18846,10 +18843,10 @@
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="279" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C76" s="280" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E76" s="236" t="str">
         <f t="shared" ref="E76:E84" si="19">I76&amp;H76&amp;J76</f>
@@ -18881,10 +18878,10 @@
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="252" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" s="236" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E77" s="236" t="str">
         <f t="shared" si="19"/>
@@ -18916,10 +18913,10 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="252" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C78" s="236" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E78" s="236" t="str">
         <f t="shared" si="19"/>
@@ -18951,10 +18948,10 @@
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="252" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C79" s="236" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E79" s="236" t="str">
         <f t="shared" si="19"/>
@@ -18986,10 +18983,10 @@
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="252" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C80" s="236" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E80" s="236" t="str">
         <f t="shared" si="19"/>
@@ -19021,10 +19018,10 @@
     </row>
     <row r="81" spans="2:12">
       <c r="B81" s="252" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C81" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E81" s="236" t="str">
         <f t="shared" si="19"/>
@@ -19056,10 +19053,10 @@
     </row>
     <row r="82" spans="2:12">
       <c r="B82" s="252" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C82" s="236" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E82" s="236" t="str">
         <f t="shared" si="19"/>
@@ -19091,10 +19088,10 @@
     </row>
     <row r="83" spans="2:12">
       <c r="B83" s="252" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" s="236" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E83" s="236" t="str">
         <f t="shared" si="19"/>
@@ -19126,10 +19123,10 @@
     </row>
     <row r="84" spans="2:12">
       <c r="B84" s="253" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C84" s="236" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E84" s="236" t="str">
         <f t="shared" si="19"/>
@@ -19162,10 +19159,10 @@
     </row>
     <row r="85" spans="2:12">
       <c r="B85" s="252" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C85" s="236" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E85" s="236" t="str">
         <f t="shared" ref="E85:E86" si="22">I85&amp;H85&amp;J85</f>
@@ -19195,10 +19192,10 @@
     </row>
     <row r="86" spans="2:12">
       <c r="B86" s="252" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C86" s="236" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E86" s="236" t="str">
         <f t="shared" si="22"/>
@@ -19227,10 +19224,10 @@
     </row>
     <row r="87" spans="2:12">
       <c r="B87" s="252" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E87" s="236" t="str">
         <f t="shared" ref="E87" si="24">I87&amp;H87&amp;J87</f>
@@ -19259,10 +19256,10 @@
     </row>
     <row r="88" spans="2:12">
       <c r="B88" s="252" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="236" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E88" s="236" t="str">
         <f t="shared" ref="E88:E89" si="26">I88&amp;H88&amp;J88</f>
@@ -19294,10 +19291,10 @@
     </row>
     <row r="89" spans="2:12">
       <c r="B89" s="252" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89" s="236" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E89" s="236" t="str">
         <f t="shared" si="26"/>
@@ -19324,15 +19321,15 @@
         <v>_UK</v>
       </c>
       <c r="K89" s="236" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="2:12">
       <c r="B90" s="252" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C90" s="236" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E90" s="236" t="str">
         <f>LEFT(B4,1)&amp;I90&amp;H90&amp;J90</f>
@@ -19359,15 +19356,15 @@
         <v>_Whitegate</v>
       </c>
       <c r="K90" s="236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="2:12">
       <c r="B91" s="253" t="s">
+        <v>453</v>
+      </c>
+      <c r="C91" s="236" t="s">
         <v>455</v>
-      </c>
-      <c r="C91" s="236" t="s">
-        <v>457</v>
       </c>
       <c r="E91" s="236" t="str">
         <f>I91&amp;$B$4&amp;H91&amp;J91</f>
@@ -19391,15 +19388,15 @@
       </c>
       <c r="J91" s="234"/>
       <c r="K91" s="236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="2:12">
       <c r="B92" s="252" t="s">
+        <v>454</v>
+      </c>
+      <c r="C92" s="236" t="s">
         <v>456</v>
-      </c>
-      <c r="C92" s="236" t="s">
-        <v>458</v>
       </c>
       <c r="E92" s="236" t="str">
         <f t="shared" ref="E92:E95" si="29">I92&amp;$B$4&amp;H92&amp;J92</f>
@@ -19423,15 +19420,15 @@
       </c>
       <c r="J92" s="234"/>
       <c r="K92" s="236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="2:12">
       <c r="B93" s="252" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C93" s="236" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E93" s="236" t="str">
         <f t="shared" si="29"/>
@@ -19455,7 +19452,7 @@
       </c>
       <c r="J93" s="234"/>
       <c r="K93" s="236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="2:12">
@@ -19481,7 +19478,7 @@
       </c>
       <c r="J94" s="234"/>
       <c r="K94" s="236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="2:12">
@@ -19507,7 +19504,7 @@
       </c>
       <c r="J95" s="234"/>
       <c r="K95" s="236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -19521,8 +19518,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView topLeftCell="A7" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -19574,13 +19571,13 @@
     </row>
     <row r="4" spans="2:10" ht="28.5" customHeight="1">
       <c r="B4" s="240" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C4" s="240" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D4" s="241" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E4" s="241"/>
       <c r="F4" s="241"/>
@@ -19590,7 +19587,7 @@
     </row>
     <row r="5" spans="2:10" ht="28.5" customHeight="1">
       <c r="B5" s="246" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="246"/>
       <c r="D5" s="247"/>
@@ -19919,7 +19916,7 @@
       </c>
       <c r="F21" s="243"/>
       <c r="G21" s="243" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="243"/>
       <c r="I21" s="243"/>
@@ -19941,7 +19938,7 @@
       </c>
       <c r="F22" s="243"/>
       <c r="G22" s="243" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="243"/>
       <c r="I22" s="243"/>
@@ -20072,11 +20069,11 @@
       </c>
       <c r="C29" s="248" t="str">
         <f>CONVENTIONS!B69</f>
-        <v>RENGEO</v>
+        <v>RENAHT</v>
       </c>
       <c r="D29" s="248" t="str">
         <f>CONVENTIONS!C69</f>
-        <v xml:space="preserve">Geothermal </v>
+        <v>Ambient Heat</v>
       </c>
       <c r="E29" s="243" t="s">
         <v>10</v>
@@ -20215,7 +20212,7 @@
         <v>BIOJKR</v>
       </c>
       <c r="D36" s="282" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E36" s="243" t="s">
         <v>10</v>
@@ -20622,7 +20619,7 @@
       </c>
       <c r="F56" s="243"/>
       <c r="G56" s="243" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H56" s="243"/>
       <c r="I56" s="243"/>
@@ -20664,11 +20661,11 @@
       </c>
       <c r="F58" s="243"/>
       <c r="G58" s="243" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H58" s="243"/>
       <c r="I58" s="243" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="2:12">
@@ -20688,7 +20685,7 @@
       </c>
       <c r="F59" s="243"/>
       <c r="G59" s="243" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H59" s="243"/>
       <c r="I59" s="243"/>
@@ -20710,7 +20707,7 @@
       </c>
       <c r="F60" s="243"/>
       <c r="G60" s="243" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H60" s="243"/>
       <c r="I60" s="243"/>
@@ -20732,7 +20729,7 @@
       </c>
       <c r="F61" s="243"/>
       <c r="G61" s="243" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H61" s="243"/>
       <c r="I61" s="243"/>
@@ -20754,14 +20751,14 @@
       </c>
       <c r="F62" s="243"/>
       <c r="G62" s="243" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H62" s="243"/>
       <c r="I62" s="243"/>
     </row>
     <row r="63" spans="2:12">
       <c r="B63" s="258" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C63" s="258"/>
       <c r="D63" s="258"/>
@@ -20776,7 +20773,7 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64" s="251" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C64" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M13</f>
@@ -20787,7 +20784,7 @@
         <v>Methane - eNergy Emissions (SUP)</v>
       </c>
       <c r="E64" s="243" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F64" s="243"/>
       <c r="G64" s="243"/>
@@ -20799,7 +20796,7 @@
     </row>
     <row r="65" spans="2:12">
       <c r="B65" s="251" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C65" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M14</f>
@@ -20810,7 +20807,7 @@
         <v>Methane Emissions - Process Emissions (SUP)</v>
       </c>
       <c r="E65" s="243" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F65" s="243"/>
       <c r="G65" s="243"/>
@@ -20822,7 +20819,7 @@
     </row>
     <row r="66" spans="2:12">
       <c r="B66" s="251" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C66" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M15</f>
@@ -20833,7 +20830,7 @@
         <v>N2O Emissions - eNergy Emissions (SUP)</v>
       </c>
       <c r="E66" s="243" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F66" s="243"/>
       <c r="G66" s="243"/>
@@ -20845,7 +20842,7 @@
     </row>
     <row r="67" spans="2:12">
       <c r="B67" s="251" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C67" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M16</f>
@@ -20856,7 +20853,7 @@
         <v>Sulfur dioxide - eNergy Emissions (SUP)</v>
       </c>
       <c r="E67" s="243" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F67" s="243"/>
       <c r="G67" s="243"/>
@@ -20868,7 +20865,7 @@
     </row>
     <row r="68" spans="2:12">
       <c r="B68" s="251" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C68" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M17</f>
@@ -20879,7 +20876,7 @@
         <v>Carbon Dioxide - eNergy Emissions (SUP)</v>
       </c>
       <c r="E68" s="243" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F68" s="243"/>
       <c r="G68" s="243"/>
@@ -20888,7 +20885,7 @@
     </row>
     <row r="69" spans="2:12">
       <c r="B69" s="251" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C69" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M18</f>
@@ -20899,7 +20896,7 @@
         <v>Carbon Dioxide - Process Emissions (SUP)</v>
       </c>
       <c r="E69" s="243" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F69" s="243"/>
       <c r="G69" s="243"/>
@@ -20908,7 +20905,7 @@
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="251" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C70" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M19</f>
@@ -20919,7 +20916,7 @@
         <v>Carbon Dioxide - Sequestered (SUP)</v>
       </c>
       <c r="E70" s="243" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F70" s="243"/>
       <c r="G70" s="243"/>
@@ -20928,7 +20925,7 @@
     </row>
     <row r="71" spans="2:12">
       <c r="B71" s="251" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C71" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M20</f>
@@ -20939,7 +20936,7 @@
         <v>Nitrogen Oxide  - eNergy Emissions (SUP)</v>
       </c>
       <c r="E71" s="243" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F71" s="243"/>
       <c r="G71" s="243"/>
@@ -20948,7 +20945,7 @@
     </row>
     <row r="72" spans="2:12">
       <c r="B72" s="251" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C72" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M21</f>
@@ -20959,7 +20956,7 @@
         <v>Particulate Matter &lt;10 µm (SUP)</v>
       </c>
       <c r="E72" s="243" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F72" s="243"/>
       <c r="G72" s="243"/>
@@ -20968,7 +20965,7 @@
     </row>
     <row r="73" spans="2:12">
       <c r="B73" s="251" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C73" s="248" t="str">
         <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M22</f>
@@ -20979,7 +20976,7 @@
         <v>Particulate Matter &lt;2.5 µm (SUP)</v>
       </c>
       <c r="E73" s="243" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F73" s="243"/>
       <c r="G73" s="243"/>
@@ -21259,7 +21256,7 @@
   <sheetData>
     <row r="1" spans="2:21" ht="26.25">
       <c r="B1" s="244" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C1" s="244"/>
       <c r="D1" s="245"/>
@@ -21288,7 +21285,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="235" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D4" s="235" t="s">
         <v>2</v>
@@ -21314,29 +21311,29 @@
     </row>
     <row r="5" spans="2:21" s="231" customFormat="1">
       <c r="B5" s="241" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="240"/>
       <c r="D5" s="240" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="240" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="240" t="s">
+        <v>367</v>
+      </c>
+      <c r="G5" s="240" t="s">
         <v>368</v>
       </c>
-      <c r="E5" s="240" t="s">
-        <v>297</v>
-      </c>
-      <c r="F5" s="240" t="s">
+      <c r="H5" s="240" t="s">
         <v>369</v>
       </c>
-      <c r="G5" s="240" t="s">
+      <c r="I5" s="242" t="s">
         <v>370</v>
       </c>
-      <c r="H5" s="240" t="s">
-        <v>371</v>
-      </c>
-      <c r="I5" s="242" t="s">
-        <v>372</v>
-      </c>
       <c r="J5" s="242" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -21351,7 +21348,7 @@
     </row>
     <row r="6" spans="2:21" s="231" customFormat="1">
       <c r="B6" s="247" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C6" s="246"/>
       <c r="D6" s="246"/>
@@ -21393,7 +21390,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H7" s="236"/>
       <c r="I7" s="260"/>
@@ -21420,7 +21417,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H8" s="261"/>
       <c r="I8" s="260"/>
@@ -21447,7 +21444,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H9" s="261"/>
       <c r="I9" s="260"/>
@@ -21474,7 +21471,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H10" s="261"/>
       <c r="I10" s="260"/>
@@ -21501,7 +21498,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H11" s="261"/>
       <c r="I11" s="260"/>
@@ -21528,7 +21525,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H12" s="261"/>
       <c r="I12" s="260"/>
@@ -21555,7 +21552,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H13" s="261"/>
       <c r="I13" s="260"/>
@@ -21582,7 +21579,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H14" s="261"/>
       <c r="I14" s="260"/>
@@ -21609,7 +21606,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H15" s="261"/>
       <c r="I15" s="260"/>
@@ -21636,7 +21633,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H16" s="261"/>
       <c r="I16" s="260"/>
@@ -21663,7 +21660,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H17" s="236"/>
       <c r="I17" s="236"/>
@@ -21690,7 +21687,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H18" s="260"/>
       <c r="I18" s="260"/>
@@ -21717,10 +21714,10 @@
         <v>10</v>
       </c>
       <c r="G19" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H19" s="261" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" s="260"/>
       <c r="J19" s="263"/>
@@ -21746,10 +21743,10 @@
         <v>10</v>
       </c>
       <c r="G20" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H20" s="261" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" s="260"/>
       <c r="J20" s="236"/>
@@ -21775,7 +21772,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H21" s="260"/>
       <c r="I21" s="260"/>
@@ -21784,7 +21781,7 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="246" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C22" s="246"/>
       <c r="D22" s="246"/>
@@ -21816,7 +21813,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H23" s="264"/>
       <c r="I23" s="265"/>
@@ -21843,7 +21840,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H24" s="264"/>
       <c r="I24" s="265"/>
@@ -21870,7 +21867,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H25" s="264"/>
       <c r="I25" s="265"/>
@@ -21897,7 +21894,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H26" s="255"/>
       <c r="I26" s="265"/>
@@ -21924,7 +21921,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H27" s="255"/>
       <c r="I27" s="265"/>
@@ -21951,7 +21948,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H28" s="255"/>
       <c r="I28" s="265"/>
@@ -21978,7 +21975,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H29" s="255"/>
       <c r="I29" s="265"/>
@@ -22005,7 +22002,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H30" s="255"/>
       <c r="I30" s="265"/>
@@ -22032,7 +22029,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="280" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H31" s="255"/>
       <c r="I31" s="265"/>
@@ -22059,7 +22056,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H32" s="255"/>
       <c r="I32" s="265"/>
@@ -22086,7 +22083,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H33" s="255"/>
       <c r="I33" s="265"/>
@@ -22113,7 +22110,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H34" s="255"/>
       <c r="I34" s="265"/>
@@ -22152,7 +22149,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H35" s="256"/>
       <c r="I35" s="265"/>
@@ -22191,7 +22188,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H36" s="256"/>
       <c r="I36" s="265"/>
@@ -22230,7 +22227,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H37" s="256"/>
       <c r="I37" s="265"/>
@@ -22269,7 +22266,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H38" s="256"/>
       <c r="I38" s="265"/>
@@ -22297,7 +22294,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H39" s="256"/>
       <c r="I39" s="267"/>
@@ -22318,7 +22315,7 @@
     </row>
     <row r="40" spans="2:23" s="234" customFormat="1">
       <c r="B40" s="246" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C40" s="246"/>
       <c r="D40" s="246"/>
@@ -22362,10 +22359,10 @@
         <v>10</v>
       </c>
       <c r="G41" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H41" s="255" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I41" s="265"/>
       <c r="J41" s="255"/>
@@ -22403,10 +22400,10 @@
         <v>10</v>
       </c>
       <c r="G42" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H42" s="255" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I42" s="265"/>
       <c r="J42" s="255"/>
@@ -22444,7 +22441,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H43" s="255"/>
       <c r="I43" s="265"/>
@@ -22483,7 +22480,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H44" s="255"/>
       <c r="I44" s="265"/>
@@ -22522,7 +22519,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H45" s="255"/>
       <c r="I45" s="265"/>
@@ -22561,7 +22558,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H46" s="256"/>
       <c r="I46" s="265"/>
@@ -22588,7 +22585,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H47" s="256"/>
       <c r="I47" s="265"/>
@@ -22615,7 +22612,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H48" s="256"/>
       <c r="I48" s="265"/>
@@ -22650,7 +22647,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H49" s="256"/>
       <c r="I49" s="265"/>
@@ -22675,17 +22672,17 @@
       </c>
       <c r="D50" s="248" t="str">
         <f>CONVENTIONS!E54</f>
-        <v>MINRENGEO</v>
+        <v>MINRENAHT</v>
       </c>
       <c r="E50" s="248" t="str">
         <f>CONVENTIONS!F54</f>
-        <v xml:space="preserve">Domestic Potential of Geothermal </v>
+        <v>Domestic Potential of Ambient Heat</v>
       </c>
       <c r="F50" s="262" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H50" s="256"/>
       <c r="I50" s="267"/>
@@ -22713,7 +22710,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H51" s="236"/>
       <c r="I51" s="236"/>
@@ -22745,7 +22742,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H52" s="236"/>
       <c r="I52" s="236"/>
@@ -22777,7 +22774,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H53" s="236"/>
       <c r="I53" s="236"/>
@@ -22809,7 +22806,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H54" s="236"/>
       <c r="I54" s="236"/>
@@ -22841,7 +22838,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H55" s="236"/>
       <c r="I55" s="236"/>
@@ -22868,7 +22865,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H56" s="236"/>
       <c r="I56" s="236"/>
@@ -22895,7 +22892,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H57" s="236"/>
       <c r="I57" s="236"/>
@@ -22922,7 +22919,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H58" s="236"/>
       <c r="I58" s="236"/>
@@ -22949,7 +22946,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H59" s="236"/>
       <c r="I59" s="236"/>
@@ -22976,7 +22973,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H60" s="236"/>
       <c r="I60" s="236"/>
@@ -23003,7 +23000,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H61" s="236"/>
       <c r="I61" s="236"/>
@@ -23030,7 +23027,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H62" s="236"/>
       <c r="I62" s="236"/>
@@ -23057,7 +23054,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H63" s="236"/>
       <c r="I63" s="236"/>
@@ -23084,7 +23081,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H64" s="236"/>
       <c r="I64" s="236"/>
@@ -23111,7 +23108,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H65" s="236"/>
       <c r="I65" s="236"/>
@@ -23138,7 +23135,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H66" s="236"/>
       <c r="I66" s="236"/>
@@ -23165,7 +23162,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H67" s="236"/>
       <c r="I67" s="236"/>
@@ -23192,7 +23189,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H68" s="236"/>
       <c r="I68" s="236"/>
@@ -23219,7 +23216,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H69" s="236"/>
       <c r="I69" s="236"/>
@@ -23246,7 +23243,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H70" s="236"/>
       <c r="I70" s="236"/>
@@ -23273,7 +23270,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H71" s="236"/>
       <c r="I71" s="236"/>
@@ -23300,7 +23297,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H72" s="236"/>
       <c r="I72" s="236"/>
@@ -23327,7 +23324,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H73" s="236"/>
       <c r="I73" s="236"/>
@@ -23354,7 +23351,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H74" s="236"/>
       <c r="I74" s="236"/>
@@ -23381,7 +23378,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H75" s="236"/>
       <c r="I75" s="236"/>
@@ -23408,7 +23405,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H76" s="236"/>
       <c r="I76" s="236"/>
@@ -23435,7 +23432,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H77" s="236"/>
       <c r="I77" s="236"/>
@@ -23462,7 +23459,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H78" s="236"/>
       <c r="I78" s="236"/>
@@ -23489,7 +23486,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H79" s="236"/>
       <c r="I79" s="236"/>
@@ -23516,7 +23513,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H80" s="236"/>
       <c r="I80" s="236"/>
@@ -23541,7 +23538,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H81" s="236"/>
       <c r="I81" s="236"/>
@@ -23565,7 +23562,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H82" s="236"/>
       <c r="I82" s="236"/>
@@ -23592,7 +23589,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H83" s="236"/>
       <c r="I83" s="236"/>
@@ -23619,10 +23616,10 @@
         <v>10</v>
       </c>
       <c r="G84" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H84" s="236" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I84" s="236"/>
       <c r="J84" s="236"/>
@@ -23649,10 +23646,10 @@
         <v>10</v>
       </c>
       <c r="G85" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H85" s="236" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I85" s="236"/>
       <c r="J85" s="236"/>
@@ -23678,7 +23675,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H86" s="256"/>
       <c r="I86" s="267" t="str">
@@ -23689,7 +23686,7 @@
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="246" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C87" s="246"/>
       <c r="D87" s="246"/>
@@ -23721,10 +23718,10 @@
         <v>10</v>
       </c>
       <c r="G88" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H88" s="256" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I88" s="267"/>
       <c r="J88" s="256"/>
@@ -23750,7 +23747,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H89" s="249"/>
       <c r="I89" s="249"/>
@@ -23777,7 +23774,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H90" s="249"/>
       <c r="I90" s="249"/>
@@ -23804,7 +23801,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H91" s="249"/>
       <c r="I91" s="249"/>
@@ -23831,10 +23828,10 @@
         <v>10</v>
       </c>
       <c r="G92" s="236" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H92" s="249" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I92" s="249"/>
       <c r="J92" s="249"/>
@@ -24127,7 +24124,7 @@
   <sheetData>
     <row r="1" spans="2:19" ht="18.75">
       <c r="B1" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C1" s="219"/>
       <c r="D1" s="219"/>
@@ -24137,44 +24134,44 @@
     </row>
     <row r="3" spans="2:19">
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="221" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C4" s="221" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="221" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="221" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="222" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="223" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" s="222" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" s="223" t="s">
+        <v>446</v>
+      </c>
+      <c r="J4" s="223" t="s">
         <v>241</v>
       </c>
-      <c r="I4" s="223" t="s">
-        <v>448</v>
-      </c>
-      <c r="J4" s="223" t="s">
+      <c r="K4" s="223" t="s">
         <v>242</v>
-      </c>
-      <c r="K4" s="223" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="15.75" thickBot="1">
       <c r="B5" s="224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="224"/>
       <c r="D5" s="224"/>
@@ -24183,13 +24180,13 @@
       <c r="G5" s="224"/>
       <c r="H5" s="224"/>
       <c r="I5" s="224" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" s="224" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="224" t="s">
         <v>244</v>
-      </c>
-      <c r="K5" s="224" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:19">
@@ -24302,7 +24299,7 @@
         <v>FT-SUPELC</v>
       </c>
       <c r="D10" s="216" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="216" t="str">
         <f>Commodities!C56</f>
@@ -24411,7 +24408,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="18.75">
       <c r="B1" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="4"/>
@@ -24419,7 +24416,7 @@
     <row r="2" spans="2:20" s="216" customFormat="1"/>
     <row r="3" spans="2:20" ht="18.75">
       <c r="G3" s="474" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
@@ -24435,73 +24432,73 @@
     </row>
     <row r="4" spans="2:20">
       <c r="C4" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>585</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>571</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>570</v>
-      </c>
       <c r="N4" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="26.25" thickBot="1">
       <c r="C5" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" s="9"/>
     </row>
@@ -24550,7 +24547,7 @@
         <v>13.293106237838872</v>
       </c>
       <c r="N6" s="215" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="2:20">
@@ -24598,13 +24595,13 @@
         <v>12.890088334941915</v>
       </c>
       <c r="N7" s="215" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="R7" s="35" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="T7" s="216" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="2:20">
@@ -24652,7 +24649,7 @@
         <v>2.065279967615445</v>
       </c>
       <c r="N8" s="215" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="2:20">
@@ -24703,10 +24700,10 @@
         <v>0.95000000000000495</v>
       </c>
       <c r="R9" s="35" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S9" s="35" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="2:20">
@@ -24757,7 +24754,7 @@
         <v>1.2700000000000062</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="S10" s="35">
         <v>58.93</v>
@@ -24811,7 +24808,7 @@
         <v>0.87557603686636576</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="S11" s="35">
         <v>19.86</v>
@@ -24865,7 +24862,7 @@
         <v>1.0669585115925122</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="S12" s="35">
         <v>102.22</v>
@@ -25294,33 +25291,33 @@
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="462" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D24" s="463"/>
       <c r="E24" s="463"/>
       <c r="F24" s="464"/>
       <c r="G24" s="497" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H24" s="497"/>
       <c r="I24" s="497"/>
       <c r="J24" s="498"/>
       <c r="K24" s="499" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L24" s="500"/>
       <c r="M24" s="501" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N24" s="500"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
       <c r="C25" s="458" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D25" s="458" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="460">
         <v>2010</v>
@@ -25356,10 +25353,10 @@
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="450" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D26" s="450" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E26" s="452">
         <v>91</v>
@@ -25395,10 +25392,10 @@
     </row>
     <row r="27" spans="3:21">
       <c r="C27" s="450" t="s">
+        <v>537</v>
+      </c>
+      <c r="D27" s="450" t="s">
         <v>539</v>
-      </c>
-      <c r="D27" s="450" t="s">
-        <v>541</v>
       </c>
       <c r="E27" s="452">
         <v>8.6999999999999993</v>
@@ -25435,10 +25432,10 @@
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="454" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D28" s="454" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E28" s="456">
         <v>108</v>
@@ -25475,7 +25472,7 @@
     </row>
     <row r="29" spans="3:21" s="216" customFormat="1">
       <c r="C29" s="52" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29"/>
@@ -25507,7 +25504,7 @@
     </row>
     <row r="31" spans="3:21" s="216" customFormat="1">
       <c r="C31" s="471" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D31" s="471"/>
       <c r="E31" s="475">
@@ -25558,7 +25555,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D32" s="473" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E32" s="468">
         <f>E26/Conversions!$C$10</f>
@@ -25608,7 +25605,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D33" s="451" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E33" s="465">
         <f>E27/Conversions!$C$10</f>
@@ -25658,7 +25655,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D34" s="455" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E34" s="470">
         <f>E28/Conversions!$C$10</f>
@@ -25719,7 +25716,7 @@
     </row>
     <row r="36" spans="3:20">
       <c r="C36" s="471" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D36" s="471"/>
       <c r="E36" s="475">
@@ -25770,7 +25767,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D37" s="473" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E37" s="468">
         <f>E32/Conversions!$C$5</f>
@@ -25820,7 +25817,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D38" s="451" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E38" s="465">
         <f>E33/Conversions!$C$3</f>
@@ -25870,7 +25867,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D39" s="455" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E39" s="470">
         <f>E34/(Conversions!$C$2*1000)</f>
@@ -25950,33 +25947,33 @@
     </row>
     <row r="42" spans="3:20">
       <c r="C42" s="462" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D42" s="463"/>
       <c r="E42" s="463"/>
       <c r="F42" s="464"/>
       <c r="G42" s="497" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H42" s="497"/>
       <c r="I42" s="497"/>
       <c r="J42" s="498"/>
       <c r="K42" s="499" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L42" s="500"/>
       <c r="M42" s="501" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N42" s="500"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
       <c r="C43" s="458" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D43" s="458" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="460">
         <v>2010</v>
@@ -26012,10 +26009,10 @@
     </row>
     <row r="44" spans="3:20">
       <c r="C44" s="450" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D44" s="450" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E44" s="452">
         <v>90</v>
@@ -26053,10 +26050,10 @@
     </row>
     <row r="45" spans="3:20">
       <c r="C45" s="450" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D45" s="450" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E45" s="452">
         <v>8.6</v>
@@ -26094,10 +26091,10 @@
     </row>
     <row r="46" spans="3:20">
       <c r="C46" s="454" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D46" s="454" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E46" s="456">
         <v>106</v>
@@ -26135,7 +26132,7 @@
     </row>
     <row r="47" spans="3:20">
       <c r="C47" s="52" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="442"/>
@@ -26171,7 +26168,7 @@
     </row>
     <row r="49" spans="3:20">
       <c r="C49" s="471" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D49" s="471"/>
       <c r="E49" s="475">
@@ -26224,7 +26221,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D50" s="473" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E50" s="468">
         <f>E44/Conversions!$C$11</f>
@@ -26276,7 +26273,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D51" s="451" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E51" s="465">
         <f>E45/Conversions!$C$11</f>
@@ -26328,7 +26325,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D52" s="455" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E52" s="470">
         <f>E46/Conversions!$C$11</f>
@@ -26393,7 +26390,7 @@
     </row>
     <row r="54" spans="3:20">
       <c r="C54" s="471" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D54" s="471"/>
       <c r="E54" s="475">
@@ -26445,7 +26442,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D55" s="473" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E55" s="468">
         <f>E50/Conversions!$C$5</f>
@@ -26496,7 +26493,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D56" s="451" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E56" s="465">
         <f>E51/Conversions!$C$3</f>
@@ -26547,7 +26544,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D57" s="455" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E57" s="470">
         <f>E52/(Conversions!$C$2*1000)</f>
@@ -26809,12 +26806,12 @@
   <sheetData>
     <row r="2" spans="2:12" ht="18.75">
       <c r="B2" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="123"/>
       <c r="G2" s="123"/>
@@ -26826,69 +26823,69 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="H3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="I3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="J3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="K3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="36" t="s">
-        <v>47</v>
-      </c>
       <c r="L3" s="124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="B4" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" s="125"/>
     </row>
@@ -27535,7 +27532,7 @@
     </row>
     <row r="22" spans="2:18" ht="18.75">
       <c r="B22" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -27553,19 +27550,19 @@
     </row>
     <row r="23" spans="2:18" ht="30.75" customHeight="1">
       <c r="B23" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="36" t="str">
         <f>Imports_Fossil!H4</f>
@@ -27592,42 +27589,42 @@
         <v>2040~EUR19</v>
       </c>
       <c r="M23" s="124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="26.25" thickBot="1">
       <c r="B24" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="H24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M24" s="125"/>
     </row>
@@ -27676,7 +27673,7 @@
         <v>35.031244673834173</v>
       </c>
       <c r="M25" s="490" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -27695,12 +27692,12 @@
     </row>
     <row r="27" spans="2:18" ht="26.25">
       <c r="B27" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="66"/>
       <c r="G27" s="122"/>
@@ -27710,7 +27707,7 @@
       <c r="K27" s="122"/>
       <c r="L27" s="122"/>
       <c r="N27" s="177" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O27" s="175"/>
       <c r="P27" s="175"/>
@@ -27719,76 +27716,76 @@
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G28" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="I28" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="36" t="s">
+      <c r="J28" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="36" t="s">
-        <v>121</v>
-      </c>
       <c r="K28" s="124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N28" s="216" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="15.75" thickBot="1">
       <c r="B29" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="G29" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29" s="125"/>
       <c r="N29" s="176"/>
       <c r="O29" s="176"/>
       <c r="P29" s="214" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="214"/>
       <c r="R29" s="214" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="15.75" thickBot="1">
@@ -27829,13 +27826,13 @@
         <v>4.6910989010989006</v>
       </c>
       <c r="K30" s="502" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N30" s="185" t="s">
+        <v>164</v>
+      </c>
+      <c r="O30" s="212" t="s">
         <v>165</v>
-      </c>
-      <c r="O30" s="212" t="s">
-        <v>166</v>
       </c>
       <c r="P30" s="204">
         <v>0.53</v>
@@ -28159,12 +28156,12 @@
     </row>
     <row r="40" spans="2:23" ht="18.75">
       <c r="B40" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
@@ -28180,16 +28177,16 @@
     </row>
     <row r="41" spans="2:23">
       <c r="B41" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" s="36">
         <v>2018</v>
@@ -28219,7 +28216,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P41" s="36"/>
       <c r="R41"/>
@@ -28231,16 +28228,16 @@
     </row>
     <row r="42" spans="2:23" ht="15.75" thickBot="1">
       <c r="B42" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>10</v>
@@ -28267,7 +28264,7 @@
         <v>10</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -28331,7 +28328,7 @@
         <v>5</v>
       </c>
       <c r="O43" s="87" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P43" s="76"/>
       <c r="R43"/>
@@ -28393,7 +28390,7 @@
         <v>5</v>
       </c>
       <c r="O44" s="88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P44" s="74"/>
       <c r="R44"/>
@@ -28455,7 +28452,7 @@
         <v>5</v>
       </c>
       <c r="O45" s="88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P45" s="74"/>
       <c r="R45"/>
@@ -28510,7 +28507,7 @@
         <v>5</v>
       </c>
       <c r="O46" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P46" s="75"/>
       <c r="R46"/>
@@ -28522,7 +28519,7 @@
     </row>
     <row r="47" spans="2:23" ht="15.75" thickBot="1">
       <c r="B47" s="70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="70"/>
       <c r="D47" s="70"/>
@@ -28558,7 +28555,7 @@
       </c>
       <c r="N47" s="277"/>
       <c r="O47" s="90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P47" s="77"/>
       <c r="R47"/>
@@ -28621,7 +28618,7 @@
         <v>5</v>
       </c>
       <c r="O48" s="87" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P48" s="76"/>
       <c r="R48"/>
@@ -28683,7 +28680,7 @@
         <v>5</v>
       </c>
       <c r="O49" s="88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P49" s="74"/>
       <c r="R49" s="40"/>
@@ -28740,7 +28737,7 @@
         <v>5</v>
       </c>
       <c r="O50" s="88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P50" s="74"/>
       <c r="R50" s="40"/>
@@ -28797,14 +28794,14 @@
         <v>5</v>
       </c>
       <c r="O51" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P51" s="75"/>
       <c r="R51" s="40"/>
     </row>
     <row r="52" spans="2:18" ht="15.75" thickBot="1">
       <c r="B52" s="70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" s="70"/>
       <c r="D52" s="70"/>
@@ -28840,7 +28837,7 @@
       </c>
       <c r="N52" s="277"/>
       <c r="O52" s="90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P52" s="77"/>
       <c r="R52" s="40"/>
@@ -28898,7 +28895,7 @@
         <v>5</v>
       </c>
       <c r="O53" s="87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P53" s="76"/>
       <c r="R53" s="207">
@@ -28957,7 +28954,7 @@
         <v>5</v>
       </c>
       <c r="O54" s="88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P54" s="74"/>
       <c r="R54" s="40"/>
@@ -29014,7 +29011,7 @@
         <v>5</v>
       </c>
       <c r="O55" s="88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P55" s="74"/>
       <c r="R55" s="40"/>
@@ -29071,14 +29068,14 @@
         <v>5</v>
       </c>
       <c r="O56" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P56" s="75"/>
       <c r="R56" s="40"/>
     </row>
     <row r="57" spans="2:18" ht="15.75" thickBot="1">
       <c r="B57" s="70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="70"/>
       <c r="D57" s="70"/>
@@ -29114,7 +29111,7 @@
       </c>
       <c r="N57" s="277"/>
       <c r="O57" s="90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P57" s="77"/>
       <c r="R57" s="40"/>
@@ -29172,7 +29169,7 @@
         <v>5</v>
       </c>
       <c r="O58" s="87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P58" s="76"/>
       <c r="R58" s="205">
@@ -29232,7 +29229,7 @@
         <v>5</v>
       </c>
       <c r="O59" s="88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P59" s="74"/>
       <c r="R59" s="40"/>
@@ -29289,7 +29286,7 @@
         <v>5</v>
       </c>
       <c r="O60" s="88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P60" s="74"/>
       <c r="R60" s="40"/>
@@ -29346,14 +29343,14 @@
         <v>5</v>
       </c>
       <c r="O61" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P61" s="75"/>
       <c r="R61" s="40"/>
     </row>
     <row r="62" spans="2:18" ht="15.75" thickBot="1">
       <c r="B62" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="72"/>
       <c r="D62" s="72"/>
@@ -29389,7 +29386,7 @@
       </c>
       <c r="N62" s="278"/>
       <c r="O62" s="91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P62" s="78"/>
       <c r="R62" s="40"/>
@@ -29432,12 +29429,12 @@
   <sheetData>
     <row r="2" spans="2:15" ht="18.75">
       <c r="B2" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -29451,7 +29448,7 @@
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="16" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -29460,52 +29457,52 @@
         <v>3</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1">
       <c r="B4" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>10</v>
@@ -29687,27 +29684,27 @@
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="505" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G9" s="505"/>
       <c r="H9" s="505"/>
       <c r="I9" s="270" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J9" s="270" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K9" s="270" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L9" s="173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M9" s="50"/>
     </row>
@@ -29759,12 +29756,12 @@
     </row>
     <row r="13" spans="2:15" ht="18.75">
       <c r="B13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -29779,7 +29776,7 @@
     </row>
     <row r="14" spans="2:15" ht="25.5">
       <c r="B14" s="16" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>2</v>
@@ -29788,16 +29785,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="G14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -29809,17 +29806,17 @@
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1">
       <c r="B15" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>10</v>
@@ -29982,15 +29979,15 @@
       </c>
       <c r="C21" s="83" t="str">
         <f>Processes!D50</f>
-        <v>MINRENGEO</v>
+        <v>MINRENAHT</v>
       </c>
       <c r="D21" s="83" t="str">
         <f>Processes!E50</f>
-        <v xml:space="preserve">Domestic Potential of Geothermal </v>
+        <v>Domestic Potential of Ambient Heat</v>
       </c>
       <c r="E21" s="84" t="str">
         <f>Commodities!C29</f>
-        <v>RENGEO</v>
+        <v>RENAHT</v>
       </c>
       <c r="F21" s="83"/>
       <c r="G21" s="83"/>
@@ -30067,15 +30064,15 @@
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="64" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="494" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C30" s="492" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="2:15">
@@ -30112,12 +30109,12 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="215" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="442" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -30132,12 +30129,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30287,15 +30281,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30319,17 +30324,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F27186-4EC4-43D1-A11E-CD3565FA8AAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C40DCC4-037F-414D-95C1-EE8D81A7A181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="22" r:id="rId1"/>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="602">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -2258,9 +2258,6 @@
   </si>
   <si>
     <t>BIOJKR</t>
-  </si>
-  <si>
-    <t>AMBHET</t>
   </si>
   <si>
     <t>Ambient Heat</t>
@@ -7268,13 +7265,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="442" t="s">
+        <v>471</v>
+      </c>
+      <c r="C5" s="444" t="s">
         <v>472</v>
       </c>
-      <c r="C5" s="444" t="s">
+      <c r="D5" s="444" t="s">
         <v>473</v>
-      </c>
-      <c r="D5" s="444" t="s">
-        <v>474</v>
       </c>
       <c r="E5" s="443" t="str">
         <f>A11</f>
@@ -7383,7 +7380,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="442" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C6" s="443" t="str">
         <f>C5</f>
@@ -7500,7 +7497,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="442" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C7" s="443" t="str">
         <f>"*"&amp;C5</f>
@@ -7620,220 +7617,220 @@
         <v>294</v>
       </c>
       <c r="B10" s="445" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="446" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="446" t="s">
         <v>478</v>
-      </c>
-      <c r="B11" s="446" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="447" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" s="447" t="s">
         <v>480</v>
-      </c>
-      <c r="B12" s="447" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="447" t="s">
+        <v>481</v>
+      </c>
+      <c r="B13" s="447" t="s">
         <v>482</v>
-      </c>
-      <c r="B13" s="447" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="447" t="s">
+        <v>483</v>
+      </c>
+      <c r="B14" s="447" t="s">
         <v>484</v>
-      </c>
-      <c r="B14" s="447" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="447" t="s">
+        <v>485</v>
+      </c>
+      <c r="B15" s="447" t="s">
         <v>486</v>
-      </c>
-      <c r="B15" s="447" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="447" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="447" t="s">
         <v>488</v>
-      </c>
-      <c r="B16" s="447" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="447" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" s="447" t="s">
         <v>490</v>
-      </c>
-      <c r="B17" s="447" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="447" t="s">
+        <v>491</v>
+      </c>
+      <c r="B18" s="447" t="s">
         <v>492</v>
-      </c>
-      <c r="B18" s="447" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="447" t="s">
+        <v>493</v>
+      </c>
+      <c r="B19" s="447" t="s">
         <v>494</v>
-      </c>
-      <c r="B19" s="447" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="447" t="s">
+        <v>495</v>
+      </c>
+      <c r="B20" s="447" t="s">
         <v>496</v>
-      </c>
-      <c r="B20" s="447" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="447" t="s">
+        <v>497</v>
+      </c>
+      <c r="B21" s="447" t="s">
         <v>498</v>
-      </c>
-      <c r="B21" s="447" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="447" t="s">
+        <v>499</v>
+      </c>
+      <c r="B22" s="447" t="s">
         <v>500</v>
-      </c>
-      <c r="B22" s="447" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="447" t="s">
+        <v>501</v>
+      </c>
+      <c r="B23" s="447" t="s">
         <v>502</v>
-      </c>
-      <c r="B23" s="447" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="447" t="s">
+        <v>503</v>
+      </c>
+      <c r="B24" s="447" t="s">
         <v>504</v>
-      </c>
-      <c r="B24" s="447" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="447" t="s">
+        <v>505</v>
+      </c>
+      <c r="B25" s="447" t="s">
         <v>506</v>
-      </c>
-      <c r="B25" s="447" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="447" t="s">
+        <v>507</v>
+      </c>
+      <c r="B26" s="447" t="s">
         <v>508</v>
-      </c>
-      <c r="B26" s="447" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="447" t="s">
+        <v>509</v>
+      </c>
+      <c r="B27" s="447" t="s">
         <v>510</v>
-      </c>
-      <c r="B27" s="447" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="447" t="s">
+        <v>511</v>
+      </c>
+      <c r="B28" s="447" t="s">
         <v>512</v>
-      </c>
-      <c r="B28" s="447" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="447" t="s">
+        <v>513</v>
+      </c>
+      <c r="B29" s="447" t="s">
         <v>514</v>
-      </c>
-      <c r="B29" s="447" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="447" t="s">
+        <v>515</v>
+      </c>
+      <c r="B30" s="447" t="s">
         <v>516</v>
-      </c>
-      <c r="B30" s="447" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="447" t="s">
+        <v>517</v>
+      </c>
+      <c r="B31" s="447" t="s">
         <v>518</v>
-      </c>
-      <c r="B31" s="447" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="447" t="s">
+        <v>519</v>
+      </c>
+      <c r="B32" s="447" t="s">
         <v>520</v>
-      </c>
-      <c r="B32" s="447" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="447" t="s">
+        <v>521</v>
+      </c>
+      <c r="B33" s="447" t="s">
         <v>522</v>
-      </c>
-      <c r="B33" s="447" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="447" t="s">
+        <v>523</v>
+      </c>
+      <c r="B34" s="447" t="s">
         <v>524</v>
-      </c>
-      <c r="B34" s="447" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="447" t="s">
+        <v>525</v>
+      </c>
+      <c r="B35" s="447" t="s">
         <v>526</v>
-      </c>
-      <c r="B35" s="447" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="447" t="s">
+        <v>527</v>
+      </c>
+      <c r="B36" s="447" t="s">
         <v>528</v>
-      </c>
-      <c r="B36" s="447" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="448" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -7877,8 +7874,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7909,7 +7906,7 @@
     </row>
     <row r="3" spans="2:18">
       <c r="B3" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>2</v>
@@ -7929,7 +7926,7 @@
     </row>
     <row r="4" spans="2:18" ht="13.5" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>60</v>
@@ -8754,7 +8751,7 @@
     </row>
     <row r="3" spans="2:26" ht="25.5">
       <c r="B3" s="151" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C3" s="151" t="s">
         <v>2</v>
@@ -8838,15 +8835,15 @@
     </row>
     <row r="5" spans="2:26">
       <c r="B5" s="157" t="str">
-        <f>Processes!C86</f>
+        <f>Processes!C85</f>
         <v>IE,National</v>
       </c>
       <c r="C5" s="157" t="str">
-        <f>Processes!D86</f>
+        <f>Processes!D85</f>
         <v>SREFOILCRD_Whitegate</v>
       </c>
       <c r="D5" s="157" t="str">
-        <f>Processes!E86</f>
+        <f>Processes!E85</f>
         <v>Refinery of Crude Oil  - Whitegate</v>
       </c>
       <c r="E5" s="158" t="str">
@@ -9292,7 +9289,7 @@
     </row>
     <row r="22" spans="3:30">
       <c r="C22" s="182" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D22" s="439">
         <f>1/SUM(E24:E35)</f>
@@ -9474,8 +9471,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9512,7 +9509,7 @@
     </row>
     <row r="3" spans="2:20" ht="25.5">
       <c r="B3" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -9556,7 +9553,7 @@
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1">
       <c r="B4" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>47</v>
@@ -9594,19 +9591,19 @@
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="216" t="str">
-        <f>Processes!C84</f>
+        <f>Processes!C83</f>
         <v>IE,National</v>
       </c>
       <c r="C5" s="35" t="str">
-        <f>Processes!D84</f>
+        <f>Processes!D83</f>
         <v>IMPELC_UK</v>
       </c>
       <c r="D5" s="35" t="str">
-        <f>Processes!E84</f>
+        <f>Processes!E83</f>
         <v>Import of Electricity - UK</v>
       </c>
       <c r="F5" s="35" t="str">
-        <f>Commodities!C58</f>
+        <f>Commodities!C57</f>
         <v>ELCC</v>
       </c>
       <c r="G5" s="137">
@@ -9647,19 +9644,19 @@
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="42" t="str">
-        <f>Processes!C85</f>
+        <f>Processes!C84</f>
         <v>IE,National</v>
       </c>
       <c r="C6" s="42" t="str">
-        <f>Processes!D85</f>
+        <f>Processes!D84</f>
         <v>EXPELC_UK</v>
       </c>
       <c r="D6" s="42" t="str">
-        <f>Processes!E85</f>
+        <f>Processes!E84</f>
         <v>Export of Electricity - UK</v>
       </c>
       <c r="E6" s="42" t="str">
-        <f>Commodities!C58</f>
+        <f>Commodities!C57</f>
         <v>ELCC</v>
       </c>
       <c r="F6" s="42"/>
@@ -10381,15 +10378,15 @@
         <v>16</v>
       </c>
       <c r="C5" s="230" t="str">
-        <f>Commodities!C54</f>
+        <f>Commodities!C53</f>
         <v>SUPNGA</v>
       </c>
       <c r="D5" s="230" t="str">
-        <f>Commodities!C53</f>
+        <f>Commodities!C52</f>
         <v>SUPCOA</v>
       </c>
       <c r="E5" s="230" t="str">
-        <f>Commodities!C57</f>
+        <f>Commodities!C56</f>
         <v>SUPWAS</v>
       </c>
       <c r="F5" s="230" t="s">
@@ -10398,7 +10395,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="217" t="str">
-        <f>Commodities!C68</f>
+        <f>Commodities!C67</f>
         <v>SUPCO2N</v>
       </c>
       <c r="C6" s="92">
@@ -10416,7 +10413,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="217" t="str">
-        <f>Commodities!C64</f>
+        <f>Commodities!C63</f>
         <v>SUPCH4N</v>
       </c>
       <c r="C7" s="92"/>
@@ -10425,7 +10422,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="217" t="str">
-        <f>Commodities!C67</f>
+        <f>Commodities!C66</f>
         <v>SUPSO2N</v>
       </c>
       <c r="C8" s="92"/>
@@ -10434,7 +10431,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="217" t="str">
-        <f>Commodities!C71</f>
+        <f>Commodities!C70</f>
         <v>SUPNOXN</v>
       </c>
       <c r="C9" s="92"/>
@@ -10443,13 +10440,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="216" t="str">
-        <f>Commodities!C72</f>
+        <f>Commodities!C71</f>
         <v>SUPPM10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="216" t="str">
-        <f>Commodities!C73</f>
+        <f>Commodities!C72</f>
         <v>SUPPM25</v>
       </c>
     </row>
@@ -13585,7 +13582,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="93" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B1" s="93"/>
     </row>
@@ -13594,7 +13591,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C2" s="178">
         <v>4.1868000000000002E-2</v>
@@ -13605,10 +13602,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="178" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C3" s="178">
         <v>1.0550999999999999</v>
@@ -13622,22 +13619,22 @@
         <v>94</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C4" s="178">
         <v>7.33</v>
       </c>
       <c r="D4" s="178" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E4" s="472"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="178" t="s">
+        <v>553</v>
+      </c>
+      <c r="B5" s="92" t="s">
         <v>554</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>555</v>
       </c>
       <c r="C5" s="178">
         <f>C2/C4*1000</f>
@@ -13649,35 +13646,35 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="93" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="178" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C10" s="178">
         <v>1.1194745098039223</v>
       </c>
       <c r="D10" s="178" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="217" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C11" s="217">
         <v>1.1809545098039216</v>
       </c>
       <c r="D11" s="217" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -13782,7 +13779,7 @@
         <v>177</v>
       </c>
       <c r="N1" s="435" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O1" s="287" t="s">
         <v>178</v>
@@ -13833,10 +13830,10 @@
         <v>193</v>
       </c>
       <c r="AE1" s="436" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF1" s="433" t="s">
         <v>462</v>
-      </c>
-      <c r="AF1" s="433" t="s">
-        <v>463</v>
       </c>
       <c r="AG1" s="287" t="s">
         <v>194</v>
@@ -13845,19 +13842,19 @@
         <v>195</v>
       </c>
       <c r="AI1" s="436" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ1" s="433" t="s">
         <v>464</v>
       </c>
-      <c r="AJ1" s="433" t="s">
+      <c r="AK1" s="436" t="s">
         <v>465</v>
       </c>
-      <c r="AK1" s="436" t="s">
+      <c r="AL1" s="433" t="s">
         <v>466</v>
       </c>
-      <c r="AL1" s="433" t="s">
+      <c r="AM1" s="434" t="s">
         <v>467</v>
-      </c>
-      <c r="AM1" s="434" t="s">
-        <v>468</v>
       </c>
       <c r="AN1" s="288" t="s">
         <v>196</v>
@@ -16326,10 +16323,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E428973-03EE-47B5-B88E-68B51CDC4391}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:T95"/>
+  <dimension ref="B2:T94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="C67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17860,7 +17857,7 @@
         <v>PEAT</v>
       </c>
       <c r="I47" s="236" t="str">
-        <f t="shared" ref="I47:I87" si="14">$E$4</f>
+        <f t="shared" ref="I47:I86" si="14">$E$4</f>
         <v>MIN</v>
       </c>
       <c r="J47" s="236" t="str">
@@ -18598,10 +18595,10 @@
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="252" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C69" s="236" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E69" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18741,7 +18738,7 @@
         <v>76</v>
       </c>
       <c r="C73" s="236" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E73" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18853,7 +18850,7 @@
         <v>MINBIOCATW_S1</v>
       </c>
       <c r="F76" s="234" t="str">
-        <f t="shared" ref="F76:F88" si="20">G76 &amp; " of " &amp; VLOOKUP(H76,$B$13:$C$92,2,FALSE) &amp; IF(J76&lt;&gt;0,IF(VLOOKUP(J76,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J76,$I$4:$J$10,2,FALSE),""),"")</f>
+        <f t="shared" ref="F76:F87" si="20">G76 &amp; " of " &amp; VLOOKUP(H76,$B$13:$C$92,2,FALSE) &amp; IF(J76&lt;&gt;0,IF(VLOOKUP(J76,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J76,$I$4:$J$10,2,FALSE),""),"")</f>
         <v>Domestic Potential of Cattle Waste  - Step 1</v>
       </c>
       <c r="G76" s="236" t="str">
@@ -19230,28 +19227,31 @@
         <v>277</v>
       </c>
       <c r="E87" s="236" t="str">
-        <f t="shared" ref="E87" si="24">I87&amp;H87&amp;J87</f>
-        <v>MINAMBHET</v>
+        <f t="shared" ref="E87:E88" si="24">I87&amp;H87&amp;J87</f>
+        <v>IMPELC_UK</v>
       </c>
       <c r="F87" s="234" t="str">
-        <f>G87 &amp; " of " &amp; VLOOKUP(H87,$B$13:$C$93,2,FALSE) &amp; IF(J87&lt;&gt;0,IF(VLOOKUP(J87,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J87,$I$4:$J$10,2,FALSE),""),"")</f>
-        <v>Domestic Potential of Ambient Heat</v>
+        <f t="shared" si="20"/>
+        <v>Import of Electricity - UK</v>
       </c>
       <c r="G87" s="236" t="str">
-        <f t="shared" ref="G87" si="25">VLOOKUP(I87,$E$4:$F$9,2,FALSE)</f>
-        <v>Domestic Potential</v>
+        <f t="shared" ref="G87:G88" si="25">VLOOKUP(I87,$E$4:$F$9,2,FALSE)</f>
+        <v>Import</v>
       </c>
       <c r="H87" s="236" t="str">
-        <f>$B$93</f>
-        <v>AMBHET</v>
+        <f>$B$43</f>
+        <v>ELC</v>
       </c>
       <c r="I87" s="236" t="str">
-        <f t="shared" si="14"/>
-        <v>MIN</v>
-      </c>
-      <c r="J87" s="236"/>
+        <f>$E$5</f>
+        <v>IMP</v>
+      </c>
+      <c r="J87" s="236" t="str">
+        <f>$I$4</f>
+        <v>_UK</v>
+      </c>
       <c r="K87" s="236" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="2:12">
@@ -19262,31 +19262,31 @@
         <v>278</v>
       </c>
       <c r="E88" s="236" t="str">
-        <f t="shared" ref="E88:E89" si="26">I88&amp;H88&amp;J88</f>
-        <v>IMPELC_UK</v>
+        <f t="shared" si="24"/>
+        <v>EXPELC_UK</v>
       </c>
       <c r="F88" s="234" t="str">
-        <f t="shared" si="20"/>
-        <v>Import of Electricity - UK</v>
+        <f>G88 &amp; " of " &amp; VLOOKUP(H88,$B$13:$C$91,2,FALSE) &amp; IF(J88&lt;&gt;0,IF(VLOOKUP(J88,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J88,$I$4:$J$10,2,FALSE),""),"")</f>
+        <v>Export of Electricity - UK</v>
       </c>
       <c r="G88" s="236" t="str">
-        <f t="shared" ref="G88:G89" si="27">VLOOKUP(I88,$E$4:$F$9,2,FALSE)</f>
-        <v>Import</v>
+        <f t="shared" si="25"/>
+        <v>Export</v>
       </c>
       <c r="H88" s="236" t="str">
         <f>$B$43</f>
         <v>ELC</v>
       </c>
       <c r="I88" s="236" t="str">
-        <f>$E$5</f>
-        <v>IMP</v>
+        <f>$E$6</f>
+        <v>EXP</v>
       </c>
       <c r="J88" s="236" t="str">
         <f>$I$4</f>
         <v>_UK</v>
       </c>
       <c r="K88" s="236" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="2:12">
@@ -19297,31 +19297,31 @@
         <v>279</v>
       </c>
       <c r="E89" s="236" t="str">
-        <f t="shared" si="26"/>
-        <v>EXPELC_UK</v>
+        <f>LEFT(B4,1)&amp;I89&amp;H89&amp;J89</f>
+        <v>SREFOILCRD_Whitegate</v>
       </c>
       <c r="F89" s="234" t="str">
         <f>G89 &amp; " of " &amp; VLOOKUP(H89,$B$13:$C$91,2,FALSE) &amp; IF(J89&lt;&gt;0,IF(VLOOKUP(J89,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J89,$I$4:$J$10,2,FALSE),""),"")</f>
-        <v>Export of Electricity - UK</v>
+        <v>Refinery of Crude Oil  - Whitegate</v>
       </c>
       <c r="G89" s="236" t="str">
-        <f t="shared" si="27"/>
-        <v>Export</v>
-      </c>
-      <c r="H89" s="236" t="str">
-        <f>$B$43</f>
-        <v>ELC</v>
+        <f>VLOOKUP(I89,$E$4:$F$9,2,FALSE)</f>
+        <v>Refinery</v>
+      </c>
+      <c r="H89" t="str">
+        <f>B51</f>
+        <v>OILCRD</v>
       </c>
       <c r="I89" s="236" t="str">
-        <f>$E$6</f>
-        <v>EXP</v>
-      </c>
-      <c r="J89" s="236" t="str">
-        <f>$I$4</f>
-        <v>_UK</v>
+        <f>$E$7</f>
+        <v>REF</v>
+      </c>
+      <c r="J89" t="str">
+        <f>I6</f>
+        <v>_Whitegate</v>
       </c>
       <c r="K89" s="236" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="2:12">
@@ -19332,29 +19332,26 @@
         <v>390</v>
       </c>
       <c r="E90" s="236" t="str">
-        <f>LEFT(B4,1)&amp;I90&amp;H90&amp;J90</f>
-        <v>SREFOILCRD_Whitegate</v>
+        <f>I90&amp;$B$4&amp;H90&amp;J90</f>
+        <v>FT-SUPNGA</v>
       </c>
       <c r="F90" s="234" t="str">
-        <f>G90 &amp; " of " &amp; VLOOKUP(H90,$B$13:$C$91,2,FALSE) &amp; IF(J90&lt;&gt;0,IF(VLOOKUP(J90,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J90,$I$4:$J$10,2,FALSE),""),"")</f>
-        <v>Refinery of Crude Oil  - Whitegate</v>
+        <f>G90 &amp; " - " &amp; VLOOKUP(H90,$B$13:$C$92,2,FALSE) &amp; IF(J90&lt;&gt;0,IF(VLOOKUP(J90,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J90,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
+        <v>Fuel Tech - Natural Gas (SUP)</v>
       </c>
       <c r="G90" s="236" t="str">
-        <f>VLOOKUP(I90,$E$4:$F$9,2,FALSE)</f>
-        <v>Refinery</v>
-      </c>
-      <c r="H90" t="str">
-        <f>B51</f>
-        <v>OILCRD</v>
+        <f t="shared" ref="G90" si="26">VLOOKUP(I90,$E$4:$F$9,2,FALSE)</f>
+        <v>Fuel Tech</v>
+      </c>
+      <c r="H90" s="234" t="str">
+        <f>B20</f>
+        <v>NGA</v>
       </c>
       <c r="I90" s="236" t="str">
-        <f>$E$7</f>
-        <v>REF</v>
-      </c>
-      <c r="J90" t="str">
-        <f>I6</f>
-        <v>_Whitegate</v>
-      </c>
+        <f>$E$8</f>
+        <v>FT-</v>
+      </c>
+      <c r="J90" s="234"/>
       <c r="K90" s="236" t="s">
         <v>158</v>
       </c>
@@ -19367,23 +19364,23 @@
         <v>455</v>
       </c>
       <c r="E91" s="236" t="str">
-        <f>I91&amp;$B$4&amp;H91&amp;J91</f>
-        <v>FT-SUPNGA</v>
+        <f t="shared" ref="E91:E94" si="27">I91&amp;$B$4&amp;H91&amp;J91</f>
+        <v>FT-SUPCOA</v>
       </c>
       <c r="F91" s="234" t="str">
         <f>G91 &amp; " - " &amp; VLOOKUP(H91,$B$13:$C$92,2,FALSE) &amp; IF(J91&lt;&gt;0,IF(VLOOKUP(J91,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J91,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
-        <v>Fuel Tech - Natural Gas (SUP)</v>
+        <v>Fuel Tech - Coal (SUP)</v>
       </c>
       <c r="G91" s="236" t="str">
-        <f t="shared" ref="G91" si="28">VLOOKUP(I91,$E$4:$F$9,2,FALSE)</f>
+        <f t="shared" ref="G91:G94" si="28">VLOOKUP(I91,$E$4:$F$9,2,FALSE)</f>
         <v>Fuel Tech</v>
       </c>
       <c r="H91" s="234" t="str">
-        <f>B20</f>
-        <v>NGA</v>
+        <f>B13</f>
+        <v>COA</v>
       </c>
       <c r="I91" s="236" t="str">
-        <f>$E$8</f>
+        <f t="shared" ref="I91:I94" si="29">$E$8</f>
         <v>FT-</v>
       </c>
       <c r="J91" s="234"/>
@@ -19399,23 +19396,23 @@
         <v>456</v>
       </c>
       <c r="E92" s="236" t="str">
-        <f t="shared" ref="E92:E95" si="29">I92&amp;$B$4&amp;H92&amp;J92</f>
-        <v>FT-SUPCOA</v>
+        <f t="shared" si="27"/>
+        <v>FT-SUPWAS</v>
       </c>
       <c r="F92" s="234" t="str">
         <f>G92 &amp; " - " &amp; VLOOKUP(H92,$B$13:$C$92,2,FALSE) &amp; IF(J92&lt;&gt;0,IF(VLOOKUP(J92,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J92,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
-        <v>Fuel Tech - Coal (SUP)</v>
+        <v>Fuel Tech - Waste (SUP)</v>
       </c>
       <c r="G92" s="236" t="str">
-        <f t="shared" ref="G92:G95" si="30">VLOOKUP(I92,$E$4:$F$9,2,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>Fuel Tech</v>
       </c>
       <c r="H92" s="234" t="str">
-        <f>B13</f>
-        <v>COA</v>
+        <f>B45</f>
+        <v>WAS</v>
       </c>
       <c r="I92" s="236" t="str">
-        <f t="shared" ref="I92:I95" si="31">$E$8</f>
+        <f t="shared" si="29"/>
         <v>FT-</v>
       </c>
       <c r="J92" s="234"/>
@@ -19424,30 +19421,24 @@
       </c>
     </row>
     <row r="93" spans="2:12">
-      <c r="B93" s="252" t="s">
-        <v>459</v>
-      </c>
-      <c r="C93" s="236" t="s">
-        <v>460</v>
-      </c>
       <c r="E93" s="236" t="str">
-        <f t="shared" si="29"/>
-        <v>FT-SUPWAS</v>
+        <f t="shared" si="27"/>
+        <v>FT-SUPBIO</v>
       </c>
       <c r="F93" s="234" t="str">
         <f>G93 &amp; " - " &amp; VLOOKUP(H93,$B$13:$C$92,2,FALSE) &amp; IF(J93&lt;&gt;0,IF(VLOOKUP(J93,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J93,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
-        <v>Fuel Tech - Waste (SUP)</v>
+        <v>Fuel Tech - Biomass (SUP)</v>
       </c>
       <c r="G93" s="236" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>Fuel Tech</v>
       </c>
       <c r="H93" s="234" t="str">
-        <f>B45</f>
-        <v>WAS</v>
+        <f>B21</f>
+        <v>BIO</v>
       </c>
       <c r="I93" s="236" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>FT-</v>
       </c>
       <c r="J93" s="234"/>
@@ -19457,53 +19448,27 @@
     </row>
     <row r="94" spans="2:12">
       <c r="E94" s="236" t="str">
-        <f t="shared" si="29"/>
-        <v>FT-SUPBIO</v>
+        <f t="shared" si="27"/>
+        <v>FT-SUPELC</v>
       </c>
       <c r="F94" s="234" t="str">
         <f>G94 &amp; " - " &amp; VLOOKUP(H94,$B$13:$C$92,2,FALSE) &amp; IF(J94&lt;&gt;0,IF(VLOOKUP(J94,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J94,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
-        <v>Fuel Tech - Biomass (SUP)</v>
+        <v>Fuel Tech - Electricity (SUP)</v>
       </c>
       <c r="G94" s="236" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>Fuel Tech</v>
       </c>
       <c r="H94" s="234" t="str">
-        <f>B21</f>
-        <v>BIO</v>
+        <f>B43</f>
+        <v>ELC</v>
       </c>
       <c r="I94" s="236" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>FT-</v>
       </c>
       <c r="J94" s="234"/>
       <c r="K94" s="236" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12">
-      <c r="E95" s="236" t="str">
-        <f t="shared" si="29"/>
-        <v>FT-SUPELC</v>
-      </c>
-      <c r="F95" s="234" t="str">
-        <f>G95 &amp; " - " &amp; VLOOKUP(H95,$B$13:$C$92,2,FALSE) &amp; IF(J95&lt;&gt;0,IF(VLOOKUP(J95,$I$4:$J$10,2,FALSE)&lt;&gt;""," - " &amp; VLOOKUP(J95,$I$4:$J$10,2,FALSE),""),"") &amp; " (" &amp; $B$4 &amp; ")"</f>
-        <v>Fuel Tech - Electricity (SUP)</v>
-      </c>
-      <c r="G95" s="236" t="str">
-        <f t="shared" si="30"/>
-        <v>Fuel Tech</v>
-      </c>
-      <c r="H95" s="234" t="str">
-        <f>B43</f>
-        <v>ELC</v>
-      </c>
-      <c r="I95" s="236" t="str">
-        <f t="shared" si="31"/>
-        <v>FT-</v>
-      </c>
-      <c r="J95" s="234"/>
-      <c r="K95" s="236" t="s">
         <v>158</v>
       </c>
     </row>
@@ -19516,10 +19481,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:L97"/>
+  <dimension ref="B2:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A8" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -20526,33 +20491,33 @@
       <c r="B52" s="251" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="257" t="str">
-        <f>CONVENTIONS!B93</f>
-        <v>AMBHET</v>
-      </c>
-      <c r="D52" s="257" t="str">
-        <f>CONVENTIONS!C93</f>
-        <v>Ambient Heat</v>
-      </c>
-      <c r="E52" s="251" t="s">
+      <c r="C52" s="248" t="str">
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B13</f>
+        <v>SUPCOA</v>
+      </c>
+      <c r="D52" s="248" t="str">
+        <f>CONVENTIONS!C13 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Coal (SUP)</v>
+      </c>
+      <c r="E52" s="243" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="251"/>
-      <c r="G52" s="251"/>
-      <c r="H52" s="251"/>
-      <c r="I52" s="251"/>
-    </row>
-    <row r="53" spans="2:12">
+      <c r="F52" s="243"/>
+      <c r="G52" s="243"/>
+      <c r="H52" s="243"/>
+      <c r="I52" s="243"/>
+    </row>
+    <row r="53" spans="2:12" s="215" customFormat="1">
       <c r="B53" s="251" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B13</f>
-        <v>SUPCOA</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B20</f>
+        <v>SUPNGA</v>
       </c>
       <c r="D53" s="248" t="str">
-        <f>CONVENTIONS!C13 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Coal (SUP)</v>
+        <f>CONVENTIONS!C20 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Natural Gas (SUP)</v>
       </c>
       <c r="E53" s="243" t="s">
         <v>10</v>
@@ -20562,17 +20527,17 @@
       <c r="H53" s="243"/>
       <c r="I53" s="243"/>
     </row>
-    <row r="54" spans="2:12" s="215" customFormat="1">
+    <row r="54" spans="2:12">
       <c r="B54" s="251" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B20</f>
-        <v>SUPNGA</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B21</f>
+        <v>SUPBIO</v>
       </c>
       <c r="D54" s="248" t="str">
-        <f>CONVENTIONS!C20 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Natural Gas (SUP)</v>
+        <f>CONVENTIONS!C21 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Biomass (SUP)</v>
       </c>
       <c r="E54" s="243" t="s">
         <v>10</v>
@@ -20587,18 +20552,20 @@
         <v>23</v>
       </c>
       <c r="C55" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B21</f>
-        <v>SUPBIO</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B43</f>
+        <v>SUPELC</v>
       </c>
       <c r="D55" s="248" t="str">
-        <f>CONVENTIONS!C21 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Biomass (SUP)</v>
+        <f>CONVENTIONS!C43 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Electricity (SUP)</v>
       </c>
       <c r="E55" s="243" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="243"/>
-      <c r="G55" s="243"/>
+      <c r="G55" s="243" t="s">
+        <v>64</v>
+      </c>
       <c r="H55" s="243"/>
       <c r="I55" s="243"/>
     </row>
@@ -20607,20 +20574,18 @@
         <v>23</v>
       </c>
       <c r="C56" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B43</f>
-        <v>SUPELC</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B45</f>
+        <v>SUPWAS</v>
       </c>
       <c r="D56" s="248" t="str">
-        <f>CONVENTIONS!C43 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Electricity (SUP)</v>
+        <f>CONVENTIONS!C45 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Waste (SUP)</v>
       </c>
       <c r="E56" s="243" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="243"/>
-      <c r="G56" s="243" t="s">
-        <v>64</v>
-      </c>
+      <c r="G56" s="243"/>
       <c r="H56" s="243"/>
       <c r="I56" s="243"/>
     </row>
@@ -20629,56 +20594,58 @@
         <v>23</v>
       </c>
       <c r="C57" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!B45</f>
-        <v>SUPWAS</v>
+        <f>CONVENTIONS!$B$43&amp;CONVENTIONS!P4</f>
+        <v>ELCC</v>
       </c>
       <c r="D57" s="248" t="str">
-        <f>CONVENTIONS!C45 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Waste (SUP)</v>
+        <f>CONVENTIONS!$C$43 &amp;  " - " &amp; CONVENTIONS!Q4</f>
+        <v>Electricity - centralised</v>
       </c>
       <c r="E57" s="243" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="243"/>
-      <c r="G57" s="243"/>
+      <c r="G57" s="243" t="s">
+        <v>64</v>
+      </c>
       <c r="H57" s="243"/>
-      <c r="I57" s="243"/>
+      <c r="I57" s="243" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="58" spans="2:12">
       <c r="B58" s="251" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="248" t="str">
-        <f>CONVENTIONS!$B$43&amp;CONVENTIONS!P4</f>
-        <v>ELCC</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$90&amp;CONVENTIONS!M4&amp;CONVENTIONS!P4</f>
+        <v>SUPH2GC</v>
       </c>
       <c r="D58" s="248" t="str">
-        <f>CONVENTIONS!$C$43 &amp;  " - " &amp; CONVENTIONS!Q4</f>
-        <v>Electricity - centralised</v>
+        <f>CONVENTIONS!$C$90 &amp; " " &amp; CONVENTIONS!N4 &amp; " - " &amp; CONVENTIONS!Q4&amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Hydrogen gaseous - centralised (SUP)</v>
       </c>
       <c r="E58" s="243" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="243"/>
       <c r="G58" s="243" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H58" s="243"/>
-      <c r="I58" s="243" t="s">
-        <v>296</v>
-      </c>
+      <c r="I58" s="243"/>
     </row>
     <row r="59" spans="2:12">
       <c r="B59" s="251" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$90&amp;CONVENTIONS!M4&amp;CONVENTIONS!P4</f>
-        <v>SUPH2GC</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$90&amp;CONVENTIONS!M5&amp;CONVENTIONS!P4</f>
+        <v>SUPH2LC</v>
       </c>
       <c r="D59" s="248" t="str">
-        <f>CONVENTIONS!$C$90 &amp; " " &amp; CONVENTIONS!N4 &amp; " - " &amp; CONVENTIONS!Q4&amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Hydrogen gaseous - centralised (SUP)</v>
+        <f>CONVENTIONS!$C$90 &amp; " " &amp; CONVENTIONS!N5 &amp; " - " &amp; CONVENTIONS!Q4&amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Hydrogen liquid - centralised (SUP)</v>
       </c>
       <c r="E59" s="243" t="s">
         <v>10</v>
@@ -20695,12 +20662,12 @@
         <v>23</v>
       </c>
       <c r="C60" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$90&amp;CONVENTIONS!M5&amp;CONVENTIONS!P4</f>
-        <v>SUPH2LC</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$90&amp;CONVENTIONS!M4&amp;CONVENTIONS!P5</f>
+        <v>SUPH2GD</v>
       </c>
       <c r="D60" s="248" t="str">
-        <f>CONVENTIONS!$C$90 &amp; " " &amp; CONVENTIONS!N5 &amp; " - " &amp; CONVENTIONS!Q4&amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Hydrogen liquid - centralised (SUP)</v>
+        <f>CONVENTIONS!$C$90 &amp; " " &amp; CONVENTIONS!N4 &amp; " - " &amp; CONVENTIONS!Q5 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Hydrogen gaseous - decentralised (SUP)</v>
       </c>
       <c r="E60" s="243" t="s">
         <v>10</v>
@@ -20717,12 +20684,12 @@
         <v>23</v>
       </c>
       <c r="C61" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$90&amp;CONVENTIONS!M4&amp;CONVENTIONS!P5</f>
-        <v>SUPH2GD</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$90&amp;CONVENTIONS!M5&amp;CONVENTIONS!P5</f>
+        <v>SUPH2LD</v>
       </c>
       <c r="D61" s="248" t="str">
-        <f>CONVENTIONS!$C$90 &amp; " " &amp; CONVENTIONS!N4 &amp; " - " &amp; CONVENTIONS!Q5 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Hydrogen gaseous - decentralised (SUP)</v>
+        <f>CONVENTIONS!$C$90 &amp; " " &amp; CONVENTIONS!N5 &amp; " - " &amp; CONVENTIONS!Q5 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Hydrogen liquid - decentralised (SUP)</v>
       </c>
       <c r="E61" s="243" t="s">
         <v>10</v>
@@ -20735,38 +20702,39 @@
       <c r="I61" s="243"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="251" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!$B$90&amp;CONVENTIONS!M5&amp;CONVENTIONS!P5</f>
-        <v>SUPH2LD</v>
-      </c>
-      <c r="D62" s="248" t="str">
-        <f>CONVENTIONS!$C$90 &amp; " " &amp; CONVENTIONS!N5 &amp; " - " &amp; CONVENTIONS!Q5 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Hydrogen liquid - decentralised (SUP)</v>
-      </c>
-      <c r="E62" s="243" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="243"/>
-      <c r="G62" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="H62" s="243"/>
-      <c r="I62" s="243"/>
+      <c r="B62" s="258" t="s">
+        <v>364</v>
+      </c>
+      <c r="C62" s="258"/>
+      <c r="D62" s="258"/>
+      <c r="E62" s="258"/>
+      <c r="F62" s="258"/>
+      <c r="G62" s="258"/>
+      <c r="H62" s="258"/>
+      <c r="I62" s="258"/>
+      <c r="J62" s="215"/>
+      <c r="K62" s="215"/>
+      <c r="L62" s="215"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="258" t="s">
-        <v>364</v>
-      </c>
-      <c r="C63" s="258"/>
-      <c r="D63" s="258"/>
-      <c r="E63" s="258"/>
-      <c r="F63" s="258"/>
-      <c r="G63" s="258"/>
-      <c r="H63" s="258"/>
-      <c r="I63" s="258"/>
+      <c r="B63" s="251" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" s="248" t="str">
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M13</f>
+        <v>SUPCH4N</v>
+      </c>
+      <c r="D63" s="248" t="str">
+        <f>CONVENTIONS!N13 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Methane - eNergy Emissions (SUP)</v>
+      </c>
+      <c r="E63" s="243" t="s">
+        <v>286</v>
+      </c>
+      <c r="F63" s="243"/>
+      <c r="G63" s="243"/>
+      <c r="H63" s="243"/>
+      <c r="I63" s="243"/>
       <c r="J63" s="215"/>
       <c r="K63" s="215"/>
       <c r="L63" s="215"/>
@@ -20776,12 +20744,12 @@
         <v>285</v>
       </c>
       <c r="C64" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M13</f>
-        <v>SUPCH4N</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M14</f>
+        <v>SUPCH4P</v>
       </c>
       <c r="D64" s="248" t="str">
-        <f>CONVENTIONS!N13 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Methane - eNergy Emissions (SUP)</v>
+        <f>CONVENTIONS!N14 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Methane Emissions - Process Emissions (SUP)</v>
       </c>
       <c r="E64" s="243" t="s">
         <v>286</v>
@@ -20799,12 +20767,12 @@
         <v>285</v>
       </c>
       <c r="C65" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M14</f>
-        <v>SUPCH4P</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M15</f>
+        <v>SUPN2ON</v>
       </c>
       <c r="D65" s="248" t="str">
-        <f>CONVENTIONS!N14 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Methane Emissions - Process Emissions (SUP)</v>
+        <f>CONVENTIONS!N15 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>N2O Emissions - eNergy Emissions (SUP)</v>
       </c>
       <c r="E65" s="243" t="s">
         <v>286</v>
@@ -20822,12 +20790,12 @@
         <v>285</v>
       </c>
       <c r="C66" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M15</f>
-        <v>SUPN2ON</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M16</f>
+        <v>SUPSO2N</v>
       </c>
       <c r="D66" s="248" t="str">
-        <f>CONVENTIONS!N15 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>N2O Emissions - eNergy Emissions (SUP)</v>
+        <f>CONVENTIONS!N16 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Sulfur dioxide - eNergy Emissions (SUP)</v>
       </c>
       <c r="E66" s="243" t="s">
         <v>286</v>
@@ -20845,12 +20813,12 @@
         <v>285</v>
       </c>
       <c r="C67" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M16</f>
-        <v>SUPSO2N</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M17</f>
+        <v>SUPCO2N</v>
       </c>
       <c r="D67" s="248" t="str">
-        <f>CONVENTIONS!N16 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Sulfur dioxide - eNergy Emissions (SUP)</v>
+        <f>CONVENTIONS!N17 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Carbon Dioxide - eNergy Emissions (SUP)</v>
       </c>
       <c r="E67" s="243" t="s">
         <v>286</v>
@@ -20859,21 +20827,18 @@
       <c r="G67" s="243"/>
       <c r="H67" s="243"/>
       <c r="I67" s="243"/>
-      <c r="J67" s="215"/>
-      <c r="K67" s="215"/>
-      <c r="L67" s="215"/>
     </row>
     <row r="68" spans="2:12">
       <c r="B68" s="251" t="s">
         <v>285</v>
       </c>
       <c r="C68" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M17</f>
-        <v>SUPCO2N</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M18</f>
+        <v>SUPCO2P</v>
       </c>
       <c r="D68" s="248" t="str">
-        <f>CONVENTIONS!N17 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Carbon Dioxide - eNergy Emissions (SUP)</v>
+        <f>CONVENTIONS!N18 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Carbon Dioxide - Process Emissions (SUP)</v>
       </c>
       <c r="E68" s="243" t="s">
         <v>286</v>
@@ -20888,12 +20853,12 @@
         <v>285</v>
       </c>
       <c r="C69" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M18</f>
-        <v>SUPCO2P</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M19</f>
+        <v>SUPCO2S</v>
       </c>
       <c r="D69" s="248" t="str">
-        <f>CONVENTIONS!N18 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Carbon Dioxide - Process Emissions (SUP)</v>
+        <f>CONVENTIONS!N19 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Carbon Dioxide - Sequestered (SUP)</v>
       </c>
       <c r="E69" s="243" t="s">
         <v>286</v>
@@ -20908,12 +20873,12 @@
         <v>285</v>
       </c>
       <c r="C70" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M19</f>
-        <v>SUPCO2S</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M20</f>
+        <v>SUPNOXN</v>
       </c>
       <c r="D70" s="248" t="str">
-        <f>CONVENTIONS!N19 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Carbon Dioxide - Sequestered (SUP)</v>
+        <f>CONVENTIONS!N20 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Nitrogen Oxide  - eNergy Emissions (SUP)</v>
       </c>
       <c r="E70" s="243" t="s">
         <v>286</v>
@@ -20928,12 +20893,12 @@
         <v>285</v>
       </c>
       <c r="C71" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M20</f>
-        <v>SUPNOXN</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M21</f>
+        <v>SUPPM10</v>
       </c>
       <c r="D71" s="248" t="str">
-        <f>CONVENTIONS!N20 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Nitrogen Oxide  - eNergy Emissions (SUP)</v>
+        <f>CONVENTIONS!N21 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Particulate Matter &lt;10 µm (SUP)</v>
       </c>
       <c r="E71" s="243" t="s">
         <v>286</v>
@@ -20948,12 +20913,12 @@
         <v>285</v>
       </c>
       <c r="C72" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M21</f>
-        <v>SUPPM10</v>
+        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M22</f>
+        <v>SUPPM25</v>
       </c>
       <c r="D72" s="248" t="str">
-        <f>CONVENTIONS!N21 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Particulate Matter &lt;10 µm (SUP)</v>
+        <f>CONVENTIONS!N22 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
+        <v>Particulate Matter &lt;2.5 µm (SUP)</v>
       </c>
       <c r="E72" s="243" t="s">
         <v>286</v>
@@ -20964,24 +20929,14 @@
       <c r="I72" s="243"/>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="251" t="s">
-        <v>285</v>
-      </c>
-      <c r="C73" s="248" t="str">
-        <f>CONVENTIONS!$B$4&amp;CONVENTIONS!M22</f>
-        <v>SUPPM25</v>
-      </c>
-      <c r="D73" s="248" t="str">
-        <f>CONVENTIONS!N22 &amp; " (" &amp; CONVENTIONS!$B$4 &amp; ")"</f>
-        <v>Particulate Matter &lt;2.5 µm (SUP)</v>
-      </c>
-      <c r="E73" s="243" t="s">
-        <v>286</v>
-      </c>
-      <c r="F73" s="243"/>
-      <c r="G73" s="243"/>
-      <c r="H73" s="243"/>
-      <c r="I73" s="243"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
     </row>
     <row r="74" spans="2:12">
       <c r="B74"/>
@@ -21213,16 +21168,6 @@
       <c r="H96"/>
       <c r="I96"/>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21232,10 +21177,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABBFF4F-A0CF-43AC-AC4F-5B8E72D4ACA3}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:W92"/>
+  <dimension ref="B1:W91"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21285,7 +21230,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="235" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D4" s="235" t="s">
         <v>2</v>
@@ -23568,10 +23513,10 @@
       <c r="I82" s="236"/>
       <c r="J82" s="236"/>
     </row>
-    <row r="83" spans="2:11" s="234" customFormat="1">
+    <row r="83" spans="2:11">
       <c r="B83" s="248" t="str">
         <f>CONVENTIONS!K87</f>
-        <v>MIN</v>
+        <v>IMP</v>
       </c>
       <c r="C83" s="248" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -23579,11 +23524,11 @@
       </c>
       <c r="D83" s="248" t="str">
         <f>CONVENTIONS!E87</f>
-        <v>MINAMBHET</v>
+        <v>IMPELC_UK</v>
       </c>
       <c r="E83" s="248" t="str">
         <f>CONVENTIONS!F87</f>
-        <v>Domestic Potential of Ambient Heat</v>
+        <v>Import of Electricity - UK</v>
       </c>
       <c r="F83" s="262" t="s">
         <v>10</v>
@@ -23591,14 +23536,17 @@
       <c r="G83" s="236" t="s">
         <v>372</v>
       </c>
-      <c r="H83" s="236"/>
+      <c r="H83" s="236" t="s">
+        <v>64</v>
+      </c>
       <c r="I83" s="236"/>
       <c r="J83" s="236"/>
+      <c r="K83" s="234"/>
     </row>
     <row r="84" spans="2:11">
       <c r="B84" s="248" t="str">
         <f>CONVENTIONS!K88</f>
-        <v>IMP</v>
+        <v>EXP</v>
       </c>
       <c r="C84" s="248" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -23606,11 +23554,11 @@
       </c>
       <c r="D84" s="248" t="str">
         <f>CONVENTIONS!E88</f>
-        <v>IMPELC_UK</v>
+        <v>EXPELC_UK</v>
       </c>
       <c r="E84" s="248" t="str">
         <f>CONVENTIONS!F88</f>
-        <v>Import of Electricity - UK</v>
+        <v>Export of Electricity - UK</v>
       </c>
       <c r="F84" s="262" t="s">
         <v>10</v>
@@ -23623,12 +23571,11 @@
       </c>
       <c r="I84" s="236"/>
       <c r="J84" s="236"/>
-      <c r="K84" s="234"/>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="248" t="str">
         <f>CONVENTIONS!K89</f>
-        <v>EXP</v>
+        <v>PRE</v>
       </c>
       <c r="C85" s="248" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
@@ -23636,11 +23583,11 @@
       </c>
       <c r="D85" s="248" t="str">
         <f>CONVENTIONS!E89</f>
-        <v>EXPELC_UK</v>
+        <v>SREFOILCRD_Whitegate</v>
       </c>
       <c r="E85" s="248" t="str">
         <f>CONVENTIONS!F89</f>
-        <v>Export of Electricity - UK</v>
+        <v>Refinery of Crude Oil  - Whitegate</v>
       </c>
       <c r="F85" s="262" t="s">
         <v>10</v>
@@ -23648,54 +23595,54 @@
       <c r="G85" s="236" t="s">
         <v>372</v>
       </c>
-      <c r="H85" s="236" t="s">
-        <v>64</v>
-      </c>
-      <c r="I85" s="236"/>
-      <c r="J85" s="236"/>
+      <c r="H85" s="256"/>
+      <c r="I85" s="267" t="str">
+        <f>Commodities!C11</f>
+        <v>OILCRD</v>
+      </c>
+      <c r="J85" s="256"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="248" t="str">
+      <c r="B86" s="246" t="s">
+        <v>371</v>
+      </c>
+      <c r="C86" s="246"/>
+      <c r="D86" s="246"/>
+      <c r="E86" s="247"/>
+      <c r="F86" s="247"/>
+      <c r="G86" s="247"/>
+      <c r="H86" s="247"/>
+      <c r="I86" s="247"/>
+      <c r="J86" s="247"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="248" t="str">
         <f>CONVENTIONS!K90</f>
         <v>PRE</v>
       </c>
-      <c r="C86" s="248" t="str">
+      <c r="C87" s="248" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D86" s="248" t="str">
+      <c r="D87" s="248" t="str">
         <f>CONVENTIONS!E90</f>
-        <v>SREFOILCRD_Whitegate</v>
-      </c>
-      <c r="E86" s="248" t="str">
+        <v>FT-SUPNGA</v>
+      </c>
+      <c r="E87" s="248" t="str">
         <f>CONVENTIONS!F90</f>
-        <v>Refinery of Crude Oil  - Whitegate</v>
-      </c>
-      <c r="F86" s="262" t="s">
+        <v>Fuel Tech - Natural Gas (SUP)</v>
+      </c>
+      <c r="F87" s="225" t="s">
         <v>10</v>
       </c>
-      <c r="G86" s="236" t="s">
+      <c r="G87" s="236" t="s">
         <v>372</v>
       </c>
-      <c r="H86" s="256"/>
-      <c r="I86" s="267" t="str">
-        <f>Commodities!C11</f>
-        <v>OILCRD</v>
-      </c>
-      <c r="J86" s="256"/>
-    </row>
-    <row r="87" spans="2:11">
-      <c r="B87" s="246" t="s">
-        <v>371</v>
-      </c>
-      <c r="C87" s="246"/>
-      <c r="D87" s="246"/>
-      <c r="E87" s="247"/>
-      <c r="F87" s="247"/>
-      <c r="G87" s="247"/>
-      <c r="H87" s="247"/>
-      <c r="I87" s="247"/>
-      <c r="J87" s="247"/>
+      <c r="H87" s="256" t="s">
+        <v>72</v>
+      </c>
+      <c r="I87" s="267"/>
+      <c r="J87" s="256"/>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="248" t="str">
@@ -23708,23 +23655,21 @@
       </c>
       <c r="D88" s="248" t="str">
         <f>CONVENTIONS!E91</f>
-        <v>FT-SUPNGA</v>
+        <v>FT-SUPCOA</v>
       </c>
       <c r="E88" s="248" t="str">
         <f>CONVENTIONS!F91</f>
-        <v>Fuel Tech - Natural Gas (SUP)</v>
-      </c>
-      <c r="F88" s="225" t="s">
+        <v>Fuel Tech - Coal (SUP)</v>
+      </c>
+      <c r="F88" s="269" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="236" t="s">
         <v>372</v>
       </c>
-      <c r="H88" s="256" t="s">
-        <v>72</v>
-      </c>
-      <c r="I88" s="267"/>
-      <c r="J88" s="256"/>
+      <c r="H88" s="249"/>
+      <c r="I88" s="249"/>
+      <c r="J88" s="249"/>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" s="248" t="str">
@@ -23737,11 +23682,11 @@
       </c>
       <c r="D89" s="248" t="str">
         <f>CONVENTIONS!E92</f>
-        <v>FT-SUPCOA</v>
+        <v>FT-SUPWAS</v>
       </c>
       <c r="E89" s="248" t="str">
         <f>CONVENTIONS!F92</f>
-        <v>Fuel Tech - Coal (SUP)</v>
+        <v>Fuel Tech - Waste (SUP)</v>
       </c>
       <c r="F89" s="269" t="s">
         <v>10</v>
@@ -23764,11 +23709,11 @@
       </c>
       <c r="D90" s="248" t="str">
         <f>CONVENTIONS!E93</f>
-        <v>FT-SUPWAS</v>
+        <v>FT-SUPBIO</v>
       </c>
       <c r="E90" s="248" t="str">
         <f>CONVENTIONS!F93</f>
-        <v>Fuel Tech - Waste (SUP)</v>
+        <v>Fuel Tech - Biomass (SUP)</v>
       </c>
       <c r="F90" s="269" t="s">
         <v>10</v>
@@ -23791,50 +23736,23 @@
       </c>
       <c r="D91" s="248" t="str">
         <f>CONVENTIONS!E94</f>
-        <v>FT-SUPBIO</v>
+        <v>FT-SUPELC</v>
       </c>
       <c r="E91" s="248" t="str">
         <f>CONVENTIONS!F94</f>
-        <v>Fuel Tech - Biomass (SUP)</v>
-      </c>
-      <c r="F91" s="269" t="s">
+        <v>Fuel Tech - Electricity (SUP)</v>
+      </c>
+      <c r="F91" s="225" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="236" t="s">
         <v>372</v>
       </c>
-      <c r="H91" s="249"/>
+      <c r="H91" s="249" t="s">
+        <v>64</v>
+      </c>
       <c r="I91" s="249"/>
       <c r="J91" s="249"/>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="248" t="str">
-        <f>CONVENTIONS!K95</f>
-        <v>PRE</v>
-      </c>
-      <c r="C92" s="248" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D92" s="248" t="str">
-        <f>CONVENTIONS!E95</f>
-        <v>FT-SUPELC</v>
-      </c>
-      <c r="E92" s="248" t="str">
-        <f>CONVENTIONS!F95</f>
-        <v>Fuel Tech - Electricity (SUP)</v>
-      </c>
-      <c r="F92" s="225" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="236" t="s">
-        <v>372</v>
-      </c>
-      <c r="H92" s="249" t="s">
-        <v>64</v>
-      </c>
-      <c r="I92" s="249"/>
-      <c r="J92" s="249"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23848,7 +23766,7 @@
   <dimension ref="B1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24139,7 +24057,7 @@
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="221" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C4" s="221" t="s">
         <v>2</v>
@@ -24191,11 +24109,11 @@
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="216" t="str">
-        <f>Processes!C88</f>
+        <f>Processes!C87</f>
         <v>IE,National</v>
       </c>
       <c r="C6" s="216" t="str">
-        <f>Processes!D88</f>
+        <f>Processes!D87</f>
         <v>FT-SUPNGA</v>
       </c>
       <c r="D6" s="216" t="str">
@@ -24203,7 +24121,7 @@
         <v>GASNAT</v>
       </c>
       <c r="E6" s="216" t="str">
-        <f>Commodities!C54</f>
+        <f>Commodities!C53</f>
         <v>SUPNGA</v>
       </c>
       <c r="F6" s="40">
@@ -24216,11 +24134,11 @@
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="216" t="str">
-        <f>Processes!C89</f>
+        <f>Processes!C88</f>
         <v>IE,National</v>
       </c>
       <c r="C7" s="216" t="str">
-        <f>Processes!D89</f>
+        <f>Processes!D88</f>
         <v>FT-SUPCOA</v>
       </c>
       <c r="D7" s="216" t="str">
@@ -24228,7 +24146,7 @@
         <v>COAHAR</v>
       </c>
       <c r="E7" s="216" t="str">
-        <f>Commodities!C53</f>
+        <f>Commodities!C52</f>
         <v>SUPCOA</v>
       </c>
       <c r="F7" s="40">
@@ -24241,11 +24159,11 @@
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="216" t="str">
-        <f>Processes!C90</f>
+        <f>Processes!C89</f>
         <v>IE,National</v>
       </c>
       <c r="C8" s="216" t="str">
-        <f>Processes!D90</f>
+        <f>Processes!D89</f>
         <v>FT-SUPWAS</v>
       </c>
       <c r="D8" s="216" t="str">
@@ -24253,7 +24171,7 @@
         <v>MSWAS</v>
       </c>
       <c r="E8" s="216" t="str">
-        <f>Commodities!C57</f>
+        <f>Commodities!C56</f>
         <v>SUPWAS</v>
       </c>
       <c r="F8" s="40">
@@ -24266,11 +24184,11 @@
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="216" t="str">
-        <f>Processes!C91</f>
+        <f>Processes!C90</f>
         <v>IE,National</v>
       </c>
       <c r="C9" s="216" t="str">
-        <f>Processes!D91</f>
+        <f>Processes!D90</f>
         <v>FT-SUPBIO</v>
       </c>
       <c r="D9" s="216" t="str">
@@ -24278,7 +24196,7 @@
         <v>BIOWOO, BIOWPE, BIOWCH</v>
       </c>
       <c r="E9" s="216" t="str">
-        <f>Commodities!C55</f>
+        <f>Commodities!C54</f>
         <v>SUPBIO</v>
       </c>
       <c r="F9" s="40">
@@ -24291,18 +24209,18 @@
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="216" t="str">
-        <f>Processes!C92</f>
+        <f>Processes!C91</f>
         <v>IE,National</v>
       </c>
       <c r="C10" s="216" t="str">
-        <f>Processes!D92</f>
+        <f>Processes!D91</f>
         <v>FT-SUPELC</v>
       </c>
       <c r="D10" s="216" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="216" t="str">
-        <f>Commodities!C56</f>
+        <f>Commodities!C55</f>
         <v>SUPELC</v>
       </c>
       <c r="F10" s="40">
@@ -24379,8 +24297,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:U69"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="C1" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -24408,7 +24326,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="18.75">
       <c r="B1" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="4"/>
@@ -24416,7 +24334,7 @@
     <row r="2" spans="2:20" s="216" customFormat="1"/>
     <row r="3" spans="2:20" ht="18.75">
       <c r="G3" s="474" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
@@ -24432,37 +24350,37 @@
     </row>
     <row r="4" spans="2:20">
       <c r="C4" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>568</v>
       </c>
       <c r="N4" s="62" t="s">
         <v>82</v>
@@ -24470,7 +24388,7 @@
     </row>
     <row r="5" spans="2:20" ht="26.25" thickBot="1">
       <c r="C5" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>47</v>
@@ -24479,7 +24397,7 @@
         <v>48</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>49</v>
@@ -24547,7 +24465,7 @@
         <v>13.293106237838872</v>
       </c>
       <c r="N6" s="215" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="2:20">
@@ -24595,13 +24513,13 @@
         <v>12.890088334941915</v>
       </c>
       <c r="N7" s="215" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="R7" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="T7" s="216" t="s">
         <v>584</v>
-      </c>
-      <c r="T7" s="216" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="8" spans="2:20">
@@ -24649,7 +24567,7 @@
         <v>2.065279967615445</v>
       </c>
       <c r="N8" s="215" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="2:20">
@@ -24700,10 +24618,10 @@
         <v>0.95000000000000495</v>
       </c>
       <c r="R9" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="S9" s="35" t="s">
         <v>586</v>
-      </c>
-      <c r="S9" s="35" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="10" spans="2:20">
@@ -24754,7 +24672,7 @@
         <v>1.2700000000000062</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S10" s="35">
         <v>58.93</v>
@@ -24808,7 +24726,7 @@
         <v>0.87557603686636576</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S11" s="35">
         <v>19.86</v>
@@ -24862,7 +24780,7 @@
         <v>1.0669585115925122</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S12" s="35">
         <v>102.22</v>
@@ -25291,30 +25209,30 @@
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="462" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D24" s="463"/>
       <c r="E24" s="463"/>
       <c r="F24" s="464"/>
       <c r="G24" s="497" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H24" s="497"/>
       <c r="I24" s="497"/>
       <c r="J24" s="498"/>
       <c r="K24" s="499" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L24" s="500"/>
       <c r="M24" s="501" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N24" s="500"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
       <c r="C25" s="458" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D25" s="458" t="s">
         <v>80</v>
@@ -25353,10 +25271,10 @@
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="450" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D26" s="450" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E26" s="452">
         <v>91</v>
@@ -25392,10 +25310,10 @@
     </row>
     <row r="27" spans="3:21">
       <c r="C27" s="450" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D27" s="450" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E27" s="452">
         <v>8.6999999999999993</v>
@@ -25432,10 +25350,10 @@
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="454" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D28" s="454" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E28" s="456">
         <v>108</v>
@@ -25472,7 +25390,7 @@
     </row>
     <row r="29" spans="3:21" s="216" customFormat="1">
       <c r="C29" s="52" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29"/>
@@ -25504,7 +25422,7 @@
     </row>
     <row r="31" spans="3:21" s="216" customFormat="1">
       <c r="C31" s="471" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D31" s="471"/>
       <c r="E31" s="475">
@@ -25555,7 +25473,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D32" s="473" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E32" s="468">
         <f>E26/Conversions!$C$10</f>
@@ -25605,7 +25523,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D33" s="451" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E33" s="465">
         <f>E27/Conversions!$C$10</f>
@@ -25655,7 +25573,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D34" s="455" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E34" s="470">
         <f>E28/Conversions!$C$10</f>
@@ -25716,7 +25634,7 @@
     </row>
     <row r="36" spans="3:20">
       <c r="C36" s="471" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D36" s="471"/>
       <c r="E36" s="475">
@@ -25767,7 +25685,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D37" s="473" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E37" s="468">
         <f>E32/Conversions!$C$5</f>
@@ -25817,7 +25735,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D38" s="451" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E38" s="465">
         <f>E33/Conversions!$C$3</f>
@@ -25867,7 +25785,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D39" s="455" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E39" s="470">
         <f>E34/(Conversions!$C$2*1000)</f>
@@ -25947,30 +25865,30 @@
     </row>
     <row r="42" spans="3:20">
       <c r="C42" s="462" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D42" s="463"/>
       <c r="E42" s="463"/>
       <c r="F42" s="464"/>
       <c r="G42" s="497" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H42" s="497"/>
       <c r="I42" s="497"/>
       <c r="J42" s="498"/>
       <c r="K42" s="499" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L42" s="500"/>
       <c r="M42" s="501" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N42" s="500"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
       <c r="C43" s="458" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D43" s="458" t="s">
         <v>80</v>
@@ -26009,10 +25927,10 @@
     </row>
     <row r="44" spans="3:20">
       <c r="C44" s="450" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D44" s="450" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E44" s="452">
         <v>90</v>
@@ -26050,10 +25968,10 @@
     </row>
     <row r="45" spans="3:20">
       <c r="C45" s="450" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D45" s="450" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E45" s="452">
         <v>8.6</v>
@@ -26091,10 +26009,10 @@
     </row>
     <row r="46" spans="3:20">
       <c r="C46" s="454" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D46" s="454" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E46" s="456">
         <v>106</v>
@@ -26132,7 +26050,7 @@
     </row>
     <row r="47" spans="3:20">
       <c r="C47" s="52" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="442"/>
@@ -26168,7 +26086,7 @@
     </row>
     <row r="49" spans="3:20">
       <c r="C49" s="471" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D49" s="471"/>
       <c r="E49" s="475">
@@ -26221,7 +26139,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D50" s="473" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E50" s="468">
         <f>E44/Conversions!$C$11</f>
@@ -26273,7 +26191,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D51" s="451" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E51" s="465">
         <f>E45/Conversions!$C$11</f>
@@ -26325,7 +26243,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D52" s="455" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E52" s="470">
         <f>E46/Conversions!$C$11</f>
@@ -26390,7 +26308,7 @@
     </row>
     <row r="54" spans="3:20">
       <c r="C54" s="471" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D54" s="471"/>
       <c r="E54" s="475">
@@ -26442,7 +26360,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D55" s="473" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E55" s="468">
         <f>E50/Conversions!$C$5</f>
@@ -26493,7 +26411,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D56" s="451" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E56" s="465">
         <f>E51/Conversions!$C$3</f>
@@ -26544,7 +26462,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D57" s="455" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E57" s="470">
         <f>E52/(Conversions!$C$2*1000)</f>
@@ -26783,7 +26701,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:W62"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -26823,13 +26741,13 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>39</v>
@@ -26858,7 +26776,7 @@
     </row>
     <row r="4" spans="2:12" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="B4" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>60</v>
@@ -27550,16 +27468,16 @@
     </row>
     <row r="23" spans="2:18" ht="30.75" customHeight="1">
       <c r="B23" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>39</v>
@@ -27594,7 +27512,7 @@
     </row>
     <row r="24" spans="2:18" ht="26.25" thickBot="1">
       <c r="B24" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>60</v>
@@ -27603,7 +27521,7 @@
         <v>48</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>49</v>
@@ -27673,7 +27591,7 @@
         <v>35.031244673834173</v>
       </c>
       <c r="M25" s="490" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -27716,13 +27634,13 @@
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>39</v>
@@ -27751,7 +27669,7 @@
     </row>
     <row r="29" spans="2:18" ht="15.75" thickBot="1">
       <c r="B29" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>60</v>
@@ -28177,13 +28095,13 @@
     </row>
     <row r="41" spans="2:23">
       <c r="B41" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>39</v>
@@ -28228,7 +28146,7 @@
     </row>
     <row r="42" spans="2:23" ht="15.75" thickBot="1">
       <c r="B42" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>60</v>
@@ -28328,7 +28246,7 @@
         <v>5</v>
       </c>
       <c r="O43" s="87" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P43" s="76"/>
       <c r="R43"/>
@@ -28618,7 +28536,7 @@
         <v>5</v>
       </c>
       <c r="O48" s="87" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P48" s="76"/>
       <c r="R48"/>
@@ -29402,10 +29320,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B2:O36"/>
+  <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -29448,7 +29366,7 @@
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -29472,10 +29390,10 @@
         <v>450</v>
       </c>
       <c r="J3" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>595</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>596</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>222</v>
@@ -29486,7 +29404,7 @@
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1">
       <c r="B4" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>47</v>
@@ -29549,15 +29467,15 @@
         <v>115.21735253047301</v>
       </c>
       <c r="J5" s="81">
+        <f>C31*Conversions!C2</f>
+        <v>82.479960000000005</v>
+      </c>
+      <c r="K5" s="81">
         <f>C32*Conversions!C2</f>
-        <v>82.479960000000005</v>
-      </c>
-      <c r="K5" s="81">
+        <v>33.494399999999999</v>
+      </c>
+      <c r="L5" s="81">
         <f>C33*Conversions!C2</f>
-        <v>33.494399999999999</v>
-      </c>
-      <c r="L5" s="81">
-        <f>C34*Conversions!C2</f>
         <v>25.120800000000003</v>
       </c>
       <c r="M5" s="80">
@@ -29698,10 +29616,10 @@
         <v>237</v>
       </c>
       <c r="J9" s="270" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K9" s="270" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L9" s="173" t="s">
         <v>236</v>
@@ -29776,7 +29694,7 @@
     </row>
     <row r="14" spans="2:15" ht="25.5">
       <c r="B14" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>2</v>
@@ -29806,7 +29724,7 @@
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1">
       <c r="B15" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>47</v>
@@ -30041,80 +29959,59 @@
       </c>
       <c r="O23" s="148"/>
     </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="20" t="str">
-        <f>Processes!C83</f>
-        <v>IE,National</v>
-      </c>
-      <c r="C24" s="20" t="str">
-        <f>Processes!D83</f>
-        <v>MINAMBHET</v>
-      </c>
-      <c r="D24" s="20" t="str">
-        <f>Processes!E83</f>
-        <v>Domestic Potential of Ambient Heat</v>
-      </c>
-      <c r="E24" s="20" t="str">
-        <f>Commodities!C52</f>
-        <v>AMBHET</v>
-      </c>
-      <c r="F24" s="215"/>
-      <c r="G24" s="215"/>
-      <c r="H24" s="215"/>
+    <row r="28" spans="2:15">
+      <c r="B28" s="64" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="494" t="s">
+        <v>598</v>
+      </c>
+      <c r="C29" s="492" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="494" t="s">
-        <v>599</v>
-      </c>
-      <c r="C30" s="492" t="s">
-        <v>594</v>
+      <c r="B30" s="495">
+        <v>2019</v>
+      </c>
+      <c r="C30" s="491">
+        <v>2500</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="495">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C31" s="491">
-        <v>2500</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="495">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C32" s="491">
-        <v>1970</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="495">
-        <v>2025</v>
-      </c>
-      <c r="C33" s="491">
-        <v>800</v>
+      <c r="B33" s="496">
+        <v>2027</v>
+      </c>
+      <c r="C33" s="493">
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="496">
-        <v>2027</v>
-      </c>
-      <c r="C34" s="493">
-        <v>600</v>
+      <c r="B34" s="215" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="215" t="s">
+      <c r="B35" s="442" t="s">
         <v>597</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="442" t="s">
-        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -30129,9 +30026,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30281,26 +30181,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30324,9 +30213,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C40DCC4-037F-414D-95C1-EE8D81A7A181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C32F564-0838-40E0-B18C-626BC3D2DFB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="22" r:id="rId1"/>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="601">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -1948,9 +1948,6 @@
   </si>
   <si>
     <t>\I: Fuel Technologies</t>
-  </si>
-  <si>
-    <t>PJ_a</t>
   </si>
   <si>
     <t>NUCURM</t>
@@ -7265,13 +7262,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="442" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="444" t="s">
         <v>471</v>
       </c>
-      <c r="C5" s="444" t="s">
+      <c r="D5" s="444" t="s">
         <v>472</v>
-      </c>
-      <c r="D5" s="444" t="s">
-        <v>473</v>
       </c>
       <c r="E5" s="443" t="str">
         <f>A11</f>
@@ -7380,7 +7377,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="442" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C6" s="443" t="str">
         <f>C5</f>
@@ -7497,7 +7494,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="442" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C7" s="443" t="str">
         <f>"*"&amp;C5</f>
@@ -7617,220 +7614,220 @@
         <v>294</v>
       </c>
       <c r="B10" s="445" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="446" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="446" t="s">
         <v>477</v>
-      </c>
-      <c r="B11" s="446" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="447" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" s="447" t="s">
         <v>479</v>
-      </c>
-      <c r="B12" s="447" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="447" t="s">
+        <v>480</v>
+      </c>
+      <c r="B13" s="447" t="s">
         <v>481</v>
-      </c>
-      <c r="B13" s="447" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="447" t="s">
+        <v>482</v>
+      </c>
+      <c r="B14" s="447" t="s">
         <v>483</v>
-      </c>
-      <c r="B14" s="447" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="447" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" s="447" t="s">
         <v>485</v>
-      </c>
-      <c r="B15" s="447" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="447" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" s="447" t="s">
         <v>487</v>
-      </c>
-      <c r="B16" s="447" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="447" t="s">
+        <v>488</v>
+      </c>
+      <c r="B17" s="447" t="s">
         <v>489</v>
-      </c>
-      <c r="B17" s="447" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="447" t="s">
+        <v>490</v>
+      </c>
+      <c r="B18" s="447" t="s">
         <v>491</v>
-      </c>
-      <c r="B18" s="447" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="447" t="s">
+        <v>492</v>
+      </c>
+      <c r="B19" s="447" t="s">
         <v>493</v>
-      </c>
-      <c r="B19" s="447" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="447" t="s">
+        <v>494</v>
+      </c>
+      <c r="B20" s="447" t="s">
         <v>495</v>
-      </c>
-      <c r="B20" s="447" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="447" t="s">
+        <v>496</v>
+      </c>
+      <c r="B21" s="447" t="s">
         <v>497</v>
-      </c>
-      <c r="B21" s="447" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="447" t="s">
+        <v>498</v>
+      </c>
+      <c r="B22" s="447" t="s">
         <v>499</v>
-      </c>
-      <c r="B22" s="447" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="447" t="s">
+        <v>500</v>
+      </c>
+      <c r="B23" s="447" t="s">
         <v>501</v>
-      </c>
-      <c r="B23" s="447" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="447" t="s">
+        <v>502</v>
+      </c>
+      <c r="B24" s="447" t="s">
         <v>503</v>
-      </c>
-      <c r="B24" s="447" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="447" t="s">
+        <v>504</v>
+      </c>
+      <c r="B25" s="447" t="s">
         <v>505</v>
-      </c>
-      <c r="B25" s="447" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="447" t="s">
+        <v>506</v>
+      </c>
+      <c r="B26" s="447" t="s">
         <v>507</v>
-      </c>
-      <c r="B26" s="447" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="447" t="s">
+        <v>508</v>
+      </c>
+      <c r="B27" s="447" t="s">
         <v>509</v>
-      </c>
-      <c r="B27" s="447" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="447" t="s">
+        <v>510</v>
+      </c>
+      <c r="B28" s="447" t="s">
         <v>511</v>
-      </c>
-      <c r="B28" s="447" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="447" t="s">
+        <v>512</v>
+      </c>
+      <c r="B29" s="447" t="s">
         <v>513</v>
-      </c>
-      <c r="B29" s="447" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="447" t="s">
+        <v>514</v>
+      </c>
+      <c r="B30" s="447" t="s">
         <v>515</v>
-      </c>
-      <c r="B30" s="447" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="447" t="s">
+        <v>516</v>
+      </c>
+      <c r="B31" s="447" t="s">
         <v>517</v>
-      </c>
-      <c r="B31" s="447" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="447" t="s">
+        <v>518</v>
+      </c>
+      <c r="B32" s="447" t="s">
         <v>519</v>
-      </c>
-      <c r="B32" s="447" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="447" t="s">
+        <v>520</v>
+      </c>
+      <c r="B33" s="447" t="s">
         <v>521</v>
-      </c>
-      <c r="B33" s="447" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="447" t="s">
+        <v>522</v>
+      </c>
+      <c r="B34" s="447" t="s">
         <v>523</v>
-      </c>
-      <c r="B34" s="447" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="447" t="s">
+        <v>524</v>
+      </c>
+      <c r="B35" s="447" t="s">
         <v>525</v>
-      </c>
-      <c r="B35" s="447" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="447" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36" s="447" t="s">
         <v>527</v>
-      </c>
-      <c r="B36" s="447" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="448" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -7906,7 +7903,7 @@
     </row>
     <row r="3" spans="2:18">
       <c r="B3" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>2</v>
@@ -7926,7 +7923,7 @@
     </row>
     <row r="4" spans="2:18" ht="13.5" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>60</v>
@@ -8751,7 +8748,7 @@
     </row>
     <row r="3" spans="2:26" ht="25.5">
       <c r="B3" s="151" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C3" s="151" t="s">
         <v>2</v>
@@ -8766,19 +8763,19 @@
         <v>39</v>
       </c>
       <c r="G3" s="150" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H3" s="150" t="s">
         <v>234</v>
       </c>
       <c r="I3" s="150" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J3" s="150" t="s">
+        <v>448</v>
+      </c>
+      <c r="K3" s="149" t="s">
         <v>449</v>
-      </c>
-      <c r="K3" s="149" t="s">
-        <v>450</v>
       </c>
       <c r="L3" s="149" t="s">
         <v>222</v>
@@ -9289,7 +9286,7 @@
     </row>
     <row r="22" spans="3:30">
       <c r="C22" s="182" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D22" s="439">
         <f>1/SUM(E24:E35)</f>
@@ -9471,8 +9468,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9509,7 +9506,7 @@
     </row>
     <row r="3" spans="2:20" ht="25.5">
       <c r="B3" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -9539,7 +9536,7 @@
         <v>46</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>65</v>
@@ -9553,7 +9550,7 @@
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1">
       <c r="B4" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>47</v>
@@ -13582,7 +13579,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="93" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B1" s="93"/>
     </row>
@@ -13591,7 +13588,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C2" s="178">
         <v>4.1868000000000002E-2</v>
@@ -13602,10 +13599,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="178" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C3" s="178">
         <v>1.0550999999999999</v>
@@ -13619,22 +13616,22 @@
         <v>94</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C4" s="178">
         <v>7.33</v>
       </c>
       <c r="D4" s="178" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E4" s="472"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="178" t="s">
+        <v>552</v>
+      </c>
+      <c r="B5" s="92" t="s">
         <v>553</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>554</v>
       </c>
       <c r="C5" s="178">
         <f>C2/C4*1000</f>
@@ -13646,35 +13643,35 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="93" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="178" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C10" s="178">
         <v>1.1194745098039223</v>
       </c>
       <c r="D10" s="178" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="217" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C11" s="217">
         <v>1.1809545098039216</v>
       </c>
       <c r="D11" s="217" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -13738,12 +13735,12 @@
     <col min="44" max="16384" width="9.140625" style="186"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="111" thickBot="1">
+    <row r="1" spans="1:43" ht="109.5" thickBot="1">
       <c r="A1" s="290" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="289" t="s">
         <v>444</v>
-      </c>
-      <c r="B1" s="289" t="s">
-        <v>445</v>
       </c>
       <c r="C1" s="291" t="s">
         <v>167</v>
@@ -13779,7 +13776,7 @@
         <v>177</v>
       </c>
       <c r="N1" s="435" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O1" s="287" t="s">
         <v>178</v>
@@ -13830,10 +13827,10 @@
         <v>193</v>
       </c>
       <c r="AE1" s="436" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF1" s="433" t="s">
         <v>461</v>
-      </c>
-      <c r="AF1" s="433" t="s">
-        <v>462</v>
       </c>
       <c r="AG1" s="287" t="s">
         <v>194</v>
@@ -13842,19 +13839,19 @@
         <v>195</v>
       </c>
       <c r="AI1" s="436" t="s">
+        <v>462</v>
+      </c>
+      <c r="AJ1" s="433" t="s">
         <v>463</v>
       </c>
-      <c r="AJ1" s="433" t="s">
+      <c r="AK1" s="436" t="s">
         <v>464</v>
       </c>
-      <c r="AK1" s="436" t="s">
+      <c r="AL1" s="433" t="s">
         <v>465</v>
       </c>
-      <c r="AL1" s="433" t="s">
+      <c r="AM1" s="434" t="s">
         <v>466</v>
-      </c>
-      <c r="AM1" s="434" t="s">
-        <v>467</v>
       </c>
       <c r="AN1" s="288" t="s">
         <v>196</v>
@@ -16354,19 +16351,19 @@
       </c>
       <c r="C2" s="234"/>
       <c r="E2" s="233" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F2" s="234"/>
       <c r="I2" s="233" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J2" s="234"/>
       <c r="M2" s="233" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N2" s="234"/>
       <c r="P2" s="233" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q2" s="234"/>
     </row>
@@ -16413,25 +16410,25 @@
         <v>9</v>
       </c>
       <c r="F4" s="236" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I4" s="236" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J4" s="236" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M4" s="236" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N4" s="236" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P4" s="236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="236" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="2:18">
@@ -16445,23 +16442,23 @@
         <v>13</v>
       </c>
       <c r="F5" s="236" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I5" s="236" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J5" s="236"/>
       <c r="M5" s="236" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N5" s="236" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P5" s="236" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q5" s="236" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="231" customFormat="1">
@@ -16471,13 +16468,13 @@
         <v>63</v>
       </c>
       <c r="F6" s="236" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I6" s="231" t="s">
+        <v>441</v>
+      </c>
+      <c r="J6" s="231" t="s">
         <v>442</v>
-      </c>
-      <c r="J6" s="231" t="s">
-        <v>443</v>
       </c>
       <c r="M6" s="236"/>
       <c r="N6" s="236"/>
@@ -16488,16 +16485,16 @@
       <c r="B7" s="236"/>
       <c r="C7" s="236"/>
       <c r="E7" s="236" t="s">
+        <v>438</v>
+      </c>
+      <c r="F7" s="236" t="s">
         <v>439</v>
       </c>
-      <c r="F7" s="236" t="s">
-        <v>440</v>
-      </c>
       <c r="I7" s="236" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J7" s="236" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P7" s="234"/>
       <c r="Q7" s="234"/>
@@ -16506,34 +16503,34 @@
       <c r="B8" s="234"/>
       <c r="C8" s="234"/>
       <c r="E8" s="236" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F8" s="236" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I8" s="236" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J8" s="236" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="234" customFormat="1">
       <c r="E9" s="236"/>
       <c r="F9" s="236"/>
       <c r="I9" s="234" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J9" s="236" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="2:18" s="234" customFormat="1">
       <c r="I10" s="236" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J10" s="236" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="18.75">
@@ -16542,7 +16539,7 @@
       </c>
       <c r="C11" s="234"/>
       <c r="E11" s="233" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F11" s="234"/>
       <c r="G11" s="234"/>
@@ -16551,7 +16548,7 @@
       <c r="J11" s="234"/>
       <c r="K11" s="234"/>
       <c r="L11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M11" s="233" t="s">
         <v>352</v>
@@ -16581,7 +16578,7 @@
         <v>360</v>
       </c>
       <c r="J12" s="235" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K12" s="235" t="s">
         <v>359</v>
@@ -16628,7 +16625,7 @@
         <v>353</v>
       </c>
       <c r="N13" s="236" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="2:18">
@@ -16663,10 +16660,10 @@
         <v>13</v>
       </c>
       <c r="M14" s="236" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N14" s="236" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="2:18">
@@ -16704,7 +16701,7 @@
         <v>354</v>
       </c>
       <c r="N15" s="236" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="2:18">
@@ -16739,10 +16736,10 @@
         <v>13</v>
       </c>
       <c r="M16" s="236" t="s">
+        <v>410</v>
+      </c>
+      <c r="N16" s="215" t="s">
         <v>411</v>
-      </c>
-      <c r="N16" s="215" t="s">
-        <v>412</v>
       </c>
       <c r="O16" s="234"/>
       <c r="P16" s="234"/>
@@ -16784,7 +16781,7 @@
         <v>355</v>
       </c>
       <c r="N17" s="250" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -16822,7 +16819,7 @@
         <v>356</v>
       </c>
       <c r="N18" s="250" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="2:14">
@@ -16857,10 +16854,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="236" t="s">
+        <v>390</v>
+      </c>
+      <c r="N19" s="250" t="s">
         <v>391</v>
-      </c>
-      <c r="N19" s="250" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -16895,18 +16892,18 @@
         <v>13</v>
       </c>
       <c r="M20" s="236" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N20" s="215" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="236" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" s="236" t="s">
         <v>396</v>
-      </c>
-      <c r="C21" s="236" t="s">
-        <v>397</v>
       </c>
       <c r="E21" s="236" t="str">
         <f t="shared" ref="E21:E22" si="7">I21&amp;H21&amp;J21</f>
@@ -16933,10 +16930,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="236" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N21" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="2:14">
@@ -16971,10 +16968,10 @@
         <v>13</v>
       </c>
       <c r="M22" s="236" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N22" s="231" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="2:14">
@@ -17047,7 +17044,7 @@
         <v>318</v>
       </c>
       <c r="C25" s="236" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E25" s="236" t="str">
         <f>I25&amp;H25&amp;J25</f>
@@ -17146,7 +17143,7 @@
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="236" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C28" s="236" t="s">
         <v>323</v>
@@ -17181,7 +17178,7 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="236" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C29" s="236" t="s">
         <v>324</v>
@@ -17749,10 +17746,10 @@
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="253" t="s">
+        <v>383</v>
+      </c>
+      <c r="C45" s="236" t="s">
         <v>384</v>
-      </c>
-      <c r="C45" s="236" t="s">
-        <v>385</v>
       </c>
       <c r="E45" s="236" t="str">
         <f t="shared" si="11"/>
@@ -18385,7 +18382,7 @@
     </row>
     <row r="63" spans="2:20">
       <c r="B63" s="252" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C63" s="236" t="s">
         <v>280</v>
@@ -18595,10 +18592,10 @@
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="252" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C69" s="236" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E69" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18738,7 +18735,7 @@
         <v>76</v>
       </c>
       <c r="C73" s="236" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E73" s="236" t="str">
         <f t="shared" si="18"/>
@@ -18840,10 +18837,10 @@
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="279" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C76" s="280" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E76" s="236" t="str">
         <f t="shared" ref="E76:E84" si="19">I76&amp;H76&amp;J76</f>
@@ -18878,7 +18875,7 @@
         <v>139</v>
       </c>
       <c r="C77" s="236" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E77" s="236" t="str">
         <f t="shared" si="19"/>
@@ -18910,10 +18907,10 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="252" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C78" s="236" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E78" s="236" t="str">
         <f t="shared" si="19"/>
@@ -18945,10 +18942,10 @@
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="252" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C79" s="236" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E79" s="236" t="str">
         <f t="shared" si="19"/>
@@ -18980,10 +18977,10 @@
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="252" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C80" s="236" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E80" s="236" t="str">
         <f t="shared" si="19"/>
@@ -19326,10 +19323,10 @@
     </row>
     <row r="90" spans="2:12">
       <c r="B90" s="252" t="s">
+        <v>388</v>
+      </c>
+      <c r="C90" s="236" t="s">
         <v>389</v>
-      </c>
-      <c r="C90" s="236" t="s">
-        <v>390</v>
       </c>
       <c r="E90" s="236" t="str">
         <f>I90&amp;$B$4&amp;H90&amp;J90</f>
@@ -19358,10 +19355,10 @@
     </row>
     <row r="91" spans="2:12">
       <c r="B91" s="253" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C91" s="236" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E91" s="236" t="str">
         <f t="shared" ref="E91:E94" si="27">I91&amp;$B$4&amp;H91&amp;J91</f>
@@ -19390,10 +19387,10 @@
     </row>
     <row r="92" spans="2:12">
       <c r="B92" s="252" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C92" s="236" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E92" s="236" t="str">
         <f t="shared" si="27"/>
@@ -20177,7 +20174,7 @@
         <v>BIOJKR</v>
       </c>
       <c r="D36" s="282" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E36" s="243" t="s">
         <v>10</v>
@@ -21179,8 +21176,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:W91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21230,7 +21227,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="235" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D4" s="235" t="s">
         <v>2</v>
@@ -21293,7 +21290,7 @@
     </row>
     <row r="6" spans="2:21" s="231" customFormat="1">
       <c r="B6" s="247" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C6" s="246"/>
       <c r="D6" s="246"/>
@@ -21335,7 +21332,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H7" s="236"/>
       <c r="I7" s="260"/>
@@ -21362,7 +21359,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H8" s="261"/>
       <c r="I8" s="260"/>
@@ -21389,7 +21386,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H9" s="261"/>
       <c r="I9" s="260"/>
@@ -21416,7 +21413,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H10" s="261"/>
       <c r="I10" s="260"/>
@@ -21443,7 +21440,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H11" s="261"/>
       <c r="I11" s="260"/>
@@ -21470,7 +21467,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H12" s="261"/>
       <c r="I12" s="260"/>
@@ -21497,7 +21494,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H13" s="261"/>
       <c r="I13" s="260"/>
@@ -21524,7 +21521,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H14" s="261"/>
       <c r="I14" s="260"/>
@@ -21551,7 +21548,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H15" s="261"/>
       <c r="I15" s="260"/>
@@ -21578,7 +21575,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H16" s="261"/>
       <c r="I16" s="260"/>
@@ -21605,7 +21602,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H17" s="236"/>
       <c r="I17" s="236"/>
@@ -21632,7 +21629,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H18" s="260"/>
       <c r="I18" s="260"/>
@@ -21659,11 +21656,9 @@
         <v>10</v>
       </c>
       <c r="G19" s="236" t="s">
-        <v>372</v>
-      </c>
-      <c r="H19" s="261" t="s">
-        <v>72</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="H19" s="261"/>
       <c r="I19" s="260"/>
       <c r="J19" s="263"/>
     </row>
@@ -21688,11 +21683,9 @@
         <v>10</v>
       </c>
       <c r="G20" s="236" t="s">
-        <v>372</v>
-      </c>
-      <c r="H20" s="261" t="s">
-        <v>72</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="H20" s="261"/>
       <c r="I20" s="260"/>
       <c r="J20" s="236"/>
     </row>
@@ -21717,7 +21710,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H21" s="260"/>
       <c r="I21" s="260"/>
@@ -21726,7 +21719,7 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="246" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C22" s="246"/>
       <c r="D22" s="246"/>
@@ -21758,7 +21751,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H23" s="264"/>
       <c r="I23" s="265"/>
@@ -21785,7 +21778,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H24" s="264"/>
       <c r="I24" s="265"/>
@@ -21812,7 +21805,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H25" s="264"/>
       <c r="I25" s="265"/>
@@ -21839,7 +21832,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H26" s="255"/>
       <c r="I26" s="265"/>
@@ -21866,7 +21859,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H27" s="255"/>
       <c r="I27" s="265"/>
@@ -21893,7 +21886,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H28" s="255"/>
       <c r="I28" s="265"/>
@@ -21920,7 +21913,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H29" s="255"/>
       <c r="I29" s="265"/>
@@ -21947,7 +21940,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H30" s="255"/>
       <c r="I30" s="265"/>
@@ -21974,7 +21967,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="280" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H31" s="255"/>
       <c r="I31" s="265"/>
@@ -22001,7 +21994,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H32" s="255"/>
       <c r="I32" s="265"/>
@@ -22028,7 +22021,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H33" s="255"/>
       <c r="I33" s="265"/>
@@ -22055,7 +22048,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H34" s="255"/>
       <c r="I34" s="265"/>
@@ -22094,7 +22087,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H35" s="256"/>
       <c r="I35" s="265"/>
@@ -22133,7 +22126,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H36" s="256"/>
       <c r="I36" s="265"/>
@@ -22172,7 +22165,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H37" s="256"/>
       <c r="I37" s="265"/>
@@ -22211,7 +22204,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H38" s="256"/>
       <c r="I38" s="265"/>
@@ -22239,7 +22232,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H39" s="256"/>
       <c r="I39" s="267"/>
@@ -22260,7 +22253,7 @@
     </row>
     <row r="40" spans="2:23" s="234" customFormat="1">
       <c r="B40" s="246" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C40" s="246"/>
       <c r="D40" s="246"/>
@@ -22304,11 +22297,9 @@
         <v>10</v>
       </c>
       <c r="G41" s="236" t="s">
-        <v>372</v>
-      </c>
-      <c r="H41" s="255" t="s">
-        <v>72</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="H41" s="255"/>
       <c r="I41" s="265"/>
       <c r="J41" s="255"/>
       <c r="L41"/>
@@ -22345,11 +22336,9 @@
         <v>10</v>
       </c>
       <c r="G42" s="236" t="s">
-        <v>372</v>
-      </c>
-      <c r="H42" s="255" t="s">
-        <v>72</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="H42" s="255"/>
       <c r="I42" s="265"/>
       <c r="J42" s="255"/>
       <c r="L42"/>
@@ -22386,7 +22375,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H43" s="255"/>
       <c r="I43" s="265"/>
@@ -22425,7 +22414,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H44" s="255"/>
       <c r="I44" s="265"/>
@@ -22464,7 +22453,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H45" s="255"/>
       <c r="I45" s="265"/>
@@ -22503,7 +22492,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H46" s="256"/>
       <c r="I46" s="265"/>
@@ -22530,7 +22519,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H47" s="256"/>
       <c r="I47" s="265"/>
@@ -22557,7 +22546,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H48" s="256"/>
       <c r="I48" s="265"/>
@@ -22592,7 +22581,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H49" s="256"/>
       <c r="I49" s="265"/>
@@ -22627,7 +22616,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H50" s="256"/>
       <c r="I50" s="267"/>
@@ -22655,7 +22644,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H51" s="236"/>
       <c r="I51" s="236"/>
@@ -22687,7 +22676,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H52" s="236"/>
       <c r="I52" s="236"/>
@@ -22719,7 +22708,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H53" s="236"/>
       <c r="I53" s="236"/>
@@ -22751,7 +22740,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H54" s="236"/>
       <c r="I54" s="236"/>
@@ -22783,7 +22772,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H55" s="236"/>
       <c r="I55" s="236"/>
@@ -22810,7 +22799,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H56" s="236"/>
       <c r="I56" s="236"/>
@@ -22837,7 +22826,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H57" s="236"/>
       <c r="I57" s="236"/>
@@ -22864,7 +22853,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H58" s="236"/>
       <c r="I58" s="236"/>
@@ -22891,7 +22880,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H59" s="236"/>
       <c r="I59" s="236"/>
@@ -22918,7 +22907,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H60" s="236"/>
       <c r="I60" s="236"/>
@@ -22945,7 +22934,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H61" s="236"/>
       <c r="I61" s="236"/>
@@ -22972,7 +22961,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H62" s="236"/>
       <c r="I62" s="236"/>
@@ -22999,7 +22988,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H63" s="236"/>
       <c r="I63" s="236"/>
@@ -23026,7 +23015,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H64" s="236"/>
       <c r="I64" s="236"/>
@@ -23053,7 +23042,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H65" s="236"/>
       <c r="I65" s="236"/>
@@ -23080,7 +23069,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H66" s="236"/>
       <c r="I66" s="236"/>
@@ -23107,7 +23096,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H67" s="236"/>
       <c r="I67" s="236"/>
@@ -23134,7 +23123,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H68" s="236"/>
       <c r="I68" s="236"/>
@@ -23161,7 +23150,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H69" s="236"/>
       <c r="I69" s="236"/>
@@ -23188,7 +23177,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H70" s="236"/>
       <c r="I70" s="236"/>
@@ -23215,7 +23204,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H71" s="236"/>
       <c r="I71" s="236"/>
@@ -23242,7 +23231,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H72" s="236"/>
       <c r="I72" s="236"/>
@@ -23269,7 +23258,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H73" s="236"/>
       <c r="I73" s="236"/>
@@ -23296,7 +23285,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H74" s="236"/>
       <c r="I74" s="236"/>
@@ -23323,7 +23312,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H75" s="236"/>
       <c r="I75" s="236"/>
@@ -23350,7 +23339,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H76" s="236"/>
       <c r="I76" s="236"/>
@@ -23377,7 +23366,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H77" s="236"/>
       <c r="I77" s="236"/>
@@ -23404,7 +23393,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H78" s="236"/>
       <c r="I78" s="236"/>
@@ -23431,7 +23420,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H79" s="236"/>
       <c r="I79" s="236"/>
@@ -23458,7 +23447,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H80" s="236"/>
       <c r="I80" s="236"/>
@@ -23483,7 +23472,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H81" s="236"/>
       <c r="I81" s="236"/>
@@ -23507,7 +23496,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H82" s="236"/>
       <c r="I82" s="236"/>
@@ -23534,7 +23523,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H83" s="236" t="s">
         <v>64</v>
@@ -23564,7 +23553,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H84" s="236" t="s">
         <v>64</v>
@@ -23593,7 +23582,7 @@
         <v>10</v>
       </c>
       <c r="G85" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H85" s="256"/>
       <c r="I85" s="267" t="str">
@@ -23636,11 +23625,9 @@
         <v>10</v>
       </c>
       <c r="G87" s="236" t="s">
-        <v>372</v>
-      </c>
-      <c r="H87" s="256" t="s">
-        <v>72</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="H87" s="256"/>
       <c r="I87" s="267"/>
       <c r="J87" s="256"/>
     </row>
@@ -23665,7 +23652,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H88" s="249"/>
       <c r="I88" s="249"/>
@@ -23692,7 +23679,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H89" s="249"/>
       <c r="I89" s="249"/>
@@ -23719,7 +23706,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H90" s="249"/>
       <c r="I90" s="249"/>
@@ -23746,7 +23733,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="236" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H91" s="249" t="s">
         <v>64</v>
@@ -23766,7 +23753,7 @@
   <dimension ref="B1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24057,7 +24044,7 @@
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="221" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C4" s="221" t="s">
         <v>2</v>
@@ -24078,7 +24065,7 @@
         <v>240</v>
       </c>
       <c r="I4" s="223" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J4" s="223" t="s">
         <v>241</v>
@@ -24326,7 +24313,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="18.75">
       <c r="B1" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="4"/>
@@ -24334,7 +24321,7 @@
     <row r="2" spans="2:20" s="216" customFormat="1"/>
     <row r="3" spans="2:20" ht="18.75">
       <c r="G3" s="474" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
@@ -24350,37 +24337,37 @@
     </row>
     <row r="4" spans="2:20">
       <c r="C4" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>567</v>
       </c>
       <c r="N4" s="62" t="s">
         <v>82</v>
@@ -24388,7 +24375,7 @@
     </row>
     <row r="5" spans="2:20" ht="26.25" thickBot="1">
       <c r="C5" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>47</v>
@@ -24397,7 +24384,7 @@
         <v>48</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>49</v>
@@ -24465,7 +24452,7 @@
         <v>13.293106237838872</v>
       </c>
       <c r="N6" s="215" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="2:20">
@@ -24513,13 +24500,13 @@
         <v>12.890088334941915</v>
       </c>
       <c r="N7" s="215" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="R7" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="T7" s="216" t="s">
         <v>583</v>
-      </c>
-      <c r="T7" s="216" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="8" spans="2:20">
@@ -24567,7 +24554,7 @@
         <v>2.065279967615445</v>
       </c>
       <c r="N8" s="215" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="2:20">
@@ -24618,10 +24605,10 @@
         <v>0.95000000000000495</v>
       </c>
       <c r="R9" s="35" t="s">
+        <v>584</v>
+      </c>
+      <c r="S9" s="35" t="s">
         <v>585</v>
-      </c>
-      <c r="S9" s="35" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="10" spans="2:20">
@@ -24672,7 +24659,7 @@
         <v>1.2700000000000062</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S10" s="35">
         <v>58.93</v>
@@ -24726,7 +24713,7 @@
         <v>0.87557603686636576</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S11" s="35">
         <v>19.86</v>
@@ -24780,7 +24767,7 @@
         <v>1.0669585115925122</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S12" s="35">
         <v>102.22</v>
@@ -25209,30 +25196,30 @@
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="462" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D24" s="463"/>
       <c r="E24" s="463"/>
       <c r="F24" s="464"/>
       <c r="G24" s="497" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H24" s="497"/>
       <c r="I24" s="497"/>
       <c r="J24" s="498"/>
       <c r="K24" s="499" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L24" s="500"/>
       <c r="M24" s="501" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N24" s="500"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
       <c r="C25" s="458" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D25" s="458" t="s">
         <v>80</v>
@@ -25271,10 +25258,10 @@
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="450" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D26" s="450" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E26" s="452">
         <v>91</v>
@@ -25310,10 +25297,10 @@
     </row>
     <row r="27" spans="3:21">
       <c r="C27" s="450" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D27" s="450" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E27" s="452">
         <v>8.6999999999999993</v>
@@ -25350,10 +25337,10 @@
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="454" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D28" s="454" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E28" s="456">
         <v>108</v>
@@ -25390,7 +25377,7 @@
     </row>
     <row r="29" spans="3:21" s="216" customFormat="1">
       <c r="C29" s="52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29"/>
@@ -25422,7 +25409,7 @@
     </row>
     <row r="31" spans="3:21" s="216" customFormat="1">
       <c r="C31" s="471" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D31" s="471"/>
       <c r="E31" s="475">
@@ -25473,7 +25460,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D32" s="473" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E32" s="468">
         <f>E26/Conversions!$C$10</f>
@@ -25523,7 +25510,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D33" s="451" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E33" s="465">
         <f>E27/Conversions!$C$10</f>
@@ -25573,7 +25560,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D34" s="455" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E34" s="470">
         <f>E28/Conversions!$C$10</f>
@@ -25634,7 +25621,7 @@
     </row>
     <row r="36" spans="3:20">
       <c r="C36" s="471" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D36" s="471"/>
       <c r="E36" s="475">
@@ -25685,7 +25672,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D37" s="473" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E37" s="468">
         <f>E32/Conversions!$C$5</f>
@@ -25735,7 +25722,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D38" s="451" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E38" s="465">
         <f>E33/Conversions!$C$3</f>
@@ -25785,7 +25772,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D39" s="455" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E39" s="470">
         <f>E34/(Conversions!$C$2*1000)</f>
@@ -25865,30 +25852,30 @@
     </row>
     <row r="42" spans="3:20">
       <c r="C42" s="462" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D42" s="463"/>
       <c r="E42" s="463"/>
       <c r="F42" s="464"/>
       <c r="G42" s="497" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H42" s="497"/>
       <c r="I42" s="497"/>
       <c r="J42" s="498"/>
       <c r="K42" s="499" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L42" s="500"/>
       <c r="M42" s="501" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N42" s="500"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
       <c r="C43" s="458" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D43" s="458" t="s">
         <v>80</v>
@@ -25927,10 +25914,10 @@
     </row>
     <row r="44" spans="3:20">
       <c r="C44" s="450" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D44" s="450" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E44" s="452">
         <v>90</v>
@@ -25968,10 +25955,10 @@
     </row>
     <row r="45" spans="3:20">
       <c r="C45" s="450" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D45" s="450" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E45" s="452">
         <v>8.6</v>
@@ -26009,10 +25996,10 @@
     </row>
     <row r="46" spans="3:20">
       <c r="C46" s="454" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D46" s="454" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E46" s="456">
         <v>106</v>
@@ -26050,7 +26037,7 @@
     </row>
     <row r="47" spans="3:20">
       <c r="C47" s="52" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="442"/>
@@ -26086,7 +26073,7 @@
     </row>
     <row r="49" spans="3:20">
       <c r="C49" s="471" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D49" s="471"/>
       <c r="E49" s="475">
@@ -26139,7 +26126,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D50" s="473" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E50" s="468">
         <f>E44/Conversions!$C$11</f>
@@ -26191,7 +26178,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D51" s="451" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E51" s="465">
         <f>E45/Conversions!$C$11</f>
@@ -26243,7 +26230,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D52" s="455" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E52" s="470">
         <f>E46/Conversions!$C$11</f>
@@ -26308,7 +26295,7 @@
     </row>
     <row r="54" spans="3:20">
       <c r="C54" s="471" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D54" s="471"/>
       <c r="E54" s="475">
@@ -26360,7 +26347,7 @@
         <v xml:space="preserve">IEA crude oil </v>
       </c>
       <c r="D55" s="473" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E55" s="468">
         <f>E50/Conversions!$C$5</f>
@@ -26411,7 +26398,7 @@
         <v>Natural Gas - EU</v>
       </c>
       <c r="D56" s="451" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E56" s="465">
         <f>E51/Conversions!$C$3</f>
@@ -26462,7 +26449,7 @@
         <v>Steam coal - EU</v>
       </c>
       <c r="D57" s="455" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E57" s="470">
         <f>E52/(Conversions!$C$2*1000)</f>
@@ -26741,13 +26728,13 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>39</v>
@@ -26776,7 +26763,7 @@
     </row>
     <row r="4" spans="2:12" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="B4" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>60</v>
@@ -27468,16 +27455,16 @@
     </row>
     <row r="23" spans="2:18" ht="30.75" customHeight="1">
       <c r="B23" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>39</v>
@@ -27512,7 +27499,7 @@
     </row>
     <row r="24" spans="2:18" ht="26.25" thickBot="1">
       <c r="B24" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>60</v>
@@ -27521,7 +27508,7 @@
         <v>48</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>49</v>
@@ -27591,7 +27578,7 @@
         <v>35.031244673834173</v>
       </c>
       <c r="M25" s="490" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -27634,13 +27621,13 @@
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>39</v>
@@ -27669,7 +27656,7 @@
     </row>
     <row r="29" spans="2:18" ht="15.75" thickBot="1">
       <c r="B29" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>60</v>
@@ -28095,13 +28082,13 @@
     </row>
     <row r="41" spans="2:23">
       <c r="B41" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>39</v>
@@ -28146,7 +28133,7 @@
     </row>
     <row r="42" spans="2:23" ht="15.75" thickBot="1">
       <c r="B42" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>60</v>
@@ -28182,7 +28169,7 @@
         <v>10</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -28246,7 +28233,7 @@
         <v>5</v>
       </c>
       <c r="O43" s="87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P43" s="76"/>
       <c r="R43"/>
@@ -28536,7 +28523,7 @@
         <v>5</v>
       </c>
       <c r="O48" s="87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P48" s="76"/>
       <c r="R48"/>
@@ -29366,7 +29353,7 @@
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -29387,13 +29374,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J3" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>594</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>595</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>222</v>
@@ -29404,7 +29391,7 @@
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1">
       <c r="B4" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>47</v>
@@ -29616,10 +29603,10 @@
         <v>237</v>
       </c>
       <c r="J9" s="270" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K9" s="270" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L9" s="173" t="s">
         <v>236</v>
@@ -29694,7 +29681,7 @@
     </row>
     <row r="14" spans="2:15" ht="25.5">
       <c r="B14" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>2</v>
@@ -29724,7 +29711,7 @@
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1">
       <c r="B15" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>47</v>
@@ -29961,15 +29948,15 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="64" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="494" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C29" s="492" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="2:15">
@@ -30006,12 +29993,12 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="215" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="442" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -30026,12 +30013,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30181,15 +30165,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30213,17 +30208,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_IE_SUP.xlsx
+++ b/VT_IE_SUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB98C45-C266-4F49-AE45-457659364DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7F6441-EBE6-4590-9E9A-9FF434B97AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <sheet name="SEAI-AEA_BioData" sheetId="9" r:id="rId15"/>
     <sheet name="Conversions" sheetId="16" r:id="rId16"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId17"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -869,7 +866,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="619">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -2778,27 +2775,15 @@
     <t>Document type:</t>
   </si>
   <si>
-    <t>Template type</t>
-  </si>
-  <si>
     <t>Sector(s):</t>
   </si>
   <si>
-    <t>Sector name</t>
-  </si>
-  <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Brief description of what this file is for</t>
-  </si>
-  <si>
     <t>Original developer(s):</t>
   </si>
   <si>
-    <t>Full Name(s) (Affiliation, email)</t>
-  </si>
-  <si>
     <t>Current maintainer(s):</t>
   </si>
   <si>
@@ -2818,6 +2803,24 @@
   </si>
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>James Glynn (UCC, james.glynn@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Xiufeng Yue (UCC, xiufeng.yue@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Supply sector (SUP)</t>
+  </si>
+  <si>
+    <t>Base Year Template</t>
+  </si>
+  <si>
+    <t>Specify base year data and define sector structure</t>
   </si>
 </sst>
 </file>
@@ -6332,6 +6335,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="21" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="21" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6370,60 +6427,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="21" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="21" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="21" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -7205,7 +7208,7 @@
                   <a14:compatExt spid="_x0000_s45057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001B00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001B00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7284,19 +7287,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7652,7 +7642,7 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7670,2812 +7660,2816 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="510"/>
-      <c r="B1" s="510"/>
-      <c r="C1" s="510"/>
-      <c r="D1" s="510"/>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
-      <c r="L1" s="511"/>
-      <c r="M1" s="511"/>
-      <c r="N1" s="511"/>
-      <c r="O1" s="511"/>
-      <c r="P1" s="511"/>
-      <c r="Q1" s="511"/>
-      <c r="R1" s="511"/>
-      <c r="S1" s="511"/>
-      <c r="T1" s="511"/>
-      <c r="U1" s="511"/>
-      <c r="V1" s="511"/>
-      <c r="W1" s="511"/>
-      <c r="X1" s="511"/>
-      <c r="Y1" s="511"/>
-      <c r="Z1" s="511"/>
+      <c r="A1" s="497"/>
+      <c r="B1" s="497"/>
+      <c r="C1" s="497"/>
+      <c r="D1" s="497"/>
+      <c r="E1" s="498"/>
+      <c r="F1" s="498"/>
+      <c r="G1" s="498"/>
+      <c r="H1" s="498"/>
+      <c r="I1" s="498"/>
+      <c r="J1" s="498"/>
+      <c r="K1" s="498"/>
+      <c r="L1" s="498"/>
+      <c r="M1" s="498"/>
+      <c r="N1" s="498"/>
+      <c r="O1" s="498"/>
+      <c r="P1" s="498"/>
+      <c r="Q1" s="498"/>
+      <c r="R1" s="498"/>
+      <c r="S1" s="498"/>
+      <c r="T1" s="498"/>
+      <c r="U1" s="498"/>
+      <c r="V1" s="498"/>
+      <c r="W1" s="498"/>
+      <c r="X1" s="498"/>
+      <c r="Y1" s="498"/>
+      <c r="Z1" s="498"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="510"/>
-      <c r="B2" s="510"/>
-      <c r="C2" s="510"/>
-      <c r="D2" s="510"/>
-      <c r="E2" s="511"/>
-      <c r="F2" s="511"/>
-      <c r="G2" s="511"/>
-      <c r="H2" s="511"/>
-      <c r="I2" s="511"/>
-      <c r="J2" s="511"/>
-      <c r="K2" s="511"/>
-      <c r="L2" s="511"/>
-      <c r="M2" s="511"/>
-      <c r="N2" s="511"/>
-      <c r="O2" s="511"/>
-      <c r="P2" s="511"/>
-      <c r="Q2" s="511"/>
-      <c r="R2" s="511"/>
-      <c r="S2" s="511"/>
-      <c r="T2" s="511"/>
-      <c r="U2" s="511"/>
-      <c r="V2" s="511"/>
-      <c r="W2" s="511"/>
-      <c r="X2" s="511"/>
-      <c r="Y2" s="511"/>
-      <c r="Z2" s="511"/>
+      <c r="A2" s="497"/>
+      <c r="B2" s="497"/>
+      <c r="C2" s="497"/>
+      <c r="D2" s="497"/>
+      <c r="E2" s="498"/>
+      <c r="F2" s="498"/>
+      <c r="G2" s="498"/>
+      <c r="H2" s="498"/>
+      <c r="I2" s="498"/>
+      <c r="J2" s="498"/>
+      <c r="K2" s="498"/>
+      <c r="L2" s="498"/>
+      <c r="M2" s="498"/>
+      <c r="N2" s="498"/>
+      <c r="O2" s="498"/>
+      <c r="P2" s="498"/>
+      <c r="Q2" s="498"/>
+      <c r="R2" s="498"/>
+      <c r="S2" s="498"/>
+      <c r="T2" s="498"/>
+      <c r="U2" s="498"/>
+      <c r="V2" s="498"/>
+      <c r="W2" s="498"/>
+      <c r="X2" s="498"/>
+      <c r="Y2" s="498"/>
+      <c r="Z2" s="498"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="510"/>
-      <c r="B3" s="510"/>
-      <c r="C3" s="510"/>
-      <c r="D3" s="510"/>
-      <c r="E3" s="511"/>
-      <c r="F3" s="511"/>
-      <c r="G3" s="511"/>
-      <c r="H3" s="511"/>
-      <c r="I3" s="511"/>
-      <c r="J3" s="511"/>
-      <c r="K3" s="511"/>
-      <c r="L3" s="511"/>
-      <c r="M3" s="511"/>
-      <c r="N3" s="511"/>
-      <c r="O3" s="511"/>
-      <c r="P3" s="511"/>
-      <c r="Q3" s="511"/>
-      <c r="R3" s="511"/>
-      <c r="S3" s="511"/>
-      <c r="T3" s="511"/>
-      <c r="U3" s="511"/>
-      <c r="V3" s="511"/>
-      <c r="W3" s="511"/>
-      <c r="X3" s="511"/>
-      <c r="Y3" s="511"/>
-      <c r="Z3" s="511"/>
+      <c r="A3" s="497"/>
+      <c r="B3" s="497"/>
+      <c r="C3" s="497"/>
+      <c r="D3" s="497"/>
+      <c r="E3" s="498"/>
+      <c r="F3" s="498"/>
+      <c r="G3" s="498"/>
+      <c r="H3" s="498"/>
+      <c r="I3" s="498"/>
+      <c r="J3" s="498"/>
+      <c r="K3" s="498"/>
+      <c r="L3" s="498"/>
+      <c r="M3" s="498"/>
+      <c r="N3" s="498"/>
+      <c r="O3" s="498"/>
+      <c r="P3" s="498"/>
+      <c r="Q3" s="498"/>
+      <c r="R3" s="498"/>
+      <c r="S3" s="498"/>
+      <c r="T3" s="498"/>
+      <c r="U3" s="498"/>
+      <c r="V3" s="498"/>
+      <c r="W3" s="498"/>
+      <c r="X3" s="498"/>
+      <c r="Y3" s="498"/>
+      <c r="Z3" s="498"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="510"/>
-      <c r="B4" s="510"/>
-      <c r="C4" s="510"/>
-      <c r="D4" s="510"/>
-      <c r="E4" s="511"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="511"/>
-      <c r="H4" s="511"/>
-      <c r="I4" s="511"/>
-      <c r="J4" s="511"/>
-      <c r="K4" s="511"/>
-      <c r="L4" s="511"/>
-      <c r="M4" s="511"/>
-      <c r="N4" s="511"/>
-      <c r="O4" s="511"/>
-      <c r="P4" s="511"/>
-      <c r="Q4" s="511"/>
-      <c r="R4" s="511"/>
-      <c r="S4" s="511"/>
-      <c r="T4" s="511"/>
-      <c r="U4" s="511"/>
-      <c r="V4" s="511"/>
-      <c r="W4" s="511"/>
-      <c r="X4" s="511"/>
-      <c r="Y4" s="511"/>
-      <c r="Z4" s="511"/>
+      <c r="A4" s="497"/>
+      <c r="B4" s="497"/>
+      <c r="C4" s="497"/>
+      <c r="D4" s="497"/>
+      <c r="E4" s="498"/>
+      <c r="F4" s="498"/>
+      <c r="G4" s="498"/>
+      <c r="H4" s="498"/>
+      <c r="I4" s="498"/>
+      <c r="J4" s="498"/>
+      <c r="K4" s="498"/>
+      <c r="L4" s="498"/>
+      <c r="M4" s="498"/>
+      <c r="N4" s="498"/>
+      <c r="O4" s="498"/>
+      <c r="P4" s="498"/>
+      <c r="Q4" s="498"/>
+      <c r="R4" s="498"/>
+      <c r="S4" s="498"/>
+      <c r="T4" s="498"/>
+      <c r="U4" s="498"/>
+      <c r="V4" s="498"/>
+      <c r="W4" s="498"/>
+      <c r="X4" s="498"/>
+      <c r="Y4" s="498"/>
+      <c r="Z4" s="498"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="510"/>
-      <c r="B5" s="510"/>
-      <c r="C5" s="510"/>
-      <c r="D5" s="510"/>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="511"/>
-      <c r="J5" s="511"/>
-      <c r="K5" s="511"/>
-      <c r="L5" s="511"/>
-      <c r="M5" s="511"/>
-      <c r="N5" s="511"/>
-      <c r="O5" s="511"/>
-      <c r="P5" s="511"/>
-      <c r="Q5" s="511"/>
-      <c r="R5" s="511"/>
-      <c r="S5" s="511"/>
-      <c r="T5" s="511"/>
-      <c r="U5" s="511"/>
-      <c r="V5" s="511"/>
-      <c r="W5" s="511"/>
-      <c r="X5" s="511"/>
-      <c r="Y5" s="511"/>
-      <c r="Z5" s="511"/>
+      <c r="A5" s="497"/>
+      <c r="B5" s="497"/>
+      <c r="C5" s="497"/>
+      <c r="D5" s="497"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="498"/>
+      <c r="J5" s="498"/>
+      <c r="K5" s="498"/>
+      <c r="L5" s="498"/>
+      <c r="M5" s="498"/>
+      <c r="N5" s="498"/>
+      <c r="O5" s="498"/>
+      <c r="P5" s="498"/>
+      <c r="Q5" s="498"/>
+      <c r="R5" s="498"/>
+      <c r="S5" s="498"/>
+      <c r="T5" s="498"/>
+      <c r="U5" s="498"/>
+      <c r="V5" s="498"/>
+      <c r="W5" s="498"/>
+      <c r="X5" s="498"/>
+      <c r="Y5" s="498"/>
+      <c r="Z5" s="498"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="510"/>
-      <c r="B6" s="510"/>
-      <c r="C6" s="510"/>
-      <c r="D6" s="510"/>
-      <c r="E6" s="511"/>
-      <c r="F6" s="511"/>
-      <c r="G6" s="511"/>
-      <c r="H6" s="511"/>
-      <c r="I6" s="511"/>
-      <c r="J6" s="511"/>
-      <c r="K6" s="511"/>
-      <c r="L6" s="511"/>
-      <c r="M6" s="511"/>
-      <c r="N6" s="511"/>
-      <c r="O6" s="511"/>
-      <c r="P6" s="511"/>
-      <c r="Q6" s="511"/>
-      <c r="R6" s="511"/>
-      <c r="S6" s="511"/>
-      <c r="T6" s="511"/>
-      <c r="U6" s="511"/>
-      <c r="V6" s="511"/>
-      <c r="W6" s="511"/>
-      <c r="X6" s="511"/>
-      <c r="Y6" s="511"/>
-      <c r="Z6" s="511"/>
+      <c r="A6" s="497"/>
+      <c r="B6" s="497"/>
+      <c r="C6" s="497"/>
+      <c r="D6" s="497"/>
+      <c r="E6" s="498"/>
+      <c r="F6" s="498"/>
+      <c r="G6" s="498"/>
+      <c r="H6" s="498"/>
+      <c r="I6" s="498"/>
+      <c r="J6" s="498"/>
+      <c r="K6" s="498"/>
+      <c r="L6" s="498"/>
+      <c r="M6" s="498"/>
+      <c r="N6" s="498"/>
+      <c r="O6" s="498"/>
+      <c r="P6" s="498"/>
+      <c r="Q6" s="498"/>
+      <c r="R6" s="498"/>
+      <c r="S6" s="498"/>
+      <c r="T6" s="498"/>
+      <c r="U6" s="498"/>
+      <c r="V6" s="498"/>
+      <c r="W6" s="498"/>
+      <c r="X6" s="498"/>
+      <c r="Y6" s="498"/>
+      <c r="Z6" s="498"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="510"/>
-      <c r="B7" s="510"/>
-      <c r="C7" s="510"/>
-      <c r="D7" s="510"/>
-      <c r="E7" s="511"/>
-      <c r="F7" s="511"/>
-      <c r="G7" s="511"/>
-      <c r="H7" s="511"/>
-      <c r="I7" s="511"/>
-      <c r="J7" s="511"/>
-      <c r="K7" s="511"/>
-      <c r="L7" s="511"/>
-      <c r="M7" s="511"/>
-      <c r="N7" s="511"/>
-      <c r="O7" s="511"/>
-      <c r="P7" s="511"/>
-      <c r="Q7" s="511"/>
-      <c r="R7" s="511"/>
-      <c r="S7" s="511"/>
-      <c r="T7" s="511"/>
-      <c r="U7" s="511"/>
-      <c r="V7" s="511"/>
-      <c r="W7" s="511"/>
-      <c r="X7" s="511"/>
-      <c r="Y7" s="511"/>
-      <c r="Z7" s="511"/>
+      <c r="A7" s="497"/>
+      <c r="B7" s="497"/>
+      <c r="C7" s="497"/>
+      <c r="D7" s="497"/>
+      <c r="E7" s="498"/>
+      <c r="F7" s="498"/>
+      <c r="G7" s="498"/>
+      <c r="H7" s="498"/>
+      <c r="I7" s="498"/>
+      <c r="J7" s="498"/>
+      <c r="K7" s="498"/>
+      <c r="L7" s="498"/>
+      <c r="M7" s="498"/>
+      <c r="N7" s="498"/>
+      <c r="O7" s="498"/>
+      <c r="P7" s="498"/>
+      <c r="Q7" s="498"/>
+      <c r="R7" s="498"/>
+      <c r="S7" s="498"/>
+      <c r="T7" s="498"/>
+      <c r="U7" s="498"/>
+      <c r="V7" s="498"/>
+      <c r="W7" s="498"/>
+      <c r="X7" s="498"/>
+      <c r="Y7" s="498"/>
+      <c r="Z7" s="498"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="510"/>
-      <c r="B8" s="510"/>
-      <c r="C8" s="510"/>
-      <c r="D8" s="510"/>
-      <c r="E8" s="511"/>
-      <c r="F8" s="511"/>
-      <c r="G8" s="511"/>
-      <c r="H8" s="511"/>
-      <c r="I8" s="511"/>
-      <c r="J8" s="511"/>
-      <c r="K8" s="511"/>
-      <c r="L8" s="511"/>
-      <c r="M8" s="511"/>
-      <c r="N8" s="511"/>
-      <c r="O8" s="511"/>
-      <c r="P8" s="511"/>
-      <c r="Q8" s="511"/>
-      <c r="R8" s="511"/>
-      <c r="S8" s="511"/>
-      <c r="T8" s="511"/>
-      <c r="U8" s="511"/>
-      <c r="V8" s="511"/>
-      <c r="W8" s="511"/>
-      <c r="X8" s="511"/>
-      <c r="Y8" s="511"/>
-      <c r="Z8" s="511"/>
+      <c r="A8" s="497"/>
+      <c r="B8" s="497"/>
+      <c r="C8" s="497"/>
+      <c r="D8" s="497"/>
+      <c r="E8" s="498"/>
+      <c r="F8" s="498"/>
+      <c r="G8" s="498"/>
+      <c r="H8" s="498"/>
+      <c r="I8" s="498"/>
+      <c r="J8" s="498"/>
+      <c r="K8" s="498"/>
+      <c r="L8" s="498"/>
+      <c r="M8" s="498"/>
+      <c r="N8" s="498"/>
+      <c r="O8" s="498"/>
+      <c r="P8" s="498"/>
+      <c r="Q8" s="498"/>
+      <c r="R8" s="498"/>
+      <c r="S8" s="498"/>
+      <c r="T8" s="498"/>
+      <c r="U8" s="498"/>
+      <c r="V8" s="498"/>
+      <c r="W8" s="498"/>
+      <c r="X8" s="498"/>
+      <c r="Y8" s="498"/>
+      <c r="Z8" s="498"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="510"/>
-      <c r="B9" s="510"/>
-      <c r="C9" s="510"/>
-      <c r="D9" s="510"/>
-      <c r="E9" s="511"/>
-      <c r="F9" s="511"/>
-      <c r="G9" s="511"/>
-      <c r="H9" s="511"/>
-      <c r="I9" s="511"/>
-      <c r="J9" s="511"/>
-      <c r="K9" s="511"/>
-      <c r="L9" s="511"/>
-      <c r="M9" s="511"/>
-      <c r="N9" s="511"/>
-      <c r="O9" s="511"/>
-      <c r="P9" s="511"/>
-      <c r="Q9" s="511"/>
-      <c r="R9" s="511"/>
-      <c r="S9" s="511"/>
-      <c r="T9" s="511"/>
-      <c r="U9" s="511"/>
-      <c r="V9" s="511"/>
-      <c r="W9" s="511"/>
-      <c r="X9" s="511"/>
-      <c r="Y9" s="511"/>
-      <c r="Z9" s="511"/>
+      <c r="A9" s="497"/>
+      <c r="B9" s="497"/>
+      <c r="C9" s="497"/>
+      <c r="D9" s="497"/>
+      <c r="E9" s="498"/>
+      <c r="F9" s="498"/>
+      <c r="G9" s="498"/>
+      <c r="H9" s="498"/>
+      <c r="I9" s="498"/>
+      <c r="J9" s="498"/>
+      <c r="K9" s="498"/>
+      <c r="L9" s="498"/>
+      <c r="M9" s="498"/>
+      <c r="N9" s="498"/>
+      <c r="O9" s="498"/>
+      <c r="P9" s="498"/>
+      <c r="Q9" s="498"/>
+      <c r="R9" s="498"/>
+      <c r="S9" s="498"/>
+      <c r="T9" s="498"/>
+      <c r="U9" s="498"/>
+      <c r="V9" s="498"/>
+      <c r="W9" s="498"/>
+      <c r="X9" s="498"/>
+      <c r="Y9" s="498"/>
+      <c r="Z9" s="498"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="510"/>
-      <c r="B10" s="510"/>
-      <c r="C10" s="510"/>
-      <c r="D10" s="510"/>
-      <c r="E10" s="511"/>
-      <c r="F10" s="511"/>
-      <c r="G10" s="511"/>
-      <c r="H10" s="511"/>
-      <c r="I10" s="511"/>
-      <c r="J10" s="511"/>
-      <c r="K10" s="511"/>
-      <c r="L10" s="511"/>
-      <c r="M10" s="511"/>
-      <c r="N10" s="511"/>
-      <c r="O10" s="511"/>
-      <c r="P10" s="511"/>
-      <c r="Q10" s="511"/>
-      <c r="R10" s="511"/>
-      <c r="S10" s="511"/>
-      <c r="T10" s="511"/>
-      <c r="U10" s="511"/>
-      <c r="V10" s="511"/>
-      <c r="W10" s="511"/>
-      <c r="X10" s="511"/>
-      <c r="Y10" s="511"/>
-      <c r="Z10" s="511"/>
+      <c r="A10" s="497"/>
+      <c r="B10" s="497"/>
+      <c r="C10" s="497"/>
+      <c r="D10" s="497"/>
+      <c r="E10" s="498"/>
+      <c r="F10" s="498"/>
+      <c r="G10" s="498"/>
+      <c r="H10" s="498"/>
+      <c r="I10" s="498"/>
+      <c r="J10" s="498"/>
+      <c r="K10" s="498"/>
+      <c r="L10" s="498"/>
+      <c r="M10" s="498"/>
+      <c r="N10" s="498"/>
+      <c r="O10" s="498"/>
+      <c r="P10" s="498"/>
+      <c r="Q10" s="498"/>
+      <c r="R10" s="498"/>
+      <c r="S10" s="498"/>
+      <c r="T10" s="498"/>
+      <c r="U10" s="498"/>
+      <c r="V10" s="498"/>
+      <c r="W10" s="498"/>
+      <c r="X10" s="498"/>
+      <c r="Y10" s="498"/>
+      <c r="Z10" s="498"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="510"/>
-      <c r="B11" s="510"/>
-      <c r="C11" s="510"/>
-      <c r="D11" s="510"/>
-      <c r="E11" s="511"/>
-      <c r="F11" s="511"/>
-      <c r="G11" s="511"/>
-      <c r="H11" s="511"/>
-      <c r="I11" s="511"/>
-      <c r="J11" s="511"/>
-      <c r="K11" s="511"/>
-      <c r="L11" s="511"/>
-      <c r="M11" s="511"/>
-      <c r="N11" s="511"/>
-      <c r="O11" s="511"/>
-      <c r="P11" s="511"/>
-      <c r="Q11" s="511"/>
-      <c r="R11" s="511"/>
-      <c r="S11" s="511"/>
-      <c r="T11" s="511"/>
-      <c r="U11" s="511"/>
-      <c r="V11" s="511"/>
-      <c r="W11" s="511"/>
-      <c r="X11" s="511"/>
-      <c r="Y11" s="511"/>
-      <c r="Z11" s="511"/>
+      <c r="A11" s="497"/>
+      <c r="B11" s="497"/>
+      <c r="C11" s="497"/>
+      <c r="D11" s="497"/>
+      <c r="E11" s="498"/>
+      <c r="F11" s="498"/>
+      <c r="G11" s="498"/>
+      <c r="H11" s="498"/>
+      <c r="I11" s="498"/>
+      <c r="J11" s="498"/>
+      <c r="K11" s="498"/>
+      <c r="L11" s="498"/>
+      <c r="M11" s="498"/>
+      <c r="N11" s="498"/>
+      <c r="O11" s="498"/>
+      <c r="P11" s="498"/>
+      <c r="Q11" s="498"/>
+      <c r="R11" s="498"/>
+      <c r="S11" s="498"/>
+      <c r="T11" s="498"/>
+      <c r="U11" s="498"/>
+      <c r="V11" s="498"/>
+      <c r="W11" s="498"/>
+      <c r="X11" s="498"/>
+      <c r="Y11" s="498"/>
+      <c r="Z11" s="498"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="510"/>
-      <c r="B12" s="510"/>
-      <c r="C12" s="510"/>
-      <c r="D12" s="510"/>
-      <c r="E12" s="511"/>
-      <c r="F12" s="511"/>
-      <c r="G12" s="511"/>
-      <c r="H12" s="511"/>
-      <c r="I12" s="511"/>
-      <c r="J12" s="511"/>
-      <c r="K12" s="511"/>
-      <c r="L12" s="511"/>
-      <c r="M12" s="511"/>
-      <c r="N12" s="511"/>
-      <c r="O12" s="511"/>
-      <c r="P12" s="511"/>
-      <c r="Q12" s="511"/>
-      <c r="R12" s="511"/>
-      <c r="S12" s="511"/>
-      <c r="T12" s="511"/>
-      <c r="U12" s="511"/>
-      <c r="V12" s="511"/>
-      <c r="W12" s="511"/>
-      <c r="X12" s="511"/>
-      <c r="Y12" s="511"/>
-      <c r="Z12" s="511"/>
+      <c r="A12" s="497"/>
+      <c r="B12" s="497"/>
+      <c r="C12" s="497"/>
+      <c r="D12" s="497"/>
+      <c r="E12" s="498"/>
+      <c r="F12" s="498"/>
+      <c r="G12" s="498"/>
+      <c r="H12" s="498"/>
+      <c r="I12" s="498"/>
+      <c r="J12" s="498"/>
+      <c r="K12" s="498"/>
+      <c r="L12" s="498"/>
+      <c r="M12" s="498"/>
+      <c r="N12" s="498"/>
+      <c r="O12" s="498"/>
+      <c r="P12" s="498"/>
+      <c r="Q12" s="498"/>
+      <c r="R12" s="498"/>
+      <c r="S12" s="498"/>
+      <c r="T12" s="498"/>
+      <c r="U12" s="498"/>
+      <c r="V12" s="498"/>
+      <c r="W12" s="498"/>
+      <c r="X12" s="498"/>
+      <c r="Y12" s="498"/>
+      <c r="Z12" s="498"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="510"/>
-      <c r="B13" s="510"/>
-      <c r="C13" s="510"/>
-      <c r="D13" s="510"/>
-      <c r="E13" s="511"/>
-      <c r="F13" s="511"/>
-      <c r="G13" s="511"/>
-      <c r="H13" s="511"/>
-      <c r="I13" s="511"/>
-      <c r="J13" s="511"/>
-      <c r="K13" s="511"/>
-      <c r="L13" s="511"/>
-      <c r="M13" s="511"/>
-      <c r="N13" s="511"/>
-      <c r="O13" s="511"/>
-      <c r="P13" s="511"/>
-      <c r="Q13" s="511"/>
-      <c r="R13" s="511"/>
-      <c r="S13" s="511"/>
-      <c r="T13" s="511"/>
-      <c r="U13" s="511"/>
-      <c r="V13" s="511"/>
-      <c r="W13" s="511"/>
-      <c r="X13" s="511"/>
-      <c r="Y13" s="511"/>
-      <c r="Z13" s="511"/>
+      <c r="A13" s="497"/>
+      <c r="B13" s="497"/>
+      <c r="C13" s="497"/>
+      <c r="D13" s="497"/>
+      <c r="E13" s="498"/>
+      <c r="F13" s="498"/>
+      <c r="G13" s="498"/>
+      <c r="H13" s="498"/>
+      <c r="I13" s="498"/>
+      <c r="J13" s="498"/>
+      <c r="K13" s="498"/>
+      <c r="L13" s="498"/>
+      <c r="M13" s="498"/>
+      <c r="N13" s="498"/>
+      <c r="O13" s="498"/>
+      <c r="P13" s="498"/>
+      <c r="Q13" s="498"/>
+      <c r="R13" s="498"/>
+      <c r="S13" s="498"/>
+      <c r="T13" s="498"/>
+      <c r="U13" s="498"/>
+      <c r="V13" s="498"/>
+      <c r="W13" s="498"/>
+      <c r="X13" s="498"/>
+      <c r="Y13" s="498"/>
+      <c r="Z13" s="498"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="510"/>
-      <c r="B14" s="510"/>
-      <c r="C14" s="510"/>
-      <c r="D14" s="510"/>
-      <c r="E14" s="511"/>
-      <c r="F14" s="511"/>
-      <c r="G14" s="511"/>
-      <c r="H14" s="511"/>
-      <c r="I14" s="511"/>
-      <c r="J14" s="511"/>
-      <c r="K14" s="511"/>
-      <c r="L14" s="511"/>
-      <c r="M14" s="511"/>
-      <c r="N14" s="511"/>
-      <c r="O14" s="511"/>
-      <c r="P14" s="511"/>
-      <c r="Q14" s="511"/>
-      <c r="R14" s="511"/>
-      <c r="S14" s="511"/>
-      <c r="T14" s="511"/>
-      <c r="U14" s="511"/>
-      <c r="V14" s="511"/>
-      <c r="W14" s="511"/>
-      <c r="X14" s="511"/>
-      <c r="Y14" s="511"/>
-      <c r="Z14" s="511"/>
+      <c r="A14" s="497"/>
+      <c r="B14" s="497"/>
+      <c r="C14" s="497"/>
+      <c r="D14" s="497"/>
+      <c r="E14" s="498"/>
+      <c r="F14" s="498"/>
+      <c r="G14" s="498"/>
+      <c r="H14" s="498"/>
+      <c r="I14" s="498"/>
+      <c r="J14" s="498"/>
+      <c r="K14" s="498"/>
+      <c r="L14" s="498"/>
+      <c r="M14" s="498"/>
+      <c r="N14" s="498"/>
+      <c r="O14" s="498"/>
+      <c r="P14" s="498"/>
+      <c r="Q14" s="498"/>
+      <c r="R14" s="498"/>
+      <c r="S14" s="498"/>
+      <c r="T14" s="498"/>
+      <c r="U14" s="498"/>
+      <c r="V14" s="498"/>
+      <c r="W14" s="498"/>
+      <c r="X14" s="498"/>
+      <c r="Y14" s="498"/>
+      <c r="Z14" s="498"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="510"/>
-      <c r="B15" s="510"/>
-      <c r="C15" s="510"/>
-      <c r="D15" s="510"/>
-      <c r="E15" s="511"/>
-      <c r="F15" s="511"/>
-      <c r="G15" s="511"/>
-      <c r="H15" s="511"/>
-      <c r="I15" s="511"/>
-      <c r="J15" s="511"/>
-      <c r="K15" s="511"/>
-      <c r="L15" s="511"/>
-      <c r="M15" s="511"/>
-      <c r="N15" s="511"/>
-      <c r="O15" s="511"/>
-      <c r="P15" s="511"/>
-      <c r="Q15" s="511"/>
-      <c r="R15" s="511"/>
-      <c r="S15" s="511"/>
-      <c r="T15" s="511"/>
-      <c r="U15" s="511"/>
-      <c r="V15" s="511"/>
-      <c r="W15" s="511"/>
-      <c r="X15" s="511"/>
-      <c r="Y15" s="511"/>
-      <c r="Z15" s="511"/>
+      <c r="A15" s="497"/>
+      <c r="B15" s="497"/>
+      <c r="C15" s="497"/>
+      <c r="D15" s="497"/>
+      <c r="E15" s="498"/>
+      <c r="F15" s="498"/>
+      <c r="G15" s="498"/>
+      <c r="H15" s="498"/>
+      <c r="I15" s="498"/>
+      <c r="J15" s="498"/>
+      <c r="K15" s="498"/>
+      <c r="L15" s="498"/>
+      <c r="M15" s="498"/>
+      <c r="N15" s="498"/>
+      <c r="O15" s="498"/>
+      <c r="P15" s="498"/>
+      <c r="Q15" s="498"/>
+      <c r="R15" s="498"/>
+      <c r="S15" s="498"/>
+      <c r="T15" s="498"/>
+      <c r="U15" s="498"/>
+      <c r="V15" s="498"/>
+      <c r="W15" s="498"/>
+      <c r="X15" s="498"/>
+      <c r="Y15" s="498"/>
+      <c r="Z15" s="498"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="512" t="s">
+      <c r="A16" s="513" t="s">
         <v>601</v>
       </c>
-      <c r="B16" s="512"/>
-      <c r="C16" s="512"/>
-      <c r="D16" s="512"/>
-      <c r="E16" s="513"/>
-      <c r="F16" s="513"/>
-      <c r="G16" s="514"/>
-      <c r="H16" s="514"/>
-      <c r="I16" s="514"/>
-      <c r="J16" s="514"/>
-      <c r="K16" s="514"/>
-      <c r="L16" s="514"/>
-      <c r="M16" s="511"/>
-      <c r="N16" s="511"/>
-      <c r="O16" s="511"/>
-      <c r="P16" s="511"/>
-      <c r="Q16" s="511"/>
-      <c r="R16" s="511"/>
-      <c r="S16" s="511"/>
-      <c r="T16" s="511"/>
-      <c r="U16" s="511"/>
-      <c r="V16" s="511"/>
-      <c r="W16" s="511"/>
-      <c r="X16" s="511"/>
-      <c r="Y16" s="511"/>
-      <c r="Z16" s="511"/>
+      <c r="B16" s="513"/>
+      <c r="C16" s="513"/>
+      <c r="D16" s="513"/>
+      <c r="E16" s="499"/>
+      <c r="F16" s="499"/>
+      <c r="G16" s="500"/>
+      <c r="H16" s="500"/>
+      <c r="I16" s="500"/>
+      <c r="J16" s="500"/>
+      <c r="K16" s="500"/>
+      <c r="L16" s="500"/>
+      <c r="M16" s="498"/>
+      <c r="N16" s="498"/>
+      <c r="O16" s="498"/>
+      <c r="P16" s="498"/>
+      <c r="Q16" s="498"/>
+      <c r="R16" s="498"/>
+      <c r="S16" s="498"/>
+      <c r="T16" s="498"/>
+      <c r="U16" s="498"/>
+      <c r="V16" s="498"/>
+      <c r="W16" s="498"/>
+      <c r="X16" s="498"/>
+      <c r="Y16" s="498"/>
+      <c r="Z16" s="498"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A17" s="515"/>
-      <c r="B17" s="515"/>
-      <c r="C17" s="515"/>
-      <c r="D17" s="515"/>
-      <c r="E17" s="511"/>
-      <c r="F17" s="511"/>
-      <c r="G17" s="511"/>
-      <c r="H17" s="511"/>
-      <c r="I17" s="511"/>
-      <c r="J17" s="511"/>
-      <c r="K17" s="511"/>
-      <c r="L17" s="511"/>
-      <c r="M17" s="511"/>
-      <c r="N17" s="511"/>
-      <c r="O17" s="511"/>
-      <c r="P17" s="511"/>
-      <c r="Q17" s="511"/>
-      <c r="R17" s="511"/>
-      <c r="S17" s="511"/>
-      <c r="T17" s="511"/>
-      <c r="U17" s="511"/>
-      <c r="V17" s="511"/>
-      <c r="W17" s="511"/>
-      <c r="X17" s="511"/>
-      <c r="Y17" s="511"/>
-      <c r="Z17" s="511"/>
+      <c r="A17" s="501"/>
+      <c r="B17" s="501"/>
+      <c r="C17" s="501"/>
+      <c r="D17" s="501"/>
+      <c r="E17" s="498"/>
+      <c r="F17" s="498"/>
+      <c r="G17" s="498"/>
+      <c r="H17" s="498"/>
+      <c r="I17" s="498"/>
+      <c r="J17" s="498"/>
+      <c r="K17" s="498"/>
+      <c r="L17" s="498"/>
+      <c r="M17" s="498"/>
+      <c r="N17" s="498"/>
+      <c r="O17" s="498"/>
+      <c r="P17" s="498"/>
+      <c r="Q17" s="498"/>
+      <c r="R17" s="498"/>
+      <c r="S17" s="498"/>
+      <c r="T17" s="498"/>
+      <c r="U17" s="498"/>
+      <c r="V17" s="498"/>
+      <c r="W17" s="498"/>
+      <c r="X17" s="498"/>
+      <c r="Y17" s="498"/>
+      <c r="Z17" s="498"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A18" s="515"/>
-      <c r="B18" s="515"/>
-      <c r="C18" s="515"/>
-      <c r="D18" s="515"/>
-      <c r="E18" s="516"/>
-      <c r="F18" s="516"/>
-      <c r="G18" s="517"/>
-      <c r="H18" s="517"/>
-      <c r="I18" s="517"/>
-      <c r="J18" s="517"/>
-      <c r="K18" s="517"/>
-      <c r="L18" s="517"/>
-      <c r="M18" s="511"/>
-      <c r="N18" s="511"/>
-      <c r="O18" s="511"/>
-      <c r="P18" s="511"/>
-      <c r="Q18" s="511"/>
-      <c r="R18" s="511"/>
-      <c r="S18" s="511"/>
-      <c r="T18" s="511"/>
-      <c r="U18" s="511"/>
-      <c r="V18" s="511"/>
-      <c r="W18" s="511"/>
-      <c r="X18" s="511"/>
-      <c r="Y18" s="511"/>
-      <c r="Z18" s="511"/>
+      <c r="A18" s="501"/>
+      <c r="B18" s="501"/>
+      <c r="C18" s="501"/>
+      <c r="D18" s="501"/>
+      <c r="E18" s="502"/>
+      <c r="F18" s="502"/>
+      <c r="G18" s="503"/>
+      <c r="H18" s="503"/>
+      <c r="I18" s="503"/>
+      <c r="J18" s="503"/>
+      <c r="K18" s="503"/>
+      <c r="L18" s="503"/>
+      <c r="M18" s="498"/>
+      <c r="N18" s="498"/>
+      <c r="O18" s="498"/>
+      <c r="P18" s="498"/>
+      <c r="Q18" s="498"/>
+      <c r="R18" s="498"/>
+      <c r="S18" s="498"/>
+      <c r="T18" s="498"/>
+      <c r="U18" s="498"/>
+      <c r="V18" s="498"/>
+      <c r="W18" s="498"/>
+      <c r="X18" s="498"/>
+      <c r="Y18" s="498"/>
+      <c r="Z18" s="498"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A19" s="518" t="s">
+      <c r="A19" s="504" t="s">
         <v>602</v>
       </c>
-      <c r="B19" s="519" t="s">
+      <c r="B19" s="512" t="s">
+        <v>617</v>
+      </c>
+      <c r="C19" s="512"/>
+      <c r="D19" s="512"/>
+      <c r="E19" s="505"/>
+      <c r="F19" s="505"/>
+      <c r="G19" s="506"/>
+      <c r="H19" s="506"/>
+      <c r="I19" s="506"/>
+      <c r="J19" s="506"/>
+      <c r="K19" s="506"/>
+      <c r="L19" s="506"/>
+      <c r="M19" s="498"/>
+      <c r="N19" s="498"/>
+      <c r="O19" s="498"/>
+      <c r="P19" s="498"/>
+      <c r="Q19" s="498"/>
+      <c r="R19" s="498"/>
+      <c r="S19" s="498"/>
+      <c r="T19" s="498"/>
+      <c r="U19" s="498"/>
+      <c r="V19" s="498"/>
+      <c r="W19" s="498"/>
+      <c r="X19" s="498"/>
+      <c r="Y19" s="498"/>
+      <c r="Z19" s="498"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A20" s="504" t="s">
         <v>603</v>
       </c>
-      <c r="C19" s="519"/>
-      <c r="D19" s="519"/>
-      <c r="E19" s="520"/>
-      <c r="F19" s="520"/>
-      <c r="G19" s="521"/>
-      <c r="H19" s="521"/>
-      <c r="I19" s="521"/>
-      <c r="J19" s="521"/>
-      <c r="K19" s="521"/>
-      <c r="L19" s="521"/>
-      <c r="M19" s="511"/>
-      <c r="N19" s="511"/>
-      <c r="O19" s="511"/>
-      <c r="P19" s="511"/>
-      <c r="Q19" s="511"/>
-      <c r="R19" s="511"/>
-      <c r="S19" s="511"/>
-      <c r="T19" s="511"/>
-      <c r="U19" s="511"/>
-      <c r="V19" s="511"/>
-      <c r="W19" s="511"/>
-      <c r="X19" s="511"/>
-      <c r="Y19" s="511"/>
-      <c r="Z19" s="511"/>
-    </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A20" s="518" t="s">
+      <c r="B20" s="512" t="s">
+        <v>616</v>
+      </c>
+      <c r="C20" s="512"/>
+      <c r="D20" s="512"/>
+      <c r="E20" s="505"/>
+      <c r="F20" s="505"/>
+      <c r="G20" s="506"/>
+      <c r="H20" s="506"/>
+      <c r="I20" s="506"/>
+      <c r="J20" s="506"/>
+      <c r="K20" s="506"/>
+      <c r="L20" s="506"/>
+      <c r="M20" s="498"/>
+      <c r="N20" s="498"/>
+      <c r="O20" s="498"/>
+      <c r="P20" s="498"/>
+      <c r="Q20" s="498"/>
+      <c r="R20" s="498"/>
+      <c r="S20" s="498"/>
+      <c r="T20" s="498"/>
+      <c r="U20" s="498"/>
+      <c r="V20" s="498"/>
+      <c r="W20" s="498"/>
+      <c r="X20" s="498"/>
+      <c r="Y20" s="498"/>
+      <c r="Z20" s="498"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A21" s="504" t="s">
         <v>604</v>
       </c>
-      <c r="B20" s="519" t="s">
+      <c r="B21" s="507" t="s">
+        <v>618</v>
+      </c>
+      <c r="C21" s="507"/>
+      <c r="D21" s="507"/>
+      <c r="E21" s="505"/>
+      <c r="F21" s="505"/>
+      <c r="G21" s="506"/>
+      <c r="H21" s="506"/>
+      <c r="I21" s="506"/>
+      <c r="J21" s="506"/>
+      <c r="K21" s="506"/>
+      <c r="L21" s="506"/>
+      <c r="M21" s="498"/>
+      <c r="N21" s="498"/>
+      <c r="O21" s="498"/>
+      <c r="P21" s="498"/>
+      <c r="Q21" s="498"/>
+      <c r="R21" s="498"/>
+      <c r="S21" s="498"/>
+      <c r="T21" s="498"/>
+      <c r="U21" s="498"/>
+      <c r="V21" s="498"/>
+      <c r="W21" s="498"/>
+      <c r="X21" s="498"/>
+      <c r="Y21" s="498"/>
+      <c r="Z21" s="498"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A22" s="504"/>
+      <c r="B22" s="507"/>
+      <c r="C22" s="507"/>
+      <c r="D22" s="507"/>
+      <c r="E22" s="505"/>
+      <c r="F22" s="505"/>
+      <c r="G22" s="506"/>
+      <c r="H22" s="506"/>
+      <c r="I22" s="506"/>
+      <c r="J22" s="506"/>
+      <c r="K22" s="506"/>
+      <c r="L22" s="506"/>
+      <c r="M22" s="498"/>
+      <c r="N22" s="498"/>
+      <c r="O22" s="498"/>
+      <c r="P22" s="498"/>
+      <c r="Q22" s="498"/>
+      <c r="R22" s="498"/>
+      <c r="S22" s="498"/>
+      <c r="T22" s="498"/>
+      <c r="U22" s="498"/>
+      <c r="V22" s="498"/>
+      <c r="W22" s="498"/>
+      <c r="X22" s="498"/>
+      <c r="Y22" s="498"/>
+      <c r="Z22" s="498"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A23" s="504" t="s">
         <v>605</v>
       </c>
-      <c r="C20" s="519"/>
-      <c r="D20" s="519"/>
-      <c r="E20" s="520"/>
-      <c r="F20" s="520"/>
-      <c r="G20" s="521"/>
-      <c r="H20" s="521"/>
-      <c r="I20" s="521"/>
-      <c r="J20" s="521"/>
-      <c r="K20" s="521"/>
-      <c r="L20" s="521"/>
-      <c r="M20" s="511"/>
-      <c r="N20" s="511"/>
-      <c r="O20" s="511"/>
-      <c r="P20" s="511"/>
-      <c r="Q20" s="511"/>
-      <c r="R20" s="511"/>
-      <c r="S20" s="511"/>
-      <c r="T20" s="511"/>
-      <c r="U20" s="511"/>
-      <c r="V20" s="511"/>
-      <c r="W20" s="511"/>
-      <c r="X20" s="511"/>
-      <c r="Y20" s="511"/>
-      <c r="Z20" s="511"/>
-    </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A21" s="518" t="s">
+      <c r="B23" s="512" t="s">
+        <v>614</v>
+      </c>
+      <c r="C23" s="512"/>
+      <c r="D23" s="512"/>
+      <c r="E23" s="498"/>
+      <c r="F23" s="498"/>
+      <c r="G23" s="498"/>
+      <c r="H23" s="498"/>
+      <c r="I23" s="498"/>
+      <c r="J23" s="498"/>
+      <c r="K23" s="498"/>
+      <c r="L23" s="498"/>
+      <c r="M23" s="498"/>
+      <c r="N23" s="498"/>
+      <c r="O23" s="498"/>
+      <c r="P23" s="498"/>
+      <c r="Q23" s="498"/>
+      <c r="R23" s="498"/>
+      <c r="S23" s="498"/>
+      <c r="T23" s="498"/>
+      <c r="U23" s="498"/>
+      <c r="V23" s="498"/>
+      <c r="W23" s="498"/>
+      <c r="X23" s="498"/>
+      <c r="Y23" s="498"/>
+      <c r="Z23" s="498"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A24" s="504"/>
+      <c r="B24" s="507" t="s">
+        <v>615</v>
+      </c>
+      <c r="C24" s="507"/>
+      <c r="D24" s="507"/>
+      <c r="E24" s="498"/>
+      <c r="F24" s="498"/>
+      <c r="G24" s="498"/>
+      <c r="H24" s="498"/>
+      <c r="I24" s="498"/>
+      <c r="J24" s="498"/>
+      <c r="K24" s="498"/>
+      <c r="L24" s="498"/>
+      <c r="M24" s="498"/>
+      <c r="N24" s="498"/>
+      <c r="O24" s="498"/>
+      <c r="P24" s="498"/>
+      <c r="Q24" s="498"/>
+      <c r="R24" s="498"/>
+      <c r="S24" s="498"/>
+      <c r="T24" s="498"/>
+      <c r="U24" s="498"/>
+      <c r="V24" s="498"/>
+      <c r="W24" s="498"/>
+      <c r="X24" s="498"/>
+      <c r="Y24" s="498"/>
+      <c r="Z24" s="498"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A25" s="504"/>
+      <c r="B25" s="507" t="s">
+        <v>613</v>
+      </c>
+      <c r="C25" s="507"/>
+      <c r="D25" s="507"/>
+      <c r="E25" s="498"/>
+      <c r="F25" s="498"/>
+      <c r="G25" s="498"/>
+      <c r="H25" s="498"/>
+      <c r="I25" s="498"/>
+      <c r="J25" s="498"/>
+      <c r="K25" s="498"/>
+      <c r="L25" s="498"/>
+      <c r="M25" s="498"/>
+      <c r="N25" s="498"/>
+      <c r="O25" s="498"/>
+      <c r="P25" s="498"/>
+      <c r="Q25" s="498"/>
+      <c r="R25" s="498"/>
+      <c r="S25" s="498"/>
+      <c r="T25" s="498"/>
+      <c r="U25" s="498"/>
+      <c r="V25" s="498"/>
+      <c r="W25" s="498"/>
+      <c r="X25" s="498"/>
+      <c r="Y25" s="498"/>
+      <c r="Z25" s="498"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A26" s="504" t="s">
         <v>606</v>
       </c>
-      <c r="B21" s="522" t="s">
+      <c r="B26" s="512" t="s">
+        <v>613</v>
+      </c>
+      <c r="C26" s="512"/>
+      <c r="D26" s="512"/>
+      <c r="E26" s="498"/>
+      <c r="F26" s="498"/>
+      <c r="G26" s="498"/>
+      <c r="H26" s="498"/>
+      <c r="I26" s="498"/>
+      <c r="J26" s="498"/>
+      <c r="K26" s="498"/>
+      <c r="L26" s="498"/>
+      <c r="M26" s="498"/>
+      <c r="N26" s="498"/>
+      <c r="O26" s="498"/>
+      <c r="P26" s="498"/>
+      <c r="Q26" s="498"/>
+      <c r="R26" s="498"/>
+      <c r="S26" s="498"/>
+      <c r="T26" s="498"/>
+      <c r="U26" s="498"/>
+      <c r="V26" s="498"/>
+      <c r="W26" s="498"/>
+      <c r="X26" s="498"/>
+      <c r="Y26" s="498"/>
+      <c r="Z26" s="498"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A27" s="504"/>
+      <c r="B27" s="507"/>
+      <c r="C27" s="507"/>
+      <c r="D27" s="507"/>
+      <c r="E27" s="498"/>
+      <c r="F27" s="498"/>
+      <c r="G27" s="498"/>
+      <c r="H27" s="498"/>
+      <c r="I27" s="498"/>
+      <c r="J27" s="498"/>
+      <c r="K27" s="498"/>
+      <c r="L27" s="498"/>
+      <c r="M27" s="498"/>
+      <c r="N27" s="498"/>
+      <c r="O27" s="498"/>
+      <c r="P27" s="498"/>
+      <c r="Q27" s="498"/>
+      <c r="R27" s="498"/>
+      <c r="S27" s="498"/>
+      <c r="T27" s="498"/>
+      <c r="U27" s="498"/>
+      <c r="V27" s="498"/>
+      <c r="W27" s="498"/>
+      <c r="X27" s="498"/>
+      <c r="Y27" s="498"/>
+      <c r="Z27" s="498"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A28" s="504"/>
+      <c r="B28" s="507"/>
+      <c r="C28" s="507"/>
+      <c r="D28" s="507"/>
+      <c r="E28" s="498"/>
+      <c r="F28" s="498"/>
+      <c r="G28" s="498"/>
+      <c r="H28" s="498"/>
+      <c r="I28" s="498"/>
+      <c r="J28" s="498"/>
+      <c r="K28" s="498"/>
+      <c r="L28" s="498"/>
+      <c r="M28" s="498"/>
+      <c r="N28" s="498"/>
+      <c r="O28" s="498"/>
+      <c r="P28" s="498"/>
+      <c r="Q28" s="498"/>
+      <c r="R28" s="498"/>
+      <c r="S28" s="498"/>
+      <c r="T28" s="498"/>
+      <c r="U28" s="498"/>
+      <c r="V28" s="498"/>
+      <c r="W28" s="498"/>
+      <c r="X28" s="498"/>
+      <c r="Y28" s="498"/>
+      <c r="Z28" s="498"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A29" s="504" t="s">
         <v>607</v>
       </c>
-      <c r="C21" s="522"/>
-      <c r="D21" s="522"/>
-      <c r="E21" s="520"/>
-      <c r="F21" s="520"/>
-      <c r="G21" s="521"/>
-      <c r="H21" s="521"/>
-      <c r="I21" s="521"/>
-      <c r="J21" s="521"/>
-      <c r="K21" s="521"/>
-      <c r="L21" s="521"/>
-      <c r="M21" s="511"/>
-      <c r="N21" s="511"/>
-      <c r="O21" s="511"/>
-      <c r="P21" s="511"/>
-      <c r="Q21" s="511"/>
-      <c r="R21" s="511"/>
-      <c r="S21" s="511"/>
-      <c r="T21" s="511"/>
-      <c r="U21" s="511"/>
-      <c r="V21" s="511"/>
-      <c r="W21" s="511"/>
-      <c r="X21" s="511"/>
-      <c r="Y21" s="511"/>
-      <c r="Z21" s="511"/>
-    </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A22" s="518"/>
-      <c r="B22" s="522"/>
-      <c r="C22" s="522"/>
-      <c r="D22" s="522"/>
-      <c r="E22" s="520"/>
-      <c r="F22" s="520"/>
-      <c r="G22" s="521"/>
-      <c r="H22" s="521"/>
-      <c r="I22" s="521"/>
-      <c r="J22" s="521"/>
-      <c r="K22" s="521"/>
-      <c r="L22" s="521"/>
-      <c r="M22" s="511"/>
-      <c r="N22" s="511"/>
-      <c r="O22" s="511"/>
-      <c r="P22" s="511"/>
-      <c r="Q22" s="511"/>
-      <c r="R22" s="511"/>
-      <c r="S22" s="511"/>
-      <c r="T22" s="511"/>
-      <c r="U22" s="511"/>
-      <c r="V22" s="511"/>
-      <c r="W22" s="511"/>
-      <c r="X22" s="511"/>
-      <c r="Y22" s="511"/>
-      <c r="Z22" s="511"/>
-    </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A23" s="518" t="s">
+      <c r="B29" s="508">
+        <v>1</v>
+      </c>
+      <c r="C29" s="507"/>
+      <c r="D29" s="507"/>
+      <c r="E29" s="498"/>
+      <c r="F29" s="498"/>
+      <c r="G29" s="498"/>
+      <c r="H29" s="498"/>
+      <c r="I29" s="498"/>
+      <c r="J29" s="498"/>
+      <c r="K29" s="498"/>
+      <c r="L29" s="498"/>
+      <c r="M29" s="498"/>
+      <c r="N29" s="498"/>
+      <c r="O29" s="498"/>
+      <c r="P29" s="498"/>
+      <c r="Q29" s="498"/>
+      <c r="R29" s="498"/>
+      <c r="S29" s="498"/>
+      <c r="T29" s="498"/>
+      <c r="U29" s="498"/>
+      <c r="V29" s="498"/>
+      <c r="W29" s="498"/>
+      <c r="X29" s="498"/>
+      <c r="Y29" s="498"/>
+      <c r="Z29" s="498"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A30" s="504" t="s">
         <v>608</v>
       </c>
-      <c r="B23" s="519" t="s">
+      <c r="B30" s="514" t="s">
         <v>609</v>
       </c>
-      <c r="C23" s="519"/>
-      <c r="D23" s="519"/>
-      <c r="E23" s="511"/>
-      <c r="F23" s="511"/>
-      <c r="G23" s="511"/>
-      <c r="H23" s="511"/>
-      <c r="I23" s="511"/>
-      <c r="J23" s="511"/>
-      <c r="K23" s="511"/>
-      <c r="L23" s="511"/>
-      <c r="M23" s="511"/>
-      <c r="N23" s="511"/>
-      <c r="O23" s="511"/>
-      <c r="P23" s="511"/>
-      <c r="Q23" s="511"/>
-      <c r="R23" s="511"/>
-      <c r="S23" s="511"/>
-      <c r="T23" s="511"/>
-      <c r="U23" s="511"/>
-      <c r="V23" s="511"/>
-      <c r="W23" s="511"/>
-      <c r="X23" s="511"/>
-      <c r="Y23" s="511"/>
-      <c r="Z23" s="511"/>
-    </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A24" s="518"/>
-      <c r="B24" s="522"/>
-      <c r="C24" s="522"/>
-      <c r="D24" s="522"/>
-      <c r="E24" s="511"/>
-      <c r="F24" s="511"/>
-      <c r="G24" s="511"/>
-      <c r="H24" s="511"/>
-      <c r="I24" s="511"/>
-      <c r="J24" s="511"/>
-      <c r="K24" s="511"/>
-      <c r="L24" s="511"/>
-      <c r="M24" s="511"/>
-      <c r="N24" s="511"/>
-      <c r="O24" s="511"/>
-      <c r="P24" s="511"/>
-      <c r="Q24" s="511"/>
-      <c r="R24" s="511"/>
-      <c r="S24" s="511"/>
-      <c r="T24" s="511"/>
-      <c r="U24" s="511"/>
-      <c r="V24" s="511"/>
-      <c r="W24" s="511"/>
-      <c r="X24" s="511"/>
-      <c r="Y24" s="511"/>
-      <c r="Z24" s="511"/>
-    </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A25" s="518"/>
-      <c r="B25" s="522"/>
-      <c r="C25" s="522"/>
-      <c r="D25" s="522"/>
-      <c r="E25" s="511"/>
-      <c r="F25" s="511"/>
-      <c r="G25" s="511"/>
-      <c r="H25" s="511"/>
-      <c r="I25" s="511"/>
-      <c r="J25" s="511"/>
-      <c r="K25" s="511"/>
-      <c r="L25" s="511"/>
-      <c r="M25" s="511"/>
-      <c r="N25" s="511"/>
-      <c r="O25" s="511"/>
-      <c r="P25" s="511"/>
-      <c r="Q25" s="511"/>
-      <c r="R25" s="511"/>
-      <c r="S25" s="511"/>
-      <c r="T25" s="511"/>
-      <c r="U25" s="511"/>
-      <c r="V25" s="511"/>
-      <c r="W25" s="511"/>
-      <c r="X25" s="511"/>
-      <c r="Y25" s="511"/>
-      <c r="Z25" s="511"/>
-    </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A26" s="518" t="s">
+      <c r="C30" s="512"/>
+      <c r="D30" s="512"/>
+      <c r="E30" s="509"/>
+      <c r="F30" s="509"/>
+      <c r="G30" s="498"/>
+      <c r="H30" s="498"/>
+      <c r="I30" s="498"/>
+      <c r="J30" s="498"/>
+      <c r="K30" s="498"/>
+      <c r="L30" s="498"/>
+      <c r="M30" s="498"/>
+      <c r="N30" s="498"/>
+      <c r="O30" s="498"/>
+      <c r="P30" s="498"/>
+      <c r="Q30" s="498"/>
+      <c r="R30" s="498"/>
+      <c r="S30" s="498"/>
+      <c r="T30" s="498"/>
+      <c r="U30" s="498"/>
+      <c r="V30" s="498"/>
+      <c r="W30" s="498"/>
+      <c r="X30" s="498"/>
+      <c r="Y30" s="498"/>
+      <c r="Z30" s="498"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A31" s="504" t="s">
         <v>610</v>
       </c>
-      <c r="B26" s="519" t="s">
-        <v>609</v>
-      </c>
-      <c r="C26" s="519"/>
-      <c r="D26" s="519"/>
-      <c r="E26" s="511"/>
-      <c r="F26" s="511"/>
-      <c r="G26" s="511"/>
-      <c r="H26" s="511"/>
-      <c r="I26" s="511"/>
-      <c r="J26" s="511"/>
-      <c r="K26" s="511"/>
-      <c r="L26" s="511"/>
-      <c r="M26" s="511"/>
-      <c r="N26" s="511"/>
-      <c r="O26" s="511"/>
-      <c r="P26" s="511"/>
-      <c r="Q26" s="511"/>
-      <c r="R26" s="511"/>
-      <c r="S26" s="511"/>
-      <c r="T26" s="511"/>
-      <c r="U26" s="511"/>
-      <c r="V26" s="511"/>
-      <c r="W26" s="511"/>
-      <c r="X26" s="511"/>
-      <c r="Y26" s="511"/>
-      <c r="Z26" s="511"/>
-    </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A27" s="518"/>
-      <c r="B27" s="522"/>
-      <c r="C27" s="522"/>
-      <c r="D27" s="522"/>
-      <c r="E27" s="511"/>
-      <c r="F27" s="511"/>
-      <c r="G27" s="511"/>
-      <c r="H27" s="511"/>
-      <c r="I27" s="511"/>
-      <c r="J27" s="511"/>
-      <c r="K27" s="511"/>
-      <c r="L27" s="511"/>
-      <c r="M27" s="511"/>
-      <c r="N27" s="511"/>
-      <c r="O27" s="511"/>
-      <c r="P27" s="511"/>
-      <c r="Q27" s="511"/>
-      <c r="R27" s="511"/>
-      <c r="S27" s="511"/>
-      <c r="T27" s="511"/>
-      <c r="U27" s="511"/>
-      <c r="V27" s="511"/>
-      <c r="W27" s="511"/>
-      <c r="X27" s="511"/>
-      <c r="Y27" s="511"/>
-      <c r="Z27" s="511"/>
-    </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A28" s="518"/>
-      <c r="B28" s="522"/>
-      <c r="C28" s="522"/>
-      <c r="D28" s="522"/>
-      <c r="E28" s="511"/>
-      <c r="F28" s="511"/>
-      <c r="G28" s="511"/>
-      <c r="H28" s="511"/>
-      <c r="I28" s="511"/>
-      <c r="J28" s="511"/>
-      <c r="K28" s="511"/>
-      <c r="L28" s="511"/>
-      <c r="M28" s="511"/>
-      <c r="N28" s="511"/>
-      <c r="O28" s="511"/>
-      <c r="P28" s="511"/>
-      <c r="Q28" s="511"/>
-      <c r="R28" s="511"/>
-      <c r="S28" s="511"/>
-      <c r="T28" s="511"/>
-      <c r="U28" s="511"/>
-      <c r="V28" s="511"/>
-      <c r="W28" s="511"/>
-      <c r="X28" s="511"/>
-      <c r="Y28" s="511"/>
-      <c r="Z28" s="511"/>
-    </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A29" s="518" t="s">
+      <c r="B31" s="512" t="s">
         <v>611</v>
       </c>
-      <c r="B29" s="523">
-        <v>1</v>
-      </c>
-      <c r="C29" s="522"/>
-      <c r="D29" s="522"/>
-      <c r="E29" s="511"/>
-      <c r="F29" s="511"/>
-      <c r="G29" s="511"/>
-      <c r="H29" s="511"/>
-      <c r="I29" s="511"/>
-      <c r="J29" s="511"/>
-      <c r="K29" s="511"/>
-      <c r="L29" s="511"/>
-      <c r="M29" s="511"/>
-      <c r="N29" s="511"/>
-      <c r="O29" s="511"/>
-      <c r="P29" s="511"/>
-      <c r="Q29" s="511"/>
-      <c r="R29" s="511"/>
-      <c r="S29" s="511"/>
-      <c r="T29" s="511"/>
-      <c r="U29" s="511"/>
-      <c r="V29" s="511"/>
-      <c r="W29" s="511"/>
-      <c r="X29" s="511"/>
-      <c r="Y29" s="511"/>
-      <c r="Z29" s="511"/>
-    </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A30" s="518" t="s">
+      <c r="C31" s="512"/>
+      <c r="D31" s="512"/>
+      <c r="E31" s="509"/>
+      <c r="F31" s="509"/>
+      <c r="G31" s="498"/>
+      <c r="H31" s="498"/>
+      <c r="I31" s="498"/>
+      <c r="J31" s="498"/>
+      <c r="K31" s="498"/>
+      <c r="L31" s="498"/>
+      <c r="M31" s="498"/>
+      <c r="N31" s="498"/>
+      <c r="O31" s="498"/>
+      <c r="P31" s="498"/>
+      <c r="Q31" s="498"/>
+      <c r="R31" s="498"/>
+      <c r="S31" s="498"/>
+      <c r="T31" s="498"/>
+      <c r="U31" s="498"/>
+      <c r="V31" s="498"/>
+      <c r="W31" s="498"/>
+      <c r="X31" s="498"/>
+      <c r="Y31" s="498"/>
+      <c r="Z31" s="498"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A32" s="510"/>
+      <c r="B32" s="511" t="s">
         <v>612</v>
       </c>
-      <c r="B30" s="524" t="s">
-        <v>613</v>
-      </c>
-      <c r="C30" s="519"/>
-      <c r="D30" s="519"/>
-      <c r="E30" s="525"/>
-      <c r="F30" s="525"/>
-      <c r="G30" s="511"/>
-      <c r="H30" s="511"/>
-      <c r="I30" s="511"/>
-      <c r="J30" s="511"/>
-      <c r="K30" s="511"/>
-      <c r="L30" s="511"/>
-      <c r="M30" s="511"/>
-      <c r="N30" s="511"/>
-      <c r="O30" s="511"/>
-      <c r="P30" s="511"/>
-      <c r="Q30" s="511"/>
-      <c r="R30" s="511"/>
-      <c r="S30" s="511"/>
-      <c r="T30" s="511"/>
-      <c r="U30" s="511"/>
-      <c r="V30" s="511"/>
-      <c r="W30" s="511"/>
-      <c r="X30" s="511"/>
-      <c r="Y30" s="511"/>
-      <c r="Z30" s="511"/>
-    </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A31" s="518" t="s">
-        <v>614</v>
-      </c>
-      <c r="B31" s="519" t="s">
-        <v>615</v>
-      </c>
-      <c r="C31" s="519"/>
-      <c r="D31" s="519"/>
-      <c r="E31" s="525"/>
-      <c r="F31" s="525"/>
-      <c r="G31" s="511"/>
-      <c r="H31" s="511"/>
-      <c r="I31" s="511"/>
-      <c r="J31" s="511"/>
-      <c r="K31" s="511"/>
-      <c r="L31" s="511"/>
-      <c r="M31" s="511"/>
-      <c r="N31" s="511"/>
-      <c r="O31" s="511"/>
-      <c r="P31" s="511"/>
-      <c r="Q31" s="511"/>
-      <c r="R31" s="511"/>
-      <c r="S31" s="511"/>
-      <c r="T31" s="511"/>
-      <c r="U31" s="511"/>
-      <c r="V31" s="511"/>
-      <c r="W31" s="511"/>
-      <c r="X31" s="511"/>
-      <c r="Y31" s="511"/>
-      <c r="Z31" s="511"/>
-    </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A32" s="526"/>
-      <c r="B32" s="527" t="s">
-        <v>616</v>
-      </c>
-      <c r="C32" s="526"/>
-      <c r="D32" s="526"/>
-      <c r="E32" s="511"/>
-      <c r="F32" s="511"/>
-      <c r="G32" s="511"/>
-      <c r="H32" s="511"/>
-      <c r="I32" s="511"/>
-      <c r="J32" s="511"/>
-      <c r="K32" s="511"/>
-      <c r="L32" s="511"/>
-      <c r="M32" s="511"/>
-      <c r="N32" s="511"/>
-      <c r="O32" s="511"/>
-      <c r="P32" s="511"/>
-      <c r="Q32" s="511"/>
-      <c r="R32" s="511"/>
-      <c r="S32" s="511"/>
-      <c r="T32" s="511"/>
-      <c r="U32" s="511"/>
-      <c r="V32" s="511"/>
-      <c r="W32" s="511"/>
-      <c r="X32" s="511"/>
-      <c r="Y32" s="511"/>
-      <c r="Z32" s="511"/>
+      <c r="C32" s="510"/>
+      <c r="D32" s="510"/>
+      <c r="E32" s="498"/>
+      <c r="F32" s="498"/>
+      <c r="G32" s="498"/>
+      <c r="H32" s="498"/>
+      <c r="I32" s="498"/>
+      <c r="J32" s="498"/>
+      <c r="K32" s="498"/>
+      <c r="L32" s="498"/>
+      <c r="M32" s="498"/>
+      <c r="N32" s="498"/>
+      <c r="O32" s="498"/>
+      <c r="P32" s="498"/>
+      <c r="Q32" s="498"/>
+      <c r="R32" s="498"/>
+      <c r="S32" s="498"/>
+      <c r="T32" s="498"/>
+      <c r="U32" s="498"/>
+      <c r="V32" s="498"/>
+      <c r="W32" s="498"/>
+      <c r="X32" s="498"/>
+      <c r="Y32" s="498"/>
+      <c r="Z32" s="498"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="510"/>
-      <c r="B33" s="510"/>
-      <c r="C33" s="510"/>
-      <c r="D33" s="510"/>
-      <c r="E33" s="511"/>
-      <c r="F33" s="511"/>
-      <c r="G33" s="511"/>
-      <c r="H33" s="511"/>
-      <c r="I33" s="511"/>
-      <c r="J33" s="511"/>
-      <c r="K33" s="511"/>
-      <c r="L33" s="511"/>
-      <c r="M33" s="511"/>
-      <c r="N33" s="511"/>
-      <c r="O33" s="511"/>
-      <c r="P33" s="511"/>
-      <c r="Q33" s="511"/>
-      <c r="R33" s="511"/>
-      <c r="S33" s="511"/>
-      <c r="T33" s="511"/>
-      <c r="U33" s="511"/>
-      <c r="V33" s="511"/>
-      <c r="W33" s="511"/>
-      <c r="X33" s="511"/>
-      <c r="Y33" s="511"/>
-      <c r="Z33" s="511"/>
+      <c r="A33" s="497"/>
+      <c r="B33" s="497"/>
+      <c r="C33" s="497"/>
+      <c r="D33" s="497"/>
+      <c r="E33" s="498"/>
+      <c r="F33" s="498"/>
+      <c r="G33" s="498"/>
+      <c r="H33" s="498"/>
+      <c r="I33" s="498"/>
+      <c r="J33" s="498"/>
+      <c r="K33" s="498"/>
+      <c r="L33" s="498"/>
+      <c r="M33" s="498"/>
+      <c r="N33" s="498"/>
+      <c r="O33" s="498"/>
+      <c r="P33" s="498"/>
+      <c r="Q33" s="498"/>
+      <c r="R33" s="498"/>
+      <c r="S33" s="498"/>
+      <c r="T33" s="498"/>
+      <c r="U33" s="498"/>
+      <c r="V33" s="498"/>
+      <c r="W33" s="498"/>
+      <c r="X33" s="498"/>
+      <c r="Y33" s="498"/>
+      <c r="Z33" s="498"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="510"/>
-      <c r="B34" s="510"/>
-      <c r="C34" s="510"/>
-      <c r="D34" s="510"/>
-      <c r="E34" s="511"/>
-      <c r="F34" s="511"/>
-      <c r="G34" s="511"/>
-      <c r="H34" s="511"/>
-      <c r="I34" s="511"/>
-      <c r="J34" s="511"/>
-      <c r="K34" s="511"/>
-      <c r="L34" s="511"/>
-      <c r="M34" s="511"/>
-      <c r="N34" s="511"/>
-      <c r="O34" s="511"/>
-      <c r="P34" s="511"/>
-      <c r="Q34" s="511"/>
-      <c r="R34" s="511"/>
-      <c r="S34" s="511"/>
-      <c r="T34" s="511"/>
-      <c r="U34" s="511"/>
-      <c r="V34" s="511"/>
-      <c r="W34" s="511"/>
-      <c r="X34" s="511"/>
-      <c r="Y34" s="511"/>
-      <c r="Z34" s="511"/>
+      <c r="A34" s="497"/>
+      <c r="B34" s="497"/>
+      <c r="C34" s="497"/>
+      <c r="D34" s="497"/>
+      <c r="E34" s="498"/>
+      <c r="F34" s="498"/>
+      <c r="G34" s="498"/>
+      <c r="H34" s="498"/>
+      <c r="I34" s="498"/>
+      <c r="J34" s="498"/>
+      <c r="K34" s="498"/>
+      <c r="L34" s="498"/>
+      <c r="M34" s="498"/>
+      <c r="N34" s="498"/>
+      <c r="O34" s="498"/>
+      <c r="P34" s="498"/>
+      <c r="Q34" s="498"/>
+      <c r="R34" s="498"/>
+      <c r="S34" s="498"/>
+      <c r="T34" s="498"/>
+      <c r="U34" s="498"/>
+      <c r="V34" s="498"/>
+      <c r="W34" s="498"/>
+      <c r="X34" s="498"/>
+      <c r="Y34" s="498"/>
+      <c r="Z34" s="498"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="510"/>
-      <c r="B35" s="510"/>
-      <c r="C35" s="510"/>
-      <c r="D35" s="510"/>
-      <c r="E35" s="511"/>
-      <c r="F35" s="511"/>
-      <c r="G35" s="511"/>
-      <c r="H35" s="511"/>
-      <c r="I35" s="511"/>
-      <c r="J35" s="511"/>
-      <c r="K35" s="511"/>
-      <c r="L35" s="511"/>
-      <c r="M35" s="511"/>
-      <c r="N35" s="511"/>
-      <c r="O35" s="511"/>
-      <c r="P35" s="511"/>
-      <c r="Q35" s="511"/>
-      <c r="R35" s="511"/>
-      <c r="S35" s="511"/>
-      <c r="T35" s="511"/>
-      <c r="U35" s="511"/>
-      <c r="V35" s="511"/>
-      <c r="W35" s="511"/>
-      <c r="X35" s="511"/>
-      <c r="Y35" s="511"/>
-      <c r="Z35" s="511"/>
+      <c r="A35" s="497"/>
+      <c r="B35" s="497"/>
+      <c r="C35" s="497"/>
+      <c r="D35" s="497"/>
+      <c r="E35" s="498"/>
+      <c r="F35" s="498"/>
+      <c r="G35" s="498"/>
+      <c r="H35" s="498"/>
+      <c r="I35" s="498"/>
+      <c r="J35" s="498"/>
+      <c r="K35" s="498"/>
+      <c r="L35" s="498"/>
+      <c r="M35" s="498"/>
+      <c r="N35" s="498"/>
+      <c r="O35" s="498"/>
+      <c r="P35" s="498"/>
+      <c r="Q35" s="498"/>
+      <c r="R35" s="498"/>
+      <c r="S35" s="498"/>
+      <c r="T35" s="498"/>
+      <c r="U35" s="498"/>
+      <c r="V35" s="498"/>
+      <c r="W35" s="498"/>
+      <c r="X35" s="498"/>
+      <c r="Y35" s="498"/>
+      <c r="Z35" s="498"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="510"/>
-      <c r="B36" s="510"/>
-      <c r="C36" s="510"/>
-      <c r="D36" s="510"/>
-      <c r="E36" s="511"/>
-      <c r="F36" s="511"/>
-      <c r="G36" s="511"/>
-      <c r="H36" s="511"/>
-      <c r="I36" s="511"/>
-      <c r="J36" s="511"/>
-      <c r="K36" s="511"/>
-      <c r="L36" s="511"/>
-      <c r="M36" s="511"/>
-      <c r="N36" s="511"/>
-      <c r="O36" s="511"/>
-      <c r="P36" s="511"/>
-      <c r="Q36" s="511"/>
-      <c r="R36" s="511"/>
-      <c r="S36" s="511"/>
-      <c r="T36" s="511"/>
-      <c r="U36" s="511"/>
-      <c r="V36" s="511"/>
-      <c r="W36" s="511"/>
-      <c r="X36" s="511"/>
-      <c r="Y36" s="511"/>
-      <c r="Z36" s="511"/>
+      <c r="A36" s="497"/>
+      <c r="B36" s="497"/>
+      <c r="C36" s="497"/>
+      <c r="D36" s="497"/>
+      <c r="E36" s="498"/>
+      <c r="F36" s="498"/>
+      <c r="G36" s="498"/>
+      <c r="H36" s="498"/>
+      <c r="I36" s="498"/>
+      <c r="J36" s="498"/>
+      <c r="K36" s="498"/>
+      <c r="L36" s="498"/>
+      <c r="M36" s="498"/>
+      <c r="N36" s="498"/>
+      <c r="O36" s="498"/>
+      <c r="P36" s="498"/>
+      <c r="Q36" s="498"/>
+      <c r="R36" s="498"/>
+      <c r="S36" s="498"/>
+      <c r="T36" s="498"/>
+      <c r="U36" s="498"/>
+      <c r="V36" s="498"/>
+      <c r="W36" s="498"/>
+      <c r="X36" s="498"/>
+      <c r="Y36" s="498"/>
+      <c r="Z36" s="498"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="510"/>
-      <c r="B37" s="510"/>
-      <c r="C37" s="510"/>
-      <c r="D37" s="510"/>
-      <c r="E37" s="511"/>
-      <c r="F37" s="511"/>
-      <c r="G37" s="511"/>
-      <c r="H37" s="511"/>
-      <c r="I37" s="511"/>
-      <c r="J37" s="511"/>
-      <c r="K37" s="511"/>
-      <c r="L37" s="511"/>
-      <c r="M37" s="511"/>
-      <c r="N37" s="511"/>
-      <c r="O37" s="511"/>
-      <c r="P37" s="511"/>
-      <c r="Q37" s="511"/>
-      <c r="R37" s="511"/>
-      <c r="S37" s="511"/>
-      <c r="T37" s="511"/>
-      <c r="U37" s="511"/>
-      <c r="V37" s="511"/>
-      <c r="W37" s="511"/>
-      <c r="X37" s="511"/>
-      <c r="Y37" s="511"/>
-      <c r="Z37" s="511"/>
+      <c r="A37" s="497"/>
+      <c r="B37" s="497"/>
+      <c r="C37" s="497"/>
+      <c r="D37" s="497"/>
+      <c r="E37" s="498"/>
+      <c r="F37" s="498"/>
+      <c r="G37" s="498"/>
+      <c r="H37" s="498"/>
+      <c r="I37" s="498"/>
+      <c r="J37" s="498"/>
+      <c r="K37" s="498"/>
+      <c r="L37" s="498"/>
+      <c r="M37" s="498"/>
+      <c r="N37" s="498"/>
+      <c r="O37" s="498"/>
+      <c r="P37" s="498"/>
+      <c r="Q37" s="498"/>
+      <c r="R37" s="498"/>
+      <c r="S37" s="498"/>
+      <c r="T37" s="498"/>
+      <c r="U37" s="498"/>
+      <c r="V37" s="498"/>
+      <c r="W37" s="498"/>
+      <c r="X37" s="498"/>
+      <c r="Y37" s="498"/>
+      <c r="Z37" s="498"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="510"/>
-      <c r="B38" s="510"/>
-      <c r="C38" s="510"/>
-      <c r="D38" s="510"/>
-      <c r="E38" s="511"/>
-      <c r="F38" s="511"/>
-      <c r="G38" s="511"/>
-      <c r="H38" s="511"/>
-      <c r="I38" s="511"/>
-      <c r="J38" s="511"/>
-      <c r="K38" s="511"/>
-      <c r="L38" s="511"/>
-      <c r="M38" s="511"/>
-      <c r="N38" s="511"/>
-      <c r="O38" s="511"/>
-      <c r="P38" s="511"/>
-      <c r="Q38" s="511"/>
-      <c r="R38" s="511"/>
-      <c r="S38" s="511"/>
-      <c r="T38" s="511"/>
-      <c r="U38" s="511"/>
-      <c r="V38" s="511"/>
-      <c r="W38" s="511"/>
-      <c r="X38" s="511"/>
-      <c r="Y38" s="511"/>
-      <c r="Z38" s="511"/>
+      <c r="A38" s="497"/>
+      <c r="B38" s="497"/>
+      <c r="C38" s="497"/>
+      <c r="D38" s="497"/>
+      <c r="E38" s="498"/>
+      <c r="F38" s="498"/>
+      <c r="G38" s="498"/>
+      <c r="H38" s="498"/>
+      <c r="I38" s="498"/>
+      <c r="J38" s="498"/>
+      <c r="K38" s="498"/>
+      <c r="L38" s="498"/>
+      <c r="M38" s="498"/>
+      <c r="N38" s="498"/>
+      <c r="O38" s="498"/>
+      <c r="P38" s="498"/>
+      <c r="Q38" s="498"/>
+      <c r="R38" s="498"/>
+      <c r="S38" s="498"/>
+      <c r="T38" s="498"/>
+      <c r="U38" s="498"/>
+      <c r="V38" s="498"/>
+      <c r="W38" s="498"/>
+      <c r="X38" s="498"/>
+      <c r="Y38" s="498"/>
+      <c r="Z38" s="498"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="510"/>
-      <c r="B39" s="510"/>
-      <c r="C39" s="510"/>
-      <c r="D39" s="510"/>
-      <c r="E39" s="511"/>
-      <c r="F39" s="511"/>
-      <c r="G39" s="511"/>
-      <c r="H39" s="511"/>
-      <c r="I39" s="511"/>
-      <c r="J39" s="511"/>
-      <c r="K39" s="511"/>
-      <c r="L39" s="511"/>
-      <c r="M39" s="511"/>
-      <c r="N39" s="511"/>
-      <c r="O39" s="511"/>
-      <c r="P39" s="511"/>
-      <c r="Q39" s="511"/>
-      <c r="R39" s="511"/>
-      <c r="S39" s="511"/>
-      <c r="T39" s="511"/>
-      <c r="U39" s="511"/>
-      <c r="V39" s="511"/>
-      <c r="W39" s="511"/>
-      <c r="X39" s="511"/>
-      <c r="Y39" s="511"/>
-      <c r="Z39" s="511"/>
+      <c r="A39" s="497"/>
+      <c r="B39" s="497"/>
+      <c r="C39" s="497"/>
+      <c r="D39" s="497"/>
+      <c r="E39" s="498"/>
+      <c r="F39" s="498"/>
+      <c r="G39" s="498"/>
+      <c r="H39" s="498"/>
+      <c r="I39" s="498"/>
+      <c r="J39" s="498"/>
+      <c r="K39" s="498"/>
+      <c r="L39" s="498"/>
+      <c r="M39" s="498"/>
+      <c r="N39" s="498"/>
+      <c r="O39" s="498"/>
+      <c r="P39" s="498"/>
+      <c r="Q39" s="498"/>
+      <c r="R39" s="498"/>
+      <c r="S39" s="498"/>
+      <c r="T39" s="498"/>
+      <c r="U39" s="498"/>
+      <c r="V39" s="498"/>
+      <c r="W39" s="498"/>
+      <c r="X39" s="498"/>
+      <c r="Y39" s="498"/>
+      <c r="Z39" s="498"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="510"/>
-      <c r="B40" s="510"/>
-      <c r="C40" s="510"/>
-      <c r="D40" s="510"/>
-      <c r="E40" s="511"/>
-      <c r="F40" s="511"/>
-      <c r="G40" s="511"/>
-      <c r="H40" s="511"/>
-      <c r="I40" s="511"/>
-      <c r="J40" s="511"/>
-      <c r="K40" s="511"/>
-      <c r="L40" s="511"/>
-      <c r="M40" s="511"/>
-      <c r="N40" s="511"/>
-      <c r="O40" s="511"/>
-      <c r="P40" s="511"/>
-      <c r="Q40" s="511"/>
-      <c r="R40" s="511"/>
-      <c r="S40" s="511"/>
-      <c r="T40" s="511"/>
-      <c r="U40" s="511"/>
-      <c r="V40" s="511"/>
-      <c r="W40" s="511"/>
-      <c r="X40" s="511"/>
-      <c r="Y40" s="511"/>
-      <c r="Z40" s="511"/>
+      <c r="A40" s="497"/>
+      <c r="B40" s="497"/>
+      <c r="C40" s="497"/>
+      <c r="D40" s="497"/>
+      <c r="E40" s="498"/>
+      <c r="F40" s="498"/>
+      <c r="G40" s="498"/>
+      <c r="H40" s="498"/>
+      <c r="I40" s="498"/>
+      <c r="J40" s="498"/>
+      <c r="K40" s="498"/>
+      <c r="L40" s="498"/>
+      <c r="M40" s="498"/>
+      <c r="N40" s="498"/>
+      <c r="O40" s="498"/>
+      <c r="P40" s="498"/>
+      <c r="Q40" s="498"/>
+      <c r="R40" s="498"/>
+      <c r="S40" s="498"/>
+      <c r="T40" s="498"/>
+      <c r="U40" s="498"/>
+      <c r="V40" s="498"/>
+      <c r="W40" s="498"/>
+      <c r="X40" s="498"/>
+      <c r="Y40" s="498"/>
+      <c r="Z40" s="498"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="510"/>
-      <c r="B41" s="510"/>
-      <c r="C41" s="510"/>
-      <c r="D41" s="510"/>
-      <c r="E41" s="511"/>
-      <c r="F41" s="511"/>
-      <c r="G41" s="511"/>
-      <c r="H41" s="511"/>
-      <c r="I41" s="511"/>
-      <c r="J41" s="511"/>
-      <c r="K41" s="511"/>
-      <c r="L41" s="511"/>
-      <c r="M41" s="511"/>
-      <c r="N41" s="511"/>
-      <c r="O41" s="511"/>
-      <c r="P41" s="511"/>
-      <c r="Q41" s="511"/>
-      <c r="R41" s="511"/>
-      <c r="S41" s="511"/>
-      <c r="T41" s="511"/>
-      <c r="U41" s="511"/>
-      <c r="V41" s="511"/>
-      <c r="W41" s="511"/>
-      <c r="X41" s="511"/>
-      <c r="Y41" s="511"/>
-      <c r="Z41" s="511"/>
+      <c r="A41" s="497"/>
+      <c r="B41" s="497"/>
+      <c r="C41" s="497"/>
+      <c r="D41" s="497"/>
+      <c r="E41" s="498"/>
+      <c r="F41" s="498"/>
+      <c r="G41" s="498"/>
+      <c r="H41" s="498"/>
+      <c r="I41" s="498"/>
+      <c r="J41" s="498"/>
+      <c r="K41" s="498"/>
+      <c r="L41" s="498"/>
+      <c r="M41" s="498"/>
+      <c r="N41" s="498"/>
+      <c r="O41" s="498"/>
+      <c r="P41" s="498"/>
+      <c r="Q41" s="498"/>
+      <c r="R41" s="498"/>
+      <c r="S41" s="498"/>
+      <c r="T41" s="498"/>
+      <c r="U41" s="498"/>
+      <c r="V41" s="498"/>
+      <c r="W41" s="498"/>
+      <c r="X41" s="498"/>
+      <c r="Y41" s="498"/>
+      <c r="Z41" s="498"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="510"/>
-      <c r="B42" s="510"/>
-      <c r="C42" s="510"/>
-      <c r="D42" s="510"/>
-      <c r="E42" s="511"/>
-      <c r="F42" s="511"/>
-      <c r="G42" s="511"/>
-      <c r="H42" s="511"/>
-      <c r="I42" s="511"/>
-      <c r="J42" s="511"/>
-      <c r="K42" s="511"/>
-      <c r="L42" s="511"/>
-      <c r="M42" s="511"/>
-      <c r="N42" s="511"/>
-      <c r="O42" s="511"/>
-      <c r="P42" s="511"/>
-      <c r="Q42" s="511"/>
-      <c r="R42" s="511"/>
-      <c r="S42" s="511"/>
-      <c r="T42" s="511"/>
-      <c r="U42" s="511"/>
-      <c r="V42" s="511"/>
-      <c r="W42" s="511"/>
-      <c r="X42" s="511"/>
-      <c r="Y42" s="511"/>
-      <c r="Z42" s="511"/>
+      <c r="A42" s="497"/>
+      <c r="B42" s="497"/>
+      <c r="C42" s="497"/>
+      <c r="D42" s="497"/>
+      <c r="E42" s="498"/>
+      <c r="F42" s="498"/>
+      <c r="G42" s="498"/>
+      <c r="H42" s="498"/>
+      <c r="I42" s="498"/>
+      <c r="J42" s="498"/>
+      <c r="K42" s="498"/>
+      <c r="L42" s="498"/>
+      <c r="M42" s="498"/>
+      <c r="N42" s="498"/>
+      <c r="O42" s="498"/>
+      <c r="P42" s="498"/>
+      <c r="Q42" s="498"/>
+      <c r="R42" s="498"/>
+      <c r="S42" s="498"/>
+      <c r="T42" s="498"/>
+      <c r="U42" s="498"/>
+      <c r="V42" s="498"/>
+      <c r="W42" s="498"/>
+      <c r="X42" s="498"/>
+      <c r="Y42" s="498"/>
+      <c r="Z42" s="498"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="511"/>
-      <c r="B43" s="511"/>
-      <c r="C43" s="511"/>
-      <c r="D43" s="511"/>
-      <c r="E43" s="511"/>
-      <c r="F43" s="511"/>
-      <c r="G43" s="511"/>
-      <c r="H43" s="511"/>
-      <c r="I43" s="511"/>
-      <c r="J43" s="511"/>
-      <c r="K43" s="511"/>
-      <c r="L43" s="511"/>
-      <c r="M43" s="511"/>
-      <c r="N43" s="511"/>
-      <c r="O43" s="511"/>
-      <c r="P43" s="511"/>
-      <c r="Q43" s="511"/>
-      <c r="R43" s="511"/>
-      <c r="S43" s="511"/>
-      <c r="T43" s="511"/>
-      <c r="U43" s="511"/>
-      <c r="V43" s="511"/>
-      <c r="W43" s="511"/>
-      <c r="X43" s="511"/>
-      <c r="Y43" s="511"/>
-      <c r="Z43" s="511"/>
+      <c r="A43" s="498"/>
+      <c r="B43" s="498"/>
+      <c r="C43" s="498"/>
+      <c r="D43" s="498"/>
+      <c r="E43" s="498"/>
+      <c r="F43" s="498"/>
+      <c r="G43" s="498"/>
+      <c r="H43" s="498"/>
+      <c r="I43" s="498"/>
+      <c r="J43" s="498"/>
+      <c r="K43" s="498"/>
+      <c r="L43" s="498"/>
+      <c r="M43" s="498"/>
+      <c r="N43" s="498"/>
+      <c r="O43" s="498"/>
+      <c r="P43" s="498"/>
+      <c r="Q43" s="498"/>
+      <c r="R43" s="498"/>
+      <c r="S43" s="498"/>
+      <c r="T43" s="498"/>
+      <c r="U43" s="498"/>
+      <c r="V43" s="498"/>
+      <c r="W43" s="498"/>
+      <c r="X43" s="498"/>
+      <c r="Y43" s="498"/>
+      <c r="Z43" s="498"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="511"/>
-      <c r="B44" s="511"/>
-      <c r="C44" s="511"/>
-      <c r="D44" s="511"/>
-      <c r="E44" s="511"/>
-      <c r="F44" s="511"/>
-      <c r="G44" s="511"/>
-      <c r="H44" s="511"/>
-      <c r="I44" s="511"/>
-      <c r="J44" s="511"/>
-      <c r="K44" s="511"/>
-      <c r="L44" s="511"/>
-      <c r="M44" s="511"/>
-      <c r="N44" s="511"/>
-      <c r="O44" s="511"/>
-      <c r="P44" s="511"/>
-      <c r="Q44" s="511"/>
-      <c r="R44" s="511"/>
-      <c r="S44" s="511"/>
-      <c r="T44" s="511"/>
-      <c r="U44" s="511"/>
-      <c r="V44" s="511"/>
-      <c r="W44" s="511"/>
-      <c r="X44" s="511"/>
-      <c r="Y44" s="511"/>
-      <c r="Z44" s="511"/>
+      <c r="A44" s="498"/>
+      <c r="B44" s="498"/>
+      <c r="C44" s="498"/>
+      <c r="D44" s="498"/>
+      <c r="E44" s="498"/>
+      <c r="F44" s="498"/>
+      <c r="G44" s="498"/>
+      <c r="H44" s="498"/>
+      <c r="I44" s="498"/>
+      <c r="J44" s="498"/>
+      <c r="K44" s="498"/>
+      <c r="L44" s="498"/>
+      <c r="M44" s="498"/>
+      <c r="N44" s="498"/>
+      <c r="O44" s="498"/>
+      <c r="P44" s="498"/>
+      <c r="Q44" s="498"/>
+      <c r="R44" s="498"/>
+      <c r="S44" s="498"/>
+      <c r="T44" s="498"/>
+      <c r="U44" s="498"/>
+      <c r="V44" s="498"/>
+      <c r="W44" s="498"/>
+      <c r="X44" s="498"/>
+      <c r="Y44" s="498"/>
+      <c r="Z44" s="498"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="511"/>
-      <c r="B45" s="511"/>
-      <c r="C45" s="511"/>
-      <c r="D45" s="511"/>
-      <c r="E45" s="511"/>
-      <c r="F45" s="511"/>
-      <c r="G45" s="511"/>
-      <c r="H45" s="511"/>
-      <c r="I45" s="511"/>
-      <c r="J45" s="511"/>
-      <c r="K45" s="511"/>
-      <c r="L45" s="511"/>
-      <c r="M45" s="511"/>
-      <c r="N45" s="511"/>
-      <c r="O45" s="511"/>
-      <c r="P45" s="511"/>
-      <c r="Q45" s="511"/>
-      <c r="R45" s="511"/>
-      <c r="S45" s="511"/>
-      <c r="T45" s="511"/>
-      <c r="U45" s="511"/>
-      <c r="V45" s="511"/>
-      <c r="W45" s="511"/>
-      <c r="X45" s="511"/>
-      <c r="Y45" s="511"/>
-      <c r="Z45" s="511"/>
+      <c r="A45" s="498"/>
+      <c r="B45" s="498"/>
+      <c r="C45" s="498"/>
+      <c r="D45" s="498"/>
+      <c r="E45" s="498"/>
+      <c r="F45" s="498"/>
+      <c r="G45" s="498"/>
+      <c r="H45" s="498"/>
+      <c r="I45" s="498"/>
+      <c r="J45" s="498"/>
+      <c r="K45" s="498"/>
+      <c r="L45" s="498"/>
+      <c r="M45" s="498"/>
+      <c r="N45" s="498"/>
+      <c r="O45" s="498"/>
+      <c r="P45" s="498"/>
+      <c r="Q45" s="498"/>
+      <c r="R45" s="498"/>
+      <c r="S45" s="498"/>
+      <c r="T45" s="498"/>
+      <c r="U45" s="498"/>
+      <c r="V45" s="498"/>
+      <c r="W45" s="498"/>
+      <c r="X45" s="498"/>
+      <c r="Y45" s="498"/>
+      <c r="Z45" s="498"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="511"/>
-      <c r="B46" s="511"/>
-      <c r="C46" s="511"/>
-      <c r="D46" s="511"/>
-      <c r="E46" s="511"/>
-      <c r="F46" s="511"/>
-      <c r="G46" s="511"/>
-      <c r="H46" s="511"/>
-      <c r="I46" s="511"/>
-      <c r="J46" s="511"/>
-      <c r="K46" s="511"/>
-      <c r="L46" s="511"/>
-      <c r="M46" s="511"/>
-      <c r="N46" s="511"/>
-      <c r="O46" s="511"/>
-      <c r="P46" s="511"/>
-      <c r="Q46" s="511"/>
-      <c r="R46" s="511"/>
-      <c r="S46" s="511"/>
-      <c r="T46" s="511"/>
-      <c r="U46" s="511"/>
-      <c r="V46" s="511"/>
-      <c r="W46" s="511"/>
-      <c r="X46" s="511"/>
-      <c r="Y46" s="511"/>
-      <c r="Z46" s="511"/>
+      <c r="A46" s="498"/>
+      <c r="B46" s="498"/>
+      <c r="C46" s="498"/>
+      <c r="D46" s="498"/>
+      <c r="E46" s="498"/>
+      <c r="F46" s="498"/>
+      <c r="G46" s="498"/>
+      <c r="H46" s="498"/>
+      <c r="I46" s="498"/>
+      <c r="J46" s="498"/>
+      <c r="K46" s="498"/>
+      <c r="L46" s="498"/>
+      <c r="M46" s="498"/>
+      <c r="N46" s="498"/>
+      <c r="O46" s="498"/>
+      <c r="P46" s="498"/>
+      <c r="Q46" s="498"/>
+      <c r="R46" s="498"/>
+      <c r="S46" s="498"/>
+      <c r="T46" s="498"/>
+      <c r="U46" s="498"/>
+      <c r="V46" s="498"/>
+      <c r="W46" s="498"/>
+      <c r="X46" s="498"/>
+      <c r="Y46" s="498"/>
+      <c r="Z46" s="498"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="511"/>
-      <c r="B47" s="511"/>
-      <c r="C47" s="511"/>
-      <c r="D47" s="511"/>
-      <c r="E47" s="511"/>
-      <c r="F47" s="511"/>
-      <c r="G47" s="511"/>
-      <c r="H47" s="511"/>
-      <c r="I47" s="511"/>
-      <c r="J47" s="511"/>
-      <c r="K47" s="511"/>
-      <c r="L47" s="511"/>
-      <c r="M47" s="511"/>
-      <c r="N47" s="511"/>
-      <c r="O47" s="511"/>
-      <c r="P47" s="511"/>
-      <c r="Q47" s="511"/>
-      <c r="R47" s="511"/>
-      <c r="S47" s="511"/>
-      <c r="T47" s="511"/>
-      <c r="U47" s="511"/>
-      <c r="V47" s="511"/>
-      <c r="W47" s="511"/>
-      <c r="X47" s="511"/>
-      <c r="Y47" s="511"/>
-      <c r="Z47" s="511"/>
+      <c r="A47" s="498"/>
+      <c r="B47" s="498"/>
+      <c r="C47" s="498"/>
+      <c r="D47" s="498"/>
+      <c r="E47" s="498"/>
+      <c r="F47" s="498"/>
+      <c r="G47" s="498"/>
+      <c r="H47" s="498"/>
+      <c r="I47" s="498"/>
+      <c r="J47" s="498"/>
+      <c r="K47" s="498"/>
+      <c r="L47" s="498"/>
+      <c r="M47" s="498"/>
+      <c r="N47" s="498"/>
+      <c r="O47" s="498"/>
+      <c r="P47" s="498"/>
+      <c r="Q47" s="498"/>
+      <c r="R47" s="498"/>
+      <c r="S47" s="498"/>
+      <c r="T47" s="498"/>
+      <c r="U47" s="498"/>
+      <c r="V47" s="498"/>
+      <c r="W47" s="498"/>
+      <c r="X47" s="498"/>
+      <c r="Y47" s="498"/>
+      <c r="Z47" s="498"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="511"/>
-      <c r="B48" s="511"/>
-      <c r="C48" s="511"/>
-      <c r="D48" s="511"/>
-      <c r="E48" s="511"/>
-      <c r="F48" s="511"/>
-      <c r="G48" s="511"/>
-      <c r="H48" s="511"/>
-      <c r="I48" s="511"/>
-      <c r="J48" s="511"/>
-      <c r="K48" s="511"/>
-      <c r="L48" s="511"/>
-      <c r="M48" s="511"/>
-      <c r="N48" s="511"/>
-      <c r="O48" s="511"/>
-      <c r="P48" s="511"/>
-      <c r="Q48" s="511"/>
-      <c r="R48" s="511"/>
-      <c r="S48" s="511"/>
-      <c r="T48" s="511"/>
-      <c r="U48" s="511"/>
-      <c r="V48" s="511"/>
-      <c r="W48" s="511"/>
-      <c r="X48" s="511"/>
-      <c r="Y48" s="511"/>
-      <c r="Z48" s="511"/>
+      <c r="A48" s="498"/>
+      <c r="B48" s="498"/>
+      <c r="C48" s="498"/>
+      <c r="D48" s="498"/>
+      <c r="E48" s="498"/>
+      <c r="F48" s="498"/>
+      <c r="G48" s="498"/>
+      <c r="H48" s="498"/>
+      <c r="I48" s="498"/>
+      <c r="J48" s="498"/>
+      <c r="K48" s="498"/>
+      <c r="L48" s="498"/>
+      <c r="M48" s="498"/>
+      <c r="N48" s="498"/>
+      <c r="O48" s="498"/>
+      <c r="P48" s="498"/>
+      <c r="Q48" s="498"/>
+      <c r="R48" s="498"/>
+      <c r="S48" s="498"/>
+      <c r="T48" s="498"/>
+      <c r="U48" s="498"/>
+      <c r="V48" s="498"/>
+      <c r="W48" s="498"/>
+      <c r="X48" s="498"/>
+      <c r="Y48" s="498"/>
+      <c r="Z48" s="498"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="511"/>
-      <c r="B49" s="511"/>
-      <c r="C49" s="511"/>
-      <c r="D49" s="511"/>
-      <c r="E49" s="511"/>
-      <c r="F49" s="511"/>
-      <c r="G49" s="511"/>
-      <c r="H49" s="511"/>
-      <c r="I49" s="511"/>
-      <c r="J49" s="511"/>
-      <c r="K49" s="511"/>
-      <c r="L49" s="511"/>
-      <c r="M49" s="511"/>
-      <c r="N49" s="511"/>
-      <c r="O49" s="511"/>
-      <c r="P49" s="511"/>
-      <c r="Q49" s="511"/>
-      <c r="R49" s="511"/>
-      <c r="S49" s="511"/>
-      <c r="T49" s="511"/>
-      <c r="U49" s="511"/>
-      <c r="V49" s="511"/>
-      <c r="W49" s="511"/>
-      <c r="X49" s="511"/>
-      <c r="Y49" s="511"/>
-      <c r="Z49" s="511"/>
+      <c r="A49" s="498"/>
+      <c r="B49" s="498"/>
+      <c r="C49" s="498"/>
+      <c r="D49" s="498"/>
+      <c r="E49" s="498"/>
+      <c r="F49" s="498"/>
+      <c r="G49" s="498"/>
+      <c r="H49" s="498"/>
+      <c r="I49" s="498"/>
+      <c r="J49" s="498"/>
+      <c r="K49" s="498"/>
+      <c r="L49" s="498"/>
+      <c r="M49" s="498"/>
+      <c r="N49" s="498"/>
+      <c r="O49" s="498"/>
+      <c r="P49" s="498"/>
+      <c r="Q49" s="498"/>
+      <c r="R49" s="498"/>
+      <c r="S49" s="498"/>
+      <c r="T49" s="498"/>
+      <c r="U49" s="498"/>
+      <c r="V49" s="498"/>
+      <c r="W49" s="498"/>
+      <c r="X49" s="498"/>
+      <c r="Y49" s="498"/>
+      <c r="Z49" s="498"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="511"/>
-      <c r="B50" s="511"/>
-      <c r="C50" s="511"/>
-      <c r="D50" s="511"/>
-      <c r="E50" s="511"/>
-      <c r="F50" s="511"/>
-      <c r="G50" s="511"/>
-      <c r="H50" s="511"/>
-      <c r="I50" s="511"/>
-      <c r="J50" s="511"/>
-      <c r="K50" s="511"/>
-      <c r="L50" s="511"/>
-      <c r="M50" s="511"/>
-      <c r="N50" s="511"/>
-      <c r="O50" s="511"/>
-      <c r="P50" s="511"/>
-      <c r="Q50" s="511"/>
-      <c r="R50" s="511"/>
-      <c r="S50" s="511"/>
-      <c r="T50" s="511"/>
-      <c r="U50" s="511"/>
-      <c r="V50" s="511"/>
-      <c r="W50" s="511"/>
-      <c r="X50" s="511"/>
-      <c r="Y50" s="511"/>
-      <c r="Z50" s="511"/>
+      <c r="A50" s="498"/>
+      <c r="B50" s="498"/>
+      <c r="C50" s="498"/>
+      <c r="D50" s="498"/>
+      <c r="E50" s="498"/>
+      <c r="F50" s="498"/>
+      <c r="G50" s="498"/>
+      <c r="H50" s="498"/>
+      <c r="I50" s="498"/>
+      <c r="J50" s="498"/>
+      <c r="K50" s="498"/>
+      <c r="L50" s="498"/>
+      <c r="M50" s="498"/>
+      <c r="N50" s="498"/>
+      <c r="O50" s="498"/>
+      <c r="P50" s="498"/>
+      <c r="Q50" s="498"/>
+      <c r="R50" s="498"/>
+      <c r="S50" s="498"/>
+      <c r="T50" s="498"/>
+      <c r="U50" s="498"/>
+      <c r="V50" s="498"/>
+      <c r="W50" s="498"/>
+      <c r="X50" s="498"/>
+      <c r="Y50" s="498"/>
+      <c r="Z50" s="498"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="511"/>
-      <c r="B51" s="511"/>
-      <c r="C51" s="511"/>
-      <c r="D51" s="511"/>
-      <c r="E51" s="511"/>
-      <c r="F51" s="511"/>
-      <c r="G51" s="511"/>
-      <c r="H51" s="511"/>
-      <c r="I51" s="511"/>
-      <c r="J51" s="511"/>
-      <c r="K51" s="511"/>
-      <c r="L51" s="511"/>
-      <c r="M51" s="511"/>
-      <c r="N51" s="511"/>
-      <c r="O51" s="511"/>
-      <c r="P51" s="511"/>
-      <c r="Q51" s="511"/>
-      <c r="R51" s="511"/>
-      <c r="S51" s="511"/>
-      <c r="T51" s="511"/>
-      <c r="U51" s="511"/>
-      <c r="V51" s="511"/>
-      <c r="W51" s="511"/>
-      <c r="X51" s="511"/>
-      <c r="Y51" s="511"/>
-      <c r="Z51" s="511"/>
+      <c r="A51" s="498"/>
+      <c r="B51" s="498"/>
+      <c r="C51" s="498"/>
+      <c r="D51" s="498"/>
+      <c r="E51" s="498"/>
+      <c r="F51" s="498"/>
+      <c r="G51" s="498"/>
+      <c r="H51" s="498"/>
+      <c r="I51" s="498"/>
+      <c r="J51" s="498"/>
+      <c r="K51" s="498"/>
+      <c r="L51" s="498"/>
+      <c r="M51" s="498"/>
+      <c r="N51" s="498"/>
+      <c r="O51" s="498"/>
+      <c r="P51" s="498"/>
+      <c r="Q51" s="498"/>
+      <c r="R51" s="498"/>
+      <c r="S51" s="498"/>
+      <c r="T51" s="498"/>
+      <c r="U51" s="498"/>
+      <c r="V51" s="498"/>
+      <c r="W51" s="498"/>
+      <c r="X51" s="498"/>
+      <c r="Y51" s="498"/>
+      <c r="Z51" s="498"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="511"/>
-      <c r="B52" s="511"/>
-      <c r="C52" s="511"/>
-      <c r="D52" s="511"/>
-      <c r="E52" s="511"/>
-      <c r="F52" s="511"/>
-      <c r="G52" s="511"/>
-      <c r="H52" s="511"/>
-      <c r="I52" s="511"/>
-      <c r="J52" s="511"/>
-      <c r="K52" s="511"/>
-      <c r="L52" s="511"/>
-      <c r="M52" s="511"/>
-      <c r="N52" s="511"/>
-      <c r="O52" s="511"/>
-      <c r="P52" s="511"/>
-      <c r="Q52" s="511"/>
-      <c r="R52" s="511"/>
-      <c r="S52" s="511"/>
-      <c r="T52" s="511"/>
-      <c r="U52" s="511"/>
-      <c r="V52" s="511"/>
-      <c r="W52" s="511"/>
-      <c r="X52" s="511"/>
-      <c r="Y52" s="511"/>
-      <c r="Z52" s="511"/>
+      <c r="A52" s="498"/>
+      <c r="B52" s="498"/>
+      <c r="C52" s="498"/>
+      <c r="D52" s="498"/>
+      <c r="E52" s="498"/>
+      <c r="F52" s="498"/>
+      <c r="G52" s="498"/>
+      <c r="H52" s="498"/>
+      <c r="I52" s="498"/>
+      <c r="J52" s="498"/>
+      <c r="K52" s="498"/>
+      <c r="L52" s="498"/>
+      <c r="M52" s="498"/>
+      <c r="N52" s="498"/>
+      <c r="O52" s="498"/>
+      <c r="P52" s="498"/>
+      <c r="Q52" s="498"/>
+      <c r="R52" s="498"/>
+      <c r="S52" s="498"/>
+      <c r="T52" s="498"/>
+      <c r="U52" s="498"/>
+      <c r="V52" s="498"/>
+      <c r="W52" s="498"/>
+      <c r="X52" s="498"/>
+      <c r="Y52" s="498"/>
+      <c r="Z52" s="498"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="511"/>
-      <c r="B53" s="511"/>
-      <c r="C53" s="511"/>
-      <c r="D53" s="511"/>
-      <c r="E53" s="511"/>
-      <c r="F53" s="511"/>
-      <c r="G53" s="511"/>
-      <c r="H53" s="511"/>
-      <c r="I53" s="511"/>
-      <c r="J53" s="511"/>
-      <c r="K53" s="511"/>
-      <c r="L53" s="511"/>
-      <c r="M53" s="511"/>
-      <c r="N53" s="511"/>
-      <c r="O53" s="511"/>
-      <c r="P53" s="511"/>
-      <c r="Q53" s="511"/>
-      <c r="R53" s="511"/>
-      <c r="S53" s="511"/>
-      <c r="T53" s="511"/>
-      <c r="U53" s="511"/>
-      <c r="V53" s="511"/>
-      <c r="W53" s="511"/>
-      <c r="X53" s="511"/>
-      <c r="Y53" s="511"/>
-      <c r="Z53" s="511"/>
+      <c r="A53" s="498"/>
+      <c r="B53" s="498"/>
+      <c r="C53" s="498"/>
+      <c r="D53" s="498"/>
+      <c r="E53" s="498"/>
+      <c r="F53" s="498"/>
+      <c r="G53" s="498"/>
+      <c r="H53" s="498"/>
+      <c r="I53" s="498"/>
+      <c r="J53" s="498"/>
+      <c r="K53" s="498"/>
+      <c r="L53" s="498"/>
+      <c r="M53" s="498"/>
+      <c r="N53" s="498"/>
+      <c r="O53" s="498"/>
+      <c r="P53" s="498"/>
+      <c r="Q53" s="498"/>
+      <c r="R53" s="498"/>
+      <c r="S53" s="498"/>
+      <c r="T53" s="498"/>
+      <c r="U53" s="498"/>
+      <c r="V53" s="498"/>
+      <c r="W53" s="498"/>
+      <c r="X53" s="498"/>
+      <c r="Y53" s="498"/>
+      <c r="Z53" s="498"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="511"/>
-      <c r="B54" s="511"/>
-      <c r="C54" s="511"/>
-      <c r="D54" s="511"/>
-      <c r="E54" s="511"/>
-      <c r="F54" s="511"/>
-      <c r="G54" s="511"/>
-      <c r="H54" s="511"/>
-      <c r="I54" s="511"/>
-      <c r="J54" s="511"/>
-      <c r="K54" s="511"/>
-      <c r="L54" s="511"/>
-      <c r="M54" s="511"/>
-      <c r="N54" s="511"/>
-      <c r="O54" s="511"/>
-      <c r="P54" s="511"/>
-      <c r="Q54" s="511"/>
-      <c r="R54" s="511"/>
-      <c r="S54" s="511"/>
-      <c r="T54" s="511"/>
-      <c r="U54" s="511"/>
-      <c r="V54" s="511"/>
-      <c r="W54" s="511"/>
-      <c r="X54" s="511"/>
-      <c r="Y54" s="511"/>
-      <c r="Z54" s="511"/>
+      <c r="A54" s="498"/>
+      <c r="B54" s="498"/>
+      <c r="C54" s="498"/>
+      <c r="D54" s="498"/>
+      <c r="E54" s="498"/>
+      <c r="F54" s="498"/>
+      <c r="G54" s="498"/>
+      <c r="H54" s="498"/>
+      <c r="I54" s="498"/>
+      <c r="J54" s="498"/>
+      <c r="K54" s="498"/>
+      <c r="L54" s="498"/>
+      <c r="M54" s="498"/>
+      <c r="N54" s="498"/>
+      <c r="O54" s="498"/>
+      <c r="P54" s="498"/>
+      <c r="Q54" s="498"/>
+      <c r="R54" s="498"/>
+      <c r="S54" s="498"/>
+      <c r="T54" s="498"/>
+      <c r="U54" s="498"/>
+      <c r="V54" s="498"/>
+      <c r="W54" s="498"/>
+      <c r="X54" s="498"/>
+      <c r="Y54" s="498"/>
+      <c r="Z54" s="498"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="511"/>
-      <c r="B55" s="511"/>
-      <c r="C55" s="511"/>
-      <c r="D55" s="511"/>
-      <c r="E55" s="511"/>
-      <c r="F55" s="511"/>
-      <c r="G55" s="511"/>
-      <c r="H55" s="511"/>
-      <c r="I55" s="511"/>
-      <c r="J55" s="511"/>
-      <c r="K55" s="511"/>
-      <c r="L55" s="511"/>
-      <c r="M55" s="511"/>
-      <c r="N55" s="511"/>
-      <c r="O55" s="511"/>
-      <c r="P55" s="511"/>
-      <c r="Q55" s="511"/>
-      <c r="R55" s="511"/>
-      <c r="S55" s="511"/>
-      <c r="T55" s="511"/>
-      <c r="U55" s="511"/>
-      <c r="V55" s="511"/>
-      <c r="W55" s="511"/>
-      <c r="X55" s="511"/>
-      <c r="Y55" s="511"/>
-      <c r="Z55" s="511"/>
+      <c r="A55" s="498"/>
+      <c r="B55" s="498"/>
+      <c r="C55" s="498"/>
+      <c r="D55" s="498"/>
+      <c r="E55" s="498"/>
+      <c r="F55" s="498"/>
+      <c r="G55" s="498"/>
+      <c r="H55" s="498"/>
+      <c r="I55" s="498"/>
+      <c r="J55" s="498"/>
+      <c r="K55" s="498"/>
+      <c r="L55" s="498"/>
+      <c r="M55" s="498"/>
+      <c r="N55" s="498"/>
+      <c r="O55" s="498"/>
+      <c r="P55" s="498"/>
+      <c r="Q55" s="498"/>
+      <c r="R55" s="498"/>
+      <c r="S55" s="498"/>
+      <c r="T55" s="498"/>
+      <c r="U55" s="498"/>
+      <c r="V55" s="498"/>
+      <c r="W55" s="498"/>
+      <c r="X55" s="498"/>
+      <c r="Y55" s="498"/>
+      <c r="Z55" s="498"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="511"/>
-      <c r="B56" s="511"/>
-      <c r="C56" s="511"/>
-      <c r="D56" s="511"/>
-      <c r="E56" s="511"/>
-      <c r="F56" s="511"/>
-      <c r="G56" s="511"/>
-      <c r="H56" s="511"/>
-      <c r="I56" s="511"/>
-      <c r="J56" s="511"/>
-      <c r="K56" s="511"/>
-      <c r="L56" s="511"/>
-      <c r="M56" s="511"/>
-      <c r="N56" s="511"/>
-      <c r="O56" s="511"/>
-      <c r="P56" s="511"/>
-      <c r="Q56" s="511"/>
-      <c r="R56" s="511"/>
-      <c r="S56" s="511"/>
-      <c r="T56" s="511"/>
-      <c r="U56" s="511"/>
-      <c r="V56" s="511"/>
-      <c r="W56" s="511"/>
-      <c r="X56" s="511"/>
-      <c r="Y56" s="511"/>
-      <c r="Z56" s="511"/>
+      <c r="A56" s="498"/>
+      <c r="B56" s="498"/>
+      <c r="C56" s="498"/>
+      <c r="D56" s="498"/>
+      <c r="E56" s="498"/>
+      <c r="F56" s="498"/>
+      <c r="G56" s="498"/>
+      <c r="H56" s="498"/>
+      <c r="I56" s="498"/>
+      <c r="J56" s="498"/>
+      <c r="K56" s="498"/>
+      <c r="L56" s="498"/>
+      <c r="M56" s="498"/>
+      <c r="N56" s="498"/>
+      <c r="O56" s="498"/>
+      <c r="P56" s="498"/>
+      <c r="Q56" s="498"/>
+      <c r="R56" s="498"/>
+      <c r="S56" s="498"/>
+      <c r="T56" s="498"/>
+      <c r="U56" s="498"/>
+      <c r="V56" s="498"/>
+      <c r="W56" s="498"/>
+      <c r="X56" s="498"/>
+      <c r="Y56" s="498"/>
+      <c r="Z56" s="498"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="511"/>
-      <c r="B57" s="511"/>
-      <c r="C57" s="511"/>
-      <c r="D57" s="511"/>
-      <c r="E57" s="511"/>
-      <c r="F57" s="511"/>
-      <c r="G57" s="511"/>
-      <c r="H57" s="511"/>
-      <c r="I57" s="511"/>
-      <c r="J57" s="511"/>
-      <c r="K57" s="511"/>
-      <c r="L57" s="511"/>
-      <c r="M57" s="511"/>
-      <c r="N57" s="511"/>
-      <c r="O57" s="511"/>
-      <c r="P57" s="511"/>
-      <c r="Q57" s="511"/>
-      <c r="R57" s="511"/>
-      <c r="S57" s="511"/>
-      <c r="T57" s="511"/>
-      <c r="U57" s="511"/>
-      <c r="V57" s="511"/>
-      <c r="W57" s="511"/>
-      <c r="X57" s="511"/>
-      <c r="Y57" s="511"/>
-      <c r="Z57" s="511"/>
+      <c r="A57" s="498"/>
+      <c r="B57" s="498"/>
+      <c r="C57" s="498"/>
+      <c r="D57" s="498"/>
+      <c r="E57" s="498"/>
+      <c r="F57" s="498"/>
+      <c r="G57" s="498"/>
+      <c r="H57" s="498"/>
+      <c r="I57" s="498"/>
+      <c r="J57" s="498"/>
+      <c r="K57" s="498"/>
+      <c r="L57" s="498"/>
+      <c r="M57" s="498"/>
+      <c r="N57" s="498"/>
+      <c r="O57" s="498"/>
+      <c r="P57" s="498"/>
+      <c r="Q57" s="498"/>
+      <c r="R57" s="498"/>
+      <c r="S57" s="498"/>
+      <c r="T57" s="498"/>
+      <c r="U57" s="498"/>
+      <c r="V57" s="498"/>
+      <c r="W57" s="498"/>
+      <c r="X57" s="498"/>
+      <c r="Y57" s="498"/>
+      <c r="Z57" s="498"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="511"/>
-      <c r="B58" s="511"/>
-      <c r="C58" s="511"/>
-      <c r="D58" s="511"/>
-      <c r="E58" s="511"/>
-      <c r="F58" s="511"/>
-      <c r="G58" s="511"/>
-      <c r="H58" s="511"/>
-      <c r="I58" s="511"/>
-      <c r="J58" s="511"/>
-      <c r="K58" s="511"/>
-      <c r="L58" s="511"/>
-      <c r="M58" s="511"/>
-      <c r="N58" s="511"/>
-      <c r="O58" s="511"/>
-      <c r="P58" s="511"/>
-      <c r="Q58" s="511"/>
-      <c r="R58" s="511"/>
-      <c r="S58" s="511"/>
-      <c r="T58" s="511"/>
-      <c r="U58" s="511"/>
-      <c r="V58" s="511"/>
-      <c r="W58" s="511"/>
-      <c r="X58" s="511"/>
-      <c r="Y58" s="511"/>
-      <c r="Z58" s="511"/>
+      <c r="A58" s="498"/>
+      <c r="B58" s="498"/>
+      <c r="C58" s="498"/>
+      <c r="D58" s="498"/>
+      <c r="E58" s="498"/>
+      <c r="F58" s="498"/>
+      <c r="G58" s="498"/>
+      <c r="H58" s="498"/>
+      <c r="I58" s="498"/>
+      <c r="J58" s="498"/>
+      <c r="K58" s="498"/>
+      <c r="L58" s="498"/>
+      <c r="M58" s="498"/>
+      <c r="N58" s="498"/>
+      <c r="O58" s="498"/>
+      <c r="P58" s="498"/>
+      <c r="Q58" s="498"/>
+      <c r="R58" s="498"/>
+      <c r="S58" s="498"/>
+      <c r="T58" s="498"/>
+      <c r="U58" s="498"/>
+      <c r="V58" s="498"/>
+      <c r="W58" s="498"/>
+      <c r="X58" s="498"/>
+      <c r="Y58" s="498"/>
+      <c r="Z58" s="498"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="511"/>
-      <c r="B59" s="511"/>
-      <c r="C59" s="511"/>
-      <c r="D59" s="511"/>
-      <c r="E59" s="511"/>
-      <c r="F59" s="511"/>
-      <c r="G59" s="511"/>
-      <c r="H59" s="511"/>
-      <c r="I59" s="511"/>
-      <c r="J59" s="511"/>
-      <c r="K59" s="511"/>
-      <c r="L59" s="511"/>
-      <c r="M59" s="511"/>
-      <c r="N59" s="511"/>
-      <c r="O59" s="511"/>
-      <c r="P59" s="511"/>
-      <c r="Q59" s="511"/>
-      <c r="R59" s="511"/>
-      <c r="S59" s="511"/>
-      <c r="T59" s="511"/>
-      <c r="U59" s="511"/>
-      <c r="V59" s="511"/>
-      <c r="W59" s="511"/>
-      <c r="X59" s="511"/>
-      <c r="Y59" s="511"/>
-      <c r="Z59" s="511"/>
+      <c r="A59" s="498"/>
+      <c r="B59" s="498"/>
+      <c r="C59" s="498"/>
+      <c r="D59" s="498"/>
+      <c r="E59" s="498"/>
+      <c r="F59" s="498"/>
+      <c r="G59" s="498"/>
+      <c r="H59" s="498"/>
+      <c r="I59" s="498"/>
+      <c r="J59" s="498"/>
+      <c r="K59" s="498"/>
+      <c r="L59" s="498"/>
+      <c r="M59" s="498"/>
+      <c r="N59" s="498"/>
+      <c r="O59" s="498"/>
+      <c r="P59" s="498"/>
+      <c r="Q59" s="498"/>
+      <c r="R59" s="498"/>
+      <c r="S59" s="498"/>
+      <c r="T59" s="498"/>
+      <c r="U59" s="498"/>
+      <c r="V59" s="498"/>
+      <c r="W59" s="498"/>
+      <c r="X59" s="498"/>
+      <c r="Y59" s="498"/>
+      <c r="Z59" s="498"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="511"/>
-      <c r="B60" s="511"/>
-      <c r="C60" s="511"/>
-      <c r="D60" s="511"/>
-      <c r="E60" s="511"/>
-      <c r="F60" s="511"/>
-      <c r="G60" s="511"/>
-      <c r="H60" s="511"/>
-      <c r="I60" s="511"/>
-      <c r="J60" s="511"/>
-      <c r="K60" s="511"/>
-      <c r="L60" s="511"/>
-      <c r="M60" s="511"/>
-      <c r="N60" s="511"/>
-      <c r="O60" s="511"/>
-      <c r="P60" s="511"/>
-      <c r="Q60" s="511"/>
-      <c r="R60" s="511"/>
-      <c r="S60" s="511"/>
-      <c r="T60" s="511"/>
-      <c r="U60" s="511"/>
-      <c r="V60" s="511"/>
-      <c r="W60" s="511"/>
-      <c r="X60" s="511"/>
-      <c r="Y60" s="511"/>
-      <c r="Z60" s="511"/>
+      <c r="A60" s="498"/>
+      <c r="B60" s="498"/>
+      <c r="C60" s="498"/>
+      <c r="D60" s="498"/>
+      <c r="E60" s="498"/>
+      <c r="F60" s="498"/>
+      <c r="G60" s="498"/>
+      <c r="H60" s="498"/>
+      <c r="I60" s="498"/>
+      <c r="J60" s="498"/>
+      <c r="K60" s="498"/>
+      <c r="L60" s="498"/>
+      <c r="M60" s="498"/>
+      <c r="N60" s="498"/>
+      <c r="O60" s="498"/>
+      <c r="P60" s="498"/>
+      <c r="Q60" s="498"/>
+      <c r="R60" s="498"/>
+      <c r="S60" s="498"/>
+      <c r="T60" s="498"/>
+      <c r="U60" s="498"/>
+      <c r="V60" s="498"/>
+      <c r="W60" s="498"/>
+      <c r="X60" s="498"/>
+      <c r="Y60" s="498"/>
+      <c r="Z60" s="498"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="511"/>
-      <c r="B61" s="511"/>
-      <c r="C61" s="511"/>
-      <c r="D61" s="511"/>
-      <c r="E61" s="511"/>
-      <c r="F61" s="511"/>
-      <c r="G61" s="511"/>
-      <c r="H61" s="511"/>
-      <c r="I61" s="511"/>
-      <c r="J61" s="511"/>
-      <c r="K61" s="511"/>
-      <c r="L61" s="511"/>
-      <c r="M61" s="511"/>
-      <c r="N61" s="511"/>
-      <c r="O61" s="511"/>
-      <c r="P61" s="511"/>
-      <c r="Q61" s="511"/>
-      <c r="R61" s="511"/>
-      <c r="S61" s="511"/>
-      <c r="T61" s="511"/>
-      <c r="U61" s="511"/>
-      <c r="V61" s="511"/>
-      <c r="W61" s="511"/>
-      <c r="X61" s="511"/>
-      <c r="Y61" s="511"/>
-      <c r="Z61" s="511"/>
+      <c r="A61" s="498"/>
+      <c r="B61" s="498"/>
+      <c r="C61" s="498"/>
+      <c r="D61" s="498"/>
+      <c r="E61" s="498"/>
+      <c r="F61" s="498"/>
+      <c r="G61" s="498"/>
+      <c r="H61" s="498"/>
+      <c r="I61" s="498"/>
+      <c r="J61" s="498"/>
+      <c r="K61" s="498"/>
+      <c r="L61" s="498"/>
+      <c r="M61" s="498"/>
+      <c r="N61" s="498"/>
+      <c r="O61" s="498"/>
+      <c r="P61" s="498"/>
+      <c r="Q61" s="498"/>
+      <c r="R61" s="498"/>
+      <c r="S61" s="498"/>
+      <c r="T61" s="498"/>
+      <c r="U61" s="498"/>
+      <c r="V61" s="498"/>
+      <c r="W61" s="498"/>
+      <c r="X61" s="498"/>
+      <c r="Y61" s="498"/>
+      <c r="Z61" s="498"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="511"/>
-      <c r="B62" s="511"/>
-      <c r="C62" s="511"/>
-      <c r="D62" s="511"/>
-      <c r="E62" s="511"/>
-      <c r="F62" s="511"/>
-      <c r="G62" s="511"/>
-      <c r="H62" s="511"/>
-      <c r="I62" s="511"/>
-      <c r="J62" s="511"/>
-      <c r="K62" s="511"/>
-      <c r="L62" s="511"/>
-      <c r="M62" s="511"/>
-      <c r="N62" s="511"/>
-      <c r="O62" s="511"/>
-      <c r="P62" s="511"/>
-      <c r="Q62" s="511"/>
-      <c r="R62" s="511"/>
-      <c r="S62" s="511"/>
-      <c r="T62" s="511"/>
-      <c r="U62" s="511"/>
-      <c r="V62" s="511"/>
-      <c r="W62" s="511"/>
-      <c r="X62" s="511"/>
-      <c r="Y62" s="511"/>
-      <c r="Z62" s="511"/>
+      <c r="A62" s="498"/>
+      <c r="B62" s="498"/>
+      <c r="C62" s="498"/>
+      <c r="D62" s="498"/>
+      <c r="E62" s="498"/>
+      <c r="F62" s="498"/>
+      <c r="G62" s="498"/>
+      <c r="H62" s="498"/>
+      <c r="I62" s="498"/>
+      <c r="J62" s="498"/>
+      <c r="K62" s="498"/>
+      <c r="L62" s="498"/>
+      <c r="M62" s="498"/>
+      <c r="N62" s="498"/>
+      <c r="O62" s="498"/>
+      <c r="P62" s="498"/>
+      <c r="Q62" s="498"/>
+      <c r="R62" s="498"/>
+      <c r="S62" s="498"/>
+      <c r="T62" s="498"/>
+      <c r="U62" s="498"/>
+      <c r="V62" s="498"/>
+      <c r="W62" s="498"/>
+      <c r="X62" s="498"/>
+      <c r="Y62" s="498"/>
+      <c r="Z62" s="498"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="511"/>
-      <c r="B63" s="511"/>
-      <c r="C63" s="511"/>
-      <c r="D63" s="511"/>
-      <c r="E63" s="511"/>
-      <c r="F63" s="511"/>
-      <c r="G63" s="511"/>
-      <c r="H63" s="511"/>
-      <c r="I63" s="511"/>
-      <c r="J63" s="511"/>
-      <c r="K63" s="511"/>
-      <c r="L63" s="511"/>
-      <c r="M63" s="511"/>
-      <c r="N63" s="511"/>
-      <c r="O63" s="511"/>
-      <c r="P63" s="511"/>
-      <c r="Q63" s="511"/>
-      <c r="R63" s="511"/>
-      <c r="S63" s="511"/>
-      <c r="T63" s="511"/>
-      <c r="U63" s="511"/>
-      <c r="V63" s="511"/>
-      <c r="W63" s="511"/>
-      <c r="X63" s="511"/>
-      <c r="Y63" s="511"/>
-      <c r="Z63" s="511"/>
+      <c r="A63" s="498"/>
+      <c r="B63" s="498"/>
+      <c r="C63" s="498"/>
+      <c r="D63" s="498"/>
+      <c r="E63" s="498"/>
+      <c r="F63" s="498"/>
+      <c r="G63" s="498"/>
+      <c r="H63" s="498"/>
+      <c r="I63" s="498"/>
+      <c r="J63" s="498"/>
+      <c r="K63" s="498"/>
+      <c r="L63" s="498"/>
+      <c r="M63" s="498"/>
+      <c r="N63" s="498"/>
+      <c r="O63" s="498"/>
+      <c r="P63" s="498"/>
+      <c r="Q63" s="498"/>
+      <c r="R63" s="498"/>
+      <c r="S63" s="498"/>
+      <c r="T63" s="498"/>
+      <c r="U63" s="498"/>
+      <c r="V63" s="498"/>
+      <c r="W63" s="498"/>
+      <c r="X63" s="498"/>
+      <c r="Y63" s="498"/>
+      <c r="Z63" s="498"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="511"/>
-      <c r="B64" s="511"/>
-      <c r="C64" s="511"/>
-      <c r="D64" s="511"/>
-      <c r="E64" s="511"/>
-      <c r="F64" s="511"/>
-      <c r="G64" s="511"/>
-      <c r="H64" s="511"/>
-      <c r="I64" s="511"/>
-      <c r="J64" s="511"/>
-      <c r="K64" s="511"/>
-      <c r="L64" s="511"/>
-      <c r="M64" s="511"/>
-      <c r="N64" s="511"/>
-      <c r="O64" s="511"/>
-      <c r="P64" s="511"/>
-      <c r="Q64" s="511"/>
-      <c r="R64" s="511"/>
-      <c r="S64" s="511"/>
-      <c r="T64" s="511"/>
-      <c r="U64" s="511"/>
-      <c r="V64" s="511"/>
-      <c r="W64" s="511"/>
-      <c r="X64" s="511"/>
-      <c r="Y64" s="511"/>
-      <c r="Z64" s="511"/>
+      <c r="A64" s="498"/>
+      <c r="B64" s="498"/>
+      <c r="C64" s="498"/>
+      <c r="D64" s="498"/>
+      <c r="E64" s="498"/>
+      <c r="F64" s="498"/>
+      <c r="G64" s="498"/>
+      <c r="H64" s="498"/>
+      <c r="I64" s="498"/>
+      <c r="J64" s="498"/>
+      <c r="K64" s="498"/>
+      <c r="L64" s="498"/>
+      <c r="M64" s="498"/>
+      <c r="N64" s="498"/>
+      <c r="O64" s="498"/>
+      <c r="P64" s="498"/>
+      <c r="Q64" s="498"/>
+      <c r="R64" s="498"/>
+      <c r="S64" s="498"/>
+      <c r="T64" s="498"/>
+      <c r="U64" s="498"/>
+      <c r="V64" s="498"/>
+      <c r="W64" s="498"/>
+      <c r="X64" s="498"/>
+      <c r="Y64" s="498"/>
+      <c r="Z64" s="498"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="511"/>
-      <c r="B65" s="511"/>
-      <c r="C65" s="511"/>
-      <c r="D65" s="511"/>
-      <c r="E65" s="511"/>
-      <c r="F65" s="511"/>
-      <c r="G65" s="511"/>
-      <c r="H65" s="511"/>
-      <c r="I65" s="511"/>
-      <c r="J65" s="511"/>
-      <c r="K65" s="511"/>
-      <c r="L65" s="511"/>
-      <c r="M65" s="511"/>
-      <c r="N65" s="511"/>
-      <c r="O65" s="511"/>
-      <c r="P65" s="511"/>
-      <c r="Q65" s="511"/>
-      <c r="R65" s="511"/>
-      <c r="S65" s="511"/>
-      <c r="T65" s="511"/>
-      <c r="U65" s="511"/>
-      <c r="V65" s="511"/>
-      <c r="W65" s="511"/>
-      <c r="X65" s="511"/>
-      <c r="Y65" s="511"/>
-      <c r="Z65" s="511"/>
+      <c r="A65" s="498"/>
+      <c r="B65" s="498"/>
+      <c r="C65" s="498"/>
+      <c r="D65" s="498"/>
+      <c r="E65" s="498"/>
+      <c r="F65" s="498"/>
+      <c r="G65" s="498"/>
+      <c r="H65" s="498"/>
+      <c r="I65" s="498"/>
+      <c r="J65" s="498"/>
+      <c r="K65" s="498"/>
+      <c r="L65" s="498"/>
+      <c r="M65" s="498"/>
+      <c r="N65" s="498"/>
+      <c r="O65" s="498"/>
+      <c r="P65" s="498"/>
+      <c r="Q65" s="498"/>
+      <c r="R65" s="498"/>
+      <c r="S65" s="498"/>
+      <c r="T65" s="498"/>
+      <c r="U65" s="498"/>
+      <c r="V65" s="498"/>
+      <c r="W65" s="498"/>
+      <c r="X65" s="498"/>
+      <c r="Y65" s="498"/>
+      <c r="Z65" s="498"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="511"/>
-      <c r="B66" s="511"/>
-      <c r="C66" s="511"/>
-      <c r="D66" s="511"/>
-      <c r="E66" s="511"/>
-      <c r="F66" s="511"/>
-      <c r="G66" s="511"/>
-      <c r="H66" s="511"/>
-      <c r="I66" s="511"/>
-      <c r="J66" s="511"/>
-      <c r="K66" s="511"/>
-      <c r="L66" s="511"/>
-      <c r="M66" s="511"/>
-      <c r="N66" s="511"/>
-      <c r="O66" s="511"/>
-      <c r="P66" s="511"/>
-      <c r="Q66" s="511"/>
-      <c r="R66" s="511"/>
-      <c r="S66" s="511"/>
-      <c r="T66" s="511"/>
-      <c r="U66" s="511"/>
-      <c r="V66" s="511"/>
-      <c r="W66" s="511"/>
-      <c r="X66" s="511"/>
-      <c r="Y66" s="511"/>
-      <c r="Z66" s="511"/>
+      <c r="A66" s="498"/>
+      <c r="B66" s="498"/>
+      <c r="C66" s="498"/>
+      <c r="D66" s="498"/>
+      <c r="E66" s="498"/>
+      <c r="F66" s="498"/>
+      <c r="G66" s="498"/>
+      <c r="H66" s="498"/>
+      <c r="I66" s="498"/>
+      <c r="J66" s="498"/>
+      <c r="K66" s="498"/>
+      <c r="L66" s="498"/>
+      <c r="M66" s="498"/>
+      <c r="N66" s="498"/>
+      <c r="O66" s="498"/>
+      <c r="P66" s="498"/>
+      <c r="Q66" s="498"/>
+      <c r="R66" s="498"/>
+      <c r="S66" s="498"/>
+      <c r="T66" s="498"/>
+      <c r="U66" s="498"/>
+      <c r="V66" s="498"/>
+      <c r="W66" s="498"/>
+      <c r="X66" s="498"/>
+      <c r="Y66" s="498"/>
+      <c r="Z66" s="498"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="511"/>
-      <c r="B67" s="511"/>
-      <c r="C67" s="511"/>
-      <c r="D67" s="511"/>
-      <c r="E67" s="511"/>
-      <c r="F67" s="511"/>
-      <c r="G67" s="511"/>
-      <c r="H67" s="511"/>
-      <c r="I67" s="511"/>
-      <c r="J67" s="511"/>
-      <c r="K67" s="511"/>
-      <c r="L67" s="511"/>
-      <c r="M67" s="511"/>
-      <c r="N67" s="511"/>
-      <c r="O67" s="511"/>
-      <c r="P67" s="511"/>
-      <c r="Q67" s="511"/>
-      <c r="R67" s="511"/>
-      <c r="S67" s="511"/>
-      <c r="T67" s="511"/>
-      <c r="U67" s="511"/>
-      <c r="V67" s="511"/>
-      <c r="W67" s="511"/>
-      <c r="X67" s="511"/>
-      <c r="Y67" s="511"/>
-      <c r="Z67" s="511"/>
+      <c r="A67" s="498"/>
+      <c r="B67" s="498"/>
+      <c r="C67" s="498"/>
+      <c r="D67" s="498"/>
+      <c r="E67" s="498"/>
+      <c r="F67" s="498"/>
+      <c r="G67" s="498"/>
+      <c r="H67" s="498"/>
+      <c r="I67" s="498"/>
+      <c r="J67" s="498"/>
+      <c r="K67" s="498"/>
+      <c r="L67" s="498"/>
+      <c r="M67" s="498"/>
+      <c r="N67" s="498"/>
+      <c r="O67" s="498"/>
+      <c r="P67" s="498"/>
+      <c r="Q67" s="498"/>
+      <c r="R67" s="498"/>
+      <c r="S67" s="498"/>
+      <c r="T67" s="498"/>
+      <c r="U67" s="498"/>
+      <c r="V67" s="498"/>
+      <c r="W67" s="498"/>
+      <c r="X67" s="498"/>
+      <c r="Y67" s="498"/>
+      <c r="Z67" s="498"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="511"/>
-      <c r="B68" s="511"/>
-      <c r="C68" s="511"/>
-      <c r="D68" s="511"/>
-      <c r="E68" s="511"/>
-      <c r="F68" s="511"/>
-      <c r="G68" s="511"/>
-      <c r="H68" s="511"/>
-      <c r="I68" s="511"/>
-      <c r="J68" s="511"/>
-      <c r="K68" s="511"/>
-      <c r="L68" s="511"/>
-      <c r="M68" s="511"/>
-      <c r="N68" s="511"/>
-      <c r="O68" s="511"/>
-      <c r="P68" s="511"/>
-      <c r="Q68" s="511"/>
-      <c r="R68" s="511"/>
-      <c r="S68" s="511"/>
-      <c r="T68" s="511"/>
-      <c r="U68" s="511"/>
-      <c r="V68" s="511"/>
-      <c r="W68" s="511"/>
-      <c r="X68" s="511"/>
-      <c r="Y68" s="511"/>
-      <c r="Z68" s="511"/>
+      <c r="A68" s="498"/>
+      <c r="B68" s="498"/>
+      <c r="C68" s="498"/>
+      <c r="D68" s="498"/>
+      <c r="E68" s="498"/>
+      <c r="F68" s="498"/>
+      <c r="G68" s="498"/>
+      <c r="H68" s="498"/>
+      <c r="I68" s="498"/>
+      <c r="J68" s="498"/>
+      <c r="K68" s="498"/>
+      <c r="L68" s="498"/>
+      <c r="M68" s="498"/>
+      <c r="N68" s="498"/>
+      <c r="O68" s="498"/>
+      <c r="P68" s="498"/>
+      <c r="Q68" s="498"/>
+      <c r="R68" s="498"/>
+      <c r="S68" s="498"/>
+      <c r="T68" s="498"/>
+      <c r="U68" s="498"/>
+      <c r="V68" s="498"/>
+      <c r="W68" s="498"/>
+      <c r="X68" s="498"/>
+      <c r="Y68" s="498"/>
+      <c r="Z68" s="498"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="511"/>
-      <c r="B69" s="511"/>
-      <c r="C69" s="511"/>
-      <c r="D69" s="511"/>
-      <c r="E69" s="511"/>
-      <c r="F69" s="511"/>
-      <c r="G69" s="511"/>
-      <c r="H69" s="511"/>
-      <c r="I69" s="511"/>
-      <c r="J69" s="511"/>
-      <c r="K69" s="511"/>
-      <c r="L69" s="511"/>
-      <c r="M69" s="511"/>
-      <c r="N69" s="511"/>
-      <c r="O69" s="511"/>
-      <c r="P69" s="511"/>
-      <c r="Q69" s="511"/>
-      <c r="R69" s="511"/>
-      <c r="S69" s="511"/>
-      <c r="T69" s="511"/>
-      <c r="U69" s="511"/>
-      <c r="V69" s="511"/>
-      <c r="W69" s="511"/>
-      <c r="X69" s="511"/>
-      <c r="Y69" s="511"/>
-      <c r="Z69" s="511"/>
+      <c r="A69" s="498"/>
+      <c r="B69" s="498"/>
+      <c r="C69" s="498"/>
+      <c r="D69" s="498"/>
+      <c r="E69" s="498"/>
+      <c r="F69" s="498"/>
+      <c r="G69" s="498"/>
+      <c r="H69" s="498"/>
+      <c r="I69" s="498"/>
+      <c r="J69" s="498"/>
+      <c r="K69" s="498"/>
+      <c r="L69" s="498"/>
+      <c r="M69" s="498"/>
+      <c r="N69" s="498"/>
+      <c r="O69" s="498"/>
+      <c r="P69" s="498"/>
+      <c r="Q69" s="498"/>
+      <c r="R69" s="498"/>
+      <c r="S69" s="498"/>
+      <c r="T69" s="498"/>
+      <c r="U69" s="498"/>
+      <c r="V69" s="498"/>
+      <c r="W69" s="498"/>
+      <c r="X69" s="498"/>
+      <c r="Y69" s="498"/>
+      <c r="Z69" s="498"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="511"/>
-      <c r="B70" s="511"/>
-      <c r="C70" s="511"/>
-      <c r="D70" s="511"/>
-      <c r="E70" s="511"/>
-      <c r="F70" s="511"/>
-      <c r="G70" s="511"/>
-      <c r="H70" s="511"/>
-      <c r="I70" s="511"/>
-      <c r="J70" s="511"/>
-      <c r="K70" s="511"/>
-      <c r="L70" s="511"/>
-      <c r="M70" s="511"/>
-      <c r="N70" s="511"/>
-      <c r="O70" s="511"/>
-      <c r="P70" s="511"/>
-      <c r="Q70" s="511"/>
-      <c r="R70" s="511"/>
-      <c r="S70" s="511"/>
-      <c r="T70" s="511"/>
-      <c r="U70" s="511"/>
-      <c r="V70" s="511"/>
-      <c r="W70" s="511"/>
-      <c r="X70" s="511"/>
-      <c r="Y70" s="511"/>
-      <c r="Z70" s="511"/>
+      <c r="A70" s="498"/>
+      <c r="B70" s="498"/>
+      <c r="C70" s="498"/>
+      <c r="D70" s="498"/>
+      <c r="E70" s="498"/>
+      <c r="F70" s="498"/>
+      <c r="G70" s="498"/>
+      <c r="H70" s="498"/>
+      <c r="I70" s="498"/>
+      <c r="J70" s="498"/>
+      <c r="K70" s="498"/>
+      <c r="L70" s="498"/>
+      <c r="M70" s="498"/>
+      <c r="N70" s="498"/>
+      <c r="O70" s="498"/>
+      <c r="P70" s="498"/>
+      <c r="Q70" s="498"/>
+      <c r="R70" s="498"/>
+      <c r="S70" s="498"/>
+      <c r="T70" s="498"/>
+      <c r="U70" s="498"/>
+      <c r="V70" s="498"/>
+      <c r="W70" s="498"/>
+      <c r="X70" s="498"/>
+      <c r="Y70" s="498"/>
+      <c r="Z70" s="498"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="511"/>
-      <c r="B71" s="511"/>
-      <c r="C71" s="511"/>
-      <c r="D71" s="511"/>
-      <c r="E71" s="511"/>
-      <c r="F71" s="511"/>
-      <c r="G71" s="511"/>
-      <c r="H71" s="511"/>
-      <c r="I71" s="511"/>
-      <c r="J71" s="511"/>
-      <c r="K71" s="511"/>
-      <c r="L71" s="511"/>
-      <c r="M71" s="511"/>
-      <c r="N71" s="511"/>
-      <c r="O71" s="511"/>
-      <c r="P71" s="511"/>
-      <c r="Q71" s="511"/>
-      <c r="R71" s="511"/>
-      <c r="S71" s="511"/>
-      <c r="T71" s="511"/>
-      <c r="U71" s="511"/>
-      <c r="V71" s="511"/>
-      <c r="W71" s="511"/>
-      <c r="X71" s="511"/>
-      <c r="Y71" s="511"/>
-      <c r="Z71" s="511"/>
+      <c r="A71" s="498"/>
+      <c r="B71" s="498"/>
+      <c r="C71" s="498"/>
+      <c r="D71" s="498"/>
+      <c r="E71" s="498"/>
+      <c r="F71" s="498"/>
+      <c r="G71" s="498"/>
+      <c r="H71" s="498"/>
+      <c r="I71" s="498"/>
+      <c r="J71" s="498"/>
+      <c r="K71" s="498"/>
+      <c r="L71" s="498"/>
+      <c r="M71" s="498"/>
+      <c r="N71" s="498"/>
+      <c r="O71" s="498"/>
+      <c r="P71" s="498"/>
+      <c r="Q71" s="498"/>
+      <c r="R71" s="498"/>
+      <c r="S71" s="498"/>
+      <c r="T71" s="498"/>
+      <c r="U71" s="498"/>
+      <c r="V71" s="498"/>
+      <c r="W71" s="498"/>
+      <c r="X71" s="498"/>
+      <c r="Y71" s="498"/>
+      <c r="Z71" s="498"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="511"/>
-      <c r="B72" s="511"/>
-      <c r="C72" s="511"/>
-      <c r="D72" s="511"/>
-      <c r="E72" s="511"/>
-      <c r="F72" s="511"/>
-      <c r="G72" s="511"/>
-      <c r="H72" s="511"/>
-      <c r="I72" s="511"/>
-      <c r="J72" s="511"/>
-      <c r="K72" s="511"/>
-      <c r="L72" s="511"/>
-      <c r="M72" s="511"/>
-      <c r="N72" s="511"/>
-      <c r="O72" s="511"/>
-      <c r="P72" s="511"/>
-      <c r="Q72" s="511"/>
-      <c r="R72" s="511"/>
-      <c r="S72" s="511"/>
-      <c r="T72" s="511"/>
-      <c r="U72" s="511"/>
-      <c r="V72" s="511"/>
-      <c r="W72" s="511"/>
-      <c r="X72" s="511"/>
-      <c r="Y72" s="511"/>
-      <c r="Z72" s="511"/>
+      <c r="A72" s="498"/>
+      <c r="B72" s="498"/>
+      <c r="C72" s="498"/>
+      <c r="D72" s="498"/>
+      <c r="E72" s="498"/>
+      <c r="F72" s="498"/>
+      <c r="G72" s="498"/>
+      <c r="H72" s="498"/>
+      <c r="I72" s="498"/>
+      <c r="J72" s="498"/>
+      <c r="K72" s="498"/>
+      <c r="L72" s="498"/>
+      <c r="M72" s="498"/>
+      <c r="N72" s="498"/>
+      <c r="O72" s="498"/>
+      <c r="P72" s="498"/>
+      <c r="Q72" s="498"/>
+      <c r="R72" s="498"/>
+      <c r="S72" s="498"/>
+      <c r="T72" s="498"/>
+      <c r="U72" s="498"/>
+      <c r="V72" s="498"/>
+      <c r="W72" s="498"/>
+      <c r="X72" s="498"/>
+      <c r="Y72" s="498"/>
+      <c r="Z72" s="498"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="511"/>
-      <c r="B73" s="511"/>
-      <c r="C73" s="511"/>
-      <c r="D73" s="511"/>
-      <c r="E73" s="511"/>
-      <c r="F73" s="511"/>
-      <c r="G73" s="511"/>
-      <c r="H73" s="511"/>
-      <c r="I73" s="511"/>
-      <c r="J73" s="511"/>
-      <c r="K73" s="511"/>
-      <c r="L73" s="511"/>
-      <c r="M73" s="511"/>
-      <c r="N73" s="511"/>
-      <c r="O73" s="511"/>
-      <c r="P73" s="511"/>
-      <c r="Q73" s="511"/>
-      <c r="R73" s="511"/>
-      <c r="S73" s="511"/>
-      <c r="T73" s="511"/>
-      <c r="U73" s="511"/>
-      <c r="V73" s="511"/>
-      <c r="W73" s="511"/>
-      <c r="X73" s="511"/>
-      <c r="Y73" s="511"/>
-      <c r="Z73" s="511"/>
+      <c r="A73" s="498"/>
+      <c r="B73" s="498"/>
+      <c r="C73" s="498"/>
+      <c r="D73" s="498"/>
+      <c r="E73" s="498"/>
+      <c r="F73" s="498"/>
+      <c r="G73" s="498"/>
+      <c r="H73" s="498"/>
+      <c r="I73" s="498"/>
+      <c r="J73" s="498"/>
+      <c r="K73" s="498"/>
+      <c r="L73" s="498"/>
+      <c r="M73" s="498"/>
+      <c r="N73" s="498"/>
+      <c r="O73" s="498"/>
+      <c r="P73" s="498"/>
+      <c r="Q73" s="498"/>
+      <c r="R73" s="498"/>
+      <c r="S73" s="498"/>
+      <c r="T73" s="498"/>
+      <c r="U73" s="498"/>
+      <c r="V73" s="498"/>
+      <c r="W73" s="498"/>
+      <c r="X73" s="498"/>
+      <c r="Y73" s="498"/>
+      <c r="Z73" s="498"/>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="511"/>
-      <c r="B74" s="511"/>
-      <c r="C74" s="511"/>
-      <c r="D74" s="511"/>
-      <c r="E74" s="511"/>
-      <c r="F74" s="511"/>
-      <c r="G74" s="511"/>
-      <c r="H74" s="511"/>
-      <c r="I74" s="511"/>
-      <c r="J74" s="511"/>
-      <c r="K74" s="511"/>
-      <c r="L74" s="511"/>
-      <c r="M74" s="511"/>
-      <c r="N74" s="511"/>
-      <c r="O74" s="511"/>
-      <c r="P74" s="511"/>
-      <c r="Q74" s="511"/>
-      <c r="R74" s="511"/>
-      <c r="S74" s="511"/>
-      <c r="T74" s="511"/>
-      <c r="U74" s="511"/>
-      <c r="V74" s="511"/>
-      <c r="W74" s="511"/>
-      <c r="X74" s="511"/>
-      <c r="Y74" s="511"/>
-      <c r="Z74" s="511"/>
+      <c r="A74" s="498"/>
+      <c r="B74" s="498"/>
+      <c r="C74" s="498"/>
+      <c r="D74" s="498"/>
+      <c r="E74" s="498"/>
+      <c r="F74" s="498"/>
+      <c r="G74" s="498"/>
+      <c r="H74" s="498"/>
+      <c r="I74" s="498"/>
+      <c r="J74" s="498"/>
+      <c r="K74" s="498"/>
+      <c r="L74" s="498"/>
+      <c r="M74" s="498"/>
+      <c r="N74" s="498"/>
+      <c r="O74" s="498"/>
+      <c r="P74" s="498"/>
+      <c r="Q74" s="498"/>
+      <c r="R74" s="498"/>
+      <c r="S74" s="498"/>
+      <c r="T74" s="498"/>
+      <c r="U74" s="498"/>
+      <c r="V74" s="498"/>
+      <c r="W74" s="498"/>
+      <c r="X74" s="498"/>
+      <c r="Y74" s="498"/>
+      <c r="Z74" s="498"/>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="511"/>
-      <c r="B75" s="511"/>
-      <c r="C75" s="511"/>
-      <c r="D75" s="511"/>
-      <c r="E75" s="511"/>
-      <c r="F75" s="511"/>
-      <c r="G75" s="511"/>
-      <c r="H75" s="511"/>
-      <c r="I75" s="511"/>
-      <c r="J75" s="511"/>
-      <c r="K75" s="511"/>
-      <c r="L75" s="511"/>
-      <c r="M75" s="511"/>
-      <c r="N75" s="511"/>
-      <c r="O75" s="511"/>
-      <c r="P75" s="511"/>
-      <c r="Q75" s="511"/>
-      <c r="R75" s="511"/>
-      <c r="S75" s="511"/>
-      <c r="T75" s="511"/>
-      <c r="U75" s="511"/>
-      <c r="V75" s="511"/>
-      <c r="W75" s="511"/>
-      <c r="X75" s="511"/>
-      <c r="Y75" s="511"/>
-      <c r="Z75" s="511"/>
+      <c r="A75" s="498"/>
+      <c r="B75" s="498"/>
+      <c r="C75" s="498"/>
+      <c r="D75" s="498"/>
+      <c r="E75" s="498"/>
+      <c r="F75" s="498"/>
+      <c r="G75" s="498"/>
+      <c r="H75" s="498"/>
+      <c r="I75" s="498"/>
+      <c r="J75" s="498"/>
+      <c r="K75" s="498"/>
+      <c r="L75" s="498"/>
+      <c r="M75" s="498"/>
+      <c r="N75" s="498"/>
+      <c r="O75" s="498"/>
+      <c r="P75" s="498"/>
+      <c r="Q75" s="498"/>
+      <c r="R75" s="498"/>
+      <c r="S75" s="498"/>
+      <c r="T75" s="498"/>
+      <c r="U75" s="498"/>
+      <c r="V75" s="498"/>
+      <c r="W75" s="498"/>
+      <c r="X75" s="498"/>
+      <c r="Y75" s="498"/>
+      <c r="Z75" s="498"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="511"/>
-      <c r="B76" s="511"/>
-      <c r="C76" s="511"/>
-      <c r="D76" s="511"/>
-      <c r="E76" s="511"/>
-      <c r="F76" s="511"/>
-      <c r="G76" s="511"/>
-      <c r="H76" s="511"/>
-      <c r="I76" s="511"/>
-      <c r="J76" s="511"/>
-      <c r="K76" s="511"/>
-      <c r="L76" s="511"/>
-      <c r="M76" s="511"/>
-      <c r="N76" s="511"/>
-      <c r="O76" s="511"/>
-      <c r="P76" s="511"/>
-      <c r="Q76" s="511"/>
-      <c r="R76" s="511"/>
-      <c r="S76" s="511"/>
-      <c r="T76" s="511"/>
-      <c r="U76" s="511"/>
-      <c r="V76" s="511"/>
-      <c r="W76" s="511"/>
-      <c r="X76" s="511"/>
-      <c r="Y76" s="511"/>
-      <c r="Z76" s="511"/>
+      <c r="A76" s="498"/>
+      <c r="B76" s="498"/>
+      <c r="C76" s="498"/>
+      <c r="D76" s="498"/>
+      <c r="E76" s="498"/>
+      <c r="F76" s="498"/>
+      <c r="G76" s="498"/>
+      <c r="H76" s="498"/>
+      <c r="I76" s="498"/>
+      <c r="J76" s="498"/>
+      <c r="K76" s="498"/>
+      <c r="L76" s="498"/>
+      <c r="M76" s="498"/>
+      <c r="N76" s="498"/>
+      <c r="O76" s="498"/>
+      <c r="P76" s="498"/>
+      <c r="Q76" s="498"/>
+      <c r="R76" s="498"/>
+      <c r="S76" s="498"/>
+      <c r="T76" s="498"/>
+      <c r="U76" s="498"/>
+      <c r="V76" s="498"/>
+      <c r="W76" s="498"/>
+      <c r="X76" s="498"/>
+      <c r="Y76" s="498"/>
+      <c r="Z76" s="498"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="511"/>
-      <c r="B77" s="511"/>
-      <c r="C77" s="511"/>
-      <c r="D77" s="511"/>
-      <c r="E77" s="511"/>
-      <c r="F77" s="511"/>
-      <c r="G77" s="511"/>
-      <c r="H77" s="511"/>
-      <c r="I77" s="511"/>
-      <c r="J77" s="511"/>
-      <c r="K77" s="511"/>
-      <c r="L77" s="511"/>
-      <c r="M77" s="511"/>
-      <c r="N77" s="511"/>
-      <c r="O77" s="511"/>
-      <c r="P77" s="511"/>
-      <c r="Q77" s="511"/>
-      <c r="R77" s="511"/>
-      <c r="S77" s="511"/>
-      <c r="T77" s="511"/>
-      <c r="U77" s="511"/>
-      <c r="V77" s="511"/>
-      <c r="W77" s="511"/>
-      <c r="X77" s="511"/>
-      <c r="Y77" s="511"/>
-      <c r="Z77" s="511"/>
+      <c r="A77" s="498"/>
+      <c r="B77" s="498"/>
+      <c r="C77" s="498"/>
+      <c r="D77" s="498"/>
+      <c r="E77" s="498"/>
+      <c r="F77" s="498"/>
+      <c r="G77" s="498"/>
+      <c r="H77" s="498"/>
+      <c r="I77" s="498"/>
+      <c r="J77" s="498"/>
+      <c r="K77" s="498"/>
+      <c r="L77" s="498"/>
+      <c r="M77" s="498"/>
+      <c r="N77" s="498"/>
+      <c r="O77" s="498"/>
+      <c r="P77" s="498"/>
+      <c r="Q77" s="498"/>
+      <c r="R77" s="498"/>
+      <c r="S77" s="498"/>
+      <c r="T77" s="498"/>
+      <c r="U77" s="498"/>
+      <c r="V77" s="498"/>
+      <c r="W77" s="498"/>
+      <c r="X77" s="498"/>
+      <c r="Y77" s="498"/>
+      <c r="Z77" s="498"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="511"/>
-      <c r="B78" s="511"/>
-      <c r="C78" s="511"/>
-      <c r="D78" s="511"/>
-      <c r="E78" s="511"/>
-      <c r="F78" s="511"/>
-      <c r="G78" s="511"/>
-      <c r="H78" s="511"/>
-      <c r="I78" s="511"/>
-      <c r="J78" s="511"/>
-      <c r="K78" s="511"/>
-      <c r="L78" s="511"/>
-      <c r="M78" s="511"/>
-      <c r="N78" s="511"/>
-      <c r="O78" s="511"/>
-      <c r="P78" s="511"/>
-      <c r="Q78" s="511"/>
-      <c r="R78" s="511"/>
-      <c r="S78" s="511"/>
-      <c r="T78" s="511"/>
-      <c r="U78" s="511"/>
-      <c r="V78" s="511"/>
-      <c r="W78" s="511"/>
-      <c r="X78" s="511"/>
-      <c r="Y78" s="511"/>
-      <c r="Z78" s="511"/>
+      <c r="A78" s="498"/>
+      <c r="B78" s="498"/>
+      <c r="C78" s="498"/>
+      <c r="D78" s="498"/>
+      <c r="E78" s="498"/>
+      <c r="F78" s="498"/>
+      <c r="G78" s="498"/>
+      <c r="H78" s="498"/>
+      <c r="I78" s="498"/>
+      <c r="J78" s="498"/>
+      <c r="K78" s="498"/>
+      <c r="L78" s="498"/>
+      <c r="M78" s="498"/>
+      <c r="N78" s="498"/>
+      <c r="O78" s="498"/>
+      <c r="P78" s="498"/>
+      <c r="Q78" s="498"/>
+      <c r="R78" s="498"/>
+      <c r="S78" s="498"/>
+      <c r="T78" s="498"/>
+      <c r="U78" s="498"/>
+      <c r="V78" s="498"/>
+      <c r="W78" s="498"/>
+      <c r="X78" s="498"/>
+      <c r="Y78" s="498"/>
+      <c r="Z78" s="498"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="511"/>
-      <c r="B79" s="511"/>
-      <c r="C79" s="511"/>
-      <c r="D79" s="511"/>
-      <c r="E79" s="511"/>
-      <c r="F79" s="511"/>
-      <c r="G79" s="511"/>
-      <c r="H79" s="511"/>
-      <c r="I79" s="511"/>
-      <c r="J79" s="511"/>
-      <c r="K79" s="511"/>
-      <c r="L79" s="511"/>
-      <c r="M79" s="511"/>
-      <c r="N79" s="511"/>
-      <c r="O79" s="511"/>
-      <c r="P79" s="511"/>
-      <c r="Q79" s="511"/>
-      <c r="R79" s="511"/>
-      <c r="S79" s="511"/>
-      <c r="T79" s="511"/>
-      <c r="U79" s="511"/>
-      <c r="V79" s="511"/>
-      <c r="W79" s="511"/>
-      <c r="X79" s="511"/>
-      <c r="Y79" s="511"/>
-      <c r="Z79" s="511"/>
+      <c r="A79" s="498"/>
+      <c r="B79" s="498"/>
+      <c r="C79" s="498"/>
+      <c r="D79" s="498"/>
+      <c r="E79" s="498"/>
+      <c r="F79" s="498"/>
+      <c r="G79" s="498"/>
+      <c r="H79" s="498"/>
+      <c r="I79" s="498"/>
+      <c r="J79" s="498"/>
+      <c r="K79" s="498"/>
+      <c r="L79" s="498"/>
+      <c r="M79" s="498"/>
+      <c r="N79" s="498"/>
+      <c r="O79" s="498"/>
+      <c r="P79" s="498"/>
+      <c r="Q79" s="498"/>
+      <c r="R79" s="498"/>
+      <c r="S79" s="498"/>
+      <c r="T79" s="498"/>
+      <c r="U79" s="498"/>
+      <c r="V79" s="498"/>
+      <c r="W79" s="498"/>
+      <c r="X79" s="498"/>
+      <c r="Y79" s="498"/>
+      <c r="Z79" s="498"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="511"/>
-      <c r="B80" s="511"/>
-      <c r="C80" s="511"/>
-      <c r="D80" s="511"/>
-      <c r="E80" s="511"/>
-      <c r="F80" s="511"/>
-      <c r="G80" s="511"/>
-      <c r="H80" s="511"/>
-      <c r="I80" s="511"/>
-      <c r="J80" s="511"/>
-      <c r="K80" s="511"/>
-      <c r="L80" s="511"/>
-      <c r="M80" s="511"/>
-      <c r="N80" s="511"/>
-      <c r="O80" s="511"/>
-      <c r="P80" s="511"/>
-      <c r="Q80" s="511"/>
-      <c r="R80" s="511"/>
-      <c r="S80" s="511"/>
-      <c r="T80" s="511"/>
-      <c r="U80" s="511"/>
-      <c r="V80" s="511"/>
-      <c r="W80" s="511"/>
-      <c r="X80" s="511"/>
-      <c r="Y80" s="511"/>
-      <c r="Z80" s="511"/>
+      <c r="A80" s="498"/>
+      <c r="B80" s="498"/>
+      <c r="C80" s="498"/>
+      <c r="D80" s="498"/>
+      <c r="E80" s="498"/>
+      <c r="F80" s="498"/>
+      <c r="G80" s="498"/>
+      <c r="H80" s="498"/>
+      <c r="I80" s="498"/>
+      <c r="J80" s="498"/>
+      <c r="K80" s="498"/>
+      <c r="L80" s="498"/>
+      <c r="M80" s="498"/>
+      <c r="N80" s="498"/>
+      <c r="O80" s="498"/>
+      <c r="P80" s="498"/>
+      <c r="Q80" s="498"/>
+      <c r="R80" s="498"/>
+      <c r="S80" s="498"/>
+      <c r="T80" s="498"/>
+      <c r="U80" s="498"/>
+      <c r="V80" s="498"/>
+      <c r="W80" s="498"/>
+      <c r="X80" s="498"/>
+      <c r="Y80" s="498"/>
+      <c r="Z80" s="498"/>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="511"/>
-      <c r="B81" s="511"/>
-      <c r="C81" s="511"/>
-      <c r="D81" s="511"/>
-      <c r="E81" s="511"/>
-      <c r="F81" s="511"/>
-      <c r="G81" s="511"/>
-      <c r="H81" s="511"/>
-      <c r="I81" s="511"/>
-      <c r="J81" s="511"/>
-      <c r="K81" s="511"/>
-      <c r="L81" s="511"/>
-      <c r="M81" s="511"/>
-      <c r="N81" s="511"/>
-      <c r="O81" s="511"/>
-      <c r="P81" s="511"/>
-      <c r="Q81" s="511"/>
-      <c r="R81" s="511"/>
-      <c r="S81" s="511"/>
-      <c r="T81" s="511"/>
-      <c r="U81" s="511"/>
-      <c r="V81" s="511"/>
-      <c r="W81" s="511"/>
-      <c r="X81" s="511"/>
-      <c r="Y81" s="511"/>
-      <c r="Z81" s="511"/>
+      <c r="A81" s="498"/>
+      <c r="B81" s="498"/>
+      <c r="C81" s="498"/>
+      <c r="D81" s="498"/>
+      <c r="E81" s="498"/>
+      <c r="F81" s="498"/>
+      <c r="G81" s="498"/>
+      <c r="H81" s="498"/>
+      <c r="I81" s="498"/>
+      <c r="J81" s="498"/>
+      <c r="K81" s="498"/>
+      <c r="L81" s="498"/>
+      <c r="M81" s="498"/>
+      <c r="N81" s="498"/>
+      <c r="O81" s="498"/>
+      <c r="P81" s="498"/>
+      <c r="Q81" s="498"/>
+      <c r="R81" s="498"/>
+      <c r="S81" s="498"/>
+      <c r="T81" s="498"/>
+      <c r="U81" s="498"/>
+      <c r="V81" s="498"/>
+      <c r="W81" s="498"/>
+      <c r="X81" s="498"/>
+      <c r="Y81" s="498"/>
+      <c r="Z81" s="498"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="511"/>
-      <c r="B82" s="511"/>
-      <c r="C82" s="511"/>
-      <c r="D82" s="511"/>
-      <c r="E82" s="511"/>
-      <c r="F82" s="511"/>
-      <c r="G82" s="511"/>
-      <c r="H82" s="511"/>
-      <c r="I82" s="511"/>
-      <c r="J82" s="511"/>
-      <c r="K82" s="511"/>
-      <c r="L82" s="511"/>
-      <c r="M82" s="511"/>
-      <c r="N82" s="511"/>
-      <c r="O82" s="511"/>
-      <c r="P82" s="511"/>
-      <c r="Q82" s="511"/>
-      <c r="R82" s="511"/>
-      <c r="S82" s="511"/>
-      <c r="T82" s="511"/>
-      <c r="U82" s="511"/>
-      <c r="V82" s="511"/>
-      <c r="W82" s="511"/>
-      <c r="X82" s="511"/>
-      <c r="Y82" s="511"/>
-      <c r="Z82" s="511"/>
+      <c r="A82" s="498"/>
+      <c r="B82" s="498"/>
+      <c r="C82" s="498"/>
+      <c r="D82" s="498"/>
+      <c r="E82" s="498"/>
+      <c r="F82" s="498"/>
+      <c r="G82" s="498"/>
+      <c r="H82" s="498"/>
+      <c r="I82" s="498"/>
+      <c r="J82" s="498"/>
+      <c r="K82" s="498"/>
+      <c r="L82" s="498"/>
+      <c r="M82" s="498"/>
+      <c r="N82" s="498"/>
+      <c r="O82" s="498"/>
+      <c r="P82" s="498"/>
+      <c r="Q82" s="498"/>
+      <c r="R82" s="498"/>
+      <c r="S82" s="498"/>
+      <c r="T82" s="498"/>
+      <c r="U82" s="498"/>
+      <c r="V82" s="498"/>
+      <c r="W82" s="498"/>
+      <c r="X82" s="498"/>
+      <c r="Y82" s="498"/>
+      <c r="Z82" s="498"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="511"/>
-      <c r="B83" s="511"/>
-      <c r="C83" s="511"/>
-      <c r="D83" s="511"/>
-      <c r="E83" s="511"/>
-      <c r="F83" s="511"/>
-      <c r="G83" s="511"/>
-      <c r="H83" s="511"/>
-      <c r="I83" s="511"/>
-      <c r="J83" s="511"/>
-      <c r="K83" s="511"/>
-      <c r="L83" s="511"/>
-      <c r="M83" s="511"/>
-      <c r="N83" s="511"/>
-      <c r="O83" s="511"/>
-      <c r="P83" s="511"/>
-      <c r="Q83" s="511"/>
-      <c r="R83" s="511"/>
-      <c r="S83" s="511"/>
-      <c r="T83" s="511"/>
-      <c r="U83" s="511"/>
-      <c r="V83" s="511"/>
-      <c r="W83" s="511"/>
-      <c r="X83" s="511"/>
-      <c r="Y83" s="511"/>
-      <c r="Z83" s="511"/>
+      <c r="A83" s="498"/>
+      <c r="B83" s="498"/>
+      <c r="C83" s="498"/>
+      <c r="D83" s="498"/>
+      <c r="E83" s="498"/>
+      <c r="F83" s="498"/>
+      <c r="G83" s="498"/>
+      <c r="H83" s="498"/>
+      <c r="I83" s="498"/>
+      <c r="J83" s="498"/>
+      <c r="K83" s="498"/>
+      <c r="L83" s="498"/>
+      <c r="M83" s="498"/>
+      <c r="N83" s="498"/>
+      <c r="O83" s="498"/>
+      <c r="P83" s="498"/>
+      <c r="Q83" s="498"/>
+      <c r="R83" s="498"/>
+      <c r="S83" s="498"/>
+      <c r="T83" s="498"/>
+      <c r="U83" s="498"/>
+      <c r="V83" s="498"/>
+      <c r="W83" s="498"/>
+      <c r="X83" s="498"/>
+      <c r="Y83" s="498"/>
+      <c r="Z83" s="498"/>
     </row>
     <row r="84" spans="1:26">
-      <c r="A84" s="511"/>
-      <c r="B84" s="511"/>
-      <c r="C84" s="511"/>
-      <c r="D84" s="511"/>
-      <c r="E84" s="511"/>
-      <c r="F84" s="511"/>
-      <c r="G84" s="511"/>
-      <c r="H84" s="511"/>
-      <c r="I84" s="511"/>
-      <c r="J84" s="511"/>
-      <c r="K84" s="511"/>
-      <c r="L84" s="511"/>
-      <c r="M84" s="511"/>
-      <c r="N84" s="511"/>
-      <c r="O84" s="511"/>
-      <c r="P84" s="511"/>
-      <c r="Q84" s="511"/>
-      <c r="R84" s="511"/>
-      <c r="S84" s="511"/>
-      <c r="T84" s="511"/>
-      <c r="U84" s="511"/>
-      <c r="V84" s="511"/>
-      <c r="W84" s="511"/>
-      <c r="X84" s="511"/>
-      <c r="Y84" s="511"/>
-      <c r="Z84" s="511"/>
+      <c r="A84" s="498"/>
+      <c r="B84" s="498"/>
+      <c r="C84" s="498"/>
+      <c r="D84" s="498"/>
+      <c r="E84" s="498"/>
+      <c r="F84" s="498"/>
+      <c r="G84" s="498"/>
+      <c r="H84" s="498"/>
+      <c r="I84" s="498"/>
+      <c r="J84" s="498"/>
+      <c r="K84" s="498"/>
+      <c r="L84" s="498"/>
+      <c r="M84" s="498"/>
+      <c r="N84" s="498"/>
+      <c r="O84" s="498"/>
+      <c r="P84" s="498"/>
+      <c r="Q84" s="498"/>
+      <c r="R84" s="498"/>
+      <c r="S84" s="498"/>
+      <c r="T84" s="498"/>
+      <c r="U84" s="498"/>
+      <c r="V84" s="498"/>
+      <c r="W84" s="498"/>
+      <c r="X84" s="498"/>
+      <c r="Y84" s="498"/>
+      <c r="Z84" s="498"/>
     </row>
     <row r="85" spans="1:26">
-      <c r="A85" s="511"/>
-      <c r="B85" s="511"/>
-      <c r="C85" s="511"/>
-      <c r="D85" s="511"/>
-      <c r="E85" s="511"/>
-      <c r="F85" s="511"/>
-      <c r="G85" s="511"/>
-      <c r="H85" s="511"/>
-      <c r="I85" s="511"/>
-      <c r="J85" s="511"/>
-      <c r="K85" s="511"/>
-      <c r="L85" s="511"/>
-      <c r="M85" s="511"/>
-      <c r="N85" s="511"/>
-      <c r="O85" s="511"/>
-      <c r="P85" s="511"/>
-      <c r="Q85" s="511"/>
-      <c r="R85" s="511"/>
-      <c r="S85" s="511"/>
-      <c r="T85" s="511"/>
-      <c r="U85" s="511"/>
-      <c r="V85" s="511"/>
-      <c r="W85" s="511"/>
-      <c r="X85" s="511"/>
-      <c r="Y85" s="511"/>
-      <c r="Z85" s="511"/>
+      <c r="A85" s="498"/>
+      <c r="B85" s="498"/>
+      <c r="C85" s="498"/>
+      <c r="D85" s="498"/>
+      <c r="E85" s="498"/>
+      <c r="F85" s="498"/>
+      <c r="G85" s="498"/>
+      <c r="H85" s="498"/>
+      <c r="I85" s="498"/>
+      <c r="J85" s="498"/>
+      <c r="K85" s="498"/>
+      <c r="L85" s="498"/>
+      <c r="M85" s="498"/>
+      <c r="N85" s="498"/>
+      <c r="O85" s="498"/>
+      <c r="P85" s="498"/>
+      <c r="Q85" s="498"/>
+      <c r="R85" s="498"/>
+      <c r="S85" s="498"/>
+      <c r="T85" s="498"/>
+      <c r="U85" s="498"/>
+      <c r="V85" s="498"/>
+      <c r="W85" s="498"/>
+      <c r="X85" s="498"/>
+      <c r="Y85" s="498"/>
+      <c r="Z85" s="498"/>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="511"/>
-      <c r="B86" s="511"/>
-      <c r="C86" s="511"/>
-      <c r="D86" s="511"/>
-      <c r="E86" s="511"/>
-      <c r="F86" s="511"/>
-      <c r="G86" s="511"/>
-      <c r="H86" s="511"/>
-      <c r="I86" s="511"/>
-      <c r="J86" s="511"/>
-      <c r="K86" s="511"/>
-      <c r="L86" s="511"/>
-      <c r="M86" s="511"/>
-      <c r="N86" s="511"/>
-      <c r="O86" s="511"/>
-      <c r="P86" s="511"/>
-      <c r="Q86" s="511"/>
-      <c r="R86" s="511"/>
-      <c r="S86" s="511"/>
-      <c r="T86" s="511"/>
-      <c r="U86" s="511"/>
-      <c r="V86" s="511"/>
-      <c r="W86" s="511"/>
-      <c r="X86" s="511"/>
-      <c r="Y86" s="511"/>
-      <c r="Z86" s="511"/>
+      <c r="A86" s="498"/>
+      <c r="B86" s="498"/>
+      <c r="C86" s="498"/>
+      <c r="D86" s="498"/>
+      <c r="E86" s="498"/>
+      <c r="F86" s="498"/>
+      <c r="G86" s="498"/>
+      <c r="H86" s="498"/>
+      <c r="I86" s="498"/>
+      <c r="J86" s="498"/>
+      <c r="K86" s="498"/>
+      <c r="L86" s="498"/>
+      <c r="M86" s="498"/>
+      <c r="N86" s="498"/>
+      <c r="O86" s="498"/>
+      <c r="P86" s="498"/>
+      <c r="Q86" s="498"/>
+      <c r="R86" s="498"/>
+      <c r="S86" s="498"/>
+      <c r="T86" s="498"/>
+      <c r="U86" s="498"/>
+      <c r="V86" s="498"/>
+      <c r="W86" s="498"/>
+      <c r="X86" s="498"/>
+      <c r="Y86" s="498"/>
+      <c r="Z86" s="498"/>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="511"/>
-      <c r="B87" s="511"/>
-      <c r="C87" s="511"/>
-      <c r="D87" s="511"/>
-      <c r="E87" s="511"/>
-      <c r="F87" s="511"/>
-      <c r="G87" s="511"/>
-      <c r="H87" s="511"/>
-      <c r="I87" s="511"/>
-      <c r="J87" s="511"/>
-      <c r="K87" s="511"/>
-      <c r="L87" s="511"/>
-      <c r="M87" s="511"/>
-      <c r="N87" s="511"/>
-      <c r="O87" s="511"/>
-      <c r="P87" s="511"/>
-      <c r="Q87" s="511"/>
-      <c r="R87" s="511"/>
-      <c r="S87" s="511"/>
-      <c r="T87" s="511"/>
-      <c r="U87" s="511"/>
-      <c r="V87" s="511"/>
-      <c r="W87" s="511"/>
-      <c r="X87" s="511"/>
-      <c r="Y87" s="511"/>
-      <c r="Z87" s="511"/>
+      <c r="A87" s="498"/>
+      <c r="B87" s="498"/>
+      <c r="C87" s="498"/>
+      <c r="D87" s="498"/>
+      <c r="E87" s="498"/>
+      <c r="F87" s="498"/>
+      <c r="G87" s="498"/>
+      <c r="H87" s="498"/>
+      <c r="I87" s="498"/>
+      <c r="J87" s="498"/>
+      <c r="K87" s="498"/>
+      <c r="L87" s="498"/>
+      <c r="M87" s="498"/>
+      <c r="N87" s="498"/>
+      <c r="O87" s="498"/>
+      <c r="P87" s="498"/>
+      <c r="Q87" s="498"/>
+      <c r="R87" s="498"/>
+      <c r="S87" s="498"/>
+      <c r="T87" s="498"/>
+      <c r="U87" s="498"/>
+      <c r="V87" s="498"/>
+      <c r="W87" s="498"/>
+      <c r="X87" s="498"/>
+      <c r="Y87" s="498"/>
+      <c r="Z87" s="498"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="511"/>
-      <c r="B88" s="511"/>
-      <c r="C88" s="511"/>
-      <c r="D88" s="511"/>
-      <c r="E88" s="511"/>
-      <c r="F88" s="511"/>
-      <c r="G88" s="511"/>
-      <c r="H88" s="511"/>
-      <c r="I88" s="511"/>
-      <c r="J88" s="511"/>
-      <c r="K88" s="511"/>
-      <c r="L88" s="511"/>
-      <c r="M88" s="511"/>
-      <c r="N88" s="511"/>
-      <c r="O88" s="511"/>
-      <c r="P88" s="511"/>
-      <c r="Q88" s="511"/>
-      <c r="R88" s="511"/>
-      <c r="S88" s="511"/>
-      <c r="T88" s="511"/>
-      <c r="U88" s="511"/>
-      <c r="V88" s="511"/>
-      <c r="W88" s="511"/>
-      <c r="X88" s="511"/>
-      <c r="Y88" s="511"/>
-      <c r="Z88" s="511"/>
+      <c r="A88" s="498"/>
+      <c r="B88" s="498"/>
+      <c r="C88" s="498"/>
+      <c r="D88" s="498"/>
+      <c r="E88" s="498"/>
+      <c r="F88" s="498"/>
+      <c r="G88" s="498"/>
+      <c r="H88" s="498"/>
+      <c r="I88" s="498"/>
+      <c r="J88" s="498"/>
+      <c r="K88" s="498"/>
+      <c r="L88" s="498"/>
+      <c r="M88" s="498"/>
+      <c r="N88" s="498"/>
+      <c r="O88" s="498"/>
+      <c r="P88" s="498"/>
+      <c r="Q88" s="498"/>
+      <c r="R88" s="498"/>
+      <c r="S88" s="498"/>
+      <c r="T88" s="498"/>
+      <c r="U88" s="498"/>
+      <c r="V88" s="498"/>
+      <c r="W88" s="498"/>
+      <c r="X88" s="498"/>
+      <c r="Y88" s="498"/>
+      <c r="Z88" s="498"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="511"/>
-      <c r="B89" s="511"/>
-      <c r="C89" s="511"/>
-      <c r="D89" s="511"/>
-      <c r="E89" s="511"/>
-      <c r="F89" s="511"/>
-      <c r="G89" s="511"/>
-      <c r="H89" s="511"/>
-      <c r="I89" s="511"/>
-      <c r="J89" s="511"/>
-      <c r="K89" s="511"/>
-      <c r="L89" s="511"/>
-      <c r="M89" s="511"/>
-      <c r="N89" s="511"/>
-      <c r="O89" s="511"/>
-      <c r="P89" s="511"/>
-      <c r="Q89" s="511"/>
-      <c r="R89" s="511"/>
-      <c r="S89" s="511"/>
-      <c r="T89" s="511"/>
-      <c r="U89" s="511"/>
-      <c r="V89" s="511"/>
-      <c r="W89" s="511"/>
-      <c r="X89" s="511"/>
-      <c r="Y89" s="511"/>
-      <c r="Z89" s="511"/>
+      <c r="A89" s="498"/>
+      <c r="B89" s="498"/>
+      <c r="C89" s="498"/>
+      <c r="D89" s="498"/>
+      <c r="E89" s="498"/>
+      <c r="F89" s="498"/>
+      <c r="G89" s="498"/>
+      <c r="H89" s="498"/>
+      <c r="I89" s="498"/>
+      <c r="J89" s="498"/>
+      <c r="K89" s="498"/>
+      <c r="L89" s="498"/>
+      <c r="M89" s="498"/>
+      <c r="N89" s="498"/>
+      <c r="O89" s="498"/>
+      <c r="P89" s="498"/>
+      <c r="Q89" s="498"/>
+      <c r="R89" s="498"/>
+      <c r="S89" s="498"/>
+      <c r="T89" s="498"/>
+      <c r="U89" s="498"/>
+      <c r="V89" s="498"/>
+      <c r="W89" s="498"/>
+      <c r="X89" s="498"/>
+      <c r="Y89" s="498"/>
+      <c r="Z89" s="498"/>
     </row>
     <row r="90" spans="1:26">
-      <c r="A90" s="511"/>
-      <c r="B90" s="511"/>
-      <c r="C90" s="511"/>
-      <c r="D90" s="511"/>
-      <c r="E90" s="511"/>
-      <c r="F90" s="511"/>
-      <c r="G90" s="511"/>
-      <c r="H90" s="511"/>
-      <c r="I90" s="511"/>
-      <c r="J90" s="511"/>
-      <c r="K90" s="511"/>
-      <c r="L90" s="511"/>
-      <c r="M90" s="511"/>
-      <c r="N90" s="511"/>
-      <c r="O90" s="511"/>
-      <c r="P90" s="511"/>
-      <c r="Q90" s="511"/>
-      <c r="R90" s="511"/>
-      <c r="S90" s="511"/>
-      <c r="T90" s="511"/>
-      <c r="U90" s="511"/>
-      <c r="V90" s="511"/>
-      <c r="W90" s="511"/>
-      <c r="X90" s="511"/>
-      <c r="Y90" s="511"/>
-      <c r="Z90" s="511"/>
+      <c r="A90" s="498"/>
+      <c r="B90" s="498"/>
+      <c r="C90" s="498"/>
+      <c r="D90" s="498"/>
+      <c r="E90" s="498"/>
+      <c r="F90" s="498"/>
+      <c r="G90" s="498"/>
+      <c r="H90" s="498"/>
+      <c r="I90" s="498"/>
+      <c r="J90" s="498"/>
+      <c r="K90" s="498"/>
+      <c r="L90" s="498"/>
+      <c r="M90" s="498"/>
+      <c r="N90" s="498"/>
+      <c r="O90" s="498"/>
+      <c r="P90" s="498"/>
+      <c r="Q90" s="498"/>
+      <c r="R90" s="498"/>
+      <c r="S90" s="498"/>
+      <c r="T90" s="498"/>
+      <c r="U90" s="498"/>
+      <c r="V90" s="498"/>
+      <c r="W90" s="498"/>
+      <c r="X90" s="498"/>
+      <c r="Y90" s="498"/>
+      <c r="Z90" s="498"/>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="511"/>
-      <c r="B91" s="511"/>
-      <c r="C91" s="511"/>
-      <c r="D91" s="511"/>
-      <c r="E91" s="511"/>
-      <c r="F91" s="511"/>
-      <c r="G91" s="511"/>
-      <c r="H91" s="511"/>
-      <c r="I91" s="511"/>
-      <c r="J91" s="511"/>
-      <c r="K91" s="511"/>
-      <c r="L91" s="511"/>
-      <c r="M91" s="511"/>
-      <c r="N91" s="511"/>
-      <c r="O91" s="511"/>
-      <c r="P91" s="511"/>
-      <c r="Q91" s="511"/>
-      <c r="R91" s="511"/>
-      <c r="S91" s="511"/>
-      <c r="T91" s="511"/>
-      <c r="U91" s="511"/>
-      <c r="V91" s="511"/>
-      <c r="W91" s="511"/>
-      <c r="X91" s="511"/>
-      <c r="Y91" s="511"/>
-      <c r="Z91" s="511"/>
+      <c r="A91" s="498"/>
+      <c r="B91" s="498"/>
+      <c r="C91" s="498"/>
+      <c r="D91" s="498"/>
+      <c r="E91" s="498"/>
+      <c r="F91" s="498"/>
+      <c r="G91" s="498"/>
+      <c r="H91" s="498"/>
+      <c r="I91" s="498"/>
+      <c r="J91" s="498"/>
+      <c r="K91" s="498"/>
+      <c r="L91" s="498"/>
+      <c r="M91" s="498"/>
+      <c r="N91" s="498"/>
+      <c r="O91" s="498"/>
+      <c r="P91" s="498"/>
+      <c r="Q91" s="498"/>
+      <c r="R91" s="498"/>
+      <c r="S91" s="498"/>
+      <c r="T91" s="498"/>
+      <c r="U91" s="498"/>
+      <c r="V91" s="498"/>
+      <c r="W91" s="498"/>
+      <c r="X91" s="498"/>
+      <c r="Y91" s="498"/>
+      <c r="Z91" s="498"/>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="511"/>
-      <c r="B92" s="511"/>
-      <c r="C92" s="511"/>
-      <c r="D92" s="511"/>
-      <c r="E92" s="511"/>
-      <c r="F92" s="511"/>
-      <c r="G92" s="511"/>
-      <c r="H92" s="511"/>
-      <c r="I92" s="511"/>
-      <c r="J92" s="511"/>
-      <c r="K92" s="511"/>
-      <c r="L92" s="511"/>
-      <c r="M92" s="511"/>
-      <c r="N92" s="511"/>
-      <c r="O92" s="511"/>
-      <c r="P92" s="511"/>
-      <c r="Q92" s="511"/>
-      <c r="R92" s="511"/>
-      <c r="S92" s="511"/>
-      <c r="T92" s="511"/>
-      <c r="U92" s="511"/>
-      <c r="V92" s="511"/>
-      <c r="W92" s="511"/>
-      <c r="X92" s="511"/>
-      <c r="Y92" s="511"/>
-      <c r="Z92" s="511"/>
+      <c r="A92" s="498"/>
+      <c r="B92" s="498"/>
+      <c r="C92" s="498"/>
+      <c r="D92" s="498"/>
+      <c r="E92" s="498"/>
+      <c r="F92" s="498"/>
+      <c r="G92" s="498"/>
+      <c r="H92" s="498"/>
+      <c r="I92" s="498"/>
+      <c r="J92" s="498"/>
+      <c r="K92" s="498"/>
+      <c r="L92" s="498"/>
+      <c r="M92" s="498"/>
+      <c r="N92" s="498"/>
+      <c r="O92" s="498"/>
+      <c r="P92" s="498"/>
+      <c r="Q92" s="498"/>
+      <c r="R92" s="498"/>
+      <c r="S92" s="498"/>
+      <c r="T92" s="498"/>
+      <c r="U92" s="498"/>
+      <c r="V92" s="498"/>
+      <c r="W92" s="498"/>
+      <c r="X92" s="498"/>
+      <c r="Y92" s="498"/>
+      <c r="Z92" s="498"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="511"/>
-      <c r="B93" s="511"/>
-      <c r="C93" s="511"/>
-      <c r="D93" s="511"/>
-      <c r="E93" s="511"/>
-      <c r="F93" s="511"/>
-      <c r="G93" s="511"/>
-      <c r="H93" s="511"/>
-      <c r="I93" s="511"/>
-      <c r="J93" s="511"/>
-      <c r="K93" s="511"/>
-      <c r="L93" s="511"/>
-      <c r="M93" s="511"/>
-      <c r="N93" s="511"/>
-      <c r="O93" s="511"/>
-      <c r="P93" s="511"/>
-      <c r="Q93" s="511"/>
-      <c r="R93" s="511"/>
-      <c r="S93" s="511"/>
-      <c r="T93" s="511"/>
-      <c r="U93" s="511"/>
-      <c r="V93" s="511"/>
-      <c r="W93" s="511"/>
-      <c r="X93" s="511"/>
-      <c r="Y93" s="511"/>
-      <c r="Z93" s="511"/>
+      <c r="A93" s="498"/>
+      <c r="B93" s="498"/>
+      <c r="C93" s="498"/>
+      <c r="D93" s="498"/>
+      <c r="E93" s="498"/>
+      <c r="F93" s="498"/>
+      <c r="G93" s="498"/>
+      <c r="H93" s="498"/>
+      <c r="I93" s="498"/>
+      <c r="J93" s="498"/>
+      <c r="K93" s="498"/>
+      <c r="L93" s="498"/>
+      <c r="M93" s="498"/>
+      <c r="N93" s="498"/>
+      <c r="O93" s="498"/>
+      <c r="P93" s="498"/>
+      <c r="Q93" s="498"/>
+      <c r="R93" s="498"/>
+      <c r="S93" s="498"/>
+      <c r="T93" s="498"/>
+      <c r="U93" s="498"/>
+      <c r="V93" s="498"/>
+      <c r="W93" s="498"/>
+      <c r="X93" s="498"/>
+      <c r="Y93" s="498"/>
+      <c r="Z93" s="498"/>
     </row>
     <row r="94" spans="1:26">
-      <c r="A94" s="511"/>
-      <c r="B94" s="511"/>
-      <c r="C94" s="511"/>
-      <c r="D94" s="511"/>
-      <c r="E94" s="511"/>
-      <c r="F94" s="511"/>
-      <c r="G94" s="511"/>
-      <c r="H94" s="511"/>
-      <c r="I94" s="511"/>
-      <c r="J94" s="511"/>
-      <c r="K94" s="511"/>
-      <c r="L94" s="511"/>
-      <c r="M94" s="511"/>
-      <c r="N94" s="511"/>
-      <c r="O94" s="511"/>
-      <c r="P94" s="511"/>
-      <c r="Q94" s="511"/>
-      <c r="R94" s="511"/>
-      <c r="S94" s="511"/>
-      <c r="T94" s="511"/>
-      <c r="U94" s="511"/>
-      <c r="V94" s="511"/>
-      <c r="W94" s="511"/>
-      <c r="X94" s="511"/>
-      <c r="Y94" s="511"/>
-      <c r="Z94" s="511"/>
+      <c r="A94" s="498"/>
+      <c r="B94" s="498"/>
+      <c r="C94" s="498"/>
+      <c r="D94" s="498"/>
+      <c r="E94" s="498"/>
+      <c r="F94" s="498"/>
+      <c r="G94" s="498"/>
+      <c r="H94" s="498"/>
+      <c r="I94" s="498"/>
+      <c r="J94" s="498"/>
+      <c r="K94" s="498"/>
+      <c r="L94" s="498"/>
+      <c r="M94" s="498"/>
+      <c r="N94" s="498"/>
+      <c r="O94" s="498"/>
+      <c r="P94" s="498"/>
+      <c r="Q94" s="498"/>
+      <c r="R94" s="498"/>
+      <c r="S94" s="498"/>
+      <c r="T94" s="498"/>
+      <c r="U94" s="498"/>
+      <c r="V94" s="498"/>
+      <c r="W94" s="498"/>
+      <c r="X94" s="498"/>
+      <c r="Y94" s="498"/>
+      <c r="Z94" s="498"/>
     </row>
     <row r="95" spans="1:26">
-      <c r="A95" s="511"/>
-      <c r="B95" s="511"/>
-      <c r="C95" s="511"/>
-      <c r="D95" s="511"/>
-      <c r="E95" s="511"/>
-      <c r="F95" s="511"/>
-      <c r="G95" s="511"/>
-      <c r="H95" s="511"/>
-      <c r="I95" s="511"/>
-      <c r="J95" s="511"/>
-      <c r="K95" s="511"/>
-      <c r="L95" s="511"/>
-      <c r="M95" s="511"/>
-      <c r="N95" s="511"/>
-      <c r="O95" s="511"/>
-      <c r="P95" s="511"/>
-      <c r="Q95" s="511"/>
-      <c r="R95" s="511"/>
-      <c r="S95" s="511"/>
-      <c r="T95" s="511"/>
-      <c r="U95" s="511"/>
-      <c r="V95" s="511"/>
-      <c r="W95" s="511"/>
-      <c r="X95" s="511"/>
-      <c r="Y95" s="511"/>
-      <c r="Z95" s="511"/>
+      <c r="A95" s="498"/>
+      <c r="B95" s="498"/>
+      <c r="C95" s="498"/>
+      <c r="D95" s="498"/>
+      <c r="E95" s="498"/>
+      <c r="F95" s="498"/>
+      <c r="G95" s="498"/>
+      <c r="H95" s="498"/>
+      <c r="I95" s="498"/>
+      <c r="J95" s="498"/>
+      <c r="K95" s="498"/>
+      <c r="L95" s="498"/>
+      <c r="M95" s="498"/>
+      <c r="N95" s="498"/>
+      <c r="O95" s="498"/>
+      <c r="P95" s="498"/>
+      <c r="Q95" s="498"/>
+      <c r="R95" s="498"/>
+      <c r="S95" s="498"/>
+      <c r="T95" s="498"/>
+      <c r="U95" s="498"/>
+      <c r="V95" s="498"/>
+      <c r="W95" s="498"/>
+      <c r="X95" s="498"/>
+      <c r="Y95" s="498"/>
+      <c r="Z95" s="498"/>
     </row>
     <row r="96" spans="1:26">
-      <c r="A96" s="511"/>
-      <c r="B96" s="511"/>
-      <c r="C96" s="511"/>
-      <c r="D96" s="511"/>
-      <c r="E96" s="511"/>
-      <c r="F96" s="511"/>
-      <c r="G96" s="511"/>
-      <c r="H96" s="511"/>
-      <c r="I96" s="511"/>
-      <c r="J96" s="511"/>
-      <c r="K96" s="511"/>
-      <c r="L96" s="511"/>
-      <c r="M96" s="511"/>
-      <c r="N96" s="511"/>
-      <c r="O96" s="511"/>
-      <c r="P96" s="511"/>
-      <c r="Q96" s="511"/>
-      <c r="R96" s="511"/>
-      <c r="S96" s="511"/>
-      <c r="T96" s="511"/>
-      <c r="U96" s="511"/>
-      <c r="V96" s="511"/>
-      <c r="W96" s="511"/>
-      <c r="X96" s="511"/>
-      <c r="Y96" s="511"/>
-      <c r="Z96" s="511"/>
+      <c r="A96" s="498"/>
+      <c r="B96" s="498"/>
+      <c r="C96" s="498"/>
+      <c r="D96" s="498"/>
+      <c r="E96" s="498"/>
+      <c r="F96" s="498"/>
+      <c r="G96" s="498"/>
+      <c r="H96" s="498"/>
+      <c r="I96" s="498"/>
+      <c r="J96" s="498"/>
+      <c r="K96" s="498"/>
+      <c r="L96" s="498"/>
+      <c r="M96" s="498"/>
+      <c r="N96" s="498"/>
+      <c r="O96" s="498"/>
+      <c r="P96" s="498"/>
+      <c r="Q96" s="498"/>
+      <c r="R96" s="498"/>
+      <c r="S96" s="498"/>
+      <c r="T96" s="498"/>
+      <c r="U96" s="498"/>
+      <c r="V96" s="498"/>
+      <c r="W96" s="498"/>
+      <c r="X96" s="498"/>
+      <c r="Y96" s="498"/>
+      <c r="Z96" s="498"/>
     </row>
     <row r="97" spans="1:26">
-      <c r="A97" s="511"/>
-      <c r="B97" s="511"/>
-      <c r="C97" s="511"/>
-      <c r="D97" s="511"/>
-      <c r="E97" s="511"/>
-      <c r="F97" s="511"/>
-      <c r="G97" s="511"/>
-      <c r="H97" s="511"/>
-      <c r="I97" s="511"/>
-      <c r="J97" s="511"/>
-      <c r="K97" s="511"/>
-      <c r="L97" s="511"/>
-      <c r="M97" s="511"/>
-      <c r="N97" s="511"/>
-      <c r="O97" s="511"/>
-      <c r="P97" s="511"/>
-      <c r="Q97" s="511"/>
-      <c r="R97" s="511"/>
-      <c r="S97" s="511"/>
-      <c r="T97" s="511"/>
-      <c r="U97" s="511"/>
-      <c r="V97" s="511"/>
-      <c r="W97" s="511"/>
-      <c r="X97" s="511"/>
-      <c r="Y97" s="511"/>
-      <c r="Z97" s="511"/>
+      <c r="A97" s="498"/>
+      <c r="B97" s="498"/>
+      <c r="C97" s="498"/>
+      <c r="D97" s="498"/>
+      <c r="E97" s="498"/>
+      <c r="F97" s="498"/>
+      <c r="G97" s="498"/>
+      <c r="H97" s="498"/>
+      <c r="I97" s="498"/>
+      <c r="J97" s="498"/>
+      <c r="K97" s="498"/>
+      <c r="L97" s="498"/>
+      <c r="M97" s="498"/>
+      <c r="N97" s="498"/>
+      <c r="O97" s="498"/>
+      <c r="P97" s="498"/>
+      <c r="Q97" s="498"/>
+      <c r="R97" s="498"/>
+      <c r="S97" s="498"/>
+      <c r="T97" s="498"/>
+      <c r="U97" s="498"/>
+      <c r="V97" s="498"/>
+      <c r="W97" s="498"/>
+      <c r="X97" s="498"/>
+      <c r="Y97" s="498"/>
+      <c r="Z97" s="498"/>
     </row>
     <row r="98" spans="1:26">
-      <c r="A98" s="511"/>
-      <c r="B98" s="511"/>
-      <c r="C98" s="511"/>
-      <c r="D98" s="511"/>
-      <c r="E98" s="511"/>
-      <c r="F98" s="511"/>
-      <c r="G98" s="511"/>
-      <c r="H98" s="511"/>
-      <c r="I98" s="511"/>
-      <c r="J98" s="511"/>
-      <c r="K98" s="511"/>
-      <c r="L98" s="511"/>
-      <c r="M98" s="511"/>
-      <c r="N98" s="511"/>
-      <c r="O98" s="511"/>
-      <c r="P98" s="511"/>
-      <c r="Q98" s="511"/>
-      <c r="R98" s="511"/>
-      <c r="S98" s="511"/>
-      <c r="T98" s="511"/>
-      <c r="U98" s="511"/>
-      <c r="V98" s="511"/>
-      <c r="W98" s="511"/>
-      <c r="X98" s="511"/>
-      <c r="Y98" s="511"/>
-      <c r="Z98" s="511"/>
+      <c r="A98" s="498"/>
+      <c r="B98" s="498"/>
+      <c r="C98" s="498"/>
+      <c r="D98" s="498"/>
+      <c r="E98" s="498"/>
+      <c r="F98" s="498"/>
+      <c r="G98" s="498"/>
+      <c r="H98" s="498"/>
+      <c r="I98" s="498"/>
+      <c r="J98" s="498"/>
+      <c r="K98" s="498"/>
+      <c r="L98" s="498"/>
+      <c r="M98" s="498"/>
+      <c r="N98" s="498"/>
+      <c r="O98" s="498"/>
+      <c r="P98" s="498"/>
+      <c r="Q98" s="498"/>
+      <c r="R98" s="498"/>
+      <c r="S98" s="498"/>
+      <c r="T98" s="498"/>
+      <c r="U98" s="498"/>
+      <c r="V98" s="498"/>
+      <c r="W98" s="498"/>
+      <c r="X98" s="498"/>
+      <c r="Y98" s="498"/>
+      <c r="Z98" s="498"/>
     </row>
     <row r="99" spans="1:26">
-      <c r="A99" s="511"/>
-      <c r="B99" s="511"/>
-      <c r="C99" s="511"/>
-      <c r="D99" s="511"/>
-      <c r="E99" s="511"/>
-      <c r="F99" s="511"/>
-      <c r="G99" s="511"/>
-      <c r="H99" s="511"/>
-      <c r="I99" s="511"/>
-      <c r="J99" s="511"/>
-      <c r="K99" s="511"/>
-      <c r="L99" s="511"/>
-      <c r="M99" s="511"/>
-      <c r="N99" s="511"/>
-      <c r="O99" s="511"/>
-      <c r="P99" s="511"/>
-      <c r="Q99" s="511"/>
-      <c r="R99" s="511"/>
-      <c r="S99" s="511"/>
-      <c r="T99" s="511"/>
-      <c r="U99" s="511"/>
-      <c r="V99" s="511"/>
-      <c r="W99" s="511"/>
-      <c r="X99" s="511"/>
-      <c r="Y99" s="511"/>
-      <c r="Z99" s="511"/>
+      <c r="A99" s="498"/>
+      <c r="B99" s="498"/>
+      <c r="C99" s="498"/>
+      <c r="D99" s="498"/>
+      <c r="E99" s="498"/>
+      <c r="F99" s="498"/>
+      <c r="G99" s="498"/>
+      <c r="H99" s="498"/>
+      <c r="I99" s="498"/>
+      <c r="J99" s="498"/>
+      <c r="K99" s="498"/>
+      <c r="L99" s="498"/>
+      <c r="M99" s="498"/>
+      <c r="N99" s="498"/>
+      <c r="O99" s="498"/>
+      <c r="P99" s="498"/>
+      <c r="Q99" s="498"/>
+      <c r="R99" s="498"/>
+      <c r="S99" s="498"/>
+      <c r="T99" s="498"/>
+      <c r="U99" s="498"/>
+      <c r="V99" s="498"/>
+      <c r="W99" s="498"/>
+      <c r="X99" s="498"/>
+      <c r="Y99" s="498"/>
+      <c r="Z99" s="498"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10787,11 +10781,11 @@
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
-      <c r="F9" s="505" t="s">
+      <c r="F9" s="523" t="s">
         <v>238</v>
       </c>
-      <c r="G9" s="505"/>
-      <c r="H9" s="505"/>
+      <c r="G9" s="523"/>
+      <c r="H9" s="523"/>
       <c r="I9" s="270" t="s">
         <v>237</v>
       </c>
@@ -11298,7 +11292,7 @@
       <c r="F5" s="126">
         <v>10</v>
       </c>
-      <c r="G5" s="506" t="s">
+      <c r="G5" s="524" t="s">
         <v>149</v>
       </c>
       <c r="R5" s="217"/>
@@ -11323,7 +11317,7 @@
       <c r="F6" s="126">
         <v>10</v>
       </c>
-      <c r="G6" s="507"/>
+      <c r="G6" s="525"/>
       <c r="R6" s="217"/>
     </row>
     <row r="7" spans="2:18" ht="15">
@@ -11346,7 +11340,7 @@
       <c r="F7" s="126">
         <v>10</v>
       </c>
-      <c r="G7" s="507"/>
+      <c r="G7" s="525"/>
       <c r="R7" s="217"/>
     </row>
     <row r="8" spans="2:18" ht="15">
@@ -11369,7 +11363,7 @@
       <c r="F8" s="126">
         <v>10</v>
       </c>
-      <c r="G8" s="507"/>
+      <c r="G8" s="525"/>
       <c r="R8" s="217"/>
     </row>
     <row r="9" spans="2:18" ht="15">
@@ -11392,7 +11386,7 @@
       <c r="F9" s="126">
         <v>10</v>
       </c>
-      <c r="G9" s="507"/>
+      <c r="G9" s="525"/>
       <c r="R9" s="217"/>
     </row>
     <row r="10" spans="2:18" ht="15">
@@ -11415,7 +11409,7 @@
       <c r="F10" s="126">
         <v>10</v>
       </c>
-      <c r="G10" s="507"/>
+      <c r="G10" s="525"/>
       <c r="R10" s="217"/>
     </row>
     <row r="11" spans="2:18" ht="15">
@@ -11438,7 +11432,7 @@
       <c r="F11" s="126">
         <v>10</v>
       </c>
-      <c r="G11" s="507"/>
+      <c r="G11" s="525"/>
       <c r="R11" s="217"/>
     </row>
     <row r="12" spans="2:18" ht="15">
@@ -11461,7 +11455,7 @@
       <c r="F12" s="126">
         <v>10</v>
       </c>
-      <c r="G12" s="507"/>
+      <c r="G12" s="525"/>
       <c r="R12" s="217"/>
     </row>
     <row r="13" spans="2:18" ht="15">
@@ -11484,7 +11478,7 @@
       <c r="F13" s="126">
         <v>10</v>
       </c>
-      <c r="G13" s="507"/>
+      <c r="G13" s="525"/>
       <c r="R13" s="217"/>
     </row>
     <row r="14" spans="2:18" ht="15">
@@ -11507,7 +11501,7 @@
       <c r="F14" s="75">
         <v>10</v>
       </c>
-      <c r="G14" s="507"/>
+      <c r="G14" s="525"/>
       <c r="R14" s="217"/>
     </row>
     <row r="15" spans="2:18" ht="15">
@@ -11530,7 +11524,7 @@
       <c r="F15" s="126">
         <v>10</v>
       </c>
-      <c r="G15" s="507"/>
+      <c r="G15" s="525"/>
       <c r="R15" s="217"/>
     </row>
     <row r="16" spans="2:18" ht="15">
@@ -11553,7 +11547,7 @@
       <c r="F16" s="126">
         <v>10</v>
       </c>
-      <c r="G16" s="507"/>
+      <c r="G16" s="525"/>
       <c r="R16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15">
@@ -11576,7 +11570,7 @@
       <c r="F17" s="126">
         <v>10</v>
       </c>
-      <c r="G17" s="507"/>
+      <c r="G17" s="525"/>
       <c r="R17" s="217"/>
     </row>
     <row r="18" spans="2:18" ht="15">
@@ -11599,7 +11593,7 @@
       <c r="F18" s="126">
         <v>10</v>
       </c>
-      <c r="G18" s="507"/>
+      <c r="G18" s="525"/>
       <c r="R18" s="217"/>
     </row>
     <row r="19" spans="2:18" ht="15">
@@ -11622,7 +11616,7 @@
       <c r="F19" s="126">
         <v>10</v>
       </c>
-      <c r="G19" s="507"/>
+      <c r="G19" s="525"/>
       <c r="R19" s="217"/>
     </row>
     <row r="20" spans="2:18" ht="15">
@@ -11645,7 +11639,7 @@
       <c r="F20" s="126">
         <v>10</v>
       </c>
-      <c r="G20" s="507"/>
+      <c r="G20" s="525"/>
       <c r="R20" s="217"/>
     </row>
     <row r="21" spans="2:18">
@@ -11668,7 +11662,7 @@
       <c r="F21" s="126">
         <v>10</v>
       </c>
-      <c r="G21" s="507"/>
+      <c r="G21" s="525"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="31" t="str">
@@ -11690,7 +11684,7 @@
       <c r="F22" s="126">
         <v>10</v>
       </c>
-      <c r="G22" s="507"/>
+      <c r="G22" s="525"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="31" t="str">
@@ -11712,7 +11706,7 @@
       <c r="F23" s="126">
         <v>10</v>
       </c>
-      <c r="G23" s="507"/>
+      <c r="G23" s="525"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="69" t="str">
@@ -11734,7 +11728,7 @@
       <c r="F24" s="75">
         <v>10</v>
       </c>
-      <c r="G24" s="507"/>
+      <c r="G24" s="525"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="31" t="str">
@@ -11756,7 +11750,7 @@
       <c r="F25" s="126">
         <v>10</v>
       </c>
-      <c r="G25" s="507"/>
+      <c r="G25" s="525"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="31" t="str">
@@ -11778,7 +11772,7 @@
       <c r="F26" s="126">
         <v>10</v>
       </c>
-      <c r="G26" s="507"/>
+      <c r="G26" s="525"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="31" t="str">
@@ -11800,7 +11794,7 @@
       <c r="F27" s="126">
         <v>10</v>
       </c>
-      <c r="G27" s="507"/>
+      <c r="G27" s="525"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="31" t="str">
@@ -11822,7 +11816,7 @@
       <c r="F28" s="126">
         <v>10</v>
       </c>
-      <c r="G28" s="507"/>
+      <c r="G28" s="525"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="31" t="str">
@@ -11844,7 +11838,7 @@
       <c r="F29" s="126">
         <v>10</v>
       </c>
-      <c r="G29" s="507"/>
+      <c r="G29" s="525"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="31" t="str">
@@ -11866,7 +11860,7 @@
       <c r="F30" s="126">
         <v>10</v>
       </c>
-      <c r="G30" s="507"/>
+      <c r="G30" s="525"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="31" t="str">
@@ -11888,7 +11882,7 @@
       <c r="F31" s="126">
         <v>10</v>
       </c>
-      <c r="G31" s="507"/>
+      <c r="G31" s="525"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="31" t="str">
@@ -11910,7 +11904,7 @@
       <c r="F32" s="126">
         <v>10</v>
       </c>
-      <c r="G32" s="507"/>
+      <c r="G32" s="525"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="31" t="str">
@@ -11932,7 +11926,7 @@
       <c r="F33" s="126">
         <v>10</v>
       </c>
-      <c r="G33" s="507"/>
+      <c r="G33" s="525"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="69" t="str">
@@ -11954,7 +11948,7 @@
       <c r="F34" s="75">
         <v>10</v>
       </c>
-      <c r="G34" s="508"/>
+      <c r="G34" s="526"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="31"/>
@@ -12035,7 +12029,7 @@
   <dimension ref="B1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13040,20 +13034,20 @@
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
-      <c r="G7" s="505" t="s">
+      <c r="G7" s="523" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="505"/>
-      <c r="I7" s="505"/>
-      <c r="J7" s="505"/>
-      <c r="K7" s="505"/>
+      <c r="H7" s="523"/>
+      <c r="I7" s="523"/>
+      <c r="J7" s="523"/>
+      <c r="K7" s="523"/>
       <c r="L7" s="271" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="505" t="s">
+      <c r="M7" s="523" t="s">
         <v>235</v>
       </c>
-      <c r="N7" s="505"/>
+      <c r="N7" s="523"/>
       <c r="O7" s="50"/>
     </row>
     <row r="9" spans="2:20">
@@ -13802,10 +13796,10 @@
   </sheetPr>
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="D3" sqref="D3"/>
-      <selection pane="topRight" activeCell="R19" sqref="R19"/>
+      <selection pane="topRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13831,10 +13825,10 @@
       <c r="J1" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="509" t="s">
+      <c r="P1" s="527" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="509"/>
+      <c r="Q1" s="527"/>
     </row>
     <row r="2" spans="1:22">
       <c r="H2" s="86"/>
@@ -29306,20 +29300,20 @@
       <c r="D24" s="463"/>
       <c r="E24" s="463"/>
       <c r="F24" s="464"/>
-      <c r="G24" s="497" t="s">
+      <c r="G24" s="515" t="s">
         <v>543</v>
       </c>
-      <c r="H24" s="497"/>
-      <c r="I24" s="497"/>
-      <c r="J24" s="498"/>
-      <c r="K24" s="499" t="s">
+      <c r="H24" s="515"/>
+      <c r="I24" s="515"/>
+      <c r="J24" s="516"/>
+      <c r="K24" s="517" t="s">
         <v>544</v>
       </c>
-      <c r="L24" s="500"/>
-      <c r="M24" s="501" t="s">
+      <c r="L24" s="518"/>
+      <c r="M24" s="519" t="s">
         <v>545</v>
       </c>
-      <c r="N24" s="500"/>
+      <c r="N24" s="518"/>
       <c r="S24"/>
     </row>
     <row r="25" spans="3:21">
@@ -29962,20 +29956,20 @@
       <c r="D42" s="463"/>
       <c r="E42" s="463"/>
       <c r="F42" s="464"/>
-      <c r="G42" s="497" t="s">
+      <c r="G42" s="515" t="s">
         <v>543</v>
       </c>
-      <c r="H42" s="497"/>
-      <c r="I42" s="497"/>
-      <c r="J42" s="498"/>
-      <c r="K42" s="499" t="s">
+      <c r="H42" s="515"/>
+      <c r="I42" s="515"/>
+      <c r="J42" s="516"/>
+      <c r="K42" s="517" t="s">
         <v>544</v>
       </c>
-      <c r="L42" s="500"/>
-      <c r="M42" s="501" t="s">
+      <c r="L42" s="518"/>
+      <c r="M42" s="519" t="s">
         <v>577</v>
       </c>
-      <c r="N42" s="500"/>
+      <c r="N42" s="518"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="3:20">
@@ -31835,7 +31829,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K30" s="502" t="s">
+      <c r="K30" s="520" t="s">
         <v>121</v>
       </c>
       <c r="N30" s="185" t="s">
@@ -31891,7 +31885,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K31" s="503"/>
+      <c r="K31" s="521"/>
       <c r="M31" s="181"/>
       <c r="N31" s="213"/>
       <c r="O31" s="209"/>
@@ -31935,7 +31929,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K32" s="503"/>
+      <c r="K32" s="521"/>
       <c r="M32" s="174"/>
       <c r="N32" s="183"/>
       <c r="O32" s="183"/>
@@ -31980,7 +31974,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K33" s="503"/>
+      <c r="K33" s="521"/>
       <c r="M33" s="122"/>
     </row>
     <row r="34" spans="2:23">
@@ -32020,7 +32014,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K34" s="503"/>
+      <c r="K34" s="521"/>
       <c r="M34" s="122"/>
     </row>
     <row r="35" spans="2:23">
@@ -32060,7 +32054,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K35" s="503"/>
+      <c r="K35" s="521"/>
       <c r="M35" s="122"/>
     </row>
     <row r="36" spans="2:23">
@@ -32100,7 +32094,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K36" s="503"/>
+      <c r="K36" s="521"/>
       <c r="M36" s="122"/>
     </row>
     <row r="37" spans="2:23">
@@ -32140,7 +32134,7 @@
         <f>SUM($P$30:$Q$30)+$R$30*(Imports_Fossil!J$37/Imports_Fossil!$E$37)</f>
         <v>4.6910989010989006</v>
       </c>
-      <c r="K37" s="504"/>
+      <c r="K37" s="522"/>
       <c r="M37" s="122"/>
     </row>
     <row r="38" spans="2:23">
@@ -33410,12 +33404,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33565,15 +33556,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33597,17 +33599,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1EBC224-6025-40B6-954C-A60FF473B45B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F399E6-2CA4-4BC3-AE7C-3570BA9F00A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>